--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$1979</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$1989</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1979"/>
+  <dimension ref="A1:H1989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -54500,6 +54500,286 @@
         <v>0</v>
       </c>
       <c r="H1979" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1980">
+      <c r="A1980" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1980" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C1980" s="0">
+        <v>9970</v>
+      </c>
+      <c r="D1980" s="0">
+        <v>4.95502211619701E-02</v>
+      </c>
+      <c r="E1980" s="0">
+        <v>91</v>
+      </c>
+      <c r="F1980" s="0">
+        <v>5.63467492260062E-02</v>
+      </c>
+      <c r="G1980" s="0">
+        <v>5</v>
+      </c>
+      <c r="H1980" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1981">
+      <c r="A1981" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1981" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C1981" s="0">
+        <v>26885</v>
+      </c>
+      <c r="D1981" s="0">
+        <v>0.133616619452314</v>
+      </c>
+      <c r="E1981" s="0">
+        <v>231</v>
+      </c>
+      <c r="F1981" s="0">
+        <v>0.143034055727554</v>
+      </c>
+      <c r="G1981" s="0">
+        <v>1</v>
+      </c>
+      <c r="H1981" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1982">
+      <c r="A1982" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1982" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C1982" s="0">
+        <v>41734</v>
+      </c>
+      <c r="D1982" s="0">
+        <v>0.207415138412604</v>
+      </c>
+      <c r="E1982" s="0">
+        <v>252</v>
+      </c>
+      <c r="F1982" s="0">
+        <v>0.156037151702786</v>
+      </c>
+      <c r="G1982" s="0">
+        <v>19</v>
+      </c>
+      <c r="H1982" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1983">
+      <c r="A1983" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1983" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C1983" s="0">
+        <v>33336</v>
+      </c>
+      <c r="D1983" s="0">
+        <v>0.165677650216192</v>
+      </c>
+      <c r="E1983" s="0">
+        <v>223</v>
+      </c>
+      <c r="F1983" s="0">
+        <v>0.138080495356037</v>
+      </c>
+      <c r="G1983" s="0">
+        <v>38</v>
+      </c>
+      <c r="H1983" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1984">
+      <c r="A1984" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1984" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C1984" s="0">
+        <v>29947</v>
+      </c>
+      <c r="D1984" s="0">
+        <v>0.148834550966652</v>
+      </c>
+      <c r="E1984" s="0">
+        <v>235</v>
+      </c>
+      <c r="F1984" s="0">
+        <v>0.145510835913313</v>
+      </c>
+      <c r="G1984" s="0">
+        <v>108</v>
+      </c>
+      <c r="H1984" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1985">
+      <c r="A1985" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1985" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C1985" s="0">
+        <v>25957</v>
+      </c>
+      <c r="D1985" s="0">
+        <v>0.12900452263804</v>
+      </c>
+      <c r="E1985" s="0">
+        <v>241</v>
+      </c>
+      <c r="F1985" s="0">
+        <v>0.14922600619195</v>
+      </c>
+      <c r="G1985" s="0">
+        <v>260</v>
+      </c>
+      <c r="H1985" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1986">
+      <c r="A1986" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1986" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C1986" s="0">
+        <v>17496</v>
+      </c>
+      <c r="D1986" s="0">
+        <v>8.69539287311764E-02</v>
+      </c>
+      <c r="E1986" s="0">
+        <v>190</v>
+      </c>
+      <c r="F1986" s="0">
+        <v>0.117647058823529</v>
+      </c>
+      <c r="G1986" s="0">
+        <v>513</v>
+      </c>
+      <c r="H1986" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1987">
+      <c r="A1987" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1987" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C1987" s="0">
+        <v>10055</v>
+      </c>
+      <c r="D1987" s="0">
+        <v>4.99726653744844E-02</v>
+      </c>
+      <c r="E1987" s="0">
+        <v>110</v>
+      </c>
+      <c r="F1987" s="0">
+        <v>6.81114551083591E-02</v>
+      </c>
+      <c r="G1987" s="0">
+        <v>763</v>
+      </c>
+      <c r="H1987" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1988">
+      <c r="A1988" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1988" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C1988" s="0">
+        <v>5497</v>
+      </c>
+      <c r="D1988" s="0">
+        <v>2.73197157198946E-02</v>
+      </c>
+      <c r="E1988" s="0">
+        <v>61</v>
+      </c>
+      <c r="F1988" s="0">
+        <v>3.77708978328173E-02</v>
+      </c>
+      <c r="G1988" s="0">
+        <v>870</v>
+      </c>
+      <c r="H1988" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1989">
+      <c r="A1989" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1989" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C1989" s="0">
+        <v>333</v>
+      </c>
+      <c r="D1989" s="0">
+        <v>1.65498732667362E-03</v>
+      </c>
+      <c r="E1989" s="0">
+        <v>-19</v>
+      </c>
+      <c r="F1989" s="0">
+        <v>-1.17647058823529E-02</v>
+      </c>
+      <c r="G1989" s="0">
+        <v>0</v>
+      </c>
+      <c r="H1989" s="0">
         <v>0</v>
       </c>
     </row>
@@ -54932,11 +55212,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-737</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-748</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-737</Url>
-      <Description>HJYU5V3E37X6-122305290-737</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-748</Url>
+      <Description>HJYU5V3E37X6-122305290-748</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -54959,17 +55239,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C102EB0E-CDCC-4AA4-BC2A-066E99931303}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5ED827D-E7D0-479C-852A-35BB0C75FF78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70FD1DF4-FADE-475C-B3D5-E9F0ED828D4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24AD9DE8-0947-464C-8339-5E7710FF4583}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCF3C4FF-6E61-40C2-808C-CCAD28AB5AF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EBC88B3-1EA7-472F-8AB9-07C3253A997C}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB950C9-C636-4D2F-9C9D-953A6F554176}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDA6347E-821D-4D1C-9954-AA467C60DC4D}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$1989</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$1999</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1989"/>
+  <dimension ref="A1:H1999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -54780,6 +54780,286 @@
         <v>0</v>
       </c>
       <c r="H1989" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1990">
+      <c r="A1990" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1990" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C1990" s="0">
+        <v>10112</v>
+      </c>
+      <c r="D1990" s="0">
+        <v>4.96418735487165E-02</v>
+      </c>
+      <c r="E1990" s="0">
+        <v>142</v>
+      </c>
+      <c r="F1990" s="0">
+        <v>5.70510245078345E-02</v>
+      </c>
+      <c r="G1990" s="0">
+        <v>5</v>
+      </c>
+      <c r="H1990" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1991">
+      <c r="A1991" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1991" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C1991" s="0">
+        <v>27241</v>
+      </c>
+      <c r="D1991" s="0">
+        <v>0.133731633439536</v>
+      </c>
+      <c r="E1991" s="0">
+        <v>356</v>
+      </c>
+      <c r="F1991" s="0">
+        <v>0.14302932904781</v>
+      </c>
+      <c r="G1991" s="0">
+        <v>1</v>
+      </c>
+      <c r="H1991" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1992">
+      <c r="A1992" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1992" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C1992" s="0">
+        <v>42162</v>
+      </c>
+      <c r="D1992" s="0">
+        <v>0.206981870308642</v>
+      </c>
+      <c r="E1992" s="0">
+        <v>428</v>
+      </c>
+      <c r="F1992" s="0">
+        <v>0.171956609079952</v>
+      </c>
+      <c r="G1992" s="0">
+        <v>19</v>
+      </c>
+      <c r="H1992" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1993">
+      <c r="A1993" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1993" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C1993" s="0">
+        <v>33643</v>
+      </c>
+      <c r="D1993" s="0">
+        <v>0.165160359157384</v>
+      </c>
+      <c r="E1993" s="0">
+        <v>307</v>
+      </c>
+      <c r="F1993" s="0">
+        <v>0.123342707914825</v>
+      </c>
+      <c r="G1993" s="0">
+        <v>38</v>
+      </c>
+      <c r="H1993" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1994">
+      <c r="A1994" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1994" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C1994" s="0">
+        <v>30279</v>
+      </c>
+      <c r="D1994" s="0">
+        <v>0.148645796002926</v>
+      </c>
+      <c r="E1994" s="0">
+        <v>332</v>
+      </c>
+      <c r="F1994" s="0">
+        <v>0.13338690237043</v>
+      </c>
+      <c r="G1994" s="0">
+        <v>108</v>
+      </c>
+      <c r="H1994" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1995">
+      <c r="A1995" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1995" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C1995" s="0">
+        <v>26314</v>
+      </c>
+      <c r="D1995" s="0">
+        <v>0.129180801083952</v>
+      </c>
+      <c r="E1995" s="0">
+        <v>357</v>
+      </c>
+      <c r="F1995" s="0">
+        <v>0.143431096826035</v>
+      </c>
+      <c r="G1995" s="0">
+        <v>261</v>
+      </c>
+      <c r="H1995" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1996">
+      <c r="A1996" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1996" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C1996" s="0">
+        <v>17772</v>
+      </c>
+      <c r="D1996" s="0">
+        <v>0.087246378234552</v>
+      </c>
+      <c r="E1996" s="0">
+        <v>276</v>
+      </c>
+      <c r="F1996" s="0">
+        <v>0.110887906789875</v>
+      </c>
+      <c r="G1996" s="0">
+        <v>518</v>
+      </c>
+      <c r="H1996" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1997">
+      <c r="A1997" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1997" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C1997" s="0">
+        <v>10242</v>
+      </c>
+      <c r="D1997" s="0">
+        <v>5.02800701034369E-02</v>
+      </c>
+      <c r="E1997" s="0">
+        <v>187</v>
+      </c>
+      <c r="F1997" s="0">
+        <v>7.51305745279229E-02</v>
+      </c>
+      <c r="G1997" s="0">
+        <v>770</v>
+      </c>
+      <c r="H1997" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1998">
+      <c r="A1998" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1998" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C1998" s="0">
+        <v>5595</v>
+      </c>
+      <c r="D1998" s="0">
+        <v>2.74669978743146E-02</v>
+      </c>
+      <c r="E1998" s="0">
+        <v>98</v>
+      </c>
+      <c r="F1998" s="0">
+        <v>3.93732422659703E-02</v>
+      </c>
+      <c r="G1998" s="0">
+        <v>877</v>
+      </c>
+      <c r="H1998" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1999">
+      <c r="A1999" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1999" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C1999" s="0">
+        <v>339</v>
+      </c>
+      <c r="D1999" s="0">
+        <v>1.66422024654024E-03</v>
+      </c>
+      <c r="E1999" s="0">
+        <v>6</v>
+      </c>
+      <c r="F1999" s="0">
+        <v>2.41060666934512E-03</v>
+      </c>
+      <c r="G1999" s="0">
+        <v>0</v>
+      </c>
+      <c r="H1999" s="0">
         <v>0</v>
       </c>
     </row>
@@ -55212,11 +55492,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-748</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-767</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-748</Url>
-      <Description>HJYU5V3E37X6-122305290-748</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-767</Url>
+      <Description>HJYU5V3E37X6-122305290-767</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -55239,17 +55519,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5ED827D-E7D0-479C-852A-35BB0C75FF78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{189AEE34-E1F8-4FF9-A9E3-D656E295812B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24AD9DE8-0947-464C-8339-5E7710FF4583}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A1DFF7F-B4BC-4ABE-83E1-9093783AA707}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EBC88B3-1EA7-472F-8AB9-07C3253A997C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D706061-A3D8-4BFF-B3E8-378D6F9F882D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDA6347E-821D-4D1C-9954-AA467C60DC4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED8A70C0-0DC5-423E-8C68-BD7972C699F7}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$1999</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2009</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1999"/>
+  <dimension ref="A1:H2009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -55060,6 +55060,286 @@
         <v>0</v>
       </c>
       <c r="H1999" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2000">
+      <c r="A2000" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2000" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2000" s="0">
+        <v>10181</v>
+      </c>
+      <c r="D2000" s="0">
+        <v>0.049572732805843</v>
+      </c>
+      <c r="E2000" s="0">
+        <v>69</v>
+      </c>
+      <c r="F2000" s="0">
+        <v>4.11694510739857E-02</v>
+      </c>
+      <c r="G2000" s="0">
+        <v>6</v>
+      </c>
+      <c r="H2000" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2001">
+      <c r="A2001" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2001" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2001" s="0">
+        <v>27436</v>
+      </c>
+      <c r="D2001" s="0">
+        <v>0.133589774802191</v>
+      </c>
+      <c r="E2001" s="0">
+        <v>195</v>
+      </c>
+      <c r="F2001" s="0">
+        <v>0.116348448687351</v>
+      </c>
+      <c r="G2001" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2001" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2002">
+      <c r="A2002" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2002" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2002" s="0">
+        <v>42463</v>
+      </c>
+      <c r="D2002" s="0">
+        <v>0.206758368837492</v>
+      </c>
+      <c r="E2002" s="0">
+        <v>301</v>
+      </c>
+      <c r="F2002" s="0">
+        <v>0.179594272076372</v>
+      </c>
+      <c r="G2002" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2002" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2003">
+      <c r="A2003" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2003" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2003" s="0">
+        <v>33899</v>
+      </c>
+      <c r="D2003" s="0">
+        <v>0.165059038344492</v>
+      </c>
+      <c r="E2003" s="0">
+        <v>256</v>
+      </c>
+      <c r="F2003" s="0">
+        <v>0.152744630071599</v>
+      </c>
+      <c r="G2003" s="0">
+        <v>38</v>
+      </c>
+      <c r="H2003" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2004">
+      <c r="A2004" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2004" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2004" s="0">
+        <v>30520</v>
+      </c>
+      <c r="D2004" s="0">
+        <v>0.148606208155813</v>
+      </c>
+      <c r="E2004" s="0">
+        <v>241</v>
+      </c>
+      <c r="F2004" s="0">
+        <v>0.143794749403341</v>
+      </c>
+      <c r="G2004" s="0">
+        <v>108</v>
+      </c>
+      <c r="H2004" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2005">
+      <c r="A2005" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2005" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2005" s="0">
+        <v>26557</v>
+      </c>
+      <c r="D2005" s="0">
+        <v>0.1293097991479</v>
+      </c>
+      <c r="E2005" s="0">
+        <v>243</v>
+      </c>
+      <c r="F2005" s="0">
+        <v>0.144988066825776</v>
+      </c>
+      <c r="G2005" s="0">
+        <v>264</v>
+      </c>
+      <c r="H2005" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2006">
+      <c r="A2006" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2006" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2006" s="0">
+        <v>17952</v>
+      </c>
+      <c r="D2006" s="0">
+        <v>8.74108338405356E-02</v>
+      </c>
+      <c r="E2006" s="0">
+        <v>180</v>
+      </c>
+      <c r="F2006" s="0">
+        <v>0.107398568019093</v>
+      </c>
+      <c r="G2006" s="0">
+        <v>520</v>
+      </c>
+      <c r="H2006" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2007">
+      <c r="A2007" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2007" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2007" s="0">
+        <v>10370</v>
+      </c>
+      <c r="D2007" s="0">
+        <v>5.04930006086427E-02</v>
+      </c>
+      <c r="E2007" s="0">
+        <v>128</v>
+      </c>
+      <c r="F2007" s="0">
+        <v>7.63723150357995E-02</v>
+      </c>
+      <c r="G2007" s="0">
+        <v>778</v>
+      </c>
+      <c r="H2007" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2008">
+      <c r="A2008" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2008" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2008" s="0">
+        <v>5671</v>
+      </c>
+      <c r="D2008" s="0">
+        <v>2.76129032258065E-02</v>
+      </c>
+      <c r="E2008" s="0">
+        <v>76</v>
+      </c>
+      <c r="F2008" s="0">
+        <v>0.045346062052506</v>
+      </c>
+      <c r="G2008" s="0">
+        <v>887</v>
+      </c>
+      <c r="H2008" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2009">
+      <c r="A2009" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2009" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2009" s="0">
+        <v>326</v>
+      </c>
+      <c r="D2009" s="0">
+        <v>1.58734023128424E-03</v>
+      </c>
+      <c r="E2009" s="0">
+        <v>-13</v>
+      </c>
+      <c r="F2009" s="0">
+        <v>-7.75656324582339E-03</v>
+      </c>
+      <c r="G2009" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2009" s="0">
         <v>0</v>
       </c>
     </row>
@@ -55491,13 +55771,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-767</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-767</Url>
-      <Description>HJYU5V3E37X6-122305290-767</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -55512,24 +55785,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-773</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-773</Url>
+      <Description>HJYU5V3E37X6-122305290-773</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{189AEE34-E1F8-4FF9-A9E3-D656E295812B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{279B6548-5DFD-4AA2-8A87-B4E45B4FBB90}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A1DFF7F-B4BC-4ABE-83E1-9093783AA707}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670BC0FF-F22D-4D7E-896D-306073EE4DE3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D706061-A3D8-4BFF-B3E8-378D6F9F882D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC565563-0258-49E5-9D3D-1585337CD384}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED8A70C0-0DC5-423E-8C68-BD7972C699F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73FA42DF-142A-4C55-8023-63BAD999BA9B}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$1959</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2009</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1959"/>
+  <dimension ref="A1:H2009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -53940,6 +53940,1406 @@
         <v>0</v>
       </c>
       <c r="H1959" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1960">
+      <c r="A1960" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B1960" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C1960" s="0">
+        <v>9807</v>
+      </c>
+      <c r="D1960" s="0">
+        <v>4.94296961235465E-02</v>
+      </c>
+      <c r="E1960" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1960" s="0">
+        <v>8.54788877445932E-02</v>
+      </c>
+      <c r="G1960" s="0">
+        <v>5</v>
+      </c>
+      <c r="H1960" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1961">
+      <c r="A1961" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B1961" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C1961" s="0">
+        <v>26497</v>
+      </c>
+      <c r="D1961" s="0">
+        <v>0.133551407992823</v>
+      </c>
+      <c r="E1961" s="0">
+        <v>147</v>
+      </c>
+      <c r="F1961" s="0">
+        <v>0.151390319258496</v>
+      </c>
+      <c r="G1961" s="0">
+        <v>2</v>
+      </c>
+      <c r="H1961" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1962">
+      <c r="A1962" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B1962" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C1962" s="0">
+        <v>41277</v>
+      </c>
+      <c r="D1962" s="0">
+        <v>0.208046249300666</v>
+      </c>
+      <c r="E1962" s="0">
+        <v>136</v>
+      </c>
+      <c r="F1962" s="0">
+        <v>0.140061791967044</v>
+      </c>
+      <c r="G1962" s="0">
+        <v>19</v>
+      </c>
+      <c r="H1962" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1963">
+      <c r="A1963" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B1963" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C1963" s="0">
+        <v>32958</v>
+      </c>
+      <c r="D1963" s="0">
+        <v>0.166116439771576</v>
+      </c>
+      <c r="E1963" s="0">
+        <v>150</v>
+      </c>
+      <c r="F1963" s="0">
+        <v>0.154479917610711</v>
+      </c>
+      <c r="G1963" s="0">
+        <v>37</v>
+      </c>
+      <c r="H1963" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1964">
+      <c r="A1964" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B1964" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C1964" s="0">
+        <v>29544</v>
+      </c>
+      <c r="D1964" s="0">
+        <v>0.14890903867381</v>
+      </c>
+      <c r="E1964" s="0">
+        <v>115</v>
+      </c>
+      <c r="F1964" s="0">
+        <v>0.118434603501545</v>
+      </c>
+      <c r="G1964" s="0">
+        <v>107</v>
+      </c>
+      <c r="H1964" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1965">
+      <c r="A1965" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B1965" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C1965" s="0">
+        <v>25564</v>
+      </c>
+      <c r="D1965" s="0">
+        <v>0.128848858132185</v>
+      </c>
+      <c r="E1965" s="0">
+        <v>144</v>
+      </c>
+      <c r="F1965" s="0">
+        <v>0.148300720906282</v>
+      </c>
+      <c r="G1965" s="0">
+        <v>253</v>
+      </c>
+      <c r="H1965" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1966">
+      <c r="A1966" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B1966" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C1966" s="0">
+        <v>17188</v>
+      </c>
+      <c r="D1966" s="0">
+        <v>8.66317545601629E-02</v>
+      </c>
+      <c r="E1966" s="0">
+        <v>117</v>
+      </c>
+      <c r="F1966" s="0">
+        <v>0.120494335736354</v>
+      </c>
+      <c r="G1966" s="0">
+        <v>500</v>
+      </c>
+      <c r="H1966" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1967">
+      <c r="A1967" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B1967" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C1967" s="0">
+        <v>9869</v>
+      </c>
+      <c r="D1967" s="0">
+        <v>4.97421913983156E-02</v>
+      </c>
+      <c r="E1967" s="0">
+        <v>63</v>
+      </c>
+      <c r="F1967" s="0">
+        <v>6.48815653964985E-02</v>
+      </c>
+      <c r="G1967" s="0">
+        <v>750</v>
+      </c>
+      <c r="H1967" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1968">
+      <c r="A1968" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B1968" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C1968" s="0">
+        <v>5398</v>
+      </c>
+      <c r="D1968" s="0">
+        <v>2.72072498903746E-02</v>
+      </c>
+      <c r="E1968" s="0">
+        <v>41</v>
+      </c>
+      <c r="F1968" s="0">
+        <v>4.22245108135942E-02</v>
+      </c>
+      <c r="G1968" s="0">
+        <v>842</v>
+      </c>
+      <c r="H1968" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1969">
+      <c r="A1969" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B1969" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C1969" s="0">
+        <v>301</v>
+      </c>
+      <c r="D1969" s="0">
+        <v>1.51711415653997E-03</v>
+      </c>
+      <c r="E1969" s="0">
+        <v>-25</v>
+      </c>
+      <c r="F1969" s="0">
+        <v>-2.57466529351184E-02</v>
+      </c>
+      <c r="G1969" s="0">
+        <v>0</v>
+      </c>
+      <c r="H1969" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1970">
+      <c r="A1970" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B1970" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C1970" s="0">
+        <v>9879</v>
+      </c>
+      <c r="D1970" s="0">
+        <v>4.94952278363686E-02</v>
+      </c>
+      <c r="E1970" s="0">
+        <v>72</v>
+      </c>
+      <c r="F1970" s="0">
+        <v>6.04026845637584E-02</v>
+      </c>
+      <c r="G1970" s="0">
+        <v>5</v>
+      </c>
+      <c r="H1970" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1971">
+      <c r="A1971" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B1971" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C1971" s="0">
+        <v>26654</v>
+      </c>
+      <c r="D1971" s="0">
+        <v>0.133540419349182</v>
+      </c>
+      <c r="E1971" s="0">
+        <v>157</v>
+      </c>
+      <c r="F1971" s="0">
+        <v>0.131711409395973</v>
+      </c>
+      <c r="G1971" s="0">
+        <v>1</v>
+      </c>
+      <c r="H1971" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1972">
+      <c r="A1972" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B1972" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C1972" s="0">
+        <v>41482</v>
+      </c>
+      <c r="D1972" s="0">
+        <v>0.20783085748641</v>
+      </c>
+      <c r="E1972" s="0">
+        <v>205</v>
+      </c>
+      <c r="F1972" s="0">
+        <v>0.171979865771812</v>
+      </c>
+      <c r="G1972" s="0">
+        <v>19</v>
+      </c>
+      <c r="H1972" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1973">
+      <c r="A1973" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B1973" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C1973" s="0">
+        <v>33113</v>
+      </c>
+      <c r="D1973" s="0">
+        <v>0.165900949422581</v>
+      </c>
+      <c r="E1973" s="0">
+        <v>155</v>
+      </c>
+      <c r="F1973" s="0">
+        <v>0.13003355704698</v>
+      </c>
+      <c r="G1973" s="0">
+        <v>38</v>
+      </c>
+      <c r="H1973" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1974">
+      <c r="A1974" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B1974" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C1974" s="0">
+        <v>29712</v>
+      </c>
+      <c r="D1974" s="0">
+        <v>0.148861444424961</v>
+      </c>
+      <c r="E1974" s="0">
+        <v>168</v>
+      </c>
+      <c r="F1974" s="0">
+        <v>0.140939597315436</v>
+      </c>
+      <c r="G1974" s="0">
+        <v>107</v>
+      </c>
+      <c r="H1974" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1975">
+      <c r="A1975" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B1975" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C1975" s="0">
+        <v>25716</v>
+      </c>
+      <c r="D1975" s="0">
+        <v>0.128840902828227</v>
+      </c>
+      <c r="E1975" s="0">
+        <v>152</v>
+      </c>
+      <c r="F1975" s="0">
+        <v>0.12751677852349</v>
+      </c>
+      <c r="G1975" s="0">
+        <v>258</v>
+      </c>
+      <c r="H1975" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1976">
+      <c r="A1976" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B1976" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C1976" s="0">
+        <v>17306</v>
+      </c>
+      <c r="D1976" s="0">
+        <v>8.67055787970641E-02</v>
+      </c>
+      <c r="E1976" s="0">
+        <v>118</v>
+      </c>
+      <c r="F1976" s="0">
+        <v>0.098993288590604</v>
+      </c>
+      <c r="G1976" s="0">
+        <v>510</v>
+      </c>
+      <c r="H1976" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1977">
+      <c r="A1977" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B1977" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C1977" s="0">
+        <v>9945</v>
+      </c>
+      <c r="D1977" s="0">
+        <v>4.98258974423207E-02</v>
+      </c>
+      <c r="E1977" s="0">
+        <v>76</v>
+      </c>
+      <c r="F1977" s="0">
+        <v>0.063758389261745</v>
+      </c>
+      <c r="G1977" s="0">
+        <v>758</v>
+      </c>
+      <c r="H1977" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1978">
+      <c r="A1978" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B1978" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C1978" s="0">
+        <v>5436</v>
+      </c>
+      <c r="D1978" s="0">
+        <v>2.72351511811418E-02</v>
+      </c>
+      <c r="E1978" s="0">
+        <v>38</v>
+      </c>
+      <c r="F1978" s="0">
+        <v>3.18791946308725E-02</v>
+      </c>
+      <c r="G1978" s="0">
+        <v>864</v>
+      </c>
+      <c r="H1978" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1979">
+      <c r="A1979" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B1979" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C1979" s="0">
+        <v>352</v>
+      </c>
+      <c r="D1979" s="0">
+        <v>1.76357123174428E-03</v>
+      </c>
+      <c r="E1979" s="0">
+        <v>51</v>
+      </c>
+      <c r="F1979" s="0">
+        <v>4.27852348993289E-02</v>
+      </c>
+      <c r="G1979" s="0">
+        <v>0</v>
+      </c>
+      <c r="H1979" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1980">
+      <c r="A1980" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1980" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C1980" s="0">
+        <v>9970</v>
+      </c>
+      <c r="D1980" s="0">
+        <v>4.95502211619701E-02</v>
+      </c>
+      <c r="E1980" s="0">
+        <v>91</v>
+      </c>
+      <c r="F1980" s="0">
+        <v>5.63467492260062E-02</v>
+      </c>
+      <c r="G1980" s="0">
+        <v>5</v>
+      </c>
+      <c r="H1980" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1981">
+      <c r="A1981" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1981" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C1981" s="0">
+        <v>26885</v>
+      </c>
+      <c r="D1981" s="0">
+        <v>0.133616619452314</v>
+      </c>
+      <c r="E1981" s="0">
+        <v>231</v>
+      </c>
+      <c r="F1981" s="0">
+        <v>0.143034055727554</v>
+      </c>
+      <c r="G1981" s="0">
+        <v>1</v>
+      </c>
+      <c r="H1981" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1982">
+      <c r="A1982" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1982" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C1982" s="0">
+        <v>41734</v>
+      </c>
+      <c r="D1982" s="0">
+        <v>0.207415138412604</v>
+      </c>
+      <c r="E1982" s="0">
+        <v>252</v>
+      </c>
+      <c r="F1982" s="0">
+        <v>0.156037151702786</v>
+      </c>
+      <c r="G1982" s="0">
+        <v>19</v>
+      </c>
+      <c r="H1982" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1983">
+      <c r="A1983" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1983" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C1983" s="0">
+        <v>33336</v>
+      </c>
+      <c r="D1983" s="0">
+        <v>0.165677650216192</v>
+      </c>
+      <c r="E1983" s="0">
+        <v>223</v>
+      </c>
+      <c r="F1983" s="0">
+        <v>0.138080495356037</v>
+      </c>
+      <c r="G1983" s="0">
+        <v>38</v>
+      </c>
+      <c r="H1983" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1984">
+      <c r="A1984" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1984" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C1984" s="0">
+        <v>29947</v>
+      </c>
+      <c r="D1984" s="0">
+        <v>0.148834550966652</v>
+      </c>
+      <c r="E1984" s="0">
+        <v>235</v>
+      </c>
+      <c r="F1984" s="0">
+        <v>0.145510835913313</v>
+      </c>
+      <c r="G1984" s="0">
+        <v>108</v>
+      </c>
+      <c r="H1984" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1985">
+      <c r="A1985" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1985" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C1985" s="0">
+        <v>25957</v>
+      </c>
+      <c r="D1985" s="0">
+        <v>0.12900452263804</v>
+      </c>
+      <c r="E1985" s="0">
+        <v>241</v>
+      </c>
+      <c r="F1985" s="0">
+        <v>0.14922600619195</v>
+      </c>
+      <c r="G1985" s="0">
+        <v>260</v>
+      </c>
+      <c r="H1985" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1986">
+      <c r="A1986" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1986" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C1986" s="0">
+        <v>17496</v>
+      </c>
+      <c r="D1986" s="0">
+        <v>8.69539287311764E-02</v>
+      </c>
+      <c r="E1986" s="0">
+        <v>190</v>
+      </c>
+      <c r="F1986" s="0">
+        <v>0.117647058823529</v>
+      </c>
+      <c r="G1986" s="0">
+        <v>513</v>
+      </c>
+      <c r="H1986" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1987">
+      <c r="A1987" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1987" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C1987" s="0">
+        <v>10055</v>
+      </c>
+      <c r="D1987" s="0">
+        <v>4.99726653744844E-02</v>
+      </c>
+      <c r="E1987" s="0">
+        <v>110</v>
+      </c>
+      <c r="F1987" s="0">
+        <v>6.81114551083591E-02</v>
+      </c>
+      <c r="G1987" s="0">
+        <v>763</v>
+      </c>
+      <c r="H1987" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1988">
+      <c r="A1988" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1988" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C1988" s="0">
+        <v>5497</v>
+      </c>
+      <c r="D1988" s="0">
+        <v>2.73197157198946E-02</v>
+      </c>
+      <c r="E1988" s="0">
+        <v>61</v>
+      </c>
+      <c r="F1988" s="0">
+        <v>3.77708978328173E-02</v>
+      </c>
+      <c r="G1988" s="0">
+        <v>870</v>
+      </c>
+      <c r="H1988" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1989">
+      <c r="A1989" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B1989" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C1989" s="0">
+        <v>333</v>
+      </c>
+      <c r="D1989" s="0">
+        <v>1.65498732667362E-03</v>
+      </c>
+      <c r="E1989" s="0">
+        <v>-19</v>
+      </c>
+      <c r="F1989" s="0">
+        <v>-1.17647058823529E-02</v>
+      </c>
+      <c r="G1989" s="0">
+        <v>0</v>
+      </c>
+      <c r="H1989" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1990">
+      <c r="A1990" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1990" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C1990" s="0">
+        <v>10112</v>
+      </c>
+      <c r="D1990" s="0">
+        <v>4.96418735487165E-02</v>
+      </c>
+      <c r="E1990" s="0">
+        <v>142</v>
+      </c>
+      <c r="F1990" s="0">
+        <v>5.70510245078345E-02</v>
+      </c>
+      <c r="G1990" s="0">
+        <v>5</v>
+      </c>
+      <c r="H1990" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1991">
+      <c r="A1991" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1991" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C1991" s="0">
+        <v>27241</v>
+      </c>
+      <c r="D1991" s="0">
+        <v>0.133731633439536</v>
+      </c>
+      <c r="E1991" s="0">
+        <v>356</v>
+      </c>
+      <c r="F1991" s="0">
+        <v>0.14302932904781</v>
+      </c>
+      <c r="G1991" s="0">
+        <v>1</v>
+      </c>
+      <c r="H1991" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1992">
+      <c r="A1992" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1992" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C1992" s="0">
+        <v>42162</v>
+      </c>
+      <c r="D1992" s="0">
+        <v>0.206981870308642</v>
+      </c>
+      <c r="E1992" s="0">
+        <v>428</v>
+      </c>
+      <c r="F1992" s="0">
+        <v>0.171956609079952</v>
+      </c>
+      <c r="G1992" s="0">
+        <v>19</v>
+      </c>
+      <c r="H1992" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1993">
+      <c r="A1993" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1993" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C1993" s="0">
+        <v>33643</v>
+      </c>
+      <c r="D1993" s="0">
+        <v>0.165160359157384</v>
+      </c>
+      <c r="E1993" s="0">
+        <v>307</v>
+      </c>
+      <c r="F1993" s="0">
+        <v>0.123342707914825</v>
+      </c>
+      <c r="G1993" s="0">
+        <v>38</v>
+      </c>
+      <c r="H1993" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1994">
+      <c r="A1994" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1994" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C1994" s="0">
+        <v>30279</v>
+      </c>
+      <c r="D1994" s="0">
+        <v>0.148645796002926</v>
+      </c>
+      <c r="E1994" s="0">
+        <v>332</v>
+      </c>
+      <c r="F1994" s="0">
+        <v>0.13338690237043</v>
+      </c>
+      <c r="G1994" s="0">
+        <v>108</v>
+      </c>
+      <c r="H1994" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1995">
+      <c r="A1995" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1995" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C1995" s="0">
+        <v>26314</v>
+      </c>
+      <c r="D1995" s="0">
+        <v>0.129180801083952</v>
+      </c>
+      <c r="E1995" s="0">
+        <v>357</v>
+      </c>
+      <c r="F1995" s="0">
+        <v>0.143431096826035</v>
+      </c>
+      <c r="G1995" s="0">
+        <v>261</v>
+      </c>
+      <c r="H1995" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1996">
+      <c r="A1996" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1996" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C1996" s="0">
+        <v>17772</v>
+      </c>
+      <c r="D1996" s="0">
+        <v>0.087246378234552</v>
+      </c>
+      <c r="E1996" s="0">
+        <v>276</v>
+      </c>
+      <c r="F1996" s="0">
+        <v>0.110887906789875</v>
+      </c>
+      <c r="G1996" s="0">
+        <v>518</v>
+      </c>
+      <c r="H1996" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1997">
+      <c r="A1997" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1997" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C1997" s="0">
+        <v>10242</v>
+      </c>
+      <c r="D1997" s="0">
+        <v>5.02800701034369E-02</v>
+      </c>
+      <c r="E1997" s="0">
+        <v>187</v>
+      </c>
+      <c r="F1997" s="0">
+        <v>7.51305745279229E-02</v>
+      </c>
+      <c r="G1997" s="0">
+        <v>770</v>
+      </c>
+      <c r="H1997" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1998">
+      <c r="A1998" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1998" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C1998" s="0">
+        <v>5595</v>
+      </c>
+      <c r="D1998" s="0">
+        <v>2.74669978743146E-02</v>
+      </c>
+      <c r="E1998" s="0">
+        <v>98</v>
+      </c>
+      <c r="F1998" s="0">
+        <v>3.93732422659703E-02</v>
+      </c>
+      <c r="G1998" s="0">
+        <v>877</v>
+      </c>
+      <c r="H1998" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1999">
+      <c r="A1999" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B1999" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C1999" s="0">
+        <v>339</v>
+      </c>
+      <c r="D1999" s="0">
+        <v>1.66422024654024E-03</v>
+      </c>
+      <c r="E1999" s="0">
+        <v>6</v>
+      </c>
+      <c r="F1999" s="0">
+        <v>2.41060666934512E-03</v>
+      </c>
+      <c r="G1999" s="0">
+        <v>0</v>
+      </c>
+      <c r="H1999" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2000">
+      <c r="A2000" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2000" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2000" s="0">
+        <v>10181</v>
+      </c>
+      <c r="D2000" s="0">
+        <v>0.049572732805843</v>
+      </c>
+      <c r="E2000" s="0">
+        <v>69</v>
+      </c>
+      <c r="F2000" s="0">
+        <v>4.11694510739857E-02</v>
+      </c>
+      <c r="G2000" s="0">
+        <v>6</v>
+      </c>
+      <c r="H2000" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2001">
+      <c r="A2001" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2001" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2001" s="0">
+        <v>27436</v>
+      </c>
+      <c r="D2001" s="0">
+        <v>0.133589774802191</v>
+      </c>
+      <c r="E2001" s="0">
+        <v>195</v>
+      </c>
+      <c r="F2001" s="0">
+        <v>0.116348448687351</v>
+      </c>
+      <c r="G2001" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2001" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2002">
+      <c r="A2002" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2002" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2002" s="0">
+        <v>42463</v>
+      </c>
+      <c r="D2002" s="0">
+        <v>0.206758368837492</v>
+      </c>
+      <c r="E2002" s="0">
+        <v>301</v>
+      </c>
+      <c r="F2002" s="0">
+        <v>0.179594272076372</v>
+      </c>
+      <c r="G2002" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2002" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2003">
+      <c r="A2003" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2003" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2003" s="0">
+        <v>33899</v>
+      </c>
+      <c r="D2003" s="0">
+        <v>0.165059038344492</v>
+      </c>
+      <c r="E2003" s="0">
+        <v>256</v>
+      </c>
+      <c r="F2003" s="0">
+        <v>0.152744630071599</v>
+      </c>
+      <c r="G2003" s="0">
+        <v>38</v>
+      </c>
+      <c r="H2003" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2004">
+      <c r="A2004" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2004" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2004" s="0">
+        <v>30520</v>
+      </c>
+      <c r="D2004" s="0">
+        <v>0.148606208155813</v>
+      </c>
+      <c r="E2004" s="0">
+        <v>241</v>
+      </c>
+      <c r="F2004" s="0">
+        <v>0.143794749403341</v>
+      </c>
+      <c r="G2004" s="0">
+        <v>108</v>
+      </c>
+      <c r="H2004" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2005">
+      <c r="A2005" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2005" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2005" s="0">
+        <v>26557</v>
+      </c>
+      <c r="D2005" s="0">
+        <v>0.1293097991479</v>
+      </c>
+      <c r="E2005" s="0">
+        <v>243</v>
+      </c>
+      <c r="F2005" s="0">
+        <v>0.144988066825776</v>
+      </c>
+      <c r="G2005" s="0">
+        <v>264</v>
+      </c>
+      <c r="H2005" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2006">
+      <c r="A2006" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2006" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2006" s="0">
+        <v>17952</v>
+      </c>
+      <c r="D2006" s="0">
+        <v>8.74108338405356E-02</v>
+      </c>
+      <c r="E2006" s="0">
+        <v>180</v>
+      </c>
+      <c r="F2006" s="0">
+        <v>0.107398568019093</v>
+      </c>
+      <c r="G2006" s="0">
+        <v>520</v>
+      </c>
+      <c r="H2006" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2007">
+      <c r="A2007" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2007" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2007" s="0">
+        <v>10370</v>
+      </c>
+      <c r="D2007" s="0">
+        <v>5.04930006086427E-02</v>
+      </c>
+      <c r="E2007" s="0">
+        <v>128</v>
+      </c>
+      <c r="F2007" s="0">
+        <v>7.63723150357995E-02</v>
+      </c>
+      <c r="G2007" s="0">
+        <v>778</v>
+      </c>
+      <c r="H2007" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2008">
+      <c r="A2008" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2008" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2008" s="0">
+        <v>5671</v>
+      </c>
+      <c r="D2008" s="0">
+        <v>2.76129032258065E-02</v>
+      </c>
+      <c r="E2008" s="0">
+        <v>76</v>
+      </c>
+      <c r="F2008" s="0">
+        <v>0.045346062052506</v>
+      </c>
+      <c r="G2008" s="0">
+        <v>887</v>
+      </c>
+      <c r="H2008" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2009">
+      <c r="A2009" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B2009" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2009" s="0">
+        <v>326</v>
+      </c>
+      <c r="D2009" s="0">
+        <v>1.58734023128424E-03</v>
+      </c>
+      <c r="E2009" s="0">
+        <v>-13</v>
+      </c>
+      <c r="F2009" s="0">
+        <v>-7.75656324582339E-03</v>
+      </c>
+      <c r="G2009" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2009" s="0">
         <v>0</v>
       </c>
     </row>
@@ -54371,13 +55771,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-700</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-700</Url>
-      <Description>HJYU5V3E37X6-122305290-700</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -54392,24 +55785,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-773</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-773</Url>
+      <Description>HJYU5V3E37X6-122305290-773</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8F0D409-07BE-4D6E-AB0A-12494333DE14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{279B6548-5DFD-4AA2-8A87-B4E45B4FBB90}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33D5A2B7-6B3F-435F-BEE8-39428669A5D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670BC0FF-F22D-4D7E-896D-306073EE4DE3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F02A1DA1-5F8F-48A8-978D-1AFAE3E36E8F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC565563-0258-49E5-9D3D-1585337CD384}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79C17201-C9DC-4B1F-B53B-0436F6BB7069}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73FA42DF-142A-4C55-8023-63BAD999BA9B}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2009</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2019</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2009"/>
+  <dimension ref="A1:H2019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -55340,6 +55340,286 @@
         <v>0</v>
       </c>
       <c r="H2009" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2010">
+      <c r="A2010" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2010" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2010" s="0">
+        <v>10289</v>
+      </c>
+      <c r="D2010" s="0">
+        <v>4.95962979923357E-02</v>
+      </c>
+      <c r="E2010" s="0">
+        <v>108</v>
+      </c>
+      <c r="F2010" s="0">
+        <v>5.19230769230769E-02</v>
+      </c>
+      <c r="G2010" s="0">
+        <v>5</v>
+      </c>
+      <c r="H2010" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2011">
+      <c r="A2011" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2011" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2011" s="0">
+        <v>27698</v>
+      </c>
+      <c r="D2011" s="0">
+        <v>0.133513292039237</v>
+      </c>
+      <c r="E2011" s="0">
+        <v>262</v>
+      </c>
+      <c r="F2011" s="0">
+        <v>0.125961538461538</v>
+      </c>
+      <c r="G2011" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2011" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2012">
+      <c r="A2012" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2012" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2012" s="0">
+        <v>42771</v>
+      </c>
+      <c r="D2012" s="0">
+        <v>0.206170012773855</v>
+      </c>
+      <c r="E2012" s="0">
+        <v>308</v>
+      </c>
+      <c r="F2012" s="0">
+        <v>0.148076923076923</v>
+      </c>
+      <c r="G2012" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2012" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2013">
+      <c r="A2013" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2013" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2013" s="0">
+        <v>34155</v>
+      </c>
+      <c r="D2013" s="0">
+        <v>0.164638114289846</v>
+      </c>
+      <c r="E2013" s="0">
+        <v>256</v>
+      </c>
+      <c r="F2013" s="0">
+        <v>0.123076923076923</v>
+      </c>
+      <c r="G2013" s="0">
+        <v>38</v>
+      </c>
+      <c r="H2013" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2014">
+      <c r="A2014" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2014" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2014" s="0">
+        <v>30838</v>
+      </c>
+      <c r="D2014" s="0">
+        <v>0.148649104625099</v>
+      </c>
+      <c r="E2014" s="0">
+        <v>318</v>
+      </c>
+      <c r="F2014" s="0">
+        <v>0.152884615384615</v>
+      </c>
+      <c r="G2014" s="0">
+        <v>109</v>
+      </c>
+      <c r="H2014" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2015">
+      <c r="A2015" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2015" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2015" s="0">
+        <v>26924</v>
+      </c>
+      <c r="D2015" s="0">
+        <v>0.129782362440047</v>
+      </c>
+      <c r="E2015" s="0">
+        <v>367</v>
+      </c>
+      <c r="F2015" s="0">
+        <v>0.176442307692308</v>
+      </c>
+      <c r="G2015" s="0">
+        <v>266</v>
+      </c>
+      <c r="H2015" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2016">
+      <c r="A2016" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2016" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2016" s="0">
+        <v>18187</v>
+      </c>
+      <c r="D2016" s="0">
+        <v>8.76672049360102E-02</v>
+      </c>
+      <c r="E2016" s="0">
+        <v>235</v>
+      </c>
+      <c r="F2016" s="0">
+        <v>0.112980769230769</v>
+      </c>
+      <c r="G2016" s="0">
+        <v>525</v>
+      </c>
+      <c r="H2016" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2017">
+      <c r="A2017" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2017" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2017" s="0">
+        <v>10528</v>
+      </c>
+      <c r="D2017" s="0">
+        <v>5.07483550649538E-02</v>
+      </c>
+      <c r="E2017" s="0">
+        <v>158</v>
+      </c>
+      <c r="F2017" s="0">
+        <v>7.59615384615385E-02</v>
+      </c>
+      <c r="G2017" s="0">
+        <v>783</v>
+      </c>
+      <c r="H2017" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2018">
+      <c r="A2018" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2018" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2018" s="0">
+        <v>5742</v>
+      </c>
+      <c r="D2018" s="0">
+        <v>2.76782916777132E-02</v>
+      </c>
+      <c r="E2018" s="0">
+        <v>71</v>
+      </c>
+      <c r="F2018" s="0">
+        <v>3.41346153846154E-02</v>
+      </c>
+      <c r="G2018" s="0">
+        <v>896</v>
+      </c>
+      <c r="H2018" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2019">
+      <c r="A2019" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2019" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2019" s="0">
+        <v>323</v>
+      </c>
+      <c r="D2019" s="0">
+        <v>1.55696416090236E-03</v>
+      </c>
+      <c r="E2019" s="0">
+        <v>-3</v>
+      </c>
+      <c r="F2019" s="0">
+        <v>-1.44230769230769E-03</v>
+      </c>
+      <c r="G2019" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2019" s="0">
         <v>0</v>
       </c>
     </row>
@@ -55771,6 +56051,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-800</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-800</Url>
+      <Description>HJYU5V3E37X6-122305290-800</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -55785,31 +56072,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-773</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-773</Url>
-      <Description>HJYU5V3E37X6-122305290-773</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{279B6548-5DFD-4AA2-8A87-B4E45B4FBB90}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908DB50A-93A8-47A1-B500-B8947AB984B7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670BC0FF-F22D-4D7E-896D-306073EE4DE3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9402382C-449C-4A50-A0D6-853963045E2A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC565563-0258-49E5-9D3D-1585337CD384}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EB43C7-C64A-45DA-A051-2C518C8F078E}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73FA42DF-142A-4C55-8023-63BAD999BA9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAF0529D-8135-443B-BC1C-A8D5D3B58F04}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2019</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2029</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2019"/>
+  <dimension ref="A1:H2029"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -55620,6 +55620,286 @@
         <v>0</v>
       </c>
       <c r="H2019" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2020">
+      <c r="A2020" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2020" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2020" s="0">
+        <v>10378</v>
+      </c>
+      <c r="D2020" s="0">
+        <v>4.95495280428939E-02</v>
+      </c>
+      <c r="E2020" s="0">
+        <v>89</v>
+      </c>
+      <c r="F2020" s="0">
+        <v>4.46787148594378E-02</v>
+      </c>
+      <c r="G2020" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2020" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2021">
+      <c r="A2021" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2021" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2021" s="0">
+        <v>27954</v>
+      </c>
+      <c r="D2021" s="0">
+        <v>0.133465745510797</v>
+      </c>
+      <c r="E2021" s="0">
+        <v>256</v>
+      </c>
+      <c r="F2021" s="0">
+        <v>0.1285140562249</v>
+      </c>
+      <c r="G2021" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2021" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2022">
+      <c r="A2022" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2022" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2022" s="0">
+        <v>43092</v>
+      </c>
+      <c r="D2022" s="0">
+        <v>0.20574178670499</v>
+      </c>
+      <c r="E2022" s="0">
+        <v>321</v>
+      </c>
+      <c r="F2022" s="0">
+        <v>0.161144578313253</v>
+      </c>
+      <c r="G2022" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2022" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2023">
+      <c r="A2023" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2023" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2023" s="0">
+        <v>34417</v>
+      </c>
+      <c r="D2023" s="0">
+        <v>0.164323193934504</v>
+      </c>
+      <c r="E2023" s="0">
+        <v>262</v>
+      </c>
+      <c r="F2023" s="0">
+        <v>0.131526104417671</v>
+      </c>
+      <c r="G2023" s="0">
+        <v>38</v>
+      </c>
+      <c r="H2023" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2024">
+      <c r="A2024" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2024" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2024" s="0">
+        <v>31130</v>
+      </c>
+      <c r="D2024" s="0">
+        <v>0.148629486218471</v>
+      </c>
+      <c r="E2024" s="0">
+        <v>292</v>
+      </c>
+      <c r="F2024" s="0">
+        <v>0.146586345381526</v>
+      </c>
+      <c r="G2024" s="0">
+        <v>111</v>
+      </c>
+      <c r="H2024" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2025">
+      <c r="A2025" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2025" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2025" s="0">
+        <v>27206</v>
+      </c>
+      <c r="D2025" s="0">
+        <v>0.129894436301308</v>
+      </c>
+      <c r="E2025" s="0">
+        <v>282</v>
+      </c>
+      <c r="F2025" s="0">
+        <v>0.141566265060241</v>
+      </c>
+      <c r="G2025" s="0">
+        <v>270</v>
+      </c>
+      <c r="H2025" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2026">
+      <c r="A2026" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2026" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2026" s="0">
+        <v>18445</v>
+      </c>
+      <c r="D2026" s="0">
+        <v>8.80652384612814E-02</v>
+      </c>
+      <c r="E2026" s="0">
+        <v>258</v>
+      </c>
+      <c r="F2026" s="0">
+        <v>0.129518072289157</v>
+      </c>
+      <c r="G2026" s="0">
+        <v>539</v>
+      </c>
+      <c r="H2026" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2027">
+      <c r="A2027" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2027" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2027" s="0">
+        <v>10682</v>
+      </c>
+      <c r="D2027" s="0">
+        <v>5.10009692189432E-02</v>
+      </c>
+      <c r="E2027" s="0">
+        <v>154</v>
+      </c>
+      <c r="F2027" s="0">
+        <v>7.73092369477912E-02</v>
+      </c>
+      <c r="G2027" s="0">
+        <v>802</v>
+      </c>
+      <c r="H2027" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2028">
+      <c r="A2028" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2028" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2028" s="0">
+        <v>5820</v>
+      </c>
+      <c r="D2028" s="0">
+        <v>2.77874593572598E-02</v>
+      </c>
+      <c r="E2028" s="0">
+        <v>78</v>
+      </c>
+      <c r="F2028" s="0">
+        <v>3.91566265060241E-02</v>
+      </c>
+      <c r="G2028" s="0">
+        <v>921</v>
+      </c>
+      <c r="H2028" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2029">
+      <c r="A2029" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2029" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2029" s="0">
+        <v>323</v>
+      </c>
+      <c r="D2029" s="0">
+        <v>1.54215624955239E-03</v>
+      </c>
+      <c r="E2029" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2029" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2029" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2029" s="0">
         <v>0</v>
       </c>
     </row>
@@ -56051,13 +56331,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-800</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-800</Url>
-      <Description>HJYU5V3E37X6-122305290-800</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -56072,24 +56345,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-812</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-812</Url>
+      <Description>HJYU5V3E37X6-122305290-812</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908DB50A-93A8-47A1-B500-B8947AB984B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0099B730-0DD0-4F74-A773-CC60027385EE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9402382C-449C-4A50-A0D6-853963045E2A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E1ACA25-7723-4AA5-9A4E-02FA2CF01711}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EB43C7-C64A-45DA-A051-2C518C8F078E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D05825A4-6E6A-48F5-A33F-B96DCFFE4E13}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAF0529D-8135-443B-BC1C-A8D5D3B58F04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B42CDEE-5FE0-4A27-8BD4-746E385820F7}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2029</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2039</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2029"/>
+  <dimension ref="A1:H2039"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -55900,6 +55900,286 @@
         <v>0</v>
       </c>
       <c r="H2029" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2030">
+      <c r="A2030" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2030" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2030" s="0">
+        <v>10443</v>
+      </c>
+      <c r="D2030" s="0">
+        <v>4.94921873148723E-02</v>
+      </c>
+      <c r="E2030" s="0">
+        <v>65</v>
+      </c>
+      <c r="F2030" s="0">
+        <v>4.17737789203085E-02</v>
+      </c>
+      <c r="G2030" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2030" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2031">
+      <c r="A2031" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2031" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2031" s="0">
+        <v>28158</v>
+      </c>
+      <c r="D2031" s="0">
+        <v>0.133448339597067</v>
+      </c>
+      <c r="E2031" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2031" s="0">
+        <v>0.131105398457584</v>
+      </c>
+      <c r="G2031" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2031" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2032">
+      <c r="A2032" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2032" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2032" s="0">
+        <v>43390</v>
+      </c>
+      <c r="D2032" s="0">
+        <v>0.205636886679336</v>
+      </c>
+      <c r="E2032" s="0">
+        <v>298</v>
+      </c>
+      <c r="F2032" s="0">
+        <v>0.191516709511568</v>
+      </c>
+      <c r="G2032" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2032" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2033">
+      <c r="A2033" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2033" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2033" s="0">
+        <v>34622</v>
+      </c>
+      <c r="D2033" s="0">
+        <v>0.164082975123576</v>
+      </c>
+      <c r="E2033" s="0">
+        <v>205</v>
+      </c>
+      <c r="F2033" s="0">
+        <v>0.131748071979434</v>
+      </c>
+      <c r="G2033" s="0">
+        <v>38</v>
+      </c>
+      <c r="H2033" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2034">
+      <c r="A2034" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2034" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2034" s="0">
+        <v>31341</v>
+      </c>
+      <c r="D2034" s="0">
+        <v>0.148533433173936</v>
+      </c>
+      <c r="E2034" s="0">
+        <v>211</v>
+      </c>
+      <c r="F2034" s="0">
+        <v>0.13560411311054</v>
+      </c>
+      <c r="G2034" s="0">
+        <v>112</v>
+      </c>
+      <c r="H2034" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2035">
+      <c r="A2035" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2035" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2035" s="0">
+        <v>27428</v>
+      </c>
+      <c r="D2035" s="0">
+        <v>0.129988673146827</v>
+      </c>
+      <c r="E2035" s="0">
+        <v>222</v>
+      </c>
+      <c r="F2035" s="0">
+        <v>0.1426735218509</v>
+      </c>
+      <c r="G2035" s="0">
+        <v>272</v>
+      </c>
+      <c r="H2035" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2036">
+      <c r="A2036" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2036" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2036" s="0">
+        <v>18610</v>
+      </c>
+      <c r="D2036" s="0">
+        <v>8.81977981355715E-02</v>
+      </c>
+      <c r="E2036" s="0">
+        <v>165</v>
+      </c>
+      <c r="F2036" s="0">
+        <v>0.106041131105398</v>
+      </c>
+      <c r="G2036" s="0">
+        <v>543</v>
+      </c>
+      <c r="H2036" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2037">
+      <c r="A2037" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2037" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2037" s="0">
+        <v>10795</v>
+      </c>
+      <c r="D2037" s="0">
+        <v>5.11604100415634E-02</v>
+      </c>
+      <c r="E2037" s="0">
+        <v>113</v>
+      </c>
+      <c r="F2037" s="0">
+        <v>7.26221079691517E-02</v>
+      </c>
+      <c r="G2037" s="0">
+        <v>813</v>
+      </c>
+      <c r="H2037" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2038">
+      <c r="A2038" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2038" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2038" s="0">
+        <v>5892</v>
+      </c>
+      <c r="D2038" s="0">
+        <v>2.79237735956361E-02</v>
+      </c>
+      <c r="E2038" s="0">
+        <v>72</v>
+      </c>
+      <c r="F2038" s="0">
+        <v>4.62724935732648E-02</v>
+      </c>
+      <c r="G2038" s="0">
+        <v>930</v>
+      </c>
+      <c r="H2038" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2039">
+      <c r="A2039" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2039" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2039" s="0">
+        <v>324</v>
+      </c>
+      <c r="D2039" s="0">
+        <v>1.53552319161339E-03</v>
+      </c>
+      <c r="E2039" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2039" s="0">
+        <v>6.426735218509E-04</v>
+      </c>
+      <c r="G2039" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2039" s="0">
         <v>0</v>
       </c>
     </row>
@@ -56331,6 +56611,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-823</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-823</Url>
+      <Description>HJYU5V3E37X6-122305290-823</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -56345,31 +56632,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-812</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-812</Url>
-      <Description>HJYU5V3E37X6-122305290-812</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0099B730-0DD0-4F74-A773-CC60027385EE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4A7168-715A-4161-921C-C605F8A5342A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E1ACA25-7723-4AA5-9A4E-02FA2CF01711}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C63A54-08B6-4FF6-85D9-A8378C9FDF4D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D05825A4-6E6A-48F5-A33F-B96DCFFE4E13}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61629E23-03AA-495C-8C85-21EFA4077BED}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B42CDEE-5FE0-4A27-8BD4-746E385820F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{638616C6-301B-4581-BC17-F7542EEBE206}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2039</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2049</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2039"/>
+  <dimension ref="A1:H2049"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -56180,6 +56180,286 @@
         <v>0</v>
       </c>
       <c r="H2039" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2040">
+      <c r="A2040" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2040" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2040" s="0">
+        <v>10525</v>
+      </c>
+      <c r="D2040" s="0">
+        <v>4.94947072405701E-02</v>
+      </c>
+      <c r="E2040" s="0">
+        <v>82</v>
+      </c>
+      <c r="F2040" s="0">
+        <v>4.98177399756987E-02</v>
+      </c>
+      <c r="G2040" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2040" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2041">
+      <c r="A2041" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2041" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2041" s="0">
+        <v>28356</v>
+      </c>
+      <c r="D2041" s="0">
+        <v>0.133346500571364</v>
+      </c>
+      <c r="E2041" s="0">
+        <v>198</v>
+      </c>
+      <c r="F2041" s="0">
+        <v>0.120291616038882</v>
+      </c>
+      <c r="G2041" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2041" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2042">
+      <c r="A2042" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2042" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2042" s="0">
+        <v>43674</v>
+      </c>
+      <c r="D2042" s="0">
+        <v>0.205380697769564</v>
+      </c>
+      <c r="E2042" s="0">
+        <v>284</v>
+      </c>
+      <c r="F2042" s="0">
+        <v>0.172539489671932</v>
+      </c>
+      <c r="G2042" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2042" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2043">
+      <c r="A2043" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2043" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2043" s="0">
+        <v>34875</v>
+      </c>
+      <c r="D2043" s="0">
+        <v>0.164002652257946</v>
+      </c>
+      <c r="E2043" s="0">
+        <v>253</v>
+      </c>
+      <c r="F2043" s="0">
+        <v>0.153705953827461</v>
+      </c>
+      <c r="G2043" s="0">
+        <v>39</v>
+      </c>
+      <c r="H2043" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2044">
+      <c r="A2044" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2044" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2044" s="0">
+        <v>31608</v>
+      </c>
+      <c r="D2044" s="0">
+        <v>0.148639307027073</v>
+      </c>
+      <c r="E2044" s="0">
+        <v>267</v>
+      </c>
+      <c r="F2044" s="0">
+        <v>0.16221142162819</v>
+      </c>
+      <c r="G2044" s="0">
+        <v>112</v>
+      </c>
+      <c r="H2044" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2045">
+      <c r="A2045" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2045" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2045" s="0">
+        <v>27643</v>
+      </c>
+      <c r="D2045" s="0">
+        <v>0.129993557458535</v>
+      </c>
+      <c r="E2045" s="0">
+        <v>215</v>
+      </c>
+      <c r="F2045" s="0">
+        <v>0.130619684082625</v>
+      </c>
+      <c r="G2045" s="0">
+        <v>276</v>
+      </c>
+      <c r="H2045" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2046">
+      <c r="A2046" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2046" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2046" s="0">
+        <v>18763</v>
+      </c>
+      <c r="D2046" s="0">
+        <v>8.82346025610278E-02</v>
+      </c>
+      <c r="E2046" s="0">
+        <v>153</v>
+      </c>
+      <c r="F2046" s="0">
+        <v>9.29526123936816E-02</v>
+      </c>
+      <c r="G2046" s="0">
+        <v>546</v>
+      </c>
+      <c r="H2046" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2047">
+      <c r="A2047" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2047" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2047" s="0">
+        <v>10904</v>
+      </c>
+      <c r="D2047" s="0">
+        <v>5.12769869597318E-02</v>
+      </c>
+      <c r="E2047" s="0">
+        <v>109</v>
+      </c>
+      <c r="F2047" s="0">
+        <v>6.62211421628189E-02</v>
+      </c>
+      <c r="G2047" s="0">
+        <v>820</v>
+      </c>
+      <c r="H2047" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2048">
+      <c r="A2048" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2048" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2048" s="0">
+        <v>5972</v>
+      </c>
+      <c r="D2048" s="0">
+        <v>2.80838376855758E-02</v>
+      </c>
+      <c r="E2048" s="0">
+        <v>80</v>
+      </c>
+      <c r="F2048" s="0">
+        <v>4.86026731470231E-02</v>
+      </c>
+      <c r="G2048" s="0">
+        <v>941</v>
+      </c>
+      <c r="H2048" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2049">
+      <c r="A2049" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2049" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2049" s="0">
+        <v>329</v>
+      </c>
+      <c r="D2049" s="0">
+        <v>1.5471504686126E-03</v>
+      </c>
+      <c r="E2049" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2049" s="0">
+        <v>3.03766707168894E-03</v>
+      </c>
+      <c r="G2049" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2049" s="0">
         <v>0</v>
       </c>
     </row>
@@ -56612,11 +56892,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-823</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-835</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-823</Url>
-      <Description>HJYU5V3E37X6-122305290-823</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-835</Url>
+      <Description>HJYU5V3E37X6-122305290-835</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -56639,17 +56919,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4A7168-715A-4161-921C-C605F8A5342A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430AA6A3-9CA1-42D6-B364-B8DF4477EF41}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C63A54-08B6-4FF6-85D9-A8378C9FDF4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B2F5B3A-F209-41E5-9859-02E0705B91C5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61629E23-03AA-495C-8C85-21EFA4077BED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED661F20-D6EE-4725-A5AD-94AF3A72A8D0}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{638616C6-301B-4581-BC17-F7542EEBE206}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C82A9AD6-4815-43C6-856C-AB62C3FA4634}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2049</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2059</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2049"/>
+  <dimension ref="A1:H2059"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -56460,6 +56460,286 @@
         <v>0</v>
       </c>
       <c r="H2049" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2050">
+      <c r="A2050" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2050" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2050" s="0">
+        <v>10627</v>
+      </c>
+      <c r="D2050" s="0">
+        <v>4.94930536473591E-02</v>
+      </c>
+      <c r="E2050" s="0">
+        <v>102</v>
+      </c>
+      <c r="F2050" s="0">
+        <v>4.93230174081238E-02</v>
+      </c>
+      <c r="G2050" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2050" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2051">
+      <c r="A2051" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2051" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2051" s="0">
+        <v>28598</v>
+      </c>
+      <c r="D2051" s="0">
+        <v>0.133189267733808</v>
+      </c>
+      <c r="E2051" s="0">
+        <v>242</v>
+      </c>
+      <c r="F2051" s="0">
+        <v>0.117021276595745</v>
+      </c>
+      <c r="G2051" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2051" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2052">
+      <c r="A2052" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2052" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2052" s="0">
+        <v>44027</v>
+      </c>
+      <c r="D2052" s="0">
+        <v>0.205046642790277</v>
+      </c>
+      <c r="E2052" s="0">
+        <v>353</v>
+      </c>
+      <c r="F2052" s="0">
+        <v>0.170696324951644</v>
+      </c>
+      <c r="G2052" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2052" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2053">
+      <c r="A2053" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2053" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2053" s="0">
+        <v>35182</v>
+      </c>
+      <c r="D2053" s="0">
+        <v>0.163852885425933</v>
+      </c>
+      <c r="E2053" s="0">
+        <v>307</v>
+      </c>
+      <c r="F2053" s="0">
+        <v>0.148452611218569</v>
+      </c>
+      <c r="G2053" s="0">
+        <v>40</v>
+      </c>
+      <c r="H2053" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2054">
+      <c r="A2054" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2054" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2054" s="0">
+        <v>31892</v>
+      </c>
+      <c r="D2054" s="0">
+        <v>0.148530391166046</v>
+      </c>
+      <c r="E2054" s="0">
+        <v>284</v>
+      </c>
+      <c r="F2054" s="0">
+        <v>0.137330754352031</v>
+      </c>
+      <c r="G2054" s="0">
+        <v>112</v>
+      </c>
+      <c r="H2054" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2055">
+      <c r="A2055" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2055" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2055" s="0">
+        <v>27931</v>
+      </c>
+      <c r="D2055" s="0">
+        <v>0.130082853244038</v>
+      </c>
+      <c r="E2055" s="0">
+        <v>288</v>
+      </c>
+      <c r="F2055" s="0">
+        <v>0.13926499032882</v>
+      </c>
+      <c r="G2055" s="0">
+        <v>276</v>
+      </c>
+      <c r="H2055" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2056">
+      <c r="A2056" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2056" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2056" s="0">
+        <v>19001</v>
+      </c>
+      <c r="D2056" s="0">
+        <v>8.84932259672033E-02</v>
+      </c>
+      <c r="E2056" s="0">
+        <v>238</v>
+      </c>
+      <c r="F2056" s="0">
+        <v>0.115087040618956</v>
+      </c>
+      <c r="G2056" s="0">
+        <v>548</v>
+      </c>
+      <c r="H2056" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2057">
+      <c r="A2057" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2057" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2057" s="0">
+        <v>11067</v>
+      </c>
+      <c r="D2057" s="0">
+        <v>5.15422626061281E-02</v>
+      </c>
+      <c r="E2057" s="0">
+        <v>163</v>
+      </c>
+      <c r="F2057" s="0">
+        <v>7.88201160541586E-02</v>
+      </c>
+      <c r="G2057" s="0">
+        <v>821</v>
+      </c>
+      <c r="H2057" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2058">
+      <c r="A2058" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2058" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2058" s="0">
+        <v>6061</v>
+      </c>
+      <c r="D2058" s="0">
+        <v>2.82278534070428E-02</v>
+      </c>
+      <c r="E2058" s="0">
+        <v>89</v>
+      </c>
+      <c r="F2058" s="0">
+        <v>0.043036750483559</v>
+      </c>
+      <c r="G2058" s="0">
+        <v>946</v>
+      </c>
+      <c r="H2058" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2059">
+      <c r="A2059" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2059" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2059" s="0">
+        <v>331</v>
+      </c>
+      <c r="D2059" s="0">
+        <v>1.54156401216485E-03</v>
+      </c>
+      <c r="E2059" s="0">
+        <v>2</v>
+      </c>
+      <c r="F2059" s="0">
+        <v>9.67117988394584E-04</v>
+      </c>
+      <c r="G2059" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2059" s="0">
         <v>0</v>
       </c>
     </row>
@@ -56892,11 +57172,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-835</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-848</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-835</Url>
-      <Description>HJYU5V3E37X6-122305290-835</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-848</Url>
+      <Description>HJYU5V3E37X6-122305290-848</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -56919,17 +57199,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430AA6A3-9CA1-42D6-B364-B8DF4477EF41}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B6352F7-4F1B-42A4-A65B-04F41D22D1BD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B2F5B3A-F209-41E5-9859-02E0705B91C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{293459D6-698C-4811-911F-6117983AB188}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED661F20-D6EE-4725-A5AD-94AF3A72A8D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E1A919F-4213-492B-9583-BFE24419DFEA}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C82A9AD6-4815-43C6-856C-AB62C3FA4634}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{106E1FB4-153B-4CBB-8AD7-E5A279B48379}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2059</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2069</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2059"/>
+  <dimension ref="A1:H2069"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -56740,6 +56740,286 @@
         <v>0</v>
       </c>
       <c r="H2059" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2060">
+      <c r="A2060" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2060" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2060" s="0">
+        <v>10733</v>
+      </c>
+      <c r="D2060" s="0">
+        <v>4.93058681930523E-02</v>
+      </c>
+      <c r="E2060" s="0">
+        <v>106</v>
+      </c>
+      <c r="F2060" s="0">
+        <v>3.57504215851602E-02</v>
+      </c>
+      <c r="G2060" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2060" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2061">
+      <c r="A2061" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2061" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2061" s="0">
+        <v>28974</v>
+      </c>
+      <c r="D2061" s="0">
+        <v>0.13310241545006</v>
+      </c>
+      <c r="E2061" s="0">
+        <v>376</v>
+      </c>
+      <c r="F2061" s="0">
+        <v>0.12681281618887</v>
+      </c>
+      <c r="G2061" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2061" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2062">
+      <c r="A2062" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2062" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2062" s="0">
+        <v>44554</v>
+      </c>
+      <c r="D2062" s="0">
+        <v>0.204674708979153</v>
+      </c>
+      <c r="E2062" s="0">
+        <v>527</v>
+      </c>
+      <c r="F2062" s="0">
+        <v>0.177740303541315</v>
+      </c>
+      <c r="G2062" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2062" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2063">
+      <c r="A2063" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2063" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2063" s="0">
+        <v>35607</v>
+      </c>
+      <c r="D2063" s="0">
+        <v>0.163573469556509</v>
+      </c>
+      <c r="E2063" s="0">
+        <v>425</v>
+      </c>
+      <c r="F2063" s="0">
+        <v>0.143338954468803</v>
+      </c>
+      <c r="G2063" s="0">
+        <v>40</v>
+      </c>
+      <c r="H2063" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2064">
+      <c r="A2064" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2064" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2064" s="0">
+        <v>32325</v>
+      </c>
+      <c r="D2064" s="0">
+        <v>0.148496430573038</v>
+      </c>
+      <c r="E2064" s="0">
+        <v>433</v>
+      </c>
+      <c r="F2064" s="0">
+        <v>0.146037099494098</v>
+      </c>
+      <c r="G2064" s="0">
+        <v>113</v>
+      </c>
+      <c r="H2064" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2065">
+      <c r="A2065" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2065" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2065" s="0">
+        <v>28373</v>
+      </c>
+      <c r="D2065" s="0">
+        <v>0.13034150733639</v>
+      </c>
+      <c r="E2065" s="0">
+        <v>442</v>
+      </c>
+      <c r="F2065" s="0">
+        <v>0.149072512647555</v>
+      </c>
+      <c r="G2065" s="0">
+        <v>276</v>
+      </c>
+      <c r="H2065" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2066">
+      <c r="A2066" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2066" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2066" s="0">
+        <v>19334</v>
+      </c>
+      <c r="D2066" s="0">
+        <v>8.88176330610707E-02</v>
+      </c>
+      <c r="E2066" s="0">
+        <v>333</v>
+      </c>
+      <c r="F2066" s="0">
+        <v>0.112310286677909</v>
+      </c>
+      <c r="G2066" s="0">
+        <v>549</v>
+      </c>
+      <c r="H2066" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2067">
+      <c r="A2067" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2067" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2067" s="0">
+        <v>11292</v>
+      </c>
+      <c r="D2067" s="0">
+        <v>5.18738343087623E-02</v>
+      </c>
+      <c r="E2067" s="0">
+        <v>225</v>
+      </c>
+      <c r="F2067" s="0">
+        <v>0.075885328836425</v>
+      </c>
+      <c r="G2067" s="0">
+        <v>825</v>
+      </c>
+      <c r="H2067" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2068">
+      <c r="A2068" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2068" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2068" s="0">
+        <v>6162</v>
+      </c>
+      <c r="D2068" s="0">
+        <v>2.83073474150366E-02</v>
+      </c>
+      <c r="E2068" s="0">
+        <v>101</v>
+      </c>
+      <c r="F2068" s="0">
+        <v>3.40640809443508E-02</v>
+      </c>
+      <c r="G2068" s="0">
+        <v>947</v>
+      </c>
+      <c r="H2068" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2069">
+      <c r="A2069" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2069" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2069" s="0">
+        <v>328</v>
+      </c>
+      <c r="D2069" s="0">
+        <v>1.50678512692827E-03</v>
+      </c>
+      <c r="E2069" s="0">
+        <v>-3</v>
+      </c>
+      <c r="F2069" s="0">
+        <v>-1.01180438448567E-03</v>
+      </c>
+      <c r="G2069" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2069" s="0">
         <v>0</v>
       </c>
     </row>
@@ -57172,11 +57452,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-848</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-859</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-848</Url>
-      <Description>HJYU5V3E37X6-122305290-848</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-859</Url>
+      <Description>HJYU5V3E37X6-122305290-859</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -57199,17 +57479,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B6352F7-4F1B-42A4-A65B-04F41D22D1BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{771F1882-1D37-413D-AE3E-ACA78BCD4623}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{293459D6-698C-4811-911F-6117983AB188}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83143A38-3C8E-4DE8-BDBF-39CB42CEF024}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E1A919F-4213-492B-9583-BFE24419DFEA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F0C406D-35E4-48DD-A337-A1CB47D387E7}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{106E1FB4-153B-4CBB-8AD7-E5A279B48379}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28BE3856-4C4D-4614-B2C6-92905A021ADA}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2069</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2079</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2069"/>
+  <dimension ref="A1:H2079"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -57020,6 +57020,286 @@
         <v>0</v>
       </c>
       <c r="H2069" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2070">
+      <c r="A2070" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2070" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2070" s="0">
+        <v>10774</v>
+      </c>
+      <c r="D2070" s="0">
+        <v>4.92347906356105E-02</v>
+      </c>
+      <c r="E2070" s="0">
+        <v>41</v>
+      </c>
+      <c r="F2070" s="0">
+        <v>0.035745422842197</v>
+      </c>
+      <c r="G2070" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2070" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2071">
+      <c r="A2071" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2071" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2071" s="0">
+        <v>29099</v>
+      </c>
+      <c r="D2071" s="0">
+        <v>0.132975976675852</v>
+      </c>
+      <c r="E2071" s="0">
+        <v>125</v>
+      </c>
+      <c r="F2071" s="0">
+        <v>0.108979947689625</v>
+      </c>
+      <c r="G2071" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2071" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2072">
+      <c r="A2072" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2072" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2072" s="0">
+        <v>44765</v>
+      </c>
+      <c r="D2072" s="0">
+        <v>0.20456612240608</v>
+      </c>
+      <c r="E2072" s="0">
+        <v>211</v>
+      </c>
+      <c r="F2072" s="0">
+        <v>0.183958151700087</v>
+      </c>
+      <c r="G2072" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2072" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2073">
+      <c r="A2073" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2073" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2073" s="0">
+        <v>35790</v>
+      </c>
+      <c r="D2073" s="0">
+        <v>0.163552362803833</v>
+      </c>
+      <c r="E2073" s="0">
+        <v>183</v>
+      </c>
+      <c r="F2073" s="0">
+        <v>0.159546643417611</v>
+      </c>
+      <c r="G2073" s="0">
+        <v>40</v>
+      </c>
+      <c r="H2073" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2074">
+      <c r="A2074" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2074" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2074" s="0">
+        <v>32501</v>
+      </c>
+      <c r="D2074" s="0">
+        <v>0.148522362209762</v>
+      </c>
+      <c r="E2074" s="0">
+        <v>176</v>
+      </c>
+      <c r="F2074" s="0">
+        <v>0.153443766346992</v>
+      </c>
+      <c r="G2074" s="0">
+        <v>114</v>
+      </c>
+      <c r="H2074" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2075">
+      <c r="A2075" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2075" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2075" s="0">
+        <v>28535</v>
+      </c>
+      <c r="D2075" s="0">
+        <v>0.130398621754886</v>
+      </c>
+      <c r="E2075" s="0">
+        <v>162</v>
+      </c>
+      <c r="F2075" s="0">
+        <v>0.141238012205754</v>
+      </c>
+      <c r="G2075" s="0">
+        <v>279</v>
+      </c>
+      <c r="H2075" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2076">
+      <c r="A2076" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2076" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2076" s="0">
+        <v>19458</v>
+      </c>
+      <c r="D2076" s="0">
+        <v>8.89187447733162E-02</v>
+      </c>
+      <c r="E2076" s="0">
+        <v>124</v>
+      </c>
+      <c r="F2076" s="0">
+        <v>0.108108108108108</v>
+      </c>
+      <c r="G2076" s="0">
+        <v>554</v>
+      </c>
+      <c r="H2076" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2077">
+      <c r="A2077" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2077" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2077" s="0">
+        <v>11397</v>
+      </c>
+      <c r="D2077" s="0">
+        <v>5.20817624720672E-02</v>
+      </c>
+      <c r="E2077" s="0">
+        <v>105</v>
+      </c>
+      <c r="F2077" s="0">
+        <v>9.15431560592851E-02</v>
+      </c>
+      <c r="G2077" s="0">
+        <v>833</v>
+      </c>
+      <c r="H2077" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2078">
+      <c r="A2078" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2078" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2078" s="0">
+        <v>6186</v>
+      </c>
+      <c r="D2078" s="0">
+        <v>2.82686481225066E-02</v>
+      </c>
+      <c r="E2078" s="0">
+        <v>24</v>
+      </c>
+      <c r="F2078" s="0">
+        <v>0.020924149956408</v>
+      </c>
+      <c r="G2078" s="0">
+        <v>953</v>
+      </c>
+      <c r="H2078" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2079">
+      <c r="A2079" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2079" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2079" s="0">
+        <v>324</v>
+      </c>
+      <c r="D2079" s="0">
+        <v>1.48060814608667E-03</v>
+      </c>
+      <c r="E2079" s="0">
+        <v>-4</v>
+      </c>
+      <c r="F2079" s="0">
+        <v>-0.003487358326068</v>
+      </c>
+      <c r="G2079" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2079" s="0">
         <v>0</v>
       </c>
     </row>
@@ -57452,11 +57732,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-859</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-870</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-859</Url>
-      <Description>HJYU5V3E37X6-122305290-859</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-870</Url>
+      <Description>HJYU5V3E37X6-122305290-870</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -57479,17 +57759,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{771F1882-1D37-413D-AE3E-ACA78BCD4623}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059E8A7C-A8A3-47B5-9B3C-2AF7248024E1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83143A38-3C8E-4DE8-BDBF-39CB42CEF024}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69142BE4-B42F-437F-A31C-C88CC2555FF0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F0C406D-35E4-48DD-A337-A1CB47D387E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5DA645-4445-4D61-8DC2-A6BFF98A6E51}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28BE3856-4C4D-4614-B2C6-92905A021ADA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2600D85-6200-4F35-B6E2-D841BA5472E0}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2009</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2079</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2009"/>
+  <dimension ref="A1:H2079"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -55340,6 +55340,1966 @@
         <v>0</v>
       </c>
       <c r="H2009" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2010">
+      <c r="A2010" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2010" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2010" s="0">
+        <v>10289</v>
+      </c>
+      <c r="D2010" s="0">
+        <v>4.95962979923357E-02</v>
+      </c>
+      <c r="E2010" s="0">
+        <v>108</v>
+      </c>
+      <c r="F2010" s="0">
+        <v>5.19230769230769E-02</v>
+      </c>
+      <c r="G2010" s="0">
+        <v>5</v>
+      </c>
+      <c r="H2010" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2011">
+      <c r="A2011" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2011" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2011" s="0">
+        <v>27698</v>
+      </c>
+      <c r="D2011" s="0">
+        <v>0.133513292039237</v>
+      </c>
+      <c r="E2011" s="0">
+        <v>262</v>
+      </c>
+      <c r="F2011" s="0">
+        <v>0.125961538461538</v>
+      </c>
+      <c r="G2011" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2011" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2012">
+      <c r="A2012" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2012" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2012" s="0">
+        <v>42771</v>
+      </c>
+      <c r="D2012" s="0">
+        <v>0.206170012773855</v>
+      </c>
+      <c r="E2012" s="0">
+        <v>308</v>
+      </c>
+      <c r="F2012" s="0">
+        <v>0.148076923076923</v>
+      </c>
+      <c r="G2012" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2012" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2013">
+      <c r="A2013" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2013" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2013" s="0">
+        <v>34155</v>
+      </c>
+      <c r="D2013" s="0">
+        <v>0.164638114289846</v>
+      </c>
+      <c r="E2013" s="0">
+        <v>256</v>
+      </c>
+      <c r="F2013" s="0">
+        <v>0.123076923076923</v>
+      </c>
+      <c r="G2013" s="0">
+        <v>38</v>
+      </c>
+      <c r="H2013" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2014">
+      <c r="A2014" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2014" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2014" s="0">
+        <v>30838</v>
+      </c>
+      <c r="D2014" s="0">
+        <v>0.148649104625099</v>
+      </c>
+      <c r="E2014" s="0">
+        <v>318</v>
+      </c>
+      <c r="F2014" s="0">
+        <v>0.152884615384615</v>
+      </c>
+      <c r="G2014" s="0">
+        <v>109</v>
+      </c>
+      <c r="H2014" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2015">
+      <c r="A2015" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2015" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2015" s="0">
+        <v>26924</v>
+      </c>
+      <c r="D2015" s="0">
+        <v>0.129782362440047</v>
+      </c>
+      <c r="E2015" s="0">
+        <v>367</v>
+      </c>
+      <c r="F2015" s="0">
+        <v>0.176442307692308</v>
+      </c>
+      <c r="G2015" s="0">
+        <v>266</v>
+      </c>
+      <c r="H2015" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2016">
+      <c r="A2016" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2016" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2016" s="0">
+        <v>18187</v>
+      </c>
+      <c r="D2016" s="0">
+        <v>8.76672049360102E-02</v>
+      </c>
+      <c r="E2016" s="0">
+        <v>235</v>
+      </c>
+      <c r="F2016" s="0">
+        <v>0.112980769230769</v>
+      </c>
+      <c r="G2016" s="0">
+        <v>525</v>
+      </c>
+      <c r="H2016" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2017">
+      <c r="A2017" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2017" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2017" s="0">
+        <v>10528</v>
+      </c>
+      <c r="D2017" s="0">
+        <v>5.07483550649538E-02</v>
+      </c>
+      <c r="E2017" s="0">
+        <v>158</v>
+      </c>
+      <c r="F2017" s="0">
+        <v>7.59615384615385E-02</v>
+      </c>
+      <c r="G2017" s="0">
+        <v>783</v>
+      </c>
+      <c r="H2017" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2018">
+      <c r="A2018" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2018" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2018" s="0">
+        <v>5742</v>
+      </c>
+      <c r="D2018" s="0">
+        <v>2.76782916777132E-02</v>
+      </c>
+      <c r="E2018" s="0">
+        <v>71</v>
+      </c>
+      <c r="F2018" s="0">
+        <v>3.41346153846154E-02</v>
+      </c>
+      <c r="G2018" s="0">
+        <v>896</v>
+      </c>
+      <c r="H2018" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2019">
+      <c r="A2019" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B2019" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2019" s="0">
+        <v>323</v>
+      </c>
+      <c r="D2019" s="0">
+        <v>1.55696416090236E-03</v>
+      </c>
+      <c r="E2019" s="0">
+        <v>-3</v>
+      </c>
+      <c r="F2019" s="0">
+        <v>-1.44230769230769E-03</v>
+      </c>
+      <c r="G2019" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2019" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2020">
+      <c r="A2020" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2020" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2020" s="0">
+        <v>10378</v>
+      </c>
+      <c r="D2020" s="0">
+        <v>4.95495280428939E-02</v>
+      </c>
+      <c r="E2020" s="0">
+        <v>89</v>
+      </c>
+      <c r="F2020" s="0">
+        <v>4.46787148594378E-02</v>
+      </c>
+      <c r="G2020" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2020" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2021">
+      <c r="A2021" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2021" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2021" s="0">
+        <v>27954</v>
+      </c>
+      <c r="D2021" s="0">
+        <v>0.133465745510797</v>
+      </c>
+      <c r="E2021" s="0">
+        <v>256</v>
+      </c>
+      <c r="F2021" s="0">
+        <v>0.1285140562249</v>
+      </c>
+      <c r="G2021" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2021" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2022">
+      <c r="A2022" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2022" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2022" s="0">
+        <v>43092</v>
+      </c>
+      <c r="D2022" s="0">
+        <v>0.20574178670499</v>
+      </c>
+      <c r="E2022" s="0">
+        <v>321</v>
+      </c>
+      <c r="F2022" s="0">
+        <v>0.161144578313253</v>
+      </c>
+      <c r="G2022" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2022" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2023">
+      <c r="A2023" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2023" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2023" s="0">
+        <v>34417</v>
+      </c>
+      <c r="D2023" s="0">
+        <v>0.164323193934504</v>
+      </c>
+      <c r="E2023" s="0">
+        <v>262</v>
+      </c>
+      <c r="F2023" s="0">
+        <v>0.131526104417671</v>
+      </c>
+      <c r="G2023" s="0">
+        <v>38</v>
+      </c>
+      <c r="H2023" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2024">
+      <c r="A2024" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2024" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2024" s="0">
+        <v>31130</v>
+      </c>
+      <c r="D2024" s="0">
+        <v>0.148629486218471</v>
+      </c>
+      <c r="E2024" s="0">
+        <v>292</v>
+      </c>
+      <c r="F2024" s="0">
+        <v>0.146586345381526</v>
+      </c>
+      <c r="G2024" s="0">
+        <v>111</v>
+      </c>
+      <c r="H2024" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2025">
+      <c r="A2025" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2025" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2025" s="0">
+        <v>27206</v>
+      </c>
+      <c r="D2025" s="0">
+        <v>0.129894436301308</v>
+      </c>
+      <c r="E2025" s="0">
+        <v>282</v>
+      </c>
+      <c r="F2025" s="0">
+        <v>0.141566265060241</v>
+      </c>
+      <c r="G2025" s="0">
+        <v>270</v>
+      </c>
+      <c r="H2025" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2026">
+      <c r="A2026" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2026" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2026" s="0">
+        <v>18445</v>
+      </c>
+      <c r="D2026" s="0">
+        <v>8.80652384612814E-02</v>
+      </c>
+      <c r="E2026" s="0">
+        <v>258</v>
+      </c>
+      <c r="F2026" s="0">
+        <v>0.129518072289157</v>
+      </c>
+      <c r="G2026" s="0">
+        <v>539</v>
+      </c>
+      <c r="H2026" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2027">
+      <c r="A2027" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2027" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2027" s="0">
+        <v>10682</v>
+      </c>
+      <c r="D2027" s="0">
+        <v>5.10009692189432E-02</v>
+      </c>
+      <c r="E2027" s="0">
+        <v>154</v>
+      </c>
+      <c r="F2027" s="0">
+        <v>7.73092369477912E-02</v>
+      </c>
+      <c r="G2027" s="0">
+        <v>802</v>
+      </c>
+      <c r="H2027" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2028">
+      <c r="A2028" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2028" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2028" s="0">
+        <v>5820</v>
+      </c>
+      <c r="D2028" s="0">
+        <v>2.77874593572598E-02</v>
+      </c>
+      <c r="E2028" s="0">
+        <v>78</v>
+      </c>
+      <c r="F2028" s="0">
+        <v>3.91566265060241E-02</v>
+      </c>
+      <c r="G2028" s="0">
+        <v>921</v>
+      </c>
+      <c r="H2028" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2029">
+      <c r="A2029" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B2029" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2029" s="0">
+        <v>323</v>
+      </c>
+      <c r="D2029" s="0">
+        <v>1.54215624955239E-03</v>
+      </c>
+      <c r="E2029" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2029" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2029" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2029" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2030">
+      <c r="A2030" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2030" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2030" s="0">
+        <v>10443</v>
+      </c>
+      <c r="D2030" s="0">
+        <v>4.94921873148723E-02</v>
+      </c>
+      <c r="E2030" s="0">
+        <v>65</v>
+      </c>
+      <c r="F2030" s="0">
+        <v>4.17737789203085E-02</v>
+      </c>
+      <c r="G2030" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2030" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2031">
+      <c r="A2031" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2031" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2031" s="0">
+        <v>28158</v>
+      </c>
+      <c r="D2031" s="0">
+        <v>0.133448339597067</v>
+      </c>
+      <c r="E2031" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2031" s="0">
+        <v>0.131105398457584</v>
+      </c>
+      <c r="G2031" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2031" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2032">
+      <c r="A2032" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2032" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2032" s="0">
+        <v>43390</v>
+      </c>
+      <c r="D2032" s="0">
+        <v>0.205636886679336</v>
+      </c>
+      <c r="E2032" s="0">
+        <v>298</v>
+      </c>
+      <c r="F2032" s="0">
+        <v>0.191516709511568</v>
+      </c>
+      <c r="G2032" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2032" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2033">
+      <c r="A2033" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2033" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2033" s="0">
+        <v>34622</v>
+      </c>
+      <c r="D2033" s="0">
+        <v>0.164082975123576</v>
+      </c>
+      <c r="E2033" s="0">
+        <v>205</v>
+      </c>
+      <c r="F2033" s="0">
+        <v>0.131748071979434</v>
+      </c>
+      <c r="G2033" s="0">
+        <v>38</v>
+      </c>
+      <c r="H2033" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2034">
+      <c r="A2034" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2034" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2034" s="0">
+        <v>31341</v>
+      </c>
+      <c r="D2034" s="0">
+        <v>0.148533433173936</v>
+      </c>
+      <c r="E2034" s="0">
+        <v>211</v>
+      </c>
+      <c r="F2034" s="0">
+        <v>0.13560411311054</v>
+      </c>
+      <c r="G2034" s="0">
+        <v>112</v>
+      </c>
+      <c r="H2034" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2035">
+      <c r="A2035" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2035" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2035" s="0">
+        <v>27428</v>
+      </c>
+      <c r="D2035" s="0">
+        <v>0.129988673146827</v>
+      </c>
+      <c r="E2035" s="0">
+        <v>222</v>
+      </c>
+      <c r="F2035" s="0">
+        <v>0.1426735218509</v>
+      </c>
+      <c r="G2035" s="0">
+        <v>272</v>
+      </c>
+      <c r="H2035" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2036">
+      <c r="A2036" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2036" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2036" s="0">
+        <v>18610</v>
+      </c>
+      <c r="D2036" s="0">
+        <v>8.81977981355715E-02</v>
+      </c>
+      <c r="E2036" s="0">
+        <v>165</v>
+      </c>
+      <c r="F2036" s="0">
+        <v>0.106041131105398</v>
+      </c>
+      <c r="G2036" s="0">
+        <v>543</v>
+      </c>
+      <c r="H2036" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2037">
+      <c r="A2037" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2037" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2037" s="0">
+        <v>10795</v>
+      </c>
+      <c r="D2037" s="0">
+        <v>5.11604100415634E-02</v>
+      </c>
+      <c r="E2037" s="0">
+        <v>113</v>
+      </c>
+      <c r="F2037" s="0">
+        <v>7.26221079691517E-02</v>
+      </c>
+      <c r="G2037" s="0">
+        <v>813</v>
+      </c>
+      <c r="H2037" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2038">
+      <c r="A2038" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2038" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2038" s="0">
+        <v>5892</v>
+      </c>
+      <c r="D2038" s="0">
+        <v>2.79237735956361E-02</v>
+      </c>
+      <c r="E2038" s="0">
+        <v>72</v>
+      </c>
+      <c r="F2038" s="0">
+        <v>4.62724935732648E-02</v>
+      </c>
+      <c r="G2038" s="0">
+        <v>930</v>
+      </c>
+      <c r="H2038" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2039">
+      <c r="A2039" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B2039" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2039" s="0">
+        <v>324</v>
+      </c>
+      <c r="D2039" s="0">
+        <v>1.53552319161339E-03</v>
+      </c>
+      <c r="E2039" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2039" s="0">
+        <v>6.426735218509E-04</v>
+      </c>
+      <c r="G2039" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2039" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2040">
+      <c r="A2040" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2040" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2040" s="0">
+        <v>10525</v>
+      </c>
+      <c r="D2040" s="0">
+        <v>4.94947072405701E-02</v>
+      </c>
+      <c r="E2040" s="0">
+        <v>82</v>
+      </c>
+      <c r="F2040" s="0">
+        <v>4.98177399756987E-02</v>
+      </c>
+      <c r="G2040" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2040" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2041">
+      <c r="A2041" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2041" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2041" s="0">
+        <v>28356</v>
+      </c>
+      <c r="D2041" s="0">
+        <v>0.133346500571364</v>
+      </c>
+      <c r="E2041" s="0">
+        <v>198</v>
+      </c>
+      <c r="F2041" s="0">
+        <v>0.120291616038882</v>
+      </c>
+      <c r="G2041" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2041" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2042">
+      <c r="A2042" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2042" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2042" s="0">
+        <v>43674</v>
+      </c>
+      <c r="D2042" s="0">
+        <v>0.205380697769564</v>
+      </c>
+      <c r="E2042" s="0">
+        <v>284</v>
+      </c>
+      <c r="F2042" s="0">
+        <v>0.172539489671932</v>
+      </c>
+      <c r="G2042" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2042" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2043">
+      <c r="A2043" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2043" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2043" s="0">
+        <v>34875</v>
+      </c>
+      <c r="D2043" s="0">
+        <v>0.164002652257946</v>
+      </c>
+      <c r="E2043" s="0">
+        <v>253</v>
+      </c>
+      <c r="F2043" s="0">
+        <v>0.153705953827461</v>
+      </c>
+      <c r="G2043" s="0">
+        <v>39</v>
+      </c>
+      <c r="H2043" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2044">
+      <c r="A2044" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2044" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2044" s="0">
+        <v>31608</v>
+      </c>
+      <c r="D2044" s="0">
+        <v>0.148639307027073</v>
+      </c>
+      <c r="E2044" s="0">
+        <v>267</v>
+      </c>
+      <c r="F2044" s="0">
+        <v>0.16221142162819</v>
+      </c>
+      <c r="G2044" s="0">
+        <v>112</v>
+      </c>
+      <c r="H2044" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2045">
+      <c r="A2045" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2045" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2045" s="0">
+        <v>27643</v>
+      </c>
+      <c r="D2045" s="0">
+        <v>0.129993557458535</v>
+      </c>
+      <c r="E2045" s="0">
+        <v>215</v>
+      </c>
+      <c r="F2045" s="0">
+        <v>0.130619684082625</v>
+      </c>
+      <c r="G2045" s="0">
+        <v>276</v>
+      </c>
+      <c r="H2045" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2046">
+      <c r="A2046" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2046" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2046" s="0">
+        <v>18763</v>
+      </c>
+      <c r="D2046" s="0">
+        <v>8.82346025610278E-02</v>
+      </c>
+      <c r="E2046" s="0">
+        <v>153</v>
+      </c>
+      <c r="F2046" s="0">
+        <v>9.29526123936816E-02</v>
+      </c>
+      <c r="G2046" s="0">
+        <v>546</v>
+      </c>
+      <c r="H2046" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2047">
+      <c r="A2047" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2047" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2047" s="0">
+        <v>10904</v>
+      </c>
+      <c r="D2047" s="0">
+        <v>5.12769869597318E-02</v>
+      </c>
+      <c r="E2047" s="0">
+        <v>109</v>
+      </c>
+      <c r="F2047" s="0">
+        <v>6.62211421628189E-02</v>
+      </c>
+      <c r="G2047" s="0">
+        <v>820</v>
+      </c>
+      <c r="H2047" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2048">
+      <c r="A2048" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2048" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2048" s="0">
+        <v>5972</v>
+      </c>
+      <c r="D2048" s="0">
+        <v>2.80838376855758E-02</v>
+      </c>
+      <c r="E2048" s="0">
+        <v>80</v>
+      </c>
+      <c r="F2048" s="0">
+        <v>4.86026731470231E-02</v>
+      </c>
+      <c r="G2048" s="0">
+        <v>941</v>
+      </c>
+      <c r="H2048" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2049">
+      <c r="A2049" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B2049" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2049" s="0">
+        <v>329</v>
+      </c>
+      <c r="D2049" s="0">
+        <v>1.5471504686126E-03</v>
+      </c>
+      <c r="E2049" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2049" s="0">
+        <v>3.03766707168894E-03</v>
+      </c>
+      <c r="G2049" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2049" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2050">
+      <c r="A2050" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2050" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2050" s="0">
+        <v>10627</v>
+      </c>
+      <c r="D2050" s="0">
+        <v>4.94930536473591E-02</v>
+      </c>
+      <c r="E2050" s="0">
+        <v>102</v>
+      </c>
+      <c r="F2050" s="0">
+        <v>4.93230174081238E-02</v>
+      </c>
+      <c r="G2050" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2050" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2051">
+      <c r="A2051" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2051" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2051" s="0">
+        <v>28598</v>
+      </c>
+      <c r="D2051" s="0">
+        <v>0.133189267733808</v>
+      </c>
+      <c r="E2051" s="0">
+        <v>242</v>
+      </c>
+      <c r="F2051" s="0">
+        <v>0.117021276595745</v>
+      </c>
+      <c r="G2051" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2051" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2052">
+      <c r="A2052" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2052" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2052" s="0">
+        <v>44027</v>
+      </c>
+      <c r="D2052" s="0">
+        <v>0.205046642790277</v>
+      </c>
+      <c r="E2052" s="0">
+        <v>353</v>
+      </c>
+      <c r="F2052" s="0">
+        <v>0.170696324951644</v>
+      </c>
+      <c r="G2052" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2052" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2053">
+      <c r="A2053" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2053" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2053" s="0">
+        <v>35182</v>
+      </c>
+      <c r="D2053" s="0">
+        <v>0.163852885425933</v>
+      </c>
+      <c r="E2053" s="0">
+        <v>307</v>
+      </c>
+      <c r="F2053" s="0">
+        <v>0.148452611218569</v>
+      </c>
+      <c r="G2053" s="0">
+        <v>40</v>
+      </c>
+      <c r="H2053" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2054">
+      <c r="A2054" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2054" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2054" s="0">
+        <v>31892</v>
+      </c>
+      <c r="D2054" s="0">
+        <v>0.148530391166046</v>
+      </c>
+      <c r="E2054" s="0">
+        <v>284</v>
+      </c>
+      <c r="F2054" s="0">
+        <v>0.137330754352031</v>
+      </c>
+      <c r="G2054" s="0">
+        <v>112</v>
+      </c>
+      <c r="H2054" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2055">
+      <c r="A2055" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2055" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2055" s="0">
+        <v>27931</v>
+      </c>
+      <c r="D2055" s="0">
+        <v>0.130082853244038</v>
+      </c>
+      <c r="E2055" s="0">
+        <v>288</v>
+      </c>
+      <c r="F2055" s="0">
+        <v>0.13926499032882</v>
+      </c>
+      <c r="G2055" s="0">
+        <v>276</v>
+      </c>
+      <c r="H2055" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2056">
+      <c r="A2056" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2056" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2056" s="0">
+        <v>19001</v>
+      </c>
+      <c r="D2056" s="0">
+        <v>8.84932259672033E-02</v>
+      </c>
+      <c r="E2056" s="0">
+        <v>238</v>
+      </c>
+      <c r="F2056" s="0">
+        <v>0.115087040618956</v>
+      </c>
+      <c r="G2056" s="0">
+        <v>548</v>
+      </c>
+      <c r="H2056" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2057">
+      <c r="A2057" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2057" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2057" s="0">
+        <v>11067</v>
+      </c>
+      <c r="D2057" s="0">
+        <v>5.15422626061281E-02</v>
+      </c>
+      <c r="E2057" s="0">
+        <v>163</v>
+      </c>
+      <c r="F2057" s="0">
+        <v>7.88201160541586E-02</v>
+      </c>
+      <c r="G2057" s="0">
+        <v>821</v>
+      </c>
+      <c r="H2057" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2058">
+      <c r="A2058" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2058" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2058" s="0">
+        <v>6061</v>
+      </c>
+      <c r="D2058" s="0">
+        <v>2.82278534070428E-02</v>
+      </c>
+      <c r="E2058" s="0">
+        <v>89</v>
+      </c>
+      <c r="F2058" s="0">
+        <v>0.043036750483559</v>
+      </c>
+      <c r="G2058" s="0">
+        <v>946</v>
+      </c>
+      <c r="H2058" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2059">
+      <c r="A2059" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B2059" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2059" s="0">
+        <v>331</v>
+      </c>
+      <c r="D2059" s="0">
+        <v>1.54156401216485E-03</v>
+      </c>
+      <c r="E2059" s="0">
+        <v>2</v>
+      </c>
+      <c r="F2059" s="0">
+        <v>9.67117988394584E-04</v>
+      </c>
+      <c r="G2059" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2059" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2060">
+      <c r="A2060" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2060" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2060" s="0">
+        <v>10733</v>
+      </c>
+      <c r="D2060" s="0">
+        <v>4.93058681930523E-02</v>
+      </c>
+      <c r="E2060" s="0">
+        <v>106</v>
+      </c>
+      <c r="F2060" s="0">
+        <v>3.57504215851602E-02</v>
+      </c>
+      <c r="G2060" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2060" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2061">
+      <c r="A2061" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2061" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2061" s="0">
+        <v>28974</v>
+      </c>
+      <c r="D2061" s="0">
+        <v>0.13310241545006</v>
+      </c>
+      <c r="E2061" s="0">
+        <v>376</v>
+      </c>
+      <c r="F2061" s="0">
+        <v>0.12681281618887</v>
+      </c>
+      <c r="G2061" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2061" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2062">
+      <c r="A2062" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2062" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2062" s="0">
+        <v>44554</v>
+      </c>
+      <c r="D2062" s="0">
+        <v>0.204674708979153</v>
+      </c>
+      <c r="E2062" s="0">
+        <v>527</v>
+      </c>
+      <c r="F2062" s="0">
+        <v>0.177740303541315</v>
+      </c>
+      <c r="G2062" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2062" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2063">
+      <c r="A2063" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2063" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2063" s="0">
+        <v>35607</v>
+      </c>
+      <c r="D2063" s="0">
+        <v>0.163573469556509</v>
+      </c>
+      <c r="E2063" s="0">
+        <v>425</v>
+      </c>
+      <c r="F2063" s="0">
+        <v>0.143338954468803</v>
+      </c>
+      <c r="G2063" s="0">
+        <v>40</v>
+      </c>
+      <c r="H2063" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2064">
+      <c r="A2064" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2064" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2064" s="0">
+        <v>32325</v>
+      </c>
+      <c r="D2064" s="0">
+        <v>0.148496430573038</v>
+      </c>
+      <c r="E2064" s="0">
+        <v>433</v>
+      </c>
+      <c r="F2064" s="0">
+        <v>0.146037099494098</v>
+      </c>
+      <c r="G2064" s="0">
+        <v>113</v>
+      </c>
+      <c r="H2064" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2065">
+      <c r="A2065" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2065" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2065" s="0">
+        <v>28373</v>
+      </c>
+      <c r="D2065" s="0">
+        <v>0.13034150733639</v>
+      </c>
+      <c r="E2065" s="0">
+        <v>442</v>
+      </c>
+      <c r="F2065" s="0">
+        <v>0.149072512647555</v>
+      </c>
+      <c r="G2065" s="0">
+        <v>276</v>
+      </c>
+      <c r="H2065" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2066">
+      <c r="A2066" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2066" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2066" s="0">
+        <v>19334</v>
+      </c>
+      <c r="D2066" s="0">
+        <v>8.88176330610707E-02</v>
+      </c>
+      <c r="E2066" s="0">
+        <v>333</v>
+      </c>
+      <c r="F2066" s="0">
+        <v>0.112310286677909</v>
+      </c>
+      <c r="G2066" s="0">
+        <v>549</v>
+      </c>
+      <c r="H2066" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2067">
+      <c r="A2067" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2067" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2067" s="0">
+        <v>11292</v>
+      </c>
+      <c r="D2067" s="0">
+        <v>5.18738343087623E-02</v>
+      </c>
+      <c r="E2067" s="0">
+        <v>225</v>
+      </c>
+      <c r="F2067" s="0">
+        <v>0.075885328836425</v>
+      </c>
+      <c r="G2067" s="0">
+        <v>825</v>
+      </c>
+      <c r="H2067" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2068">
+      <c r="A2068" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2068" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2068" s="0">
+        <v>6162</v>
+      </c>
+      <c r="D2068" s="0">
+        <v>2.83073474150366E-02</v>
+      </c>
+      <c r="E2068" s="0">
+        <v>101</v>
+      </c>
+      <c r="F2068" s="0">
+        <v>3.40640809443508E-02</v>
+      </c>
+      <c r="G2068" s="0">
+        <v>947</v>
+      </c>
+      <c r="H2068" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2069">
+      <c r="A2069" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2069" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2069" s="0">
+        <v>328</v>
+      </c>
+      <c r="D2069" s="0">
+        <v>1.50678512692827E-03</v>
+      </c>
+      <c r="E2069" s="0">
+        <v>-3</v>
+      </c>
+      <c r="F2069" s="0">
+        <v>-1.01180438448567E-03</v>
+      </c>
+      <c r="G2069" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2069" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2070">
+      <c r="A2070" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2070" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2070" s="0">
+        <v>10774</v>
+      </c>
+      <c r="D2070" s="0">
+        <v>4.92347906356105E-02</v>
+      </c>
+      <c r="E2070" s="0">
+        <v>41</v>
+      </c>
+      <c r="F2070" s="0">
+        <v>0.035745422842197</v>
+      </c>
+      <c r="G2070" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2070" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2071">
+      <c r="A2071" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2071" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2071" s="0">
+        <v>29099</v>
+      </c>
+      <c r="D2071" s="0">
+        <v>0.132975976675852</v>
+      </c>
+      <c r="E2071" s="0">
+        <v>125</v>
+      </c>
+      <c r="F2071" s="0">
+        <v>0.108979947689625</v>
+      </c>
+      <c r="G2071" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2071" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2072">
+      <c r="A2072" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2072" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2072" s="0">
+        <v>44765</v>
+      </c>
+      <c r="D2072" s="0">
+        <v>0.20456612240608</v>
+      </c>
+      <c r="E2072" s="0">
+        <v>211</v>
+      </c>
+      <c r="F2072" s="0">
+        <v>0.183958151700087</v>
+      </c>
+      <c r="G2072" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2072" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2073">
+      <c r="A2073" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2073" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2073" s="0">
+        <v>35790</v>
+      </c>
+      <c r="D2073" s="0">
+        <v>0.163552362803833</v>
+      </c>
+      <c r="E2073" s="0">
+        <v>183</v>
+      </c>
+      <c r="F2073" s="0">
+        <v>0.159546643417611</v>
+      </c>
+      <c r="G2073" s="0">
+        <v>40</v>
+      </c>
+      <c r="H2073" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2074">
+      <c r="A2074" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2074" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2074" s="0">
+        <v>32501</v>
+      </c>
+      <c r="D2074" s="0">
+        <v>0.148522362209762</v>
+      </c>
+      <c r="E2074" s="0">
+        <v>176</v>
+      </c>
+      <c r="F2074" s="0">
+        <v>0.153443766346992</v>
+      </c>
+      <c r="G2074" s="0">
+        <v>114</v>
+      </c>
+      <c r="H2074" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2075">
+      <c r="A2075" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2075" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2075" s="0">
+        <v>28535</v>
+      </c>
+      <c r="D2075" s="0">
+        <v>0.130398621754886</v>
+      </c>
+      <c r="E2075" s="0">
+        <v>162</v>
+      </c>
+      <c r="F2075" s="0">
+        <v>0.141238012205754</v>
+      </c>
+      <c r="G2075" s="0">
+        <v>279</v>
+      </c>
+      <c r="H2075" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2076">
+      <c r="A2076" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2076" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2076" s="0">
+        <v>19458</v>
+      </c>
+      <c r="D2076" s="0">
+        <v>8.89187447733162E-02</v>
+      </c>
+      <c r="E2076" s="0">
+        <v>124</v>
+      </c>
+      <c r="F2076" s="0">
+        <v>0.108108108108108</v>
+      </c>
+      <c r="G2076" s="0">
+        <v>554</v>
+      </c>
+      <c r="H2076" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2077">
+      <c r="A2077" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2077" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2077" s="0">
+        <v>11397</v>
+      </c>
+      <c r="D2077" s="0">
+        <v>5.20817624720672E-02</v>
+      </c>
+      <c r="E2077" s="0">
+        <v>105</v>
+      </c>
+      <c r="F2077" s="0">
+        <v>9.15431560592851E-02</v>
+      </c>
+      <c r="G2077" s="0">
+        <v>833</v>
+      </c>
+      <c r="H2077" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2078">
+      <c r="A2078" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2078" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2078" s="0">
+        <v>6186</v>
+      </c>
+      <c r="D2078" s="0">
+        <v>2.82686481225066E-02</v>
+      </c>
+      <c r="E2078" s="0">
+        <v>24</v>
+      </c>
+      <c r="F2078" s="0">
+        <v>0.020924149956408</v>
+      </c>
+      <c r="G2078" s="0">
+        <v>953</v>
+      </c>
+      <c r="H2078" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2079">
+      <c r="A2079" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2079" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2079" s="0">
+        <v>324</v>
+      </c>
+      <c r="D2079" s="0">
+        <v>1.48060814608667E-03</v>
+      </c>
+      <c r="E2079" s="0">
+        <v>-4</v>
+      </c>
+      <c r="F2079" s="0">
+        <v>-0.003487358326068</v>
+      </c>
+      <c r="G2079" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2079" s="0">
         <v>0</v>
       </c>
     </row>
@@ -55771,6 +57731,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-870</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-870</Url>
+      <Description>HJYU5V3E37X6-122305290-870</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -55785,31 +57752,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-773</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-773</Url>
-      <Description>HJYU5V3E37X6-122305290-773</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{279B6548-5DFD-4AA2-8A87-B4E45B4FBB90}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059E8A7C-A8A3-47B5-9B3C-2AF7248024E1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670BC0FF-F22D-4D7E-896D-306073EE4DE3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69142BE4-B42F-437F-A31C-C88CC2555FF0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC565563-0258-49E5-9D3D-1585337CD384}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5DA645-4445-4D61-8DC2-A6BFF98A6E51}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73FA42DF-142A-4C55-8023-63BAD999BA9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2600D85-6200-4F35-B6E2-D841BA5472E0}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2079</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2149</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2079"/>
+  <dimension ref="A1:H2149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -57300,6 +57300,1966 @@
         <v>0</v>
       </c>
       <c r="H2079" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2080">
+      <c r="A2080" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2080" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2080" s="0">
+        <v>10848</v>
+      </c>
+      <c r="D2080" s="0">
+        <v>4.91888019298262E-02</v>
+      </c>
+      <c r="E2080" s="0">
+        <v>74</v>
+      </c>
+      <c r="F2080" s="0">
+        <v>4.33001755412522E-02</v>
+      </c>
+      <c r="G2080" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2080" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2081">
+      <c r="A2081" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2081" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2081" s="0">
+        <v>29289</v>
+      </c>
+      <c r="D2081" s="0">
+        <v>0.132807044590955</v>
+      </c>
+      <c r="E2081" s="0">
+        <v>190</v>
+      </c>
+      <c r="F2081" s="0">
+        <v>0.111176126389702</v>
+      </c>
+      <c r="G2081" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2081" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2082">
+      <c r="A2082" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2082" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2082" s="0">
+        <v>45013</v>
+      </c>
+      <c r="D2082" s="0">
+        <v>0.204105414939829</v>
+      </c>
+      <c r="E2082" s="0">
+        <v>248</v>
+      </c>
+      <c r="F2082" s="0">
+        <v>0.145114101813926</v>
+      </c>
+      <c r="G2082" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2082" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2083">
+      <c r="A2083" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2083" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2083" s="0">
+        <v>36042</v>
+      </c>
+      <c r="D2083" s="0">
+        <v>0.163427617916187</v>
+      </c>
+      <c r="E2083" s="0">
+        <v>252</v>
+      </c>
+      <c r="F2083" s="0">
+        <v>0.147454651843183</v>
+      </c>
+      <c r="G2083" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2083" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2084">
+      <c r="A2084" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2084" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2084" s="0">
+        <v>32757</v>
+      </c>
+      <c r="D2084" s="0">
+        <v>0.148532225738875</v>
+      </c>
+      <c r="E2084" s="0">
+        <v>256</v>
+      </c>
+      <c r="F2084" s="0">
+        <v>0.14979520187244</v>
+      </c>
+      <c r="G2084" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2084" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2085">
+      <c r="A2085" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2085" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2085" s="0">
+        <v>28787</v>
+      </c>
+      <c r="D2085" s="0">
+        <v>0.130530792879232</v>
+      </c>
+      <c r="E2085" s="0">
+        <v>252</v>
+      </c>
+      <c r="F2085" s="0">
+        <v>0.147454651843183</v>
+      </c>
+      <c r="G2085" s="0">
+        <v>285</v>
+      </c>
+      <c r="H2085" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2086">
+      <c r="A2086" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2086" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2086" s="0">
+        <v>19668</v>
+      </c>
+      <c r="D2086" s="0">
+        <v>8.91819096935676E-02</v>
+      </c>
+      <c r="E2086" s="0">
+        <v>210</v>
+      </c>
+      <c r="F2086" s="0">
+        <v>0.122878876535986</v>
+      </c>
+      <c r="G2086" s="0">
+        <v>557</v>
+      </c>
+      <c r="H2086" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2087">
+      <c r="A2087" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2087" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2087" s="0">
+        <v>11529</v>
+      </c>
+      <c r="D2087" s="0">
+        <v>5.22767051483191E-02</v>
+      </c>
+      <c r="E2087" s="0">
+        <v>132</v>
+      </c>
+      <c r="F2087" s="0">
+        <v>7.72381509654769E-02</v>
+      </c>
+      <c r="G2087" s="0">
+        <v>841</v>
+      </c>
+      <c r="H2087" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2088">
+      <c r="A2088" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2088" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2088" s="0">
+        <v>6279</v>
+      </c>
+      <c r="D2088" s="0">
+        <v>2.84712838603778E-02</v>
+      </c>
+      <c r="E2088" s="0">
+        <v>93</v>
+      </c>
+      <c r="F2088" s="0">
+        <v>5.44177881802224E-02</v>
+      </c>
+      <c r="G2088" s="0">
+        <v>965</v>
+      </c>
+      <c r="H2088" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2089">
+      <c r="A2089" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2089" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2089" s="0">
+        <v>326</v>
+      </c>
+      <c r="D2089" s="0">
+        <v>1.47820330283216E-03</v>
+      </c>
+      <c r="E2089" s="0">
+        <v>2</v>
+      </c>
+      <c r="F2089" s="0">
+        <v>1.17027501462844E-03</v>
+      </c>
+      <c r="G2089" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2089" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2090">
+      <c r="A2090" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2090" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2090" s="0">
+        <v>10944</v>
+      </c>
+      <c r="D2090" s="0">
+        <v>0.049114335336382</v>
+      </c>
+      <c r="E2090" s="0">
+        <v>96</v>
+      </c>
+      <c r="F2090" s="0">
+        <v>4.19397116644823E-02</v>
+      </c>
+      <c r="G2090" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2090" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2091">
+      <c r="A2091" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2091" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2091" s="0">
+        <v>29572</v>
+      </c>
+      <c r="D2091" s="0">
+        <v>0.132712822054778</v>
+      </c>
+      <c r="E2091" s="0">
+        <v>283</v>
+      </c>
+      <c r="F2091" s="0">
+        <v>0.123634775010922</v>
+      </c>
+      <c r="G2091" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2091" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2092">
+      <c r="A2092" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2092" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2092" s="0">
+        <v>45375</v>
+      </c>
+      <c r="D2092" s="0">
+        <v>0.203633311941551</v>
+      </c>
+      <c r="E2092" s="0">
+        <v>362</v>
+      </c>
+      <c r="F2092" s="0">
+        <v>0.158147662734819</v>
+      </c>
+      <c r="G2092" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2092" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2093">
+      <c r="A2093" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2093" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2093" s="0">
+        <v>36365</v>
+      </c>
+      <c r="D2093" s="0">
+        <v>0.16319835567503</v>
+      </c>
+      <c r="E2093" s="0">
+        <v>323</v>
+      </c>
+      <c r="F2093" s="0">
+        <v>0.141109654871123</v>
+      </c>
+      <c r="G2093" s="0">
+        <v>43</v>
+      </c>
+      <c r="H2093" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2094">
+      <c r="A2094" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2094" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2094" s="0">
+        <v>33101</v>
+      </c>
+      <c r="D2094" s="0">
+        <v>0.148550220574706</v>
+      </c>
+      <c r="E2094" s="0">
+        <v>344</v>
+      </c>
+      <c r="F2094" s="0">
+        <v>0.150283966797728</v>
+      </c>
+      <c r="G2094" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2094" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2095">
+      <c r="A2095" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2095" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2095" s="0">
+        <v>29146</v>
+      </c>
+      <c r="D2095" s="0">
+        <v>0.130801025010434</v>
+      </c>
+      <c r="E2095" s="0">
+        <v>359</v>
+      </c>
+      <c r="F2095" s="0">
+        <v>0.156837046745304</v>
+      </c>
+      <c r="G2095" s="0">
+        <v>287</v>
+      </c>
+      <c r="H2095" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2096">
+      <c r="A2096" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2096" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2096" s="0">
+        <v>19943</v>
+      </c>
+      <c r="D2096" s="0">
+        <v>8.94999259515229E-02</v>
+      </c>
+      <c r="E2096" s="0">
+        <v>275</v>
+      </c>
+      <c r="F2096" s="0">
+        <v>0.120139799038882</v>
+      </c>
+      <c r="G2096" s="0">
+        <v>566</v>
+      </c>
+      <c r="H2096" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2097">
+      <c r="A2097" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2097" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2097" s="0">
+        <v>11698</v>
+      </c>
+      <c r="D2097" s="0">
+        <v>5.24981263491408E-02</v>
+      </c>
+      <c r="E2097" s="0">
+        <v>169</v>
+      </c>
+      <c r="F2097" s="0">
+        <v>7.38313674093491E-02</v>
+      </c>
+      <c r="G2097" s="0">
+        <v>852</v>
+      </c>
+      <c r="H2097" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2098">
+      <c r="A2098" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2098" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2098" s="0">
+        <v>6360</v>
+      </c>
+      <c r="D2098" s="0">
+        <v>2.85423220704852E-02</v>
+      </c>
+      <c r="E2098" s="0">
+        <v>81</v>
+      </c>
+      <c r="F2098" s="0">
+        <v>3.53866317169069E-02</v>
+      </c>
+      <c r="G2098" s="0">
+        <v>977</v>
+      </c>
+      <c r="H2098" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2099">
+      <c r="A2099" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2099" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2099" s="0">
+        <v>323</v>
+      </c>
+      <c r="D2099" s="0">
+        <v>1.44955503596961E-03</v>
+      </c>
+      <c r="E2099" s="0">
+        <v>-3</v>
+      </c>
+      <c r="F2099" s="0">
+        <v>-1.31061598951507E-03</v>
+      </c>
+      <c r="G2099" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2099" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2100">
+      <c r="A2100" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2100" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2100" s="0">
+        <v>10978</v>
+      </c>
+      <c r="D2100" s="0">
+        <v>4.91201066700076E-02</v>
+      </c>
+      <c r="E2100" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2100" s="0">
+        <v>5.10510510510511E-02</v>
+      </c>
+      <c r="G2100" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2100" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2101">
+      <c r="A2101" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2101" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2101" s="0">
+        <v>29670</v>
+      </c>
+      <c r="D2101" s="0">
+        <v>0.132755835753245</v>
+      </c>
+      <c r="E2101" s="0">
+        <v>98</v>
+      </c>
+      <c r="F2101" s="0">
+        <v>0.147147147147147</v>
+      </c>
+      <c r="G2101" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2101" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2102">
+      <c r="A2102" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2102" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2102" s="0">
+        <v>45468</v>
+      </c>
+      <c r="D2102" s="0">
+        <v>0.203442613415185</v>
+      </c>
+      <c r="E2102" s="0">
+        <v>93</v>
+      </c>
+      <c r="F2102" s="0">
+        <v>0.13963963963964</v>
+      </c>
+      <c r="G2102" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2102" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2103">
+      <c r="A2103" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2103" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2103" s="0">
+        <v>36465</v>
+      </c>
+      <c r="D2103" s="0">
+        <v>0.163159472556187</v>
+      </c>
+      <c r="E2103" s="0">
+        <v>100</v>
+      </c>
+      <c r="F2103" s="0">
+        <v>0.15015015015015</v>
+      </c>
+      <c r="G2103" s="0">
+        <v>43</v>
+      </c>
+      <c r="H2103" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2104">
+      <c r="A2104" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2104" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2104" s="0">
+        <v>33214</v>
+      </c>
+      <c r="D2104" s="0">
+        <v>0.148613155669305</v>
+      </c>
+      <c r="E2104" s="0">
+        <v>113</v>
+      </c>
+      <c r="F2104" s="0">
+        <v>0.16966966966967</v>
+      </c>
+      <c r="G2104" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2104" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2105">
+      <c r="A2105" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2105" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2105" s="0">
+        <v>29229</v>
+      </c>
+      <c r="D2105" s="0">
+        <v>0.130782619589875</v>
+      </c>
+      <c r="E2105" s="0">
+        <v>83</v>
+      </c>
+      <c r="F2105" s="0">
+        <v>0.124624624624625</v>
+      </c>
+      <c r="G2105" s="0">
+        <v>286</v>
+      </c>
+      <c r="H2105" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2106">
+      <c r="A2106" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2106" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2106" s="0">
+        <v>20019</v>
+      </c>
+      <c r="D2106" s="0">
+        <v>8.95732752256223E-02</v>
+      </c>
+      <c r="E2106" s="0">
+        <v>76</v>
+      </c>
+      <c r="F2106" s="0">
+        <v>0.114114114114114</v>
+      </c>
+      <c r="G2106" s="0">
+        <v>568</v>
+      </c>
+      <c r="H2106" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2107">
+      <c r="A2107" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2107" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2107" s="0">
+        <v>11742</v>
+      </c>
+      <c r="D2107" s="0">
+        <v>5.25385582546209E-02</v>
+      </c>
+      <c r="E2107" s="0">
+        <v>44</v>
+      </c>
+      <c r="F2107" s="0">
+        <v>6.60660660660661E-02</v>
+      </c>
+      <c r="G2107" s="0">
+        <v>856</v>
+      </c>
+      <c r="H2107" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2108">
+      <c r="A2108" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2108" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2108" s="0">
+        <v>6384</v>
+      </c>
+      <c r="D2108" s="0">
+        <v>2.85646530316386E-02</v>
+      </c>
+      <c r="E2108" s="0">
+        <v>24</v>
+      </c>
+      <c r="F2108" s="0">
+        <v>0.036036036036036</v>
+      </c>
+      <c r="G2108" s="0">
+        <v>979</v>
+      </c>
+      <c r="H2108" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2109">
+      <c r="A2109" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2109" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2109" s="0">
+        <v>324</v>
+      </c>
+      <c r="D2109" s="0">
+        <v>1.44970983431248E-03</v>
+      </c>
+      <c r="E2109" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2109" s="0">
+        <v>1.5015015015015E-03</v>
+      </c>
+      <c r="G2109" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2109" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2110">
+      <c r="A2110" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2110" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2110" s="0">
+        <v>11102</v>
+      </c>
+      <c r="D2110" s="0">
+        <v>4.90936990081322E-02</v>
+      </c>
+      <c r="E2110" s="0">
+        <v>124</v>
+      </c>
+      <c r="F2110" s="0">
+        <v>4.68631897203326E-02</v>
+      </c>
+      <c r="G2110" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2110" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2111">
+      <c r="A2111" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2111" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2111" s="0">
+        <v>30009</v>
+      </c>
+      <c r="D2111" s="0">
+        <v>0.132701568504327</v>
+      </c>
+      <c r="E2111" s="0">
+        <v>339</v>
+      </c>
+      <c r="F2111" s="0">
+        <v>0.1281179138322</v>
+      </c>
+      <c r="G2111" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2111" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2112">
+      <c r="A2112" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2112" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2112" s="0">
+        <v>45954</v>
+      </c>
+      <c r="D2112" s="0">
+        <v>0.203211299245155</v>
+      </c>
+      <c r="E2112" s="0">
+        <v>486</v>
+      </c>
+      <c r="F2112" s="0">
+        <v>0.183673469387755</v>
+      </c>
+      <c r="G2112" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2112" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2113">
+      <c r="A2113" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2113" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2113" s="0">
+        <v>36841</v>
+      </c>
+      <c r="D2113" s="0">
+        <v>0.162913075586254</v>
+      </c>
+      <c r="E2113" s="0">
+        <v>376</v>
+      </c>
+      <c r="F2113" s="0">
+        <v>0.142101284958428</v>
+      </c>
+      <c r="G2113" s="0">
+        <v>43</v>
+      </c>
+      <c r="H2113" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2114">
+      <c r="A2114" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2114" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2114" s="0">
+        <v>33571</v>
+      </c>
+      <c r="D2114" s="0">
+        <v>0.148452942659161</v>
+      </c>
+      <c r="E2114" s="0">
+        <v>357</v>
+      </c>
+      <c r="F2114" s="0">
+        <v>0.134920634920635</v>
+      </c>
+      <c r="G2114" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2114" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2115">
+      <c r="A2115" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2115" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2115" s="0">
+        <v>29612</v>
+      </c>
+      <c r="D2115" s="0">
+        <v>0.13094601108168</v>
+      </c>
+      <c r="E2115" s="0">
+        <v>383</v>
+      </c>
+      <c r="F2115" s="0">
+        <v>0.14474678760393</v>
+      </c>
+      <c r="G2115" s="0">
+        <v>291</v>
+      </c>
+      <c r="H2115" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2116">
+      <c r="A2116" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2116" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2116" s="0">
+        <v>20304</v>
+      </c>
+      <c r="D2116" s="0">
+        <v>8.97854859179531E-02</v>
+      </c>
+      <c r="E2116" s="0">
+        <v>285</v>
+      </c>
+      <c r="F2116" s="0">
+        <v>0.107709750566893</v>
+      </c>
+      <c r="G2116" s="0">
+        <v>575</v>
+      </c>
+      <c r="H2116" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2117">
+      <c r="A2117" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2117" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2117" s="0">
+        <v>11936</v>
+      </c>
+      <c r="D2117" s="0">
+        <v>5.27816962133909E-02</v>
+      </c>
+      <c r="E2117" s="0">
+        <v>194</v>
+      </c>
+      <c r="F2117" s="0">
+        <v>0.073318216175359</v>
+      </c>
+      <c r="G2117" s="0">
+        <v>866</v>
+      </c>
+      <c r="H2117" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2118">
+      <c r="A2118" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2118" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2118" s="0">
+        <v>6481</v>
+      </c>
+      <c r="D2118" s="0">
+        <v>2.86593643732395E-02</v>
+      </c>
+      <c r="E2118" s="0">
+        <v>97</v>
+      </c>
+      <c r="F2118" s="0">
+        <v>3.66591080876795E-02</v>
+      </c>
+      <c r="G2118" s="0">
+        <v>989</v>
+      </c>
+      <c r="H2118" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2119">
+      <c r="A2119" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2119" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2119" s="0">
+        <v>329</v>
+      </c>
+      <c r="D2119" s="0">
+        <v>1.45485741070757E-03</v>
+      </c>
+      <c r="E2119" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2119" s="0">
+        <v>1.8896447467876E-03</v>
+      </c>
+      <c r="G2119" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2119" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2120">
+      <c r="A2120" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2120" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2120" s="0">
+        <v>11223</v>
+      </c>
+      <c r="D2120" s="0">
+        <v>4.90635819955933E-02</v>
+      </c>
+      <c r="E2120" s="0">
+        <v>121</v>
+      </c>
+      <c r="F2120" s="0">
+        <v>4.64491362763916E-02</v>
+      </c>
+      <c r="G2120" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2120" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2121">
+      <c r="A2121" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2121" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2121" s="0">
+        <v>30357</v>
+      </c>
+      <c r="D2121" s="0">
+        <v>0.132711677683349</v>
+      </c>
+      <c r="E2121" s="0">
+        <v>348</v>
+      </c>
+      <c r="F2121" s="0">
+        <v>0.133589251439539</v>
+      </c>
+      <c r="G2121" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2121" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2122">
+      <c r="A2122" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2122" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2122" s="0">
+        <v>46376</v>
+      </c>
+      <c r="D2122" s="0">
+        <v>0.202741929842969</v>
+      </c>
+      <c r="E2122" s="0">
+        <v>422</v>
+      </c>
+      <c r="F2122" s="0">
+        <v>0.161996161228407</v>
+      </c>
+      <c r="G2122" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2122" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2123">
+      <c r="A2123" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2123" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2123" s="0">
+        <v>37214</v>
+      </c>
+      <c r="D2123" s="0">
+        <v>0.162688420242717</v>
+      </c>
+      <c r="E2123" s="0">
+        <v>373</v>
+      </c>
+      <c r="F2123" s="0">
+        <v>0.143186180422265</v>
+      </c>
+      <c r="G2123" s="0">
+        <v>43</v>
+      </c>
+      <c r="H2123" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2124">
+      <c r="A2124" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2124" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2124" s="0">
+        <v>33915</v>
+      </c>
+      <c r="D2124" s="0">
+        <v>0.148266184031057</v>
+      </c>
+      <c r="E2124" s="0">
+        <v>344</v>
+      </c>
+      <c r="F2124" s="0">
+        <v>0.132053742802303</v>
+      </c>
+      <c r="G2124" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2124" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2125">
+      <c r="A2125" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2125" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2125" s="0">
+        <v>29994</v>
+      </c>
+      <c r="D2125" s="0">
+        <v>0.131124750813136</v>
+      </c>
+      <c r="E2125" s="0">
+        <v>382</v>
+      </c>
+      <c r="F2125" s="0">
+        <v>0.146641074856046</v>
+      </c>
+      <c r="G2125" s="0">
+        <v>291</v>
+      </c>
+      <c r="H2125" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2126">
+      <c r="A2126" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2126" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2126" s="0">
+        <v>20593</v>
+      </c>
+      <c r="D2126" s="0">
+        <v>9.00264050641765E-02</v>
+      </c>
+      <c r="E2126" s="0">
+        <v>289</v>
+      </c>
+      <c r="F2126" s="0">
+        <v>0.110940499040307</v>
+      </c>
+      <c r="G2126" s="0">
+        <v>579</v>
+      </c>
+      <c r="H2126" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2127">
+      <c r="A2127" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2127" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2127" s="0">
+        <v>12146</v>
+      </c>
+      <c r="D2127" s="0">
+        <v>0.053098660511314</v>
+      </c>
+      <c r="E2127" s="0">
+        <v>210</v>
+      </c>
+      <c r="F2127" s="0">
+        <v>8.06142034548944E-02</v>
+      </c>
+      <c r="G2127" s="0">
+        <v>868</v>
+      </c>
+      <c r="H2127" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2128">
+      <c r="A2128" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2128" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2128" s="0">
+        <v>6592</v>
+      </c>
+      <c r="D2128" s="0">
+        <v>2.88182422271185E-02</v>
+      </c>
+      <c r="E2128" s="0">
+        <v>111</v>
+      </c>
+      <c r="F2128" s="0">
+        <v>4.26103646833013E-02</v>
+      </c>
+      <c r="G2128" s="0">
+        <v>989</v>
+      </c>
+      <c r="H2128" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2129">
+      <c r="A2129" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2129" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2129" s="0">
+        <v>334</v>
+      </c>
+      <c r="D2129" s="0">
+        <v>1.46014758857063E-03</v>
+      </c>
+      <c r="E2129" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2129" s="0">
+        <v>1.91938579654511E-03</v>
+      </c>
+      <c r="G2129" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2129" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2130">
+      <c r="A2130" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2130" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2130" s="0">
+        <v>11367</v>
+      </c>
+      <c r="D2130" s="0">
+        <v>4.89828105541215E-02</v>
+      </c>
+      <c r="E2130" s="0">
+        <v>144</v>
+      </c>
+      <c r="F2130" s="0">
+        <v>4.34127223394634E-02</v>
+      </c>
+      <c r="G2130" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2130" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2131">
+      <c r="A2131" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2131" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2131" s="0">
+        <v>30779</v>
+      </c>
+      <c r="D2131" s="0">
+        <v>0.13263323005589</v>
+      </c>
+      <c r="E2131" s="0">
+        <v>422</v>
+      </c>
+      <c r="F2131" s="0">
+        <v>0.127223394633705</v>
+      </c>
+      <c r="G2131" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2131" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2132">
+      <c r="A2132" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2132" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2132" s="0">
+        <v>46996</v>
+      </c>
+      <c r="D2132" s="0">
+        <v>0.202515717850048</v>
+      </c>
+      <c r="E2132" s="0">
+        <v>620</v>
+      </c>
+      <c r="F2132" s="0">
+        <v>0.186915887850467</v>
+      </c>
+      <c r="G2132" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2132" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2133">
+      <c r="A2133" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2133" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2133" s="0">
+        <v>37695</v>
+      </c>
+      <c r="D2133" s="0">
+        <v>0.162435738879002</v>
+      </c>
+      <c r="E2133" s="0">
+        <v>481</v>
+      </c>
+      <c r="F2133" s="0">
+        <v>0.145010551703346</v>
+      </c>
+      <c r="G2133" s="0">
+        <v>43</v>
+      </c>
+      <c r="H2133" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2134">
+      <c r="A2134" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2134" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2134" s="0">
+        <v>34394</v>
+      </c>
+      <c r="D2134" s="0">
+        <v>0.148211030720371</v>
+      </c>
+      <c r="E2134" s="0">
+        <v>479</v>
+      </c>
+      <c r="F2134" s="0">
+        <v>0.144407597226409</v>
+      </c>
+      <c r="G2134" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2134" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2135">
+      <c r="A2135" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2135" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2135" s="0">
+        <v>30479</v>
+      </c>
+      <c r="D2135" s="0">
+        <v>0.13134046651527</v>
+      </c>
+      <c r="E2135" s="0">
+        <v>485</v>
+      </c>
+      <c r="F2135" s="0">
+        <v>0.14621646065722</v>
+      </c>
+      <c r="G2135" s="0">
+        <v>293</v>
+      </c>
+      <c r="H2135" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2136">
+      <c r="A2136" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2136" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2136" s="0">
+        <v>20926</v>
+      </c>
+      <c r="D2136" s="0">
+        <v>9.01745661701018E-02</v>
+      </c>
+      <c r="E2136" s="0">
+        <v>333</v>
+      </c>
+      <c r="F2136" s="0">
+        <v>0.100391920410009</v>
+      </c>
+      <c r="G2136" s="0">
+        <v>581</v>
+      </c>
+      <c r="H2136" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2137">
+      <c r="A2137" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2137" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2137" s="0">
+        <v>12376</v>
+      </c>
+      <c r="D2137" s="0">
+        <v>5.33308052624095E-02</v>
+      </c>
+      <c r="E2137" s="0">
+        <v>230</v>
+      </c>
+      <c r="F2137" s="0">
+        <v>0.069339764847754</v>
+      </c>
+      <c r="G2137" s="0">
+        <v>871</v>
+      </c>
+      <c r="H2137" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2138">
+      <c r="A2138" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2138" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2138" s="0">
+        <v>6709</v>
+      </c>
+      <c r="D2138" s="0">
+        <v>2.89105019800828E-02</v>
+      </c>
+      <c r="E2138" s="0">
+        <v>117</v>
+      </c>
+      <c r="F2138" s="0">
+        <v>0.035272836900814</v>
+      </c>
+      <c r="G2138" s="0">
+        <v>995</v>
+      </c>
+      <c r="H2138" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2139">
+      <c r="A2139" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2139" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2139" s="0">
+        <v>340</v>
+      </c>
+      <c r="D2139" s="0">
+        <v>1.46513201270356E-03</v>
+      </c>
+      <c r="E2139" s="0">
+        <v>6</v>
+      </c>
+      <c r="F2139" s="0">
+        <v>1.80886343081097E-03</v>
+      </c>
+      <c r="G2139" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2139" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2140">
+      <c r="A2140" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2140" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2140" s="0">
+        <v>11436</v>
+      </c>
+      <c r="D2140" s="0">
+        <v>4.89619769746841E-02</v>
+      </c>
+      <c r="E2140" s="0">
+        <v>69</v>
+      </c>
+      <c r="F2140" s="0">
+        <v>4.57559681697613E-02</v>
+      </c>
+      <c r="G2140" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2140" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2141">
+      <c r="A2141" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2141" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2141" s="0">
+        <v>30974</v>
+      </c>
+      <c r="D2141" s="0">
+        <v>0.132611776391559</v>
+      </c>
+      <c r="E2141" s="0">
+        <v>195</v>
+      </c>
+      <c r="F2141" s="0">
+        <v>0.129310344827586</v>
+      </c>
+      <c r="G2141" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2141" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2142">
+      <c r="A2142" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2142" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2142" s="0">
+        <v>47261</v>
+      </c>
+      <c r="D2142" s="0">
+        <v>0.202342776652724</v>
+      </c>
+      <c r="E2142" s="0">
+        <v>265</v>
+      </c>
+      <c r="F2142" s="0">
+        <v>0.175729442970822</v>
+      </c>
+      <c r="G2142" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2142" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2143">
+      <c r="A2143" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2143" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2143" s="0">
+        <v>37939</v>
+      </c>
+      <c r="D2143" s="0">
+        <v>0.16243165831082</v>
+      </c>
+      <c r="E2143" s="0">
+        <v>244</v>
+      </c>
+      <c r="F2143" s="0">
+        <v>0.161803713527851</v>
+      </c>
+      <c r="G2143" s="0">
+        <v>44</v>
+      </c>
+      <c r="H2143" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2144">
+      <c r="A2144" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2144" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2144" s="0">
+        <v>34595</v>
+      </c>
+      <c r="D2144" s="0">
+        <v>0.148114689877509</v>
+      </c>
+      <c r="E2144" s="0">
+        <v>201</v>
+      </c>
+      <c r="F2144" s="0">
+        <v>0.133289124668435</v>
+      </c>
+      <c r="G2144" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2144" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2145">
+      <c r="A2145" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2145" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2145" s="0">
+        <v>30685</v>
+      </c>
+      <c r="D2145" s="0">
+        <v>0.131374454657938</v>
+      </c>
+      <c r="E2145" s="0">
+        <v>206</v>
+      </c>
+      <c r="F2145" s="0">
+        <v>0.136604774535809</v>
+      </c>
+      <c r="G2145" s="0">
+        <v>294</v>
+      </c>
+      <c r="H2145" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2146">
+      <c r="A2146" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2146" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2146" s="0">
+        <v>21089</v>
+      </c>
+      <c r="D2146" s="0">
+        <v>9.02902354336406E-02</v>
+      </c>
+      <c r="E2146" s="0">
+        <v>163</v>
+      </c>
+      <c r="F2146" s="0">
+        <v>0.108090185676393</v>
+      </c>
+      <c r="G2146" s="0">
+        <v>588</v>
+      </c>
+      <c r="H2146" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2147">
+      <c r="A2147" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2147" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2147" s="0">
+        <v>12485</v>
+      </c>
+      <c r="D2147" s="0">
+        <v>5.34531551704207E-02</v>
+      </c>
+      <c r="E2147" s="0">
+        <v>109</v>
+      </c>
+      <c r="F2147" s="0">
+        <v>7.22811671087533E-02</v>
+      </c>
+      <c r="G2147" s="0">
+        <v>880</v>
+      </c>
+      <c r="H2147" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2148">
+      <c r="A2148" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2148" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2148" s="0">
+        <v>6767</v>
+      </c>
+      <c r="D2148" s="0">
+        <v>2.89721666830787E-02</v>
+      </c>
+      <c r="E2148" s="0">
+        <v>58</v>
+      </c>
+      <c r="F2148" s="0">
+        <v>3.84615384615385E-02</v>
+      </c>
+      <c r="G2148" s="0">
+        <v>1007</v>
+      </c>
+      <c r="H2148" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2149">
+      <c r="A2149" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2149" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2149" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2149" s="0">
+        <v>1.44710984762533E-03</v>
+      </c>
+      <c r="E2149" s="0">
+        <v>-2</v>
+      </c>
+      <c r="F2149" s="0">
+        <v>-1.3262599469496E-03</v>
+      </c>
+      <c r="G2149" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2149" s="0">
         <v>0</v>
       </c>
     </row>
@@ -57732,11 +59692,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-870</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1018</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-870</Url>
-      <Description>HJYU5V3E37X6-122305290-870</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1018</Url>
+      <Description>HJYU5V3E37X6-122305290-1018</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -57759,17 +59719,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059E8A7C-A8A3-47B5-9B3C-2AF7248024E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA54C747-9DA3-456F-99B4-431864B84ED6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69142BE4-B42F-437F-A31C-C88CC2555FF0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A75213A-32D0-43C0-BF52-BCD1BE1455FA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5DA645-4445-4D61-8DC2-A6BFF98A6E51}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BBF7A84-0EC4-4247-8008-923786A062D6}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2600D85-6200-4F35-B6E2-D841BA5472E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38EFC926-2BBA-4C33-9E22-579C8E2E660E}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2149</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2159</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2149"/>
+  <dimension ref="A1:H2159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -59260,6 +59260,286 @@
         <v>0</v>
       </c>
       <c r="H2149" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2150">
+      <c r="A2150" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2150" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2150" s="0">
+        <v>11531</v>
+      </c>
+      <c r="D2150" s="0">
+        <v>4.88889642628497E-02</v>
+      </c>
+      <c r="E2150" s="0">
+        <v>95</v>
+      </c>
+      <c r="F2150" s="0">
+        <v>4.14485165794066E-02</v>
+      </c>
+      <c r="G2150" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2150" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2151">
+      <c r="A2151" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2151" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2151" s="0">
+        <v>31230</v>
+      </c>
+      <c r="D2151" s="0">
+        <v>0.132408494833822</v>
+      </c>
+      <c r="E2151" s="0">
+        <v>256</v>
+      </c>
+      <c r="F2151" s="0">
+        <v>0.111692844677138</v>
+      </c>
+      <c r="G2151" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2151" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2152">
+      <c r="A2152" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2152" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2152" s="0">
+        <v>47659</v>
+      </c>
+      <c r="D2152" s="0">
+        <v>0.202063927482712</v>
+      </c>
+      <c r="E2152" s="0">
+        <v>398</v>
+      </c>
+      <c r="F2152" s="0">
+        <v>0.173647469458988</v>
+      </c>
+      <c r="G2152" s="0">
+        <v>20</v>
+      </c>
+      <c r="H2152" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2153">
+      <c r="A2153" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2153" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2153" s="0">
+        <v>38261</v>
+      </c>
+      <c r="D2153" s="0">
+        <v>0.162218425258945</v>
+      </c>
+      <c r="E2153" s="0">
+        <v>322</v>
+      </c>
+      <c r="F2153" s="0">
+        <v>0.140488656195462</v>
+      </c>
+      <c r="G2153" s="0">
+        <v>44</v>
+      </c>
+      <c r="H2153" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2154">
+      <c r="A2154" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2154" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2154" s="0">
+        <v>34988</v>
+      </c>
+      <c r="D2154" s="0">
+        <v>0.148341607980972</v>
+      </c>
+      <c r="E2154" s="0">
+        <v>393</v>
+      </c>
+      <c r="F2154" s="0">
+        <v>0.171465968586387</v>
+      </c>
+      <c r="G2154" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2154" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2155">
+      <c r="A2155" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2155" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2155" s="0">
+        <v>31050</v>
+      </c>
+      <c r="D2155" s="0">
+        <v>0.131645333480313</v>
+      </c>
+      <c r="E2155" s="0">
+        <v>365</v>
+      </c>
+      <c r="F2155" s="0">
+        <v>0.159249563699825</v>
+      </c>
+      <c r="G2155" s="0">
+        <v>293</v>
+      </c>
+      <c r="H2155" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2156">
+      <c r="A2156" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2156" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2156" s="0">
+        <v>21325</v>
+      </c>
+      <c r="D2156" s="0">
+        <v>0.090413421464337</v>
+      </c>
+      <c r="E2156" s="0">
+        <v>236</v>
+      </c>
+      <c r="F2156" s="0">
+        <v>0.102966841186736</v>
+      </c>
+      <c r="G2156" s="0">
+        <v>591</v>
+      </c>
+      <c r="H2156" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2157">
+      <c r="A2157" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2157" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2157" s="0">
+        <v>12612</v>
+      </c>
+      <c r="D2157" s="0">
+        <v>5.34721721692014E-02</v>
+      </c>
+      <c r="E2157" s="0">
+        <v>127</v>
+      </c>
+      <c r="F2157" s="0">
+        <v>5.54101221640489E-02</v>
+      </c>
+      <c r="G2157" s="0">
+        <v>891</v>
+      </c>
+      <c r="H2157" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2158">
+      <c r="A2158" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2158" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2158" s="0">
+        <v>6865</v>
+      </c>
+      <c r="D2158" s="0">
+        <v>0.029106126065776</v>
+      </c>
+      <c r="E2158" s="0">
+        <v>98</v>
+      </c>
+      <c r="F2158" s="0">
+        <v>4.27574171029668E-02</v>
+      </c>
+      <c r="G2158" s="0">
+        <v>1011</v>
+      </c>
+      <c r="H2158" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2159">
+      <c r="A2159" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2159" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2159" s="0">
+        <v>340</v>
+      </c>
+      <c r="D2159" s="0">
+        <v>1.44152700107267E-03</v>
+      </c>
+      <c r="E2159" s="0">
+        <v>2</v>
+      </c>
+      <c r="F2159" s="0">
+        <v>8.7260034904014E-04</v>
+      </c>
+      <c r="G2159" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2159" s="0">
         <v>0</v>
       </c>
     </row>
@@ -59692,11 +59972,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1018</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1041</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1018</Url>
-      <Description>HJYU5V3E37X6-122305290-1018</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1041</Url>
+      <Description>HJYU5V3E37X6-122305290-1041</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -59719,17 +59999,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA54C747-9DA3-456F-99B4-431864B84ED6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E98927B-91A9-4999-9D7D-4DD7B86525B6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A75213A-32D0-43C0-BF52-BCD1BE1455FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA60CAB-637B-4E14-8CDD-68524E83B6A6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BBF7A84-0EC4-4247-8008-923786A062D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D92B1ED-EA4C-45D0-9A10-B24F4185CE1F}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38EFC926-2BBA-4C33-9E22-579C8E2E660E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3BCA139-1641-4D93-8153-6CC6C3E6A8B3}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2079</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2159</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2079"/>
+  <dimension ref="A1:H2159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -57300,6 +57300,2246 @@
         <v>0</v>
       </c>
       <c r="H2079" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2080">
+      <c r="A2080" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2080" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2080" s="0">
+        <v>10848</v>
+      </c>
+      <c r="D2080" s="0">
+        <v>4.91888019298262E-02</v>
+      </c>
+      <c r="E2080" s="0">
+        <v>74</v>
+      </c>
+      <c r="F2080" s="0">
+        <v>4.33001755412522E-02</v>
+      </c>
+      <c r="G2080" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2080" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2081">
+      <c r="A2081" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2081" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2081" s="0">
+        <v>29289</v>
+      </c>
+      <c r="D2081" s="0">
+        <v>0.132807044590955</v>
+      </c>
+      <c r="E2081" s="0">
+        <v>190</v>
+      </c>
+      <c r="F2081" s="0">
+        <v>0.111176126389702</v>
+      </c>
+      <c r="G2081" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2081" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2082">
+      <c r="A2082" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2082" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2082" s="0">
+        <v>45013</v>
+      </c>
+      <c r="D2082" s="0">
+        <v>0.204105414939829</v>
+      </c>
+      <c r="E2082" s="0">
+        <v>248</v>
+      </c>
+      <c r="F2082" s="0">
+        <v>0.145114101813926</v>
+      </c>
+      <c r="G2082" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2082" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2083">
+      <c r="A2083" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2083" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2083" s="0">
+        <v>36042</v>
+      </c>
+      <c r="D2083" s="0">
+        <v>0.163427617916187</v>
+      </c>
+      <c r="E2083" s="0">
+        <v>252</v>
+      </c>
+      <c r="F2083" s="0">
+        <v>0.147454651843183</v>
+      </c>
+      <c r="G2083" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2083" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2084">
+      <c r="A2084" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2084" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2084" s="0">
+        <v>32757</v>
+      </c>
+      <c r="D2084" s="0">
+        <v>0.148532225738875</v>
+      </c>
+      <c r="E2084" s="0">
+        <v>256</v>
+      </c>
+      <c r="F2084" s="0">
+        <v>0.14979520187244</v>
+      </c>
+      <c r="G2084" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2084" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2085">
+      <c r="A2085" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2085" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2085" s="0">
+        <v>28787</v>
+      </c>
+      <c r="D2085" s="0">
+        <v>0.130530792879232</v>
+      </c>
+      <c r="E2085" s="0">
+        <v>252</v>
+      </c>
+      <c r="F2085" s="0">
+        <v>0.147454651843183</v>
+      </c>
+      <c r="G2085" s="0">
+        <v>285</v>
+      </c>
+      <c r="H2085" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2086">
+      <c r="A2086" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2086" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2086" s="0">
+        <v>19668</v>
+      </c>
+      <c r="D2086" s="0">
+        <v>8.91819096935676E-02</v>
+      </c>
+      <c r="E2086" s="0">
+        <v>210</v>
+      </c>
+      <c r="F2086" s="0">
+        <v>0.122878876535986</v>
+      </c>
+      <c r="G2086" s="0">
+        <v>557</v>
+      </c>
+      <c r="H2086" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2087">
+      <c r="A2087" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2087" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2087" s="0">
+        <v>11529</v>
+      </c>
+      <c r="D2087" s="0">
+        <v>5.22767051483191E-02</v>
+      </c>
+      <c r="E2087" s="0">
+        <v>132</v>
+      </c>
+      <c r="F2087" s="0">
+        <v>7.72381509654769E-02</v>
+      </c>
+      <c r="G2087" s="0">
+        <v>841</v>
+      </c>
+      <c r="H2087" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2088">
+      <c r="A2088" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2088" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2088" s="0">
+        <v>6279</v>
+      </c>
+      <c r="D2088" s="0">
+        <v>2.84712838603778E-02</v>
+      </c>
+      <c r="E2088" s="0">
+        <v>93</v>
+      </c>
+      <c r="F2088" s="0">
+        <v>5.44177881802224E-02</v>
+      </c>
+      <c r="G2088" s="0">
+        <v>965</v>
+      </c>
+      <c r="H2088" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2089">
+      <c r="A2089" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B2089" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2089" s="0">
+        <v>326</v>
+      </c>
+      <c r="D2089" s="0">
+        <v>1.47820330283216E-03</v>
+      </c>
+      <c r="E2089" s="0">
+        <v>2</v>
+      </c>
+      <c r="F2089" s="0">
+        <v>1.17027501462844E-03</v>
+      </c>
+      <c r="G2089" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2089" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2090">
+      <c r="A2090" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2090" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2090" s="0">
+        <v>10944</v>
+      </c>
+      <c r="D2090" s="0">
+        <v>0.049114335336382</v>
+      </c>
+      <c r="E2090" s="0">
+        <v>96</v>
+      </c>
+      <c r="F2090" s="0">
+        <v>4.19397116644823E-02</v>
+      </c>
+      <c r="G2090" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2090" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2091">
+      <c r="A2091" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2091" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2091" s="0">
+        <v>29572</v>
+      </c>
+      <c r="D2091" s="0">
+        <v>0.132712822054778</v>
+      </c>
+      <c r="E2091" s="0">
+        <v>283</v>
+      </c>
+      <c r="F2091" s="0">
+        <v>0.123634775010922</v>
+      </c>
+      <c r="G2091" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2091" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2092">
+      <c r="A2092" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2092" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2092" s="0">
+        <v>45375</v>
+      </c>
+      <c r="D2092" s="0">
+        <v>0.203633311941551</v>
+      </c>
+      <c r="E2092" s="0">
+        <v>362</v>
+      </c>
+      <c r="F2092" s="0">
+        <v>0.158147662734819</v>
+      </c>
+      <c r="G2092" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2092" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2093">
+      <c r="A2093" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2093" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2093" s="0">
+        <v>36365</v>
+      </c>
+      <c r="D2093" s="0">
+        <v>0.16319835567503</v>
+      </c>
+      <c r="E2093" s="0">
+        <v>323</v>
+      </c>
+      <c r="F2093" s="0">
+        <v>0.141109654871123</v>
+      </c>
+      <c r="G2093" s="0">
+        <v>43</v>
+      </c>
+      <c r="H2093" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2094">
+      <c r="A2094" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2094" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2094" s="0">
+        <v>33101</v>
+      </c>
+      <c r="D2094" s="0">
+        <v>0.148550220574706</v>
+      </c>
+      <c r="E2094" s="0">
+        <v>344</v>
+      </c>
+      <c r="F2094" s="0">
+        <v>0.150283966797728</v>
+      </c>
+      <c r="G2094" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2094" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2095">
+      <c r="A2095" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2095" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2095" s="0">
+        <v>29146</v>
+      </c>
+      <c r="D2095" s="0">
+        <v>0.130801025010434</v>
+      </c>
+      <c r="E2095" s="0">
+        <v>359</v>
+      </c>
+      <c r="F2095" s="0">
+        <v>0.156837046745304</v>
+      </c>
+      <c r="G2095" s="0">
+        <v>287</v>
+      </c>
+      <c r="H2095" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2096">
+      <c r="A2096" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2096" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2096" s="0">
+        <v>19943</v>
+      </c>
+      <c r="D2096" s="0">
+        <v>8.94999259515229E-02</v>
+      </c>
+      <c r="E2096" s="0">
+        <v>275</v>
+      </c>
+      <c r="F2096" s="0">
+        <v>0.120139799038882</v>
+      </c>
+      <c r="G2096" s="0">
+        <v>566</v>
+      </c>
+      <c r="H2096" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2097">
+      <c r="A2097" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2097" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2097" s="0">
+        <v>11698</v>
+      </c>
+      <c r="D2097" s="0">
+        <v>5.24981263491408E-02</v>
+      </c>
+      <c r="E2097" s="0">
+        <v>169</v>
+      </c>
+      <c r="F2097" s="0">
+        <v>7.38313674093491E-02</v>
+      </c>
+      <c r="G2097" s="0">
+        <v>852</v>
+      </c>
+      <c r="H2097" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2098">
+      <c r="A2098" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2098" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2098" s="0">
+        <v>6360</v>
+      </c>
+      <c r="D2098" s="0">
+        <v>2.85423220704852E-02</v>
+      </c>
+      <c r="E2098" s="0">
+        <v>81</v>
+      </c>
+      <c r="F2098" s="0">
+        <v>3.53866317169069E-02</v>
+      </c>
+      <c r="G2098" s="0">
+        <v>977</v>
+      </c>
+      <c r="H2098" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2099">
+      <c r="A2099" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B2099" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2099" s="0">
+        <v>323</v>
+      </c>
+      <c r="D2099" s="0">
+        <v>1.44955503596961E-03</v>
+      </c>
+      <c r="E2099" s="0">
+        <v>-3</v>
+      </c>
+      <c r="F2099" s="0">
+        <v>-1.31061598951507E-03</v>
+      </c>
+      <c r="G2099" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2099" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2100">
+      <c r="A2100" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2100" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2100" s="0">
+        <v>10978</v>
+      </c>
+      <c r="D2100" s="0">
+        <v>4.91201066700076E-02</v>
+      </c>
+      <c r="E2100" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2100" s="0">
+        <v>5.10510510510511E-02</v>
+      </c>
+      <c r="G2100" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2100" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2101">
+      <c r="A2101" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2101" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2101" s="0">
+        <v>29670</v>
+      </c>
+      <c r="D2101" s="0">
+        <v>0.132755835753245</v>
+      </c>
+      <c r="E2101" s="0">
+        <v>98</v>
+      </c>
+      <c r="F2101" s="0">
+        <v>0.147147147147147</v>
+      </c>
+      <c r="G2101" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2101" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2102">
+      <c r="A2102" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2102" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2102" s="0">
+        <v>45468</v>
+      </c>
+      <c r="D2102" s="0">
+        <v>0.203442613415185</v>
+      </c>
+      <c r="E2102" s="0">
+        <v>93</v>
+      </c>
+      <c r="F2102" s="0">
+        <v>0.13963963963964</v>
+      </c>
+      <c r="G2102" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2102" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2103">
+      <c r="A2103" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2103" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2103" s="0">
+        <v>36465</v>
+      </c>
+      <c r="D2103" s="0">
+        <v>0.163159472556187</v>
+      </c>
+      <c r="E2103" s="0">
+        <v>100</v>
+      </c>
+      <c r="F2103" s="0">
+        <v>0.15015015015015</v>
+      </c>
+      <c r="G2103" s="0">
+        <v>43</v>
+      </c>
+      <c r="H2103" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2104">
+      <c r="A2104" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2104" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2104" s="0">
+        <v>33214</v>
+      </c>
+      <c r="D2104" s="0">
+        <v>0.148613155669305</v>
+      </c>
+      <c r="E2104" s="0">
+        <v>113</v>
+      </c>
+      <c r="F2104" s="0">
+        <v>0.16966966966967</v>
+      </c>
+      <c r="G2104" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2104" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2105">
+      <c r="A2105" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2105" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2105" s="0">
+        <v>29229</v>
+      </c>
+      <c r="D2105" s="0">
+        <v>0.130782619589875</v>
+      </c>
+      <c r="E2105" s="0">
+        <v>83</v>
+      </c>
+      <c r="F2105" s="0">
+        <v>0.124624624624625</v>
+      </c>
+      <c r="G2105" s="0">
+        <v>286</v>
+      </c>
+      <c r="H2105" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2106">
+      <c r="A2106" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2106" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2106" s="0">
+        <v>20019</v>
+      </c>
+      <c r="D2106" s="0">
+        <v>8.95732752256223E-02</v>
+      </c>
+      <c r="E2106" s="0">
+        <v>76</v>
+      </c>
+      <c r="F2106" s="0">
+        <v>0.114114114114114</v>
+      </c>
+      <c r="G2106" s="0">
+        <v>568</v>
+      </c>
+      <c r="H2106" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2107">
+      <c r="A2107" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2107" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2107" s="0">
+        <v>11742</v>
+      </c>
+      <c r="D2107" s="0">
+        <v>5.25385582546209E-02</v>
+      </c>
+      <c r="E2107" s="0">
+        <v>44</v>
+      </c>
+      <c r="F2107" s="0">
+        <v>6.60660660660661E-02</v>
+      </c>
+      <c r="G2107" s="0">
+        <v>856</v>
+      </c>
+      <c r="H2107" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2108">
+      <c r="A2108" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2108" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2108" s="0">
+        <v>6384</v>
+      </c>
+      <c r="D2108" s="0">
+        <v>2.85646530316386E-02</v>
+      </c>
+      <c r="E2108" s="0">
+        <v>24</v>
+      </c>
+      <c r="F2108" s="0">
+        <v>0.036036036036036</v>
+      </c>
+      <c r="G2108" s="0">
+        <v>979</v>
+      </c>
+      <c r="H2108" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2109">
+      <c r="A2109" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B2109" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2109" s="0">
+        <v>324</v>
+      </c>
+      <c r="D2109" s="0">
+        <v>1.44970983431248E-03</v>
+      </c>
+      <c r="E2109" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2109" s="0">
+        <v>1.5015015015015E-03</v>
+      </c>
+      <c r="G2109" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2109" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2110">
+      <c r="A2110" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2110" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2110" s="0">
+        <v>11102</v>
+      </c>
+      <c r="D2110" s="0">
+        <v>4.90936990081322E-02</v>
+      </c>
+      <c r="E2110" s="0">
+        <v>124</v>
+      </c>
+      <c r="F2110" s="0">
+        <v>4.68631897203326E-02</v>
+      </c>
+      <c r="G2110" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2110" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2111">
+      <c r="A2111" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2111" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2111" s="0">
+        <v>30009</v>
+      </c>
+      <c r="D2111" s="0">
+        <v>0.132701568504327</v>
+      </c>
+      <c r="E2111" s="0">
+        <v>339</v>
+      </c>
+      <c r="F2111" s="0">
+        <v>0.1281179138322</v>
+      </c>
+      <c r="G2111" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2111" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2112">
+      <c r="A2112" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2112" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2112" s="0">
+        <v>45954</v>
+      </c>
+      <c r="D2112" s="0">
+        <v>0.203211299245155</v>
+      </c>
+      <c r="E2112" s="0">
+        <v>486</v>
+      </c>
+      <c r="F2112" s="0">
+        <v>0.183673469387755</v>
+      </c>
+      <c r="G2112" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2112" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2113">
+      <c r="A2113" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2113" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2113" s="0">
+        <v>36841</v>
+      </c>
+      <c r="D2113" s="0">
+        <v>0.162913075586254</v>
+      </c>
+      <c r="E2113" s="0">
+        <v>376</v>
+      </c>
+      <c r="F2113" s="0">
+        <v>0.142101284958428</v>
+      </c>
+      <c r="G2113" s="0">
+        <v>43</v>
+      </c>
+      <c r="H2113" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2114">
+      <c r="A2114" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2114" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2114" s="0">
+        <v>33571</v>
+      </c>
+      <c r="D2114" s="0">
+        <v>0.148452942659161</v>
+      </c>
+      <c r="E2114" s="0">
+        <v>357</v>
+      </c>
+      <c r="F2114" s="0">
+        <v>0.134920634920635</v>
+      </c>
+      <c r="G2114" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2114" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2115">
+      <c r="A2115" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2115" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2115" s="0">
+        <v>29612</v>
+      </c>
+      <c r="D2115" s="0">
+        <v>0.13094601108168</v>
+      </c>
+      <c r="E2115" s="0">
+        <v>383</v>
+      </c>
+      <c r="F2115" s="0">
+        <v>0.14474678760393</v>
+      </c>
+      <c r="G2115" s="0">
+        <v>291</v>
+      </c>
+      <c r="H2115" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2116">
+      <c r="A2116" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2116" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2116" s="0">
+        <v>20304</v>
+      </c>
+      <c r="D2116" s="0">
+        <v>8.97854859179531E-02</v>
+      </c>
+      <c r="E2116" s="0">
+        <v>285</v>
+      </c>
+      <c r="F2116" s="0">
+        <v>0.107709750566893</v>
+      </c>
+      <c r="G2116" s="0">
+        <v>575</v>
+      </c>
+      <c r="H2116" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2117">
+      <c r="A2117" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2117" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2117" s="0">
+        <v>11936</v>
+      </c>
+      <c r="D2117" s="0">
+        <v>5.27816962133909E-02</v>
+      </c>
+      <c r="E2117" s="0">
+        <v>194</v>
+      </c>
+      <c r="F2117" s="0">
+        <v>0.073318216175359</v>
+      </c>
+      <c r="G2117" s="0">
+        <v>866</v>
+      </c>
+      <c r="H2117" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2118">
+      <c r="A2118" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2118" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2118" s="0">
+        <v>6481</v>
+      </c>
+      <c r="D2118" s="0">
+        <v>2.86593643732395E-02</v>
+      </c>
+      <c r="E2118" s="0">
+        <v>97</v>
+      </c>
+      <c r="F2118" s="0">
+        <v>3.66591080876795E-02</v>
+      </c>
+      <c r="G2118" s="0">
+        <v>989</v>
+      </c>
+      <c r="H2118" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2119">
+      <c r="A2119" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B2119" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2119" s="0">
+        <v>329</v>
+      </c>
+      <c r="D2119" s="0">
+        <v>1.45485741070757E-03</v>
+      </c>
+      <c r="E2119" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2119" s="0">
+        <v>1.8896447467876E-03</v>
+      </c>
+      <c r="G2119" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2119" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2120">
+      <c r="A2120" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2120" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2120" s="0">
+        <v>11223</v>
+      </c>
+      <c r="D2120" s="0">
+        <v>4.90635819955933E-02</v>
+      </c>
+      <c r="E2120" s="0">
+        <v>121</v>
+      </c>
+      <c r="F2120" s="0">
+        <v>4.64491362763916E-02</v>
+      </c>
+      <c r="G2120" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2120" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2121">
+      <c r="A2121" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2121" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2121" s="0">
+        <v>30357</v>
+      </c>
+      <c r="D2121" s="0">
+        <v>0.132711677683349</v>
+      </c>
+      <c r="E2121" s="0">
+        <v>348</v>
+      </c>
+      <c r="F2121" s="0">
+        <v>0.133589251439539</v>
+      </c>
+      <c r="G2121" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2121" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2122">
+      <c r="A2122" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2122" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2122" s="0">
+        <v>46376</v>
+      </c>
+      <c r="D2122" s="0">
+        <v>0.202741929842969</v>
+      </c>
+      <c r="E2122" s="0">
+        <v>422</v>
+      </c>
+      <c r="F2122" s="0">
+        <v>0.161996161228407</v>
+      </c>
+      <c r="G2122" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2122" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2123">
+      <c r="A2123" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2123" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2123" s="0">
+        <v>37214</v>
+      </c>
+      <c r="D2123" s="0">
+        <v>0.162688420242717</v>
+      </c>
+      <c r="E2123" s="0">
+        <v>373</v>
+      </c>
+      <c r="F2123" s="0">
+        <v>0.143186180422265</v>
+      </c>
+      <c r="G2123" s="0">
+        <v>43</v>
+      </c>
+      <c r="H2123" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2124">
+      <c r="A2124" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2124" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2124" s="0">
+        <v>33915</v>
+      </c>
+      <c r="D2124" s="0">
+        <v>0.148266184031057</v>
+      </c>
+      <c r="E2124" s="0">
+        <v>344</v>
+      </c>
+      <c r="F2124" s="0">
+        <v>0.132053742802303</v>
+      </c>
+      <c r="G2124" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2124" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2125">
+      <c r="A2125" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2125" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2125" s="0">
+        <v>29994</v>
+      </c>
+      <c r="D2125" s="0">
+        <v>0.131124750813136</v>
+      </c>
+      <c r="E2125" s="0">
+        <v>382</v>
+      </c>
+      <c r="F2125" s="0">
+        <v>0.146641074856046</v>
+      </c>
+      <c r="G2125" s="0">
+        <v>291</v>
+      </c>
+      <c r="H2125" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2126">
+      <c r="A2126" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2126" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2126" s="0">
+        <v>20593</v>
+      </c>
+      <c r="D2126" s="0">
+        <v>9.00264050641765E-02</v>
+      </c>
+      <c r="E2126" s="0">
+        <v>289</v>
+      </c>
+      <c r="F2126" s="0">
+        <v>0.110940499040307</v>
+      </c>
+      <c r="G2126" s="0">
+        <v>579</v>
+      </c>
+      <c r="H2126" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2127">
+      <c r="A2127" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2127" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2127" s="0">
+        <v>12146</v>
+      </c>
+      <c r="D2127" s="0">
+        <v>0.053098660511314</v>
+      </c>
+      <c r="E2127" s="0">
+        <v>210</v>
+      </c>
+      <c r="F2127" s="0">
+        <v>8.06142034548944E-02</v>
+      </c>
+      <c r="G2127" s="0">
+        <v>868</v>
+      </c>
+      <c r="H2127" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2128">
+      <c r="A2128" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2128" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2128" s="0">
+        <v>6592</v>
+      </c>
+      <c r="D2128" s="0">
+        <v>2.88182422271185E-02</v>
+      </c>
+      <c r="E2128" s="0">
+        <v>111</v>
+      </c>
+      <c r="F2128" s="0">
+        <v>4.26103646833013E-02</v>
+      </c>
+      <c r="G2128" s="0">
+        <v>989</v>
+      </c>
+      <c r="H2128" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2129">
+      <c r="A2129" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B2129" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2129" s="0">
+        <v>334</v>
+      </c>
+      <c r="D2129" s="0">
+        <v>1.46014758857063E-03</v>
+      </c>
+      <c r="E2129" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2129" s="0">
+        <v>1.91938579654511E-03</v>
+      </c>
+      <c r="G2129" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2129" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2130">
+      <c r="A2130" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2130" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2130" s="0">
+        <v>11367</v>
+      </c>
+      <c r="D2130" s="0">
+        <v>4.89828105541215E-02</v>
+      </c>
+      <c r="E2130" s="0">
+        <v>144</v>
+      </c>
+      <c r="F2130" s="0">
+        <v>4.34127223394634E-02</v>
+      </c>
+      <c r="G2130" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2130" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2131">
+      <c r="A2131" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2131" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2131" s="0">
+        <v>30779</v>
+      </c>
+      <c r="D2131" s="0">
+        <v>0.13263323005589</v>
+      </c>
+      <c r="E2131" s="0">
+        <v>422</v>
+      </c>
+      <c r="F2131" s="0">
+        <v>0.127223394633705</v>
+      </c>
+      <c r="G2131" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2131" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2132">
+      <c r="A2132" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2132" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2132" s="0">
+        <v>46996</v>
+      </c>
+      <c r="D2132" s="0">
+        <v>0.202515717850048</v>
+      </c>
+      <c r="E2132" s="0">
+        <v>620</v>
+      </c>
+      <c r="F2132" s="0">
+        <v>0.186915887850467</v>
+      </c>
+      <c r="G2132" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2132" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2133">
+      <c r="A2133" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2133" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2133" s="0">
+        <v>37695</v>
+      </c>
+      <c r="D2133" s="0">
+        <v>0.162435738879002</v>
+      </c>
+      <c r="E2133" s="0">
+        <v>481</v>
+      </c>
+      <c r="F2133" s="0">
+        <v>0.145010551703346</v>
+      </c>
+      <c r="G2133" s="0">
+        <v>43</v>
+      </c>
+      <c r="H2133" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2134">
+      <c r="A2134" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2134" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2134" s="0">
+        <v>34394</v>
+      </c>
+      <c r="D2134" s="0">
+        <v>0.148211030720371</v>
+      </c>
+      <c r="E2134" s="0">
+        <v>479</v>
+      </c>
+      <c r="F2134" s="0">
+        <v>0.144407597226409</v>
+      </c>
+      <c r="G2134" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2134" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2135">
+      <c r="A2135" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2135" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2135" s="0">
+        <v>30479</v>
+      </c>
+      <c r="D2135" s="0">
+        <v>0.13134046651527</v>
+      </c>
+      <c r="E2135" s="0">
+        <v>485</v>
+      </c>
+      <c r="F2135" s="0">
+        <v>0.14621646065722</v>
+      </c>
+      <c r="G2135" s="0">
+        <v>293</v>
+      </c>
+      <c r="H2135" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2136">
+      <c r="A2136" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2136" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2136" s="0">
+        <v>20926</v>
+      </c>
+      <c r="D2136" s="0">
+        <v>9.01745661701018E-02</v>
+      </c>
+      <c r="E2136" s="0">
+        <v>333</v>
+      </c>
+      <c r="F2136" s="0">
+        <v>0.100391920410009</v>
+      </c>
+      <c r="G2136" s="0">
+        <v>581</v>
+      </c>
+      <c r="H2136" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2137">
+      <c r="A2137" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2137" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2137" s="0">
+        <v>12376</v>
+      </c>
+      <c r="D2137" s="0">
+        <v>5.33308052624095E-02</v>
+      </c>
+      <c r="E2137" s="0">
+        <v>230</v>
+      </c>
+      <c r="F2137" s="0">
+        <v>0.069339764847754</v>
+      </c>
+      <c r="G2137" s="0">
+        <v>871</v>
+      </c>
+      <c r="H2137" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2138">
+      <c r="A2138" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2138" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2138" s="0">
+        <v>6709</v>
+      </c>
+      <c r="D2138" s="0">
+        <v>2.89105019800828E-02</v>
+      </c>
+      <c r="E2138" s="0">
+        <v>117</v>
+      </c>
+      <c r="F2138" s="0">
+        <v>0.035272836900814</v>
+      </c>
+      <c r="G2138" s="0">
+        <v>995</v>
+      </c>
+      <c r="H2138" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2139">
+      <c r="A2139" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B2139" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2139" s="0">
+        <v>340</v>
+      </c>
+      <c r="D2139" s="0">
+        <v>1.46513201270356E-03</v>
+      </c>
+      <c r="E2139" s="0">
+        <v>6</v>
+      </c>
+      <c r="F2139" s="0">
+        <v>1.80886343081097E-03</v>
+      </c>
+      <c r="G2139" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2139" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2140">
+      <c r="A2140" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2140" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2140" s="0">
+        <v>11436</v>
+      </c>
+      <c r="D2140" s="0">
+        <v>4.89619769746841E-02</v>
+      </c>
+      <c r="E2140" s="0">
+        <v>69</v>
+      </c>
+      <c r="F2140" s="0">
+        <v>4.57559681697613E-02</v>
+      </c>
+      <c r="G2140" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2140" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2141">
+      <c r="A2141" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2141" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2141" s="0">
+        <v>30974</v>
+      </c>
+      <c r="D2141" s="0">
+        <v>0.132611776391559</v>
+      </c>
+      <c r="E2141" s="0">
+        <v>195</v>
+      </c>
+      <c r="F2141" s="0">
+        <v>0.129310344827586</v>
+      </c>
+      <c r="G2141" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2141" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2142">
+      <c r="A2142" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2142" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2142" s="0">
+        <v>47261</v>
+      </c>
+      <c r="D2142" s="0">
+        <v>0.202342776652724</v>
+      </c>
+      <c r="E2142" s="0">
+        <v>265</v>
+      </c>
+      <c r="F2142" s="0">
+        <v>0.175729442970822</v>
+      </c>
+      <c r="G2142" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2142" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2143">
+      <c r="A2143" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2143" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2143" s="0">
+        <v>37939</v>
+      </c>
+      <c r="D2143" s="0">
+        <v>0.16243165831082</v>
+      </c>
+      <c r="E2143" s="0">
+        <v>244</v>
+      </c>
+      <c r="F2143" s="0">
+        <v>0.161803713527851</v>
+      </c>
+      <c r="G2143" s="0">
+        <v>44</v>
+      </c>
+      <c r="H2143" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2144">
+      <c r="A2144" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2144" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2144" s="0">
+        <v>34595</v>
+      </c>
+      <c r="D2144" s="0">
+        <v>0.148114689877509</v>
+      </c>
+      <c r="E2144" s="0">
+        <v>201</v>
+      </c>
+      <c r="F2144" s="0">
+        <v>0.133289124668435</v>
+      </c>
+      <c r="G2144" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2144" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2145">
+      <c r="A2145" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2145" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2145" s="0">
+        <v>30685</v>
+      </c>
+      <c r="D2145" s="0">
+        <v>0.131374454657938</v>
+      </c>
+      <c r="E2145" s="0">
+        <v>206</v>
+      </c>
+      <c r="F2145" s="0">
+        <v>0.136604774535809</v>
+      </c>
+      <c r="G2145" s="0">
+        <v>294</v>
+      </c>
+      <c r="H2145" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2146">
+      <c r="A2146" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2146" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2146" s="0">
+        <v>21089</v>
+      </c>
+      <c r="D2146" s="0">
+        <v>9.02902354336406E-02</v>
+      </c>
+      <c r="E2146" s="0">
+        <v>163</v>
+      </c>
+      <c r="F2146" s="0">
+        <v>0.108090185676393</v>
+      </c>
+      <c r="G2146" s="0">
+        <v>588</v>
+      </c>
+      <c r="H2146" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2147">
+      <c r="A2147" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2147" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2147" s="0">
+        <v>12485</v>
+      </c>
+      <c r="D2147" s="0">
+        <v>5.34531551704207E-02</v>
+      </c>
+      <c r="E2147" s="0">
+        <v>109</v>
+      </c>
+      <c r="F2147" s="0">
+        <v>7.22811671087533E-02</v>
+      </c>
+      <c r="G2147" s="0">
+        <v>880</v>
+      </c>
+      <c r="H2147" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2148">
+      <c r="A2148" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2148" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2148" s="0">
+        <v>6767</v>
+      </c>
+      <c r="D2148" s="0">
+        <v>2.89721666830787E-02</v>
+      </c>
+      <c r="E2148" s="0">
+        <v>58</v>
+      </c>
+      <c r="F2148" s="0">
+        <v>3.84615384615385E-02</v>
+      </c>
+      <c r="G2148" s="0">
+        <v>1007</v>
+      </c>
+      <c r="H2148" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2149">
+      <c r="A2149" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B2149" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2149" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2149" s="0">
+        <v>1.44710984762533E-03</v>
+      </c>
+      <c r="E2149" s="0">
+        <v>-2</v>
+      </c>
+      <c r="F2149" s="0">
+        <v>-1.3262599469496E-03</v>
+      </c>
+      <c r="G2149" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2149" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2150">
+      <c r="A2150" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2150" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2150" s="0">
+        <v>11531</v>
+      </c>
+      <c r="D2150" s="0">
+        <v>4.88889642628497E-02</v>
+      </c>
+      <c r="E2150" s="0">
+        <v>95</v>
+      </c>
+      <c r="F2150" s="0">
+        <v>4.14485165794066E-02</v>
+      </c>
+      <c r="G2150" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2150" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2151">
+      <c r="A2151" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2151" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2151" s="0">
+        <v>31230</v>
+      </c>
+      <c r="D2151" s="0">
+        <v>0.132408494833822</v>
+      </c>
+      <c r="E2151" s="0">
+        <v>256</v>
+      </c>
+      <c r="F2151" s="0">
+        <v>0.111692844677138</v>
+      </c>
+      <c r="G2151" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2151" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2152">
+      <c r="A2152" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2152" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2152" s="0">
+        <v>47659</v>
+      </c>
+      <c r="D2152" s="0">
+        <v>0.202063927482712</v>
+      </c>
+      <c r="E2152" s="0">
+        <v>398</v>
+      </c>
+      <c r="F2152" s="0">
+        <v>0.173647469458988</v>
+      </c>
+      <c r="G2152" s="0">
+        <v>20</v>
+      </c>
+      <c r="H2152" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2153">
+      <c r="A2153" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2153" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2153" s="0">
+        <v>38261</v>
+      </c>
+      <c r="D2153" s="0">
+        <v>0.162218425258945</v>
+      </c>
+      <c r="E2153" s="0">
+        <v>322</v>
+      </c>
+      <c r="F2153" s="0">
+        <v>0.140488656195462</v>
+      </c>
+      <c r="G2153" s="0">
+        <v>44</v>
+      </c>
+      <c r="H2153" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2154">
+      <c r="A2154" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2154" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2154" s="0">
+        <v>34988</v>
+      </c>
+      <c r="D2154" s="0">
+        <v>0.148341607980972</v>
+      </c>
+      <c r="E2154" s="0">
+        <v>393</v>
+      </c>
+      <c r="F2154" s="0">
+        <v>0.171465968586387</v>
+      </c>
+      <c r="G2154" s="0">
+        <v>115</v>
+      </c>
+      <c r="H2154" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2155">
+      <c r="A2155" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2155" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2155" s="0">
+        <v>31050</v>
+      </c>
+      <c r="D2155" s="0">
+        <v>0.131645333480313</v>
+      </c>
+      <c r="E2155" s="0">
+        <v>365</v>
+      </c>
+      <c r="F2155" s="0">
+        <v>0.159249563699825</v>
+      </c>
+      <c r="G2155" s="0">
+        <v>293</v>
+      </c>
+      <c r="H2155" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2156">
+      <c r="A2156" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2156" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2156" s="0">
+        <v>21325</v>
+      </c>
+      <c r="D2156" s="0">
+        <v>0.090413421464337</v>
+      </c>
+      <c r="E2156" s="0">
+        <v>236</v>
+      </c>
+      <c r="F2156" s="0">
+        <v>0.102966841186736</v>
+      </c>
+      <c r="G2156" s="0">
+        <v>591</v>
+      </c>
+      <c r="H2156" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2157">
+      <c r="A2157" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2157" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2157" s="0">
+        <v>12612</v>
+      </c>
+      <c r="D2157" s="0">
+        <v>5.34721721692014E-02</v>
+      </c>
+      <c r="E2157" s="0">
+        <v>127</v>
+      </c>
+      <c r="F2157" s="0">
+        <v>5.54101221640489E-02</v>
+      </c>
+      <c r="G2157" s="0">
+        <v>891</v>
+      </c>
+      <c r="H2157" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2158">
+      <c r="A2158" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2158" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2158" s="0">
+        <v>6865</v>
+      </c>
+      <c r="D2158" s="0">
+        <v>0.029106126065776</v>
+      </c>
+      <c r="E2158" s="0">
+        <v>98</v>
+      </c>
+      <c r="F2158" s="0">
+        <v>4.27574171029668E-02</v>
+      </c>
+      <c r="G2158" s="0">
+        <v>1011</v>
+      </c>
+      <c r="H2158" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2159">
+      <c r="A2159" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B2159" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2159" s="0">
+        <v>340</v>
+      </c>
+      <c r="D2159" s="0">
+        <v>1.44152700107267E-03</v>
+      </c>
+      <c r="E2159" s="0">
+        <v>2</v>
+      </c>
+      <c r="F2159" s="0">
+        <v>8.7260034904014E-04</v>
+      </c>
+      <c r="G2159" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2159" s="0">
         <v>0</v>
       </c>
     </row>
@@ -57732,11 +59972,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-870</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1041</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-870</Url>
-      <Description>HJYU5V3E37X6-122305290-870</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1041</Url>
+      <Description>HJYU5V3E37X6-122305290-1041</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -57759,17 +59999,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059E8A7C-A8A3-47B5-9B3C-2AF7248024E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E98927B-91A9-4999-9D7D-4DD7B86525B6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69142BE4-B42F-437F-A31C-C88CC2555FF0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA60CAB-637B-4E14-8CDD-68524E83B6A6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5DA645-4445-4D61-8DC2-A6BFF98A6E51}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D92B1ED-EA4C-45D0-9A10-B24F4185CE1F}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2600D85-6200-4F35-B6E2-D841BA5472E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3BCA139-1641-4D93-8153-6CC6C3E6A8B3}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2159</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2169</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2159"/>
+  <dimension ref="A1:H2169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -59540,6 +59540,286 @@
         <v>0</v>
       </c>
       <c r="H2159" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2160">
+      <c r="A2160" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B2160" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2160" s="0">
+        <v>11629</v>
+      </c>
+      <c r="D2160" s="0">
+        <v>4.88804448797219E-02</v>
+      </c>
+      <c r="E2160" s="0">
+        <v>98</v>
+      </c>
+      <c r="F2160" s="0">
+        <v>4.78983382209189E-02</v>
+      </c>
+      <c r="G2160" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2160" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2161">
+      <c r="A2161" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B2161" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2161" s="0">
+        <v>31494</v>
+      </c>
+      <c r="D2161" s="0">
+        <v>0.132379459200444</v>
+      </c>
+      <c r="E2161" s="0">
+        <v>264</v>
+      </c>
+      <c r="F2161" s="0">
+        <v>0.129032258064516</v>
+      </c>
+      <c r="G2161" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2161" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2162">
+      <c r="A2162" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B2162" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2162" s="0">
+        <v>48019</v>
+      </c>
+      <c r="D2162" s="0">
+        <v>0.20183937420925</v>
+      </c>
+      <c r="E2162" s="0">
+        <v>360</v>
+      </c>
+      <c r="F2162" s="0">
+        <v>0.175953079178886</v>
+      </c>
+      <c r="G2162" s="0">
+        <v>20</v>
+      </c>
+      <c r="H2162" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2163">
+      <c r="A2163" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B2163" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2163" s="0">
+        <v>38548</v>
+      </c>
+      <c r="D2163" s="0">
+        <v>0.162029700681359</v>
+      </c>
+      <c r="E2163" s="0">
+        <v>287</v>
+      </c>
+      <c r="F2163" s="0">
+        <v>0.140273704789834</v>
+      </c>
+      <c r="G2163" s="0">
+        <v>44</v>
+      </c>
+      <c r="H2163" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2164">
+      <c r="A2164" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B2164" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2164" s="0">
+        <v>35300</v>
+      </c>
+      <c r="D2164" s="0">
+        <v>0.148377307098992</v>
+      </c>
+      <c r="E2164" s="0">
+        <v>312</v>
+      </c>
+      <c r="F2164" s="0">
+        <v>0.152492668621701</v>
+      </c>
+      <c r="G2164" s="0">
+        <v>116</v>
+      </c>
+      <c r="H2164" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2165">
+      <c r="A2165" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B2165" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2165" s="0">
+        <v>31381</v>
+      </c>
+      <c r="D2165" s="0">
+        <v>0.131904483684801</v>
+      </c>
+      <c r="E2165" s="0">
+        <v>331</v>
+      </c>
+      <c r="F2165" s="0">
+        <v>0.16177908113392</v>
+      </c>
+      <c r="G2165" s="0">
+        <v>297</v>
+      </c>
+      <c r="H2165" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2166">
+      <c r="A2166" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B2166" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2166" s="0">
+        <v>21549</v>
+      </c>
+      <c r="D2166" s="0">
+        <v>9.05774105007419E-02</v>
+      </c>
+      <c r="E2166" s="0">
+        <v>224</v>
+      </c>
+      <c r="F2166" s="0">
+        <v>0.109481915933529</v>
+      </c>
+      <c r="G2166" s="0">
+        <v>600</v>
+      </c>
+      <c r="H2166" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2167">
+      <c r="A2167" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B2167" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2167" s="0">
+        <v>12726</v>
+      </c>
+      <c r="D2167" s="0">
+        <v>5.34914903722883E-02</v>
+      </c>
+      <c r="E2167" s="0">
+        <v>114</v>
+      </c>
+      <c r="F2167" s="0">
+        <v>5.57184750733138E-02</v>
+      </c>
+      <c r="G2167" s="0">
+        <v>901</v>
+      </c>
+      <c r="H2167" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2168">
+      <c r="A2168" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B2168" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2168" s="0">
+        <v>6921</v>
+      </c>
+      <c r="D2168" s="0">
+        <v>2.90911995023265E-02</v>
+      </c>
+      <c r="E2168" s="0">
+        <v>56</v>
+      </c>
+      <c r="F2168" s="0">
+        <v>2.73704789833822E-02</v>
+      </c>
+      <c r="G2168" s="0">
+        <v>1028</v>
+      </c>
+      <c r="H2168" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2169">
+      <c r="A2169" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B2169" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2169" s="0">
+        <v>340</v>
+      </c>
+      <c r="D2169" s="0">
+        <v>1.42912987007528E-03</v>
+      </c>
+      <c r="E2169" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2169" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2169" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2169" s="0">
         <v>0</v>
       </c>
     </row>
@@ -59972,11 +60252,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1041</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1072</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1041</Url>
-      <Description>HJYU5V3E37X6-122305290-1041</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1072</Url>
+      <Description>HJYU5V3E37X6-122305290-1072</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -59999,17 +60279,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E98927B-91A9-4999-9D7D-4DD7B86525B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3505CBC5-9DBD-4761-B390-B3730E52F6E2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA60CAB-637B-4E14-8CDD-68524E83B6A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{191B511E-42D0-4826-92A6-A4FF094D0ABC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D92B1ED-EA4C-45D0-9A10-B24F4185CE1F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E4AE36-E611-402D-BD21-16E3AA34F215}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3BCA139-1641-4D93-8153-6CC6C3E6A8B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7578F196-8145-4008-A17C-F80A0BBCA4C1}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2169</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2179</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2169"/>
+  <dimension ref="A1:H2179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -59820,6 +59820,286 @@
         <v>0</v>
       </c>
       <c r="H2169" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2170">
+      <c r="A2170" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B2170" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2170" s="0">
+        <v>11797</v>
+      </c>
+      <c r="D2170" s="0">
+        <v>4.88462318798574E-02</v>
+      </c>
+      <c r="E2170" s="0">
+        <v>168</v>
+      </c>
+      <c r="F2170" s="0">
+        <v>4.65890183028286E-02</v>
+      </c>
+      <c r="G2170" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2170" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2171">
+      <c r="A2171" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B2171" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2171" s="0">
+        <v>31947</v>
+      </c>
+      <c r="D2171" s="0">
+        <v>0.13227859369889</v>
+      </c>
+      <c r="E2171" s="0">
+        <v>453</v>
+      </c>
+      <c r="F2171" s="0">
+        <v>0.125623960066556</v>
+      </c>
+      <c r="G2171" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2171" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2172">
+      <c r="A2172" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B2172" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2172" s="0">
+        <v>48653</v>
+      </c>
+      <c r="D2172" s="0">
+        <v>0.20145085357724</v>
+      </c>
+      <c r="E2172" s="0">
+        <v>634</v>
+      </c>
+      <c r="F2172" s="0">
+        <v>0.175818080976151</v>
+      </c>
+      <c r="G2172" s="0">
+        <v>20</v>
+      </c>
+      <c r="H2172" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2173">
+      <c r="A2173" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B2173" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2173" s="0">
+        <v>39028</v>
+      </c>
+      <c r="D2173" s="0">
+        <v>0.161597926405618</v>
+      </c>
+      <c r="E2173" s="0">
+        <v>480</v>
+      </c>
+      <c r="F2173" s="0">
+        <v>0.133111480865225</v>
+      </c>
+      <c r="G2173" s="0">
+        <v>45</v>
+      </c>
+      <c r="H2173" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2174">
+      <c r="A2174" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B2174" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2174" s="0">
+        <v>35837</v>
+      </c>
+      <c r="D2174" s="0">
+        <v>0.148385387122018</v>
+      </c>
+      <c r="E2174" s="0">
+        <v>537</v>
+      </c>
+      <c r="F2174" s="0">
+        <v>0.14891846921797</v>
+      </c>
+      <c r="G2174" s="0">
+        <v>118</v>
+      </c>
+      <c r="H2174" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2175">
+      <c r="A2175" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B2175" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2175" s="0">
+        <v>31921</v>
+      </c>
+      <c r="D2175" s="0">
+        <v>0.132170939038478</v>
+      </c>
+      <c r="E2175" s="0">
+        <v>540</v>
+      </c>
+      <c r="F2175" s="0">
+        <v>0.149750415973378</v>
+      </c>
+      <c r="G2175" s="0">
+        <v>300</v>
+      </c>
+      <c r="H2175" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2176">
+      <c r="A2176" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B2176" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2176" s="0">
+        <v>21942</v>
+      </c>
+      <c r="D2176" s="0">
+        <v>9.08522522597127E-02</v>
+      </c>
+      <c r="E2176" s="0">
+        <v>393</v>
+      </c>
+      <c r="F2176" s="0">
+        <v>0.108985024958403</v>
+      </c>
+      <c r="G2176" s="0">
+        <v>608</v>
+      </c>
+      <c r="H2176" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2177">
+      <c r="A2177" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B2177" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2177" s="0">
+        <v>12980</v>
+      </c>
+      <c r="D2177" s="0">
+        <v>5.37445189285877E-02</v>
+      </c>
+      <c r="E2177" s="0">
+        <v>254</v>
+      </c>
+      <c r="F2177" s="0">
+        <v>7.04381586245147E-02</v>
+      </c>
+      <c r="G2177" s="0">
+        <v>919</v>
+      </c>
+      <c r="H2177" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2178">
+      <c r="A2178" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B2178" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2178" s="0">
+        <v>7061</v>
+      </c>
+      <c r="D2178" s="0">
+        <v>2.92365214294883E-02</v>
+      </c>
+      <c r="E2178" s="0">
+        <v>140</v>
+      </c>
+      <c r="F2178" s="0">
+        <v>3.88241819190238E-02</v>
+      </c>
+      <c r="G2178" s="0">
+        <v>1061</v>
+      </c>
+      <c r="H2178" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2179">
+      <c r="A2179" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B2179" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2179" s="0">
+        <v>347</v>
+      </c>
+      <c r="D2179" s="0">
+        <v>1.43677566010939E-03</v>
+      </c>
+      <c r="E2179" s="0">
+        <v>7</v>
+      </c>
+      <c r="F2179" s="0">
+        <v>1.94120909595119E-03</v>
+      </c>
+      <c r="G2179" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2179" s="0">
         <v>0</v>
       </c>
     </row>
@@ -60252,11 +60532,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1072</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1093</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1072</Url>
-      <Description>HJYU5V3E37X6-122305290-1072</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1093</Url>
+      <Description>HJYU5V3E37X6-122305290-1093</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -60279,17 +60559,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3505CBC5-9DBD-4761-B390-B3730E52F6E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBF1DFB7-DBF2-4BBC-865B-D0879481F033}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{191B511E-42D0-4826-92A6-A4FF094D0ABC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23EC4CC4-B498-4840-84B4-1ACE5C7377CA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E4AE36-E611-402D-BD21-16E3AA34F215}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8475E61C-1DC8-4A25-A869-603C022A5E75}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7578F196-8145-4008-A17C-F80A0BBCA4C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CFCC8D0-24C7-4FCD-8E8C-476AFCBC34ED}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2179</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2189</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2179"/>
+  <dimension ref="A1:H2189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -60100,6 +60100,286 @@
         <v>0</v>
       </c>
       <c r="H2179" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2180">
+      <c r="A2180" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B2180" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2180" s="0">
+        <v>11913</v>
+      </c>
+      <c r="D2180" s="0">
+        <v>0.048806368221167</v>
+      </c>
+      <c r="E2180" s="0">
+        <v>116</v>
+      </c>
+      <c r="F2180" s="0">
+        <v>4.50660450660451E-02</v>
+      </c>
+      <c r="G2180" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2180" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2181">
+      <c r="A2181" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B2181" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2181" s="0">
+        <v>32320</v>
+      </c>
+      <c r="D2181" s="0">
+        <v>0.132411803987922</v>
+      </c>
+      <c r="E2181" s="0">
+        <v>373</v>
+      </c>
+      <c r="F2181" s="0">
+        <v>0.144910644910645</v>
+      </c>
+      <c r="G2181" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2181" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2182">
+      <c r="A2182" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B2182" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2182" s="0">
+        <v>49074</v>
+      </c>
+      <c r="D2182" s="0">
+        <v>0.201051264508147</v>
+      </c>
+      <c r="E2182" s="0">
+        <v>421</v>
+      </c>
+      <c r="F2182" s="0">
+        <v>0.163558663558664</v>
+      </c>
+      <c r="G2182" s="0">
+        <v>20</v>
+      </c>
+      <c r="H2182" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2183">
+      <c r="A2183" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B2183" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2183" s="0">
+        <v>39420</v>
+      </c>
+      <c r="D2183" s="0">
+        <v>0.161499793106556</v>
+      </c>
+      <c r="E2183" s="0">
+        <v>392</v>
+      </c>
+      <c r="F2183" s="0">
+        <v>0.152292152292152</v>
+      </c>
+      <c r="G2183" s="0">
+        <v>46</v>
+      </c>
+      <c r="H2183" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2184">
+      <c r="A2184" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B2184" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2184" s="0">
+        <v>36194</v>
+      </c>
+      <c r="D2184" s="0">
+        <v>0.148283194107019</v>
+      </c>
+      <c r="E2184" s="0">
+        <v>357</v>
+      </c>
+      <c r="F2184" s="0">
+        <v>0.138694638694639</v>
+      </c>
+      <c r="G2184" s="0">
+        <v>119</v>
+      </c>
+      <c r="H2184" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2185">
+      <c r="A2185" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B2185" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2185" s="0">
+        <v>32280</v>
+      </c>
+      <c r="D2185" s="0">
+        <v>0.132247927992888</v>
+      </c>
+      <c r="E2185" s="0">
+        <v>359</v>
+      </c>
+      <c r="F2185" s="0">
+        <v>0.139471639471639</v>
+      </c>
+      <c r="G2185" s="0">
+        <v>301</v>
+      </c>
+      <c r="H2185" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2186">
+      <c r="A2186" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B2186" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2186" s="0">
+        <v>22203</v>
+      </c>
+      <c r="D2186" s="0">
+        <v>9.09634679438069E-02</v>
+      </c>
+      <c r="E2186" s="0">
+        <v>261</v>
+      </c>
+      <c r="F2186" s="0">
+        <v>0.101398601398601</v>
+      </c>
+      <c r="G2186" s="0">
+        <v>613</v>
+      </c>
+      <c r="H2186" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2187">
+      <c r="A2187" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B2187" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2187" s="0">
+        <v>13149</v>
+      </c>
+      <c r="D2187" s="0">
+        <v>5.38701364677349E-02</v>
+      </c>
+      <c r="E2187" s="0">
+        <v>169</v>
+      </c>
+      <c r="F2187" s="0">
+        <v>6.56565656565657E-02</v>
+      </c>
+      <c r="G2187" s="0">
+        <v>924</v>
+      </c>
+      <c r="H2187" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2188">
+      <c r="A2188" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B2188" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2188" s="0">
+        <v>7177</v>
+      </c>
+      <c r="D2188" s="0">
+        <v>2.94034504090755E-02</v>
+      </c>
+      <c r="E2188" s="0">
+        <v>116</v>
+      </c>
+      <c r="F2188" s="0">
+        <v>4.50660450660451E-02</v>
+      </c>
+      <c r="G2188" s="0">
+        <v>1072</v>
+      </c>
+      <c r="H2188" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2189">
+      <c r="A2189" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B2189" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2189" s="0">
+        <v>357</v>
+      </c>
+      <c r="D2189" s="0">
+        <v>1.46259325568342E-03</v>
+      </c>
+      <c r="E2189" s="0">
+        <v>10</v>
+      </c>
+      <c r="F2189" s="0">
+        <v>3.88500388500389E-03</v>
+      </c>
+      <c r="G2189" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2189" s="0">
         <v>0</v>
       </c>
     </row>
@@ -60531,13 +60811,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1093</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1093</Url>
-      <Description>HJYU5V3E37X6-122305290-1093</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -60552,24 +60825,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1104</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1104</Url>
+      <Description>HJYU5V3E37X6-122305290-1104</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBF1DFB7-DBF2-4BBC-865B-D0879481F033}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19ED7B71-A110-47DB-9C8E-DCF7FAB26A3D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23EC4CC4-B498-4840-84B4-1ACE5C7377CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0B586D0-10CE-429E-A53F-0299F733F893}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8475E61C-1DC8-4A25-A869-603C022A5E75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB64BBA3-C5DB-4F10-8FFC-0E0690C4FEF5}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CFCC8D0-24C7-4FCD-8E8C-476AFCBC34ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03BEF0CC-A78E-464C-A933-91BF65731F00}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2189</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2199</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2189"/>
+  <dimension ref="A1:H2199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -60380,6 +60380,286 @@
         <v>0</v>
       </c>
       <c r="H2189" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2190">
+      <c r="A2190" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B2190" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2190" s="0">
+        <v>12073</v>
+      </c>
+      <c r="D2190" s="0">
+        <v>4.87626571669756E-02</v>
+      </c>
+      <c r="E2190" s="0">
+        <v>160</v>
+      </c>
+      <c r="F2190" s="0">
+        <v>4.57142857142857E-02</v>
+      </c>
+      <c r="G2190" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2190" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2191">
+      <c r="A2191" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B2191" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2191" s="0">
+        <v>32803</v>
+      </c>
+      <c r="D2191" s="0">
+        <v>0.132490801213311</v>
+      </c>
+      <c r="E2191" s="0">
+        <v>483</v>
+      </c>
+      <c r="F2191" s="0">
+        <v>0.138</v>
+      </c>
+      <c r="G2191" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2191" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2192">
+      <c r="A2192" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B2192" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2192" s="0">
+        <v>49654</v>
+      </c>
+      <c r="D2192" s="0">
+        <v>0.200551725252134</v>
+      </c>
+      <c r="E2192" s="0">
+        <v>580</v>
+      </c>
+      <c r="F2192" s="0">
+        <v>0.165714285714286</v>
+      </c>
+      <c r="G2192" s="0">
+        <v>20</v>
+      </c>
+      <c r="H2192" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2193">
+      <c r="A2193" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B2193" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2193" s="0">
+        <v>39909</v>
+      </c>
+      <c r="D2193" s="0">
+        <v>0.161191823480231</v>
+      </c>
+      <c r="E2193" s="0">
+        <v>489</v>
+      </c>
+      <c r="F2193" s="0">
+        <v>0.139714285714286</v>
+      </c>
+      <c r="G2193" s="0">
+        <v>46</v>
+      </c>
+      <c r="H2193" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2194">
+      <c r="A2194" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B2194" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2194" s="0">
+        <v>36676</v>
+      </c>
+      <c r="D2194" s="0">
+        <v>0.148133787315166</v>
+      </c>
+      <c r="E2194" s="0">
+        <v>482</v>
+      </c>
+      <c r="F2194" s="0">
+        <v>0.137714285714286</v>
+      </c>
+      <c r="G2194" s="0">
+        <v>120</v>
+      </c>
+      <c r="H2194" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2195">
+      <c r="A2195" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B2195" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2195" s="0">
+        <v>32780</v>
+      </c>
+      <c r="D2195" s="0">
+        <v>0.132397904574957</v>
+      </c>
+      <c r="E2195" s="0">
+        <v>500</v>
+      </c>
+      <c r="F2195" s="0">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="G2195" s="0">
+        <v>302</v>
+      </c>
+      <c r="H2195" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2196">
+      <c r="A2196" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B2196" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2196" s="0">
+        <v>22594</v>
+      </c>
+      <c r="D2196" s="0">
+        <v>9.12568107372358E-02</v>
+      </c>
+      <c r="E2196" s="0">
+        <v>391</v>
+      </c>
+      <c r="F2196" s="0">
+        <v>0.111714285714286</v>
+      </c>
+      <c r="G2196" s="0">
+        <v>616</v>
+      </c>
+      <c r="H2196" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2197">
+      <c r="A2197" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B2197" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2197" s="0">
+        <v>13410</v>
+      </c>
+      <c r="D2197" s="0">
+        <v>5.41627791443008E-02</v>
+      </c>
+      <c r="E2197" s="0">
+        <v>261</v>
+      </c>
+      <c r="F2197" s="0">
+        <v>7.45714285714286E-02</v>
+      </c>
+      <c r="G2197" s="0">
+        <v>935</v>
+      </c>
+      <c r="H2197" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2198">
+      <c r="A2198" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B2198" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2198" s="0">
+        <v>7329</v>
+      </c>
+      <c r="D2198" s="0">
+        <v>2.96017157605205E-02</v>
+      </c>
+      <c r="E2198" s="0">
+        <v>152</v>
+      </c>
+      <c r="F2198" s="0">
+        <v>4.34285714285714E-02</v>
+      </c>
+      <c r="G2198" s="0">
+        <v>1087</v>
+      </c>
+      <c r="H2198" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2199">
+      <c r="A2199" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B2199" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2199" s="0">
+        <v>359</v>
+      </c>
+      <c r="D2199" s="0">
+        <v>1.44999535516808E-03</v>
+      </c>
+      <c r="E2199" s="0">
+        <v>2</v>
+      </c>
+      <c r="F2199" s="0">
+        <v>5.71428571428571E-04</v>
+      </c>
+      <c r="G2199" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2199" s="0">
         <v>0</v>
       </c>
     </row>
@@ -60829,27 +61109,27 @@
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1104</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1115</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1104</Url>
-      <Description>HJYU5V3E37X6-122305290-1104</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1115</Url>
+      <Description>HJYU5V3E37X6-122305290-1115</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19ED7B71-A110-47DB-9C8E-DCF7FAB26A3D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CFA7E3D-6C6D-4061-88AC-EF1F8B3024F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0B586D0-10CE-429E-A53F-0299F733F893}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43BFF9D2-8FBB-4895-9967-67C065D78530}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB64BBA3-C5DB-4F10-8FFC-0E0690C4FEF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E571A5-531F-406F-A076-2196CCCF09AF}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03BEF0CC-A78E-464C-A933-91BF65731F00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20E7A3A8-B39A-403D-9DD9-0BBE8E6AEE09}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2199</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2219</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2199"/>
+  <dimension ref="A1:H2219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -60660,6 +60660,566 @@
         <v>0</v>
       </c>
       <c r="H2199" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2200">
+      <c r="A2200" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B2200" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2200" s="0">
+        <v>12195</v>
+      </c>
+      <c r="D2200" s="0">
+        <v>4.88061601018146E-02</v>
+      </c>
+      <c r="E2200" s="0">
+        <v>122</v>
+      </c>
+      <c r="F2200" s="0">
+        <v>5.35322509872751E-02</v>
+      </c>
+      <c r="G2200" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2200" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2201">
+      <c r="A2201" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B2201" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2201" s="0">
+        <v>33110</v>
+      </c>
+      <c r="D2201" s="0">
+        <v>0.132511025909888</v>
+      </c>
+      <c r="E2201" s="0">
+        <v>307</v>
+      </c>
+      <c r="F2201" s="0">
+        <v>0.134708205353225</v>
+      </c>
+      <c r="G2201" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2201" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2202">
+      <c r="A2202" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B2202" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2202" s="0">
+        <v>50089</v>
+      </c>
+      <c r="D2202" s="0">
+        <v>0.200463448408347</v>
+      </c>
+      <c r="E2202" s="0">
+        <v>435</v>
+      </c>
+      <c r="F2202" s="0">
+        <v>0.190873189995612</v>
+      </c>
+      <c r="G2202" s="0">
+        <v>20</v>
+      </c>
+      <c r="H2202" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2203">
+      <c r="A2203" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B2203" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2203" s="0">
+        <v>40272</v>
+      </c>
+      <c r="D2203" s="0">
+        <v>0.161174389472757</v>
+      </c>
+      <c r="E2203" s="0">
+        <v>363</v>
+      </c>
+      <c r="F2203" s="0">
+        <v>0.159280386134269</v>
+      </c>
+      <c r="G2203" s="0">
+        <v>46</v>
+      </c>
+      <c r="H2203" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2204">
+      <c r="A2204" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B2204" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2204" s="0">
+        <v>37020</v>
+      </c>
+      <c r="D2204" s="0">
+        <v>0.148159413445607</v>
+      </c>
+      <c r="E2204" s="0">
+        <v>344</v>
+      </c>
+      <c r="F2204" s="0">
+        <v>0.150943396226415</v>
+      </c>
+      <c r="G2204" s="0">
+        <v>120</v>
+      </c>
+      <c r="H2204" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2205">
+      <c r="A2205" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B2205" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2205" s="0">
+        <v>33073</v>
+      </c>
+      <c r="D2205" s="0">
+        <v>0.132362946539345</v>
+      </c>
+      <c r="E2205" s="0">
+        <v>293</v>
+      </c>
+      <c r="F2205" s="0">
+        <v>0.128565160157964</v>
+      </c>
+      <c r="G2205" s="0">
+        <v>307</v>
+      </c>
+      <c r="H2205" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2206">
+      <c r="A2206" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B2206" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2206" s="0">
+        <v>22826</v>
+      </c>
+      <c r="D2206" s="0">
+        <v>9.13529651893415E-02</v>
+      </c>
+      <c r="E2206" s="0">
+        <v>232</v>
+      </c>
+      <c r="F2206" s="0">
+        <v>0.101799034664326</v>
+      </c>
+      <c r="G2206" s="0">
+        <v>625</v>
+      </c>
+      <c r="H2206" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2207">
+      <c r="A2207" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B2207" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2207" s="0">
+        <v>13534</v>
+      </c>
+      <c r="D2207" s="0">
+        <v>5.41650324573972E-02</v>
+      </c>
+      <c r="E2207" s="0">
+        <v>124</v>
+      </c>
+      <c r="F2207" s="0">
+        <v>5.44098288723124E-02</v>
+      </c>
+      <c r="G2207" s="0">
+        <v>944</v>
+      </c>
+      <c r="H2207" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2208">
+      <c r="A2208" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B2208" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2208" s="0">
+        <v>7393</v>
+      </c>
+      <c r="D2208" s="0">
+        <v>2.95878590924736E-02</v>
+      </c>
+      <c r="E2208" s="0">
+        <v>64</v>
+      </c>
+      <c r="F2208" s="0">
+        <v>2.80824923211935E-02</v>
+      </c>
+      <c r="G2208" s="0">
+        <v>1096</v>
+      </c>
+      <c r="H2208" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2209">
+      <c r="A2209" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B2209" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2209" s="0">
+        <v>354</v>
+      </c>
+      <c r="D2209" s="0">
+        <v>1.4167593830293E-03</v>
+      </c>
+      <c r="E2209" s="0">
+        <v>-5</v>
+      </c>
+      <c r="F2209" s="0">
+        <v>-2.19394471259324E-03</v>
+      </c>
+      <c r="G2209" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2209" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2210">
+      <c r="A2210" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B2210" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2210" s="0">
+        <v>12258</v>
+      </c>
+      <c r="D2210" s="0">
+        <v>4.86865204508806E-02</v>
+      </c>
+      <c r="E2210" s="0">
+        <v>63</v>
+      </c>
+      <c r="F2210" s="0">
+        <v>3.30188679245283E-02</v>
+      </c>
+      <c r="G2210" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2210" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2211">
+      <c r="A2211" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B2211" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2211" s="0">
+        <v>33331</v>
+      </c>
+      <c r="D2211" s="0">
+        <v>0.132384598886303</v>
+      </c>
+      <c r="E2211" s="0">
+        <v>221</v>
+      </c>
+      <c r="F2211" s="0">
+        <v>0.115828092243187</v>
+      </c>
+      <c r="G2211" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2211" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2212">
+      <c r="A2212" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B2212" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2212" s="0">
+        <v>50447</v>
+      </c>
+      <c r="D2212" s="0">
+        <v>0.20036620143462</v>
+      </c>
+      <c r="E2212" s="0">
+        <v>358</v>
+      </c>
+      <c r="F2212" s="0">
+        <v>0.187631027253669</v>
+      </c>
+      <c r="G2212" s="0">
+        <v>21</v>
+      </c>
+      <c r="H2212" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2213">
+      <c r="A2213" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B2213" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2213" s="0">
+        <v>40596</v>
+      </c>
+      <c r="D2213" s="0">
+        <v>0.161239842080596</v>
+      </c>
+      <c r="E2213" s="0">
+        <v>324</v>
+      </c>
+      <c r="F2213" s="0">
+        <v>0.169811320754717</v>
+      </c>
+      <c r="G2213" s="0">
+        <v>46</v>
+      </c>
+      <c r="H2213" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2214">
+      <c r="A2214" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B2214" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2214" s="0">
+        <v>37312</v>
+      </c>
+      <c r="D2214" s="0">
+        <v>0.148196398357257</v>
+      </c>
+      <c r="E2214" s="0">
+        <v>292</v>
+      </c>
+      <c r="F2214" s="0">
+        <v>0.153039832285115</v>
+      </c>
+      <c r="G2214" s="0">
+        <v>122</v>
+      </c>
+      <c r="H2214" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2215">
+      <c r="A2215" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B2215" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2215" s="0">
+        <v>33343</v>
+      </c>
+      <c r="D2215" s="0">
+        <v>0.132432260678227</v>
+      </c>
+      <c r="E2215" s="0">
+        <v>270</v>
+      </c>
+      <c r="F2215" s="0">
+        <v>0.141509433962264</v>
+      </c>
+      <c r="G2215" s="0">
+        <v>311</v>
+      </c>
+      <c r="H2215" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2216">
+      <c r="A2216" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B2216" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2216" s="0">
+        <v>23008</v>
+      </c>
+      <c r="D2216" s="0">
+        <v>9.13835423832485E-02</v>
+      </c>
+      <c r="E2216" s="0">
+        <v>182</v>
+      </c>
+      <c r="F2216" s="0">
+        <v>9.53878406708595E-02</v>
+      </c>
+      <c r="G2216" s="0">
+        <v>637</v>
+      </c>
+      <c r="H2216" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2217">
+      <c r="A2217" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B2217" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2217" s="0">
+        <v>13669</v>
+      </c>
+      <c r="D2217" s="0">
+        <v>5.42907528180034E-02</v>
+      </c>
+      <c r="E2217" s="0">
+        <v>135</v>
+      </c>
+      <c r="F2217" s="0">
+        <v>7.07547169811321E-02</v>
+      </c>
+      <c r="G2217" s="0">
+        <v>955</v>
+      </c>
+      <c r="H2217" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2218">
+      <c r="A2218" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B2218" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2218" s="0">
+        <v>7453</v>
+      </c>
+      <c r="D2218" s="0">
+        <v>2.96019446011105E-02</v>
+      </c>
+      <c r="E2218" s="0">
+        <v>60</v>
+      </c>
+      <c r="F2218" s="0">
+        <v>3.14465408805031E-02</v>
+      </c>
+      <c r="G2218" s="0">
+        <v>1110</v>
+      </c>
+      <c r="H2218" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2219">
+      <c r="A2219" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B2219" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2219" s="0">
+        <v>357</v>
+      </c>
+      <c r="D2219" s="0">
+        <v>1.41793830975399E-03</v>
+      </c>
+      <c r="E2219" s="0">
+        <v>3</v>
+      </c>
+      <c r="F2219" s="0">
+        <v>1.57232704402516E-03</v>
+      </c>
+      <c r="G2219" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2219" s="0">
         <v>0</v>
       </c>
     </row>
@@ -61109,27 +61669,27 @@
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1115</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1135</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1115</Url>
-      <Description>HJYU5V3E37X6-122305290-1115</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1135</Url>
+      <Description>HJYU5V3E37X6-122305290-1135</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CFA7E3D-6C6D-4061-88AC-EF1F8B3024F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7A1A1B-7972-4B67-8F44-0AA1A74D97C0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43BFF9D2-8FBB-4895-9967-67C065D78530}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E8B59C-8350-479E-8CFB-9D715F2564E6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E571A5-531F-406F-A076-2196CCCF09AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA07A890-3E22-4A77-8E9E-81D372F70E2E}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20E7A3A8-B39A-403D-9DD9-0BBE8E6AEE09}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F773F7D9-A420-401F-87DD-D47821CAAC91}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2219</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2229</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2219"/>
+  <dimension ref="A1:H2229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -61220,6 +61220,286 @@
         <v>0</v>
       </c>
       <c r="H2219" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2220">
+      <c r="A2220" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B2220" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2220" s="0">
+        <v>12393</v>
+      </c>
+      <c r="D2220" s="0">
+        <v>4.87491149398159E-02</v>
+      </c>
+      <c r="E2220" s="0">
+        <v>135</v>
+      </c>
+      <c r="F2220" s="0">
+        <v>5.51921504497138E-02</v>
+      </c>
+      <c r="G2220" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2220" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2221">
+      <c r="A2221" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B2221" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2221" s="0">
+        <v>33625</v>
+      </c>
+      <c r="D2221" s="0">
+        <v>0.132267327511604</v>
+      </c>
+      <c r="E2221" s="0">
+        <v>294</v>
+      </c>
+      <c r="F2221" s="0">
+        <v>0.120196238757155</v>
+      </c>
+      <c r="G2221" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2221" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2222">
+      <c r="A2222" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B2222" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2222" s="0">
+        <v>50863</v>
+      </c>
+      <c r="D2222" s="0">
+        <v>0.200074738415546</v>
+      </c>
+      <c r="E2222" s="0">
+        <v>416</v>
+      </c>
+      <c r="F2222" s="0">
+        <v>0.170073589533933</v>
+      </c>
+      <c r="G2222" s="0">
+        <v>21</v>
+      </c>
+      <c r="H2222" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2223">
+      <c r="A2223" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B2223" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2223" s="0">
+        <v>40943</v>
+      </c>
+      <c r="D2223" s="0">
+        <v>0.161053418299111</v>
+      </c>
+      <c r="E2223" s="0">
+        <v>347</v>
+      </c>
+      <c r="F2223" s="0">
+        <v>0.141864268192968</v>
+      </c>
+      <c r="G2223" s="0">
+        <v>46</v>
+      </c>
+      <c r="H2223" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2224">
+      <c r="A2224" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B2224" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2224" s="0">
+        <v>37646</v>
+      </c>
+      <c r="D2224" s="0">
+        <v>0.148084336401542</v>
+      </c>
+      <c r="E2224" s="0">
+        <v>334</v>
+      </c>
+      <c r="F2224" s="0">
+        <v>0.136549468520033</v>
+      </c>
+      <c r="G2224" s="0">
+        <v>124</v>
+      </c>
+      <c r="H2224" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2225">
+      <c r="A2225" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B2225" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2225" s="0">
+        <v>33742</v>
+      </c>
+      <c r="D2225" s="0">
+        <v>0.132727558807332</v>
+      </c>
+      <c r="E2225" s="0">
+        <v>399</v>
+      </c>
+      <c r="F2225" s="0">
+        <v>0.16312346688471</v>
+      </c>
+      <c r="G2225" s="0">
+        <v>315</v>
+      </c>
+      <c r="H2225" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2226">
+      <c r="A2226" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B2226" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2226" s="0">
+        <v>23279</v>
+      </c>
+      <c r="D2226" s="0">
+        <v>0.091570293446621</v>
+      </c>
+      <c r="E2226" s="0">
+        <v>271</v>
+      </c>
+      <c r="F2226" s="0">
+        <v>0.1107931316435</v>
+      </c>
+      <c r="G2226" s="0">
+        <v>643</v>
+      </c>
+      <c r="H2226" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2227">
+      <c r="A2227" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B2227" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2227" s="0">
+        <v>13832</v>
+      </c>
+      <c r="D2227" s="0">
+        <v>5.44095665171898E-02</v>
+      </c>
+      <c r="E2227" s="0">
+        <v>163</v>
+      </c>
+      <c r="F2227" s="0">
+        <v>6.66394112837285E-02</v>
+      </c>
+      <c r="G2227" s="0">
+        <v>963</v>
+      </c>
+      <c r="H2227" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2228">
+      <c r="A2228" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B2228" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2228" s="0">
+        <v>7537</v>
+      </c>
+      <c r="D2228" s="0">
+        <v>2.96475493666903E-02</v>
+      </c>
+      <c r="E2228" s="0">
+        <v>84</v>
+      </c>
+      <c r="F2228" s="0">
+        <v>3.43417825020442E-02</v>
+      </c>
+      <c r="G2228" s="0">
+        <v>1124</v>
+      </c>
+      <c r="H2228" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2229">
+      <c r="A2229" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B2229" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2229" s="0">
+        <v>360</v>
+      </c>
+      <c r="D2229" s="0">
+        <v>1.41609629454803E-03</v>
+      </c>
+      <c r="E2229" s="0">
+        <v>3</v>
+      </c>
+      <c r="F2229" s="0">
+        <v>1.22649223221586E-03</v>
+      </c>
+      <c r="G2229" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2229" s="0">
         <v>0</v>
       </c>
     </row>
@@ -61651,6 +61931,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1146</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1146</Url>
+      <Description>HJYU5V3E37X6-122305290-1146</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -61665,31 +61952,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1135</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1135</Url>
-      <Description>HJYU5V3E37X6-122305290-1135</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7A1A1B-7972-4B67-8F44-0AA1A74D97C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639E6845-0142-43A6-9514-7494574381C5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E8B59C-8350-479E-8CFB-9D715F2564E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E06B6A4-F136-4EDD-B53E-7185BB9C71E0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA07A890-3E22-4A77-8E9E-81D372F70E2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE821E37-FE4E-4DDB-9F1A-50BF993942BC}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F773F7D9-A420-401F-87DD-D47821CAAC91}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9152AA7D-110E-4A4B-9D6A-48F34105B78D}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2229</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2239</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2229"/>
+  <dimension ref="A1:H2239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -61500,6 +61500,286 @@
         <v>0</v>
       </c>
       <c r="H2229" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2230">
+      <c r="A2230" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2230" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2230" s="0">
+        <v>12535</v>
+      </c>
+      <c r="D2230" s="0">
+        <v>4.87971037060106E-02</v>
+      </c>
+      <c r="E2230" s="0">
+        <v>142</v>
+      </c>
+      <c r="F2230" s="0">
+        <v>5.33834586466165E-02</v>
+      </c>
+      <c r="G2230" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2230" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2231">
+      <c r="A2231" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2231" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2231" s="0">
+        <v>33993</v>
+      </c>
+      <c r="D2231" s="0">
+        <v>0.132330270943631</v>
+      </c>
+      <c r="E2231" s="0">
+        <v>368</v>
+      </c>
+      <c r="F2231" s="0">
+        <v>0.138345864661654</v>
+      </c>
+      <c r="G2231" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2231" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2232">
+      <c r="A2232" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2232" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2232" s="0">
+        <v>51295</v>
+      </c>
+      <c r="D2232" s="0">
+        <v>0.199684677670508</v>
+      </c>
+      <c r="E2232" s="0">
+        <v>432</v>
+      </c>
+      <c r="F2232" s="0">
+        <v>0.162406015037594</v>
+      </c>
+      <c r="G2232" s="0">
+        <v>21</v>
+      </c>
+      <c r="H2232" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2233">
+      <c r="A2233" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2233" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2233" s="0">
+        <v>41311</v>
+      </c>
+      <c r="D2233" s="0">
+        <v>0.160818280909374</v>
+      </c>
+      <c r="E2233" s="0">
+        <v>368</v>
+      </c>
+      <c r="F2233" s="0">
+        <v>0.138345864661654</v>
+      </c>
+      <c r="G2233" s="0">
+        <v>46</v>
+      </c>
+      <c r="H2233" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2234">
+      <c r="A2234" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2234" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2234" s="0">
+        <v>38068</v>
+      </c>
+      <c r="D2234" s="0">
+        <v>0.148193709124883</v>
+      </c>
+      <c r="E2234" s="0">
+        <v>422</v>
+      </c>
+      <c r="F2234" s="0">
+        <v>0.158646616541353</v>
+      </c>
+      <c r="G2234" s="0">
+        <v>126</v>
+      </c>
+      <c r="H2234" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2235">
+      <c r="A2235" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2235" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2235" s="0">
+        <v>34130</v>
+      </c>
+      <c r="D2235" s="0">
+        <v>0.132863593895983</v>
+      </c>
+      <c r="E2235" s="0">
+        <v>388</v>
+      </c>
+      <c r="F2235" s="0">
+        <v>0.145864661654135</v>
+      </c>
+      <c r="G2235" s="0">
+        <v>317</v>
+      </c>
+      <c r="H2235" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2236">
+      <c r="A2236" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2236" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2236" s="0">
+        <v>23562</v>
+      </c>
+      <c r="D2236" s="0">
+        <v>9.17237620678916E-02</v>
+      </c>
+      <c r="E2236" s="0">
+        <v>283</v>
+      </c>
+      <c r="F2236" s="0">
+        <v>0.106390977443609</v>
+      </c>
+      <c r="G2236" s="0">
+        <v>648</v>
+      </c>
+      <c r="H2236" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2237">
+      <c r="A2237" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2237" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2237" s="0">
+        <v>14014</v>
+      </c>
+      <c r="D2237" s="0">
+        <v>5.45546558704453E-02</v>
+      </c>
+      <c r="E2237" s="0">
+        <v>182</v>
+      </c>
+      <c r="F2237" s="0">
+        <v>0.068421052631579</v>
+      </c>
+      <c r="G2237" s="0">
+        <v>970</v>
+      </c>
+      <c r="H2237" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2238">
+      <c r="A2238" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2238" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2238" s="0">
+        <v>7616</v>
+      </c>
+      <c r="D2238" s="0">
+        <v>2.96480847088135E-02</v>
+      </c>
+      <c r="E2238" s="0">
+        <v>79</v>
+      </c>
+      <c r="F2238" s="0">
+        <v>2.96992481203008E-02</v>
+      </c>
+      <c r="G2238" s="0">
+        <v>1130</v>
+      </c>
+      <c r="H2238" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2239">
+      <c r="A2239" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2239" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2239" s="0">
+        <v>356</v>
+      </c>
+      <c r="D2239" s="0">
+        <v>1.38586110246029E-03</v>
+      </c>
+      <c r="E2239" s="0">
+        <v>-4</v>
+      </c>
+      <c r="F2239" s="0">
+        <v>-1.50375939849624E-03</v>
+      </c>
+      <c r="G2239" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2239" s="0">
         <v>0</v>
       </c>
     </row>
@@ -61932,11 +62212,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1146</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1157</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1146</Url>
-      <Description>HJYU5V3E37X6-122305290-1146</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1157</Url>
+      <Description>HJYU5V3E37X6-122305290-1157</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -61959,17 +62239,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639E6845-0142-43A6-9514-7494574381C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F41BF20D-F72B-4FE3-BF73-D39CF6C115A5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E06B6A4-F136-4EDD-B53E-7185BB9C71E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9621A49E-9AD4-4E9E-9A96-8B170A123B10}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE821E37-FE4E-4DDB-9F1A-50BF993942BC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A2E6CCC-5081-4F2F-9FB0-F53A5EE00F1B}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9152AA7D-110E-4A4B-9D6A-48F34105B78D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F37AE28-B79B-4036-BB4E-A71DBA40AC34}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2239</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2249</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2239"/>
+  <dimension ref="A1:H2249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -61780,6 +61780,286 @@
         <v>0</v>
       </c>
       <c r="H2239" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2240">
+      <c r="A2240" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2240" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2240" s="0">
+        <v>12674</v>
+      </c>
+      <c r="D2240" s="0">
+        <v>4.88423356764089E-02</v>
+      </c>
+      <c r="E2240" s="0">
+        <v>139</v>
+      </c>
+      <c r="F2240" s="0">
+        <v>5.32975460122699E-02</v>
+      </c>
+      <c r="G2240" s="0">
+        <v>5</v>
+      </c>
+      <c r="H2240" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2241">
+      <c r="A2241" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2241" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2241" s="0">
+        <v>34349</v>
+      </c>
+      <c r="D2241" s="0">
+        <v>0.132372209890245</v>
+      </c>
+      <c r="E2241" s="0">
+        <v>356</v>
+      </c>
+      <c r="F2241" s="0">
+        <v>0.136503067484663</v>
+      </c>
+      <c r="G2241" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2241" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2242">
+      <c r="A2242" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2242" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2242" s="0">
+        <v>51727</v>
+      </c>
+      <c r="D2242" s="0">
+        <v>0.199342551486003</v>
+      </c>
+      <c r="E2242" s="0">
+        <v>432</v>
+      </c>
+      <c r="F2242" s="0">
+        <v>0.165644171779141</v>
+      </c>
+      <c r="G2242" s="0">
+        <v>21</v>
+      </c>
+      <c r="H2242" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2243">
+      <c r="A2243" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2243" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2243" s="0">
+        <v>41704</v>
+      </c>
+      <c r="D2243" s="0">
+        <v>0.160716487853003</v>
+      </c>
+      <c r="E2243" s="0">
+        <v>393</v>
+      </c>
+      <c r="F2243" s="0">
+        <v>0.15069018404908</v>
+      </c>
+      <c r="G2243" s="0">
+        <v>46</v>
+      </c>
+      <c r="H2243" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2244">
+      <c r="A2244" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2244" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2244" s="0">
+        <v>38469</v>
+      </c>
+      <c r="D2244" s="0">
+        <v>0.148249630040696</v>
+      </c>
+      <c r="E2244" s="0">
+        <v>401</v>
+      </c>
+      <c r="F2244" s="0">
+        <v>0.153757668711656</v>
+      </c>
+      <c r="G2244" s="0">
+        <v>127</v>
+      </c>
+      <c r="H2244" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2245">
+      <c r="A2245" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2245" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2245" s="0">
+        <v>34482</v>
+      </c>
+      <c r="D2245" s="0">
+        <v>0.132884757676656</v>
+      </c>
+      <c r="E2245" s="0">
+        <v>352</v>
+      </c>
+      <c r="F2245" s="0">
+        <v>0.134969325153374</v>
+      </c>
+      <c r="G2245" s="0">
+        <v>324</v>
+      </c>
+      <c r="H2245" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2246">
+      <c r="A2246" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2246" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2246" s="0">
+        <v>23860</v>
+      </c>
+      <c r="D2246" s="0">
+        <v>0.091950302133432</v>
+      </c>
+      <c r="E2246" s="0">
+        <v>298</v>
+      </c>
+      <c r="F2246" s="0">
+        <v>0.114263803680982</v>
+      </c>
+      <c r="G2246" s="0">
+        <v>657</v>
+      </c>
+      <c r="H2246" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2247">
+      <c r="A2247" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2247" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2247" s="0">
+        <v>14181</v>
+      </c>
+      <c r="D2247" s="0">
+        <v>5.46499260081391E-02</v>
+      </c>
+      <c r="E2247" s="0">
+        <v>167</v>
+      </c>
+      <c r="F2247" s="0">
+        <v>6.40337423312883E-02</v>
+      </c>
+      <c r="G2247" s="0">
+        <v>999</v>
+      </c>
+      <c r="H2247" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2248">
+      <c r="A2248" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2248" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2248" s="0">
+        <v>7688</v>
+      </c>
+      <c r="D2248" s="0">
+        <v>2.96275743001603E-02</v>
+      </c>
+      <c r="E2248" s="0">
+        <v>72</v>
+      </c>
+      <c r="F2248" s="0">
+        <v>2.76073619631902E-02</v>
+      </c>
+      <c r="G2248" s="0">
+        <v>1161</v>
+      </c>
+      <c r="H2248" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2249">
+      <c r="A2249" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2249" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2249" s="0">
+        <v>354</v>
+      </c>
+      <c r="D2249" s="0">
+        <v>1.36422493525712E-03</v>
+      </c>
+      <c r="E2249" s="0">
+        <v>-2</v>
+      </c>
+      <c r="F2249" s="0">
+        <v>-7.66871165644172E-04</v>
+      </c>
+      <c r="G2249" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2249" s="0">
         <v>0</v>
       </c>
     </row>
@@ -62212,11 +62492,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1157</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1169</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1157</Url>
-      <Description>HJYU5V3E37X6-122305290-1157</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1169</Url>
+      <Description>HJYU5V3E37X6-122305290-1169</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -62239,17 +62519,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F41BF20D-F72B-4FE3-BF73-D39CF6C115A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0676BF-2703-417A-8948-C93620254169}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9621A49E-9AD4-4E9E-9A96-8B170A123B10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27EB79C3-202B-44DD-971A-2E23424B4064}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A2E6CCC-5081-4F2F-9FB0-F53A5EE00F1B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B988423-51AA-4E44-B42E-DCABE31C8155}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F37AE28-B79B-4036-BB4E-A71DBA40AC34}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CDFA6B2-8FB5-488B-807D-FE50A142CCB9}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2229</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2249</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2229"/>
+  <dimension ref="A1:H2249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -61500,6 +61500,566 @@
         <v>0</v>
       </c>
       <c r="H2229" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2230">
+      <c r="A2230" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2230" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2230" s="0">
+        <v>12535</v>
+      </c>
+      <c r="D2230" s="0">
+        <v>4.87971037060106E-02</v>
+      </c>
+      <c r="E2230" s="0">
+        <v>142</v>
+      </c>
+      <c r="F2230" s="0">
+        <v>5.33834586466165E-02</v>
+      </c>
+      <c r="G2230" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2230" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2231">
+      <c r="A2231" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2231" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2231" s="0">
+        <v>33993</v>
+      </c>
+      <c r="D2231" s="0">
+        <v>0.132330270943631</v>
+      </c>
+      <c r="E2231" s="0">
+        <v>368</v>
+      </c>
+      <c r="F2231" s="0">
+        <v>0.138345864661654</v>
+      </c>
+      <c r="G2231" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2231" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2232">
+      <c r="A2232" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2232" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2232" s="0">
+        <v>51295</v>
+      </c>
+      <c r="D2232" s="0">
+        <v>0.199684677670508</v>
+      </c>
+      <c r="E2232" s="0">
+        <v>432</v>
+      </c>
+      <c r="F2232" s="0">
+        <v>0.162406015037594</v>
+      </c>
+      <c r="G2232" s="0">
+        <v>21</v>
+      </c>
+      <c r="H2232" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2233">
+      <c r="A2233" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2233" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2233" s="0">
+        <v>41311</v>
+      </c>
+      <c r="D2233" s="0">
+        <v>0.160818280909374</v>
+      </c>
+      <c r="E2233" s="0">
+        <v>368</v>
+      </c>
+      <c r="F2233" s="0">
+        <v>0.138345864661654</v>
+      </c>
+      <c r="G2233" s="0">
+        <v>46</v>
+      </c>
+      <c r="H2233" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2234">
+      <c r="A2234" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2234" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2234" s="0">
+        <v>38068</v>
+      </c>
+      <c r="D2234" s="0">
+        <v>0.148193709124883</v>
+      </c>
+      <c r="E2234" s="0">
+        <v>422</v>
+      </c>
+      <c r="F2234" s="0">
+        <v>0.158646616541353</v>
+      </c>
+      <c r="G2234" s="0">
+        <v>126</v>
+      </c>
+      <c r="H2234" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2235">
+      <c r="A2235" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2235" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2235" s="0">
+        <v>34130</v>
+      </c>
+      <c r="D2235" s="0">
+        <v>0.132863593895983</v>
+      </c>
+      <c r="E2235" s="0">
+        <v>388</v>
+      </c>
+      <c r="F2235" s="0">
+        <v>0.145864661654135</v>
+      </c>
+      <c r="G2235" s="0">
+        <v>317</v>
+      </c>
+      <c r="H2235" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2236">
+      <c r="A2236" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2236" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2236" s="0">
+        <v>23562</v>
+      </c>
+      <c r="D2236" s="0">
+        <v>9.17237620678916E-02</v>
+      </c>
+      <c r="E2236" s="0">
+        <v>283</v>
+      </c>
+      <c r="F2236" s="0">
+        <v>0.106390977443609</v>
+      </c>
+      <c r="G2236" s="0">
+        <v>648</v>
+      </c>
+      <c r="H2236" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2237">
+      <c r="A2237" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2237" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2237" s="0">
+        <v>14014</v>
+      </c>
+      <c r="D2237" s="0">
+        <v>5.45546558704453E-02</v>
+      </c>
+      <c r="E2237" s="0">
+        <v>182</v>
+      </c>
+      <c r="F2237" s="0">
+        <v>0.068421052631579</v>
+      </c>
+      <c r="G2237" s="0">
+        <v>970</v>
+      </c>
+      <c r="H2237" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2238">
+      <c r="A2238" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2238" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2238" s="0">
+        <v>7616</v>
+      </c>
+      <c r="D2238" s="0">
+        <v>2.96480847088135E-02</v>
+      </c>
+      <c r="E2238" s="0">
+        <v>79</v>
+      </c>
+      <c r="F2238" s="0">
+        <v>2.96992481203008E-02</v>
+      </c>
+      <c r="G2238" s="0">
+        <v>1130</v>
+      </c>
+      <c r="H2238" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2239">
+      <c r="A2239" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B2239" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2239" s="0">
+        <v>356</v>
+      </c>
+      <c r="D2239" s="0">
+        <v>1.38586110246029E-03</v>
+      </c>
+      <c r="E2239" s="0">
+        <v>-4</v>
+      </c>
+      <c r="F2239" s="0">
+        <v>-1.50375939849624E-03</v>
+      </c>
+      <c r="G2239" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2239" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2240">
+      <c r="A2240" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2240" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2240" s="0">
+        <v>12674</v>
+      </c>
+      <c r="D2240" s="0">
+        <v>4.88423356764089E-02</v>
+      </c>
+      <c r="E2240" s="0">
+        <v>139</v>
+      </c>
+      <c r="F2240" s="0">
+        <v>5.32975460122699E-02</v>
+      </c>
+      <c r="G2240" s="0">
+        <v>5</v>
+      </c>
+      <c r="H2240" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2241">
+      <c r="A2241" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2241" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2241" s="0">
+        <v>34349</v>
+      </c>
+      <c r="D2241" s="0">
+        <v>0.132372209890245</v>
+      </c>
+      <c r="E2241" s="0">
+        <v>356</v>
+      </c>
+      <c r="F2241" s="0">
+        <v>0.136503067484663</v>
+      </c>
+      <c r="G2241" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2241" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2242">
+      <c r="A2242" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2242" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2242" s="0">
+        <v>51727</v>
+      </c>
+      <c r="D2242" s="0">
+        <v>0.199342551486003</v>
+      </c>
+      <c r="E2242" s="0">
+        <v>432</v>
+      </c>
+      <c r="F2242" s="0">
+        <v>0.165644171779141</v>
+      </c>
+      <c r="G2242" s="0">
+        <v>21</v>
+      </c>
+      <c r="H2242" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2243">
+      <c r="A2243" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2243" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2243" s="0">
+        <v>41704</v>
+      </c>
+      <c r="D2243" s="0">
+        <v>0.160716487853003</v>
+      </c>
+      <c r="E2243" s="0">
+        <v>393</v>
+      </c>
+      <c r="F2243" s="0">
+        <v>0.15069018404908</v>
+      </c>
+      <c r="G2243" s="0">
+        <v>46</v>
+      </c>
+      <c r="H2243" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2244">
+      <c r="A2244" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2244" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2244" s="0">
+        <v>38469</v>
+      </c>
+      <c r="D2244" s="0">
+        <v>0.148249630040696</v>
+      </c>
+      <c r="E2244" s="0">
+        <v>401</v>
+      </c>
+      <c r="F2244" s="0">
+        <v>0.153757668711656</v>
+      </c>
+      <c r="G2244" s="0">
+        <v>127</v>
+      </c>
+      <c r="H2244" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2245">
+      <c r="A2245" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2245" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2245" s="0">
+        <v>34482</v>
+      </c>
+      <c r="D2245" s="0">
+        <v>0.132884757676656</v>
+      </c>
+      <c r="E2245" s="0">
+        <v>352</v>
+      </c>
+      <c r="F2245" s="0">
+        <v>0.134969325153374</v>
+      </c>
+      <c r="G2245" s="0">
+        <v>324</v>
+      </c>
+      <c r="H2245" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2246">
+      <c r="A2246" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2246" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2246" s="0">
+        <v>23860</v>
+      </c>
+      <c r="D2246" s="0">
+        <v>0.091950302133432</v>
+      </c>
+      <c r="E2246" s="0">
+        <v>298</v>
+      </c>
+      <c r="F2246" s="0">
+        <v>0.114263803680982</v>
+      </c>
+      <c r="G2246" s="0">
+        <v>657</v>
+      </c>
+      <c r="H2246" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2247">
+      <c r="A2247" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2247" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2247" s="0">
+        <v>14181</v>
+      </c>
+      <c r="D2247" s="0">
+        <v>5.46499260081391E-02</v>
+      </c>
+      <c r="E2247" s="0">
+        <v>167</v>
+      </c>
+      <c r="F2247" s="0">
+        <v>6.40337423312883E-02</v>
+      </c>
+      <c r="G2247" s="0">
+        <v>999</v>
+      </c>
+      <c r="H2247" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2248">
+      <c r="A2248" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2248" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2248" s="0">
+        <v>7688</v>
+      </c>
+      <c r="D2248" s="0">
+        <v>2.96275743001603E-02</v>
+      </c>
+      <c r="E2248" s="0">
+        <v>72</v>
+      </c>
+      <c r="F2248" s="0">
+        <v>2.76073619631902E-02</v>
+      </c>
+      <c r="G2248" s="0">
+        <v>1161</v>
+      </c>
+      <c r="H2248" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2249">
+      <c r="A2249" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B2249" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2249" s="0">
+        <v>354</v>
+      </c>
+      <c r="D2249" s="0">
+        <v>1.36422493525712E-03</v>
+      </c>
+      <c r="E2249" s="0">
+        <v>-2</v>
+      </c>
+      <c r="F2249" s="0">
+        <v>-7.66871165644172E-04</v>
+      </c>
+      <c r="G2249" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2249" s="0">
         <v>0</v>
       </c>
     </row>
@@ -61932,11 +62492,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1146</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1169</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1146</Url>
-      <Description>HJYU5V3E37X6-122305290-1146</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1169</Url>
+      <Description>HJYU5V3E37X6-122305290-1169</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -61959,17 +62519,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639E6845-0142-43A6-9514-7494574381C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0676BF-2703-417A-8948-C93620254169}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E06B6A4-F136-4EDD-B53E-7185BB9C71E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27EB79C3-202B-44DD-971A-2E23424B4064}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE821E37-FE4E-4DDB-9F1A-50BF993942BC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B988423-51AA-4E44-B42E-DCABE31C8155}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9152AA7D-110E-4A4B-9D6A-48F34105B78D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CDFA6B2-8FB5-488B-807D-FE50A142CCB9}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2249</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2259</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2249"/>
+  <dimension ref="A1:H2259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -62060,6 +62060,286 @@
         <v>0</v>
       </c>
       <c r="H2249" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2250">
+      <c r="A2250" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2250" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2250" s="0">
+        <v>12733</v>
+      </c>
+      <c r="D2250" s="0">
+        <v>4.88468266633931E-02</v>
+      </c>
+      <c r="E2250" s="0">
+        <v>59</v>
+      </c>
+      <c r="F2250" s="0">
+        <v>4.98310810810811E-02</v>
+      </c>
+      <c r="G2250" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2250" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2251">
+      <c r="A2251" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2251" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2251" s="0">
+        <v>34477</v>
+      </c>
+      <c r="D2251" s="0">
+        <v>0.132261999754481</v>
+      </c>
+      <c r="E2251" s="0">
+        <v>128</v>
+      </c>
+      <c r="F2251" s="0">
+        <v>0.108108108108108</v>
+      </c>
+      <c r="G2251" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2251" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2252">
+      <c r="A2252" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2252" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2252" s="0">
+        <v>51959</v>
+      </c>
+      <c r="D2252" s="0">
+        <v>0.199327123741714</v>
+      </c>
+      <c r="E2252" s="0">
+        <v>232</v>
+      </c>
+      <c r="F2252" s="0">
+        <v>0.195945945945946</v>
+      </c>
+      <c r="G2252" s="0">
+        <v>21</v>
+      </c>
+      <c r="H2252" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2253">
+      <c r="A2253" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2253" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2253" s="0">
+        <v>41866</v>
+      </c>
+      <c r="D2253" s="0">
+        <v>0.160607967100417</v>
+      </c>
+      <c r="E2253" s="0">
+        <v>162</v>
+      </c>
+      <c r="F2253" s="0">
+        <v>0.136824324324324</v>
+      </c>
+      <c r="G2253" s="0">
+        <v>46</v>
+      </c>
+      <c r="H2253" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2254">
+      <c r="A2254" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2254" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2254" s="0">
+        <v>38639</v>
+      </c>
+      <c r="D2254" s="0">
+        <v>0.148228424993862</v>
+      </c>
+      <c r="E2254" s="0">
+        <v>170</v>
+      </c>
+      <c r="F2254" s="0">
+        <v>0.143581081081081</v>
+      </c>
+      <c r="G2254" s="0">
+        <v>126</v>
+      </c>
+      <c r="H2254" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2255">
+      <c r="A2255" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2255" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2255" s="0">
+        <v>34644</v>
+      </c>
+      <c r="D2255" s="0">
+        <v>0.132902651608151</v>
+      </c>
+      <c r="E2255" s="0">
+        <v>162</v>
+      </c>
+      <c r="F2255" s="0">
+        <v>0.136824324324324</v>
+      </c>
+      <c r="G2255" s="0">
+        <v>325</v>
+      </c>
+      <c r="H2255" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2256">
+      <c r="A2256" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2256" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2256" s="0">
+        <v>24004</v>
+      </c>
+      <c r="D2256" s="0">
+        <v>9.20850724281856E-02</v>
+      </c>
+      <c r="E2256" s="0">
+        <v>144</v>
+      </c>
+      <c r="F2256" s="0">
+        <v>0.121621621621622</v>
+      </c>
+      <c r="G2256" s="0">
+        <v>657</v>
+      </c>
+      <c r="H2256" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2257">
+      <c r="A2257" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2257" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2257" s="0">
+        <v>14264</v>
+      </c>
+      <c r="D2257" s="0">
+        <v>5.47201080284802E-02</v>
+      </c>
+      <c r="E2257" s="0">
+        <v>83</v>
+      </c>
+      <c r="F2257" s="0">
+        <v>7.01013513513514E-02</v>
+      </c>
+      <c r="G2257" s="0">
+        <v>1003</v>
+      </c>
+      <c r="H2257" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2258">
+      <c r="A2258" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2258" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2258" s="0">
+        <v>7737</v>
+      </c>
+      <c r="D2258" s="0">
+        <v>0.029680978394304</v>
+      </c>
+      <c r="E2258" s="0">
+        <v>49</v>
+      </c>
+      <c r="F2258" s="0">
+        <v>4.13851351351351E-02</v>
+      </c>
+      <c r="G2258" s="0">
+        <v>1170</v>
+      </c>
+      <c r="H2258" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2259">
+      <c r="A2259" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2259" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2259" s="0">
+        <v>349</v>
+      </c>
+      <c r="D2259" s="0">
+        <v>1.33884728701203E-03</v>
+      </c>
+      <c r="E2259" s="0">
+        <v>-5</v>
+      </c>
+      <c r="F2259" s="0">
+        <v>-4.22297297297297E-03</v>
+      </c>
+      <c r="G2259" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2259" s="0">
         <v>0</v>
       </c>
     </row>
@@ -62492,11 +62772,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1169</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1180</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1169</Url>
-      <Description>HJYU5V3E37X6-122305290-1169</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1180</Url>
+      <Description>HJYU5V3E37X6-122305290-1180</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -62519,17 +62799,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0676BF-2703-417A-8948-C93620254169}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7430596-2A95-46DB-966D-C32E0BB0303F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27EB79C3-202B-44DD-971A-2E23424B4064}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466AC36A-C03F-4C7B-BA9D-B9D54650A159}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B988423-51AA-4E44-B42E-DCABE31C8155}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFF2C3C8-D520-45FC-A657-EC9EB093F84E}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CDFA6B2-8FB5-488B-807D-FE50A142CCB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA466517-8A80-455F-AA8A-0BF2CBEFEB57}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2259</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2269</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2259"/>
+  <dimension ref="A1:H2269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -62340,6 +62340,286 @@
         <v>0</v>
       </c>
       <c r="H2259" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2260">
+      <c r="A2260" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2260" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2260" s="0">
+        <v>12759</v>
+      </c>
+      <c r="D2260" s="0">
+        <v>4.88053980858828E-02</v>
+      </c>
+      <c r="E2260" s="0">
+        <v>26</v>
+      </c>
+      <c r="F2260" s="0">
+        <v>3.44827586206897E-02</v>
+      </c>
+      <c r="G2260" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2260" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2261">
+      <c r="A2261" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2261" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2261" s="0">
+        <v>34575</v>
+      </c>
+      <c r="D2261" s="0">
+        <v>0.132255399233435</v>
+      </c>
+      <c r="E2261" s="0">
+        <v>98</v>
+      </c>
+      <c r="F2261" s="0">
+        <v>0.129973474801061</v>
+      </c>
+      <c r="G2261" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2261" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2262">
+      <c r="A2262" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2262" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2262" s="0">
+        <v>52109</v>
+      </c>
+      <c r="D2262" s="0">
+        <v>0.199326004299496</v>
+      </c>
+      <c r="E2262" s="0">
+        <v>150</v>
+      </c>
+      <c r="F2262" s="0">
+        <v>0.19893899204244</v>
+      </c>
+      <c r="G2262" s="0">
+        <v>21</v>
+      </c>
+      <c r="H2262" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2263">
+      <c r="A2263" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2263" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2263" s="0">
+        <v>41970</v>
+      </c>
+      <c r="D2263" s="0">
+        <v>0.160542562713732</v>
+      </c>
+      <c r="E2263" s="0">
+        <v>104</v>
+      </c>
+      <c r="F2263" s="0">
+        <v>0.137931034482759</v>
+      </c>
+      <c r="G2263" s="0">
+        <v>46</v>
+      </c>
+      <c r="H2263" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2264">
+      <c r="A2264" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2264" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2264" s="0">
+        <v>38761</v>
+      </c>
+      <c r="D2264" s="0">
+        <v>0.148267578588205</v>
+      </c>
+      <c r="E2264" s="0">
+        <v>122</v>
+      </c>
+      <c r="F2264" s="0">
+        <v>0.161803713527851</v>
+      </c>
+      <c r="G2264" s="0">
+        <v>126</v>
+      </c>
+      <c r="H2264" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2265">
+      <c r="A2265" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2265" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2265" s="0">
+        <v>34754</v>
+      </c>
+      <c r="D2265" s="0">
+        <v>0.132940105421802</v>
+      </c>
+      <c r="E2265" s="0">
+        <v>110</v>
+      </c>
+      <c r="F2265" s="0">
+        <v>0.145888594164456</v>
+      </c>
+      <c r="G2265" s="0">
+        <v>325</v>
+      </c>
+      <c r="H2265" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2266">
+      <c r="A2266" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2266" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2266" s="0">
+        <v>24062</v>
+      </c>
+      <c r="D2266" s="0">
+        <v>9.20413424831501E-02</v>
+      </c>
+      <c r="E2266" s="0">
+        <v>58</v>
+      </c>
+      <c r="F2266" s="0">
+        <v>7.69230769230769E-02</v>
+      </c>
+      <c r="G2266" s="0">
+        <v>657</v>
+      </c>
+      <c r="H2266" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2267">
+      <c r="A2267" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2267" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2267" s="0">
+        <v>14313</v>
+      </c>
+      <c r="D2267" s="0">
+        <v>5.47497188496936E-02</v>
+      </c>
+      <c r="E2267" s="0">
+        <v>49</v>
+      </c>
+      <c r="F2267" s="0">
+        <v>6.49867374005305E-02</v>
+      </c>
+      <c r="G2267" s="0">
+        <v>1003</v>
+      </c>
+      <c r="H2267" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2268">
+      <c r="A2268" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2268" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2268" s="0">
+        <v>7763</v>
+      </c>
+      <c r="D2268" s="0">
+        <v>2.96948275993972E-02</v>
+      </c>
+      <c r="E2268" s="0">
+        <v>26</v>
+      </c>
+      <c r="F2268" s="0">
+        <v>3.44827586206897E-02</v>
+      </c>
+      <c r="G2268" s="0">
+        <v>1170</v>
+      </c>
+      <c r="H2268" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2269">
+      <c r="A2269" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2269" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2269" s="0">
+        <v>360</v>
+      </c>
+      <c r="D2269" s="0">
+        <v>1.37706272520713E-03</v>
+      </c>
+      <c r="E2269" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2269" s="0">
+        <v>1.45888594164456E-02</v>
+      </c>
+      <c r="G2269" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2269" s="0">
         <v>0</v>
       </c>
     </row>
@@ -62772,11 +63052,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1180</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1192</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1180</Url>
-      <Description>HJYU5V3E37X6-122305290-1180</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1192</Url>
+      <Description>HJYU5V3E37X6-122305290-1192</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -62799,17 +63079,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7430596-2A95-46DB-966D-C32E0BB0303F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC481B4D-44F5-41BA-A165-0E632EF53964}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466AC36A-C03F-4C7B-BA9D-B9D54650A159}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C549B5D-EFD6-44BD-8553-77CB6628CF6A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFF2C3C8-D520-45FC-A657-EC9EB093F84E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F434A939-48B7-452B-99FB-5D97A7F39972}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA466517-8A80-455F-AA8A-0BF2CBEFEB57}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B27D62FD-5C7C-41B5-9F74-FDD649599E52}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2269</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2279</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2269"/>
+  <dimension ref="A1:H2279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -62620,6 +62620,286 @@
         <v>0</v>
       </c>
       <c r="H2269" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2270">
+      <c r="A2270" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2270" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2270" s="0">
+        <v>12897</v>
+      </c>
+      <c r="D2270" s="0">
+        <v>0.048743891423237</v>
+      </c>
+      <c r="E2270" s="0">
+        <v>138</v>
+      </c>
+      <c r="F2270" s="0">
+        <v>4.36570705472952E-02</v>
+      </c>
+      <c r="G2270" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2270" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2271">
+      <c r="A2271" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2271" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2271" s="0">
+        <v>34987</v>
+      </c>
+      <c r="D2271" s="0">
+        <v>0.132232498195301</v>
+      </c>
+      <c r="E2271" s="0">
+        <v>412</v>
+      </c>
+      <c r="F2271" s="0">
+        <v>0.130338500474533</v>
+      </c>
+      <c r="G2271" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2271" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2272">
+      <c r="A2272" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2272" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2272" s="0">
+        <v>52661</v>
+      </c>
+      <c r="D2272" s="0">
+        <v>0.199030942563316</v>
+      </c>
+      <c r="E2272" s="0">
+        <v>552</v>
+      </c>
+      <c r="F2272" s="0">
+        <v>0.174628282189181</v>
+      </c>
+      <c r="G2272" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2272" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2273">
+      <c r="A2273" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2273" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2273" s="0">
+        <v>42410</v>
+      </c>
+      <c r="D2273" s="0">
+        <v>0.160287542471852</v>
+      </c>
+      <c r="E2273" s="0">
+        <v>440</v>
+      </c>
+      <c r="F2273" s="0">
+        <v>0.139196456817463</v>
+      </c>
+      <c r="G2273" s="0">
+        <v>47</v>
+      </c>
+      <c r="H2273" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2274">
+      <c r="A2274" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2274" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2274" s="0">
+        <v>39212</v>
+      </c>
+      <c r="D2274" s="0">
+        <v>0.148200780839573</v>
+      </c>
+      <c r="E2274" s="0">
+        <v>451</v>
+      </c>
+      <c r="F2274" s="0">
+        <v>0.142676368237899</v>
+      </c>
+      <c r="G2274" s="0">
+        <v>127</v>
+      </c>
+      <c r="H2274" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2275">
+      <c r="A2275" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2275" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2275" s="0">
+        <v>35208</v>
+      </c>
+      <c r="D2275" s="0">
+        <v>0.133067762210539</v>
+      </c>
+      <c r="E2275" s="0">
+        <v>454</v>
+      </c>
+      <c r="F2275" s="0">
+        <v>0.143625434988928</v>
+      </c>
+      <c r="G2275" s="0">
+        <v>329</v>
+      </c>
+      <c r="H2275" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2276">
+      <c r="A2276" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2276" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2276" s="0">
+        <v>24394</v>
+      </c>
+      <c r="D2276" s="0">
+        <v>9.21965175915672E-02</v>
+      </c>
+      <c r="E2276" s="0">
+        <v>332</v>
+      </c>
+      <c r="F2276" s="0">
+        <v>0.105030053780449</v>
+      </c>
+      <c r="G2276" s="0">
+        <v>657</v>
+      </c>
+      <c r="H2276" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2277">
+      <c r="A2277" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2277" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2277" s="0">
+        <v>14566</v>
+      </c>
+      <c r="D2277" s="0">
+        <v>5.50518355021222E-02</v>
+      </c>
+      <c r="E2277" s="0">
+        <v>253</v>
+      </c>
+      <c r="F2277" s="0">
+        <v>8.00379626700411E-02</v>
+      </c>
+      <c r="G2277" s="0">
+        <v>1018</v>
+      </c>
+      <c r="H2277" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2278">
+      <c r="A2278" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2278" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2278" s="0">
+        <v>7892</v>
+      </c>
+      <c r="D2278" s="0">
+        <v>2.98276181369455E-02</v>
+      </c>
+      <c r="E2278" s="0">
+        <v>129</v>
+      </c>
+      <c r="F2278" s="0">
+        <v>4.08098702942107E-02</v>
+      </c>
+      <c r="G2278" s="0">
+        <v>1174</v>
+      </c>
+      <c r="H2278" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2279">
+      <c r="A2279" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2279" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2279" s="0">
+        <v>360</v>
+      </c>
+      <c r="D2279" s="0">
+        <v>1.36061106554744E-03</v>
+      </c>
+      <c r="E2279" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2279" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2279" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2279" s="0">
         <v>0</v>
       </c>
     </row>
@@ -63052,11 +63332,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1192</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1236</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1192</Url>
-      <Description>HJYU5V3E37X6-122305290-1192</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1236</Url>
+      <Description>HJYU5V3E37X6-122305290-1236</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -63079,17 +63359,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC481B4D-44F5-41BA-A165-0E632EF53964}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6CDCBD-AF94-4629-95D1-26D1A8E99426}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C549B5D-EFD6-44BD-8553-77CB6628CF6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA11EC5E-BC9D-4EE5-9471-983382AF4066}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F434A939-48B7-452B-99FB-5D97A7F39972}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8396A4AD-3660-4E15-ADE6-C7974B6EE4B5}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B27D62FD-5C7C-41B5-9F74-FDD649599E52}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A6D50DD-69ED-42C3-AE29-59631642CC0E}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2279</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2289</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2279"/>
+  <dimension ref="A1:H2289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -62900,6 +62900,286 @@
         <v>0</v>
       </c>
       <c r="H2279" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2280">
+      <c r="A2280" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2280" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2280" s="0">
+        <v>12972</v>
+      </c>
+      <c r="D2280" s="0">
+        <v>4.87015546803726E-02</v>
+      </c>
+      <c r="E2280" s="0">
+        <v>75</v>
+      </c>
+      <c r="F2280" s="0">
+        <v>4.23728813559322E-02</v>
+      </c>
+      <c r="G2280" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2280" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2281">
+      <c r="A2281" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2281" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2281" s="0">
+        <v>35233</v>
+      </c>
+      <c r="D2281" s="0">
+        <v>0.13227735708091</v>
+      </c>
+      <c r="E2281" s="0">
+        <v>246</v>
+      </c>
+      <c r="F2281" s="0">
+        <v>0.138983050847458</v>
+      </c>
+      <c r="G2281" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2281" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2282">
+      <c r="A2282" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2282" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2282" s="0">
+        <v>53003</v>
+      </c>
+      <c r="D2282" s="0">
+        <v>0.19899232984303</v>
+      </c>
+      <c r="E2282" s="0">
+        <v>342</v>
+      </c>
+      <c r="F2282" s="0">
+        <v>0.193220338983051</v>
+      </c>
+      <c r="G2282" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2282" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2283">
+      <c r="A2283" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2283" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2283" s="0">
+        <v>42662</v>
+      </c>
+      <c r="D2283" s="0">
+        <v>0.160168495665592</v>
+      </c>
+      <c r="E2283" s="0">
+        <v>252</v>
+      </c>
+      <c r="F2283" s="0">
+        <v>0.142372881355932</v>
+      </c>
+      <c r="G2283" s="0">
+        <v>48</v>
+      </c>
+      <c r="H2283" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2284">
+      <c r="A2284" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2284" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2284" s="0">
+        <v>39476</v>
+      </c>
+      <c r="D2284" s="0">
+        <v>0.148207105501263</v>
+      </c>
+      <c r="E2284" s="0">
+        <v>264</v>
+      </c>
+      <c r="F2284" s="0">
+        <v>0.149152542372881</v>
+      </c>
+      <c r="G2284" s="0">
+        <v>128</v>
+      </c>
+      <c r="H2284" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2285">
+      <c r="A2285" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2285" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2285" s="0">
+        <v>35449</v>
+      </c>
+      <c r="D2285" s="0">
+        <v>0.133088298786966</v>
+      </c>
+      <c r="E2285" s="0">
+        <v>241</v>
+      </c>
+      <c r="F2285" s="0">
+        <v>0.136158192090395</v>
+      </c>
+      <c r="G2285" s="0">
+        <v>333</v>
+      </c>
+      <c r="H2285" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2286">
+      <c r="A2286" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2286" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2286" s="0">
+        <v>24574</v>
+      </c>
+      <c r="D2286" s="0">
+        <v>0.092259636502889</v>
+      </c>
+      <c r="E2286" s="0">
+        <v>180</v>
+      </c>
+      <c r="F2286" s="0">
+        <v>0.101694915254237</v>
+      </c>
+      <c r="G2286" s="0">
+        <v>673</v>
+      </c>
+      <c r="H2286" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2287">
+      <c r="A2287" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2287" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2287" s="0">
+        <v>14683</v>
+      </c>
+      <c r="D2287" s="0">
+        <v>5.51252642130674E-02</v>
+      </c>
+      <c r="E2287" s="0">
+        <v>117</v>
+      </c>
+      <c r="F2287" s="0">
+        <v>6.61016949152542E-02</v>
+      </c>
+      <c r="G2287" s="0">
+        <v>1046</v>
+      </c>
+      <c r="H2287" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2288">
+      <c r="A2288" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2288" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2288" s="0">
+        <v>7950</v>
+      </c>
+      <c r="D2288" s="0">
+        <v>2.98471600145669E-02</v>
+      </c>
+      <c r="E2288" s="0">
+        <v>58</v>
+      </c>
+      <c r="F2288" s="0">
+        <v>3.27683615819209E-02</v>
+      </c>
+      <c r="G2288" s="0">
+        <v>1199</v>
+      </c>
+      <c r="H2288" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2289">
+      <c r="A2289" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2289" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2289" s="0">
+        <v>355</v>
+      </c>
+      <c r="D2289" s="0">
+        <v>1.3327977113423E-03</v>
+      </c>
+      <c r="E2289" s="0">
+        <v>-5</v>
+      </c>
+      <c r="F2289" s="0">
+        <v>-2.82485875706215E-03</v>
+      </c>
+      <c r="G2289" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2289" s="0">
         <v>0</v>
       </c>
     </row>
@@ -63331,13 +63611,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1236</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1236</Url>
-      <Description>HJYU5V3E37X6-122305290-1236</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -63352,24 +63625,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1263</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1263</Url>
+      <Description>HJYU5V3E37X6-122305290-1263</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6CDCBD-AF94-4629-95D1-26D1A8E99426}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EDFABA4-F1C8-483D-B0E2-2FE2528362D2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA11EC5E-BC9D-4EE5-9471-983382AF4066}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A39815D3-9196-4AEB-8481-BB57C66A5D10}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8396A4AD-3660-4E15-ADE6-C7974B6EE4B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B0CF49-62C7-4C2F-8868-7AFA5D47E6C9}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A6D50DD-69ED-42C3-AE29-59631642CC0E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CA253B-B532-4416-8F3F-C74349D347AF}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2289</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2299</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2289"/>
+  <dimension ref="A1:H2299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -63180,6 +63180,286 @@
         <v>0</v>
       </c>
       <c r="H2289" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2290">
+      <c r="A2290" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2290" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2290" s="0">
+        <v>13158</v>
+      </c>
+      <c r="D2290" s="0">
+        <v>4.87690973380479E-02</v>
+      </c>
+      <c r="E2290" s="0">
+        <v>186</v>
+      </c>
+      <c r="F2290" s="0">
+        <v>5.39912917271408E-02</v>
+      </c>
+      <c r="G2290" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2290" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2291">
+      <c r="A2291" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2291" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2291" s="0">
+        <v>35703</v>
+      </c>
+      <c r="D2291" s="0">
+        <v>0.13233037560878</v>
+      </c>
+      <c r="E2291" s="0">
+        <v>470</v>
+      </c>
+      <c r="F2291" s="0">
+        <v>0.136429608127721</v>
+      </c>
+      <c r="G2291" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2291" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2292">
+      <c r="A2292" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2292" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2292" s="0">
+        <v>53579</v>
+      </c>
+      <c r="D2292" s="0">
+        <v>0.198586370745954</v>
+      </c>
+      <c r="E2292" s="0">
+        <v>576</v>
+      </c>
+      <c r="F2292" s="0">
+        <v>0.167198838896952</v>
+      </c>
+      <c r="G2292" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2292" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2293">
+      <c r="A2293" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2293" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2293" s="0">
+        <v>43194</v>
+      </c>
+      <c r="D2293" s="0">
+        <v>0.160095180910445</v>
+      </c>
+      <c r="E2293" s="0">
+        <v>532</v>
+      </c>
+      <c r="F2293" s="0">
+        <v>0.154426705370102</v>
+      </c>
+      <c r="G2293" s="0">
+        <v>48</v>
+      </c>
+      <c r="H2293" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2294">
+      <c r="A2294" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2294" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2294" s="0">
+        <v>39991</v>
+      </c>
+      <c r="D2294" s="0">
+        <v>0.14822351205699</v>
+      </c>
+      <c r="E2294" s="0">
+        <v>515</v>
+      </c>
+      <c r="F2294" s="0">
+        <v>0.149492017416546</v>
+      </c>
+      <c r="G2294" s="0">
+        <v>128</v>
+      </c>
+      <c r="H2294" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2295">
+      <c r="A2295" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2295" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2295" s="0">
+        <v>35928</v>
+      </c>
+      <c r="D2295" s="0">
+        <v>0.133164320501701</v>
+      </c>
+      <c r="E2295" s="0">
+        <v>479</v>
+      </c>
+      <c r="F2295" s="0">
+        <v>0.139042089985486</v>
+      </c>
+      <c r="G2295" s="0">
+        <v>335</v>
+      </c>
+      <c r="H2295" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2296">
+      <c r="A2296" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2296" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2296" s="0">
+        <v>24936</v>
+      </c>
+      <c r="D2296" s="0">
+        <v>9.24233326661774E-02</v>
+      </c>
+      <c r="E2296" s="0">
+        <v>362</v>
+      </c>
+      <c r="F2296" s="0">
+        <v>0.105079825834543</v>
+      </c>
+      <c r="G2296" s="0">
+        <v>678</v>
+      </c>
+      <c r="H2296" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2297">
+      <c r="A2297" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2297" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2297" s="0">
+        <v>14933</v>
+      </c>
+      <c r="D2297" s="0">
+        <v>5.53479959377618E-02</v>
+      </c>
+      <c r="E2297" s="0">
+        <v>250</v>
+      </c>
+      <c r="F2297" s="0">
+        <v>7.25689404934688E-02</v>
+      </c>
+      <c r="G2297" s="0">
+        <v>1058</v>
+      </c>
+      <c r="H2297" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2298">
+      <c r="A2298" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2298" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2298" s="0">
+        <v>8017</v>
+      </c>
+      <c r="D2298" s="0">
+        <v>2.97143831402288E-02</v>
+      </c>
+      <c r="E2298" s="0">
+        <v>67</v>
+      </c>
+      <c r="F2298" s="0">
+        <v>1.94484760522496E-02</v>
+      </c>
+      <c r="G2298" s="0">
+        <v>1204</v>
+      </c>
+      <c r="H2298" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2299">
+      <c r="A2299" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2299" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2299" s="0">
+        <v>363</v>
+      </c>
+      <c r="D2299" s="0">
+        <v>1.34543109391331E-03</v>
+      </c>
+      <c r="E2299" s="0">
+        <v>8</v>
+      </c>
+      <c r="F2299" s="0">
+        <v>0.002322206095791</v>
+      </c>
+      <c r="G2299" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2299" s="0">
         <v>0</v>
       </c>
     </row>
@@ -63611,6 +63891,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1274</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1274</Url>
+      <Description>HJYU5V3E37X6-122305290-1274</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -63625,31 +63912,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1263</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1263</Url>
-      <Description>HJYU5V3E37X6-122305290-1263</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EDFABA4-F1C8-483D-B0E2-2FE2528362D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{070FBD11-6C8C-4CF1-BA90-4C89BD23D96C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A39815D3-9196-4AEB-8481-BB57C66A5D10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1D2C0B4-0463-49E6-994B-BA9F8F6D3489}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B0CF49-62C7-4C2F-8868-7AFA5D47E6C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15A781C8-0AF6-4A85-B73D-2800185A9580}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CA253B-B532-4416-8F3F-C74349D347AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C067F1E-0E28-4ABA-BD9D-C7B79C87CF51}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2299</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2309</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2299"/>
+  <dimension ref="A1:H2309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -63460,6 +63460,286 @@
         <v>0</v>
       </c>
       <c r="H2299" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2300">
+      <c r="A2300" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2300" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2300" s="0">
+        <v>13265</v>
+      </c>
+      <c r="D2300" s="0">
+        <v>4.88094756246987E-02</v>
+      </c>
+      <c r="E2300" s="0">
+        <v>107</v>
+      </c>
+      <c r="F2300" s="0">
+        <v>5.43423057389538E-02</v>
+      </c>
+      <c r="G2300" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2300" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2301">
+      <c r="A2301" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2301" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2301" s="0">
+        <v>35946</v>
+      </c>
+      <c r="D2301" s="0">
+        <v>0.132265767870744</v>
+      </c>
+      <c r="E2301" s="0">
+        <v>243</v>
+      </c>
+      <c r="F2301" s="0">
+        <v>0.123412899949213</v>
+      </c>
+      <c r="G2301" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2301" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2302">
+      <c r="A2302" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2302" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2302" s="0">
+        <v>53919</v>
+      </c>
+      <c r="D2302" s="0">
+        <v>0.198398651806116</v>
+      </c>
+      <c r="E2302" s="0">
+        <v>340</v>
+      </c>
+      <c r="F2302" s="0">
+        <v>0.172676485525648</v>
+      </c>
+      <c r="G2302" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2302" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2303">
+      <c r="A2303" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2303" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2303" s="0">
+        <v>43487</v>
+      </c>
+      <c r="D2303" s="0">
+        <v>0.160013393629195</v>
+      </c>
+      <c r="E2303" s="0">
+        <v>293</v>
+      </c>
+      <c r="F2303" s="0">
+        <v>0.148806500761808</v>
+      </c>
+      <c r="G2303" s="0">
+        <v>49</v>
+      </c>
+      <c r="H2303" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2304">
+      <c r="A2304" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2304" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2304" s="0">
+        <v>40269</v>
+      </c>
+      <c r="D2304" s="0">
+        <v>0.148172542324236</v>
+      </c>
+      <c r="E2304" s="0">
+        <v>278</v>
+      </c>
+      <c r="F2304" s="0">
+        <v>0.141188420518029</v>
+      </c>
+      <c r="G2304" s="0">
+        <v>128</v>
+      </c>
+      <c r="H2304" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2305">
+      <c r="A2305" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2305" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2305" s="0">
+        <v>36234</v>
+      </c>
+      <c r="D2305" s="0">
+        <v>0.133325483587285</v>
+      </c>
+      <c r="E2305" s="0">
+        <v>306</v>
+      </c>
+      <c r="F2305" s="0">
+        <v>0.155408836973083</v>
+      </c>
+      <c r="G2305" s="0">
+        <v>340</v>
+      </c>
+      <c r="H2305" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2306">
+      <c r="A2306" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2306" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2306" s="0">
+        <v>25157</v>
+      </c>
+      <c r="D2306" s="0">
+        <v>9.25669037535278E-02</v>
+      </c>
+      <c r="E2306" s="0">
+        <v>221</v>
+      </c>
+      <c r="F2306" s="0">
+        <v>0.112239715591671</v>
+      </c>
+      <c r="G2306" s="0">
+        <v>681</v>
+      </c>
+      <c r="H2306" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2307">
+      <c r="A2307" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2307" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2307" s="0">
+        <v>15057</v>
+      </c>
+      <c r="D2307" s="0">
+        <v>5.54032623053968E-02</v>
+      </c>
+      <c r="E2307" s="0">
+        <v>124</v>
+      </c>
+      <c r="F2307" s="0">
+        <v>6.29761300152362E-02</v>
+      </c>
+      <c r="G2307" s="0">
+        <v>1068</v>
+      </c>
+      <c r="H2307" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2308">
+      <c r="A2308" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2308" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2308" s="0">
+        <v>8071</v>
+      </c>
+      <c r="D2308" s="0">
+        <v>2.96977970423629E-02</v>
+      </c>
+      <c r="E2308" s="0">
+        <v>54</v>
+      </c>
+      <c r="F2308" s="0">
+        <v>2.74250888776028E-02</v>
+      </c>
+      <c r="G2308" s="0">
+        <v>1215</v>
+      </c>
+      <c r="H2308" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2309">
+      <c r="A2309" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2309" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2309" s="0">
+        <v>366</v>
+      </c>
+      <c r="D2309" s="0">
+        <v>1.34672205643722E-03</v>
+      </c>
+      <c r="E2309" s="0">
+        <v>3</v>
+      </c>
+      <c r="F2309" s="0">
+        <v>1.52361604875571E-03</v>
+      </c>
+      <c r="G2309" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2309" s="0">
         <v>0</v>
       </c>
     </row>
@@ -63892,11 +64172,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1274</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1295</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1274</Url>
-      <Description>HJYU5V3E37X6-122305290-1274</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1295</Url>
+      <Description>HJYU5V3E37X6-122305290-1295</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -63919,17 +64199,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{070FBD11-6C8C-4CF1-BA90-4C89BD23D96C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8CC401A-B7C6-46E3-BA8D-AE9B9F9D90D7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1D2C0B4-0463-49E6-994B-BA9F8F6D3489}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32755B54-2489-4E74-B58B-F717CE6479DE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15A781C8-0AF6-4A85-B73D-2800185A9580}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE36221C-A317-4BEC-B0AD-1721A835E070}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C067F1E-0E28-4ABA-BD9D-C7B79C87CF51}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C63240-A0F9-4DD8-981A-15082435354B}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2249</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2309</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2249"/>
+  <dimension ref="A1:H2309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -62060,6 +62060,1686 @@
         <v>0</v>
       </c>
       <c r="H2249" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2250">
+      <c r="A2250" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2250" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2250" s="0">
+        <v>12733</v>
+      </c>
+      <c r="D2250" s="0">
+        <v>4.88468266633931E-02</v>
+      </c>
+      <c r="E2250" s="0">
+        <v>59</v>
+      </c>
+      <c r="F2250" s="0">
+        <v>4.98310810810811E-02</v>
+      </c>
+      <c r="G2250" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2250" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2251">
+      <c r="A2251" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2251" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2251" s="0">
+        <v>34477</v>
+      </c>
+      <c r="D2251" s="0">
+        <v>0.132261999754481</v>
+      </c>
+      <c r="E2251" s="0">
+        <v>128</v>
+      </c>
+      <c r="F2251" s="0">
+        <v>0.108108108108108</v>
+      </c>
+      <c r="G2251" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2251" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2252">
+      <c r="A2252" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2252" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2252" s="0">
+        <v>51959</v>
+      </c>
+      <c r="D2252" s="0">
+        <v>0.199327123741714</v>
+      </c>
+      <c r="E2252" s="0">
+        <v>232</v>
+      </c>
+      <c r="F2252" s="0">
+        <v>0.195945945945946</v>
+      </c>
+      <c r="G2252" s="0">
+        <v>21</v>
+      </c>
+      <c r="H2252" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2253">
+      <c r="A2253" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2253" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2253" s="0">
+        <v>41866</v>
+      </c>
+      <c r="D2253" s="0">
+        <v>0.160607967100417</v>
+      </c>
+      <c r="E2253" s="0">
+        <v>162</v>
+      </c>
+      <c r="F2253" s="0">
+        <v>0.136824324324324</v>
+      </c>
+      <c r="G2253" s="0">
+        <v>46</v>
+      </c>
+      <c r="H2253" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2254">
+      <c r="A2254" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2254" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2254" s="0">
+        <v>38639</v>
+      </c>
+      <c r="D2254" s="0">
+        <v>0.148228424993862</v>
+      </c>
+      <c r="E2254" s="0">
+        <v>170</v>
+      </c>
+      <c r="F2254" s="0">
+        <v>0.143581081081081</v>
+      </c>
+      <c r="G2254" s="0">
+        <v>126</v>
+      </c>
+      <c r="H2254" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2255">
+      <c r="A2255" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2255" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2255" s="0">
+        <v>34644</v>
+      </c>
+      <c r="D2255" s="0">
+        <v>0.132902651608151</v>
+      </c>
+      <c r="E2255" s="0">
+        <v>162</v>
+      </c>
+      <c r="F2255" s="0">
+        <v>0.136824324324324</v>
+      </c>
+      <c r="G2255" s="0">
+        <v>325</v>
+      </c>
+      <c r="H2255" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2256">
+      <c r="A2256" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2256" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2256" s="0">
+        <v>24004</v>
+      </c>
+      <c r="D2256" s="0">
+        <v>9.20850724281856E-02</v>
+      </c>
+      <c r="E2256" s="0">
+        <v>144</v>
+      </c>
+      <c r="F2256" s="0">
+        <v>0.121621621621622</v>
+      </c>
+      <c r="G2256" s="0">
+        <v>657</v>
+      </c>
+      <c r="H2256" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2257">
+      <c r="A2257" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2257" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2257" s="0">
+        <v>14264</v>
+      </c>
+      <c r="D2257" s="0">
+        <v>5.47201080284802E-02</v>
+      </c>
+      <c r="E2257" s="0">
+        <v>83</v>
+      </c>
+      <c r="F2257" s="0">
+        <v>7.01013513513514E-02</v>
+      </c>
+      <c r="G2257" s="0">
+        <v>1003</v>
+      </c>
+      <c r="H2257" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2258">
+      <c r="A2258" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2258" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2258" s="0">
+        <v>7737</v>
+      </c>
+      <c r="D2258" s="0">
+        <v>0.029680978394304</v>
+      </c>
+      <c r="E2258" s="0">
+        <v>49</v>
+      </c>
+      <c r="F2258" s="0">
+        <v>4.13851351351351E-02</v>
+      </c>
+      <c r="G2258" s="0">
+        <v>1170</v>
+      </c>
+      <c r="H2258" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2259">
+      <c r="A2259" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B2259" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2259" s="0">
+        <v>349</v>
+      </c>
+      <c r="D2259" s="0">
+        <v>1.33884728701203E-03</v>
+      </c>
+      <c r="E2259" s="0">
+        <v>-5</v>
+      </c>
+      <c r="F2259" s="0">
+        <v>-4.22297297297297E-03</v>
+      </c>
+      <c r="G2259" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2259" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2260">
+      <c r="A2260" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2260" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2260" s="0">
+        <v>12759</v>
+      </c>
+      <c r="D2260" s="0">
+        <v>4.88053980858828E-02</v>
+      </c>
+      <c r="E2260" s="0">
+        <v>26</v>
+      </c>
+      <c r="F2260" s="0">
+        <v>3.44827586206897E-02</v>
+      </c>
+      <c r="G2260" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2260" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2261">
+      <c r="A2261" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2261" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2261" s="0">
+        <v>34575</v>
+      </c>
+      <c r="D2261" s="0">
+        <v>0.132255399233435</v>
+      </c>
+      <c r="E2261" s="0">
+        <v>98</v>
+      </c>
+      <c r="F2261" s="0">
+        <v>0.129973474801061</v>
+      </c>
+      <c r="G2261" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2261" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2262">
+      <c r="A2262" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2262" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2262" s="0">
+        <v>52109</v>
+      </c>
+      <c r="D2262" s="0">
+        <v>0.199326004299496</v>
+      </c>
+      <c r="E2262" s="0">
+        <v>150</v>
+      </c>
+      <c r="F2262" s="0">
+        <v>0.19893899204244</v>
+      </c>
+      <c r="G2262" s="0">
+        <v>21</v>
+      </c>
+      <c r="H2262" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2263">
+      <c r="A2263" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2263" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2263" s="0">
+        <v>41970</v>
+      </c>
+      <c r="D2263" s="0">
+        <v>0.160542562713732</v>
+      </c>
+      <c r="E2263" s="0">
+        <v>104</v>
+      </c>
+      <c r="F2263" s="0">
+        <v>0.137931034482759</v>
+      </c>
+      <c r="G2263" s="0">
+        <v>46</v>
+      </c>
+      <c r="H2263" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2264">
+      <c r="A2264" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2264" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2264" s="0">
+        <v>38761</v>
+      </c>
+      <c r="D2264" s="0">
+        <v>0.148267578588205</v>
+      </c>
+      <c r="E2264" s="0">
+        <v>122</v>
+      </c>
+      <c r="F2264" s="0">
+        <v>0.161803713527851</v>
+      </c>
+      <c r="G2264" s="0">
+        <v>126</v>
+      </c>
+      <c r="H2264" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2265">
+      <c r="A2265" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2265" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2265" s="0">
+        <v>34754</v>
+      </c>
+      <c r="D2265" s="0">
+        <v>0.132940105421802</v>
+      </c>
+      <c r="E2265" s="0">
+        <v>110</v>
+      </c>
+      <c r="F2265" s="0">
+        <v>0.145888594164456</v>
+      </c>
+      <c r="G2265" s="0">
+        <v>325</v>
+      </c>
+      <c r="H2265" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2266">
+      <c r="A2266" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2266" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2266" s="0">
+        <v>24062</v>
+      </c>
+      <c r="D2266" s="0">
+        <v>9.20413424831501E-02</v>
+      </c>
+      <c r="E2266" s="0">
+        <v>58</v>
+      </c>
+      <c r="F2266" s="0">
+        <v>7.69230769230769E-02</v>
+      </c>
+      <c r="G2266" s="0">
+        <v>657</v>
+      </c>
+      <c r="H2266" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2267">
+      <c r="A2267" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2267" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2267" s="0">
+        <v>14313</v>
+      </c>
+      <c r="D2267" s="0">
+        <v>5.47497188496936E-02</v>
+      </c>
+      <c r="E2267" s="0">
+        <v>49</v>
+      </c>
+      <c r="F2267" s="0">
+        <v>6.49867374005305E-02</v>
+      </c>
+      <c r="G2267" s="0">
+        <v>1003</v>
+      </c>
+      <c r="H2267" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2268">
+      <c r="A2268" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2268" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2268" s="0">
+        <v>7763</v>
+      </c>
+      <c r="D2268" s="0">
+        <v>2.96948275993972E-02</v>
+      </c>
+      <c r="E2268" s="0">
+        <v>26</v>
+      </c>
+      <c r="F2268" s="0">
+        <v>3.44827586206897E-02</v>
+      </c>
+      <c r="G2268" s="0">
+        <v>1170</v>
+      </c>
+      <c r="H2268" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2269">
+      <c r="A2269" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B2269" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2269" s="0">
+        <v>360</v>
+      </c>
+      <c r="D2269" s="0">
+        <v>1.37706272520713E-03</v>
+      </c>
+      <c r="E2269" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2269" s="0">
+        <v>1.45888594164456E-02</v>
+      </c>
+      <c r="G2269" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2269" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2270">
+      <c r="A2270" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2270" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2270" s="0">
+        <v>12897</v>
+      </c>
+      <c r="D2270" s="0">
+        <v>0.048743891423237</v>
+      </c>
+      <c r="E2270" s="0">
+        <v>138</v>
+      </c>
+      <c r="F2270" s="0">
+        <v>4.36570705472952E-02</v>
+      </c>
+      <c r="G2270" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2270" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2271">
+      <c r="A2271" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2271" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2271" s="0">
+        <v>34987</v>
+      </c>
+      <c r="D2271" s="0">
+        <v>0.132232498195301</v>
+      </c>
+      <c r="E2271" s="0">
+        <v>412</v>
+      </c>
+      <c r="F2271" s="0">
+        <v>0.130338500474533</v>
+      </c>
+      <c r="G2271" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2271" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2272">
+      <c r="A2272" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2272" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2272" s="0">
+        <v>52661</v>
+      </c>
+      <c r="D2272" s="0">
+        <v>0.199030942563316</v>
+      </c>
+      <c r="E2272" s="0">
+        <v>552</v>
+      </c>
+      <c r="F2272" s="0">
+        <v>0.174628282189181</v>
+      </c>
+      <c r="G2272" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2272" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2273">
+      <c r="A2273" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2273" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2273" s="0">
+        <v>42410</v>
+      </c>
+      <c r="D2273" s="0">
+        <v>0.160287542471852</v>
+      </c>
+      <c r="E2273" s="0">
+        <v>440</v>
+      </c>
+      <c r="F2273" s="0">
+        <v>0.139196456817463</v>
+      </c>
+      <c r="G2273" s="0">
+        <v>47</v>
+      </c>
+      <c r="H2273" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2274">
+      <c r="A2274" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2274" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2274" s="0">
+        <v>39212</v>
+      </c>
+      <c r="D2274" s="0">
+        <v>0.148200780839573</v>
+      </c>
+      <c r="E2274" s="0">
+        <v>451</v>
+      </c>
+      <c r="F2274" s="0">
+        <v>0.142676368237899</v>
+      </c>
+      <c r="G2274" s="0">
+        <v>127</v>
+      </c>
+      <c r="H2274" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2275">
+      <c r="A2275" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2275" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2275" s="0">
+        <v>35208</v>
+      </c>
+      <c r="D2275" s="0">
+        <v>0.133067762210539</v>
+      </c>
+      <c r="E2275" s="0">
+        <v>454</v>
+      </c>
+      <c r="F2275" s="0">
+        <v>0.143625434988928</v>
+      </c>
+      <c r="G2275" s="0">
+        <v>329</v>
+      </c>
+      <c r="H2275" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2276">
+      <c r="A2276" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2276" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2276" s="0">
+        <v>24394</v>
+      </c>
+      <c r="D2276" s="0">
+        <v>9.21965175915672E-02</v>
+      </c>
+      <c r="E2276" s="0">
+        <v>332</v>
+      </c>
+      <c r="F2276" s="0">
+        <v>0.105030053780449</v>
+      </c>
+      <c r="G2276" s="0">
+        <v>657</v>
+      </c>
+      <c r="H2276" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2277">
+      <c r="A2277" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2277" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2277" s="0">
+        <v>14566</v>
+      </c>
+      <c r="D2277" s="0">
+        <v>5.50518355021222E-02</v>
+      </c>
+      <c r="E2277" s="0">
+        <v>253</v>
+      </c>
+      <c r="F2277" s="0">
+        <v>8.00379626700411E-02</v>
+      </c>
+      <c r="G2277" s="0">
+        <v>1018</v>
+      </c>
+      <c r="H2277" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2278">
+      <c r="A2278" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2278" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2278" s="0">
+        <v>7892</v>
+      </c>
+      <c r="D2278" s="0">
+        <v>2.98276181369455E-02</v>
+      </c>
+      <c r="E2278" s="0">
+        <v>129</v>
+      </c>
+      <c r="F2278" s="0">
+        <v>4.08098702942107E-02</v>
+      </c>
+      <c r="G2278" s="0">
+        <v>1174</v>
+      </c>
+      <c r="H2278" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2279">
+      <c r="A2279" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B2279" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2279" s="0">
+        <v>360</v>
+      </c>
+      <c r="D2279" s="0">
+        <v>1.36061106554744E-03</v>
+      </c>
+      <c r="E2279" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2279" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2279" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2279" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2280">
+      <c r="A2280" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2280" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2280" s="0">
+        <v>12972</v>
+      </c>
+      <c r="D2280" s="0">
+        <v>4.87015546803726E-02</v>
+      </c>
+      <c r="E2280" s="0">
+        <v>75</v>
+      </c>
+      <c r="F2280" s="0">
+        <v>4.23728813559322E-02</v>
+      </c>
+      <c r="G2280" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2280" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2281">
+      <c r="A2281" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2281" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2281" s="0">
+        <v>35233</v>
+      </c>
+      <c r="D2281" s="0">
+        <v>0.13227735708091</v>
+      </c>
+      <c r="E2281" s="0">
+        <v>246</v>
+      </c>
+      <c r="F2281" s="0">
+        <v>0.138983050847458</v>
+      </c>
+      <c r="G2281" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2281" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2282">
+      <c r="A2282" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2282" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2282" s="0">
+        <v>53003</v>
+      </c>
+      <c r="D2282" s="0">
+        <v>0.19899232984303</v>
+      </c>
+      <c r="E2282" s="0">
+        <v>342</v>
+      </c>
+      <c r="F2282" s="0">
+        <v>0.193220338983051</v>
+      </c>
+      <c r="G2282" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2282" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2283">
+      <c r="A2283" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2283" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2283" s="0">
+        <v>42662</v>
+      </c>
+      <c r="D2283" s="0">
+        <v>0.160168495665592</v>
+      </c>
+      <c r="E2283" s="0">
+        <v>252</v>
+      </c>
+      <c r="F2283" s="0">
+        <v>0.142372881355932</v>
+      </c>
+      <c r="G2283" s="0">
+        <v>48</v>
+      </c>
+      <c r="H2283" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2284">
+      <c r="A2284" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2284" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2284" s="0">
+        <v>39476</v>
+      </c>
+      <c r="D2284" s="0">
+        <v>0.148207105501263</v>
+      </c>
+      <c r="E2284" s="0">
+        <v>264</v>
+      </c>
+      <c r="F2284" s="0">
+        <v>0.149152542372881</v>
+      </c>
+      <c r="G2284" s="0">
+        <v>128</v>
+      </c>
+      <c r="H2284" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2285">
+      <c r="A2285" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2285" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2285" s="0">
+        <v>35449</v>
+      </c>
+      <c r="D2285" s="0">
+        <v>0.133088298786966</v>
+      </c>
+      <c r="E2285" s="0">
+        <v>241</v>
+      </c>
+      <c r="F2285" s="0">
+        <v>0.136158192090395</v>
+      </c>
+      <c r="G2285" s="0">
+        <v>333</v>
+      </c>
+      <c r="H2285" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2286">
+      <c r="A2286" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2286" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2286" s="0">
+        <v>24574</v>
+      </c>
+      <c r="D2286" s="0">
+        <v>0.092259636502889</v>
+      </c>
+      <c r="E2286" s="0">
+        <v>180</v>
+      </c>
+      <c r="F2286" s="0">
+        <v>0.101694915254237</v>
+      </c>
+      <c r="G2286" s="0">
+        <v>673</v>
+      </c>
+      <c r="H2286" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2287">
+      <c r="A2287" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2287" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2287" s="0">
+        <v>14683</v>
+      </c>
+      <c r="D2287" s="0">
+        <v>5.51252642130674E-02</v>
+      </c>
+      <c r="E2287" s="0">
+        <v>117</v>
+      </c>
+      <c r="F2287" s="0">
+        <v>6.61016949152542E-02</v>
+      </c>
+      <c r="G2287" s="0">
+        <v>1046</v>
+      </c>
+      <c r="H2287" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2288">
+      <c r="A2288" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2288" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2288" s="0">
+        <v>7950</v>
+      </c>
+      <c r="D2288" s="0">
+        <v>2.98471600145669E-02</v>
+      </c>
+      <c r="E2288" s="0">
+        <v>58</v>
+      </c>
+      <c r="F2288" s="0">
+        <v>3.27683615819209E-02</v>
+      </c>
+      <c r="G2288" s="0">
+        <v>1199</v>
+      </c>
+      <c r="H2288" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2289">
+      <c r="A2289" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2289" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2289" s="0">
+        <v>355</v>
+      </c>
+      <c r="D2289" s="0">
+        <v>1.3327977113423E-03</v>
+      </c>
+      <c r="E2289" s="0">
+        <v>-5</v>
+      </c>
+      <c r="F2289" s="0">
+        <v>-2.82485875706215E-03</v>
+      </c>
+      <c r="G2289" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2289" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2290">
+      <c r="A2290" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2290" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2290" s="0">
+        <v>13158</v>
+      </c>
+      <c r="D2290" s="0">
+        <v>4.87690973380479E-02</v>
+      </c>
+      <c r="E2290" s="0">
+        <v>186</v>
+      </c>
+      <c r="F2290" s="0">
+        <v>5.39912917271408E-02</v>
+      </c>
+      <c r="G2290" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2290" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2291">
+      <c r="A2291" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2291" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2291" s="0">
+        <v>35703</v>
+      </c>
+      <c r="D2291" s="0">
+        <v>0.13233037560878</v>
+      </c>
+      <c r="E2291" s="0">
+        <v>470</v>
+      </c>
+      <c r="F2291" s="0">
+        <v>0.136429608127721</v>
+      </c>
+      <c r="G2291" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2291" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2292">
+      <c r="A2292" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2292" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2292" s="0">
+        <v>53579</v>
+      </c>
+      <c r="D2292" s="0">
+        <v>0.198586370745954</v>
+      </c>
+      <c r="E2292" s="0">
+        <v>576</v>
+      </c>
+      <c r="F2292" s="0">
+        <v>0.167198838896952</v>
+      </c>
+      <c r="G2292" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2292" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2293">
+      <c r="A2293" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2293" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2293" s="0">
+        <v>43194</v>
+      </c>
+      <c r="D2293" s="0">
+        <v>0.160095180910445</v>
+      </c>
+      <c r="E2293" s="0">
+        <v>532</v>
+      </c>
+      <c r="F2293" s="0">
+        <v>0.154426705370102</v>
+      </c>
+      <c r="G2293" s="0">
+        <v>48</v>
+      </c>
+      <c r="H2293" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2294">
+      <c r="A2294" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2294" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2294" s="0">
+        <v>39991</v>
+      </c>
+      <c r="D2294" s="0">
+        <v>0.14822351205699</v>
+      </c>
+      <c r="E2294" s="0">
+        <v>515</v>
+      </c>
+      <c r="F2294" s="0">
+        <v>0.149492017416546</v>
+      </c>
+      <c r="G2294" s="0">
+        <v>128</v>
+      </c>
+      <c r="H2294" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2295">
+      <c r="A2295" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2295" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2295" s="0">
+        <v>35928</v>
+      </c>
+      <c r="D2295" s="0">
+        <v>0.133164320501701</v>
+      </c>
+      <c r="E2295" s="0">
+        <v>479</v>
+      </c>
+      <c r="F2295" s="0">
+        <v>0.139042089985486</v>
+      </c>
+      <c r="G2295" s="0">
+        <v>335</v>
+      </c>
+      <c r="H2295" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2296">
+      <c r="A2296" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2296" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2296" s="0">
+        <v>24936</v>
+      </c>
+      <c r="D2296" s="0">
+        <v>9.24233326661774E-02</v>
+      </c>
+      <c r="E2296" s="0">
+        <v>362</v>
+      </c>
+      <c r="F2296" s="0">
+        <v>0.105079825834543</v>
+      </c>
+      <c r="G2296" s="0">
+        <v>678</v>
+      </c>
+      <c r="H2296" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2297">
+      <c r="A2297" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2297" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2297" s="0">
+        <v>14933</v>
+      </c>
+      <c r="D2297" s="0">
+        <v>5.53479959377618E-02</v>
+      </c>
+      <c r="E2297" s="0">
+        <v>250</v>
+      </c>
+      <c r="F2297" s="0">
+        <v>7.25689404934688E-02</v>
+      </c>
+      <c r="G2297" s="0">
+        <v>1058</v>
+      </c>
+      <c r="H2297" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2298">
+      <c r="A2298" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2298" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2298" s="0">
+        <v>8017</v>
+      </c>
+      <c r="D2298" s="0">
+        <v>2.97143831402288E-02</v>
+      </c>
+      <c r="E2298" s="0">
+        <v>67</v>
+      </c>
+      <c r="F2298" s="0">
+        <v>1.94484760522496E-02</v>
+      </c>
+      <c r="G2298" s="0">
+        <v>1204</v>
+      </c>
+      <c r="H2298" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2299">
+      <c r="A2299" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B2299" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2299" s="0">
+        <v>363</v>
+      </c>
+      <c r="D2299" s="0">
+        <v>1.34543109391331E-03</v>
+      </c>
+      <c r="E2299" s="0">
+        <v>8</v>
+      </c>
+      <c r="F2299" s="0">
+        <v>0.002322206095791</v>
+      </c>
+      <c r="G2299" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2299" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2300">
+      <c r="A2300" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2300" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2300" s="0">
+        <v>13265</v>
+      </c>
+      <c r="D2300" s="0">
+        <v>4.88094756246987E-02</v>
+      </c>
+      <c r="E2300" s="0">
+        <v>107</v>
+      </c>
+      <c r="F2300" s="0">
+        <v>5.43423057389538E-02</v>
+      </c>
+      <c r="G2300" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2300" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2301">
+      <c r="A2301" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2301" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2301" s="0">
+        <v>35946</v>
+      </c>
+      <c r="D2301" s="0">
+        <v>0.132265767870744</v>
+      </c>
+      <c r="E2301" s="0">
+        <v>243</v>
+      </c>
+      <c r="F2301" s="0">
+        <v>0.123412899949213</v>
+      </c>
+      <c r="G2301" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2301" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2302">
+      <c r="A2302" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2302" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2302" s="0">
+        <v>53919</v>
+      </c>
+      <c r="D2302" s="0">
+        <v>0.198398651806116</v>
+      </c>
+      <c r="E2302" s="0">
+        <v>340</v>
+      </c>
+      <c r="F2302" s="0">
+        <v>0.172676485525648</v>
+      </c>
+      <c r="G2302" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2302" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2303">
+      <c r="A2303" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2303" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2303" s="0">
+        <v>43487</v>
+      </c>
+      <c r="D2303" s="0">
+        <v>0.160013393629195</v>
+      </c>
+      <c r="E2303" s="0">
+        <v>293</v>
+      </c>
+      <c r="F2303" s="0">
+        <v>0.148806500761808</v>
+      </c>
+      <c r="G2303" s="0">
+        <v>49</v>
+      </c>
+      <c r="H2303" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2304">
+      <c r="A2304" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2304" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2304" s="0">
+        <v>40269</v>
+      </c>
+      <c r="D2304" s="0">
+        <v>0.148172542324236</v>
+      </c>
+      <c r="E2304" s="0">
+        <v>278</v>
+      </c>
+      <c r="F2304" s="0">
+        <v>0.141188420518029</v>
+      </c>
+      <c r="G2304" s="0">
+        <v>128</v>
+      </c>
+      <c r="H2304" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2305">
+      <c r="A2305" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2305" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2305" s="0">
+        <v>36234</v>
+      </c>
+      <c r="D2305" s="0">
+        <v>0.133325483587285</v>
+      </c>
+      <c r="E2305" s="0">
+        <v>306</v>
+      </c>
+      <c r="F2305" s="0">
+        <v>0.155408836973083</v>
+      </c>
+      <c r="G2305" s="0">
+        <v>340</v>
+      </c>
+      <c r="H2305" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2306">
+      <c r="A2306" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2306" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2306" s="0">
+        <v>25157</v>
+      </c>
+      <c r="D2306" s="0">
+        <v>9.25669037535278E-02</v>
+      </c>
+      <c r="E2306" s="0">
+        <v>221</v>
+      </c>
+      <c r="F2306" s="0">
+        <v>0.112239715591671</v>
+      </c>
+      <c r="G2306" s="0">
+        <v>681</v>
+      </c>
+      <c r="H2306" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2307">
+      <c r="A2307" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2307" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2307" s="0">
+        <v>15057</v>
+      </c>
+      <c r="D2307" s="0">
+        <v>5.54032623053968E-02</v>
+      </c>
+      <c r="E2307" s="0">
+        <v>124</v>
+      </c>
+      <c r="F2307" s="0">
+        <v>6.29761300152362E-02</v>
+      </c>
+      <c r="G2307" s="0">
+        <v>1068</v>
+      </c>
+      <c r="H2307" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2308">
+      <c r="A2308" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2308" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2308" s="0">
+        <v>8071</v>
+      </c>
+      <c r="D2308" s="0">
+        <v>2.96977970423629E-02</v>
+      </c>
+      <c r="E2308" s="0">
+        <v>54</v>
+      </c>
+      <c r="F2308" s="0">
+        <v>2.74250888776028E-02</v>
+      </c>
+      <c r="G2308" s="0">
+        <v>1215</v>
+      </c>
+      <c r="H2308" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2309">
+      <c r="A2309" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B2309" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2309" s="0">
+        <v>366</v>
+      </c>
+      <c r="D2309" s="0">
+        <v>1.34672205643722E-03</v>
+      </c>
+      <c r="E2309" s="0">
+        <v>3</v>
+      </c>
+      <c r="F2309" s="0">
+        <v>1.52361604875571E-03</v>
+      </c>
+      <c r="G2309" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2309" s="0">
         <v>0</v>
       </c>
     </row>
@@ -62492,11 +64172,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1169</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1295</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1169</Url>
-      <Description>HJYU5V3E37X6-122305290-1169</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1295</Url>
+      <Description>HJYU5V3E37X6-122305290-1295</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -62519,17 +64199,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0676BF-2703-417A-8948-C93620254169}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8CC401A-B7C6-46E3-BA8D-AE9B9F9D90D7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27EB79C3-202B-44DD-971A-2E23424B4064}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32755B54-2489-4E74-B58B-F717CE6479DE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B988423-51AA-4E44-B42E-DCABE31C8155}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE36221C-A317-4BEC-B0AD-1721A835E070}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CDFA6B2-8FB5-488B-807D-FE50A142CCB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C63240-A0F9-4DD8-981A-15082435354B}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2309</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2339</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2309"/>
+  <dimension ref="A1:H2339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -63740,6 +63740,846 @@
         <v>0</v>
       </c>
       <c r="H2309" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2310">
+      <c r="A2310" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2310" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2310" s="0">
+        <v>13341</v>
+      </c>
+      <c r="D2310" s="0">
+        <v>4.88423688603813E-02</v>
+      </c>
+      <c r="E2310" s="0">
+        <v>76</v>
+      </c>
+      <c r="F2310" s="0">
+        <v>5.53532410779315E-02</v>
+      </c>
+      <c r="G2310" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2310" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2311">
+      <c r="A2311" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2311" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2311" s="0">
+        <v>36125</v>
+      </c>
+      <c r="D2311" s="0">
+        <v>0.132256245789767</v>
+      </c>
+      <c r="E2311" s="0">
+        <v>179</v>
+      </c>
+      <c r="F2311" s="0">
+        <v>0.130371449380918</v>
+      </c>
+      <c r="G2311" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2311" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2312">
+      <c r="A2312" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2312" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2312" s="0">
+        <v>54170</v>
+      </c>
+      <c r="D2312" s="0">
+        <v>0.198320299915063</v>
+      </c>
+      <c r="E2312" s="0">
+        <v>251</v>
+      </c>
+      <c r="F2312" s="0">
+        <v>0.182811361981063</v>
+      </c>
+      <c r="G2312" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2312" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2313">
+      <c r="A2313" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2313" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2313" s="0">
+        <v>43704</v>
+      </c>
+      <c r="D2313" s="0">
+        <v>0.160003514629646</v>
+      </c>
+      <c r="E2313" s="0">
+        <v>217</v>
+      </c>
+      <c r="F2313" s="0">
+        <v>0.158048069919883</v>
+      </c>
+      <c r="G2313" s="0">
+        <v>49</v>
+      </c>
+      <c r="H2313" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2314">
+      <c r="A2314" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2314" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2314" s="0">
+        <v>40473</v>
+      </c>
+      <c r="D2314" s="0">
+        <v>0.14817458922766</v>
+      </c>
+      <c r="E2314" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2314" s="0">
+        <v>0.148579752367079</v>
+      </c>
+      <c r="G2314" s="0">
+        <v>128</v>
+      </c>
+      <c r="H2314" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2315">
+      <c r="A2315" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2315" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2315" s="0">
+        <v>36412</v>
+      </c>
+      <c r="D2315" s="0">
+        <v>0.133306973610989</v>
+      </c>
+      <c r="E2315" s="0">
+        <v>178</v>
+      </c>
+      <c r="F2315" s="0">
+        <v>0.129643117261471</v>
+      </c>
+      <c r="G2315" s="0">
+        <v>346</v>
+      </c>
+      <c r="H2315" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2316">
+      <c r="A2316" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2316" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2316" s="0">
+        <v>25285</v>
+      </c>
+      <c r="D2316" s="0">
+        <v>9.25702193714671E-02</v>
+      </c>
+      <c r="E2316" s="0">
+        <v>128</v>
+      </c>
+      <c r="F2316" s="0">
+        <v>9.32265112891479E-02</v>
+      </c>
+      <c r="G2316" s="0">
+        <v>684</v>
+      </c>
+      <c r="H2316" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2317">
+      <c r="A2317" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2317" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2317" s="0">
+        <v>15141</v>
+      </c>
+      <c r="D2317" s="0">
+        <v>5.54322994464458E-02</v>
+      </c>
+      <c r="E2317" s="0">
+        <v>84</v>
+      </c>
+      <c r="F2317" s="0">
+        <v>6.11798980335033E-02</v>
+      </c>
+      <c r="G2317" s="0">
+        <v>1083</v>
+      </c>
+      <c r="H2317" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2318">
+      <c r="A2318" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2318" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2318" s="0">
+        <v>8132</v>
+      </c>
+      <c r="D2318" s="0">
+        <v>2.97718419588203E-02</v>
+      </c>
+      <c r="E2318" s="0">
+        <v>61</v>
+      </c>
+      <c r="F2318" s="0">
+        <v>4.44282592862345E-02</v>
+      </c>
+      <c r="G2318" s="0">
+        <v>1223</v>
+      </c>
+      <c r="H2318" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2319">
+      <c r="A2319" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2319" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2319" s="0">
+        <v>361</v>
+      </c>
+      <c r="D2319" s="0">
+        <v>1.32164718976071E-03</v>
+      </c>
+      <c r="E2319" s="0">
+        <v>-5</v>
+      </c>
+      <c r="F2319" s="0">
+        <v>-3.64166059723234E-03</v>
+      </c>
+      <c r="G2319" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2319" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2320">
+      <c r="A2320" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2320" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2320" s="0">
+        <v>13605</v>
+      </c>
+      <c r="D2320" s="0">
+        <v>4.89010297791276E-02</v>
+      </c>
+      <c r="E2320" s="0">
+        <v>264</v>
+      </c>
+      <c r="F2320" s="0">
+        <v>0.052060737527115</v>
+      </c>
+      <c r="G2320" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2320" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2321">
+      <c r="A2321" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2321" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2321" s="0">
+        <v>36806</v>
+      </c>
+      <c r="D2321" s="0">
+        <v>0.13229337023525</v>
+      </c>
+      <c r="E2321" s="0">
+        <v>681</v>
+      </c>
+      <c r="F2321" s="0">
+        <v>0.134293038848353</v>
+      </c>
+      <c r="G2321" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2321" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2322">
+      <c r="A2322" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2322" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2322" s="0">
+        <v>55043</v>
+      </c>
+      <c r="D2322" s="0">
+        <v>0.197843394497062</v>
+      </c>
+      <c r="E2322" s="0">
+        <v>873</v>
+      </c>
+      <c r="F2322" s="0">
+        <v>0.172155393413528</v>
+      </c>
+      <c r="G2322" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2322" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2323">
+      <c r="A2323" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2323" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2323" s="0">
+        <v>44493</v>
+      </c>
+      <c r="D2323" s="0">
+        <v>0.159923081070395</v>
+      </c>
+      <c r="E2323" s="0">
+        <v>789</v>
+      </c>
+      <c r="F2323" s="0">
+        <v>0.155590613291264</v>
+      </c>
+      <c r="G2323" s="0">
+        <v>50</v>
+      </c>
+      <c r="H2323" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2324">
+      <c r="A2324" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2324" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2324" s="0">
+        <v>41251</v>
+      </c>
+      <c r="D2324" s="0">
+        <v>0.148270222669518</v>
+      </c>
+      <c r="E2324" s="0">
+        <v>778</v>
+      </c>
+      <c r="F2324" s="0">
+        <v>0.153421415894301</v>
+      </c>
+      <c r="G2324" s="0">
+        <v>130</v>
+      </c>
+      <c r="H2324" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2325">
+      <c r="A2325" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2325" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2325" s="0">
+        <v>37131</v>
+      </c>
+      <c r="D2325" s="0">
+        <v>0.133461531549341</v>
+      </c>
+      <c r="E2325" s="0">
+        <v>719</v>
+      </c>
+      <c r="F2325" s="0">
+        <v>0.141786629856044</v>
+      </c>
+      <c r="G2325" s="0">
+        <v>348</v>
+      </c>
+      <c r="H2325" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2326">
+      <c r="A2326" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2326" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2326" s="0">
+        <v>25790</v>
+      </c>
+      <c r="D2326" s="0">
+        <v>9.26980932013012E-02</v>
+      </c>
+      <c r="E2326" s="0">
+        <v>505</v>
+      </c>
+      <c r="F2326" s="0">
+        <v>9.95858804969434E-02</v>
+      </c>
+      <c r="G2326" s="0">
+        <v>692</v>
+      </c>
+      <c r="H2326" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2327">
+      <c r="A2327" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2327" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2327" s="0">
+        <v>15441</v>
+      </c>
+      <c r="D2327" s="0">
+        <v>5.55002426181191E-02</v>
+      </c>
+      <c r="E2327" s="0">
+        <v>300</v>
+      </c>
+      <c r="F2327" s="0">
+        <v>5.91599290080852E-02</v>
+      </c>
+      <c r="G2327" s="0">
+        <v>1097</v>
+      </c>
+      <c r="H2327" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2328">
+      <c r="A2328" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2328" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2328" s="0">
+        <v>8290</v>
+      </c>
+      <c r="D2328" s="0">
+        <v>2.97970993655985E-02</v>
+      </c>
+      <c r="E2328" s="0">
+        <v>158</v>
+      </c>
+      <c r="F2328" s="0">
+        <v>3.11575626109249E-02</v>
+      </c>
+      <c r="G2328" s="0">
+        <v>1245</v>
+      </c>
+      <c r="H2328" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2329">
+      <c r="A2329" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2329" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2329" s="0">
+        <v>365</v>
+      </c>
+      <c r="D2329" s="0">
+        <v>1.31193501428751E-03</v>
+      </c>
+      <c r="E2329" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2329" s="0">
+        <v>7.88799053441136E-04</v>
+      </c>
+      <c r="G2329" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2329" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2330">
+      <c r="A2330" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2330" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2330" s="0">
+        <v>13770</v>
+      </c>
+      <c r="D2330" s="0">
+        <v>4.88556010090438E-02</v>
+      </c>
+      <c r="E2330" s="0">
+        <v>165</v>
+      </c>
+      <c r="F2330" s="0">
+        <v>4.53795379537954E-02</v>
+      </c>
+      <c r="G2330" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2330" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2331">
+      <c r="A2331" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2331" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2331" s="0">
+        <v>37304</v>
+      </c>
+      <c r="D2331" s="0">
+        <v>0.132353619465604</v>
+      </c>
+      <c r="E2331" s="0">
+        <v>498</v>
+      </c>
+      <c r="F2331" s="0">
+        <v>0.136963696369637</v>
+      </c>
+      <c r="G2331" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2331" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2332">
+      <c r="A2332" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2332" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2332" s="0">
+        <v>55715</v>
+      </c>
+      <c r="D2332" s="0">
+        <v>0.1976753674814</v>
+      </c>
+      <c r="E2332" s="0">
+        <v>672</v>
+      </c>
+      <c r="F2332" s="0">
+        <v>0.184818481848185</v>
+      </c>
+      <c r="G2332" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2332" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2333">
+      <c r="A2333" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2333" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2333" s="0">
+        <v>45035</v>
+      </c>
+      <c r="D2333" s="0">
+        <v>0.159783005914473</v>
+      </c>
+      <c r="E2333" s="0">
+        <v>542</v>
+      </c>
+      <c r="F2333" s="0">
+        <v>0.149064906490649</v>
+      </c>
+      <c r="G2333" s="0">
+        <v>51</v>
+      </c>
+      <c r="H2333" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2334">
+      <c r="A2334" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2334" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2334" s="0">
+        <v>41771</v>
+      </c>
+      <c r="D2334" s="0">
+        <v>0.148202419008625</v>
+      </c>
+      <c r="E2334" s="0">
+        <v>520</v>
+      </c>
+      <c r="F2334" s="0">
+        <v>0.143014301430143</v>
+      </c>
+      <c r="G2334" s="0">
+        <v>130</v>
+      </c>
+      <c r="H2334" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2335">
+      <c r="A2335" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2335" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2335" s="0">
+        <v>37640</v>
+      </c>
+      <c r="D2335" s="0">
+        <v>0.133545738705912</v>
+      </c>
+      <c r="E2335" s="0">
+        <v>509</v>
+      </c>
+      <c r="F2335" s="0">
+        <v>0.13998899889989</v>
+      </c>
+      <c r="G2335" s="0">
+        <v>349</v>
+      </c>
+      <c r="H2335" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2336">
+      <c r="A2336" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2336" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2336" s="0">
+        <v>26169</v>
+      </c>
+      <c r="D2336" s="0">
+        <v>9.28469297607601E-02</v>
+      </c>
+      <c r="E2336" s="0">
+        <v>379</v>
+      </c>
+      <c r="F2336" s="0">
+        <v>0.104235423542354</v>
+      </c>
+      <c r="G2336" s="0">
+        <v>693</v>
+      </c>
+      <c r="H2336" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2337">
+      <c r="A2337" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2337" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2337" s="0">
+        <v>15658</v>
+      </c>
+      <c r="D2337" s="0">
+        <v>5.55541757879163E-02</v>
+      </c>
+      <c r="E2337" s="0">
+        <v>217</v>
+      </c>
+      <c r="F2337" s="0">
+        <v>5.96809680968097E-02</v>
+      </c>
+      <c r="G2337" s="0">
+        <v>1098</v>
+      </c>
+      <c r="H2337" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2338">
+      <c r="A2338" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2338" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2338" s="0">
+        <v>8417</v>
+      </c>
+      <c r="D2338" s="0">
+        <v>2.98632965644968E-02</v>
+      </c>
+      <c r="E2338" s="0">
+        <v>127</v>
+      </c>
+      <c r="F2338" s="0">
+        <v>3.49284928492849E-02</v>
+      </c>
+      <c r="G2338" s="0">
+        <v>1246</v>
+      </c>
+      <c r="H2338" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2339">
+      <c r="A2339" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2339" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2339" s="0">
+        <v>372</v>
+      </c>
+      <c r="D2339" s="0">
+        <v>1.31984630176937E-03</v>
+      </c>
+      <c r="E2339" s="0">
+        <v>7</v>
+      </c>
+      <c r="F2339" s="0">
+        <v>1.92519251925193E-03</v>
+      </c>
+      <c r="G2339" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2339" s="0">
         <v>0</v>
       </c>
     </row>
@@ -64172,11 +65012,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1295</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1342</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1295</Url>
-      <Description>HJYU5V3E37X6-122305290-1295</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1342</Url>
+      <Description>HJYU5V3E37X6-122305290-1342</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -64199,17 +65039,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8CC401A-B7C6-46E3-BA8D-AE9B9F9D90D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09417938-D5D6-4833-835F-208D11133624}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32755B54-2489-4E74-B58B-F717CE6479DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92650123-4CBB-42CC-A467-E982B03CF7D3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE36221C-A317-4BEC-B0AD-1721A835E070}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4276AB60-B7F4-4D43-9DED-77FD955AF9D3}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C63240-A0F9-4DD8-981A-15082435354B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A6CC08-5C47-4862-BBE4-072B8D314E8B}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2339</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2349</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2339"/>
+  <dimension ref="A1:H2349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -64580,6 +64580,286 @@
         <v>0</v>
       </c>
       <c r="H2339" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2340">
+      <c r="A2340" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2340" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2340" s="0">
+        <v>14122</v>
+      </c>
+      <c r="D2340" s="0">
+        <v>4.90739131945651E-02</v>
+      </c>
+      <c r="E2340" s="0">
+        <v>352</v>
+      </c>
+      <c r="F2340" s="0">
+        <v>0.05946950498395</v>
+      </c>
+      <c r="G2340" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2340" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2341">
+      <c r="A2341" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2341" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2341" s="0">
+        <v>38188</v>
+      </c>
+      <c r="D2341" s="0">
+        <v>0.1327032004726</v>
+      </c>
+      <c r="E2341" s="0">
+        <v>884</v>
+      </c>
+      <c r="F2341" s="0">
+        <v>0.149349552289238</v>
+      </c>
+      <c r="G2341" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2341" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2342">
+      <c r="A2342" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2342" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2342" s="0">
+        <v>56775</v>
+      </c>
+      <c r="D2342" s="0">
+        <v>0.197292977030267</v>
+      </c>
+      <c r="E2342" s="0">
+        <v>1060</v>
+      </c>
+      <c r="F2342" s="0">
+        <v>0.179084304781213</v>
+      </c>
+      <c r="G2342" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2342" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2343">
+      <c r="A2343" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2343" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2343" s="0">
+        <v>45933</v>
+      </c>
+      <c r="D2343" s="0">
+        <v>0.159617055287209</v>
+      </c>
+      <c r="E2343" s="0">
+        <v>898</v>
+      </c>
+      <c r="F2343" s="0">
+        <v>0.151714816692009</v>
+      </c>
+      <c r="G2343" s="0">
+        <v>51</v>
+      </c>
+      <c r="H2343" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2344">
+      <c r="A2344" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2344" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2344" s="0">
+        <v>42617</v>
+      </c>
+      <c r="D2344" s="0">
+        <v>0.148093963929527</v>
+      </c>
+      <c r="E2344" s="0">
+        <v>846</v>
+      </c>
+      <c r="F2344" s="0">
+        <v>0.142929548910289</v>
+      </c>
+      <c r="G2344" s="0">
+        <v>130</v>
+      </c>
+      <c r="H2344" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2345">
+      <c r="A2345" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2345" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2345" s="0">
+        <v>38428</v>
+      </c>
+      <c r="D2345" s="0">
+        <v>0.1335371998471</v>
+      </c>
+      <c r="E2345" s="0">
+        <v>788</v>
+      </c>
+      <c r="F2345" s="0">
+        <v>0.133130596384524</v>
+      </c>
+      <c r="G2345" s="0">
+        <v>350</v>
+      </c>
+      <c r="H2345" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2346">
+      <c r="A2346" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2346" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2346" s="0">
+        <v>26721</v>
+      </c>
+      <c r="D2346" s="0">
+        <v>0.092855405358446</v>
+      </c>
+      <c r="E2346" s="0">
+        <v>552</v>
+      </c>
+      <c r="F2346" s="0">
+        <v>9.32589964521034E-02</v>
+      </c>
+      <c r="G2346" s="0">
+        <v>696</v>
+      </c>
+      <c r="H2346" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2347">
+      <c r="A2347" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2347" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2347" s="0">
+        <v>16003</v>
+      </c>
+      <c r="D2347" s="0">
+        <v>5.56103832922125E-02</v>
+      </c>
+      <c r="E2347" s="0">
+        <v>345</v>
+      </c>
+      <c r="F2347" s="0">
+        <v>5.82868727825646E-02</v>
+      </c>
+      <c r="G2347" s="0">
+        <v>1102</v>
+      </c>
+      <c r="H2347" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2348">
+      <c r="A2348" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2348" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2348" s="0">
+        <v>8590</v>
+      </c>
+      <c r="D2348" s="0">
+        <v>2.98502276123293E-02</v>
+      </c>
+      <c r="E2348" s="0">
+        <v>173</v>
+      </c>
+      <c r="F2348" s="0">
+        <v>2.92279101199527E-02</v>
+      </c>
+      <c r="G2348" s="0">
+        <v>1253</v>
+      </c>
+      <c r="H2348" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2349">
+      <c r="A2349" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2349" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2349" s="0">
+        <v>393</v>
+      </c>
+      <c r="D2349" s="0">
+        <v>1.36567397574452E-03</v>
+      </c>
+      <c r="E2349" s="0">
+        <v>21</v>
+      </c>
+      <c r="F2349" s="0">
+        <v>3.54789660415611E-03</v>
+      </c>
+      <c r="G2349" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2349" s="0">
         <v>0</v>
       </c>
     </row>
@@ -65012,11 +65292,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1342</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1370</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1342</Url>
-      <Description>HJYU5V3E37X6-122305290-1342</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1370</Url>
+      <Description>HJYU5V3E37X6-122305290-1370</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -65039,17 +65319,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09417938-D5D6-4833-835F-208D11133624}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{612226EC-C169-4BCE-9394-2BA1D6930413}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92650123-4CBB-42CC-A467-E982B03CF7D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845B7A2A-5281-4EB9-9120-8CF637B62AD2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4276AB60-B7F4-4D43-9DED-77FD955AF9D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27412EC5-D990-4EC0-974C-626DD72F5B06}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A6CC08-5C47-4862-BBE4-072B8D314E8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7AD73D9-8E67-42DB-8BE3-0ABFB359D595}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2349</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2359</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2349"/>
+  <dimension ref="A1:H2359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -64860,6 +64860,286 @@
         <v>0</v>
       </c>
       <c r="H2349" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2350">
+      <c r="A2350" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2350" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2350" s="0">
+        <v>14200</v>
+      </c>
+      <c r="D2350" s="0">
+        <v>4.90079344536133E-02</v>
+      </c>
+      <c r="E2350" s="0">
+        <v>78</v>
+      </c>
+      <c r="F2350" s="0">
+        <v>3.94138453764528E-02</v>
+      </c>
+      <c r="G2350" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2350" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2351">
+      <c r="A2351" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2351" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2351" s="0">
+        <v>38425</v>
+      </c>
+      <c r="D2351" s="0">
+        <v>0.13261478037888</v>
+      </c>
+      <c r="E2351" s="0">
+        <v>237</v>
+      </c>
+      <c r="F2351" s="0">
+        <v>0.119757453259222</v>
+      </c>
+      <c r="G2351" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2351" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2352">
+      <c r="A2352" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2352" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2352" s="0">
+        <v>57137</v>
+      </c>
+      <c r="D2352" s="0">
+        <v>0.197194813441979</v>
+      </c>
+      <c r="E2352" s="0">
+        <v>362</v>
+      </c>
+      <c r="F2352" s="0">
+        <v>0.182920667003537</v>
+      </c>
+      <c r="G2352" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2352" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2353">
+      <c r="A2353" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2353" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2353" s="0">
+        <v>46258</v>
+      </c>
+      <c r="D2353" s="0">
+        <v>0.15964852337713</v>
+      </c>
+      <c r="E2353" s="0">
+        <v>325</v>
+      </c>
+      <c r="F2353" s="0">
+        <v>0.16422435573522</v>
+      </c>
+      <c r="G2353" s="0">
+        <v>52</v>
+      </c>
+      <c r="H2353" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2354">
+      <c r="A2354" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2354" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2354" s="0">
+        <v>42913</v>
+      </c>
+      <c r="D2354" s="0">
+        <v>0.148104048676613</v>
+      </c>
+      <c r="E2354" s="0">
+        <v>296</v>
+      </c>
+      <c r="F2354" s="0">
+        <v>0.149570490146539</v>
+      </c>
+      <c r="G2354" s="0">
+        <v>132</v>
+      </c>
+      <c r="H2354" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2355">
+      <c r="A2355" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2355" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2355" s="0">
+        <v>38716</v>
+      </c>
+      <c r="D2355" s="0">
+        <v>0.13361909790888</v>
+      </c>
+      <c r="E2355" s="0">
+        <v>288</v>
+      </c>
+      <c r="F2355" s="0">
+        <v>0.145528044466902</v>
+      </c>
+      <c r="G2355" s="0">
+        <v>354</v>
+      </c>
+      <c r="H2355" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2356">
+      <c r="A2356" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2356" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2356" s="0">
+        <v>26928</v>
+      </c>
+      <c r="D2356" s="0">
+        <v>9.29356097864013E-02</v>
+      </c>
+      <c r="E2356" s="0">
+        <v>207</v>
+      </c>
+      <c r="F2356" s="0">
+        <v>0.104598281960586</v>
+      </c>
+      <c r="G2356" s="0">
+        <v>708</v>
+      </c>
+      <c r="H2356" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2357">
+      <c r="A2357" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2357" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2357" s="0">
+        <v>16098</v>
+      </c>
+      <c r="D2357" s="0">
+        <v>0.055558431608047</v>
+      </c>
+      <c r="E2357" s="0">
+        <v>95</v>
+      </c>
+      <c r="F2357" s="0">
+        <v>4.80040424456796E-02</v>
+      </c>
+      <c r="G2357" s="0">
+        <v>1117</v>
+      </c>
+      <c r="H2357" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2358">
+      <c r="A2358" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2358" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2358" s="0">
+        <v>8682</v>
+      </c>
+      <c r="D2358" s="0">
+        <v>2.99638652764979E-02</v>
+      </c>
+      <c r="E2358" s="0">
+        <v>92</v>
+      </c>
+      <c r="F2358" s="0">
+        <v>4.64881253158161E-02</v>
+      </c>
+      <c r="G2358" s="0">
+        <v>1281</v>
+      </c>
+      <c r="H2358" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2359">
+      <c r="A2359" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2359" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2359" s="0">
+        <v>392</v>
+      </c>
+      <c r="D2359" s="0">
+        <v>1.3528950919589E-03</v>
+      </c>
+      <c r="E2359" s="0">
+        <v>-1</v>
+      </c>
+      <c r="F2359" s="0">
+        <v>-5.05305709954523E-04</v>
+      </c>
+      <c r="G2359" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2359" s="0">
         <v>0</v>
       </c>
     </row>
@@ -65292,17 +65572,7 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1370</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1370</Url>
-      <Description>HJYU5V3E37X6-122305290-1370</Description>
-    </_dlc_DocIdUrl>
-    <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
-    <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e67c2c055ae043d09da25150149f3d62>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Assigned_x0020_To0 xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">
       <UserInfo>
         <DisplayName/>
@@ -65310,26 +65580,36 @@
         <AccountType/>
       </UserInfo>
     </Assigned_x0020_To0>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1380</_dlc_DocId>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
+    <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
+    <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e67c2c055ae043d09da25150149f3d62>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1380</Url>
+      <Description>HJYU5V3E37X6-122305290-1380</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{612226EC-C169-4BCE-9394-2BA1D6930413}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{173A9FBE-AD46-44C7-9A40-DAC0CE5932D7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845B7A2A-5281-4EB9-9120-8CF637B62AD2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10406172-AB3F-4174-A34E-CCDD9BBC0A2F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27412EC5-D990-4EC0-974C-626DD72F5B06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FCA58E4-D43F-4970-B0E8-2CB436E2B4FD}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7AD73D9-8E67-42DB-8BE3-0ABFB359D595}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ACF7744-BD06-4D51-85D3-805EE7D707CE}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2359</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2369</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2359"/>
+  <dimension ref="A1:H2369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -65140,6 +65140,286 @@
         <v>0</v>
       </c>
       <c r="H2359" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2360">
+      <c r="A2360" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2360" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2360" s="0">
+        <v>14363</v>
+      </c>
+      <c r="D2360" s="0">
+        <v>4.89568172444705E-02</v>
+      </c>
+      <c r="E2360" s="0">
+        <v>163</v>
+      </c>
+      <c r="F2360" s="0">
+        <v>4.48788546255507E-02</v>
+      </c>
+      <c r="G2360" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2360" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2361">
+      <c r="A2361" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2361" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2361" s="0">
+        <v>38925</v>
+      </c>
+      <c r="D2361" s="0">
+        <v>0.132677303574533</v>
+      </c>
+      <c r="E2361" s="0">
+        <v>500</v>
+      </c>
+      <c r="F2361" s="0">
+        <v>0.137665198237885</v>
+      </c>
+      <c r="G2361" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2361" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2362">
+      <c r="A2362" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2362" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2362" s="0">
+        <v>57829</v>
+      </c>
+      <c r="D2362" s="0">
+        <v>0.19711228743511</v>
+      </c>
+      <c r="E2362" s="0">
+        <v>692</v>
+      </c>
+      <c r="F2362" s="0">
+        <v>0.190528634361233</v>
+      </c>
+      <c r="G2362" s="0">
+        <v>23</v>
+      </c>
+      <c r="H2362" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2363">
+      <c r="A2363" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2363" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2363" s="0">
+        <v>46794</v>
+      </c>
+      <c r="D2363" s="0">
+        <v>0.159499081399273</v>
+      </c>
+      <c r="E2363" s="0">
+        <v>536</v>
+      </c>
+      <c r="F2363" s="0">
+        <v>0.147577092511013</v>
+      </c>
+      <c r="G2363" s="0">
+        <v>52</v>
+      </c>
+      <c r="H2363" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2364">
+      <c r="A2364" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2364" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2364" s="0">
+        <v>43426</v>
+      </c>
+      <c r="D2364" s="0">
+        <v>0.148019128709766</v>
+      </c>
+      <c r="E2364" s="0">
+        <v>513</v>
+      </c>
+      <c r="F2364" s="0">
+        <v>0.14124449339207</v>
+      </c>
+      <c r="G2364" s="0">
+        <v>133</v>
+      </c>
+      <c r="H2364" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2365">
+      <c r="A2365" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2365" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2365" s="0">
+        <v>39243</v>
+      </c>
+      <c r="D2365" s="0">
+        <v>0.133761218347473</v>
+      </c>
+      <c r="E2365" s="0">
+        <v>527</v>
+      </c>
+      <c r="F2365" s="0">
+        <v>0.145099118942731</v>
+      </c>
+      <c r="G2365" s="0">
+        <v>358</v>
+      </c>
+      <c r="H2365" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2366">
+      <c r="A2366" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2366" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2366" s="0">
+        <v>27287</v>
+      </c>
+      <c r="D2366" s="0">
+        <v>0.093008749714535</v>
+      </c>
+      <c r="E2366" s="0">
+        <v>359</v>
+      </c>
+      <c r="F2366" s="0">
+        <v>9.88436123348018E-02</v>
+      </c>
+      <c r="G2366" s="0">
+        <v>729</v>
+      </c>
+      <c r="H2366" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2367">
+      <c r="A2367" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2367" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2367" s="0">
+        <v>16316</v>
+      </c>
+      <c r="D2367" s="0">
+        <v>5.56136900480945E-02</v>
+      </c>
+      <c r="E2367" s="0">
+        <v>218</v>
+      </c>
+      <c r="F2367" s="0">
+        <v>6.00220264317181E-02</v>
+      </c>
+      <c r="G2367" s="0">
+        <v>1141</v>
+      </c>
+      <c r="H2367" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2368">
+      <c r="A2368" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2368" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2368" s="0">
+        <v>8801</v>
+      </c>
+      <c r="D2368" s="0">
+        <v>2.99985343290806E-02</v>
+      </c>
+      <c r="E2368" s="0">
+        <v>119</v>
+      </c>
+      <c r="F2368" s="0">
+        <v>3.27643171806167E-02</v>
+      </c>
+      <c r="G2368" s="0">
+        <v>1320</v>
+      </c>
+      <c r="H2368" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2369">
+      <c r="A2369" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2369" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2369" s="0">
+        <v>397</v>
+      </c>
+      <c r="D2369" s="0">
+        <v>1.35318919766447E-03</v>
+      </c>
+      <c r="E2369" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2369" s="0">
+        <v>1.37665198237885E-03</v>
+      </c>
+      <c r="G2369" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2369" s="0">
         <v>0</v>
       </c>
     </row>
@@ -65572,7 +65852,17 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1412</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1412</Url>
+      <Description>HJYU5V3E37X6-122305290-1412</Description>
+    </_dlc_DocIdUrl>
+    <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
+    <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e67c2c055ae043d09da25150149f3d62>
     <Assigned_x0020_To0 xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">
       <UserInfo>
         <DisplayName/>
@@ -65580,36 +65870,26 @@
         <AccountType/>
       </UserInfo>
     </Assigned_x0020_To0>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1380</_dlc_DocId>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
-    <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
-    <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e67c2c055ae043d09da25150149f3d62>
+    <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1380</Url>
-      <Description>HJYU5V3E37X6-122305290-1380</Description>
-    </_dlc_DocIdUrl>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{173A9FBE-AD46-44C7-9A40-DAC0CE5932D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B55923B-A223-4821-A66F-C59550AF11A6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10406172-AB3F-4174-A34E-CCDD9BBC0A2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA750342-B5C9-4483-B762-5C9CB026681C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FCA58E4-D43F-4970-B0E8-2CB436E2B4FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F292BF-7D9F-4861-A669-358AF45E0FFD}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ACF7744-BD06-4D51-85D3-805EE7D707CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8F4137-A855-40E3-BFA0-A4D2DED696BB}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2369</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2379</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2369"/>
+  <dimension ref="A1:H2379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -65421,6 +65421,286 @@
       </c>
       <c r="H2369" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2370">
+      <c r="A2370" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2370" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2370" s="0">
+        <v>14541</v>
+      </c>
+      <c r="D2370" s="0">
+        <v>4.90049709326818E-02</v>
+      </c>
+      <c r="E2370" s="0">
+        <v>178</v>
+      </c>
+      <c r="F2370" s="0">
+        <v>5.32296650717703E-02</v>
+      </c>
+      <c r="G2370" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2370" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2371">
+      <c r="A2371" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2371" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2371" s="0">
+        <v>39350</v>
+      </c>
+      <c r="D2371" s="0">
+        <v>0.132614373578229</v>
+      </c>
+      <c r="E2371" s="0">
+        <v>425</v>
+      </c>
+      <c r="F2371" s="0">
+        <v>0.127093301435407</v>
+      </c>
+      <c r="G2371" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2371" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2372">
+      <c r="A2372" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2372" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2372" s="0">
+        <v>58386</v>
+      </c>
+      <c r="D2372" s="0">
+        <v>0.196768051225883</v>
+      </c>
+      <c r="E2372" s="0">
+        <v>557</v>
+      </c>
+      <c r="F2372" s="0">
+        <v>0.166566985645933</v>
+      </c>
+      <c r="G2372" s="0">
+        <v>23</v>
+      </c>
+      <c r="H2372" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2373">
+      <c r="A2373" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2373" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2373" s="0">
+        <v>47337</v>
+      </c>
+      <c r="D2373" s="0">
+        <v>0.159531552784565</v>
+      </c>
+      <c r="E2373" s="0">
+        <v>543</v>
+      </c>
+      <c r="F2373" s="0">
+        <v>0.16238038277512</v>
+      </c>
+      <c r="G2373" s="0">
+        <v>53</v>
+      </c>
+      <c r="H2373" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2374">
+      <c r="A2374" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2374" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2374" s="0">
+        <v>43932</v>
+      </c>
+      <c r="D2374" s="0">
+        <v>0.148056281068329</v>
+      </c>
+      <c r="E2374" s="0">
+        <v>506</v>
+      </c>
+      <c r="F2374" s="0">
+        <v>0.151315789473684</v>
+      </c>
+      <c r="G2374" s="0">
+        <v>135</v>
+      </c>
+      <c r="H2374" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2375">
+      <c r="A2375" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2375" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2375" s="0">
+        <v>39705</v>
+      </c>
+      <c r="D2375" s="0">
+        <v>0.133810767545707</v>
+      </c>
+      <c r="E2375" s="0">
+        <v>462</v>
+      </c>
+      <c r="F2375" s="0">
+        <v>0.138157894736842</v>
+      </c>
+      <c r="G2375" s="0">
+        <v>359</v>
+      </c>
+      <c r="H2375" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2376">
+      <c r="A2376" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2376" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2376" s="0">
+        <v>27638</v>
+      </c>
+      <c r="D2376" s="0">
+        <v>9.31434830230011E-02</v>
+      </c>
+      <c r="E2376" s="0">
+        <v>351</v>
+      </c>
+      <c r="F2376" s="0">
+        <v>0.104964114832536</v>
+      </c>
+      <c r="G2376" s="0">
+        <v>733</v>
+      </c>
+      <c r="H2376" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2377">
+      <c r="A2377" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2377" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2377" s="0">
+        <v>16500</v>
+      </c>
+      <c r="D2377" s="0">
+        <v>5.56070435588508E-02</v>
+      </c>
+      <c r="E2377" s="0">
+        <v>184</v>
+      </c>
+      <c r="F2377" s="0">
+        <v>5.50239234449761E-02</v>
+      </c>
+      <c r="G2377" s="0">
+        <v>1147</v>
+      </c>
+      <c r="H2377" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2378">
+      <c r="A2378" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2378" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2378" s="0">
+        <v>8938</v>
+      </c>
+      <c r="D2378" s="0">
+        <v>3.01221669896369E-02</v>
+      </c>
+      <c r="E2378" s="0">
+        <v>137</v>
+      </c>
+      <c r="F2378" s="0">
+        <v>4.09688995215311E-02</v>
+      </c>
+      <c r="G2378" s="0">
+        <v>1332</v>
+      </c>
+      <c r="H2378" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2379">
+      <c r="A2379" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2379" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2379" s="0">
+        <v>398</v>
+      </c>
+      <c r="D2379" s="0">
+        <v>1.34130929311652E-03</v>
+      </c>
+      <c r="E2379" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2379" s="0">
+        <v>2.99043062200957E-04</v>
+      </c>
+      <c r="G2379" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2379" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -65852,11 +66132,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1412</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1423</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1412</Url>
-      <Description>HJYU5V3E37X6-122305290-1412</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1423</Url>
+      <Description>HJYU5V3E37X6-122305290-1423</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -65879,17 +66159,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B55923B-A223-4821-A66F-C59550AF11A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF05DA01-DB57-42F4-AE1D-10036A227125}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA750342-B5C9-4483-B762-5C9CB026681C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C01A4597-EBBC-412C-94C1-7E5246CA1A3E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F292BF-7D9F-4861-A669-358AF45E0FFD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63074E5C-B879-4AE2-AE2F-A337D74C5DDE}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8F4137-A855-40E3-BFA0-A4D2DED696BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88C081E5-6C59-47A5-990C-EA650A7802E7}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2309</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2379</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2309"/>
+  <dimension ref="A1:H2379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -63741,6 +63741,1966 @@
       </c>
       <c r="H2309" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2310">
+      <c r="A2310" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2310" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2310" s="0">
+        <v>13341</v>
+      </c>
+      <c r="D2310" s="0">
+        <v>4.88423688603813E-02</v>
+      </c>
+      <c r="E2310" s="0">
+        <v>76</v>
+      </c>
+      <c r="F2310" s="0">
+        <v>5.53532410779315E-02</v>
+      </c>
+      <c r="G2310" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2310" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2311">
+      <c r="A2311" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2311" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2311" s="0">
+        <v>36125</v>
+      </c>
+      <c r="D2311" s="0">
+        <v>0.132256245789767</v>
+      </c>
+      <c r="E2311" s="0">
+        <v>179</v>
+      </c>
+      <c r="F2311" s="0">
+        <v>0.130371449380918</v>
+      </c>
+      <c r="G2311" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2311" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2312">
+      <c r="A2312" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2312" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2312" s="0">
+        <v>54170</v>
+      </c>
+      <c r="D2312" s="0">
+        <v>0.198320299915063</v>
+      </c>
+      <c r="E2312" s="0">
+        <v>251</v>
+      </c>
+      <c r="F2312" s="0">
+        <v>0.182811361981063</v>
+      </c>
+      <c r="G2312" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2312" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2313">
+      <c r="A2313" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2313" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2313" s="0">
+        <v>43704</v>
+      </c>
+      <c r="D2313" s="0">
+        <v>0.160003514629646</v>
+      </c>
+      <c r="E2313" s="0">
+        <v>217</v>
+      </c>
+      <c r="F2313" s="0">
+        <v>0.158048069919883</v>
+      </c>
+      <c r="G2313" s="0">
+        <v>49</v>
+      </c>
+      <c r="H2313" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2314">
+      <c r="A2314" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2314" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2314" s="0">
+        <v>40473</v>
+      </c>
+      <c r="D2314" s="0">
+        <v>0.14817458922766</v>
+      </c>
+      <c r="E2314" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2314" s="0">
+        <v>0.148579752367079</v>
+      </c>
+      <c r="G2314" s="0">
+        <v>128</v>
+      </c>
+      <c r="H2314" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2315">
+      <c r="A2315" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2315" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2315" s="0">
+        <v>36412</v>
+      </c>
+      <c r="D2315" s="0">
+        <v>0.133306973610989</v>
+      </c>
+      <c r="E2315" s="0">
+        <v>178</v>
+      </c>
+      <c r="F2315" s="0">
+        <v>0.129643117261471</v>
+      </c>
+      <c r="G2315" s="0">
+        <v>346</v>
+      </c>
+      <c r="H2315" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2316">
+      <c r="A2316" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2316" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2316" s="0">
+        <v>25285</v>
+      </c>
+      <c r="D2316" s="0">
+        <v>9.25702193714671E-02</v>
+      </c>
+      <c r="E2316" s="0">
+        <v>128</v>
+      </c>
+      <c r="F2316" s="0">
+        <v>9.32265112891479E-02</v>
+      </c>
+      <c r="G2316" s="0">
+        <v>684</v>
+      </c>
+      <c r="H2316" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2317">
+      <c r="A2317" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2317" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2317" s="0">
+        <v>15141</v>
+      </c>
+      <c r="D2317" s="0">
+        <v>5.54322994464458E-02</v>
+      </c>
+      <c r="E2317" s="0">
+        <v>84</v>
+      </c>
+      <c r="F2317" s="0">
+        <v>6.11798980335033E-02</v>
+      </c>
+      <c r="G2317" s="0">
+        <v>1083</v>
+      </c>
+      <c r="H2317" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2318">
+      <c r="A2318" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2318" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2318" s="0">
+        <v>8132</v>
+      </c>
+      <c r="D2318" s="0">
+        <v>2.97718419588203E-02</v>
+      </c>
+      <c r="E2318" s="0">
+        <v>61</v>
+      </c>
+      <c r="F2318" s="0">
+        <v>4.44282592862345E-02</v>
+      </c>
+      <c r="G2318" s="0">
+        <v>1223</v>
+      </c>
+      <c r="H2318" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2319">
+      <c r="A2319" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B2319" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2319" s="0">
+        <v>361</v>
+      </c>
+      <c r="D2319" s="0">
+        <v>1.32164718976071E-03</v>
+      </c>
+      <c r="E2319" s="0">
+        <v>-5</v>
+      </c>
+      <c r="F2319" s="0">
+        <v>-3.64166059723234E-03</v>
+      </c>
+      <c r="G2319" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2319" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2320">
+      <c r="A2320" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2320" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2320" s="0">
+        <v>13605</v>
+      </c>
+      <c r="D2320" s="0">
+        <v>4.89010297791276E-02</v>
+      </c>
+      <c r="E2320" s="0">
+        <v>264</v>
+      </c>
+      <c r="F2320" s="0">
+        <v>0.052060737527115</v>
+      </c>
+      <c r="G2320" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2320" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2321">
+      <c r="A2321" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2321" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2321" s="0">
+        <v>36806</v>
+      </c>
+      <c r="D2321" s="0">
+        <v>0.13229337023525</v>
+      </c>
+      <c r="E2321" s="0">
+        <v>681</v>
+      </c>
+      <c r="F2321" s="0">
+        <v>0.134293038848353</v>
+      </c>
+      <c r="G2321" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2321" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2322">
+      <c r="A2322" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2322" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2322" s="0">
+        <v>55043</v>
+      </c>
+      <c r="D2322" s="0">
+        <v>0.197843394497062</v>
+      </c>
+      <c r="E2322" s="0">
+        <v>873</v>
+      </c>
+      <c r="F2322" s="0">
+        <v>0.172155393413528</v>
+      </c>
+      <c r="G2322" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2322" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2323">
+      <c r="A2323" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2323" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2323" s="0">
+        <v>44493</v>
+      </c>
+      <c r="D2323" s="0">
+        <v>0.159923081070395</v>
+      </c>
+      <c r="E2323" s="0">
+        <v>789</v>
+      </c>
+      <c r="F2323" s="0">
+        <v>0.155590613291264</v>
+      </c>
+      <c r="G2323" s="0">
+        <v>50</v>
+      </c>
+      <c r="H2323" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2324">
+      <c r="A2324" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2324" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2324" s="0">
+        <v>41251</v>
+      </c>
+      <c r="D2324" s="0">
+        <v>0.148270222669518</v>
+      </c>
+      <c r="E2324" s="0">
+        <v>778</v>
+      </c>
+      <c r="F2324" s="0">
+        <v>0.153421415894301</v>
+      </c>
+      <c r="G2324" s="0">
+        <v>130</v>
+      </c>
+      <c r="H2324" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2325">
+      <c r="A2325" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2325" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2325" s="0">
+        <v>37131</v>
+      </c>
+      <c r="D2325" s="0">
+        <v>0.133461531549341</v>
+      </c>
+      <c r="E2325" s="0">
+        <v>719</v>
+      </c>
+      <c r="F2325" s="0">
+        <v>0.141786629856044</v>
+      </c>
+      <c r="G2325" s="0">
+        <v>348</v>
+      </c>
+      <c r="H2325" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2326">
+      <c r="A2326" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2326" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2326" s="0">
+        <v>25790</v>
+      </c>
+      <c r="D2326" s="0">
+        <v>9.26980932013012E-02</v>
+      </c>
+      <c r="E2326" s="0">
+        <v>505</v>
+      </c>
+      <c r="F2326" s="0">
+        <v>9.95858804969434E-02</v>
+      </c>
+      <c r="G2326" s="0">
+        <v>692</v>
+      </c>
+      <c r="H2326" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2327">
+      <c r="A2327" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2327" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2327" s="0">
+        <v>15441</v>
+      </c>
+      <c r="D2327" s="0">
+        <v>5.55002426181191E-02</v>
+      </c>
+      <c r="E2327" s="0">
+        <v>300</v>
+      </c>
+      <c r="F2327" s="0">
+        <v>5.91599290080852E-02</v>
+      </c>
+      <c r="G2327" s="0">
+        <v>1097</v>
+      </c>
+      <c r="H2327" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2328">
+      <c r="A2328" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2328" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2328" s="0">
+        <v>8290</v>
+      </c>
+      <c r="D2328" s="0">
+        <v>2.97970993655985E-02</v>
+      </c>
+      <c r="E2328" s="0">
+        <v>158</v>
+      </c>
+      <c r="F2328" s="0">
+        <v>3.11575626109249E-02</v>
+      </c>
+      <c r="G2328" s="0">
+        <v>1245</v>
+      </c>
+      <c r="H2328" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2329">
+      <c r="A2329" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B2329" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2329" s="0">
+        <v>365</v>
+      </c>
+      <c r="D2329" s="0">
+        <v>1.31193501428751E-03</v>
+      </c>
+      <c r="E2329" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2329" s="0">
+        <v>7.88799053441136E-04</v>
+      </c>
+      <c r="G2329" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2329" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2330">
+      <c r="A2330" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2330" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2330" s="0">
+        <v>13770</v>
+      </c>
+      <c r="D2330" s="0">
+        <v>4.88556010090438E-02</v>
+      </c>
+      <c r="E2330" s="0">
+        <v>165</v>
+      </c>
+      <c r="F2330" s="0">
+        <v>4.53795379537954E-02</v>
+      </c>
+      <c r="G2330" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2330" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2331">
+      <c r="A2331" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2331" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2331" s="0">
+        <v>37304</v>
+      </c>
+      <c r="D2331" s="0">
+        <v>0.132353619465604</v>
+      </c>
+      <c r="E2331" s="0">
+        <v>498</v>
+      </c>
+      <c r="F2331" s="0">
+        <v>0.136963696369637</v>
+      </c>
+      <c r="G2331" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2331" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2332">
+      <c r="A2332" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2332" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2332" s="0">
+        <v>55715</v>
+      </c>
+      <c r="D2332" s="0">
+        <v>0.1976753674814</v>
+      </c>
+      <c r="E2332" s="0">
+        <v>672</v>
+      </c>
+      <c r="F2332" s="0">
+        <v>0.184818481848185</v>
+      </c>
+      <c r="G2332" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2332" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2333">
+      <c r="A2333" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2333" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2333" s="0">
+        <v>45035</v>
+      </c>
+      <c r="D2333" s="0">
+        <v>0.159783005914473</v>
+      </c>
+      <c r="E2333" s="0">
+        <v>542</v>
+      </c>
+      <c r="F2333" s="0">
+        <v>0.149064906490649</v>
+      </c>
+      <c r="G2333" s="0">
+        <v>51</v>
+      </c>
+      <c r="H2333" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2334">
+      <c r="A2334" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2334" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2334" s="0">
+        <v>41771</v>
+      </c>
+      <c r="D2334" s="0">
+        <v>0.148202419008625</v>
+      </c>
+      <c r="E2334" s="0">
+        <v>520</v>
+      </c>
+      <c r="F2334" s="0">
+        <v>0.143014301430143</v>
+      </c>
+      <c r="G2334" s="0">
+        <v>130</v>
+      </c>
+      <c r="H2334" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2335">
+      <c r="A2335" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2335" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2335" s="0">
+        <v>37640</v>
+      </c>
+      <c r="D2335" s="0">
+        <v>0.133545738705912</v>
+      </c>
+      <c r="E2335" s="0">
+        <v>509</v>
+      </c>
+      <c r="F2335" s="0">
+        <v>0.13998899889989</v>
+      </c>
+      <c r="G2335" s="0">
+        <v>349</v>
+      </c>
+      <c r="H2335" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2336">
+      <c r="A2336" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2336" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2336" s="0">
+        <v>26169</v>
+      </c>
+      <c r="D2336" s="0">
+        <v>9.28469297607601E-02</v>
+      </c>
+      <c r="E2336" s="0">
+        <v>379</v>
+      </c>
+      <c r="F2336" s="0">
+        <v>0.104235423542354</v>
+      </c>
+      <c r="G2336" s="0">
+        <v>693</v>
+      </c>
+      <c r="H2336" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2337">
+      <c r="A2337" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2337" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2337" s="0">
+        <v>15658</v>
+      </c>
+      <c r="D2337" s="0">
+        <v>5.55541757879163E-02</v>
+      </c>
+      <c r="E2337" s="0">
+        <v>217</v>
+      </c>
+      <c r="F2337" s="0">
+        <v>5.96809680968097E-02</v>
+      </c>
+      <c r="G2337" s="0">
+        <v>1098</v>
+      </c>
+      <c r="H2337" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2338">
+      <c r="A2338" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2338" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2338" s="0">
+        <v>8417</v>
+      </c>
+      <c r="D2338" s="0">
+        <v>2.98632965644968E-02</v>
+      </c>
+      <c r="E2338" s="0">
+        <v>127</v>
+      </c>
+      <c r="F2338" s="0">
+        <v>3.49284928492849E-02</v>
+      </c>
+      <c r="G2338" s="0">
+        <v>1246</v>
+      </c>
+      <c r="H2338" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2339">
+      <c r="A2339" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B2339" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2339" s="0">
+        <v>372</v>
+      </c>
+      <c r="D2339" s="0">
+        <v>1.31984630176937E-03</v>
+      </c>
+      <c r="E2339" s="0">
+        <v>7</v>
+      </c>
+      <c r="F2339" s="0">
+        <v>1.92519251925193E-03</v>
+      </c>
+      <c r="G2339" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2339" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2340">
+      <c r="A2340" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2340" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2340" s="0">
+        <v>14122</v>
+      </c>
+      <c r="D2340" s="0">
+        <v>4.90739131945651E-02</v>
+      </c>
+      <c r="E2340" s="0">
+        <v>352</v>
+      </c>
+      <c r="F2340" s="0">
+        <v>0.05946950498395</v>
+      </c>
+      <c r="G2340" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2340" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2341">
+      <c r="A2341" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2341" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2341" s="0">
+        <v>38188</v>
+      </c>
+      <c r="D2341" s="0">
+        <v>0.1327032004726</v>
+      </c>
+      <c r="E2341" s="0">
+        <v>884</v>
+      </c>
+      <c r="F2341" s="0">
+        <v>0.149349552289238</v>
+      </c>
+      <c r="G2341" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2341" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2342">
+      <c r="A2342" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2342" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2342" s="0">
+        <v>56775</v>
+      </c>
+      <c r="D2342" s="0">
+        <v>0.197292977030267</v>
+      </c>
+      <c r="E2342" s="0">
+        <v>1060</v>
+      </c>
+      <c r="F2342" s="0">
+        <v>0.179084304781213</v>
+      </c>
+      <c r="G2342" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2342" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2343">
+      <c r="A2343" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2343" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2343" s="0">
+        <v>45933</v>
+      </c>
+      <c r="D2343" s="0">
+        <v>0.159617055287209</v>
+      </c>
+      <c r="E2343" s="0">
+        <v>898</v>
+      </c>
+      <c r="F2343" s="0">
+        <v>0.151714816692009</v>
+      </c>
+      <c r="G2343" s="0">
+        <v>51</v>
+      </c>
+      <c r="H2343" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2344">
+      <c r="A2344" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2344" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2344" s="0">
+        <v>42617</v>
+      </c>
+      <c r="D2344" s="0">
+        <v>0.148093963929527</v>
+      </c>
+      <c r="E2344" s="0">
+        <v>846</v>
+      </c>
+      <c r="F2344" s="0">
+        <v>0.142929548910289</v>
+      </c>
+      <c r="G2344" s="0">
+        <v>130</v>
+      </c>
+      <c r="H2344" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2345">
+      <c r="A2345" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2345" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2345" s="0">
+        <v>38428</v>
+      </c>
+      <c r="D2345" s="0">
+        <v>0.1335371998471</v>
+      </c>
+      <c r="E2345" s="0">
+        <v>788</v>
+      </c>
+      <c r="F2345" s="0">
+        <v>0.133130596384524</v>
+      </c>
+      <c r="G2345" s="0">
+        <v>350</v>
+      </c>
+      <c r="H2345" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2346">
+      <c r="A2346" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2346" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2346" s="0">
+        <v>26721</v>
+      </c>
+      <c r="D2346" s="0">
+        <v>0.092855405358446</v>
+      </c>
+      <c r="E2346" s="0">
+        <v>552</v>
+      </c>
+      <c r="F2346" s="0">
+        <v>9.32589964521034E-02</v>
+      </c>
+      <c r="G2346" s="0">
+        <v>696</v>
+      </c>
+      <c r="H2346" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2347">
+      <c r="A2347" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2347" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2347" s="0">
+        <v>16003</v>
+      </c>
+      <c r="D2347" s="0">
+        <v>5.56103832922125E-02</v>
+      </c>
+      <c r="E2347" s="0">
+        <v>345</v>
+      </c>
+      <c r="F2347" s="0">
+        <v>5.82868727825646E-02</v>
+      </c>
+      <c r="G2347" s="0">
+        <v>1102</v>
+      </c>
+      <c r="H2347" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2348">
+      <c r="A2348" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2348" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2348" s="0">
+        <v>8590</v>
+      </c>
+      <c r="D2348" s="0">
+        <v>2.98502276123293E-02</v>
+      </c>
+      <c r="E2348" s="0">
+        <v>173</v>
+      </c>
+      <c r="F2348" s="0">
+        <v>2.92279101199527E-02</v>
+      </c>
+      <c r="G2348" s="0">
+        <v>1253</v>
+      </c>
+      <c r="H2348" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2349">
+      <c r="A2349" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B2349" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2349" s="0">
+        <v>393</v>
+      </c>
+      <c r="D2349" s="0">
+        <v>1.36567397574452E-03</v>
+      </c>
+      <c r="E2349" s="0">
+        <v>21</v>
+      </c>
+      <c r="F2349" s="0">
+        <v>3.54789660415611E-03</v>
+      </c>
+      <c r="G2349" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2349" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2350">
+      <c r="A2350" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2350" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2350" s="0">
+        <v>14200</v>
+      </c>
+      <c r="D2350" s="0">
+        <v>4.90079344536133E-02</v>
+      </c>
+      <c r="E2350" s="0">
+        <v>78</v>
+      </c>
+      <c r="F2350" s="0">
+        <v>3.94138453764528E-02</v>
+      </c>
+      <c r="G2350" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2350" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2351">
+      <c r="A2351" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2351" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2351" s="0">
+        <v>38425</v>
+      </c>
+      <c r="D2351" s="0">
+        <v>0.13261478037888</v>
+      </c>
+      <c r="E2351" s="0">
+        <v>237</v>
+      </c>
+      <c r="F2351" s="0">
+        <v>0.119757453259222</v>
+      </c>
+      <c r="G2351" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2351" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2352">
+      <c r="A2352" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2352" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2352" s="0">
+        <v>57137</v>
+      </c>
+      <c r="D2352" s="0">
+        <v>0.197194813441979</v>
+      </c>
+      <c r="E2352" s="0">
+        <v>362</v>
+      </c>
+      <c r="F2352" s="0">
+        <v>0.182920667003537</v>
+      </c>
+      <c r="G2352" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2352" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2353">
+      <c r="A2353" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2353" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2353" s="0">
+        <v>46258</v>
+      </c>
+      <c r="D2353" s="0">
+        <v>0.15964852337713</v>
+      </c>
+      <c r="E2353" s="0">
+        <v>325</v>
+      </c>
+      <c r="F2353" s="0">
+        <v>0.16422435573522</v>
+      </c>
+      <c r="G2353" s="0">
+        <v>52</v>
+      </c>
+      <c r="H2353" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2354">
+      <c r="A2354" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2354" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2354" s="0">
+        <v>42913</v>
+      </c>
+      <c r="D2354" s="0">
+        <v>0.148104048676613</v>
+      </c>
+      <c r="E2354" s="0">
+        <v>296</v>
+      </c>
+      <c r="F2354" s="0">
+        <v>0.149570490146539</v>
+      </c>
+      <c r="G2354" s="0">
+        <v>132</v>
+      </c>
+      <c r="H2354" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2355">
+      <c r="A2355" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2355" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2355" s="0">
+        <v>38716</v>
+      </c>
+      <c r="D2355" s="0">
+        <v>0.13361909790888</v>
+      </c>
+      <c r="E2355" s="0">
+        <v>288</v>
+      </c>
+      <c r="F2355" s="0">
+        <v>0.145528044466902</v>
+      </c>
+      <c r="G2355" s="0">
+        <v>354</v>
+      </c>
+      <c r="H2355" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2356">
+      <c r="A2356" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2356" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2356" s="0">
+        <v>26928</v>
+      </c>
+      <c r="D2356" s="0">
+        <v>9.29356097864013E-02</v>
+      </c>
+      <c r="E2356" s="0">
+        <v>207</v>
+      </c>
+      <c r="F2356" s="0">
+        <v>0.104598281960586</v>
+      </c>
+      <c r="G2356" s="0">
+        <v>708</v>
+      </c>
+      <c r="H2356" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2357">
+      <c r="A2357" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2357" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2357" s="0">
+        <v>16098</v>
+      </c>
+      <c r="D2357" s="0">
+        <v>0.055558431608047</v>
+      </c>
+      <c r="E2357" s="0">
+        <v>95</v>
+      </c>
+      <c r="F2357" s="0">
+        <v>4.80040424456796E-02</v>
+      </c>
+      <c r="G2357" s="0">
+        <v>1117</v>
+      </c>
+      <c r="H2357" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2358">
+      <c r="A2358" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2358" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2358" s="0">
+        <v>8682</v>
+      </c>
+      <c r="D2358" s="0">
+        <v>2.99638652764979E-02</v>
+      </c>
+      <c r="E2358" s="0">
+        <v>92</v>
+      </c>
+      <c r="F2358" s="0">
+        <v>4.64881253158161E-02</v>
+      </c>
+      <c r="G2358" s="0">
+        <v>1281</v>
+      </c>
+      <c r="H2358" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2359">
+      <c r="A2359" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2359" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2359" s="0">
+        <v>392</v>
+      </c>
+      <c r="D2359" s="0">
+        <v>1.3528950919589E-03</v>
+      </c>
+      <c r="E2359" s="0">
+        <v>-1</v>
+      </c>
+      <c r="F2359" s="0">
+        <v>-5.05305709954523E-04</v>
+      </c>
+      <c r="G2359" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2359" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2360">
+      <c r="A2360" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2360" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2360" s="0">
+        <v>14363</v>
+      </c>
+      <c r="D2360" s="0">
+        <v>4.89568172444705E-02</v>
+      </c>
+      <c r="E2360" s="0">
+        <v>163</v>
+      </c>
+      <c r="F2360" s="0">
+        <v>4.48788546255507E-02</v>
+      </c>
+      <c r="G2360" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2360" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2361">
+      <c r="A2361" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2361" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2361" s="0">
+        <v>38925</v>
+      </c>
+      <c r="D2361" s="0">
+        <v>0.132677303574533</v>
+      </c>
+      <c r="E2361" s="0">
+        <v>500</v>
+      </c>
+      <c r="F2361" s="0">
+        <v>0.137665198237885</v>
+      </c>
+      <c r="G2361" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2361" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2362">
+      <c r="A2362" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2362" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2362" s="0">
+        <v>57829</v>
+      </c>
+      <c r="D2362" s="0">
+        <v>0.19711228743511</v>
+      </c>
+      <c r="E2362" s="0">
+        <v>692</v>
+      </c>
+      <c r="F2362" s="0">
+        <v>0.190528634361233</v>
+      </c>
+      <c r="G2362" s="0">
+        <v>23</v>
+      </c>
+      <c r="H2362" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2363">
+      <c r="A2363" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2363" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2363" s="0">
+        <v>46794</v>
+      </c>
+      <c r="D2363" s="0">
+        <v>0.159499081399273</v>
+      </c>
+      <c r="E2363" s="0">
+        <v>536</v>
+      </c>
+      <c r="F2363" s="0">
+        <v>0.147577092511013</v>
+      </c>
+      <c r="G2363" s="0">
+        <v>52</v>
+      </c>
+      <c r="H2363" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2364">
+      <c r="A2364" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2364" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2364" s="0">
+        <v>43426</v>
+      </c>
+      <c r="D2364" s="0">
+        <v>0.148019128709766</v>
+      </c>
+      <c r="E2364" s="0">
+        <v>513</v>
+      </c>
+      <c r="F2364" s="0">
+        <v>0.14124449339207</v>
+      </c>
+      <c r="G2364" s="0">
+        <v>133</v>
+      </c>
+      <c r="H2364" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2365">
+      <c r="A2365" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2365" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2365" s="0">
+        <v>39243</v>
+      </c>
+      <c r="D2365" s="0">
+        <v>0.133761218347473</v>
+      </c>
+      <c r="E2365" s="0">
+        <v>527</v>
+      </c>
+      <c r="F2365" s="0">
+        <v>0.145099118942731</v>
+      </c>
+      <c r="G2365" s="0">
+        <v>358</v>
+      </c>
+      <c r="H2365" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2366">
+      <c r="A2366" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2366" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2366" s="0">
+        <v>27287</v>
+      </c>
+      <c r="D2366" s="0">
+        <v>0.093008749714535</v>
+      </c>
+      <c r="E2366" s="0">
+        <v>359</v>
+      </c>
+      <c r="F2366" s="0">
+        <v>9.88436123348018E-02</v>
+      </c>
+      <c r="G2366" s="0">
+        <v>729</v>
+      </c>
+      <c r="H2366" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2367">
+      <c r="A2367" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2367" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2367" s="0">
+        <v>16316</v>
+      </c>
+      <c r="D2367" s="0">
+        <v>5.56136900480945E-02</v>
+      </c>
+      <c r="E2367" s="0">
+        <v>218</v>
+      </c>
+      <c r="F2367" s="0">
+        <v>6.00220264317181E-02</v>
+      </c>
+      <c r="G2367" s="0">
+        <v>1141</v>
+      </c>
+      <c r="H2367" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2368">
+      <c r="A2368" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2368" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2368" s="0">
+        <v>8801</v>
+      </c>
+      <c r="D2368" s="0">
+        <v>2.99985343290806E-02</v>
+      </c>
+      <c r="E2368" s="0">
+        <v>119</v>
+      </c>
+      <c r="F2368" s="0">
+        <v>3.27643171806167E-02</v>
+      </c>
+      <c r="G2368" s="0">
+        <v>1320</v>
+      </c>
+      <c r="H2368" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2369">
+      <c r="A2369" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B2369" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2369" s="0">
+        <v>397</v>
+      </c>
+      <c r="D2369" s="0">
+        <v>1.35318919766447E-03</v>
+      </c>
+      <c r="E2369" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2369" s="0">
+        <v>1.37665198237885E-03</v>
+      </c>
+      <c r="G2369" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2369" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2370">
+      <c r="A2370" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2370" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2370" s="0">
+        <v>14541</v>
+      </c>
+      <c r="D2370" s="0">
+        <v>4.90049709326818E-02</v>
+      </c>
+      <c r="E2370" s="0">
+        <v>178</v>
+      </c>
+      <c r="F2370" s="0">
+        <v>5.32296650717703E-02</v>
+      </c>
+      <c r="G2370" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2370" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2371">
+      <c r="A2371" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2371" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2371" s="0">
+        <v>39350</v>
+      </c>
+      <c r="D2371" s="0">
+        <v>0.132614373578229</v>
+      </c>
+      <c r="E2371" s="0">
+        <v>425</v>
+      </c>
+      <c r="F2371" s="0">
+        <v>0.127093301435407</v>
+      </c>
+      <c r="G2371" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2371" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2372">
+      <c r="A2372" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2372" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2372" s="0">
+        <v>58386</v>
+      </c>
+      <c r="D2372" s="0">
+        <v>0.196768051225883</v>
+      </c>
+      <c r="E2372" s="0">
+        <v>557</v>
+      </c>
+      <c r="F2372" s="0">
+        <v>0.166566985645933</v>
+      </c>
+      <c r="G2372" s="0">
+        <v>23</v>
+      </c>
+      <c r="H2372" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2373">
+      <c r="A2373" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2373" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2373" s="0">
+        <v>47337</v>
+      </c>
+      <c r="D2373" s="0">
+        <v>0.159531552784565</v>
+      </c>
+      <c r="E2373" s="0">
+        <v>543</v>
+      </c>
+      <c r="F2373" s="0">
+        <v>0.16238038277512</v>
+      </c>
+      <c r="G2373" s="0">
+        <v>53</v>
+      </c>
+      <c r="H2373" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2374">
+      <c r="A2374" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2374" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2374" s="0">
+        <v>43932</v>
+      </c>
+      <c r="D2374" s="0">
+        <v>0.148056281068329</v>
+      </c>
+      <c r="E2374" s="0">
+        <v>506</v>
+      </c>
+      <c r="F2374" s="0">
+        <v>0.151315789473684</v>
+      </c>
+      <c r="G2374" s="0">
+        <v>135</v>
+      </c>
+      <c r="H2374" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2375">
+      <c r="A2375" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2375" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2375" s="0">
+        <v>39705</v>
+      </c>
+      <c r="D2375" s="0">
+        <v>0.133810767545707</v>
+      </c>
+      <c r="E2375" s="0">
+        <v>462</v>
+      </c>
+      <c r="F2375" s="0">
+        <v>0.138157894736842</v>
+      </c>
+      <c r="G2375" s="0">
+        <v>359</v>
+      </c>
+      <c r="H2375" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2376">
+      <c r="A2376" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2376" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2376" s="0">
+        <v>27638</v>
+      </c>
+      <c r="D2376" s="0">
+        <v>9.31434830230011E-02</v>
+      </c>
+      <c r="E2376" s="0">
+        <v>351</v>
+      </c>
+      <c r="F2376" s="0">
+        <v>0.104964114832536</v>
+      </c>
+      <c r="G2376" s="0">
+        <v>733</v>
+      </c>
+      <c r="H2376" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2377">
+      <c r="A2377" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2377" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2377" s="0">
+        <v>16500</v>
+      </c>
+      <c r="D2377" s="0">
+        <v>5.56070435588508E-02</v>
+      </c>
+      <c r="E2377" s="0">
+        <v>184</v>
+      </c>
+      <c r="F2377" s="0">
+        <v>5.50239234449761E-02</v>
+      </c>
+      <c r="G2377" s="0">
+        <v>1147</v>
+      </c>
+      <c r="H2377" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2378">
+      <c r="A2378" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2378" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2378" s="0">
+        <v>8938</v>
+      </c>
+      <c r="D2378" s="0">
+        <v>3.01221669896369E-02</v>
+      </c>
+      <c r="E2378" s="0">
+        <v>137</v>
+      </c>
+      <c r="F2378" s="0">
+        <v>4.09688995215311E-02</v>
+      </c>
+      <c r="G2378" s="0">
+        <v>1332</v>
+      </c>
+      <c r="H2378" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2379">
+      <c r="A2379" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B2379" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2379" s="0">
+        <v>398</v>
+      </c>
+      <c r="D2379" s="0">
+        <v>1.34130929311652E-03</v>
+      </c>
+      <c r="E2379" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2379" s="0">
+        <v>2.99043062200957E-04</v>
+      </c>
+      <c r="G2379" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2379" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -64172,11 +66132,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1295</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1423</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1295</Url>
-      <Description>HJYU5V3E37X6-122305290-1295</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1423</Url>
+      <Description>HJYU5V3E37X6-122305290-1423</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -64199,17 +66159,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8CC401A-B7C6-46E3-BA8D-AE9B9F9D90D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF05DA01-DB57-42F4-AE1D-10036A227125}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32755B54-2489-4E74-B58B-F717CE6479DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C01A4597-EBBC-412C-94C1-7E5246CA1A3E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE36221C-A317-4BEC-B0AD-1721A835E070}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63074E5C-B879-4AE2-AE2F-A337D74C5DDE}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C63240-A0F9-4DD8-981A-15082435354B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88C081E5-6C59-47A5-990C-EA650A7802E7}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2379</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2389</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2379"/>
+  <dimension ref="A1:H2389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -65701,6 +65701,286 @@
       </c>
       <c r="H2379" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2380">
+      <c r="A2380" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2380" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2380" s="0">
+        <v>14710</v>
+      </c>
+      <c r="D2380" s="0">
+        <v>4.89585898861072E-02</v>
+      </c>
+      <c r="E2380" s="0">
+        <v>169</v>
+      </c>
+      <c r="F2380" s="0">
+        <v>4.52718992767211E-02</v>
+      </c>
+      <c r="G2380" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2380" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2381">
+      <c r="A2381" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2381" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2381" s="0">
+        <v>39882</v>
+      </c>
+      <c r="D2381" s="0">
+        <v>0.13273735430576</v>
+      </c>
+      <c r="E2381" s="0">
+        <v>532</v>
+      </c>
+      <c r="F2381" s="0">
+        <v>0.142512724350388</v>
+      </c>
+      <c r="G2381" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2381" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2382">
+      <c r="A2382" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2382" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2382" s="0">
+        <v>59020</v>
+      </c>
+      <c r="D2382" s="0">
+        <v>0.196433444940724</v>
+      </c>
+      <c r="E2382" s="0">
+        <v>634</v>
+      </c>
+      <c r="F2382" s="0">
+        <v>0.169836592552907</v>
+      </c>
+      <c r="G2382" s="0">
+        <v>24</v>
+      </c>
+      <c r="H2382" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2383">
+      <c r="A2383" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2383" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2383" s="0">
+        <v>47895</v>
+      </c>
+      <c r="D2383" s="0">
+        <v>0.159406639197492</v>
+      </c>
+      <c r="E2383" s="0">
+        <v>558</v>
+      </c>
+      <c r="F2383" s="0">
+        <v>0.149477631931422</v>
+      </c>
+      <c r="G2383" s="0">
+        <v>54</v>
+      </c>
+      <c r="H2383" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2384">
+      <c r="A2384" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2384" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2384" s="0">
+        <v>44508</v>
+      </c>
+      <c r="D2384" s="0">
+        <v>0.148133848990541</v>
+      </c>
+      <c r="E2384" s="0">
+        <v>576</v>
+      </c>
+      <c r="F2384" s="0">
+        <v>0.154299491025984</v>
+      </c>
+      <c r="G2384" s="0">
+        <v>137</v>
+      </c>
+      <c r="H2384" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2385">
+      <c r="A2385" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2385" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2385" s="0">
+        <v>40254</v>
+      </c>
+      <c r="D2385" s="0">
+        <v>0.13397546412477</v>
+      </c>
+      <c r="E2385" s="0">
+        <v>549</v>
+      </c>
+      <c r="F2385" s="0">
+        <v>0.147066702384141</v>
+      </c>
+      <c r="G2385" s="0">
+        <v>362</v>
+      </c>
+      <c r="H2385" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2386">
+      <c r="A2386" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2386" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2386" s="0">
+        <v>28019</v>
+      </c>
+      <c r="D2386" s="0">
+        <v>9.32542984377184E-02</v>
+      </c>
+      <c r="E2386" s="0">
+        <v>381</v>
+      </c>
+      <c r="F2386" s="0">
+        <v>0.102062684168229</v>
+      </c>
+      <c r="G2386" s="0">
+        <v>745</v>
+      </c>
+      <c r="H2386" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2387">
+      <c r="A2387" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2387" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2387" s="0">
+        <v>16723</v>
+      </c>
+      <c r="D2387" s="0">
+        <v>5.56583615680062E-02</v>
+      </c>
+      <c r="E2387" s="0">
+        <v>223</v>
+      </c>
+      <c r="F2387" s="0">
+        <v>5.97374765604072E-02</v>
+      </c>
+      <c r="G2387" s="0">
+        <v>1162</v>
+      </c>
+      <c r="H2387" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2388">
+      <c r="A2388" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2388" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2388" s="0">
+        <v>9046</v>
+      </c>
+      <c r="D2388" s="0">
+        <v>3.01073694160249E-02</v>
+      </c>
+      <c r="E2388" s="0">
+        <v>108</v>
+      </c>
+      <c r="F2388" s="0">
+        <v>2.89311545673721E-02</v>
+      </c>
+      <c r="G2388" s="0">
+        <v>1362</v>
+      </c>
+      <c r="H2388" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2389">
+      <c r="A2389" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2389" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2389" s="0">
+        <v>401</v>
+      </c>
+      <c r="D2389" s="0">
+        <v>1.33462913285717E-03</v>
+      </c>
+      <c r="E2389" s="0">
+        <v>3</v>
+      </c>
+      <c r="F2389" s="0">
+        <v>8.03643182427002E-04</v>
+      </c>
+      <c r="G2389" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2389" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -66132,11 +66412,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1423</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1434</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1423</Url>
-      <Description>HJYU5V3E37X6-122305290-1423</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1434</Url>
+      <Description>HJYU5V3E37X6-122305290-1434</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -66159,17 +66439,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF05DA01-DB57-42F4-AE1D-10036A227125}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2BF309F-309A-43DD-ABE0-D2F94BFEDE35}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C01A4597-EBBC-412C-94C1-7E5246CA1A3E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE4893C8-A1DE-4812-B33C-9FABE84C412F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63074E5C-B879-4AE2-AE2F-A337D74C5DDE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD7E8AB-3238-4730-A559-5F833D6E2E18}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88C081E5-6C59-47A5-990C-EA650A7802E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B8938D5-B4F5-429F-96DD-A9C099C85DC3}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2389</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2399</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2389"/>
+  <dimension ref="A1:H2399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -65980,6 +65980,286 @@
         <v>1</v>
       </c>
       <c r="H2389" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2390">
+      <c r="A2390" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2390" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2390" s="0">
+        <v>14964</v>
+      </c>
+      <c r="D2390" s="0">
+        <v>4.90429994756162E-02</v>
+      </c>
+      <c r="E2390" s="0">
+        <v>254</v>
+      </c>
+      <c r="F2390" s="0">
+        <v>5.44830544830545E-02</v>
+      </c>
+      <c r="G2390" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2390" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2391">
+      <c r="A2391" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2391" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2391" s="0">
+        <v>40567</v>
+      </c>
+      <c r="D2391" s="0">
+        <v>0.132954247509177</v>
+      </c>
+      <c r="E2391" s="0">
+        <v>685</v>
+      </c>
+      <c r="F2391" s="0">
+        <v>0.146932646932647</v>
+      </c>
+      <c r="G2391" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2391" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2392">
+      <c r="A2392" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2392" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2392" s="0">
+        <v>59767</v>
+      </c>
+      <c r="D2392" s="0">
+        <v>0.195880309386471</v>
+      </c>
+      <c r="E2392" s="0">
+        <v>747</v>
+      </c>
+      <c r="F2392" s="0">
+        <v>0.16023166023166</v>
+      </c>
+      <c r="G2392" s="0">
+        <v>25</v>
+      </c>
+      <c r="H2392" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2393">
+      <c r="A2393" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2393" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2393" s="0">
+        <v>48601</v>
+      </c>
+      <c r="D2393" s="0">
+        <v>0.159284871525957</v>
+      </c>
+      <c r="E2393" s="0">
+        <v>706</v>
+      </c>
+      <c r="F2393" s="0">
+        <v>0.151437151437151</v>
+      </c>
+      <c r="G2393" s="0">
+        <v>54</v>
+      </c>
+      <c r="H2393" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2394">
+      <c r="A2394" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2394" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2394" s="0">
+        <v>45198</v>
+      </c>
+      <c r="D2394" s="0">
+        <v>0.148131882538018</v>
+      </c>
+      <c r="E2394" s="0">
+        <v>690</v>
+      </c>
+      <c r="F2394" s="0">
+        <v>0.148005148005148</v>
+      </c>
+      <c r="G2394" s="0">
+        <v>138</v>
+      </c>
+      <c r="H2394" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2395">
+      <c r="A2395" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2395" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2395" s="0">
+        <v>40851</v>
+      </c>
+      <c r="D2395" s="0">
+        <v>0.133885028841112</v>
+      </c>
+      <c r="E2395" s="0">
+        <v>597</v>
+      </c>
+      <c r="F2395" s="0">
+        <v>0.128056628056628</v>
+      </c>
+      <c r="G2395" s="0">
+        <v>367</v>
+      </c>
+      <c r="H2395" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2396">
+      <c r="A2396" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2396" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2396" s="0">
+        <v>28499</v>
+      </c>
+      <c r="D2396" s="0">
+        <v>9.34025957000524E-02</v>
+      </c>
+      <c r="E2396" s="0">
+        <v>480</v>
+      </c>
+      <c r="F2396" s="0">
+        <v>0.102960102960103</v>
+      </c>
+      <c r="G2396" s="0">
+        <v>750</v>
+      </c>
+      <c r="H2396" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2397">
+      <c r="A2397" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2397" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2397" s="0">
+        <v>16995</v>
+      </c>
+      <c r="D2397" s="0">
+        <v>5.56993969585737E-02</v>
+      </c>
+      <c r="E2397" s="0">
+        <v>272</v>
+      </c>
+      <c r="F2397" s="0">
+        <v>5.83440583440583E-02</v>
+      </c>
+      <c r="G2397" s="0">
+        <v>1171</v>
+      </c>
+      <c r="H2397" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2398">
+      <c r="A2398" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2398" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2398" s="0">
+        <v>9252</v>
+      </c>
+      <c r="D2398" s="0">
+        <v>3.03224960671211E-02</v>
+      </c>
+      <c r="E2398" s="0">
+        <v>206</v>
+      </c>
+      <c r="F2398" s="0">
+        <v>4.41870441870442E-02</v>
+      </c>
+      <c r="G2398" s="0">
+        <v>1366</v>
+      </c>
+      <c r="H2398" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2399">
+      <c r="A2399" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2399" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2399" s="0">
+        <v>426</v>
+      </c>
+      <c r="D2399" s="0">
+        <v>1.39617199790246E-03</v>
+      </c>
+      <c r="E2399" s="0">
+        <v>25</v>
+      </c>
+      <c r="F2399" s="0">
+        <v>5.36250536250536E-03</v>
+      </c>
+      <c r="G2399" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2399" s="0">
         <v>0</v>
       </c>
     </row>
@@ -66412,11 +66692,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1434</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1465</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1434</Url>
-      <Description>HJYU5V3E37X6-122305290-1434</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1465</Url>
+      <Description>HJYU5V3E37X6-122305290-1465</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -66439,17 +66719,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2BF309F-309A-43DD-ABE0-D2F94BFEDE35}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52FCA057-B36C-42E7-918A-614B2CD69BE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE4893C8-A1DE-4812-B33C-9FABE84C412F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C4FAE1-8B5D-4B69-A087-A164A3D96A1C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD7E8AB-3238-4730-A559-5F833D6E2E18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9EBF802-53DC-4FEC-945B-706DE16F1393}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B8938D5-B4F5-429F-96DD-A9C099C85DC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7F7F2AA-D033-4A46-8C67-651201A46FB4}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2399</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2409</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2399"/>
+  <dimension ref="A1:H2409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -66260,6 +66260,286 @@
         <v>1</v>
       </c>
       <c r="H2399" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2400">
+      <c r="A2400" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2400" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2400" s="0">
+        <v>15257</v>
+      </c>
+      <c r="D2400" s="0">
+        <v>4.90678175964906E-02</v>
+      </c>
+      <c r="E2400" s="0">
+        <v>293</v>
+      </c>
+      <c r="F2400" s="0">
+        <v>0.050369606326285</v>
+      </c>
+      <c r="G2400" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2400" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2401">
+      <c r="A2401" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2401" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2401" s="0">
+        <v>41369</v>
+      </c>
+      <c r="D2401" s="0">
+        <v>0.133046244094463</v>
+      </c>
+      <c r="E2401" s="0">
+        <v>802</v>
+      </c>
+      <c r="F2401" s="0">
+        <v>0.137871755200275</v>
+      </c>
+      <c r="G2401" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2401" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2402">
+      <c r="A2402" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2402" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2402" s="0">
+        <v>60834</v>
+      </c>
+      <c r="D2402" s="0">
+        <v>0.195647349784683</v>
+      </c>
+      <c r="E2402" s="0">
+        <v>1067</v>
+      </c>
+      <c r="F2402" s="0">
+        <v>0.183427883788895</v>
+      </c>
+      <c r="G2402" s="0">
+        <v>25</v>
+      </c>
+      <c r="H2402" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2403">
+      <c r="A2403" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2403" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2403" s="0">
+        <v>49475</v>
+      </c>
+      <c r="D2403" s="0">
+        <v>0.159115833754105</v>
+      </c>
+      <c r="E2403" s="0">
+        <v>874</v>
+      </c>
+      <c r="F2403" s="0">
+        <v>0.150249269382843</v>
+      </c>
+      <c r="G2403" s="0">
+        <v>54</v>
+      </c>
+      <c r="H2403" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2404">
+      <c r="A2404" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2404" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2404" s="0">
+        <v>46055</v>
+      </c>
+      <c r="D2404" s="0">
+        <v>0.148116821092376</v>
+      </c>
+      <c r="E2404" s="0">
+        <v>857</v>
+      </c>
+      <c r="F2404" s="0">
+        <v>0.147326800756404</v>
+      </c>
+      <c r="G2404" s="0">
+        <v>139</v>
+      </c>
+      <c r="H2404" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2405">
+      <c r="A2405" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2405" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2405" s="0">
+        <v>41637</v>
+      </c>
+      <c r="D2405" s="0">
+        <v>0.133908155028189</v>
+      </c>
+      <c r="E2405" s="0">
+        <v>786</v>
+      </c>
+      <c r="F2405" s="0">
+        <v>0.135121196493038</v>
+      </c>
+      <c r="G2405" s="0">
+        <v>367</v>
+      </c>
+      <c r="H2405" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2406">
+      <c r="A2406" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2406" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2406" s="0">
+        <v>29102</v>
+      </c>
+      <c r="D2406" s="0">
+        <v>0.093594522363051</v>
+      </c>
+      <c r="E2406" s="0">
+        <v>603</v>
+      </c>
+      <c r="F2406" s="0">
+        <v>0.10366168127901</v>
+      </c>
+      <c r="G2406" s="0">
+        <v>753</v>
+      </c>
+      <c r="H2406" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2407">
+      <c r="A2407" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2407" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2407" s="0">
+        <v>17360</v>
+      </c>
+      <c r="D2407" s="0">
+        <v>5.58312455577818E-02</v>
+      </c>
+      <c r="E2407" s="0">
+        <v>365</v>
+      </c>
+      <c r="F2407" s="0">
+        <v>6.27471205088534E-02</v>
+      </c>
+      <c r="G2407" s="0">
+        <v>1175</v>
+      </c>
+      <c r="H2407" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2408">
+      <c r="A2408" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2408" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2408" s="0">
+        <v>9408</v>
+      </c>
+      <c r="D2408" s="0">
+        <v>3.02569330764753E-02</v>
+      </c>
+      <c r="E2408" s="0">
+        <v>156</v>
+      </c>
+      <c r="F2408" s="0">
+        <v>2.68179473955647E-02</v>
+      </c>
+      <c r="G2408" s="0">
+        <v>1374</v>
+      </c>
+      <c r="H2408" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2409">
+      <c r="A2409" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2409" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2409" s="0">
+        <v>440</v>
+      </c>
+      <c r="D2409" s="0">
+        <v>1.41507765238617E-03</v>
+      </c>
+      <c r="E2409" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2409" s="0">
+        <v>2.40673886883273E-03</v>
+      </c>
+      <c r="G2409" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2409" s="0">
         <v>0</v>
       </c>
     </row>
@@ -66692,11 +66972,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1465</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1476</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1465</Url>
-      <Description>HJYU5V3E37X6-122305290-1465</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1476</Url>
+      <Description>HJYU5V3E37X6-122305290-1476</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -66719,17 +66999,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52FCA057-B36C-42E7-918A-614B2CD69BE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{616A900F-ED07-429B-92EC-C82696B2EF17}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C4FAE1-8B5D-4B69-A087-A164A3D96A1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB10694B-4169-4F07-94D3-48EC1F363D19}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9EBF802-53DC-4FEC-945B-706DE16F1393}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B6216F5-999F-41F4-B82C-9B9FB8BCEA07}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7F7F2AA-D033-4A46-8C67-651201A46FB4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04BF4B15-60C5-4598-BEB7-E549E92FC25B}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2409</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2419</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2409"/>
+  <dimension ref="A1:H2419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -66540,6 +66540,286 @@
         <v>1</v>
       </c>
       <c r="H2409" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2410">
+      <c r="A2410" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2410" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2410" s="0">
+        <v>15639</v>
+      </c>
+      <c r="D2410" s="0">
+        <v>4.90422969820125E-02</v>
+      </c>
+      <c r="E2410" s="0">
+        <v>382</v>
+      </c>
+      <c r="F2410" s="0">
+        <v>4.80442711608603E-02</v>
+      </c>
+      <c r="G2410" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2410" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2411">
+      <c r="A2411" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2411" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2411" s="0">
+        <v>42517</v>
+      </c>
+      <c r="D2411" s="0">
+        <v>0.133328943077193</v>
+      </c>
+      <c r="E2411" s="0">
+        <v>1148</v>
+      </c>
+      <c r="F2411" s="0">
+        <v>0.144384354169287</v>
+      </c>
+      <c r="G2411" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2411" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2412">
+      <c r="A2412" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2412" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2412" s="0">
+        <v>62152</v>
+      </c>
+      <c r="D2412" s="0">
+        <v>0.194902285441911</v>
+      </c>
+      <c r="E2412" s="0">
+        <v>1318</v>
+      </c>
+      <c r="F2412" s="0">
+        <v>0.165765312539303</v>
+      </c>
+      <c r="G2412" s="0">
+        <v>25</v>
+      </c>
+      <c r="H2412" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2413">
+      <c r="A2413" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2413" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2413" s="0">
+        <v>50657</v>
+      </c>
+      <c r="D2413" s="0">
+        <v>0.158855146634555</v>
+      </c>
+      <c r="E2413" s="0">
+        <v>1182</v>
+      </c>
+      <c r="F2413" s="0">
+        <v>0.14866054584329</v>
+      </c>
+      <c r="G2413" s="0">
+        <v>54</v>
+      </c>
+      <c r="H2413" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2414">
+      <c r="A2414" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2414" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2414" s="0">
+        <v>47290</v>
+      </c>
+      <c r="D2414" s="0">
+        <v>0.148296580617646</v>
+      </c>
+      <c r="E2414" s="0">
+        <v>1235</v>
+      </c>
+      <c r="F2414" s="0">
+        <v>0.155326374041001</v>
+      </c>
+      <c r="G2414" s="0">
+        <v>139</v>
+      </c>
+      <c r="H2414" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2415">
+      <c r="A2415" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2415" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2415" s="0">
+        <v>42729</v>
+      </c>
+      <c r="D2415" s="0">
+        <v>0.133993753292692</v>
+      </c>
+      <c r="E2415" s="0">
+        <v>1092</v>
+      </c>
+      <c r="F2415" s="0">
+        <v>0.137341214941517</v>
+      </c>
+      <c r="G2415" s="0">
+        <v>371</v>
+      </c>
+      <c r="H2415" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2416">
+      <c r="A2416" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2416" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2416" s="0">
+        <v>29911</v>
+      </c>
+      <c r="D2416" s="0">
+        <v>9.37978224329545E-02</v>
+      </c>
+      <c r="E2416" s="0">
+        <v>809</v>
+      </c>
+      <c r="F2416" s="0">
+        <v>0.101748207772607</v>
+      </c>
+      <c r="G2416" s="0">
+        <v>759</v>
+      </c>
+      <c r="H2416" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2417">
+      <c r="A2417" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2417" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2417" s="0">
+        <v>17848</v>
+      </c>
+      <c r="D2417" s="0">
+        <v>5.59694939916209E-02</v>
+      </c>
+      <c r="E2417" s="0">
+        <v>488</v>
+      </c>
+      <c r="F2417" s="0">
+        <v>6.13759275562822E-02</v>
+      </c>
+      <c r="G2417" s="0">
+        <v>1188</v>
+      </c>
+      <c r="H2417" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2418">
+      <c r="A2418" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2418" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2418" s="0">
+        <v>9678</v>
+      </c>
+      <c r="D2418" s="0">
+        <v>3.03492135169715E-02</v>
+      </c>
+      <c r="E2418" s="0">
+        <v>270</v>
+      </c>
+      <c r="F2418" s="0">
+        <v>3.39579927053201E-02</v>
+      </c>
+      <c r="G2418" s="0">
+        <v>1382</v>
+      </c>
+      <c r="H2418" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2419">
+      <c r="A2419" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2419" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2419" s="0">
+        <v>467</v>
+      </c>
+      <c r="D2419" s="0">
+        <v>1.46446401244324E-03</v>
+      </c>
+      <c r="E2419" s="0">
+        <v>27</v>
+      </c>
+      <c r="F2419" s="0">
+        <v>3.39579927053201E-03</v>
+      </c>
+      <c r="G2419" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2419" s="0">
         <v>0</v>
       </c>
     </row>
@@ -66972,11 +67252,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1476</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1487</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1476</Url>
-      <Description>HJYU5V3E37X6-122305290-1476</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1487</Url>
+      <Description>HJYU5V3E37X6-122305290-1487</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -66999,17 +67279,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{616A900F-ED07-429B-92EC-C82696B2EF17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF81C4D1-D3B0-40BF-8295-C284E04FFCE8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB10694B-4169-4F07-94D3-48EC1F363D19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC2F08D-35F0-4EE3-BD6A-664F392E9C8D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B6216F5-999F-41F4-B82C-9B9FB8BCEA07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9742A10-E242-4E21-ABD3-AC0F976BDAAC}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04BF4B15-60C5-4598-BEB7-E549E92FC25B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E031D4F-A107-41FC-A812-DEBDE2F57E61}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2419</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2439</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2419"/>
+  <dimension ref="A1:H2439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -66820,6 +66820,566 @@
         <v>0</v>
       </c>
       <c r="H2419" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2420">
+      <c r="A2420" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2420" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2420" s="0">
+        <v>15740</v>
+      </c>
+      <c r="D2420" s="0">
+        <v>4.90756994222537E-02</v>
+      </c>
+      <c r="E2420" s="0">
+        <v>101</v>
+      </c>
+      <c r="F2420" s="0">
+        <v>5.48614883215644E-02</v>
+      </c>
+      <c r="G2420" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2420" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2421">
+      <c r="A2421" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2421" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2421" s="0">
+        <v>42736</v>
+      </c>
+      <c r="D2421" s="0">
+        <v>0.133246447935796</v>
+      </c>
+      <c r="E2421" s="0">
+        <v>219</v>
+      </c>
+      <c r="F2421" s="0">
+        <v>0.118957088538838</v>
+      </c>
+      <c r="G2421" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2421" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2422">
+      <c r="A2422" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2422" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2422" s="0">
+        <v>62475</v>
+      </c>
+      <c r="D2422" s="0">
+        <v>0.194790617624225</v>
+      </c>
+      <c r="E2422" s="0">
+        <v>323</v>
+      </c>
+      <c r="F2422" s="0">
+        <v>0.175448126018468</v>
+      </c>
+      <c r="G2422" s="0">
+        <v>25</v>
+      </c>
+      <c r="H2422" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2423">
+      <c r="A2423" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2423" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2423" s="0">
+        <v>50921</v>
+      </c>
+      <c r="D2423" s="0">
+        <v>0.158766435214776</v>
+      </c>
+      <c r="E2423" s="0">
+        <v>264</v>
+      </c>
+      <c r="F2423" s="0">
+        <v>0.143400325909832</v>
+      </c>
+      <c r="G2423" s="0">
+        <v>55</v>
+      </c>
+      <c r="H2423" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2424">
+      <c r="A2424" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2424" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2424" s="0">
+        <v>47547</v>
+      </c>
+      <c r="D2424" s="0">
+        <v>0.148246650599104</v>
+      </c>
+      <c r="E2424" s="0">
+        <v>257</v>
+      </c>
+      <c r="F2424" s="0">
+        <v>0.13959804454101</v>
+      </c>
+      <c r="G2424" s="0">
+        <v>139</v>
+      </c>
+      <c r="H2424" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2425">
+      <c r="A2425" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2425" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2425" s="0">
+        <v>42994</v>
+      </c>
+      <c r="D2425" s="0">
+        <v>0.134050865372324</v>
+      </c>
+      <c r="E2425" s="0">
+        <v>265</v>
+      </c>
+      <c r="F2425" s="0">
+        <v>0.14394350896252</v>
+      </c>
+      <c r="G2425" s="0">
+        <v>373</v>
+      </c>
+      <c r="H2425" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2426">
+      <c r="A2426" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2426" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2426" s="0">
+        <v>30134</v>
+      </c>
+      <c r="D2426" s="0">
+        <v>9.39547094275853E-02</v>
+      </c>
+      <c r="E2426" s="0">
+        <v>223</v>
+      </c>
+      <c r="F2426" s="0">
+        <v>0.121129820749593</v>
+      </c>
+      <c r="G2426" s="0">
+        <v>777</v>
+      </c>
+      <c r="H2426" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2427">
+      <c r="A2427" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2427" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2427" s="0">
+        <v>17958</v>
+      </c>
+      <c r="D2427" s="0">
+        <v>5.59911950587568E-02</v>
+      </c>
+      <c r="E2427" s="0">
+        <v>110</v>
+      </c>
+      <c r="F2427" s="0">
+        <v>5.97501357957632E-02</v>
+      </c>
+      <c r="G2427" s="0">
+        <v>1207</v>
+      </c>
+      <c r="H2427" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2428">
+      <c r="A2428" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2428" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2428" s="0">
+        <v>9753</v>
+      </c>
+      <c r="D2428" s="0">
+        <v>3.04088498389606E-02</v>
+      </c>
+      <c r="E2428" s="0">
+        <v>75</v>
+      </c>
+      <c r="F2428" s="0">
+        <v>4.07387289516567E-02</v>
+      </c>
+      <c r="G2428" s="0">
+        <v>1414</v>
+      </c>
+      <c r="H2428" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2429">
+      <c r="A2429" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2429" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2429" s="0">
+        <v>471</v>
+      </c>
+      <c r="D2429" s="0">
+        <v>1.46852950621865E-03</v>
+      </c>
+      <c r="E2429" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2429" s="0">
+        <v>2.17273221075502E-03</v>
+      </c>
+      <c r="G2429" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2429" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2430">
+      <c r="A2430" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2430" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2430" s="0">
+        <v>15962</v>
+      </c>
+      <c r="D2430" s="0">
+        <v>4.90834899031676E-02</v>
+      </c>
+      <c r="E2430" s="0">
+        <v>222</v>
+      </c>
+      <c r="F2430" s="0">
+        <v>4.96422182468694E-02</v>
+      </c>
+      <c r="G2430" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2430" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2431">
+      <c r="A2431" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2431" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2431" s="0">
+        <v>43341</v>
+      </c>
+      <c r="D2431" s="0">
+        <v>0.133274497925898</v>
+      </c>
+      <c r="E2431" s="0">
+        <v>605</v>
+      </c>
+      <c r="F2431" s="0">
+        <v>0.135286225402504</v>
+      </c>
+      <c r="G2431" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2431" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2432">
+      <c r="A2432" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2432" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2432" s="0">
+        <v>63263</v>
+      </c>
+      <c r="D2432" s="0">
+        <v>0.194535072155375</v>
+      </c>
+      <c r="E2432" s="0">
+        <v>788</v>
+      </c>
+      <c r="F2432" s="0">
+        <v>0.176207513416816</v>
+      </c>
+      <c r="G2432" s="0">
+        <v>25</v>
+      </c>
+      <c r="H2432" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2433">
+      <c r="A2433" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2433" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2433" s="0">
+        <v>51566</v>
+      </c>
+      <c r="D2433" s="0">
+        <v>0.158566548073345</v>
+      </c>
+      <c r="E2433" s="0">
+        <v>645</v>
+      </c>
+      <c r="F2433" s="0">
+        <v>0.144230769230769</v>
+      </c>
+      <c r="G2433" s="0">
+        <v>57</v>
+      </c>
+      <c r="H2433" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2434">
+      <c r="A2434" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2434" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2434" s="0">
+        <v>48213</v>
+      </c>
+      <c r="D2434" s="0">
+        <v>0.148256001672812</v>
+      </c>
+      <c r="E2434" s="0">
+        <v>666</v>
+      </c>
+      <c r="F2434" s="0">
+        <v>0.148926654740608</v>
+      </c>
+      <c r="G2434" s="0">
+        <v>140</v>
+      </c>
+      <c r="H2434" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2435">
+      <c r="A2435" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2435" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2435" s="0">
+        <v>43605</v>
+      </c>
+      <c r="D2435" s="0">
+        <v>0.134086303547652</v>
+      </c>
+      <c r="E2435" s="0">
+        <v>611</v>
+      </c>
+      <c r="F2435" s="0">
+        <v>0.136627906976744</v>
+      </c>
+      <c r="G2435" s="0">
+        <v>377</v>
+      </c>
+      <c r="H2435" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2436">
+      <c r="A2436" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2436" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2436" s="0">
+        <v>30599</v>
+      </c>
+      <c r="D2436" s="0">
+        <v>9.40925765910929E-02</v>
+      </c>
+      <c r="E2436" s="0">
+        <v>465</v>
+      </c>
+      <c r="F2436" s="0">
+        <v>0.103980322003578</v>
+      </c>
+      <c r="G2436" s="0">
+        <v>784</v>
+      </c>
+      <c r="H2436" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2437">
+      <c r="A2437" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2437" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2437" s="0">
+        <v>18268</v>
+      </c>
+      <c r="D2437" s="0">
+        <v>5.61744890083364E-02</v>
+      </c>
+      <c r="E2437" s="0">
+        <v>310</v>
+      </c>
+      <c r="F2437" s="0">
+        <v>6.93202146690519E-02</v>
+      </c>
+      <c r="G2437" s="0">
+        <v>1221</v>
+      </c>
+      <c r="H2437" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2438">
+      <c r="A2438" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2438" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2438" s="0">
+        <v>9892</v>
+      </c>
+      <c r="D2438" s="0">
+        <v>3.04181106454162E-02</v>
+      </c>
+      <c r="E2438" s="0">
+        <v>139</v>
+      </c>
+      <c r="F2438" s="0">
+        <v>0.03108228980322</v>
+      </c>
+      <c r="G2438" s="0">
+        <v>1438</v>
+      </c>
+      <c r="H2438" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2439">
+      <c r="A2439" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2439" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2439" s="0">
+        <v>492</v>
+      </c>
+      <c r="D2439" s="0">
+        <v>1.51291047690505E-03</v>
+      </c>
+      <c r="E2439" s="0">
+        <v>21</v>
+      </c>
+      <c r="F2439" s="0">
+        <v>0.004695885509839</v>
+      </c>
+      <c r="G2439" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2439" s="0">
         <v>0</v>
       </c>
     </row>
@@ -67252,11 +67812,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1487</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1530</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1487</Url>
-      <Description>HJYU5V3E37X6-122305290-1487</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1530</Url>
+      <Description>HJYU5V3E37X6-122305290-1530</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -67279,17 +67839,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF81C4D1-D3B0-40BF-8295-C284E04FFCE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2387AF3-3747-444A-A2E2-42DE7828AF33}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC2F08D-35F0-4EE3-BD6A-664F392E9C8D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB149B6A-DAD6-4DD4-A05E-E756FE9C290C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9742A10-E242-4E21-ABD3-AC0F976BDAAC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4B7573B-B2A9-4309-8A48-16CB7AE8FCAD}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E031D4F-A107-41FC-A812-DEBDE2F57E61}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61FD5C5D-B11B-4F96-8CEA-26D411C12DA3}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2439</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2459</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2439"/>
+  <dimension ref="A1:H2459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -67380,6 +67380,566 @@
         <v>0</v>
       </c>
       <c r="H2439" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2440">
+      <c r="A2440" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2440" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2440" s="0">
+        <v>16107</v>
+      </c>
+      <c r="D2440" s="0">
+        <v>4.90935358806174E-02</v>
+      </c>
+      <c r="E2440" s="0">
+        <v>145</v>
+      </c>
+      <c r="F2440" s="0">
+        <v>5.02251472116384E-02</v>
+      </c>
+      <c r="G2440" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2440" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2441">
+      <c r="A2441" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2441" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2441" s="0">
+        <v>43702</v>
+      </c>
+      <c r="D2441" s="0">
+        <v>0.133202067737924</v>
+      </c>
+      <c r="E2441" s="0">
+        <v>361</v>
+      </c>
+      <c r="F2441" s="0">
+        <v>0.1250432975407</v>
+      </c>
+      <c r="G2441" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2441" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2442">
+      <c r="A2442" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2442" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2442" s="0">
+        <v>63789</v>
+      </c>
+      <c r="D2442" s="0">
+        <v>0.194426495330521</v>
+      </c>
+      <c r="E2442" s="0">
+        <v>526</v>
+      </c>
+      <c r="F2442" s="0">
+        <v>0.182196051264288</v>
+      </c>
+      <c r="G2442" s="0">
+        <v>25</v>
+      </c>
+      <c r="H2442" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2443">
+      <c r="A2443" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2443" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2443" s="0">
+        <v>51989</v>
+      </c>
+      <c r="D2443" s="0">
+        <v>0.15846053497842</v>
+      </c>
+      <c r="E2443" s="0">
+        <v>423</v>
+      </c>
+      <c r="F2443" s="0">
+        <v>0.146518877727745</v>
+      </c>
+      <c r="G2443" s="0">
+        <v>57</v>
+      </c>
+      <c r="H2443" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2444">
+      <c r="A2444" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2444" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2444" s="0">
+        <v>48674</v>
+      </c>
+      <c r="D2444" s="0">
+        <v>0.148356538489674</v>
+      </c>
+      <c r="E2444" s="0">
+        <v>461</v>
+      </c>
+      <c r="F2444" s="0">
+        <v>0.15968133010045</v>
+      </c>
+      <c r="G2444" s="0">
+        <v>141</v>
+      </c>
+      <c r="H2444" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2445">
+      <c r="A2445" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2445" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2445" s="0">
+        <v>44007</v>
+      </c>
+      <c r="D2445" s="0">
+        <v>0.134131696374144</v>
+      </c>
+      <c r="E2445" s="0">
+        <v>402</v>
+      </c>
+      <c r="F2445" s="0">
+        <v>0.139244890890197</v>
+      </c>
+      <c r="G2445" s="0">
+        <v>385</v>
+      </c>
+      <c r="H2445" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2446">
+      <c r="A2446" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2446" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2446" s="0">
+        <v>30880</v>
+      </c>
+      <c r="D2446" s="0">
+        <v>9.41210894638024E-02</v>
+      </c>
+      <c r="E2446" s="0">
+        <v>281</v>
+      </c>
+      <c r="F2446" s="0">
+        <v>9.73328714928992E-02</v>
+      </c>
+      <c r="G2446" s="0">
+        <v>793</v>
+      </c>
+      <c r="H2446" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2447">
+      <c r="A2447" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2447" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2447" s="0">
+        <v>18453</v>
+      </c>
+      <c r="D2447" s="0">
+        <v>5.62440564726537E-02</v>
+      </c>
+      <c r="E2447" s="0">
+        <v>185</v>
+      </c>
+      <c r="F2447" s="0">
+        <v>6.40803602355386E-02</v>
+      </c>
+      <c r="G2447" s="0">
+        <v>1237</v>
+      </c>
+      <c r="H2447" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2448">
+      <c r="A2448" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2448" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2448" s="0">
+        <v>10001</v>
+      </c>
+      <c r="D2448" s="0">
+        <v>3.04826753797762E-02</v>
+      </c>
+      <c r="E2448" s="0">
+        <v>109</v>
+      </c>
+      <c r="F2448" s="0">
+        <v>3.77554554901282E-02</v>
+      </c>
+      <c r="G2448" s="0">
+        <v>1484</v>
+      </c>
+      <c r="H2448" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2449">
+      <c r="A2449" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2449" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2449" s="0">
+        <v>486</v>
+      </c>
+      <c r="D2449" s="0">
+        <v>1.48130989246787E-03</v>
+      </c>
+      <c r="E2449" s="0">
+        <v>-6</v>
+      </c>
+      <c r="F2449" s="0">
+        <v>-2.07828195358504E-03</v>
+      </c>
+      <c r="G2449" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2449" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2450">
+      <c r="A2450" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2450" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2450" s="0">
+        <v>16278</v>
+      </c>
+      <c r="D2450" s="0">
+        <v>4.90993327944211E-02</v>
+      </c>
+      <c r="E2450" s="0">
+        <v>171</v>
+      </c>
+      <c r="F2450" s="0">
+        <v>4.96515679442509E-02</v>
+      </c>
+      <c r="G2450" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2450" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2451">
+      <c r="A2451" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2451" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2451" s="0">
+        <v>44187</v>
+      </c>
+      <c r="D2451" s="0">
+        <v>0.133281251885188</v>
+      </c>
+      <c r="E2451" s="0">
+        <v>485</v>
+      </c>
+      <c r="F2451" s="0">
+        <v>0.14082462253194</v>
+      </c>
+      <c r="G2451" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2451" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2452">
+      <c r="A2452" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2452" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2452" s="0">
+        <v>64357</v>
+      </c>
+      <c r="D2452" s="0">
+        <v>0.194120024613009</v>
+      </c>
+      <c r="E2452" s="0">
+        <v>568</v>
+      </c>
+      <c r="F2452" s="0">
+        <v>0.164924506387921</v>
+      </c>
+      <c r="G2452" s="0">
+        <v>26</v>
+      </c>
+      <c r="H2452" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2453">
+      <c r="A2453" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2453" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2453" s="0">
+        <v>52515</v>
+      </c>
+      <c r="D2453" s="0">
+        <v>0.158400998998588</v>
+      </c>
+      <c r="E2453" s="0">
+        <v>526</v>
+      </c>
+      <c r="F2453" s="0">
+        <v>0.152729384436702</v>
+      </c>
+      <c r="G2453" s="0">
+        <v>56</v>
+      </c>
+      <c r="H2453" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2454">
+      <c r="A2454" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2454" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2454" s="0">
+        <v>49228</v>
+      </c>
+      <c r="D2454" s="0">
+        <v>0.148486420617014</v>
+      </c>
+      <c r="E2454" s="0">
+        <v>554</v>
+      </c>
+      <c r="F2454" s="0">
+        <v>0.160859465737515</v>
+      </c>
+      <c r="G2454" s="0">
+        <v>143</v>
+      </c>
+      <c r="H2454" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2455">
+      <c r="A2455" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2455" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2455" s="0">
+        <v>44469</v>
+      </c>
+      <c r="D2455" s="0">
+        <v>0.134131848509345</v>
+      </c>
+      <c r="E2455" s="0">
+        <v>462</v>
+      </c>
+      <c r="F2455" s="0">
+        <v>0.134146341463415</v>
+      </c>
+      <c r="G2455" s="0">
+        <v>392</v>
+      </c>
+      <c r="H2455" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2456">
+      <c r="A2456" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2456" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2456" s="0">
+        <v>31257</v>
+      </c>
+      <c r="D2456" s="0">
+        <v>0.094280491777566</v>
+      </c>
+      <c r="E2456" s="0">
+        <v>377</v>
+      </c>
+      <c r="F2456" s="0">
+        <v>0.109465737514518</v>
+      </c>
+      <c r="G2456" s="0">
+        <v>800</v>
+      </c>
+      <c r="H2456" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2457">
+      <c r="A2457" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2457" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2457" s="0">
+        <v>18660</v>
+      </c>
+      <c r="D2457" s="0">
+        <v>5.62841595984701E-02</v>
+      </c>
+      <c r="E2457" s="0">
+        <v>207</v>
+      </c>
+      <c r="F2457" s="0">
+        <v>6.01045296167247E-02</v>
+      </c>
+      <c r="G2457" s="0">
+        <v>1263</v>
+      </c>
+      <c r="H2457" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2458">
+      <c r="A2458" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2458" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2458" s="0">
+        <v>10101</v>
+      </c>
+      <c r="D2458" s="0">
+        <v>3.04676471652812E-02</v>
+      </c>
+      <c r="E2458" s="0">
+        <v>100</v>
+      </c>
+      <c r="F2458" s="0">
+        <v>2.90360046457607E-02</v>
+      </c>
+      <c r="G2458" s="0">
+        <v>1516</v>
+      </c>
+      <c r="H2458" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2459">
+      <c r="A2459" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2459" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2459" s="0">
+        <v>480</v>
+      </c>
+      <c r="D2459" s="0">
+        <v>1.4478240411182E-03</v>
+      </c>
+      <c r="E2459" s="0">
+        <v>-6</v>
+      </c>
+      <c r="F2459" s="0">
+        <v>-1.74216027874564E-03</v>
+      </c>
+      <c r="G2459" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2459" s="0">
         <v>0</v>
       </c>
     </row>
@@ -67812,11 +68372,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1530</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1562</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1530</Url>
-      <Description>HJYU5V3E37X6-122305290-1530</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1562</Url>
+      <Description>HJYU5V3E37X6-122305290-1562</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -67839,17 +68399,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2387AF3-3747-444A-A2E2-42DE7828AF33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D23072DD-9EE4-44B9-99A5-40F8FFA58F27}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB149B6A-DAD6-4DD4-A05E-E756FE9C290C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6324B24-2A18-48BD-BECF-0A89F68D1565}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4B7573B-B2A9-4309-8A48-16CB7AE8FCAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A8FDF6-5616-4C5A-911C-99812EC046BD}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61FD5C5D-B11B-4F96-8CEA-26D411C12DA3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F740142-25F0-456F-979B-2DF69AA72ADE}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2459</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2469</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2459"/>
+  <dimension ref="A1:H2469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -67940,6 +67940,286 @@
         <v>0</v>
       </c>
       <c r="H2459" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2460">
+      <c r="A2460" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2460" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2460" s="0">
+        <v>16508</v>
+      </c>
+      <c r="D2460" s="0">
+        <v>4.91474811469333E-02</v>
+      </c>
+      <c r="E2460" s="0">
+        <v>230</v>
+      </c>
+      <c r="F2460" s="0">
+        <v>0.052812858783008</v>
+      </c>
+      <c r="G2460" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2460" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2461">
+      <c r="A2461" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2461" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2461" s="0">
+        <v>44757</v>
+      </c>
+      <c r="D2461" s="0">
+        <v>0.133250170444227</v>
+      </c>
+      <c r="E2461" s="0">
+        <v>570</v>
+      </c>
+      <c r="F2461" s="0">
+        <v>0.130884041331803</v>
+      </c>
+      <c r="G2461" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2461" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2462">
+      <c r="A2462" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2462" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2462" s="0">
+        <v>65046</v>
+      </c>
+      <c r="D2462" s="0">
+        <v>0.193654413537886</v>
+      </c>
+      <c r="E2462" s="0">
+        <v>689</v>
+      </c>
+      <c r="F2462" s="0">
+        <v>0.158208955223881</v>
+      </c>
+      <c r="G2462" s="0">
+        <v>26</v>
+      </c>
+      <c r="H2462" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2463">
+      <c r="A2463" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2463" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2463" s="0">
+        <v>53173</v>
+      </c>
+      <c r="D2463" s="0">
+        <v>0.158306216078622</v>
+      </c>
+      <c r="E2463" s="0">
+        <v>658</v>
+      </c>
+      <c r="F2463" s="0">
+        <v>0.151090700344432</v>
+      </c>
+      <c r="G2463" s="0">
+        <v>56</v>
+      </c>
+      <c r="H2463" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2464">
+      <c r="A2464" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2464" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2464" s="0">
+        <v>49909</v>
+      </c>
+      <c r="D2464" s="0">
+        <v>0.148588662258438</v>
+      </c>
+      <c r="E2464" s="0">
+        <v>681</v>
+      </c>
+      <c r="F2464" s="0">
+        <v>0.156371986222732</v>
+      </c>
+      <c r="G2464" s="0">
+        <v>144</v>
+      </c>
+      <c r="H2464" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2465">
+      <c r="A2465" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2465" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2465" s="0">
+        <v>45107</v>
+      </c>
+      <c r="D2465" s="0">
+        <v>0.13429218755117</v>
+      </c>
+      <c r="E2465" s="0">
+        <v>638</v>
+      </c>
+      <c r="F2465" s="0">
+        <v>0.146498277841561</v>
+      </c>
+      <c r="G2465" s="0">
+        <v>392</v>
+      </c>
+      <c r="H2465" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2466">
+      <c r="A2466" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2466" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2466" s="0">
+        <v>31702</v>
+      </c>
+      <c r="D2466" s="0">
+        <v>9.43829323552266E-02</v>
+      </c>
+      <c r="E2466" s="0">
+        <v>445</v>
+      </c>
+      <c r="F2466" s="0">
+        <v>0.102181400688863</v>
+      </c>
+      <c r="G2466" s="0">
+        <v>805</v>
+      </c>
+      <c r="H2466" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2467">
+      <c r="A2467" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2467" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2467" s="0">
+        <v>18939</v>
+      </c>
+      <c r="D2467" s="0">
+        <v>5.63850342525909E-02</v>
+      </c>
+      <c r="E2467" s="0">
+        <v>279</v>
+      </c>
+      <c r="F2467" s="0">
+        <v>6.40642939150402E-02</v>
+      </c>
+      <c r="G2467" s="0">
+        <v>1264</v>
+      </c>
+      <c r="H2467" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2468">
+      <c r="A2468" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2468" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2468" s="0">
+        <v>10254</v>
+      </c>
+      <c r="D2468" s="0">
+        <v>3.05281240417164E-02</v>
+      </c>
+      <c r="E2468" s="0">
+        <v>153</v>
+      </c>
+      <c r="F2468" s="0">
+        <v>3.51320321469575E-02</v>
+      </c>
+      <c r="G2468" s="0">
+        <v>1518</v>
+      </c>
+      <c r="H2468" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2469">
+      <c r="A2469" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2469" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2469" s="0">
+        <v>492</v>
+      </c>
+      <c r="D2469" s="0">
+        <v>1.46477833318944E-03</v>
+      </c>
+      <c r="E2469" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2469" s="0">
+        <v>2.75545350172216E-03</v>
+      </c>
+      <c r="G2469" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2469" s="0">
         <v>0</v>
       </c>
     </row>
@@ -68372,11 +68652,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1562</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1578</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1562</Url>
-      <Description>HJYU5V3E37X6-122305290-1562</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1578</Url>
+      <Description>HJYU5V3E37X6-122305290-1578</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -68399,17 +68679,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D23072DD-9EE4-44B9-99A5-40F8FFA58F27}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42E9103-8148-4005-91D5-40596BC83A41}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6324B24-2A18-48BD-BECF-0A89F68D1565}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7CF1AF1-D8AC-426B-B569-36B694A0DBD7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A8FDF6-5616-4C5A-911C-99812EC046BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B45A5E96-77C5-4057-80A2-6013E748EE12}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F740142-25F0-456F-979B-2DF69AA72ADE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA2FF1B9-5A4F-42EB-820B-235C8CAF53F7}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2469</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2479</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2469"/>
+  <dimension ref="A1:H2479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -68220,6 +68220,286 @@
         <v>0</v>
       </c>
       <c r="H2469" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2470">
+      <c r="A2470" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2470" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2470" s="0">
+        <v>16752</v>
+      </c>
+      <c r="D2470" s="0">
+        <v>4.92017058471082E-02</v>
+      </c>
+      <c r="E2470" s="0">
+        <v>244</v>
+      </c>
+      <c r="F2470" s="0">
+        <v>5.31706254085857E-02</v>
+      </c>
+      <c r="G2470" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2470" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2471">
+      <c r="A2471" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2471" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2471" s="0">
+        <v>45373</v>
+      </c>
+      <c r="D2471" s="0">
+        <v>0.133263431196325</v>
+      </c>
+      <c r="E2471" s="0">
+        <v>616</v>
+      </c>
+      <c r="F2471" s="0">
+        <v>0.134234037916757</v>
+      </c>
+      <c r="G2471" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2471" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2472">
+      <c r="A2472" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2472" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2472" s="0">
+        <v>65824</v>
+      </c>
+      <c r="D2472" s="0">
+        <v>0.193329338925504</v>
+      </c>
+      <c r="E2472" s="0">
+        <v>778</v>
+      </c>
+      <c r="F2472" s="0">
+        <v>0.169535846589671</v>
+      </c>
+      <c r="G2472" s="0">
+        <v>26</v>
+      </c>
+      <c r="H2472" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2473">
+      <c r="A2473" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2473" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2473" s="0">
+        <v>53857</v>
+      </c>
+      <c r="D2473" s="0">
+        <v>0.158181487094538</v>
+      </c>
+      <c r="E2473" s="0">
+        <v>684</v>
+      </c>
+      <c r="F2473" s="0">
+        <v>0.149052081063413</v>
+      </c>
+      <c r="G2473" s="0">
+        <v>56</v>
+      </c>
+      <c r="H2473" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2474">
+      <c r="A2474" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2474" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2474" s="0">
+        <v>50582</v>
+      </c>
+      <c r="D2474" s="0">
+        <v>0.148562600594462</v>
+      </c>
+      <c r="E2474" s="0">
+        <v>673</v>
+      </c>
+      <c r="F2474" s="0">
+        <v>0.146655044672042</v>
+      </c>
+      <c r="G2474" s="0">
+        <v>146</v>
+      </c>
+      <c r="H2474" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2475">
+      <c r="A2475" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2475" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2475" s="0">
+        <v>45778</v>
+      </c>
+      <c r="D2475" s="0">
+        <v>0.134452942351296</v>
+      </c>
+      <c r="E2475" s="0">
+        <v>671</v>
+      </c>
+      <c r="F2475" s="0">
+        <v>0.146219219873611</v>
+      </c>
+      <c r="G2475" s="0">
+        <v>395</v>
+      </c>
+      <c r="H2475" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2476">
+      <c r="A2476" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2476" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2476" s="0">
+        <v>32175</v>
+      </c>
+      <c r="D2476" s="0">
+        <v>9.45000528671624E-02</v>
+      </c>
+      <c r="E2476" s="0">
+        <v>473</v>
+      </c>
+      <c r="F2476" s="0">
+        <v>0.103072564828939</v>
+      </c>
+      <c r="G2476" s="0">
+        <v>813</v>
+      </c>
+      <c r="H2476" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2477">
+      <c r="A2477" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2477" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2477" s="0">
+        <v>19261</v>
+      </c>
+      <c r="D2477" s="0">
+        <v>5.65708008787697E-02</v>
+      </c>
+      <c r="E2477" s="0">
+        <v>322</v>
+      </c>
+      <c r="F2477" s="0">
+        <v>7.01677925473959E-02</v>
+      </c>
+      <c r="G2477" s="0">
+        <v>1286</v>
+      </c>
+      <c r="H2477" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2478">
+      <c r="A2478" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2478" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2478" s="0">
+        <v>10380</v>
+      </c>
+      <c r="D2478" s="0">
+        <v>3.04867303422268E-02</v>
+      </c>
+      <c r="E2478" s="0">
+        <v>126</v>
+      </c>
+      <c r="F2478" s="0">
+        <v>2.74569623011549E-02</v>
+      </c>
+      <c r="G2478" s="0">
+        <v>1538</v>
+      </c>
+      <c r="H2478" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2479">
+      <c r="A2479" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2479" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2479" s="0">
+        <v>494</v>
+      </c>
+      <c r="D2479" s="0">
+        <v>1.45090990260694E-03</v>
+      </c>
+      <c r="E2479" s="0">
+        <v>2</v>
+      </c>
+      <c r="F2479" s="0">
+        <v>4.35824798431031E-04</v>
+      </c>
+      <c r="G2479" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2479" s="0">
         <v>0</v>
       </c>
     </row>
@@ -68652,11 +68932,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1578</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1584</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1578</Url>
-      <Description>HJYU5V3E37X6-122305290-1578</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1584</Url>
+      <Description>HJYU5V3E37X6-122305290-1584</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -68679,17 +68959,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42E9103-8148-4005-91D5-40596BC83A41}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6F494F8-E5E8-4838-A12C-28950F5703B2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7CF1AF1-D8AC-426B-B569-36B694A0DBD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1C9C968-6855-49BC-8C4C-04503CD1CC70}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B45A5E96-77C5-4057-80A2-6013E748EE12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F99B31-482A-4212-B9F7-E2B79F760423}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA2FF1B9-5A4F-42EB-820B-235C8CAF53F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB964717-4827-4291-B233-8827B484034B}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2379</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2479</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2379"/>
+  <dimension ref="A1:H2479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -65701,6 +65701,2806 @@
       </c>
       <c r="H2379" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2380">
+      <c r="A2380" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2380" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2380" s="0">
+        <v>14710</v>
+      </c>
+      <c r="D2380" s="0">
+        <v>4.89585898861072E-02</v>
+      </c>
+      <c r="E2380" s="0">
+        <v>169</v>
+      </c>
+      <c r="F2380" s="0">
+        <v>4.52718992767211E-02</v>
+      </c>
+      <c r="G2380" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2380" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2381">
+      <c r="A2381" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2381" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2381" s="0">
+        <v>39882</v>
+      </c>
+      <c r="D2381" s="0">
+        <v>0.13273735430576</v>
+      </c>
+      <c r="E2381" s="0">
+        <v>532</v>
+      </c>
+      <c r="F2381" s="0">
+        <v>0.142512724350388</v>
+      </c>
+      <c r="G2381" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2381" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2382">
+      <c r="A2382" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2382" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2382" s="0">
+        <v>59020</v>
+      </c>
+      <c r="D2382" s="0">
+        <v>0.196433444940724</v>
+      </c>
+      <c r="E2382" s="0">
+        <v>634</v>
+      </c>
+      <c r="F2382" s="0">
+        <v>0.169836592552907</v>
+      </c>
+      <c r="G2382" s="0">
+        <v>24</v>
+      </c>
+      <c r="H2382" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2383">
+      <c r="A2383" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2383" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2383" s="0">
+        <v>47895</v>
+      </c>
+      <c r="D2383" s="0">
+        <v>0.159406639197492</v>
+      </c>
+      <c r="E2383" s="0">
+        <v>558</v>
+      </c>
+      <c r="F2383" s="0">
+        <v>0.149477631931422</v>
+      </c>
+      <c r="G2383" s="0">
+        <v>54</v>
+      </c>
+      <c r="H2383" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2384">
+      <c r="A2384" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2384" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2384" s="0">
+        <v>44508</v>
+      </c>
+      <c r="D2384" s="0">
+        <v>0.148133848990541</v>
+      </c>
+      <c r="E2384" s="0">
+        <v>576</v>
+      </c>
+      <c r="F2384" s="0">
+        <v>0.154299491025984</v>
+      </c>
+      <c r="G2384" s="0">
+        <v>137</v>
+      </c>
+      <c r="H2384" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2385">
+      <c r="A2385" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2385" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2385" s="0">
+        <v>40254</v>
+      </c>
+      <c r="D2385" s="0">
+        <v>0.13397546412477</v>
+      </c>
+      <c r="E2385" s="0">
+        <v>549</v>
+      </c>
+      <c r="F2385" s="0">
+        <v>0.147066702384141</v>
+      </c>
+      <c r="G2385" s="0">
+        <v>362</v>
+      </c>
+      <c r="H2385" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2386">
+      <c r="A2386" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2386" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2386" s="0">
+        <v>28019</v>
+      </c>
+      <c r="D2386" s="0">
+        <v>9.32542984377184E-02</v>
+      </c>
+      <c r="E2386" s="0">
+        <v>381</v>
+      </c>
+      <c r="F2386" s="0">
+        <v>0.102062684168229</v>
+      </c>
+      <c r="G2386" s="0">
+        <v>745</v>
+      </c>
+      <c r="H2386" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2387">
+      <c r="A2387" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2387" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2387" s="0">
+        <v>16723</v>
+      </c>
+      <c r="D2387" s="0">
+        <v>5.56583615680062E-02</v>
+      </c>
+      <c r="E2387" s="0">
+        <v>223</v>
+      </c>
+      <c r="F2387" s="0">
+        <v>5.97374765604072E-02</v>
+      </c>
+      <c r="G2387" s="0">
+        <v>1162</v>
+      </c>
+      <c r="H2387" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2388">
+      <c r="A2388" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2388" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2388" s="0">
+        <v>9046</v>
+      </c>
+      <c r="D2388" s="0">
+        <v>3.01073694160249E-02</v>
+      </c>
+      <c r="E2388" s="0">
+        <v>108</v>
+      </c>
+      <c r="F2388" s="0">
+        <v>2.89311545673721E-02</v>
+      </c>
+      <c r="G2388" s="0">
+        <v>1362</v>
+      </c>
+      <c r="H2388" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2389">
+      <c r="A2389" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B2389" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2389" s="0">
+        <v>401</v>
+      </c>
+      <c r="D2389" s="0">
+        <v>1.33462913285717E-03</v>
+      </c>
+      <c r="E2389" s="0">
+        <v>3</v>
+      </c>
+      <c r="F2389" s="0">
+        <v>8.03643182427002E-04</v>
+      </c>
+      <c r="G2389" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2389" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2390">
+      <c r="A2390" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2390" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2390" s="0">
+        <v>14964</v>
+      </c>
+      <c r="D2390" s="0">
+        <v>4.90429994756162E-02</v>
+      </c>
+      <c r="E2390" s="0">
+        <v>254</v>
+      </c>
+      <c r="F2390" s="0">
+        <v>5.44830544830545E-02</v>
+      </c>
+      <c r="G2390" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2390" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2391">
+      <c r="A2391" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2391" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2391" s="0">
+        <v>40567</v>
+      </c>
+      <c r="D2391" s="0">
+        <v>0.132954247509177</v>
+      </c>
+      <c r="E2391" s="0">
+        <v>685</v>
+      </c>
+      <c r="F2391" s="0">
+        <v>0.146932646932647</v>
+      </c>
+      <c r="G2391" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2391" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2392">
+      <c r="A2392" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2392" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2392" s="0">
+        <v>59767</v>
+      </c>
+      <c r="D2392" s="0">
+        <v>0.195880309386471</v>
+      </c>
+      <c r="E2392" s="0">
+        <v>747</v>
+      </c>
+      <c r="F2392" s="0">
+        <v>0.16023166023166</v>
+      </c>
+      <c r="G2392" s="0">
+        <v>25</v>
+      </c>
+      <c r="H2392" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2393">
+      <c r="A2393" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2393" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2393" s="0">
+        <v>48601</v>
+      </c>
+      <c r="D2393" s="0">
+        <v>0.159284871525957</v>
+      </c>
+      <c r="E2393" s="0">
+        <v>706</v>
+      </c>
+      <c r="F2393" s="0">
+        <v>0.151437151437151</v>
+      </c>
+      <c r="G2393" s="0">
+        <v>54</v>
+      </c>
+      <c r="H2393" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2394">
+      <c r="A2394" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2394" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2394" s="0">
+        <v>45198</v>
+      </c>
+      <c r="D2394" s="0">
+        <v>0.148131882538018</v>
+      </c>
+      <c r="E2394" s="0">
+        <v>690</v>
+      </c>
+      <c r="F2394" s="0">
+        <v>0.148005148005148</v>
+      </c>
+      <c r="G2394" s="0">
+        <v>138</v>
+      </c>
+      <c r="H2394" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2395">
+      <c r="A2395" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2395" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2395" s="0">
+        <v>40851</v>
+      </c>
+      <c r="D2395" s="0">
+        <v>0.133885028841112</v>
+      </c>
+      <c r="E2395" s="0">
+        <v>597</v>
+      </c>
+      <c r="F2395" s="0">
+        <v>0.128056628056628</v>
+      </c>
+      <c r="G2395" s="0">
+        <v>367</v>
+      </c>
+      <c r="H2395" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2396">
+      <c r="A2396" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2396" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2396" s="0">
+        <v>28499</v>
+      </c>
+      <c r="D2396" s="0">
+        <v>9.34025957000524E-02</v>
+      </c>
+      <c r="E2396" s="0">
+        <v>480</v>
+      </c>
+      <c r="F2396" s="0">
+        <v>0.102960102960103</v>
+      </c>
+      <c r="G2396" s="0">
+        <v>750</v>
+      </c>
+      <c r="H2396" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2397">
+      <c r="A2397" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2397" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2397" s="0">
+        <v>16995</v>
+      </c>
+      <c r="D2397" s="0">
+        <v>5.56993969585737E-02</v>
+      </c>
+      <c r="E2397" s="0">
+        <v>272</v>
+      </c>
+      <c r="F2397" s="0">
+        <v>5.83440583440583E-02</v>
+      </c>
+      <c r="G2397" s="0">
+        <v>1171</v>
+      </c>
+      <c r="H2397" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2398">
+      <c r="A2398" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2398" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2398" s="0">
+        <v>9252</v>
+      </c>
+      <c r="D2398" s="0">
+        <v>3.03224960671211E-02</v>
+      </c>
+      <c r="E2398" s="0">
+        <v>206</v>
+      </c>
+      <c r="F2398" s="0">
+        <v>4.41870441870442E-02</v>
+      </c>
+      <c r="G2398" s="0">
+        <v>1366</v>
+      </c>
+      <c r="H2398" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2399">
+      <c r="A2399" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B2399" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2399" s="0">
+        <v>426</v>
+      </c>
+      <c r="D2399" s="0">
+        <v>1.39617199790246E-03</v>
+      </c>
+      <c r="E2399" s="0">
+        <v>25</v>
+      </c>
+      <c r="F2399" s="0">
+        <v>5.36250536250536E-03</v>
+      </c>
+      <c r="G2399" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2399" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2400">
+      <c r="A2400" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2400" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2400" s="0">
+        <v>15257</v>
+      </c>
+      <c r="D2400" s="0">
+        <v>4.90678175964906E-02</v>
+      </c>
+      <c r="E2400" s="0">
+        <v>293</v>
+      </c>
+      <c r="F2400" s="0">
+        <v>0.050369606326285</v>
+      </c>
+      <c r="G2400" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2400" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2401">
+      <c r="A2401" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2401" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2401" s="0">
+        <v>41369</v>
+      </c>
+      <c r="D2401" s="0">
+        <v>0.133046244094463</v>
+      </c>
+      <c r="E2401" s="0">
+        <v>802</v>
+      </c>
+      <c r="F2401" s="0">
+        <v>0.137871755200275</v>
+      </c>
+      <c r="G2401" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2401" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2402">
+      <c r="A2402" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2402" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2402" s="0">
+        <v>60834</v>
+      </c>
+      <c r="D2402" s="0">
+        <v>0.195647349784683</v>
+      </c>
+      <c r="E2402" s="0">
+        <v>1067</v>
+      </c>
+      <c r="F2402" s="0">
+        <v>0.183427883788895</v>
+      </c>
+      <c r="G2402" s="0">
+        <v>25</v>
+      </c>
+      <c r="H2402" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2403">
+      <c r="A2403" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2403" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2403" s="0">
+        <v>49475</v>
+      </c>
+      <c r="D2403" s="0">
+        <v>0.159115833754105</v>
+      </c>
+      <c r="E2403" s="0">
+        <v>874</v>
+      </c>
+      <c r="F2403" s="0">
+        <v>0.150249269382843</v>
+      </c>
+      <c r="G2403" s="0">
+        <v>54</v>
+      </c>
+      <c r="H2403" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2404">
+      <c r="A2404" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2404" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2404" s="0">
+        <v>46055</v>
+      </c>
+      <c r="D2404" s="0">
+        <v>0.148116821092376</v>
+      </c>
+      <c r="E2404" s="0">
+        <v>857</v>
+      </c>
+      <c r="F2404" s="0">
+        <v>0.147326800756404</v>
+      </c>
+      <c r="G2404" s="0">
+        <v>139</v>
+      </c>
+      <c r="H2404" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2405">
+      <c r="A2405" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2405" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2405" s="0">
+        <v>41637</v>
+      </c>
+      <c r="D2405" s="0">
+        <v>0.133908155028189</v>
+      </c>
+      <c r="E2405" s="0">
+        <v>786</v>
+      </c>
+      <c r="F2405" s="0">
+        <v>0.135121196493038</v>
+      </c>
+      <c r="G2405" s="0">
+        <v>367</v>
+      </c>
+      <c r="H2405" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2406">
+      <c r="A2406" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2406" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2406" s="0">
+        <v>29102</v>
+      </c>
+      <c r="D2406" s="0">
+        <v>0.093594522363051</v>
+      </c>
+      <c r="E2406" s="0">
+        <v>603</v>
+      </c>
+      <c r="F2406" s="0">
+        <v>0.10366168127901</v>
+      </c>
+      <c r="G2406" s="0">
+        <v>753</v>
+      </c>
+      <c r="H2406" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2407">
+      <c r="A2407" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2407" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2407" s="0">
+        <v>17360</v>
+      </c>
+      <c r="D2407" s="0">
+        <v>5.58312455577818E-02</v>
+      </c>
+      <c r="E2407" s="0">
+        <v>365</v>
+      </c>
+      <c r="F2407" s="0">
+        <v>6.27471205088534E-02</v>
+      </c>
+      <c r="G2407" s="0">
+        <v>1175</v>
+      </c>
+      <c r="H2407" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2408">
+      <c r="A2408" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2408" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2408" s="0">
+        <v>9408</v>
+      </c>
+      <c r="D2408" s="0">
+        <v>3.02569330764753E-02</v>
+      </c>
+      <c r="E2408" s="0">
+        <v>156</v>
+      </c>
+      <c r="F2408" s="0">
+        <v>2.68179473955647E-02</v>
+      </c>
+      <c r="G2408" s="0">
+        <v>1374</v>
+      </c>
+      <c r="H2408" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2409">
+      <c r="A2409" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B2409" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2409" s="0">
+        <v>440</v>
+      </c>
+      <c r="D2409" s="0">
+        <v>1.41507765238617E-03</v>
+      </c>
+      <c r="E2409" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2409" s="0">
+        <v>2.40673886883273E-03</v>
+      </c>
+      <c r="G2409" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2409" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2410">
+      <c r="A2410" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2410" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2410" s="0">
+        <v>15639</v>
+      </c>
+      <c r="D2410" s="0">
+        <v>4.90422969820125E-02</v>
+      </c>
+      <c r="E2410" s="0">
+        <v>382</v>
+      </c>
+      <c r="F2410" s="0">
+        <v>4.80442711608603E-02</v>
+      </c>
+      <c r="G2410" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2410" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2411">
+      <c r="A2411" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2411" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2411" s="0">
+        <v>42517</v>
+      </c>
+      <c r="D2411" s="0">
+        <v>0.133328943077193</v>
+      </c>
+      <c r="E2411" s="0">
+        <v>1148</v>
+      </c>
+      <c r="F2411" s="0">
+        <v>0.144384354169287</v>
+      </c>
+      <c r="G2411" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2411" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2412">
+      <c r="A2412" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2412" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2412" s="0">
+        <v>62152</v>
+      </c>
+      <c r="D2412" s="0">
+        <v>0.194902285441911</v>
+      </c>
+      <c r="E2412" s="0">
+        <v>1318</v>
+      </c>
+      <c r="F2412" s="0">
+        <v>0.165765312539303</v>
+      </c>
+      <c r="G2412" s="0">
+        <v>25</v>
+      </c>
+      <c r="H2412" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2413">
+      <c r="A2413" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2413" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2413" s="0">
+        <v>50657</v>
+      </c>
+      <c r="D2413" s="0">
+        <v>0.158855146634555</v>
+      </c>
+      <c r="E2413" s="0">
+        <v>1182</v>
+      </c>
+      <c r="F2413" s="0">
+        <v>0.14866054584329</v>
+      </c>
+      <c r="G2413" s="0">
+        <v>54</v>
+      </c>
+      <c r="H2413" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2414">
+      <c r="A2414" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2414" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2414" s="0">
+        <v>47290</v>
+      </c>
+      <c r="D2414" s="0">
+        <v>0.148296580617646</v>
+      </c>
+      <c r="E2414" s="0">
+        <v>1235</v>
+      </c>
+      <c r="F2414" s="0">
+        <v>0.155326374041001</v>
+      </c>
+      <c r="G2414" s="0">
+        <v>139</v>
+      </c>
+      <c r="H2414" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2415">
+      <c r="A2415" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2415" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2415" s="0">
+        <v>42729</v>
+      </c>
+      <c r="D2415" s="0">
+        <v>0.133993753292692</v>
+      </c>
+      <c r="E2415" s="0">
+        <v>1092</v>
+      </c>
+      <c r="F2415" s="0">
+        <v>0.137341214941517</v>
+      </c>
+      <c r="G2415" s="0">
+        <v>371</v>
+      </c>
+      <c r="H2415" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2416">
+      <c r="A2416" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2416" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2416" s="0">
+        <v>29911</v>
+      </c>
+      <c r="D2416" s="0">
+        <v>9.37978224329545E-02</v>
+      </c>
+      <c r="E2416" s="0">
+        <v>809</v>
+      </c>
+      <c r="F2416" s="0">
+        <v>0.101748207772607</v>
+      </c>
+      <c r="G2416" s="0">
+        <v>759</v>
+      </c>
+      <c r="H2416" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2417">
+      <c r="A2417" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2417" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2417" s="0">
+        <v>17848</v>
+      </c>
+      <c r="D2417" s="0">
+        <v>5.59694939916209E-02</v>
+      </c>
+      <c r="E2417" s="0">
+        <v>488</v>
+      </c>
+      <c r="F2417" s="0">
+        <v>6.13759275562822E-02</v>
+      </c>
+      <c r="G2417" s="0">
+        <v>1188</v>
+      </c>
+      <c r="H2417" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2418">
+      <c r="A2418" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2418" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2418" s="0">
+        <v>9678</v>
+      </c>
+      <c r="D2418" s="0">
+        <v>3.03492135169715E-02</v>
+      </c>
+      <c r="E2418" s="0">
+        <v>270</v>
+      </c>
+      <c r="F2418" s="0">
+        <v>3.39579927053201E-02</v>
+      </c>
+      <c r="G2418" s="0">
+        <v>1382</v>
+      </c>
+      <c r="H2418" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2419">
+      <c r="A2419" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B2419" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2419" s="0">
+        <v>467</v>
+      </c>
+      <c r="D2419" s="0">
+        <v>1.46446401244324E-03</v>
+      </c>
+      <c r="E2419" s="0">
+        <v>27</v>
+      </c>
+      <c r="F2419" s="0">
+        <v>3.39579927053201E-03</v>
+      </c>
+      <c r="G2419" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2419" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2420">
+      <c r="A2420" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2420" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2420" s="0">
+        <v>15740</v>
+      </c>
+      <c r="D2420" s="0">
+        <v>4.90756994222537E-02</v>
+      </c>
+      <c r="E2420" s="0">
+        <v>101</v>
+      </c>
+      <c r="F2420" s="0">
+        <v>5.48614883215644E-02</v>
+      </c>
+      <c r="G2420" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2420" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2421">
+      <c r="A2421" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2421" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2421" s="0">
+        <v>42736</v>
+      </c>
+      <c r="D2421" s="0">
+        <v>0.133246447935796</v>
+      </c>
+      <c r="E2421" s="0">
+        <v>219</v>
+      </c>
+      <c r="F2421" s="0">
+        <v>0.118957088538838</v>
+      </c>
+      <c r="G2421" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2421" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2422">
+      <c r="A2422" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2422" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2422" s="0">
+        <v>62475</v>
+      </c>
+      <c r="D2422" s="0">
+        <v>0.194790617624225</v>
+      </c>
+      <c r="E2422" s="0">
+        <v>323</v>
+      </c>
+      <c r="F2422" s="0">
+        <v>0.175448126018468</v>
+      </c>
+      <c r="G2422" s="0">
+        <v>25</v>
+      </c>
+      <c r="H2422" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2423">
+      <c r="A2423" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2423" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2423" s="0">
+        <v>50921</v>
+      </c>
+      <c r="D2423" s="0">
+        <v>0.158766435214776</v>
+      </c>
+      <c r="E2423" s="0">
+        <v>264</v>
+      </c>
+      <c r="F2423" s="0">
+        <v>0.143400325909832</v>
+      </c>
+      <c r="G2423" s="0">
+        <v>55</v>
+      </c>
+      <c r="H2423" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2424">
+      <c r="A2424" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2424" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2424" s="0">
+        <v>47547</v>
+      </c>
+      <c r="D2424" s="0">
+        <v>0.148246650599104</v>
+      </c>
+      <c r="E2424" s="0">
+        <v>257</v>
+      </c>
+      <c r="F2424" s="0">
+        <v>0.13959804454101</v>
+      </c>
+      <c r="G2424" s="0">
+        <v>139</v>
+      </c>
+      <c r="H2424" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2425">
+      <c r="A2425" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2425" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2425" s="0">
+        <v>42994</v>
+      </c>
+      <c r="D2425" s="0">
+        <v>0.134050865372324</v>
+      </c>
+      <c r="E2425" s="0">
+        <v>265</v>
+      </c>
+      <c r="F2425" s="0">
+        <v>0.14394350896252</v>
+      </c>
+      <c r="G2425" s="0">
+        <v>373</v>
+      </c>
+      <c r="H2425" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2426">
+      <c r="A2426" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2426" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2426" s="0">
+        <v>30134</v>
+      </c>
+      <c r="D2426" s="0">
+        <v>9.39547094275853E-02</v>
+      </c>
+      <c r="E2426" s="0">
+        <v>223</v>
+      </c>
+      <c r="F2426" s="0">
+        <v>0.121129820749593</v>
+      </c>
+      <c r="G2426" s="0">
+        <v>777</v>
+      </c>
+      <c r="H2426" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2427">
+      <c r="A2427" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2427" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2427" s="0">
+        <v>17958</v>
+      </c>
+      <c r="D2427" s="0">
+        <v>5.59911950587568E-02</v>
+      </c>
+      <c r="E2427" s="0">
+        <v>110</v>
+      </c>
+      <c r="F2427" s="0">
+        <v>5.97501357957632E-02</v>
+      </c>
+      <c r="G2427" s="0">
+        <v>1207</v>
+      </c>
+      <c r="H2427" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2428">
+      <c r="A2428" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2428" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2428" s="0">
+        <v>9753</v>
+      </c>
+      <c r="D2428" s="0">
+        <v>3.04088498389606E-02</v>
+      </c>
+      <c r="E2428" s="0">
+        <v>75</v>
+      </c>
+      <c r="F2428" s="0">
+        <v>4.07387289516567E-02</v>
+      </c>
+      <c r="G2428" s="0">
+        <v>1414</v>
+      </c>
+      <c r="H2428" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2429">
+      <c r="A2429" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B2429" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2429" s="0">
+        <v>471</v>
+      </c>
+      <c r="D2429" s="0">
+        <v>1.46852950621865E-03</v>
+      </c>
+      <c r="E2429" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2429" s="0">
+        <v>2.17273221075502E-03</v>
+      </c>
+      <c r="G2429" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2429" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2430">
+      <c r="A2430" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2430" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2430" s="0">
+        <v>15962</v>
+      </c>
+      <c r="D2430" s="0">
+        <v>4.90834899031676E-02</v>
+      </c>
+      <c r="E2430" s="0">
+        <v>222</v>
+      </c>
+      <c r="F2430" s="0">
+        <v>4.96422182468694E-02</v>
+      </c>
+      <c r="G2430" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2430" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2431">
+      <c r="A2431" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2431" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2431" s="0">
+        <v>43341</v>
+      </c>
+      <c r="D2431" s="0">
+        <v>0.133274497925898</v>
+      </c>
+      <c r="E2431" s="0">
+        <v>605</v>
+      </c>
+      <c r="F2431" s="0">
+        <v>0.135286225402504</v>
+      </c>
+      <c r="G2431" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2431" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2432">
+      <c r="A2432" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2432" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2432" s="0">
+        <v>63263</v>
+      </c>
+      <c r="D2432" s="0">
+        <v>0.194535072155375</v>
+      </c>
+      <c r="E2432" s="0">
+        <v>788</v>
+      </c>
+      <c r="F2432" s="0">
+        <v>0.176207513416816</v>
+      </c>
+      <c r="G2432" s="0">
+        <v>25</v>
+      </c>
+      <c r="H2432" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2433">
+      <c r="A2433" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2433" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2433" s="0">
+        <v>51566</v>
+      </c>
+      <c r="D2433" s="0">
+        <v>0.158566548073345</v>
+      </c>
+      <c r="E2433" s="0">
+        <v>645</v>
+      </c>
+      <c r="F2433" s="0">
+        <v>0.144230769230769</v>
+      </c>
+      <c r="G2433" s="0">
+        <v>57</v>
+      </c>
+      <c r="H2433" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2434">
+      <c r="A2434" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2434" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2434" s="0">
+        <v>48213</v>
+      </c>
+      <c r="D2434" s="0">
+        <v>0.148256001672812</v>
+      </c>
+      <c r="E2434" s="0">
+        <v>666</v>
+      </c>
+      <c r="F2434" s="0">
+        <v>0.148926654740608</v>
+      </c>
+      <c r="G2434" s="0">
+        <v>140</v>
+      </c>
+      <c r="H2434" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2435">
+      <c r="A2435" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2435" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2435" s="0">
+        <v>43605</v>
+      </c>
+      <c r="D2435" s="0">
+        <v>0.134086303547652</v>
+      </c>
+      <c r="E2435" s="0">
+        <v>611</v>
+      </c>
+      <c r="F2435" s="0">
+        <v>0.136627906976744</v>
+      </c>
+      <c r="G2435" s="0">
+        <v>377</v>
+      </c>
+      <c r="H2435" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2436">
+      <c r="A2436" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2436" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2436" s="0">
+        <v>30599</v>
+      </c>
+      <c r="D2436" s="0">
+        <v>9.40925765910929E-02</v>
+      </c>
+      <c r="E2436" s="0">
+        <v>465</v>
+      </c>
+      <c r="F2436" s="0">
+        <v>0.103980322003578</v>
+      </c>
+      <c r="G2436" s="0">
+        <v>784</v>
+      </c>
+      <c r="H2436" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2437">
+      <c r="A2437" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2437" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2437" s="0">
+        <v>18268</v>
+      </c>
+      <c r="D2437" s="0">
+        <v>5.61744890083364E-02</v>
+      </c>
+      <c r="E2437" s="0">
+        <v>310</v>
+      </c>
+      <c r="F2437" s="0">
+        <v>6.93202146690519E-02</v>
+      </c>
+      <c r="G2437" s="0">
+        <v>1221</v>
+      </c>
+      <c r="H2437" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2438">
+      <c r="A2438" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2438" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2438" s="0">
+        <v>9892</v>
+      </c>
+      <c r="D2438" s="0">
+        <v>3.04181106454162E-02</v>
+      </c>
+      <c r="E2438" s="0">
+        <v>139</v>
+      </c>
+      <c r="F2438" s="0">
+        <v>0.03108228980322</v>
+      </c>
+      <c r="G2438" s="0">
+        <v>1438</v>
+      </c>
+      <c r="H2438" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2439">
+      <c r="A2439" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B2439" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2439" s="0">
+        <v>492</v>
+      </c>
+      <c r="D2439" s="0">
+        <v>1.51291047690505E-03</v>
+      </c>
+      <c r="E2439" s="0">
+        <v>21</v>
+      </c>
+      <c r="F2439" s="0">
+        <v>0.004695885509839</v>
+      </c>
+      <c r="G2439" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2439" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2440">
+      <c r="A2440" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2440" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2440" s="0">
+        <v>16107</v>
+      </c>
+      <c r="D2440" s="0">
+        <v>4.90935358806174E-02</v>
+      </c>
+      <c r="E2440" s="0">
+        <v>145</v>
+      </c>
+      <c r="F2440" s="0">
+        <v>5.02251472116384E-02</v>
+      </c>
+      <c r="G2440" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2440" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2441">
+      <c r="A2441" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2441" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2441" s="0">
+        <v>43702</v>
+      </c>
+      <c r="D2441" s="0">
+        <v>0.133202067737924</v>
+      </c>
+      <c r="E2441" s="0">
+        <v>361</v>
+      </c>
+      <c r="F2441" s="0">
+        <v>0.1250432975407</v>
+      </c>
+      <c r="G2441" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2441" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2442">
+      <c r="A2442" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2442" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2442" s="0">
+        <v>63789</v>
+      </c>
+      <c r="D2442" s="0">
+        <v>0.194426495330521</v>
+      </c>
+      <c r="E2442" s="0">
+        <v>526</v>
+      </c>
+      <c r="F2442" s="0">
+        <v>0.182196051264288</v>
+      </c>
+      <c r="G2442" s="0">
+        <v>25</v>
+      </c>
+      <c r="H2442" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2443">
+      <c r="A2443" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2443" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2443" s="0">
+        <v>51989</v>
+      </c>
+      <c r="D2443" s="0">
+        <v>0.15846053497842</v>
+      </c>
+      <c r="E2443" s="0">
+        <v>423</v>
+      </c>
+      <c r="F2443" s="0">
+        <v>0.146518877727745</v>
+      </c>
+      <c r="G2443" s="0">
+        <v>57</v>
+      </c>
+      <c r="H2443" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2444">
+      <c r="A2444" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2444" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2444" s="0">
+        <v>48674</v>
+      </c>
+      <c r="D2444" s="0">
+        <v>0.148356538489674</v>
+      </c>
+      <c r="E2444" s="0">
+        <v>461</v>
+      </c>
+      <c r="F2444" s="0">
+        <v>0.15968133010045</v>
+      </c>
+      <c r="G2444" s="0">
+        <v>141</v>
+      </c>
+      <c r="H2444" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2445">
+      <c r="A2445" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2445" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2445" s="0">
+        <v>44007</v>
+      </c>
+      <c r="D2445" s="0">
+        <v>0.134131696374144</v>
+      </c>
+      <c r="E2445" s="0">
+        <v>402</v>
+      </c>
+      <c r="F2445" s="0">
+        <v>0.139244890890197</v>
+      </c>
+      <c r="G2445" s="0">
+        <v>385</v>
+      </c>
+      <c r="H2445" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2446">
+      <c r="A2446" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2446" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2446" s="0">
+        <v>30880</v>
+      </c>
+      <c r="D2446" s="0">
+        <v>9.41210894638024E-02</v>
+      </c>
+      <c r="E2446" s="0">
+        <v>281</v>
+      </c>
+      <c r="F2446" s="0">
+        <v>9.73328714928992E-02</v>
+      </c>
+      <c r="G2446" s="0">
+        <v>793</v>
+      </c>
+      <c r="H2446" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2447">
+      <c r="A2447" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2447" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2447" s="0">
+        <v>18453</v>
+      </c>
+      <c r="D2447" s="0">
+        <v>5.62440564726537E-02</v>
+      </c>
+      <c r="E2447" s="0">
+        <v>185</v>
+      </c>
+      <c r="F2447" s="0">
+        <v>6.40803602355386E-02</v>
+      </c>
+      <c r="G2447" s="0">
+        <v>1237</v>
+      </c>
+      <c r="H2447" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2448">
+      <c r="A2448" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2448" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2448" s="0">
+        <v>10001</v>
+      </c>
+      <c r="D2448" s="0">
+        <v>3.04826753797762E-02</v>
+      </c>
+      <c r="E2448" s="0">
+        <v>109</v>
+      </c>
+      <c r="F2448" s="0">
+        <v>3.77554554901282E-02</v>
+      </c>
+      <c r="G2448" s="0">
+        <v>1484</v>
+      </c>
+      <c r="H2448" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2449">
+      <c r="A2449" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B2449" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2449" s="0">
+        <v>486</v>
+      </c>
+      <c r="D2449" s="0">
+        <v>1.48130989246787E-03</v>
+      </c>
+      <c r="E2449" s="0">
+        <v>-6</v>
+      </c>
+      <c r="F2449" s="0">
+        <v>-2.07828195358504E-03</v>
+      </c>
+      <c r="G2449" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2449" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2450">
+      <c r="A2450" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2450" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2450" s="0">
+        <v>16278</v>
+      </c>
+      <c r="D2450" s="0">
+        <v>4.90993327944211E-02</v>
+      </c>
+      <c r="E2450" s="0">
+        <v>171</v>
+      </c>
+      <c r="F2450" s="0">
+        <v>4.96515679442509E-02</v>
+      </c>
+      <c r="G2450" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2450" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2451">
+      <c r="A2451" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2451" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2451" s="0">
+        <v>44187</v>
+      </c>
+      <c r="D2451" s="0">
+        <v>0.133281251885188</v>
+      </c>
+      <c r="E2451" s="0">
+        <v>485</v>
+      </c>
+      <c r="F2451" s="0">
+        <v>0.14082462253194</v>
+      </c>
+      <c r="G2451" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2451" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2452">
+      <c r="A2452" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2452" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2452" s="0">
+        <v>64357</v>
+      </c>
+      <c r="D2452" s="0">
+        <v>0.194120024613009</v>
+      </c>
+      <c r="E2452" s="0">
+        <v>568</v>
+      </c>
+      <c r="F2452" s="0">
+        <v>0.164924506387921</v>
+      </c>
+      <c r="G2452" s="0">
+        <v>26</v>
+      </c>
+      <c r="H2452" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2453">
+      <c r="A2453" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2453" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2453" s="0">
+        <v>52515</v>
+      </c>
+      <c r="D2453" s="0">
+        <v>0.158400998998588</v>
+      </c>
+      <c r="E2453" s="0">
+        <v>526</v>
+      </c>
+      <c r="F2453" s="0">
+        <v>0.152729384436702</v>
+      </c>
+      <c r="G2453" s="0">
+        <v>56</v>
+      </c>
+      <c r="H2453" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2454">
+      <c r="A2454" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2454" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2454" s="0">
+        <v>49228</v>
+      </c>
+      <c r="D2454" s="0">
+        <v>0.148486420617014</v>
+      </c>
+      <c r="E2454" s="0">
+        <v>554</v>
+      </c>
+      <c r="F2454" s="0">
+        <v>0.160859465737515</v>
+      </c>
+      <c r="G2454" s="0">
+        <v>143</v>
+      </c>
+      <c r="H2454" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2455">
+      <c r="A2455" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2455" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2455" s="0">
+        <v>44469</v>
+      </c>
+      <c r="D2455" s="0">
+        <v>0.134131848509345</v>
+      </c>
+      <c r="E2455" s="0">
+        <v>462</v>
+      </c>
+      <c r="F2455" s="0">
+        <v>0.134146341463415</v>
+      </c>
+      <c r="G2455" s="0">
+        <v>392</v>
+      </c>
+      <c r="H2455" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2456">
+      <c r="A2456" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2456" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2456" s="0">
+        <v>31257</v>
+      </c>
+      <c r="D2456" s="0">
+        <v>0.094280491777566</v>
+      </c>
+      <c r="E2456" s="0">
+        <v>377</v>
+      </c>
+      <c r="F2456" s="0">
+        <v>0.109465737514518</v>
+      </c>
+      <c r="G2456" s="0">
+        <v>800</v>
+      </c>
+      <c r="H2456" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2457">
+      <c r="A2457" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2457" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2457" s="0">
+        <v>18660</v>
+      </c>
+      <c r="D2457" s="0">
+        <v>5.62841595984701E-02</v>
+      </c>
+      <c r="E2457" s="0">
+        <v>207</v>
+      </c>
+      <c r="F2457" s="0">
+        <v>6.01045296167247E-02</v>
+      </c>
+      <c r="G2457" s="0">
+        <v>1263</v>
+      </c>
+      <c r="H2457" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2458">
+      <c r="A2458" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2458" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2458" s="0">
+        <v>10101</v>
+      </c>
+      <c r="D2458" s="0">
+        <v>3.04676471652812E-02</v>
+      </c>
+      <c r="E2458" s="0">
+        <v>100</v>
+      </c>
+      <c r="F2458" s="0">
+        <v>2.90360046457607E-02</v>
+      </c>
+      <c r="G2458" s="0">
+        <v>1516</v>
+      </c>
+      <c r="H2458" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2459">
+      <c r="A2459" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B2459" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2459" s="0">
+        <v>480</v>
+      </c>
+      <c r="D2459" s="0">
+        <v>1.4478240411182E-03</v>
+      </c>
+      <c r="E2459" s="0">
+        <v>-6</v>
+      </c>
+      <c r="F2459" s="0">
+        <v>-1.74216027874564E-03</v>
+      </c>
+      <c r="G2459" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2459" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2460">
+      <c r="A2460" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2460" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2460" s="0">
+        <v>16508</v>
+      </c>
+      <c r="D2460" s="0">
+        <v>4.91474811469333E-02</v>
+      </c>
+      <c r="E2460" s="0">
+        <v>230</v>
+      </c>
+      <c r="F2460" s="0">
+        <v>0.052812858783008</v>
+      </c>
+      <c r="G2460" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2460" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2461">
+      <c r="A2461" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2461" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2461" s="0">
+        <v>44757</v>
+      </c>
+      <c r="D2461" s="0">
+        <v>0.133250170444227</v>
+      </c>
+      <c r="E2461" s="0">
+        <v>570</v>
+      </c>
+      <c r="F2461" s="0">
+        <v>0.130884041331803</v>
+      </c>
+      <c r="G2461" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2461" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2462">
+      <c r="A2462" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2462" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2462" s="0">
+        <v>65046</v>
+      </c>
+      <c r="D2462" s="0">
+        <v>0.193654413537886</v>
+      </c>
+      <c r="E2462" s="0">
+        <v>689</v>
+      </c>
+      <c r="F2462" s="0">
+        <v>0.158208955223881</v>
+      </c>
+      <c r="G2462" s="0">
+        <v>26</v>
+      </c>
+      <c r="H2462" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2463">
+      <c r="A2463" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2463" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2463" s="0">
+        <v>53173</v>
+      </c>
+      <c r="D2463" s="0">
+        <v>0.158306216078622</v>
+      </c>
+      <c r="E2463" s="0">
+        <v>658</v>
+      </c>
+      <c r="F2463" s="0">
+        <v>0.151090700344432</v>
+      </c>
+      <c r="G2463" s="0">
+        <v>56</v>
+      </c>
+      <c r="H2463" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2464">
+      <c r="A2464" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2464" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2464" s="0">
+        <v>49909</v>
+      </c>
+      <c r="D2464" s="0">
+        <v>0.148588662258438</v>
+      </c>
+      <c r="E2464" s="0">
+        <v>681</v>
+      </c>
+      <c r="F2464" s="0">
+        <v>0.156371986222732</v>
+      </c>
+      <c r="G2464" s="0">
+        <v>144</v>
+      </c>
+      <c r="H2464" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2465">
+      <c r="A2465" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2465" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2465" s="0">
+        <v>45107</v>
+      </c>
+      <c r="D2465" s="0">
+        <v>0.13429218755117</v>
+      </c>
+      <c r="E2465" s="0">
+        <v>638</v>
+      </c>
+      <c r="F2465" s="0">
+        <v>0.146498277841561</v>
+      </c>
+      <c r="G2465" s="0">
+        <v>392</v>
+      </c>
+      <c r="H2465" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2466">
+      <c r="A2466" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2466" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2466" s="0">
+        <v>31702</v>
+      </c>
+      <c r="D2466" s="0">
+        <v>9.43829323552266E-02</v>
+      </c>
+      <c r="E2466" s="0">
+        <v>445</v>
+      </c>
+      <c r="F2466" s="0">
+        <v>0.102181400688863</v>
+      </c>
+      <c r="G2466" s="0">
+        <v>805</v>
+      </c>
+      <c r="H2466" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2467">
+      <c r="A2467" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2467" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2467" s="0">
+        <v>18939</v>
+      </c>
+      <c r="D2467" s="0">
+        <v>5.63850342525909E-02</v>
+      </c>
+      <c r="E2467" s="0">
+        <v>279</v>
+      </c>
+      <c r="F2467" s="0">
+        <v>6.40642939150402E-02</v>
+      </c>
+      <c r="G2467" s="0">
+        <v>1264</v>
+      </c>
+      <c r="H2467" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2468">
+      <c r="A2468" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2468" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2468" s="0">
+        <v>10254</v>
+      </c>
+      <c r="D2468" s="0">
+        <v>3.05281240417164E-02</v>
+      </c>
+      <c r="E2468" s="0">
+        <v>153</v>
+      </c>
+      <c r="F2468" s="0">
+        <v>3.51320321469575E-02</v>
+      </c>
+      <c r="G2468" s="0">
+        <v>1518</v>
+      </c>
+      <c r="H2468" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2469">
+      <c r="A2469" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B2469" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2469" s="0">
+        <v>492</v>
+      </c>
+      <c r="D2469" s="0">
+        <v>1.46477833318944E-03</v>
+      </c>
+      <c r="E2469" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2469" s="0">
+        <v>2.75545350172216E-03</v>
+      </c>
+      <c r="G2469" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2469" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2470">
+      <c r="A2470" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2470" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2470" s="0">
+        <v>16752</v>
+      </c>
+      <c r="D2470" s="0">
+        <v>4.92017058471082E-02</v>
+      </c>
+      <c r="E2470" s="0">
+        <v>244</v>
+      </c>
+      <c r="F2470" s="0">
+        <v>5.31706254085857E-02</v>
+      </c>
+      <c r="G2470" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2470" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2471">
+      <c r="A2471" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2471" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2471" s="0">
+        <v>45373</v>
+      </c>
+      <c r="D2471" s="0">
+        <v>0.133263431196325</v>
+      </c>
+      <c r="E2471" s="0">
+        <v>616</v>
+      </c>
+      <c r="F2471" s="0">
+        <v>0.134234037916757</v>
+      </c>
+      <c r="G2471" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2471" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2472">
+      <c r="A2472" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2472" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2472" s="0">
+        <v>65824</v>
+      </c>
+      <c r="D2472" s="0">
+        <v>0.193329338925504</v>
+      </c>
+      <c r="E2472" s="0">
+        <v>778</v>
+      </c>
+      <c r="F2472" s="0">
+        <v>0.169535846589671</v>
+      </c>
+      <c r="G2472" s="0">
+        <v>26</v>
+      </c>
+      <c r="H2472" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2473">
+      <c r="A2473" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2473" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2473" s="0">
+        <v>53857</v>
+      </c>
+      <c r="D2473" s="0">
+        <v>0.158181487094538</v>
+      </c>
+      <c r="E2473" s="0">
+        <v>684</v>
+      </c>
+      <c r="F2473" s="0">
+        <v>0.149052081063413</v>
+      </c>
+      <c r="G2473" s="0">
+        <v>56</v>
+      </c>
+      <c r="H2473" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2474">
+      <c r="A2474" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2474" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2474" s="0">
+        <v>50582</v>
+      </c>
+      <c r="D2474" s="0">
+        <v>0.148562600594462</v>
+      </c>
+      <c r="E2474" s="0">
+        <v>673</v>
+      </c>
+      <c r="F2474" s="0">
+        <v>0.146655044672042</v>
+      </c>
+      <c r="G2474" s="0">
+        <v>146</v>
+      </c>
+      <c r="H2474" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2475">
+      <c r="A2475" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2475" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2475" s="0">
+        <v>45778</v>
+      </c>
+      <c r="D2475" s="0">
+        <v>0.134452942351296</v>
+      </c>
+      <c r="E2475" s="0">
+        <v>671</v>
+      </c>
+      <c r="F2475" s="0">
+        <v>0.146219219873611</v>
+      </c>
+      <c r="G2475" s="0">
+        <v>395</v>
+      </c>
+      <c r="H2475" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2476">
+      <c r="A2476" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2476" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2476" s="0">
+        <v>32175</v>
+      </c>
+      <c r="D2476" s="0">
+        <v>9.45000528671624E-02</v>
+      </c>
+      <c r="E2476" s="0">
+        <v>473</v>
+      </c>
+      <c r="F2476" s="0">
+        <v>0.103072564828939</v>
+      </c>
+      <c r="G2476" s="0">
+        <v>813</v>
+      </c>
+      <c r="H2476" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2477">
+      <c r="A2477" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2477" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2477" s="0">
+        <v>19261</v>
+      </c>
+      <c r="D2477" s="0">
+        <v>5.65708008787697E-02</v>
+      </c>
+      <c r="E2477" s="0">
+        <v>322</v>
+      </c>
+      <c r="F2477" s="0">
+        <v>7.01677925473959E-02</v>
+      </c>
+      <c r="G2477" s="0">
+        <v>1286</v>
+      </c>
+      <c r="H2477" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2478">
+      <c r="A2478" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2478" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2478" s="0">
+        <v>10380</v>
+      </c>
+      <c r="D2478" s="0">
+        <v>3.04867303422268E-02</v>
+      </c>
+      <c r="E2478" s="0">
+        <v>126</v>
+      </c>
+      <c r="F2478" s="0">
+        <v>2.74569623011549E-02</v>
+      </c>
+      <c r="G2478" s="0">
+        <v>1538</v>
+      </c>
+      <c r="H2478" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2479">
+      <c r="A2479" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B2479" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2479" s="0">
+        <v>494</v>
+      </c>
+      <c r="D2479" s="0">
+        <v>1.45090990260694E-03</v>
+      </c>
+      <c r="E2479" s="0">
+        <v>2</v>
+      </c>
+      <c r="F2479" s="0">
+        <v>4.35824798431031E-04</v>
+      </c>
+      <c r="G2479" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2479" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -66132,11 +68932,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1423</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1584</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1423</Url>
-      <Description>HJYU5V3E37X6-122305290-1423</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1584</Url>
+      <Description>HJYU5V3E37X6-122305290-1584</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -66159,17 +68959,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF05DA01-DB57-42F4-AE1D-10036A227125}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6F494F8-E5E8-4838-A12C-28950F5703B2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C01A4597-EBBC-412C-94C1-7E5246CA1A3E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1C9C968-6855-49BC-8C4C-04503CD1CC70}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63074E5C-B879-4AE2-AE2F-A337D74C5DDE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F99B31-482A-4212-B9F7-E2B79F760423}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88C081E5-6C59-47A5-990C-EA650A7802E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB964717-4827-4291-B233-8827B484034B}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2479</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2489</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2479"/>
+  <dimension ref="A1:H2489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -68500,6 +68500,286 @@
         <v>0</v>
       </c>
       <c r="H2479" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2480">
+      <c r="A2480" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2480" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2480" s="0">
+        <v>16983</v>
+      </c>
+      <c r="D2480" s="0">
+        <v>4.92903787548977E-02</v>
+      </c>
+      <c r="E2480" s="0">
+        <v>231</v>
+      </c>
+      <c r="F2480" s="0">
+        <v>5.67010309278351E-02</v>
+      </c>
+      <c r="G2480" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2480" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2481">
+      <c r="A2481" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2481" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2481" s="0">
+        <v>45947</v>
+      </c>
+      <c r="D2481" s="0">
+        <v>0.133353649687999</v>
+      </c>
+      <c r="E2481" s="0">
+        <v>574</v>
+      </c>
+      <c r="F2481" s="0">
+        <v>0.140893470790378</v>
+      </c>
+      <c r="G2481" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2481" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2482">
+      <c r="A2482" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2482" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2482" s="0">
+        <v>66533</v>
+      </c>
+      <c r="D2482" s="0">
+        <v>0.19310114642287</v>
+      </c>
+      <c r="E2482" s="0">
+        <v>709</v>
+      </c>
+      <c r="F2482" s="0">
+        <v>0.174030436917035</v>
+      </c>
+      <c r="G2482" s="0">
+        <v>27</v>
+      </c>
+      <c r="H2482" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2483">
+      <c r="A2483" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2483" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2483" s="0">
+        <v>54441</v>
+      </c>
+      <c r="D2483" s="0">
+        <v>0.1580060949064</v>
+      </c>
+      <c r="E2483" s="0">
+        <v>584</v>
+      </c>
+      <c r="F2483" s="0">
+        <v>0.143348060873834</v>
+      </c>
+      <c r="G2483" s="0">
+        <v>57</v>
+      </c>
+      <c r="H2483" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2484">
+      <c r="A2484" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2484" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2484" s="0">
+        <v>51173</v>
+      </c>
+      <c r="D2484" s="0">
+        <v>0.148521259613989</v>
+      </c>
+      <c r="E2484" s="0">
+        <v>591</v>
+      </c>
+      <c r="F2484" s="0">
+        <v>0.145066273932253</v>
+      </c>
+      <c r="G2484" s="0">
+        <v>147</v>
+      </c>
+      <c r="H2484" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2485">
+      <c r="A2485" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2485" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2485" s="0">
+        <v>46422</v>
+      </c>
+      <c r="D2485" s="0">
+        <v>0.134732259468872</v>
+      </c>
+      <c r="E2485" s="0">
+        <v>644</v>
+      </c>
+      <c r="F2485" s="0">
+        <v>0.15807560137457</v>
+      </c>
+      <c r="G2485" s="0">
+        <v>399</v>
+      </c>
+      <c r="H2485" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2486">
+      <c r="A2486" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2486" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2486" s="0">
+        <v>32571</v>
+      </c>
+      <c r="D2486" s="0">
+        <v>9.45319982585982E-02</v>
+      </c>
+      <c r="E2486" s="0">
+        <v>396</v>
+      </c>
+      <c r="F2486" s="0">
+        <v>9.72017673048601E-02</v>
+      </c>
+      <c r="G2486" s="0">
+        <v>818</v>
+      </c>
+      <c r="H2486" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2487">
+      <c r="A2487" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2487" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2487" s="0">
+        <v>19489</v>
+      </c>
+      <c r="D2487" s="0">
+        <v>5.65636337251487E-02</v>
+      </c>
+      <c r="E2487" s="0">
+        <v>228</v>
+      </c>
+      <c r="F2487" s="0">
+        <v>5.59646539027982E-02</v>
+      </c>
+      <c r="G2487" s="0">
+        <v>1298</v>
+      </c>
+      <c r="H2487" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2488">
+      <c r="A2488" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2488" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2488" s="0">
+        <v>10482</v>
+      </c>
+      <c r="D2488" s="0">
+        <v>3.04222899434044E-02</v>
+      </c>
+      <c r="E2488" s="0">
+        <v>102</v>
+      </c>
+      <c r="F2488" s="0">
+        <v>2.50368188512518E-02</v>
+      </c>
+      <c r="G2488" s="0">
+        <v>1549</v>
+      </c>
+      <c r="H2488" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2489">
+      <c r="A2489" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2489" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2489" s="0">
+        <v>509</v>
+      </c>
+      <c r="D2489" s="0">
+        <v>1.47728921782035E-03</v>
+      </c>
+      <c r="E2489" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2489" s="0">
+        <v>3.68188512518409E-03</v>
+      </c>
+      <c r="G2489" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2489" s="0">
         <v>0</v>
       </c>
     </row>
@@ -68932,11 +69212,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1584</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1595</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1584</Url>
-      <Description>HJYU5V3E37X6-122305290-1584</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1595</Url>
+      <Description>HJYU5V3E37X6-122305290-1595</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -68959,17 +69239,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6F494F8-E5E8-4838-A12C-28950F5703B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C524A510-FC0D-4092-A8BC-88E29461F586}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1C9C968-6855-49BC-8C4C-04503CD1CC70}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84996439-2172-4FD3-A448-891EE07B646C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F99B31-482A-4212-B9F7-E2B79F760423}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A13C5BBF-C99F-4518-9A4F-3A80C3D363B8}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB964717-4827-4291-B233-8827B484034B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0BCCC9-2723-4D8E-83C4-304D99B0269D}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2489</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2499</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2489"/>
+  <dimension ref="A1:H2499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -68780,6 +68780,286 @@
         <v>0</v>
       </c>
       <c r="H2489" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2490">
+      <c r="A2490" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2490" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2490" s="0">
+        <v>17049</v>
+      </c>
+      <c r="D2490" s="0">
+        <v>4.92953674093693E-02</v>
+      </c>
+      <c r="E2490" s="0">
+        <v>66</v>
+      </c>
+      <c r="F2490" s="0">
+        <v>5.06134969325153E-02</v>
+      </c>
+      <c r="G2490" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2490" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2491">
+      <c r="A2491" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2491" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2491" s="0">
+        <v>46115</v>
+      </c>
+      <c r="D2491" s="0">
+        <v>0.133336610245942</v>
+      </c>
+      <c r="E2491" s="0">
+        <v>168</v>
+      </c>
+      <c r="F2491" s="0">
+        <v>0.128834355828221</v>
+      </c>
+      <c r="G2491" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2491" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2492">
+      <c r="A2492" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2492" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2492" s="0">
+        <v>66742</v>
+      </c>
+      <c r="D2492" s="0">
+        <v>0.192977383520214</v>
+      </c>
+      <c r="E2492" s="0">
+        <v>209</v>
+      </c>
+      <c r="F2492" s="0">
+        <v>0.160276073619632</v>
+      </c>
+      <c r="G2492" s="0">
+        <v>27</v>
+      </c>
+      <c r="H2492" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2493">
+      <c r="A2493" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2493" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2493" s="0">
+        <v>54617</v>
+      </c>
+      <c r="D2493" s="0">
+        <v>0.157919237597368</v>
+      </c>
+      <c r="E2493" s="0">
+        <v>176</v>
+      </c>
+      <c r="F2493" s="0">
+        <v>0.134969325153374</v>
+      </c>
+      <c r="G2493" s="0">
+        <v>58</v>
+      </c>
+      <c r="H2493" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2494">
+      <c r="A2494" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2494" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2494" s="0">
+        <v>51371</v>
+      </c>
+      <c r="D2494" s="0">
+        <v>0.148533774367219</v>
+      </c>
+      <c r="E2494" s="0">
+        <v>198</v>
+      </c>
+      <c r="F2494" s="0">
+        <v>0.151840490797546</v>
+      </c>
+      <c r="G2494" s="0">
+        <v>148</v>
+      </c>
+      <c r="H2494" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2495">
+      <c r="A2495" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2495" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2495" s="0">
+        <v>46606</v>
+      </c>
+      <c r="D2495" s="0">
+        <v>0.134756284443725</v>
+      </c>
+      <c r="E2495" s="0">
+        <v>184</v>
+      </c>
+      <c r="F2495" s="0">
+        <v>0.141104294478528</v>
+      </c>
+      <c r="G2495" s="0">
+        <v>403</v>
+      </c>
+      <c r="H2495" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2496">
+      <c r="A2496" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2496" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2496" s="0">
+        <v>32723</v>
+      </c>
+      <c r="D2496" s="0">
+        <v>9.46150687862508E-02</v>
+      </c>
+      <c r="E2496" s="0">
+        <v>152</v>
+      </c>
+      <c r="F2496" s="0">
+        <v>0.116564417177914</v>
+      </c>
+      <c r="G2496" s="0">
+        <v>828</v>
+      </c>
+      <c r="H2496" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2497">
+      <c r="A2497" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2497" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2497" s="0">
+        <v>19601</v>
+      </c>
+      <c r="D2497" s="0">
+        <v>5.66742035656664E-02</v>
+      </c>
+      <c r="E2497" s="0">
+        <v>112</v>
+      </c>
+      <c r="F2497" s="0">
+        <v>8.58895705521472E-02</v>
+      </c>
+      <c r="G2497" s="0">
+        <v>1317</v>
+      </c>
+      <c r="H2497" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2498">
+      <c r="A2498" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2498" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2498" s="0">
+        <v>10527</v>
+      </c>
+      <c r="D2498" s="0">
+        <v>3.04376991447258E-02</v>
+      </c>
+      <c r="E2498" s="0">
+        <v>45</v>
+      </c>
+      <c r="F2498" s="0">
+        <v>3.45092024539877E-02</v>
+      </c>
+      <c r="G2498" s="0">
+        <v>1587</v>
+      </c>
+      <c r="H2498" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2499">
+      <c r="A2499" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2499" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2499" s="0">
+        <v>503</v>
+      </c>
+      <c r="D2499" s="0">
+        <v>1.45437091952095E-03</v>
+      </c>
+      <c r="E2499" s="0">
+        <v>-6</v>
+      </c>
+      <c r="F2499" s="0">
+        <v>-4.60122699386503E-03</v>
+      </c>
+      <c r="G2499" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2499" s="0">
         <v>0</v>
       </c>
     </row>
@@ -69212,11 +69492,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1595</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1606</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1595</Url>
-      <Description>HJYU5V3E37X6-122305290-1595</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1606</Url>
+      <Description>HJYU5V3E37X6-122305290-1606</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -69239,17 +69519,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C524A510-FC0D-4092-A8BC-88E29461F586}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5763162-F47F-471B-B047-866F9F0FAA88}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84996439-2172-4FD3-A448-891EE07B646C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3058AC4A-3B50-4A22-B6DA-8ECBDA8CF4EF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A13C5BBF-C99F-4518-9A4F-3A80C3D363B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{064DA22A-BB21-4B4D-A6FE-446DB527EA30}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0BCCC9-2723-4D8E-83C4-304D99B0269D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF23279-B584-4EDD-9D3A-C62236A36418}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2499</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2509</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2499"/>
+  <dimension ref="A1:H2509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -69061,6 +69061,286 @@
       </c>
       <c r="H2499" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2500">
+      <c r="A2500" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2500" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2500" s="0">
+        <v>17157</v>
+      </c>
+      <c r="D2500" s="0">
+        <v>4.93056912625154E-02</v>
+      </c>
+      <c r="E2500" s="0">
+        <v>108</v>
+      </c>
+      <c r="F2500" s="0">
+        <v>5.09915014164306E-02</v>
+      </c>
+      <c r="G2500" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2500" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2501">
+      <c r="A2501" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2501" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2501" s="0">
+        <v>46433</v>
+      </c>
+      <c r="D2501" s="0">
+        <v>0.133438897382548</v>
+      </c>
+      <c r="E2501" s="0">
+        <v>318</v>
+      </c>
+      <c r="F2501" s="0">
+        <v>0.15014164305949</v>
+      </c>
+      <c r="G2501" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2501" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2502">
+      <c r="A2502" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2502" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2502" s="0">
+        <v>67048</v>
+      </c>
+      <c r="D2502" s="0">
+        <v>0.192682169829756</v>
+      </c>
+      <c r="E2502" s="0">
+        <v>306</v>
+      </c>
+      <c r="F2502" s="0">
+        <v>0.144475920679887</v>
+      </c>
+      <c r="G2502" s="0">
+        <v>27</v>
+      </c>
+      <c r="H2502" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2503">
+      <c r="A2503" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2503" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2503" s="0">
+        <v>54878</v>
+      </c>
+      <c r="D2503" s="0">
+        <v>0.157708091455634</v>
+      </c>
+      <c r="E2503" s="0">
+        <v>261</v>
+      </c>
+      <c r="F2503" s="0">
+        <v>0.123229461756374</v>
+      </c>
+      <c r="G2503" s="0">
+        <v>58</v>
+      </c>
+      <c r="H2503" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2504">
+      <c r="A2504" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2504" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2504" s="0">
+        <v>51682</v>
+      </c>
+      <c r="D2504" s="0">
+        <v>0.148523444415068</v>
+      </c>
+      <c r="E2504" s="0">
+        <v>311</v>
+      </c>
+      <c r="F2504" s="0">
+        <v>0.146836638338055</v>
+      </c>
+      <c r="G2504" s="0">
+        <v>150</v>
+      </c>
+      <c r="H2504" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2505">
+      <c r="A2505" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2505" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2505" s="0">
+        <v>46902</v>
+      </c>
+      <c r="D2505" s="0">
+        <v>0.134786706976423</v>
+      </c>
+      <c r="E2505" s="0">
+        <v>296</v>
+      </c>
+      <c r="F2505" s="0">
+        <v>0.139754485363551</v>
+      </c>
+      <c r="G2505" s="0">
+        <v>416</v>
+      </c>
+      <c r="H2505" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2506">
+      <c r="A2506" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2506" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2506" s="0">
+        <v>32937</v>
+      </c>
+      <c r="D2506" s="0">
+        <v>9.46541675767016E-02</v>
+      </c>
+      <c r="E2506" s="0">
+        <v>214</v>
+      </c>
+      <c r="F2506" s="0">
+        <v>0.101038715769594</v>
+      </c>
+      <c r="G2506" s="0">
+        <v>843</v>
+      </c>
+      <c r="H2506" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2507">
+      <c r="A2507" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2507" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2507" s="0">
+        <v>19787</v>
+      </c>
+      <c r="D2507" s="0">
+        <v>5.68637706482131E-02</v>
+      </c>
+      <c r="E2507" s="0">
+        <v>186</v>
+      </c>
+      <c r="F2507" s="0">
+        <v>8.78186968838527E-02</v>
+      </c>
+      <c r="G2507" s="0">
+        <v>1339</v>
+      </c>
+      <c r="H2507" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2508">
+      <c r="A2508" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2508" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2508" s="0">
+        <v>10647</v>
+      </c>
+      <c r="D2508" s="0">
+        <v>3.05972894370811E-02</v>
+      </c>
+      <c r="E2508" s="0">
+        <v>120</v>
+      </c>
+      <c r="F2508" s="0">
+        <v>0.056657223796034</v>
+      </c>
+      <c r="G2508" s="0">
+        <v>1626</v>
+      </c>
+      <c r="H2508" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2509">
+      <c r="A2509" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2509" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2509" s="0">
+        <v>501</v>
+      </c>
+      <c r="D2509" s="0">
+        <v>1.43977101605876E-03</v>
+      </c>
+      <c r="E2509" s="0">
+        <v>-2</v>
+      </c>
+      <c r="F2509" s="0">
+        <v>-9.44287063267233E-04</v>
+      </c>
+      <c r="G2509" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2509" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -69492,11 +69772,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1606</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1617</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1606</Url>
-      <Description>HJYU5V3E37X6-122305290-1606</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1617</Url>
+      <Description>HJYU5V3E37X6-122305290-1617</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -69519,17 +69799,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5763162-F47F-471B-B047-866F9F0FAA88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F47850-BB27-42B0-9EE2-3DAF7D74DE22}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3058AC4A-3B50-4A22-B6DA-8ECBDA8CF4EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55B8BE35-AFD2-4D1B-8F97-2258EC352D3D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{064DA22A-BB21-4B4D-A6FE-446DB527EA30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8924B1A6-5F2B-440E-BB4B-7805775EE8D8}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF23279-B584-4EDD-9D3A-C62236A36418}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F28D59-2505-4EF8-8537-3C9BB06B7DE7}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2509</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2519</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2509"/>
+  <dimension ref="A1:H2519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -69341,6 +69341,286 @@
       </c>
       <c r="H2509" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2510">
+      <c r="A2510" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2510" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2510" s="0">
+        <v>17372</v>
+      </c>
+      <c r="D2510" s="0">
+        <v>4.92996117783277E-02</v>
+      </c>
+      <c r="E2510" s="0">
+        <v>215</v>
+      </c>
+      <c r="F2510" s="0">
+        <v>0.048819255222525</v>
+      </c>
+      <c r="G2510" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2510" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2511">
+      <c r="A2511" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2511" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2511" s="0">
+        <v>47002</v>
+      </c>
+      <c r="D2511" s="0">
+        <v>0.133385928667106</v>
+      </c>
+      <c r="E2511" s="0">
+        <v>569</v>
+      </c>
+      <c r="F2511" s="0">
+        <v>0.129200726612171</v>
+      </c>
+      <c r="G2511" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2511" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2512">
+      <c r="A2512" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2512" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2512" s="0">
+        <v>67824</v>
+      </c>
+      <c r="D2512" s="0">
+        <v>0.192476218584694</v>
+      </c>
+      <c r="E2512" s="0">
+        <v>776</v>
+      </c>
+      <c r="F2512" s="0">
+        <v>0.176203451407811</v>
+      </c>
+      <c r="G2512" s="0">
+        <v>28</v>
+      </c>
+      <c r="H2512" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2513">
+      <c r="A2513" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2513" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2513" s="0">
+        <v>55525</v>
+      </c>
+      <c r="D2513" s="0">
+        <v>0.157573160487661</v>
+      </c>
+      <c r="E2513" s="0">
+        <v>647</v>
+      </c>
+      <c r="F2513" s="0">
+        <v>0.146911898274296</v>
+      </c>
+      <c r="G2513" s="0">
+        <v>58</v>
+      </c>
+      <c r="H2513" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2514">
+      <c r="A2514" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2514" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2514" s="0">
+        <v>52304</v>
+      </c>
+      <c r="D2514" s="0">
+        <v>0.14843235634663</v>
+      </c>
+      <c r="E2514" s="0">
+        <v>622</v>
+      </c>
+      <c r="F2514" s="0">
+        <v>0.141235240690282</v>
+      </c>
+      <c r="G2514" s="0">
+        <v>153</v>
+      </c>
+      <c r="H2514" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2515">
+      <c r="A2515" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2515" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2515" s="0">
+        <v>47513</v>
+      </c>
+      <c r="D2515" s="0">
+        <v>0.134836084182805</v>
+      </c>
+      <c r="E2515" s="0">
+        <v>611</v>
+      </c>
+      <c r="F2515" s="0">
+        <v>0.138737511353315</v>
+      </c>
+      <c r="G2515" s="0">
+        <v>419</v>
+      </c>
+      <c r="H2515" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2516">
+      <c r="A2516" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2516" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2516" s="0">
+        <v>33428</v>
+      </c>
+      <c r="D2516" s="0">
+        <v>9.48645764751288E-02</v>
+      </c>
+      <c r="E2516" s="0">
+        <v>491</v>
+      </c>
+      <c r="F2516" s="0">
+        <v>0.111489554950045</v>
+      </c>
+      <c r="G2516" s="0">
+        <v>854</v>
+      </c>
+      <c r="H2516" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2517">
+      <c r="A2517" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2517" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2517" s="0">
+        <v>20076</v>
+      </c>
+      <c r="D2517" s="0">
+        <v>5.69732331373306E-02</v>
+      </c>
+      <c r="E2517" s="0">
+        <v>289</v>
+      </c>
+      <c r="F2517" s="0">
+        <v>0.065622161671208</v>
+      </c>
+      <c r="G2517" s="0">
+        <v>1354</v>
+      </c>
+      <c r="H2517" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2518">
+      <c r="A2518" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2518" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2518" s="0">
+        <v>10817</v>
+      </c>
+      <c r="D2518" s="0">
+        <v>3.06973233137331E-02</v>
+      </c>
+      <c r="E2518" s="0">
+        <v>170</v>
+      </c>
+      <c r="F2518" s="0">
+        <v>3.86012715712988E-02</v>
+      </c>
+      <c r="G2518" s="0">
+        <v>1646</v>
+      </c>
+      <c r="H2518" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2519">
+      <c r="A2519" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2519" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2519" s="0">
+        <v>515</v>
+      </c>
+      <c r="D2519" s="0">
+        <v>1.46150702658524E-03</v>
+      </c>
+      <c r="E2519" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2519" s="0">
+        <v>3.17892824704814E-03</v>
+      </c>
+      <c r="G2519" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2519" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -69772,11 +70052,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1617</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1629</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1617</Url>
-      <Description>HJYU5V3E37X6-122305290-1617</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1629</Url>
+      <Description>HJYU5V3E37X6-122305290-1629</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -69799,17 +70079,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F47850-BB27-42B0-9EE2-3DAF7D74DE22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA40A4CD-5221-49C8-A10C-7F1D26521E1B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55B8BE35-AFD2-4D1B-8F97-2258EC352D3D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92CB6363-C8BA-4F26-9DAF-ED90BCADED60}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8924B1A6-5F2B-440E-BB4B-7805775EE8D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4982E737-C843-4E8E-8C99-AF9BC6DEB929}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F28D59-2505-4EF8-8537-3C9BB06B7DE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F76E3AB-D79F-4447-A4A1-3DC464491A21}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2479</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2519</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2479"/>
+  <dimension ref="A1:H2519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -68500,6 +68500,1126 @@
         <v>0</v>
       </c>
       <c r="H2479" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2480">
+      <c r="A2480" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2480" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2480" s="0">
+        <v>16983</v>
+      </c>
+      <c r="D2480" s="0">
+        <v>4.92903787548977E-02</v>
+      </c>
+      <c r="E2480" s="0">
+        <v>231</v>
+      </c>
+      <c r="F2480" s="0">
+        <v>5.67010309278351E-02</v>
+      </c>
+      <c r="G2480" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2480" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2481">
+      <c r="A2481" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2481" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2481" s="0">
+        <v>45947</v>
+      </c>
+      <c r="D2481" s="0">
+        <v>0.133353649687999</v>
+      </c>
+      <c r="E2481" s="0">
+        <v>574</v>
+      </c>
+      <c r="F2481" s="0">
+        <v>0.140893470790378</v>
+      </c>
+      <c r="G2481" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2481" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2482">
+      <c r="A2482" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2482" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2482" s="0">
+        <v>66533</v>
+      </c>
+      <c r="D2482" s="0">
+        <v>0.19310114642287</v>
+      </c>
+      <c r="E2482" s="0">
+        <v>709</v>
+      </c>
+      <c r="F2482" s="0">
+        <v>0.174030436917035</v>
+      </c>
+      <c r="G2482" s="0">
+        <v>27</v>
+      </c>
+      <c r="H2482" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2483">
+      <c r="A2483" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2483" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2483" s="0">
+        <v>54441</v>
+      </c>
+      <c r="D2483" s="0">
+        <v>0.1580060949064</v>
+      </c>
+      <c r="E2483" s="0">
+        <v>584</v>
+      </c>
+      <c r="F2483" s="0">
+        <v>0.143348060873834</v>
+      </c>
+      <c r="G2483" s="0">
+        <v>57</v>
+      </c>
+      <c r="H2483" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2484">
+      <c r="A2484" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2484" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2484" s="0">
+        <v>51173</v>
+      </c>
+      <c r="D2484" s="0">
+        <v>0.148521259613989</v>
+      </c>
+      <c r="E2484" s="0">
+        <v>591</v>
+      </c>
+      <c r="F2484" s="0">
+        <v>0.145066273932253</v>
+      </c>
+      <c r="G2484" s="0">
+        <v>147</v>
+      </c>
+      <c r="H2484" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2485">
+      <c r="A2485" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2485" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2485" s="0">
+        <v>46422</v>
+      </c>
+      <c r="D2485" s="0">
+        <v>0.134732259468872</v>
+      </c>
+      <c r="E2485" s="0">
+        <v>644</v>
+      </c>
+      <c r="F2485" s="0">
+        <v>0.15807560137457</v>
+      </c>
+      <c r="G2485" s="0">
+        <v>399</v>
+      </c>
+      <c r="H2485" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2486">
+      <c r="A2486" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2486" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2486" s="0">
+        <v>32571</v>
+      </c>
+      <c r="D2486" s="0">
+        <v>9.45319982585982E-02</v>
+      </c>
+      <c r="E2486" s="0">
+        <v>396</v>
+      </c>
+      <c r="F2486" s="0">
+        <v>9.72017673048601E-02</v>
+      </c>
+      <c r="G2486" s="0">
+        <v>818</v>
+      </c>
+      <c r="H2486" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2487">
+      <c r="A2487" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2487" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2487" s="0">
+        <v>19489</v>
+      </c>
+      <c r="D2487" s="0">
+        <v>5.65636337251487E-02</v>
+      </c>
+      <c r="E2487" s="0">
+        <v>228</v>
+      </c>
+      <c r="F2487" s="0">
+        <v>5.59646539027982E-02</v>
+      </c>
+      <c r="G2487" s="0">
+        <v>1298</v>
+      </c>
+      <c r="H2487" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2488">
+      <c r="A2488" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2488" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2488" s="0">
+        <v>10482</v>
+      </c>
+      <c r="D2488" s="0">
+        <v>3.04222899434044E-02</v>
+      </c>
+      <c r="E2488" s="0">
+        <v>102</v>
+      </c>
+      <c r="F2488" s="0">
+        <v>2.50368188512518E-02</v>
+      </c>
+      <c r="G2488" s="0">
+        <v>1549</v>
+      </c>
+      <c r="H2488" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2489">
+      <c r="A2489" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2489" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2489" s="0">
+        <v>509</v>
+      </c>
+      <c r="D2489" s="0">
+        <v>1.47728921782035E-03</v>
+      </c>
+      <c r="E2489" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2489" s="0">
+        <v>3.68188512518409E-03</v>
+      </c>
+      <c r="G2489" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2489" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2490">
+      <c r="A2490" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2490" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2490" s="0">
+        <v>17049</v>
+      </c>
+      <c r="D2490" s="0">
+        <v>4.92953674093693E-02</v>
+      </c>
+      <c r="E2490" s="0">
+        <v>66</v>
+      </c>
+      <c r="F2490" s="0">
+        <v>5.06134969325153E-02</v>
+      </c>
+      <c r="G2490" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2490" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2491">
+      <c r="A2491" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2491" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2491" s="0">
+        <v>46115</v>
+      </c>
+      <c r="D2491" s="0">
+        <v>0.133336610245942</v>
+      </c>
+      <c r="E2491" s="0">
+        <v>168</v>
+      </c>
+      <c r="F2491" s="0">
+        <v>0.128834355828221</v>
+      </c>
+      <c r="G2491" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2491" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2492">
+      <c r="A2492" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2492" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2492" s="0">
+        <v>66742</v>
+      </c>
+      <c r="D2492" s="0">
+        <v>0.192977383520214</v>
+      </c>
+      <c r="E2492" s="0">
+        <v>209</v>
+      </c>
+      <c r="F2492" s="0">
+        <v>0.160276073619632</v>
+      </c>
+      <c r="G2492" s="0">
+        <v>27</v>
+      </c>
+      <c r="H2492" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2493">
+      <c r="A2493" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2493" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2493" s="0">
+        <v>54617</v>
+      </c>
+      <c r="D2493" s="0">
+        <v>0.157919237597368</v>
+      </c>
+      <c r="E2493" s="0">
+        <v>176</v>
+      </c>
+      <c r="F2493" s="0">
+        <v>0.134969325153374</v>
+      </c>
+      <c r="G2493" s="0">
+        <v>58</v>
+      </c>
+      <c r="H2493" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2494">
+      <c r="A2494" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2494" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2494" s="0">
+        <v>51371</v>
+      </c>
+      <c r="D2494" s="0">
+        <v>0.148533774367219</v>
+      </c>
+      <c r="E2494" s="0">
+        <v>198</v>
+      </c>
+      <c r="F2494" s="0">
+        <v>0.151840490797546</v>
+      </c>
+      <c r="G2494" s="0">
+        <v>148</v>
+      </c>
+      <c r="H2494" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2495">
+      <c r="A2495" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2495" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2495" s="0">
+        <v>46606</v>
+      </c>
+      <c r="D2495" s="0">
+        <v>0.134756284443725</v>
+      </c>
+      <c r="E2495" s="0">
+        <v>184</v>
+      </c>
+      <c r="F2495" s="0">
+        <v>0.141104294478528</v>
+      </c>
+      <c r="G2495" s="0">
+        <v>403</v>
+      </c>
+      <c r="H2495" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2496">
+      <c r="A2496" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2496" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2496" s="0">
+        <v>32723</v>
+      </c>
+      <c r="D2496" s="0">
+        <v>9.46150687862508E-02</v>
+      </c>
+      <c r="E2496" s="0">
+        <v>152</v>
+      </c>
+      <c r="F2496" s="0">
+        <v>0.116564417177914</v>
+      </c>
+      <c r="G2496" s="0">
+        <v>828</v>
+      </c>
+      <c r="H2496" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2497">
+      <c r="A2497" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2497" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2497" s="0">
+        <v>19601</v>
+      </c>
+      <c r="D2497" s="0">
+        <v>5.66742035656664E-02</v>
+      </c>
+      <c r="E2497" s="0">
+        <v>112</v>
+      </c>
+      <c r="F2497" s="0">
+        <v>8.58895705521472E-02</v>
+      </c>
+      <c r="G2497" s="0">
+        <v>1317</v>
+      </c>
+      <c r="H2497" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2498">
+      <c r="A2498" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2498" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2498" s="0">
+        <v>10527</v>
+      </c>
+      <c r="D2498" s="0">
+        <v>3.04376991447258E-02</v>
+      </c>
+      <c r="E2498" s="0">
+        <v>45</v>
+      </c>
+      <c r="F2498" s="0">
+        <v>3.45092024539877E-02</v>
+      </c>
+      <c r="G2498" s="0">
+        <v>1587</v>
+      </c>
+      <c r="H2498" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2499">
+      <c r="A2499" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B2499" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2499" s="0">
+        <v>503</v>
+      </c>
+      <c r="D2499" s="0">
+        <v>1.45437091952095E-03</v>
+      </c>
+      <c r="E2499" s="0">
+        <v>-6</v>
+      </c>
+      <c r="F2499" s="0">
+        <v>-4.60122699386503E-03</v>
+      </c>
+      <c r="G2499" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2499" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2500">
+      <c r="A2500" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2500" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2500" s="0">
+        <v>17157</v>
+      </c>
+      <c r="D2500" s="0">
+        <v>4.93056912625154E-02</v>
+      </c>
+      <c r="E2500" s="0">
+        <v>108</v>
+      </c>
+      <c r="F2500" s="0">
+        <v>5.09915014164306E-02</v>
+      </c>
+      <c r="G2500" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2500" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2501">
+      <c r="A2501" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2501" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2501" s="0">
+        <v>46433</v>
+      </c>
+      <c r="D2501" s="0">
+        <v>0.133438897382548</v>
+      </c>
+      <c r="E2501" s="0">
+        <v>318</v>
+      </c>
+      <c r="F2501" s="0">
+        <v>0.15014164305949</v>
+      </c>
+      <c r="G2501" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2501" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2502">
+      <c r="A2502" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2502" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2502" s="0">
+        <v>67048</v>
+      </c>
+      <c r="D2502" s="0">
+        <v>0.192682169829756</v>
+      </c>
+      <c r="E2502" s="0">
+        <v>306</v>
+      </c>
+      <c r="F2502" s="0">
+        <v>0.144475920679887</v>
+      </c>
+      <c r="G2502" s="0">
+        <v>27</v>
+      </c>
+      <c r="H2502" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2503">
+      <c r="A2503" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2503" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2503" s="0">
+        <v>54878</v>
+      </c>
+      <c r="D2503" s="0">
+        <v>0.157708091455634</v>
+      </c>
+      <c r="E2503" s="0">
+        <v>261</v>
+      </c>
+      <c r="F2503" s="0">
+        <v>0.123229461756374</v>
+      </c>
+      <c r="G2503" s="0">
+        <v>58</v>
+      </c>
+      <c r="H2503" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2504">
+      <c r="A2504" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2504" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2504" s="0">
+        <v>51682</v>
+      </c>
+      <c r="D2504" s="0">
+        <v>0.148523444415068</v>
+      </c>
+      <c r="E2504" s="0">
+        <v>311</v>
+      </c>
+      <c r="F2504" s="0">
+        <v>0.146836638338055</v>
+      </c>
+      <c r="G2504" s="0">
+        <v>150</v>
+      </c>
+      <c r="H2504" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2505">
+      <c r="A2505" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2505" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2505" s="0">
+        <v>46902</v>
+      </c>
+      <c r="D2505" s="0">
+        <v>0.134786706976423</v>
+      </c>
+      <c r="E2505" s="0">
+        <v>296</v>
+      </c>
+      <c r="F2505" s="0">
+        <v>0.139754485363551</v>
+      </c>
+      <c r="G2505" s="0">
+        <v>416</v>
+      </c>
+      <c r="H2505" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2506">
+      <c r="A2506" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2506" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2506" s="0">
+        <v>32937</v>
+      </c>
+      <c r="D2506" s="0">
+        <v>9.46541675767016E-02</v>
+      </c>
+      <c r="E2506" s="0">
+        <v>214</v>
+      </c>
+      <c r="F2506" s="0">
+        <v>0.101038715769594</v>
+      </c>
+      <c r="G2506" s="0">
+        <v>843</v>
+      </c>
+      <c r="H2506" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2507">
+      <c r="A2507" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2507" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2507" s="0">
+        <v>19787</v>
+      </c>
+      <c r="D2507" s="0">
+        <v>5.68637706482131E-02</v>
+      </c>
+      <c r="E2507" s="0">
+        <v>186</v>
+      </c>
+      <c r="F2507" s="0">
+        <v>8.78186968838527E-02</v>
+      </c>
+      <c r="G2507" s="0">
+        <v>1339</v>
+      </c>
+      <c r="H2507" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2508">
+      <c r="A2508" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2508" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2508" s="0">
+        <v>10647</v>
+      </c>
+      <c r="D2508" s="0">
+        <v>3.05972894370811E-02</v>
+      </c>
+      <c r="E2508" s="0">
+        <v>120</v>
+      </c>
+      <c r="F2508" s="0">
+        <v>0.056657223796034</v>
+      </c>
+      <c r="G2508" s="0">
+        <v>1626</v>
+      </c>
+      <c r="H2508" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2509">
+      <c r="A2509" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B2509" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2509" s="0">
+        <v>501</v>
+      </c>
+      <c r="D2509" s="0">
+        <v>1.43977101605876E-03</v>
+      </c>
+      <c r="E2509" s="0">
+        <v>-2</v>
+      </c>
+      <c r="F2509" s="0">
+        <v>-9.44287063267233E-04</v>
+      </c>
+      <c r="G2509" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2509" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2510">
+      <c r="A2510" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2510" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2510" s="0">
+        <v>17372</v>
+      </c>
+      <c r="D2510" s="0">
+        <v>4.92996117783277E-02</v>
+      </c>
+      <c r="E2510" s="0">
+        <v>215</v>
+      </c>
+      <c r="F2510" s="0">
+        <v>0.048819255222525</v>
+      </c>
+      <c r="G2510" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2510" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2511">
+      <c r="A2511" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2511" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2511" s="0">
+        <v>47002</v>
+      </c>
+      <c r="D2511" s="0">
+        <v>0.133385928667106</v>
+      </c>
+      <c r="E2511" s="0">
+        <v>569</v>
+      </c>
+      <c r="F2511" s="0">
+        <v>0.129200726612171</v>
+      </c>
+      <c r="G2511" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2511" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2512">
+      <c r="A2512" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2512" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2512" s="0">
+        <v>67824</v>
+      </c>
+      <c r="D2512" s="0">
+        <v>0.192476218584694</v>
+      </c>
+      <c r="E2512" s="0">
+        <v>776</v>
+      </c>
+      <c r="F2512" s="0">
+        <v>0.176203451407811</v>
+      </c>
+      <c r="G2512" s="0">
+        <v>28</v>
+      </c>
+      <c r="H2512" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2513">
+      <c r="A2513" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2513" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2513" s="0">
+        <v>55525</v>
+      </c>
+      <c r="D2513" s="0">
+        <v>0.157573160487661</v>
+      </c>
+      <c r="E2513" s="0">
+        <v>647</v>
+      </c>
+      <c r="F2513" s="0">
+        <v>0.146911898274296</v>
+      </c>
+      <c r="G2513" s="0">
+        <v>58</v>
+      </c>
+      <c r="H2513" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2514">
+      <c r="A2514" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2514" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2514" s="0">
+        <v>52304</v>
+      </c>
+      <c r="D2514" s="0">
+        <v>0.14843235634663</v>
+      </c>
+      <c r="E2514" s="0">
+        <v>622</v>
+      </c>
+      <c r="F2514" s="0">
+        <v>0.141235240690282</v>
+      </c>
+      <c r="G2514" s="0">
+        <v>153</v>
+      </c>
+      <c r="H2514" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2515">
+      <c r="A2515" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2515" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2515" s="0">
+        <v>47513</v>
+      </c>
+      <c r="D2515" s="0">
+        <v>0.134836084182805</v>
+      </c>
+      <c r="E2515" s="0">
+        <v>611</v>
+      </c>
+      <c r="F2515" s="0">
+        <v>0.138737511353315</v>
+      </c>
+      <c r="G2515" s="0">
+        <v>419</v>
+      </c>
+      <c r="H2515" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2516">
+      <c r="A2516" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2516" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2516" s="0">
+        <v>33428</v>
+      </c>
+      <c r="D2516" s="0">
+        <v>9.48645764751288E-02</v>
+      </c>
+      <c r="E2516" s="0">
+        <v>491</v>
+      </c>
+      <c r="F2516" s="0">
+        <v>0.111489554950045</v>
+      </c>
+      <c r="G2516" s="0">
+        <v>854</v>
+      </c>
+      <c r="H2516" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2517">
+      <c r="A2517" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2517" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2517" s="0">
+        <v>20076</v>
+      </c>
+      <c r="D2517" s="0">
+        <v>5.69732331373306E-02</v>
+      </c>
+      <c r="E2517" s="0">
+        <v>289</v>
+      </c>
+      <c r="F2517" s="0">
+        <v>0.065622161671208</v>
+      </c>
+      <c r="G2517" s="0">
+        <v>1354</v>
+      </c>
+      <c r="H2517" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2518">
+      <c r="A2518" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2518" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2518" s="0">
+        <v>10817</v>
+      </c>
+      <c r="D2518" s="0">
+        <v>3.06973233137331E-02</v>
+      </c>
+      <c r="E2518" s="0">
+        <v>170</v>
+      </c>
+      <c r="F2518" s="0">
+        <v>3.86012715712988E-02</v>
+      </c>
+      <c r="G2518" s="0">
+        <v>1646</v>
+      </c>
+      <c r="H2518" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2519">
+      <c r="A2519" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B2519" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2519" s="0">
+        <v>515</v>
+      </c>
+      <c r="D2519" s="0">
+        <v>1.46150702658524E-03</v>
+      </c>
+      <c r="E2519" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2519" s="0">
+        <v>3.17892824704814E-03</v>
+      </c>
+      <c r="G2519" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2519" s="0">
         <v>0</v>
       </c>
     </row>
@@ -68932,11 +70052,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1584</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1629</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1584</Url>
-      <Description>HJYU5V3E37X6-122305290-1584</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1629</Url>
+      <Description>HJYU5V3E37X6-122305290-1629</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -68959,17 +70079,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6F494F8-E5E8-4838-A12C-28950F5703B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA40A4CD-5221-49C8-A10C-7F1D26521E1B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1C9C968-6855-49BC-8C4C-04503CD1CC70}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92CB6363-C8BA-4F26-9DAF-ED90BCADED60}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F99B31-482A-4212-B9F7-E2B79F760423}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4982E737-C843-4E8E-8C99-AF9BC6DEB929}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB964717-4827-4291-B233-8827B484034B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F76E3AB-D79F-4447-A4A1-3DC464491A21}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2519</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2579</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2519"/>
+  <dimension ref="A1:H2579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -69621,6 +69621,1686 @@
       </c>
       <c r="H2519" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2520">
+      <c r="A2520" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2520" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2520" s="0">
+        <v>17616</v>
+      </c>
+      <c r="D2520" s="0">
+        <v>4.93838235459021E-02</v>
+      </c>
+      <c r="E2520" s="0">
+        <v>244</v>
+      </c>
+      <c r="F2520" s="0">
+        <v>0.056221198156682</v>
+      </c>
+      <c r="G2520" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2520" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2521">
+      <c r="A2521" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2521" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2521" s="0">
+        <v>47544</v>
+      </c>
+      <c r="D2521" s="0">
+        <v>0.133282499243095</v>
+      </c>
+      <c r="E2521" s="0">
+        <v>542</v>
+      </c>
+      <c r="F2521" s="0">
+        <v>0.124884792626728</v>
+      </c>
+      <c r="G2521" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2521" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2522">
+      <c r="A2522" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2522" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2522" s="0">
+        <v>68631</v>
+      </c>
+      <c r="D2522" s="0">
+        <v>0.192396752598706</v>
+      </c>
+      <c r="E2522" s="0">
+        <v>807</v>
+      </c>
+      <c r="F2522" s="0">
+        <v>0.18594470046083</v>
+      </c>
+      <c r="G2522" s="0">
+        <v>28</v>
+      </c>
+      <c r="H2522" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2523">
+      <c r="A2523" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2523" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2523" s="0">
+        <v>56221</v>
+      </c>
+      <c r="D2523" s="0">
+        <v>0.157607172092084</v>
+      </c>
+      <c r="E2523" s="0">
+        <v>696</v>
+      </c>
+      <c r="F2523" s="0">
+        <v>0.16036866359447</v>
+      </c>
+      <c r="G2523" s="0">
+        <v>58</v>
+      </c>
+      <c r="H2523" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2524">
+      <c r="A2524" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2524" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2524" s="0">
+        <v>52952</v>
+      </c>
+      <c r="D2524" s="0">
+        <v>0.148443019096424</v>
+      </c>
+      <c r="E2524" s="0">
+        <v>648</v>
+      </c>
+      <c r="F2524" s="0">
+        <v>0.149308755760369</v>
+      </c>
+      <c r="G2524" s="0">
+        <v>154</v>
+      </c>
+      <c r="H2524" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2525">
+      <c r="A2525" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2525" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2525" s="0">
+        <v>48104</v>
+      </c>
+      <c r="D2525" s="0">
+        <v>0.134852375559268</v>
+      </c>
+      <c r="E2525" s="0">
+        <v>591</v>
+      </c>
+      <c r="F2525" s="0">
+        <v>0.136175115207373</v>
+      </c>
+      <c r="G2525" s="0">
+        <v>419</v>
+      </c>
+      <c r="H2525" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2526">
+      <c r="A2526" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2526" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2526" s="0">
+        <v>33891</v>
+      </c>
+      <c r="D2526" s="0">
+        <v>9.50083539846825E-02</v>
+      </c>
+      <c r="E2526" s="0">
+        <v>463</v>
+      </c>
+      <c r="F2526" s="0">
+        <v>0.10668202764977</v>
+      </c>
+      <c r="G2526" s="0">
+        <v>855</v>
+      </c>
+      <c r="H2526" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2527">
+      <c r="A2527" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2527" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2527" s="0">
+        <v>20314</v>
+      </c>
+      <c r="D2527" s="0">
+        <v>5.69472633691788E-02</v>
+      </c>
+      <c r="E2527" s="0">
+        <v>238</v>
+      </c>
+      <c r="F2527" s="0">
+        <v>5.48387096774194E-02</v>
+      </c>
+      <c r="G2527" s="0">
+        <v>1357</v>
+      </c>
+      <c r="H2527" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2528">
+      <c r="A2528" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2528" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2528" s="0">
+        <v>10924</v>
+      </c>
+      <c r="D2528" s="0">
+        <v>3.06238015676336E-02</v>
+      </c>
+      <c r="E2528" s="0">
+        <v>107</v>
+      </c>
+      <c r="F2528" s="0">
+        <v>2.46543778801843E-02</v>
+      </c>
+      <c r="G2528" s="0">
+        <v>1648</v>
+      </c>
+      <c r="H2528" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2529">
+      <c r="A2529" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2529" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2529" s="0">
+        <v>519</v>
+      </c>
+      <c r="D2529" s="0">
+        <v>1.4549389430247E-03</v>
+      </c>
+      <c r="E2529" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2529" s="0">
+        <v>9.21658986175115E-04</v>
+      </c>
+      <c r="G2529" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2529" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2530">
+      <c r="A2530" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2530" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2530" s="0">
+        <v>17938</v>
+      </c>
+      <c r="D2530" s="0">
+        <v>0.049352621703268</v>
+      </c>
+      <c r="E2530" s="0">
+        <v>322</v>
+      </c>
+      <c r="F2530" s="0">
+        <v>4.77037037037037E-02</v>
+      </c>
+      <c r="G2530" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2530" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2531">
+      <c r="A2531" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2531" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2531" s="0">
+        <v>48409</v>
+      </c>
+      <c r="D2531" s="0">
+        <v>0.133187148178922</v>
+      </c>
+      <c r="E2531" s="0">
+        <v>865</v>
+      </c>
+      <c r="F2531" s="0">
+        <v>0.128148148148148</v>
+      </c>
+      <c r="G2531" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2531" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2532">
+      <c r="A2532" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2532" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2532" s="0">
+        <v>69774</v>
+      </c>
+      <c r="D2532" s="0">
+        <v>0.191968437212834</v>
+      </c>
+      <c r="E2532" s="0">
+        <v>1143</v>
+      </c>
+      <c r="F2532" s="0">
+        <v>0.169333333333333</v>
+      </c>
+      <c r="G2532" s="0">
+        <v>28</v>
+      </c>
+      <c r="H2532" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2533">
+      <c r="A2533" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2533" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2533" s="0">
+        <v>57216</v>
+      </c>
+      <c r="D2533" s="0">
+        <v>0.157417750215976</v>
+      </c>
+      <c r="E2533" s="0">
+        <v>995</v>
+      </c>
+      <c r="F2533" s="0">
+        <v>0.147407407407407</v>
+      </c>
+      <c r="G2533" s="0">
+        <v>58</v>
+      </c>
+      <c r="H2533" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2534">
+      <c r="A2534" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2534" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2534" s="0">
+        <v>53963</v>
+      </c>
+      <c r="D2534" s="0">
+        <v>0.148467807167658</v>
+      </c>
+      <c r="E2534" s="0">
+        <v>1011</v>
+      </c>
+      <c r="F2534" s="0">
+        <v>0.149777777777778</v>
+      </c>
+      <c r="G2534" s="0">
+        <v>154</v>
+      </c>
+      <c r="H2534" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2535">
+      <c r="A2535" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2535" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2535" s="0">
+        <v>49055</v>
+      </c>
+      <c r="D2535" s="0">
+        <v>0.134964480859283</v>
+      </c>
+      <c r="E2535" s="0">
+        <v>951</v>
+      </c>
+      <c r="F2535" s="0">
+        <v>0.140888888888889</v>
+      </c>
+      <c r="G2535" s="0">
+        <v>421</v>
+      </c>
+      <c r="H2535" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2536">
+      <c r="A2536" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2536" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2536" s="0">
+        <v>34638</v>
+      </c>
+      <c r="D2536" s="0">
+        <v>9.52991476506743E-02</v>
+      </c>
+      <c r="E2536" s="0">
+        <v>747</v>
+      </c>
+      <c r="F2536" s="0">
+        <v>0.110666666666667</v>
+      </c>
+      <c r="G2536" s="0">
+        <v>856</v>
+      </c>
+      <c r="H2536" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2537">
+      <c r="A2537" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2537" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2537" s="0">
+        <v>20761</v>
+      </c>
+      <c r="D2537" s="0">
+        <v>5.71195104906649E-02</v>
+      </c>
+      <c r="E2537" s="0">
+        <v>447</v>
+      </c>
+      <c r="F2537" s="0">
+        <v>6.62222222222222E-02</v>
+      </c>
+      <c r="G2537" s="0">
+        <v>1361</v>
+      </c>
+      <c r="H2537" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2538">
+      <c r="A2538" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2538" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2538" s="0">
+        <v>11178</v>
+      </c>
+      <c r="D2538" s="0">
+        <v>3.07539082059945E-02</v>
+      </c>
+      <c r="E2538" s="0">
+        <v>254</v>
+      </c>
+      <c r="F2538" s="0">
+        <v>3.76296296296296E-02</v>
+      </c>
+      <c r="G2538" s="0">
+        <v>1656</v>
+      </c>
+      <c r="H2538" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2539">
+      <c r="A2539" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2539" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2539" s="0">
+        <v>534</v>
+      </c>
+      <c r="D2539" s="0">
+        <v>1.46918831472545E-03</v>
+      </c>
+      <c r="E2539" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2539" s="0">
+        <v>2.22222222222222E-03</v>
+      </c>
+      <c r="G2539" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2539" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2540">
+      <c r="A2540" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2540" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2540" s="0">
+        <v>18111</v>
+      </c>
+      <c r="D2540" s="0">
+        <v>4.94136713612974E-02</v>
+      </c>
+      <c r="E2540" s="0">
+        <v>173</v>
+      </c>
+      <c r="F2540" s="0">
+        <v>5.66841415465269E-02</v>
+      </c>
+      <c r="G2540" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2540" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2541">
+      <c r="A2541" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2541" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2541" s="0">
+        <v>48783</v>
+      </c>
+      <c r="D2541" s="0">
+        <v>0.133098510850763</v>
+      </c>
+      <c r="E2541" s="0">
+        <v>374</v>
+      </c>
+      <c r="F2541" s="0">
+        <v>0.122542595019659</v>
+      </c>
+      <c r="G2541" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2541" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2542">
+      <c r="A2542" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2542" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2542" s="0">
+        <v>70283</v>
+      </c>
+      <c r="D2542" s="0">
+        <v>0.191758658510632</v>
+      </c>
+      <c r="E2542" s="0">
+        <v>509</v>
+      </c>
+      <c r="F2542" s="0">
+        <v>0.166775884665793</v>
+      </c>
+      <c r="G2542" s="0">
+        <v>28</v>
+      </c>
+      <c r="H2542" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2543">
+      <c r="A2543" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2543" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2543" s="0">
+        <v>57677</v>
+      </c>
+      <c r="D2543" s="0">
+        <v>0.157364713329223</v>
+      </c>
+      <c r="E2543" s="0">
+        <v>461</v>
+      </c>
+      <c r="F2543" s="0">
+        <v>0.151048492791612</v>
+      </c>
+      <c r="G2543" s="0">
+        <v>59</v>
+      </c>
+      <c r="H2543" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2544">
+      <c r="A2544" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2544" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2544" s="0">
+        <v>54433</v>
+      </c>
+      <c r="D2544" s="0">
+        <v>0.148513851979985</v>
+      </c>
+      <c r="E2544" s="0">
+        <v>470</v>
+      </c>
+      <c r="F2544" s="0">
+        <v>0.153997378768021</v>
+      </c>
+      <c r="G2544" s="0">
+        <v>154</v>
+      </c>
+      <c r="H2544" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2545">
+      <c r="A2545" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2545" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2545" s="0">
+        <v>49529</v>
+      </c>
+      <c r="D2545" s="0">
+        <v>0.135133881555613</v>
+      </c>
+      <c r="E2545" s="0">
+        <v>474</v>
+      </c>
+      <c r="F2545" s="0">
+        <v>0.155307994757536</v>
+      </c>
+      <c r="G2545" s="0">
+        <v>423</v>
+      </c>
+      <c r="H2545" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2546">
+      <c r="A2546" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2546" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2546" s="0">
+        <v>34943</v>
+      </c>
+      <c r="D2546" s="0">
+        <v>9.53377460315728E-02</v>
+      </c>
+      <c r="E2546" s="0">
+        <v>305</v>
+      </c>
+      <c r="F2546" s="0">
+        <v>9.99344692005242E-02</v>
+      </c>
+      <c r="G2546" s="0">
+        <v>859</v>
+      </c>
+      <c r="H2546" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2547">
+      <c r="A2547" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2547" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2547" s="0">
+        <v>20976</v>
+      </c>
+      <c r="D2547" s="0">
+        <v>5.72304770843451E-02</v>
+      </c>
+      <c r="E2547" s="0">
+        <v>215</v>
+      </c>
+      <c r="F2547" s="0">
+        <v>7.04456094364351E-02</v>
+      </c>
+      <c r="G2547" s="0">
+        <v>1364</v>
+      </c>
+      <c r="H2547" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2548">
+      <c r="A2548" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2548" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2548" s="0">
+        <v>11242</v>
+      </c>
+      <c r="D2548" s="0">
+        <v>3.06724362787094E-02</v>
+      </c>
+      <c r="E2548" s="0">
+        <v>64</v>
+      </c>
+      <c r="F2548" s="0">
+        <v>2.09698558322412E-02</v>
+      </c>
+      <c r="G2548" s="0">
+        <v>1660</v>
+      </c>
+      <c r="H2548" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2549">
+      <c r="A2549" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2549" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2549" s="0">
+        <v>541</v>
+      </c>
+      <c r="D2549" s="0">
+        <v>1.47605301785997E-03</v>
+      </c>
+      <c r="E2549" s="0">
+        <v>7</v>
+      </c>
+      <c r="F2549" s="0">
+        <v>2.29357798165138E-03</v>
+      </c>
+      <c r="G2549" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2549" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2550">
+      <c r="A2550" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2550" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2550" s="0">
+        <v>18534</v>
+      </c>
+      <c r="D2550" s="0">
+        <v>4.94909117126355E-02</v>
+      </c>
+      <c r="E2550" s="0">
+        <v>423</v>
+      </c>
+      <c r="F2550" s="0">
+        <v>5.30407523510972E-02</v>
+      </c>
+      <c r="G2550" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2550" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2551">
+      <c r="A2551" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2551" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2551" s="0">
+        <v>49787</v>
+      </c>
+      <c r="D2551" s="0">
+        <v>0.132945075074835</v>
+      </c>
+      <c r="E2551" s="0">
+        <v>1004</v>
+      </c>
+      <c r="F2551" s="0">
+        <v>0.1258934169279</v>
+      </c>
+      <c r="G2551" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2551" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2552">
+      <c r="A2552" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2552" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2552" s="0">
+        <v>71667</v>
+      </c>
+      <c r="D2552" s="0">
+        <v>0.191370733231329</v>
+      </c>
+      <c r="E2552" s="0">
+        <v>1384</v>
+      </c>
+      <c r="F2552" s="0">
+        <v>0.173542319749216</v>
+      </c>
+      <c r="G2552" s="0">
+        <v>29</v>
+      </c>
+      <c r="H2552" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2553">
+      <c r="A2553" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2553" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2553" s="0">
+        <v>58909</v>
+      </c>
+      <c r="D2553" s="0">
+        <v>0.157303340783406</v>
+      </c>
+      <c r="E2553" s="0">
+        <v>1232</v>
+      </c>
+      <c r="F2553" s="0">
+        <v>0.15448275862069</v>
+      </c>
+      <c r="G2553" s="0">
+        <v>59</v>
+      </c>
+      <c r="H2553" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2554">
+      <c r="A2554" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2554" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2554" s="0">
+        <v>55713</v>
+      </c>
+      <c r="D2554" s="0">
+        <v>0.148769135871699</v>
+      </c>
+      <c r="E2554" s="0">
+        <v>1280</v>
+      </c>
+      <c r="F2554" s="0">
+        <v>0.160501567398119</v>
+      </c>
+      <c r="G2554" s="0">
+        <v>156</v>
+      </c>
+      <c r="H2554" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2555">
+      <c r="A2555" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2555" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2555" s="0">
+        <v>50671</v>
+      </c>
+      <c r="D2555" s="0">
+        <v>0.135305599837647</v>
+      </c>
+      <c r="E2555" s="0">
+        <v>1142</v>
+      </c>
+      <c r="F2555" s="0">
+        <v>0.143197492163009</v>
+      </c>
+      <c r="G2555" s="0">
+        <v>426</v>
+      </c>
+      <c r="H2555" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2556">
+      <c r="A2556" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2556" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2556" s="0">
+        <v>35747</v>
+      </c>
+      <c r="D2556" s="0">
+        <v>0.095454387665457</v>
+      </c>
+      <c r="E2556" s="0">
+        <v>804</v>
+      </c>
+      <c r="F2556" s="0">
+        <v>0.100815047021944</v>
+      </c>
+      <c r="G2556" s="0">
+        <v>869</v>
+      </c>
+      <c r="H2556" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2557">
+      <c r="A2557" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2557" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2557" s="0">
+        <v>21470</v>
+      </c>
+      <c r="D2557" s="0">
+        <v>5.73308446352802E-02</v>
+      </c>
+      <c r="E2557" s="0">
+        <v>494</v>
+      </c>
+      <c r="F2557" s="0">
+        <v>6.19435736677116E-02</v>
+      </c>
+      <c r="G2557" s="0">
+        <v>1380</v>
+      </c>
+      <c r="H2557" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2558">
+      <c r="A2558" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2558" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2558" s="0">
+        <v>11450</v>
+      </c>
+      <c r="D2558" s="0">
+        <v>3.05746702875621E-02</v>
+      </c>
+      <c r="E2558" s="0">
+        <v>208</v>
+      </c>
+      <c r="F2558" s="0">
+        <v>2.60815047021944E-02</v>
+      </c>
+      <c r="G2558" s="0">
+        <v>1676</v>
+      </c>
+      <c r="H2558" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2559">
+      <c r="A2559" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2559" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2559" s="0">
+        <v>545</v>
+      </c>
+      <c r="D2559" s="0">
+        <v>1.45530090015034E-03</v>
+      </c>
+      <c r="E2559" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2559" s="0">
+        <v>5.01567398119122E-04</v>
+      </c>
+      <c r="G2559" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2559" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2560">
+      <c r="A2560" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2560" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2560" s="0">
+        <v>18876</v>
+      </c>
+      <c r="D2560" s="0">
+        <v>4.96493821445293E-02</v>
+      </c>
+      <c r="E2560" s="0">
+        <v>342</v>
+      </c>
+      <c r="F2560" s="0">
+        <v>6.00737748111716E-02</v>
+      </c>
+      <c r="G2560" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2560" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2561">
+      <c r="A2561" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2561" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2561" s="0">
+        <v>50396</v>
+      </c>
+      <c r="D2561" s="0">
+        <v>0.132556169874746</v>
+      </c>
+      <c r="E2561" s="0">
+        <v>609</v>
+      </c>
+      <c r="F2561" s="0">
+        <v>0.106973476198841</v>
+      </c>
+      <c r="G2561" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2561" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2562">
+      <c r="A2562" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2562" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2562" s="0">
+        <v>72623</v>
+      </c>
+      <c r="D2562" s="0">
+        <v>0.191019658798588</v>
+      </c>
+      <c r="E2562" s="0">
+        <v>956</v>
+      </c>
+      <c r="F2562" s="0">
+        <v>0.167925522571579</v>
+      </c>
+      <c r="G2562" s="0">
+        <v>29</v>
+      </c>
+      <c r="H2562" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2563">
+      <c r="A2563" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2563" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2563" s="0">
+        <v>59784</v>
+      </c>
+      <c r="D2563" s="0">
+        <v>0.157249346372565</v>
+      </c>
+      <c r="E2563" s="0">
+        <v>875</v>
+      </c>
+      <c r="F2563" s="0">
+        <v>0.153697523274196</v>
+      </c>
+      <c r="G2563" s="0">
+        <v>60</v>
+      </c>
+      <c r="H2563" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2564">
+      <c r="A2564" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2564" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2564" s="0">
+        <v>56592</v>
+      </c>
+      <c r="D2564" s="0">
+        <v>0.148853455939987</v>
+      </c>
+      <c r="E2564" s="0">
+        <v>879</v>
+      </c>
+      <c r="F2564" s="0">
+        <v>0.15440014052345</v>
+      </c>
+      <c r="G2564" s="0">
+        <v>156</v>
+      </c>
+      <c r="H2564" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2565">
+      <c r="A2565" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2565" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2565" s="0">
+        <v>51525</v>
+      </c>
+      <c r="D2565" s="0">
+        <v>0.135525768965717</v>
+      </c>
+      <c r="E2565" s="0">
+        <v>854</v>
+      </c>
+      <c r="F2565" s="0">
+        <v>0.150008782715616</v>
+      </c>
+      <c r="G2565" s="0">
+        <v>431</v>
+      </c>
+      <c r="H2565" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2566">
+      <c r="A2566" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2566" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2566" s="0">
+        <v>36375</v>
+      </c>
+      <c r="D2566" s="0">
+        <v>9.56768529088394E-02</v>
+      </c>
+      <c r="E2566" s="0">
+        <v>628</v>
+      </c>
+      <c r="F2566" s="0">
+        <v>0.110310908132795</v>
+      </c>
+      <c r="G2566" s="0">
+        <v>874</v>
+      </c>
+      <c r="H2566" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2567">
+      <c r="A2567" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2567" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2567" s="0">
+        <v>21842</v>
+      </c>
+      <c r="D2567" s="0">
+        <v>0.057450826700615</v>
+      </c>
+      <c r="E2567" s="0">
+        <v>372</v>
+      </c>
+      <c r="F2567" s="0">
+        <v>6.53434041805726E-02</v>
+      </c>
+      <c r="G2567" s="0">
+        <v>1399</v>
+      </c>
+      <c r="H2567" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2568">
+      <c r="A2568" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2568" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2568" s="0">
+        <v>11629</v>
+      </c>
+      <c r="D2568" s="0">
+        <v>3.05876597244507E-02</v>
+      </c>
+      <c r="E2568" s="0">
+        <v>179</v>
+      </c>
+      <c r="F2568" s="0">
+        <v>3.14421219040927E-02</v>
+      </c>
+      <c r="G2568" s="0">
+        <v>1681</v>
+      </c>
+      <c r="H2568" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2569">
+      <c r="A2569" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2569" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2569" s="0">
+        <v>544</v>
+      </c>
+      <c r="D2569" s="0">
+        <v>1.43087856996312E-03</v>
+      </c>
+      <c r="E2569" s="0">
+        <v>-1</v>
+      </c>
+      <c r="F2569" s="0">
+        <v>-1.75654312313367E-04</v>
+      </c>
+      <c r="G2569" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2569" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2570">
+      <c r="A2570" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2570" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2570" s="0">
+        <v>19085</v>
+      </c>
+      <c r="D2570" s="0">
+        <v>4.96636610848719E-02</v>
+      </c>
+      <c r="E2570" s="0">
+        <v>209</v>
+      </c>
+      <c r="F2570" s="0">
+        <v>5.09880458648451E-02</v>
+      </c>
+      <c r="G2570" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2570" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2571">
+      <c r="A2571" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2571" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2571" s="0">
+        <v>50849</v>
+      </c>
+      <c r="D2571" s="0">
+        <v>0.132321063793799</v>
+      </c>
+      <c r="E2571" s="0">
+        <v>453</v>
+      </c>
+      <c r="F2571" s="0">
+        <v>0.110514759697487</v>
+      </c>
+      <c r="G2571" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2571" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2572">
+      <c r="A2572" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2572" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2572" s="0">
+        <v>73337</v>
+      </c>
+      <c r="D2572" s="0">
+        <v>0.190840131673107</v>
+      </c>
+      <c r="E2572" s="0">
+        <v>714</v>
+      </c>
+      <c r="F2572" s="0">
+        <v>0.174188826543059</v>
+      </c>
+      <c r="G2572" s="0">
+        <v>30</v>
+      </c>
+      <c r="H2572" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2573">
+      <c r="A2573" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2573" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2573" s="0">
+        <v>60430</v>
+      </c>
+      <c r="D2573" s="0">
+        <v>0.15725308039606</v>
+      </c>
+      <c r="E2573" s="0">
+        <v>646</v>
+      </c>
+      <c r="F2573" s="0">
+        <v>0.157599414491339</v>
+      </c>
+      <c r="G2573" s="0">
+        <v>60</v>
+      </c>
+      <c r="H2573" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2574">
+      <c r="A2574" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2574" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2574" s="0">
+        <v>57197</v>
+      </c>
+      <c r="D2574" s="0">
+        <v>0.148840053606048</v>
+      </c>
+      <c r="E2574" s="0">
+        <v>605</v>
+      </c>
+      <c r="F2574" s="0">
+        <v>0.14759697487192</v>
+      </c>
+      <c r="G2574" s="0">
+        <v>159</v>
+      </c>
+      <c r="H2574" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2575">
+      <c r="A2575" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2575" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2575" s="0">
+        <v>52099</v>
+      </c>
+      <c r="D2575" s="0">
+        <v>0.135573857943974</v>
+      </c>
+      <c r="E2575" s="0">
+        <v>574</v>
+      </c>
+      <c r="F2575" s="0">
+        <v>0.140034154671871</v>
+      </c>
+      <c r="G2575" s="0">
+        <v>432</v>
+      </c>
+      <c r="H2575" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2576">
+      <c r="A2576" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2576" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2576" s="0">
+        <v>36822</v>
+      </c>
+      <c r="D2576" s="0">
+        <v>9.58195089581951E-02</v>
+      </c>
+      <c r="E2576" s="0">
+        <v>447</v>
+      </c>
+      <c r="F2576" s="0">
+        <v>0.109050988045865</v>
+      </c>
+      <c r="G2576" s="0">
+        <v>888</v>
+      </c>
+      <c r="H2576" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2577">
+      <c r="A2577" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2577" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2577" s="0">
+        <v>22156</v>
+      </c>
+      <c r="D2577" s="0">
+        <v>5.76551257530218E-02</v>
+      </c>
+      <c r="E2577" s="0">
+        <v>314</v>
+      </c>
+      <c r="F2577" s="0">
+        <v>7.66040497682361E-02</v>
+      </c>
+      <c r="G2577" s="0">
+        <v>1416</v>
+      </c>
+      <c r="H2577" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2578">
+      <c r="A2578" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2578" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2578" s="0">
+        <v>11768</v>
+      </c>
+      <c r="D2578" s="0">
+        <v>3.06231052474075E-02</v>
+      </c>
+      <c r="E2578" s="0">
+        <v>139</v>
+      </c>
+      <c r="F2578" s="0">
+        <v>0.033910709929251</v>
+      </c>
+      <c r="G2578" s="0">
+        <v>1696</v>
+      </c>
+      <c r="H2578" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2579">
+      <c r="A2579" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2579" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2579" s="0">
+        <v>542</v>
+      </c>
+      <c r="D2579" s="0">
+        <v>1.41041154351588E-03</v>
+      </c>
+      <c r="E2579" s="0">
+        <v>-2</v>
+      </c>
+      <c r="F2579" s="0">
+        <v>-4.87923883874116E-04</v>
+      </c>
+      <c r="G2579" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2579" s="0">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -70052,11 +71732,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1629</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1695</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1629</Url>
-      <Description>HJYU5V3E37X6-122305290-1629</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1695</Url>
+      <Description>HJYU5V3E37X6-122305290-1695</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -70079,17 +71759,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA40A4CD-5221-49C8-A10C-7F1D26521E1B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F69CB2B5-B32D-459C-BE47-7FC76B37C7BB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92CB6363-C8BA-4F26-9DAF-ED90BCADED60}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82D78588-FD18-48C9-8E97-2BCC0CE3F5CF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4982E737-C843-4E8E-8C99-AF9BC6DEB929}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{117F3E43-F174-46B4-8A24-9E2C21978329}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F76E3AB-D79F-4447-A4A1-3DC464491A21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{805EB301-FFC8-4DD8-9921-3F497B0D53E0}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2579</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2589</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2579"/>
+  <dimension ref="A1:H2589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -71301,6 +71301,286 @@
       </c>
       <c r="H2579" s="0">
         <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2580">
+      <c r="A2580" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2580" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2580" s="0">
+        <v>19332</v>
+      </c>
+      <c r="D2580" s="0">
+        <v>4.97924028723613E-02</v>
+      </c>
+      <c r="E2580" s="0">
+        <v>247</v>
+      </c>
+      <c r="F2580" s="0">
+        <v>6.22636753214016E-02</v>
+      </c>
+      <c r="G2580" s="0">
+        <v>5</v>
+      </c>
+      <c r="H2580" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2581">
+      <c r="A2581" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2581" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2581" s="0">
+        <v>51330</v>
+      </c>
+      <c r="D2581" s="0">
+        <v>0.132207947415596</v>
+      </c>
+      <c r="E2581" s="0">
+        <v>481</v>
+      </c>
+      <c r="F2581" s="0">
+        <v>0.121250315099571</v>
+      </c>
+      <c r="G2581" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2581" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2582">
+      <c r="A2582" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2582" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2582" s="0">
+        <v>74027</v>
+      </c>
+      <c r="D2582" s="0">
+        <v>0.190667401584538</v>
+      </c>
+      <c r="E2582" s="0">
+        <v>690</v>
+      </c>
+      <c r="F2582" s="0">
+        <v>0.17393496344845</v>
+      </c>
+      <c r="G2582" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2582" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2583">
+      <c r="A2583" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2583" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2583" s="0">
+        <v>61015</v>
+      </c>
+      <c r="D2583" s="0">
+        <v>0.15715308613993</v>
+      </c>
+      <c r="E2583" s="0">
+        <v>585</v>
+      </c>
+      <c r="F2583" s="0">
+        <v>0.147466599445425</v>
+      </c>
+      <c r="G2583" s="0">
+        <v>61</v>
+      </c>
+      <c r="H2583" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2584">
+      <c r="A2584" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2584" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2584" s="0">
+        <v>57821</v>
+      </c>
+      <c r="D2584" s="0">
+        <v>0.148926470436727</v>
+      </c>
+      <c r="E2584" s="0">
+        <v>624</v>
+      </c>
+      <c r="F2584" s="0">
+        <v>0.15729770607512</v>
+      </c>
+      <c r="G2584" s="0">
+        <v>161</v>
+      </c>
+      <c r="H2584" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2585">
+      <c r="A2585" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2585" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2585" s="0">
+        <v>52665</v>
+      </c>
+      <c r="D2585" s="0">
+        <v>0.135646435820034</v>
+      </c>
+      <c r="E2585" s="0">
+        <v>566</v>
+      </c>
+      <c r="F2585" s="0">
+        <v>0.142677085959163</v>
+      </c>
+      <c r="G2585" s="0">
+        <v>439</v>
+      </c>
+      <c r="H2585" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2586">
+      <c r="A2586" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2586" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2586" s="0">
+        <v>37236</v>
+      </c>
+      <c r="D2586" s="0">
+        <v>9.59067821930087E-02</v>
+      </c>
+      <c r="E2586" s="0">
+        <v>414</v>
+      </c>
+      <c r="F2586" s="0">
+        <v>0.10436097806907</v>
+      </c>
+      <c r="G2586" s="0">
+        <v>898</v>
+      </c>
+      <c r="H2586" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2587">
+      <c r="A2587" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2587" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2587" s="0">
+        <v>22390</v>
+      </c>
+      <c r="D2587" s="0">
+        <v>5.76687306182582E-02</v>
+      </c>
+      <c r="E2587" s="0">
+        <v>234</v>
+      </c>
+      <c r="F2587" s="0">
+        <v>5.89866397781699E-02</v>
+      </c>
+      <c r="G2587" s="0">
+        <v>1447</v>
+      </c>
+      <c r="H2587" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2588">
+      <c r="A2588" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2588" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2588" s="0">
+        <v>11889</v>
+      </c>
+      <c r="D2588" s="0">
+        <v>3.06218641500881E-02</v>
+      </c>
+      <c r="E2588" s="0">
+        <v>121</v>
+      </c>
+      <c r="F2588" s="0">
+        <v>3.05016385177716E-02</v>
+      </c>
+      <c r="G2588" s="0">
+        <v>1735</v>
+      </c>
+      <c r="H2588" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2589">
+      <c r="A2589" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2589" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2589" s="0">
+        <v>547</v>
+      </c>
+      <c r="D2589" s="0">
+        <v>1.40887876945901E-03</v>
+      </c>
+      <c r="E2589" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2589" s="0">
+        <v>1.26039828585833E-03</v>
+      </c>
+      <c r="G2589" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2589" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -71732,11 +72012,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1695</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1706</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1695</Url>
-      <Description>HJYU5V3E37X6-122305290-1695</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1706</Url>
+      <Description>HJYU5V3E37X6-122305290-1706</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -71759,17 +72039,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F69CB2B5-B32D-459C-BE47-7FC76B37C7BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353623D0-1903-41B1-890C-0F6B7369F91E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82D78588-FD18-48C9-8E97-2BCC0CE3F5CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A1B1BC-9176-4F96-B60C-03E0384DCFE2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{117F3E43-F174-46B4-8A24-9E2C21978329}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E0D239-8513-4986-806D-F68543C83D45}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{805EB301-FFC8-4DD8-9921-3F497B0D53E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CE616E-8412-4720-911C-21A146EB5E4E}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2519</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2589</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2519"/>
+  <dimension ref="A1:H2589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -69620,6 +69620,1966 @@
         <v>1</v>
       </c>
       <c r="H2519" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2520">
+      <c r="A2520" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2520" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2520" s="0">
+        <v>17616</v>
+      </c>
+      <c r="D2520" s="0">
+        <v>4.93838235459021E-02</v>
+      </c>
+      <c r="E2520" s="0">
+        <v>244</v>
+      </c>
+      <c r="F2520" s="0">
+        <v>0.056221198156682</v>
+      </c>
+      <c r="G2520" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2520" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2521">
+      <c r="A2521" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2521" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2521" s="0">
+        <v>47544</v>
+      </c>
+      <c r="D2521" s="0">
+        <v>0.133282499243095</v>
+      </c>
+      <c r="E2521" s="0">
+        <v>542</v>
+      </c>
+      <c r="F2521" s="0">
+        <v>0.124884792626728</v>
+      </c>
+      <c r="G2521" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2521" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2522">
+      <c r="A2522" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2522" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2522" s="0">
+        <v>68631</v>
+      </c>
+      <c r="D2522" s="0">
+        <v>0.192396752598706</v>
+      </c>
+      <c r="E2522" s="0">
+        <v>807</v>
+      </c>
+      <c r="F2522" s="0">
+        <v>0.18594470046083</v>
+      </c>
+      <c r="G2522" s="0">
+        <v>28</v>
+      </c>
+      <c r="H2522" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2523">
+      <c r="A2523" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2523" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2523" s="0">
+        <v>56221</v>
+      </c>
+      <c r="D2523" s="0">
+        <v>0.157607172092084</v>
+      </c>
+      <c r="E2523" s="0">
+        <v>696</v>
+      </c>
+      <c r="F2523" s="0">
+        <v>0.16036866359447</v>
+      </c>
+      <c r="G2523" s="0">
+        <v>58</v>
+      </c>
+      <c r="H2523" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2524">
+      <c r="A2524" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2524" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2524" s="0">
+        <v>52952</v>
+      </c>
+      <c r="D2524" s="0">
+        <v>0.148443019096424</v>
+      </c>
+      <c r="E2524" s="0">
+        <v>648</v>
+      </c>
+      <c r="F2524" s="0">
+        <v>0.149308755760369</v>
+      </c>
+      <c r="G2524" s="0">
+        <v>154</v>
+      </c>
+      <c r="H2524" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2525">
+      <c r="A2525" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2525" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2525" s="0">
+        <v>48104</v>
+      </c>
+      <c r="D2525" s="0">
+        <v>0.134852375559268</v>
+      </c>
+      <c r="E2525" s="0">
+        <v>591</v>
+      </c>
+      <c r="F2525" s="0">
+        <v>0.136175115207373</v>
+      </c>
+      <c r="G2525" s="0">
+        <v>419</v>
+      </c>
+      <c r="H2525" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2526">
+      <c r="A2526" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2526" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2526" s="0">
+        <v>33891</v>
+      </c>
+      <c r="D2526" s="0">
+        <v>9.50083539846825E-02</v>
+      </c>
+      <c r="E2526" s="0">
+        <v>463</v>
+      </c>
+      <c r="F2526" s="0">
+        <v>0.10668202764977</v>
+      </c>
+      <c r="G2526" s="0">
+        <v>855</v>
+      </c>
+      <c r="H2526" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2527">
+      <c r="A2527" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2527" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2527" s="0">
+        <v>20314</v>
+      </c>
+      <c r="D2527" s="0">
+        <v>5.69472633691788E-02</v>
+      </c>
+      <c r="E2527" s="0">
+        <v>238</v>
+      </c>
+      <c r="F2527" s="0">
+        <v>5.48387096774194E-02</v>
+      </c>
+      <c r="G2527" s="0">
+        <v>1357</v>
+      </c>
+      <c r="H2527" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2528">
+      <c r="A2528" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2528" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2528" s="0">
+        <v>10924</v>
+      </c>
+      <c r="D2528" s="0">
+        <v>3.06238015676336E-02</v>
+      </c>
+      <c r="E2528" s="0">
+        <v>107</v>
+      </c>
+      <c r="F2528" s="0">
+        <v>2.46543778801843E-02</v>
+      </c>
+      <c r="G2528" s="0">
+        <v>1648</v>
+      </c>
+      <c r="H2528" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2529">
+      <c r="A2529" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B2529" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2529" s="0">
+        <v>519</v>
+      </c>
+      <c r="D2529" s="0">
+        <v>1.4549389430247E-03</v>
+      </c>
+      <c r="E2529" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2529" s="0">
+        <v>9.21658986175115E-04</v>
+      </c>
+      <c r="G2529" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2529" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2530">
+      <c r="A2530" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2530" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2530" s="0">
+        <v>17938</v>
+      </c>
+      <c r="D2530" s="0">
+        <v>0.049352621703268</v>
+      </c>
+      <c r="E2530" s="0">
+        <v>322</v>
+      </c>
+      <c r="F2530" s="0">
+        <v>4.77037037037037E-02</v>
+      </c>
+      <c r="G2530" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2530" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2531">
+      <c r="A2531" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2531" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2531" s="0">
+        <v>48409</v>
+      </c>
+      <c r="D2531" s="0">
+        <v>0.133187148178922</v>
+      </c>
+      <c r="E2531" s="0">
+        <v>865</v>
+      </c>
+      <c r="F2531" s="0">
+        <v>0.128148148148148</v>
+      </c>
+      <c r="G2531" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2531" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2532">
+      <c r="A2532" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2532" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2532" s="0">
+        <v>69774</v>
+      </c>
+      <c r="D2532" s="0">
+        <v>0.191968437212834</v>
+      </c>
+      <c r="E2532" s="0">
+        <v>1143</v>
+      </c>
+      <c r="F2532" s="0">
+        <v>0.169333333333333</v>
+      </c>
+      <c r="G2532" s="0">
+        <v>28</v>
+      </c>
+      <c r="H2532" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2533">
+      <c r="A2533" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2533" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2533" s="0">
+        <v>57216</v>
+      </c>
+      <c r="D2533" s="0">
+        <v>0.157417750215976</v>
+      </c>
+      <c r="E2533" s="0">
+        <v>995</v>
+      </c>
+      <c r="F2533" s="0">
+        <v>0.147407407407407</v>
+      </c>
+      <c r="G2533" s="0">
+        <v>58</v>
+      </c>
+      <c r="H2533" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2534">
+      <c r="A2534" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2534" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2534" s="0">
+        <v>53963</v>
+      </c>
+      <c r="D2534" s="0">
+        <v>0.148467807167658</v>
+      </c>
+      <c r="E2534" s="0">
+        <v>1011</v>
+      </c>
+      <c r="F2534" s="0">
+        <v>0.149777777777778</v>
+      </c>
+      <c r="G2534" s="0">
+        <v>154</v>
+      </c>
+      <c r="H2534" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2535">
+      <c r="A2535" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2535" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2535" s="0">
+        <v>49055</v>
+      </c>
+      <c r="D2535" s="0">
+        <v>0.134964480859283</v>
+      </c>
+      <c r="E2535" s="0">
+        <v>951</v>
+      </c>
+      <c r="F2535" s="0">
+        <v>0.140888888888889</v>
+      </c>
+      <c r="G2535" s="0">
+        <v>421</v>
+      </c>
+      <c r="H2535" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2536">
+      <c r="A2536" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2536" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2536" s="0">
+        <v>34638</v>
+      </c>
+      <c r="D2536" s="0">
+        <v>9.52991476506743E-02</v>
+      </c>
+      <c r="E2536" s="0">
+        <v>747</v>
+      </c>
+      <c r="F2536" s="0">
+        <v>0.110666666666667</v>
+      </c>
+      <c r="G2536" s="0">
+        <v>856</v>
+      </c>
+      <c r="H2536" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2537">
+      <c r="A2537" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2537" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2537" s="0">
+        <v>20761</v>
+      </c>
+      <c r="D2537" s="0">
+        <v>5.71195104906649E-02</v>
+      </c>
+      <c r="E2537" s="0">
+        <v>447</v>
+      </c>
+      <c r="F2537" s="0">
+        <v>6.62222222222222E-02</v>
+      </c>
+      <c r="G2537" s="0">
+        <v>1361</v>
+      </c>
+      <c r="H2537" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2538">
+      <c r="A2538" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2538" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2538" s="0">
+        <v>11178</v>
+      </c>
+      <c r="D2538" s="0">
+        <v>3.07539082059945E-02</v>
+      </c>
+      <c r="E2538" s="0">
+        <v>254</v>
+      </c>
+      <c r="F2538" s="0">
+        <v>3.76296296296296E-02</v>
+      </c>
+      <c r="G2538" s="0">
+        <v>1656</v>
+      </c>
+      <c r="H2538" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2539">
+      <c r="A2539" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2539" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2539" s="0">
+        <v>534</v>
+      </c>
+      <c r="D2539" s="0">
+        <v>1.46918831472545E-03</v>
+      </c>
+      <c r="E2539" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2539" s="0">
+        <v>2.22222222222222E-03</v>
+      </c>
+      <c r="G2539" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2539" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2540">
+      <c r="A2540" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2540" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2540" s="0">
+        <v>18111</v>
+      </c>
+      <c r="D2540" s="0">
+        <v>4.94136713612974E-02</v>
+      </c>
+      <c r="E2540" s="0">
+        <v>173</v>
+      </c>
+      <c r="F2540" s="0">
+        <v>5.66841415465269E-02</v>
+      </c>
+      <c r="G2540" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2540" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2541">
+      <c r="A2541" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2541" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2541" s="0">
+        <v>48783</v>
+      </c>
+      <c r="D2541" s="0">
+        <v>0.133098510850763</v>
+      </c>
+      <c r="E2541" s="0">
+        <v>374</v>
+      </c>
+      <c r="F2541" s="0">
+        <v>0.122542595019659</v>
+      </c>
+      <c r="G2541" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2541" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2542">
+      <c r="A2542" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2542" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2542" s="0">
+        <v>70283</v>
+      </c>
+      <c r="D2542" s="0">
+        <v>0.191758658510632</v>
+      </c>
+      <c r="E2542" s="0">
+        <v>509</v>
+      </c>
+      <c r="F2542" s="0">
+        <v>0.166775884665793</v>
+      </c>
+      <c r="G2542" s="0">
+        <v>28</v>
+      </c>
+      <c r="H2542" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2543">
+      <c r="A2543" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2543" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2543" s="0">
+        <v>57677</v>
+      </c>
+      <c r="D2543" s="0">
+        <v>0.157364713329223</v>
+      </c>
+      <c r="E2543" s="0">
+        <v>461</v>
+      </c>
+      <c r="F2543" s="0">
+        <v>0.151048492791612</v>
+      </c>
+      <c r="G2543" s="0">
+        <v>59</v>
+      </c>
+      <c r="H2543" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2544">
+      <c r="A2544" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2544" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2544" s="0">
+        <v>54433</v>
+      </c>
+      <c r="D2544" s="0">
+        <v>0.148513851979985</v>
+      </c>
+      <c r="E2544" s="0">
+        <v>470</v>
+      </c>
+      <c r="F2544" s="0">
+        <v>0.153997378768021</v>
+      </c>
+      <c r="G2544" s="0">
+        <v>154</v>
+      </c>
+      <c r="H2544" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2545">
+      <c r="A2545" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2545" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2545" s="0">
+        <v>49529</v>
+      </c>
+      <c r="D2545" s="0">
+        <v>0.135133881555613</v>
+      </c>
+      <c r="E2545" s="0">
+        <v>474</v>
+      </c>
+      <c r="F2545" s="0">
+        <v>0.155307994757536</v>
+      </c>
+      <c r="G2545" s="0">
+        <v>423</v>
+      </c>
+      <c r="H2545" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2546">
+      <c r="A2546" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2546" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2546" s="0">
+        <v>34943</v>
+      </c>
+      <c r="D2546" s="0">
+        <v>9.53377460315728E-02</v>
+      </c>
+      <c r="E2546" s="0">
+        <v>305</v>
+      </c>
+      <c r="F2546" s="0">
+        <v>9.99344692005242E-02</v>
+      </c>
+      <c r="G2546" s="0">
+        <v>859</v>
+      </c>
+      <c r="H2546" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2547">
+      <c r="A2547" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2547" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2547" s="0">
+        <v>20976</v>
+      </c>
+      <c r="D2547" s="0">
+        <v>5.72304770843451E-02</v>
+      </c>
+      <c r="E2547" s="0">
+        <v>215</v>
+      </c>
+      <c r="F2547" s="0">
+        <v>7.04456094364351E-02</v>
+      </c>
+      <c r="G2547" s="0">
+        <v>1364</v>
+      </c>
+      <c r="H2547" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2548">
+      <c r="A2548" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2548" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2548" s="0">
+        <v>11242</v>
+      </c>
+      <c r="D2548" s="0">
+        <v>3.06724362787094E-02</v>
+      </c>
+      <c r="E2548" s="0">
+        <v>64</v>
+      </c>
+      <c r="F2548" s="0">
+        <v>2.09698558322412E-02</v>
+      </c>
+      <c r="G2548" s="0">
+        <v>1660</v>
+      </c>
+      <c r="H2548" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2549">
+      <c r="A2549" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B2549" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2549" s="0">
+        <v>541</v>
+      </c>
+      <c r="D2549" s="0">
+        <v>1.47605301785997E-03</v>
+      </c>
+      <c r="E2549" s="0">
+        <v>7</v>
+      </c>
+      <c r="F2549" s="0">
+        <v>2.29357798165138E-03</v>
+      </c>
+      <c r="G2549" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2549" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2550">
+      <c r="A2550" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2550" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2550" s="0">
+        <v>18534</v>
+      </c>
+      <c r="D2550" s="0">
+        <v>4.94909117126355E-02</v>
+      </c>
+      <c r="E2550" s="0">
+        <v>423</v>
+      </c>
+      <c r="F2550" s="0">
+        <v>5.30407523510972E-02</v>
+      </c>
+      <c r="G2550" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2550" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2551">
+      <c r="A2551" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2551" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2551" s="0">
+        <v>49787</v>
+      </c>
+      <c r="D2551" s="0">
+        <v>0.132945075074835</v>
+      </c>
+      <c r="E2551" s="0">
+        <v>1004</v>
+      </c>
+      <c r="F2551" s="0">
+        <v>0.1258934169279</v>
+      </c>
+      <c r="G2551" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2551" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2552">
+      <c r="A2552" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2552" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2552" s="0">
+        <v>71667</v>
+      </c>
+      <c r="D2552" s="0">
+        <v>0.191370733231329</v>
+      </c>
+      <c r="E2552" s="0">
+        <v>1384</v>
+      </c>
+      <c r="F2552" s="0">
+        <v>0.173542319749216</v>
+      </c>
+      <c r="G2552" s="0">
+        <v>29</v>
+      </c>
+      <c r="H2552" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2553">
+      <c r="A2553" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2553" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2553" s="0">
+        <v>58909</v>
+      </c>
+      <c r="D2553" s="0">
+        <v>0.157303340783406</v>
+      </c>
+      <c r="E2553" s="0">
+        <v>1232</v>
+      </c>
+      <c r="F2553" s="0">
+        <v>0.15448275862069</v>
+      </c>
+      <c r="G2553" s="0">
+        <v>59</v>
+      </c>
+      <c r="H2553" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2554">
+      <c r="A2554" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2554" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2554" s="0">
+        <v>55713</v>
+      </c>
+      <c r="D2554" s="0">
+        <v>0.148769135871699</v>
+      </c>
+      <c r="E2554" s="0">
+        <v>1280</v>
+      </c>
+      <c r="F2554" s="0">
+        <v>0.160501567398119</v>
+      </c>
+      <c r="G2554" s="0">
+        <v>156</v>
+      </c>
+      <c r="H2554" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2555">
+      <c r="A2555" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2555" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2555" s="0">
+        <v>50671</v>
+      </c>
+      <c r="D2555" s="0">
+        <v>0.135305599837647</v>
+      </c>
+      <c r="E2555" s="0">
+        <v>1142</v>
+      </c>
+      <c r="F2555" s="0">
+        <v>0.143197492163009</v>
+      </c>
+      <c r="G2555" s="0">
+        <v>426</v>
+      </c>
+      <c r="H2555" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2556">
+      <c r="A2556" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2556" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2556" s="0">
+        <v>35747</v>
+      </c>
+      <c r="D2556" s="0">
+        <v>0.095454387665457</v>
+      </c>
+      <c r="E2556" s="0">
+        <v>804</v>
+      </c>
+      <c r="F2556" s="0">
+        <v>0.100815047021944</v>
+      </c>
+      <c r="G2556" s="0">
+        <v>869</v>
+      </c>
+      <c r="H2556" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2557">
+      <c r="A2557" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2557" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2557" s="0">
+        <v>21470</v>
+      </c>
+      <c r="D2557" s="0">
+        <v>5.73308446352802E-02</v>
+      </c>
+      <c r="E2557" s="0">
+        <v>494</v>
+      </c>
+      <c r="F2557" s="0">
+        <v>6.19435736677116E-02</v>
+      </c>
+      <c r="G2557" s="0">
+        <v>1380</v>
+      </c>
+      <c r="H2557" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2558">
+      <c r="A2558" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2558" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2558" s="0">
+        <v>11450</v>
+      </c>
+      <c r="D2558" s="0">
+        <v>3.05746702875621E-02</v>
+      </c>
+      <c r="E2558" s="0">
+        <v>208</v>
+      </c>
+      <c r="F2558" s="0">
+        <v>2.60815047021944E-02</v>
+      </c>
+      <c r="G2558" s="0">
+        <v>1676</v>
+      </c>
+      <c r="H2558" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2559">
+      <c r="A2559" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B2559" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2559" s="0">
+        <v>545</v>
+      </c>
+      <c r="D2559" s="0">
+        <v>1.45530090015034E-03</v>
+      </c>
+      <c r="E2559" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2559" s="0">
+        <v>5.01567398119122E-04</v>
+      </c>
+      <c r="G2559" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2559" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2560">
+      <c r="A2560" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2560" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2560" s="0">
+        <v>18876</v>
+      </c>
+      <c r="D2560" s="0">
+        <v>4.96493821445293E-02</v>
+      </c>
+      <c r="E2560" s="0">
+        <v>342</v>
+      </c>
+      <c r="F2560" s="0">
+        <v>6.00737748111716E-02</v>
+      </c>
+      <c r="G2560" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2560" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2561">
+      <c r="A2561" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2561" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2561" s="0">
+        <v>50396</v>
+      </c>
+      <c r="D2561" s="0">
+        <v>0.132556169874746</v>
+      </c>
+      <c r="E2561" s="0">
+        <v>609</v>
+      </c>
+      <c r="F2561" s="0">
+        <v>0.106973476198841</v>
+      </c>
+      <c r="G2561" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2561" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2562">
+      <c r="A2562" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2562" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2562" s="0">
+        <v>72623</v>
+      </c>
+      <c r="D2562" s="0">
+        <v>0.191019658798588</v>
+      </c>
+      <c r="E2562" s="0">
+        <v>956</v>
+      </c>
+      <c r="F2562" s="0">
+        <v>0.167925522571579</v>
+      </c>
+      <c r="G2562" s="0">
+        <v>29</v>
+      </c>
+      <c r="H2562" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2563">
+      <c r="A2563" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2563" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2563" s="0">
+        <v>59784</v>
+      </c>
+      <c r="D2563" s="0">
+        <v>0.157249346372565</v>
+      </c>
+      <c r="E2563" s="0">
+        <v>875</v>
+      </c>
+      <c r="F2563" s="0">
+        <v>0.153697523274196</v>
+      </c>
+      <c r="G2563" s="0">
+        <v>60</v>
+      </c>
+      <c r="H2563" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2564">
+      <c r="A2564" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2564" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2564" s="0">
+        <v>56592</v>
+      </c>
+      <c r="D2564" s="0">
+        <v>0.148853455939987</v>
+      </c>
+      <c r="E2564" s="0">
+        <v>879</v>
+      </c>
+      <c r="F2564" s="0">
+        <v>0.15440014052345</v>
+      </c>
+      <c r="G2564" s="0">
+        <v>156</v>
+      </c>
+      <c r="H2564" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2565">
+      <c r="A2565" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2565" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2565" s="0">
+        <v>51525</v>
+      </c>
+      <c r="D2565" s="0">
+        <v>0.135525768965717</v>
+      </c>
+      <c r="E2565" s="0">
+        <v>854</v>
+      </c>
+      <c r="F2565" s="0">
+        <v>0.150008782715616</v>
+      </c>
+      <c r="G2565" s="0">
+        <v>431</v>
+      </c>
+      <c r="H2565" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2566">
+      <c r="A2566" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2566" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2566" s="0">
+        <v>36375</v>
+      </c>
+      <c r="D2566" s="0">
+        <v>9.56768529088394E-02</v>
+      </c>
+      <c r="E2566" s="0">
+        <v>628</v>
+      </c>
+      <c r="F2566" s="0">
+        <v>0.110310908132795</v>
+      </c>
+      <c r="G2566" s="0">
+        <v>874</v>
+      </c>
+      <c r="H2566" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2567">
+      <c r="A2567" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2567" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2567" s="0">
+        <v>21842</v>
+      </c>
+      <c r="D2567" s="0">
+        <v>0.057450826700615</v>
+      </c>
+      <c r="E2567" s="0">
+        <v>372</v>
+      </c>
+      <c r="F2567" s="0">
+        <v>6.53434041805726E-02</v>
+      </c>
+      <c r="G2567" s="0">
+        <v>1399</v>
+      </c>
+      <c r="H2567" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2568">
+      <c r="A2568" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2568" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2568" s="0">
+        <v>11629</v>
+      </c>
+      <c r="D2568" s="0">
+        <v>3.05876597244507E-02</v>
+      </c>
+      <c r="E2568" s="0">
+        <v>179</v>
+      </c>
+      <c r="F2568" s="0">
+        <v>3.14421219040927E-02</v>
+      </c>
+      <c r="G2568" s="0">
+        <v>1681</v>
+      </c>
+      <c r="H2568" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2569">
+      <c r="A2569" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B2569" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2569" s="0">
+        <v>544</v>
+      </c>
+      <c r="D2569" s="0">
+        <v>1.43087856996312E-03</v>
+      </c>
+      <c r="E2569" s="0">
+        <v>-1</v>
+      </c>
+      <c r="F2569" s="0">
+        <v>-1.75654312313367E-04</v>
+      </c>
+      <c r="G2569" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2569" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2570">
+      <c r="A2570" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2570" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2570" s="0">
+        <v>19085</v>
+      </c>
+      <c r="D2570" s="0">
+        <v>4.96636610848719E-02</v>
+      </c>
+      <c r="E2570" s="0">
+        <v>209</v>
+      </c>
+      <c r="F2570" s="0">
+        <v>5.09880458648451E-02</v>
+      </c>
+      <c r="G2570" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2570" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2571">
+      <c r="A2571" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2571" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2571" s="0">
+        <v>50849</v>
+      </c>
+      <c r="D2571" s="0">
+        <v>0.132321063793799</v>
+      </c>
+      <c r="E2571" s="0">
+        <v>453</v>
+      </c>
+      <c r="F2571" s="0">
+        <v>0.110514759697487</v>
+      </c>
+      <c r="G2571" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2571" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2572">
+      <c r="A2572" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2572" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2572" s="0">
+        <v>73337</v>
+      </c>
+      <c r="D2572" s="0">
+        <v>0.190840131673107</v>
+      </c>
+      <c r="E2572" s="0">
+        <v>714</v>
+      </c>
+      <c r="F2572" s="0">
+        <v>0.174188826543059</v>
+      </c>
+      <c r="G2572" s="0">
+        <v>30</v>
+      </c>
+      <c r="H2572" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2573">
+      <c r="A2573" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2573" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2573" s="0">
+        <v>60430</v>
+      </c>
+      <c r="D2573" s="0">
+        <v>0.15725308039606</v>
+      </c>
+      <c r="E2573" s="0">
+        <v>646</v>
+      </c>
+      <c r="F2573" s="0">
+        <v>0.157599414491339</v>
+      </c>
+      <c r="G2573" s="0">
+        <v>60</v>
+      </c>
+      <c r="H2573" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2574">
+      <c r="A2574" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2574" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2574" s="0">
+        <v>57197</v>
+      </c>
+      <c r="D2574" s="0">
+        <v>0.148840053606048</v>
+      </c>
+      <c r="E2574" s="0">
+        <v>605</v>
+      </c>
+      <c r="F2574" s="0">
+        <v>0.14759697487192</v>
+      </c>
+      <c r="G2574" s="0">
+        <v>159</v>
+      </c>
+      <c r="H2574" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2575">
+      <c r="A2575" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2575" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2575" s="0">
+        <v>52099</v>
+      </c>
+      <c r="D2575" s="0">
+        <v>0.135573857943974</v>
+      </c>
+      <c r="E2575" s="0">
+        <v>574</v>
+      </c>
+      <c r="F2575" s="0">
+        <v>0.140034154671871</v>
+      </c>
+      <c r="G2575" s="0">
+        <v>432</v>
+      </c>
+      <c r="H2575" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2576">
+      <c r="A2576" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2576" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2576" s="0">
+        <v>36822</v>
+      </c>
+      <c r="D2576" s="0">
+        <v>9.58195089581951E-02</v>
+      </c>
+      <c r="E2576" s="0">
+        <v>447</v>
+      </c>
+      <c r="F2576" s="0">
+        <v>0.109050988045865</v>
+      </c>
+      <c r="G2576" s="0">
+        <v>888</v>
+      </c>
+      <c r="H2576" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2577">
+      <c r="A2577" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2577" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2577" s="0">
+        <v>22156</v>
+      </c>
+      <c r="D2577" s="0">
+        <v>5.76551257530218E-02</v>
+      </c>
+      <c r="E2577" s="0">
+        <v>314</v>
+      </c>
+      <c r="F2577" s="0">
+        <v>7.66040497682361E-02</v>
+      </c>
+      <c r="G2577" s="0">
+        <v>1416</v>
+      </c>
+      <c r="H2577" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2578">
+      <c r="A2578" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2578" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2578" s="0">
+        <v>11768</v>
+      </c>
+      <c r="D2578" s="0">
+        <v>3.06231052474075E-02</v>
+      </c>
+      <c r="E2578" s="0">
+        <v>139</v>
+      </c>
+      <c r="F2578" s="0">
+        <v>0.033910709929251</v>
+      </c>
+      <c r="G2578" s="0">
+        <v>1696</v>
+      </c>
+      <c r="H2578" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2579">
+      <c r="A2579" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B2579" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2579" s="0">
+        <v>542</v>
+      </c>
+      <c r="D2579" s="0">
+        <v>1.41041154351588E-03</v>
+      </c>
+      <c r="E2579" s="0">
+        <v>-2</v>
+      </c>
+      <c r="F2579" s="0">
+        <v>-4.87923883874116E-04</v>
+      </c>
+      <c r="G2579" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2579" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2580">
+      <c r="A2580" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2580" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2580" s="0">
+        <v>19332</v>
+      </c>
+      <c r="D2580" s="0">
+        <v>4.97924028723613E-02</v>
+      </c>
+      <c r="E2580" s="0">
+        <v>247</v>
+      </c>
+      <c r="F2580" s="0">
+        <v>6.22636753214016E-02</v>
+      </c>
+      <c r="G2580" s="0">
+        <v>5</v>
+      </c>
+      <c r="H2580" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2581">
+      <c r="A2581" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2581" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2581" s="0">
+        <v>51330</v>
+      </c>
+      <c r="D2581" s="0">
+        <v>0.132207947415596</v>
+      </c>
+      <c r="E2581" s="0">
+        <v>481</v>
+      </c>
+      <c r="F2581" s="0">
+        <v>0.121250315099571</v>
+      </c>
+      <c r="G2581" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2581" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2582">
+      <c r="A2582" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2582" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2582" s="0">
+        <v>74027</v>
+      </c>
+      <c r="D2582" s="0">
+        <v>0.190667401584538</v>
+      </c>
+      <c r="E2582" s="0">
+        <v>690</v>
+      </c>
+      <c r="F2582" s="0">
+        <v>0.17393496344845</v>
+      </c>
+      <c r="G2582" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2582" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2583">
+      <c r="A2583" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2583" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2583" s="0">
+        <v>61015</v>
+      </c>
+      <c r="D2583" s="0">
+        <v>0.15715308613993</v>
+      </c>
+      <c r="E2583" s="0">
+        <v>585</v>
+      </c>
+      <c r="F2583" s="0">
+        <v>0.147466599445425</v>
+      </c>
+      <c r="G2583" s="0">
+        <v>61</v>
+      </c>
+      <c r="H2583" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2584">
+      <c r="A2584" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2584" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2584" s="0">
+        <v>57821</v>
+      </c>
+      <c r="D2584" s="0">
+        <v>0.148926470436727</v>
+      </c>
+      <c r="E2584" s="0">
+        <v>624</v>
+      </c>
+      <c r="F2584" s="0">
+        <v>0.15729770607512</v>
+      </c>
+      <c r="G2584" s="0">
+        <v>161</v>
+      </c>
+      <c r="H2584" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2585">
+      <c r="A2585" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2585" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2585" s="0">
+        <v>52665</v>
+      </c>
+      <c r="D2585" s="0">
+        <v>0.135646435820034</v>
+      </c>
+      <c r="E2585" s="0">
+        <v>566</v>
+      </c>
+      <c r="F2585" s="0">
+        <v>0.142677085959163</v>
+      </c>
+      <c r="G2585" s="0">
+        <v>439</v>
+      </c>
+      <c r="H2585" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2586">
+      <c r="A2586" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2586" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2586" s="0">
+        <v>37236</v>
+      </c>
+      <c r="D2586" s="0">
+        <v>9.59067821930087E-02</v>
+      </c>
+      <c r="E2586" s="0">
+        <v>414</v>
+      </c>
+      <c r="F2586" s="0">
+        <v>0.10436097806907</v>
+      </c>
+      <c r="G2586" s="0">
+        <v>898</v>
+      </c>
+      <c r="H2586" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2587">
+      <c r="A2587" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2587" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2587" s="0">
+        <v>22390</v>
+      </c>
+      <c r="D2587" s="0">
+        <v>5.76687306182582E-02</v>
+      </c>
+      <c r="E2587" s="0">
+        <v>234</v>
+      </c>
+      <c r="F2587" s="0">
+        <v>5.89866397781699E-02</v>
+      </c>
+      <c r="G2587" s="0">
+        <v>1447</v>
+      </c>
+      <c r="H2587" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2588">
+      <c r="A2588" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2588" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2588" s="0">
+        <v>11889</v>
+      </c>
+      <c r="D2588" s="0">
+        <v>3.06218641500881E-02</v>
+      </c>
+      <c r="E2588" s="0">
+        <v>121</v>
+      </c>
+      <c r="F2588" s="0">
+        <v>3.05016385177716E-02</v>
+      </c>
+      <c r="G2588" s="0">
+        <v>1735</v>
+      </c>
+      <c r="H2588" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2589">
+      <c r="A2589" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B2589" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2589" s="0">
+        <v>547</v>
+      </c>
+      <c r="D2589" s="0">
+        <v>1.40887876945901E-03</v>
+      </c>
+      <c r="E2589" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2589" s="0">
+        <v>1.26039828585833E-03</v>
+      </c>
+      <c r="G2589" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2589" s="0">
         <v>0</v>
       </c>
     </row>
@@ -70052,11 +72012,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1629</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1706</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1629</Url>
-      <Description>HJYU5V3E37X6-122305290-1629</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1706</Url>
+      <Description>HJYU5V3E37X6-122305290-1706</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -70079,17 +72039,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA40A4CD-5221-49C8-A10C-7F1D26521E1B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353623D0-1903-41B1-890C-0F6B7369F91E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92CB6363-C8BA-4F26-9DAF-ED90BCADED60}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A1B1BC-9176-4F96-B60C-03E0384DCFE2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4982E737-C843-4E8E-8C99-AF9BC6DEB929}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E0D239-8513-4986-806D-F68543C83D45}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F76E3AB-D79F-4447-A4A1-3DC464491A21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CE616E-8412-4720-911C-21A146EB5E4E}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2589</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2599</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2589"/>
+  <dimension ref="A1:H2599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -71580,6 +71580,286 @@
         <v>1</v>
       </c>
       <c r="H2589" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2590">
+      <c r="A2590" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2590" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2590" s="0">
+        <v>19543</v>
+      </c>
+      <c r="D2590" s="0">
+        <v>4.97773860950363E-02</v>
+      </c>
+      <c r="E2590" s="0">
+        <v>211</v>
+      </c>
+      <c r="F2590" s="0">
+        <v>4.84389348025712E-02</v>
+      </c>
+      <c r="G2590" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2590" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2591">
+      <c r="A2591" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2591" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2591" s="0">
+        <v>51805</v>
+      </c>
+      <c r="D2591" s="0">
+        <v>0.131950953622952</v>
+      </c>
+      <c r="E2591" s="0">
+        <v>475</v>
+      </c>
+      <c r="F2591" s="0">
+        <v>0.109044995408632</v>
+      </c>
+      <c r="G2591" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2591" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2592">
+      <c r="A2592" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2592" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2592" s="0">
+        <v>74767</v>
+      </c>
+      <c r="D2592" s="0">
+        <v>0.190436771538023</v>
+      </c>
+      <c r="E2592" s="0">
+        <v>740</v>
+      </c>
+      <c r="F2592" s="0">
+        <v>0.169880624426079</v>
+      </c>
+      <c r="G2592" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2592" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2593">
+      <c r="A2593" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2593" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2593" s="0">
+        <v>61715</v>
+      </c>
+      <c r="D2593" s="0">
+        <v>0.157192415844812</v>
+      </c>
+      <c r="E2593" s="0">
+        <v>700</v>
+      </c>
+      <c r="F2593" s="0">
+        <v>0.160697887970615</v>
+      </c>
+      <c r="G2593" s="0">
+        <v>62</v>
+      </c>
+      <c r="H2593" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2594">
+      <c r="A2594" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2594" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2594" s="0">
+        <v>58521</v>
+      </c>
+      <c r="D2594" s="0">
+        <v>0.149057074741218</v>
+      </c>
+      <c r="E2594" s="0">
+        <v>700</v>
+      </c>
+      <c r="F2594" s="0">
+        <v>0.160697887970615</v>
+      </c>
+      <c r="G2594" s="0">
+        <v>162</v>
+      </c>
+      <c r="H2594" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2595">
+      <c r="A2595" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2595" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2595" s="0">
+        <v>53330</v>
+      </c>
+      <c r="D2595" s="0">
+        <v>0.135835235145489</v>
+      </c>
+      <c r="E2595" s="0">
+        <v>665</v>
+      </c>
+      <c r="F2595" s="0">
+        <v>0.152662993572084</v>
+      </c>
+      <c r="G2595" s="0">
+        <v>450</v>
+      </c>
+      <c r="H2595" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2596">
+      <c r="A2596" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2596" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2596" s="0">
+        <v>37698</v>
+      </c>
+      <c r="D2596" s="0">
+        <v>9.60194392371016E-02</v>
+      </c>
+      <c r="E2596" s="0">
+        <v>462</v>
+      </c>
+      <c r="F2596" s="0">
+        <v>0.106060606060606</v>
+      </c>
+      <c r="G2596" s="0">
+        <v>912</v>
+      </c>
+      <c r="H2596" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2597">
+      <c r="A2597" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2597" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2597" s="0">
+        <v>22658</v>
+      </c>
+      <c r="D2597" s="0">
+        <v>5.77115086804141E-02</v>
+      </c>
+      <c r="E2597" s="0">
+        <v>268</v>
+      </c>
+      <c r="F2597" s="0">
+        <v>0.061524334251607</v>
+      </c>
+      <c r="G2597" s="0">
+        <v>1475</v>
+      </c>
+      <c r="H2597" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2598">
+      <c r="A2598" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2598" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2598" s="0">
+        <v>12037</v>
+      </c>
+      <c r="D2598" s="0">
+        <v>3.06590797946043E-02</v>
+      </c>
+      <c r="E2598" s="0">
+        <v>148</v>
+      </c>
+      <c r="F2598" s="0">
+        <v>3.39761248852158E-02</v>
+      </c>
+      <c r="G2598" s="0">
+        <v>1778</v>
+      </c>
+      <c r="H2598" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2599">
+      <c r="A2599" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2599" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2599" s="0">
+        <v>534</v>
+      </c>
+      <c r="D2599" s="0">
+        <v>1.36013530035048E-03</v>
+      </c>
+      <c r="E2599" s="0">
+        <v>-13</v>
+      </c>
+      <c r="F2599" s="0">
+        <v>-2.98438934802571E-03</v>
+      </c>
+      <c r="G2599" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2599" s="0">
         <v>0</v>
       </c>
     </row>
@@ -72012,11 +72292,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1706</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1717</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1706</Url>
-      <Description>HJYU5V3E37X6-122305290-1706</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1717</Url>
+      <Description>HJYU5V3E37X6-122305290-1717</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -72039,17 +72319,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353623D0-1903-41B1-890C-0F6B7369F91E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C839E01-7A9B-480D-987F-2C2E39349DBC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A1B1BC-9176-4F96-B60C-03E0384DCFE2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EE34C2-3C12-4C32-BF9C-0A97B9FFC345}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E0D239-8513-4986-806D-F68543C83D45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C225B6B-551A-4F41-BDC7-C74B95D320EA}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CE616E-8412-4720-911C-21A146EB5E4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE504BA8-A2D4-48B4-AD70-C9EBCB995DE9}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2599</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2609</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2599"/>
+  <dimension ref="A1:H2609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -71860,6 +71860,286 @@
         <v>0</v>
       </c>
       <c r="H2599" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2600">
+      <c r="A2600" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2600" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2600" s="0">
+        <v>19773</v>
+      </c>
+      <c r="D2600" s="0">
+        <v>4.97406432851515E-02</v>
+      </c>
+      <c r="E2600" s="0">
+        <v>230</v>
+      </c>
+      <c r="F2600" s="0">
+        <v>4.68050468050468E-02</v>
+      </c>
+      <c r="G2600" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2600" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2601">
+      <c r="A2601" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2601" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2601" s="0">
+        <v>52385</v>
+      </c>
+      <c r="D2601" s="0">
+        <v>0.131778870100271</v>
+      </c>
+      <c r="E2601" s="0">
+        <v>580</v>
+      </c>
+      <c r="F2601" s="0">
+        <v>0.118030118030118</v>
+      </c>
+      <c r="G2601" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2601" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2602">
+      <c r="A2602" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2602" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2602" s="0">
+        <v>75621</v>
+      </c>
+      <c r="D2602" s="0">
+        <v>0.190230980926842</v>
+      </c>
+      <c r="E2602" s="0">
+        <v>854</v>
+      </c>
+      <c r="F2602" s="0">
+        <v>0.173789173789174</v>
+      </c>
+      <c r="G2602" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2602" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2603">
+      <c r="A2603" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2603" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2603" s="0">
+        <v>62495</v>
+      </c>
+      <c r="D2603" s="0">
+        <v>0.15721142477649</v>
+      </c>
+      <c r="E2603" s="0">
+        <v>780</v>
+      </c>
+      <c r="F2603" s="0">
+        <v>0.158730158730159</v>
+      </c>
+      <c r="G2603" s="0">
+        <v>62</v>
+      </c>
+      <c r="H2603" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2604">
+      <c r="A2604" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2604" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2604" s="0">
+        <v>59292</v>
+      </c>
+      <c r="D2604" s="0">
+        <v>0.14915400908629</v>
+      </c>
+      <c r="E2604" s="0">
+        <v>771</v>
+      </c>
+      <c r="F2604" s="0">
+        <v>0.156898656898657</v>
+      </c>
+      <c r="G2604" s="0">
+        <v>162</v>
+      </c>
+      <c r="H2604" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2605">
+      <c r="A2605" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2605" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2605" s="0">
+        <v>54049</v>
+      </c>
+      <c r="D2605" s="0">
+        <v>0.135964801948068</v>
+      </c>
+      <c r="E2605" s="0">
+        <v>719</v>
+      </c>
+      <c r="F2605" s="0">
+        <v>0.146316646316646</v>
+      </c>
+      <c r="G2605" s="0">
+        <v>451</v>
+      </c>
+      <c r="H2605" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2606">
+      <c r="A2606" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2606" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2606" s="0">
+        <v>38175</v>
+      </c>
+      <c r="D2606" s="0">
+        <v>9.60324208471481E-02</v>
+      </c>
+      <c r="E2606" s="0">
+        <v>477</v>
+      </c>
+      <c r="F2606" s="0">
+        <v>9.70695970695971E-02</v>
+      </c>
+      <c r="G2606" s="0">
+        <v>916</v>
+      </c>
+      <c r="H2606" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2607">
+      <c r="A2607" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2607" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2607" s="0">
+        <v>22949</v>
+      </c>
+      <c r="D2607" s="0">
+        <v>5.77301382061873E-02</v>
+      </c>
+      <c r="E2607" s="0">
+        <v>291</v>
+      </c>
+      <c r="F2607" s="0">
+        <v>5.92185592185592E-02</v>
+      </c>
+      <c r="G2607" s="0">
+        <v>1484</v>
+      </c>
+      <c r="H2607" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2608">
+      <c r="A2608" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2608" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2608" s="0">
+        <v>12236</v>
+      </c>
+      <c r="D2608" s="0">
+        <v>3.07806863519503E-02</v>
+      </c>
+      <c r="E2608" s="0">
+        <v>199</v>
+      </c>
+      <c r="F2608" s="0">
+        <v>4.04965404965405E-02</v>
+      </c>
+      <c r="G2608" s="0">
+        <v>1793</v>
+      </c>
+      <c r="H2608" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2609">
+      <c r="A2609" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2609" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2609" s="0">
+        <v>547</v>
+      </c>
+      <c r="D2609" s="0">
+        <v>1.37602447160157E-03</v>
+      </c>
+      <c r="E2609" s="0">
+        <v>13</v>
+      </c>
+      <c r="F2609" s="0">
+        <v>2.64550264550265E-03</v>
+      </c>
+      <c r="G2609" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2609" s="0">
         <v>0</v>
       </c>
     </row>
@@ -72292,11 +72572,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1717</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2036</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1717</Url>
-      <Description>HJYU5V3E37X6-122305290-1717</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2036</Url>
+      <Description>HJYU5V3E37X6-122305290-2036</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -72319,17 +72599,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C839E01-7A9B-480D-987F-2C2E39349DBC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50DB4E1A-6BD9-47FD-9FDE-78CE9B6D2C85}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EE34C2-3C12-4C32-BF9C-0A97B9FFC345}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A35CB743-D880-4CB8-9EFD-8477D9E40CE4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C225B6B-551A-4F41-BDC7-C74B95D320EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B09A21F-E3BF-4466-904E-725B44E78CE4}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE504BA8-A2D4-48B4-AD70-C9EBCB995DE9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB32E356-0D24-478B-B41B-721B16C50B23}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2609</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2619</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2609"/>
+  <dimension ref="A1:H2619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -72140,6 +72140,286 @@
         <v>0</v>
       </c>
       <c r="H2609" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2610">
+      <c r="A2610" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2610" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2610" s="0">
+        <v>19909</v>
+      </c>
+      <c r="D2610" s="0">
+        <v>0.04969869743431</v>
+      </c>
+      <c r="E2610" s="0">
+        <v>136</v>
+      </c>
+      <c r="F2610" s="0">
+        <v>4.42708333333333E-02</v>
+      </c>
+      <c r="G2610" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2610" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2611">
+      <c r="A2611" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2611" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2611" s="0">
+        <v>52714</v>
+      </c>
+      <c r="D2611" s="0">
+        <v>0.131589589459652</v>
+      </c>
+      <c r="E2611" s="0">
+        <v>329</v>
+      </c>
+      <c r="F2611" s="0">
+        <v>0.107096354166667</v>
+      </c>
+      <c r="G2611" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2611" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2612">
+      <c r="A2612" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2612" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2612" s="0">
+        <v>76157</v>
+      </c>
+      <c r="D2612" s="0">
+        <v>0.190110186373236</v>
+      </c>
+      <c r="E2612" s="0">
+        <v>536</v>
+      </c>
+      <c r="F2612" s="0">
+        <v>0.174479166666667</v>
+      </c>
+      <c r="G2612" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2612" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2613">
+      <c r="A2613" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2613" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2613" s="0">
+        <v>62994</v>
+      </c>
+      <c r="D2613" s="0">
+        <v>0.157251481549898</v>
+      </c>
+      <c r="E2613" s="0">
+        <v>499</v>
+      </c>
+      <c r="F2613" s="0">
+        <v>0.162434895833333</v>
+      </c>
+      <c r="G2613" s="0">
+        <v>62</v>
+      </c>
+      <c r="H2613" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2614">
+      <c r="A2614" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2614" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2614" s="0">
+        <v>59785</v>
+      </c>
+      <c r="D2614" s="0">
+        <v>0.149240877297214</v>
+      </c>
+      <c r="E2614" s="0">
+        <v>493</v>
+      </c>
+      <c r="F2614" s="0">
+        <v>0.160481770833333</v>
+      </c>
+      <c r="G2614" s="0">
+        <v>164</v>
+      </c>
+      <c r="H2614" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2615">
+      <c r="A2615" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2615" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2615" s="0">
+        <v>54495</v>
+      </c>
+      <c r="D2615" s="0">
+        <v>0.136035487301357</v>
+      </c>
+      <c r="E2615" s="0">
+        <v>446</v>
+      </c>
+      <c r="F2615" s="0">
+        <v>0.145182291666667</v>
+      </c>
+      <c r="G2615" s="0">
+        <v>455</v>
+      </c>
+      <c r="H2615" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2616">
+      <c r="A2616" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2616" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2616" s="0">
+        <v>38534</v>
+      </c>
+      <c r="D2616" s="0">
+        <v>9.61921546503442E-02</v>
+      </c>
+      <c r="E2616" s="0">
+        <v>359</v>
+      </c>
+      <c r="F2616" s="0">
+        <v>0.116861979166667</v>
+      </c>
+      <c r="G2616" s="0">
+        <v>920</v>
+      </c>
+      <c r="H2616" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2617">
+      <c r="A2617" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2617" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2617" s="0">
+        <v>23124</v>
+      </c>
+      <c r="D2617" s="0">
+        <v>5.77242794450241E-02</v>
+      </c>
+      <c r="E2617" s="0">
+        <v>175</v>
+      </c>
+      <c r="F2617" s="0">
+        <v>5.69661458333333E-02</v>
+      </c>
+      <c r="G2617" s="0">
+        <v>1489</v>
+      </c>
+      <c r="H2617" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2618">
+      <c r="A2618" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2618" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2618" s="0">
+        <v>12336</v>
+      </c>
+      <c r="D2618" s="0">
+        <v>3.07942705082952E-02</v>
+      </c>
+      <c r="E2618" s="0">
+        <v>100</v>
+      </c>
+      <c r="F2618" s="0">
+        <v>3.25520833333333E-02</v>
+      </c>
+      <c r="G2618" s="0">
+        <v>1816</v>
+      </c>
+      <c r="H2618" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2619">
+      <c r="A2619" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2619" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2619" s="0">
+        <v>546</v>
+      </c>
+      <c r="D2619" s="0">
+        <v>1.36297598066871E-03</v>
+      </c>
+      <c r="E2619" s="0">
+        <v>-1</v>
+      </c>
+      <c r="F2619" s="0">
+        <v>-3.25520833333333E-04</v>
+      </c>
+      <c r="G2619" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2619" s="0">
         <v>0</v>
       </c>
     </row>
@@ -72572,11 +72852,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2036</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2047</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2036</Url>
-      <Description>HJYU5V3E37X6-122305290-2036</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2047</Url>
+      <Description>HJYU5V3E37X6-122305290-2047</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -72599,17 +72879,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50DB4E1A-6BD9-47FD-9FDE-78CE9B6D2C85}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71288B06-450F-4B63-AD58-25B99ED3372A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A35CB743-D880-4CB8-9EFD-8477D9E40CE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA55411-1C3F-4EEB-9C84-C1E12E9F83A2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B09A21F-E3BF-4466-904E-725B44E78CE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15BF8809-FD10-4D3C-8E80-66C0727FD60C}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB32E356-0D24-478B-B41B-721B16C50B23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BC5A544-4199-4900-B308-59CCC5535A2A}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2619</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2629</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2619"/>
+  <dimension ref="A1:H2629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -72420,6 +72420,286 @@
         <v>0</v>
       </c>
       <c r="H2619" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2620">
+      <c r="A2620" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2620" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2620" s="0">
+        <v>20367</v>
+      </c>
+      <c r="D2620" s="0">
+        <v>0.049829961099014</v>
+      </c>
+      <c r="E2620" s="0">
+        <v>458</v>
+      </c>
+      <c r="F2620" s="0">
+        <v>5.62930186823992E-02</v>
+      </c>
+      <c r="G2620" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2620" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2621">
+      <c r="A2621" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2621" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2621" s="0">
+        <v>53725</v>
+      </c>
+      <c r="D2621" s="0">
+        <v>0.131443740366501</v>
+      </c>
+      <c r="E2621" s="0">
+        <v>1011</v>
+      </c>
+      <c r="F2621" s="0">
+        <v>0.124262536873156</v>
+      </c>
+      <c r="G2621" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2621" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2622">
+      <c r="A2622" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2622" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2622" s="0">
+        <v>77496</v>
+      </c>
+      <c r="D2622" s="0">
+        <v>0.18960193770949</v>
+      </c>
+      <c r="E2622" s="0">
+        <v>1339</v>
+      </c>
+      <c r="F2622" s="0">
+        <v>0.164577187807276</v>
+      </c>
+      <c r="G2622" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2622" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2623">
+      <c r="A2623" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2623" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2623" s="0">
+        <v>64188</v>
+      </c>
+      <c r="D2623" s="0">
+        <v>0.15704254642429</v>
+      </c>
+      <c r="E2623" s="0">
+        <v>1194</v>
+      </c>
+      <c r="F2623" s="0">
+        <v>0.146755162241888</v>
+      </c>
+      <c r="G2623" s="0">
+        <v>63</v>
+      </c>
+      <c r="H2623" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2624">
+      <c r="A2624" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2624" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2624" s="0">
+        <v>61083</v>
+      </c>
+      <c r="D2624" s="0">
+        <v>0.149445844444988</v>
+      </c>
+      <c r="E2624" s="0">
+        <v>1298</v>
+      </c>
+      <c r="F2624" s="0">
+        <v>0.159537856440511</v>
+      </c>
+      <c r="G2624" s="0">
+        <v>166</v>
+      </c>
+      <c r="H2624" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2625">
+      <c r="A2625" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2625" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2625" s="0">
+        <v>55686</v>
+      </c>
+      <c r="D2625" s="0">
+        <v>0.136241528637487</v>
+      </c>
+      <c r="E2625" s="0">
+        <v>1191</v>
+      </c>
+      <c r="F2625" s="0">
+        <v>0.146386430678466</v>
+      </c>
+      <c r="G2625" s="0">
+        <v>457</v>
+      </c>
+      <c r="H2625" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2626">
+      <c r="A2626" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2626" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2626" s="0">
+        <v>39448</v>
+      </c>
+      <c r="D2626" s="0">
+        <v>9.65135908790644E-02</v>
+      </c>
+      <c r="E2626" s="0">
+        <v>914</v>
+      </c>
+      <c r="F2626" s="0">
+        <v>0.112340216322517</v>
+      </c>
+      <c r="G2626" s="0">
+        <v>932</v>
+      </c>
+      <c r="H2626" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2627">
+      <c r="A2627" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2627" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2627" s="0">
+        <v>23604</v>
+      </c>
+      <c r="D2627" s="0">
+        <v>5.77496146600445E-02</v>
+      </c>
+      <c r="E2627" s="0">
+        <v>480</v>
+      </c>
+      <c r="F2627" s="0">
+        <v>5.89970501474926E-02</v>
+      </c>
+      <c r="G2627" s="0">
+        <v>1510</v>
+      </c>
+      <c r="H2627" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2628">
+      <c r="A2628" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2628" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2628" s="0">
+        <v>12584</v>
+      </c>
+      <c r="D2628" s="0">
+        <v>0.030788050791476</v>
+      </c>
+      <c r="E2628" s="0">
+        <v>248</v>
+      </c>
+      <c r="F2628" s="0">
+        <v>3.04818092428712E-02</v>
+      </c>
+      <c r="G2628" s="0">
+        <v>1844</v>
+      </c>
+      <c r="H2628" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2629">
+      <c r="A2629" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2629" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2629" s="0">
+        <v>549</v>
+      </c>
+      <c r="D2629" s="0">
+        <v>1.34318498764466E-03</v>
+      </c>
+      <c r="E2629" s="0">
+        <v>3</v>
+      </c>
+      <c r="F2629" s="0">
+        <v>3.68731563421829E-04</v>
+      </c>
+      <c r="G2629" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2629" s="0">
         <v>0</v>
       </c>
     </row>
@@ -72852,11 +73132,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2047</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2058</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2047</Url>
-      <Description>HJYU5V3E37X6-122305290-2047</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2058</Url>
+      <Description>HJYU5V3E37X6-122305290-2058</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -72879,17 +73159,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71288B06-450F-4B63-AD58-25B99ED3372A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201E8360-F0D4-4D67-9B68-26552B62A386}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA55411-1C3F-4EEB-9C84-C1E12E9F83A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ADA1471-4F2B-4F4E-988A-30A5BE9C7717}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15BF8809-FD10-4D3C-8E80-66C0727FD60C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA9AFD13-DDC0-4F03-B488-D01AC39DAD65}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BC5A544-4199-4900-B308-59CCC5535A2A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074219A2-2789-4416-87C8-CF2A07C6A47D}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2589</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2629</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2589"/>
+  <dimension ref="A1:H2629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -71580,6 +71580,1126 @@
         <v>1</v>
       </c>
       <c r="H2589" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2590">
+      <c r="A2590" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2590" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2590" s="0">
+        <v>19543</v>
+      </c>
+      <c r="D2590" s="0">
+        <v>4.97773860950363E-02</v>
+      </c>
+      <c r="E2590" s="0">
+        <v>211</v>
+      </c>
+      <c r="F2590" s="0">
+        <v>4.84389348025712E-02</v>
+      </c>
+      <c r="G2590" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2590" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2591">
+      <c r="A2591" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2591" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2591" s="0">
+        <v>51805</v>
+      </c>
+      <c r="D2591" s="0">
+        <v>0.131950953622952</v>
+      </c>
+      <c r="E2591" s="0">
+        <v>475</v>
+      </c>
+      <c r="F2591" s="0">
+        <v>0.109044995408632</v>
+      </c>
+      <c r="G2591" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2591" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2592">
+      <c r="A2592" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2592" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2592" s="0">
+        <v>74767</v>
+      </c>
+      <c r="D2592" s="0">
+        <v>0.190436771538023</v>
+      </c>
+      <c r="E2592" s="0">
+        <v>740</v>
+      </c>
+      <c r="F2592" s="0">
+        <v>0.169880624426079</v>
+      </c>
+      <c r="G2592" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2592" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2593">
+      <c r="A2593" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2593" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2593" s="0">
+        <v>61715</v>
+      </c>
+      <c r="D2593" s="0">
+        <v>0.157192415844812</v>
+      </c>
+      <c r="E2593" s="0">
+        <v>700</v>
+      </c>
+      <c r="F2593" s="0">
+        <v>0.160697887970615</v>
+      </c>
+      <c r="G2593" s="0">
+        <v>62</v>
+      </c>
+      <c r="H2593" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2594">
+      <c r="A2594" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2594" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2594" s="0">
+        <v>58521</v>
+      </c>
+      <c r="D2594" s="0">
+        <v>0.149057074741218</v>
+      </c>
+      <c r="E2594" s="0">
+        <v>700</v>
+      </c>
+      <c r="F2594" s="0">
+        <v>0.160697887970615</v>
+      </c>
+      <c r="G2594" s="0">
+        <v>162</v>
+      </c>
+      <c r="H2594" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2595">
+      <c r="A2595" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2595" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2595" s="0">
+        <v>53330</v>
+      </c>
+      <c r="D2595" s="0">
+        <v>0.135835235145489</v>
+      </c>
+      <c r="E2595" s="0">
+        <v>665</v>
+      </c>
+      <c r="F2595" s="0">
+        <v>0.152662993572084</v>
+      </c>
+      <c r="G2595" s="0">
+        <v>450</v>
+      </c>
+      <c r="H2595" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2596">
+      <c r="A2596" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2596" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2596" s="0">
+        <v>37698</v>
+      </c>
+      <c r="D2596" s="0">
+        <v>9.60194392371016E-02</v>
+      </c>
+      <c r="E2596" s="0">
+        <v>462</v>
+      </c>
+      <c r="F2596" s="0">
+        <v>0.106060606060606</v>
+      </c>
+      <c r="G2596" s="0">
+        <v>912</v>
+      </c>
+      <c r="H2596" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2597">
+      <c r="A2597" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2597" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2597" s="0">
+        <v>22658</v>
+      </c>
+      <c r="D2597" s="0">
+        <v>5.77115086804141E-02</v>
+      </c>
+      <c r="E2597" s="0">
+        <v>268</v>
+      </c>
+      <c r="F2597" s="0">
+        <v>0.061524334251607</v>
+      </c>
+      <c r="G2597" s="0">
+        <v>1475</v>
+      </c>
+      <c r="H2597" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2598">
+      <c r="A2598" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2598" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2598" s="0">
+        <v>12037</v>
+      </c>
+      <c r="D2598" s="0">
+        <v>3.06590797946043E-02</v>
+      </c>
+      <c r="E2598" s="0">
+        <v>148</v>
+      </c>
+      <c r="F2598" s="0">
+        <v>3.39761248852158E-02</v>
+      </c>
+      <c r="G2598" s="0">
+        <v>1778</v>
+      </c>
+      <c r="H2598" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2599">
+      <c r="A2599" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B2599" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2599" s="0">
+        <v>534</v>
+      </c>
+      <c r="D2599" s="0">
+        <v>1.36013530035048E-03</v>
+      </c>
+      <c r="E2599" s="0">
+        <v>-13</v>
+      </c>
+      <c r="F2599" s="0">
+        <v>-2.98438934802571E-03</v>
+      </c>
+      <c r="G2599" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2599" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2600">
+      <c r="A2600" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2600" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2600" s="0">
+        <v>19773</v>
+      </c>
+      <c r="D2600" s="0">
+        <v>4.97406432851515E-02</v>
+      </c>
+      <c r="E2600" s="0">
+        <v>230</v>
+      </c>
+      <c r="F2600" s="0">
+        <v>4.68050468050468E-02</v>
+      </c>
+      <c r="G2600" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2600" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2601">
+      <c r="A2601" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2601" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2601" s="0">
+        <v>52385</v>
+      </c>
+      <c r="D2601" s="0">
+        <v>0.131778870100271</v>
+      </c>
+      <c r="E2601" s="0">
+        <v>580</v>
+      </c>
+      <c r="F2601" s="0">
+        <v>0.118030118030118</v>
+      </c>
+      <c r="G2601" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2601" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2602">
+      <c r="A2602" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2602" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2602" s="0">
+        <v>75621</v>
+      </c>
+      <c r="D2602" s="0">
+        <v>0.190230980926842</v>
+      </c>
+      <c r="E2602" s="0">
+        <v>854</v>
+      </c>
+      <c r="F2602" s="0">
+        <v>0.173789173789174</v>
+      </c>
+      <c r="G2602" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2602" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2603">
+      <c r="A2603" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2603" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2603" s="0">
+        <v>62495</v>
+      </c>
+      <c r="D2603" s="0">
+        <v>0.15721142477649</v>
+      </c>
+      <c r="E2603" s="0">
+        <v>780</v>
+      </c>
+      <c r="F2603" s="0">
+        <v>0.158730158730159</v>
+      </c>
+      <c r="G2603" s="0">
+        <v>62</v>
+      </c>
+      <c r="H2603" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2604">
+      <c r="A2604" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2604" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2604" s="0">
+        <v>59292</v>
+      </c>
+      <c r="D2604" s="0">
+        <v>0.14915400908629</v>
+      </c>
+      <c r="E2604" s="0">
+        <v>771</v>
+      </c>
+      <c r="F2604" s="0">
+        <v>0.156898656898657</v>
+      </c>
+      <c r="G2604" s="0">
+        <v>162</v>
+      </c>
+      <c r="H2604" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2605">
+      <c r="A2605" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2605" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2605" s="0">
+        <v>54049</v>
+      </c>
+      <c r="D2605" s="0">
+        <v>0.135964801948068</v>
+      </c>
+      <c r="E2605" s="0">
+        <v>719</v>
+      </c>
+      <c r="F2605" s="0">
+        <v>0.146316646316646</v>
+      </c>
+      <c r="G2605" s="0">
+        <v>451</v>
+      </c>
+      <c r="H2605" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2606">
+      <c r="A2606" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2606" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2606" s="0">
+        <v>38175</v>
+      </c>
+      <c r="D2606" s="0">
+        <v>9.60324208471481E-02</v>
+      </c>
+      <c r="E2606" s="0">
+        <v>477</v>
+      </c>
+      <c r="F2606" s="0">
+        <v>9.70695970695971E-02</v>
+      </c>
+      <c r="G2606" s="0">
+        <v>916</v>
+      </c>
+      <c r="H2606" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2607">
+      <c r="A2607" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2607" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2607" s="0">
+        <v>22949</v>
+      </c>
+      <c r="D2607" s="0">
+        <v>5.77301382061873E-02</v>
+      </c>
+      <c r="E2607" s="0">
+        <v>291</v>
+      </c>
+      <c r="F2607" s="0">
+        <v>5.92185592185592E-02</v>
+      </c>
+      <c r="G2607" s="0">
+        <v>1484</v>
+      </c>
+      <c r="H2607" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2608">
+      <c r="A2608" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2608" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2608" s="0">
+        <v>12236</v>
+      </c>
+      <c r="D2608" s="0">
+        <v>3.07806863519503E-02</v>
+      </c>
+      <c r="E2608" s="0">
+        <v>199</v>
+      </c>
+      <c r="F2608" s="0">
+        <v>4.04965404965405E-02</v>
+      </c>
+      <c r="G2608" s="0">
+        <v>1793</v>
+      </c>
+      <c r="H2608" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2609">
+      <c r="A2609" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B2609" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2609" s="0">
+        <v>547</v>
+      </c>
+      <c r="D2609" s="0">
+        <v>1.37602447160157E-03</v>
+      </c>
+      <c r="E2609" s="0">
+        <v>13</v>
+      </c>
+      <c r="F2609" s="0">
+        <v>2.64550264550265E-03</v>
+      </c>
+      <c r="G2609" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2609" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2610">
+      <c r="A2610" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2610" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2610" s="0">
+        <v>19909</v>
+      </c>
+      <c r="D2610" s="0">
+        <v>0.04969869743431</v>
+      </c>
+      <c r="E2610" s="0">
+        <v>136</v>
+      </c>
+      <c r="F2610" s="0">
+        <v>4.42708333333333E-02</v>
+      </c>
+      <c r="G2610" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2610" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2611">
+      <c r="A2611" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2611" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2611" s="0">
+        <v>52714</v>
+      </c>
+      <c r="D2611" s="0">
+        <v>0.131589589459652</v>
+      </c>
+      <c r="E2611" s="0">
+        <v>329</v>
+      </c>
+      <c r="F2611" s="0">
+        <v>0.107096354166667</v>
+      </c>
+      <c r="G2611" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2611" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2612">
+      <c r="A2612" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2612" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2612" s="0">
+        <v>76157</v>
+      </c>
+      <c r="D2612" s="0">
+        <v>0.190110186373236</v>
+      </c>
+      <c r="E2612" s="0">
+        <v>536</v>
+      </c>
+      <c r="F2612" s="0">
+        <v>0.174479166666667</v>
+      </c>
+      <c r="G2612" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2612" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2613">
+      <c r="A2613" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2613" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2613" s="0">
+        <v>62994</v>
+      </c>
+      <c r="D2613" s="0">
+        <v>0.157251481549898</v>
+      </c>
+      <c r="E2613" s="0">
+        <v>499</v>
+      </c>
+      <c r="F2613" s="0">
+        <v>0.162434895833333</v>
+      </c>
+      <c r="G2613" s="0">
+        <v>62</v>
+      </c>
+      <c r="H2613" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2614">
+      <c r="A2614" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2614" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2614" s="0">
+        <v>59785</v>
+      </c>
+      <c r="D2614" s="0">
+        <v>0.149240877297214</v>
+      </c>
+      <c r="E2614" s="0">
+        <v>493</v>
+      </c>
+      <c r="F2614" s="0">
+        <v>0.160481770833333</v>
+      </c>
+      <c r="G2614" s="0">
+        <v>164</v>
+      </c>
+      <c r="H2614" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2615">
+      <c r="A2615" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2615" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2615" s="0">
+        <v>54495</v>
+      </c>
+      <c r="D2615" s="0">
+        <v>0.136035487301357</v>
+      </c>
+      <c r="E2615" s="0">
+        <v>446</v>
+      </c>
+      <c r="F2615" s="0">
+        <v>0.145182291666667</v>
+      </c>
+      <c r="G2615" s="0">
+        <v>455</v>
+      </c>
+      <c r="H2615" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2616">
+      <c r="A2616" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2616" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2616" s="0">
+        <v>38534</v>
+      </c>
+      <c r="D2616" s="0">
+        <v>9.61921546503442E-02</v>
+      </c>
+      <c r="E2616" s="0">
+        <v>359</v>
+      </c>
+      <c r="F2616" s="0">
+        <v>0.116861979166667</v>
+      </c>
+      <c r="G2616" s="0">
+        <v>920</v>
+      </c>
+      <c r="H2616" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2617">
+      <c r="A2617" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2617" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2617" s="0">
+        <v>23124</v>
+      </c>
+      <c r="D2617" s="0">
+        <v>5.77242794450241E-02</v>
+      </c>
+      <c r="E2617" s="0">
+        <v>175</v>
+      </c>
+      <c r="F2617" s="0">
+        <v>5.69661458333333E-02</v>
+      </c>
+      <c r="G2617" s="0">
+        <v>1489</v>
+      </c>
+      <c r="H2617" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2618">
+      <c r="A2618" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2618" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2618" s="0">
+        <v>12336</v>
+      </c>
+      <c r="D2618" s="0">
+        <v>3.07942705082952E-02</v>
+      </c>
+      <c r="E2618" s="0">
+        <v>100</v>
+      </c>
+      <c r="F2618" s="0">
+        <v>3.25520833333333E-02</v>
+      </c>
+      <c r="G2618" s="0">
+        <v>1816</v>
+      </c>
+      <c r="H2618" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2619">
+      <c r="A2619" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B2619" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2619" s="0">
+        <v>546</v>
+      </c>
+      <c r="D2619" s="0">
+        <v>1.36297598066871E-03</v>
+      </c>
+      <c r="E2619" s="0">
+        <v>-1</v>
+      </c>
+      <c r="F2619" s="0">
+        <v>-3.25520833333333E-04</v>
+      </c>
+      <c r="G2619" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2619" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2620">
+      <c r="A2620" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2620" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2620" s="0">
+        <v>20367</v>
+      </c>
+      <c r="D2620" s="0">
+        <v>0.049829961099014</v>
+      </c>
+      <c r="E2620" s="0">
+        <v>458</v>
+      </c>
+      <c r="F2620" s="0">
+        <v>5.62930186823992E-02</v>
+      </c>
+      <c r="G2620" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2620" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2621">
+      <c r="A2621" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2621" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2621" s="0">
+        <v>53725</v>
+      </c>
+      <c r="D2621" s="0">
+        <v>0.131443740366501</v>
+      </c>
+      <c r="E2621" s="0">
+        <v>1011</v>
+      </c>
+      <c r="F2621" s="0">
+        <v>0.124262536873156</v>
+      </c>
+      <c r="G2621" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2621" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2622">
+      <c r="A2622" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2622" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2622" s="0">
+        <v>77496</v>
+      </c>
+      <c r="D2622" s="0">
+        <v>0.18960193770949</v>
+      </c>
+      <c r="E2622" s="0">
+        <v>1339</v>
+      </c>
+      <c r="F2622" s="0">
+        <v>0.164577187807276</v>
+      </c>
+      <c r="G2622" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2622" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2623">
+      <c r="A2623" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2623" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2623" s="0">
+        <v>64188</v>
+      </c>
+      <c r="D2623" s="0">
+        <v>0.15704254642429</v>
+      </c>
+      <c r="E2623" s="0">
+        <v>1194</v>
+      </c>
+      <c r="F2623" s="0">
+        <v>0.146755162241888</v>
+      </c>
+      <c r="G2623" s="0">
+        <v>63</v>
+      </c>
+      <c r="H2623" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2624">
+      <c r="A2624" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2624" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2624" s="0">
+        <v>61083</v>
+      </c>
+      <c r="D2624" s="0">
+        <v>0.149445844444988</v>
+      </c>
+      <c r="E2624" s="0">
+        <v>1298</v>
+      </c>
+      <c r="F2624" s="0">
+        <v>0.159537856440511</v>
+      </c>
+      <c r="G2624" s="0">
+        <v>166</v>
+      </c>
+      <c r="H2624" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2625">
+      <c r="A2625" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2625" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2625" s="0">
+        <v>55686</v>
+      </c>
+      <c r="D2625" s="0">
+        <v>0.136241528637487</v>
+      </c>
+      <c r="E2625" s="0">
+        <v>1191</v>
+      </c>
+      <c r="F2625" s="0">
+        <v>0.146386430678466</v>
+      </c>
+      <c r="G2625" s="0">
+        <v>457</v>
+      </c>
+      <c r="H2625" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2626">
+      <c r="A2626" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2626" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2626" s="0">
+        <v>39448</v>
+      </c>
+      <c r="D2626" s="0">
+        <v>9.65135908790644E-02</v>
+      </c>
+      <c r="E2626" s="0">
+        <v>914</v>
+      </c>
+      <c r="F2626" s="0">
+        <v>0.112340216322517</v>
+      </c>
+      <c r="G2626" s="0">
+        <v>932</v>
+      </c>
+      <c r="H2626" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2627">
+      <c r="A2627" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2627" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2627" s="0">
+        <v>23604</v>
+      </c>
+      <c r="D2627" s="0">
+        <v>5.77496146600445E-02</v>
+      </c>
+      <c r="E2627" s="0">
+        <v>480</v>
+      </c>
+      <c r="F2627" s="0">
+        <v>5.89970501474926E-02</v>
+      </c>
+      <c r="G2627" s="0">
+        <v>1510</v>
+      </c>
+      <c r="H2627" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2628">
+      <c r="A2628" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2628" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2628" s="0">
+        <v>12584</v>
+      </c>
+      <c r="D2628" s="0">
+        <v>0.030788050791476</v>
+      </c>
+      <c r="E2628" s="0">
+        <v>248</v>
+      </c>
+      <c r="F2628" s="0">
+        <v>3.04818092428712E-02</v>
+      </c>
+      <c r="G2628" s="0">
+        <v>1844</v>
+      </c>
+      <c r="H2628" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2629">
+      <c r="A2629" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B2629" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2629" s="0">
+        <v>549</v>
+      </c>
+      <c r="D2629" s="0">
+        <v>1.34318498764466E-03</v>
+      </c>
+      <c r="E2629" s="0">
+        <v>3</v>
+      </c>
+      <c r="F2629" s="0">
+        <v>3.68731563421829E-04</v>
+      </c>
+      <c r="G2629" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2629" s="0">
         <v>0</v>
       </c>
     </row>
@@ -72012,11 +73132,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1706</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2058</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1706</Url>
-      <Description>HJYU5V3E37X6-122305290-1706</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2058</Url>
+      <Description>HJYU5V3E37X6-122305290-2058</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -72039,17 +73159,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353623D0-1903-41B1-890C-0F6B7369F91E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201E8360-F0D4-4D67-9B68-26552B62A386}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A1B1BC-9176-4F96-B60C-03E0384DCFE2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ADA1471-4F2B-4F4E-988A-30A5BE9C7717}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E0D239-8513-4986-806D-F68543C83D45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA9AFD13-DDC0-4F03-B488-D01AC39DAD65}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CE616E-8412-4720-911C-21A146EB5E4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074219A2-2789-4416-87C8-CF2A07C6A47D}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2629</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2639</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2629"/>
+  <dimension ref="A1:H2639"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -72700,6 +72700,286 @@
         <v>0</v>
       </c>
       <c r="H2629" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2630">
+      <c r="A2630" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2630" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2630" s="0">
+        <v>20668</v>
+      </c>
+      <c r="D2630" s="0">
+        <v>4.98325493250134E-02</v>
+      </c>
+      <c r="E2630" s="0">
+        <v>301</v>
+      </c>
+      <c r="F2630" s="0">
+        <v>5.00083070277455E-02</v>
+      </c>
+      <c r="G2630" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2630" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2631">
+      <c r="A2631" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2631" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2631" s="0">
+        <v>54422</v>
+      </c>
+      <c r="D2631" s="0">
+        <v>0.131216711794362</v>
+      </c>
+      <c r="E2631" s="0">
+        <v>697</v>
+      </c>
+      <c r="F2631" s="0">
+        <v>0.115799966771889</v>
+      </c>
+      <c r="G2631" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2631" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2632">
+      <c r="A2632" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2632" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2632" s="0">
+        <v>78495</v>
+      </c>
+      <c r="D2632" s="0">
+        <v>0.18925904583254</v>
+      </c>
+      <c r="E2632" s="0">
+        <v>999</v>
+      </c>
+      <c r="F2632" s="0">
+        <v>0.165974414354544</v>
+      </c>
+      <c r="G2632" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2632" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2633">
+      <c r="A2633" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2633" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2633" s="0">
+        <v>65071</v>
+      </c>
+      <c r="D2633" s="0">
+        <v>0.156892481958968</v>
+      </c>
+      <c r="E2633" s="0">
+        <v>883</v>
+      </c>
+      <c r="F2633" s="0">
+        <v>0.146702109985047</v>
+      </c>
+      <c r="G2633" s="0">
+        <v>63</v>
+      </c>
+      <c r="H2633" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2634">
+      <c r="A2634" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2634" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2634" s="0">
+        <v>62006</v>
+      </c>
+      <c r="D2634" s="0">
+        <v>0.149502470168704</v>
+      </c>
+      <c r="E2634" s="0">
+        <v>923</v>
+      </c>
+      <c r="F2634" s="0">
+        <v>0.153347732181425</v>
+      </c>
+      <c r="G2634" s="0">
+        <v>167</v>
+      </c>
+      <c r="H2634" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2635">
+      <c r="A2635" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2635" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2635" s="0">
+        <v>56560</v>
+      </c>
+      <c r="D2635" s="0">
+        <v>0.136371636821306</v>
+      </c>
+      <c r="E2635" s="0">
+        <v>874</v>
+      </c>
+      <c r="F2635" s="0">
+        <v>0.145206844990862</v>
+      </c>
+      <c r="G2635" s="0">
+        <v>468</v>
+      </c>
+      <c r="H2635" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2636">
+      <c r="A2636" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2636" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2636" s="0">
+        <v>40115</v>
+      </c>
+      <c r="D2636" s="0">
+        <v>9.67211494180818E-02</v>
+      </c>
+      <c r="E2636" s="0">
+        <v>667</v>
+      </c>
+      <c r="F2636" s="0">
+        <v>0.110815750124605</v>
+      </c>
+      <c r="G2636" s="0">
+        <v>960</v>
+      </c>
+      <c r="H2636" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2637">
+      <c r="A2637" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2637" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2637" s="0">
+        <v>24033</v>
+      </c>
+      <c r="D2637" s="0">
+        <v>5.79458901648949E-02</v>
+      </c>
+      <c r="E2637" s="0">
+        <v>429</v>
+      </c>
+      <c r="F2637" s="0">
+        <v>7.12742980561555E-02</v>
+      </c>
+      <c r="G2637" s="0">
+        <v>1544</v>
+      </c>
+      <c r="H2637" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2638">
+      <c r="A2638" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2638" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2638" s="0">
+        <v>12819</v>
+      </c>
+      <c r="D2638" s="0">
+        <v>3.09078502901755E-02</v>
+      </c>
+      <c r="E2638" s="0">
+        <v>235</v>
+      </c>
+      <c r="F2638" s="0">
+        <v>3.90430304037215E-02</v>
+      </c>
+      <c r="G2638" s="0">
+        <v>1869</v>
+      </c>
+      <c r="H2638" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2639">
+      <c r="A2639" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2639" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2639" s="0">
+        <v>560</v>
+      </c>
+      <c r="D2639" s="0">
+        <v>1.35021422595353E-03</v>
+      </c>
+      <c r="E2639" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2639" s="0">
+        <v>1.82754610400399E-03</v>
+      </c>
+      <c r="G2639" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2639" s="0">
         <v>0</v>
       </c>
     </row>
@@ -73132,11 +73412,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2058</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2069</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2058</Url>
-      <Description>HJYU5V3E37X6-122305290-2058</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2069</Url>
+      <Description>HJYU5V3E37X6-122305290-2069</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -73159,17 +73439,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201E8360-F0D4-4D67-9B68-26552B62A386}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{285A6D78-2B7A-4C91-9D45-0E0FADED4E12}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ADA1471-4F2B-4F4E-988A-30A5BE9C7717}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2D1A9D6-DA47-4A1B-8684-881FE2E94ED5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA9AFD13-DDC0-4F03-B488-D01AC39DAD65}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5CC5B4-CB23-4839-8801-99C2BC0F78A0}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074219A2-2789-4416-87C8-CF2A07C6A47D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BCEABBE-1E95-4A1A-B150-D40E0943A999}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2639</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2649</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2639"/>
+  <dimension ref="A1:H2649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -72980,6 +72980,286 @@
         <v>0</v>
       </c>
       <c r="H2639" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2640">
+      <c r="A2640" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2640" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2640" s="0">
+        <v>21146</v>
+      </c>
+      <c r="D2640" s="0">
+        <v>4.99950350149659E-02</v>
+      </c>
+      <c r="E2640" s="0">
+        <v>478</v>
+      </c>
+      <c r="F2640" s="0">
+        <v>0.05820041397784</v>
+      </c>
+      <c r="G2640" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2640" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2641">
+      <c r="A2641" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2641" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2641" s="0">
+        <v>55518</v>
+      </c>
+      <c r="D2641" s="0">
+        <v>0.131260018630515</v>
+      </c>
+      <c r="E2641" s="0">
+        <v>1096</v>
+      </c>
+      <c r="F2641" s="0">
+        <v>0.133446974309022</v>
+      </c>
+      <c r="G2641" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2641" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2642">
+      <c r="A2642" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2642" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2642" s="0">
+        <v>79935</v>
+      </c>
+      <c r="D2642" s="0">
+        <v>0.188988608905765</v>
+      </c>
+      <c r="E2642" s="0">
+        <v>1440</v>
+      </c>
+      <c r="F2642" s="0">
+        <v>0.175331791062949</v>
+      </c>
+      <c r="G2642" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2642" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2643">
+      <c r="A2643" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2643" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2643" s="0">
+        <v>66342</v>
+      </c>
+      <c r="D2643" s="0">
+        <v>0.156850970063505</v>
+      </c>
+      <c r="E2643" s="0">
+        <v>1271</v>
+      </c>
+      <c r="F2643" s="0">
+        <v>0.1547546572507</v>
+      </c>
+      <c r="G2643" s="0">
+        <v>63</v>
+      </c>
+      <c r="H2643" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2644">
+      <c r="A2644" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2644" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2644" s="0">
+        <v>63217</v>
+      </c>
+      <c r="D2644" s="0">
+        <v>0.149462599477022</v>
+      </c>
+      <c r="E2644" s="0">
+        <v>1211</v>
+      </c>
+      <c r="F2644" s="0">
+        <v>0.147449165956411</v>
+      </c>
+      <c r="G2644" s="0">
+        <v>170</v>
+      </c>
+      <c r="H2644" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2645">
+      <c r="A2645" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2645" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2645" s="0">
+        <v>57696</v>
+      </c>
+      <c r="D2645" s="0">
+        <v>0.13640941739447</v>
+      </c>
+      <c r="E2645" s="0">
+        <v>1136</v>
+      </c>
+      <c r="F2645" s="0">
+        <v>0.138317301838549</v>
+      </c>
+      <c r="G2645" s="0">
+        <v>471</v>
+      </c>
+      <c r="H2645" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2646">
+      <c r="A2646" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2646" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2646" s="0">
+        <v>40940</v>
+      </c>
+      <c r="D2646" s="0">
+        <v>9.67935653793958E-02</v>
+      </c>
+      <c r="E2646" s="0">
+        <v>825</v>
+      </c>
+      <c r="F2646" s="0">
+        <v>0.100450505296481</v>
+      </c>
+      <c r="G2646" s="0">
+        <v>975</v>
+      </c>
+      <c r="H2646" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2647">
+      <c r="A2647" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2647" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2647" s="0">
+        <v>24560</v>
+      </c>
+      <c r="D2647" s="0">
+        <v>5.80666821132868E-02</v>
+      </c>
+      <c r="E2647" s="0">
+        <v>527</v>
+      </c>
+      <c r="F2647" s="0">
+        <v>6.41665652015098E-02</v>
+      </c>
+      <c r="G2647" s="0">
+        <v>1563</v>
+      </c>
+      <c r="H2647" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2648">
+      <c r="A2648" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2648" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2648" s="0">
+        <v>13060</v>
+      </c>
+      <c r="D2648" s="0">
+        <v>3.08774783550295E-02</v>
+      </c>
+      <c r="E2648" s="0">
+        <v>241</v>
+      </c>
+      <c r="F2648" s="0">
+        <v>2.93437233653963E-02</v>
+      </c>
+      <c r="G2648" s="0">
+        <v>1892</v>
+      </c>
+      <c r="H2648" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2649">
+      <c r="A2649" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2649" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2649" s="0">
+        <v>548</v>
+      </c>
+      <c r="D2649" s="0">
+        <v>1.29562466604565E-03</v>
+      </c>
+      <c r="E2649" s="0">
+        <v>-12</v>
+      </c>
+      <c r="F2649" s="0">
+        <v>-1.46109825885791E-03</v>
+      </c>
+      <c r="G2649" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2649" s="0">
         <v>0</v>
       </c>
     </row>
@@ -73412,11 +73692,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2069</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2081</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2069</Url>
-      <Description>HJYU5V3E37X6-122305290-2069</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2081</Url>
+      <Description>HJYU5V3E37X6-122305290-2081</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -73439,17 +73719,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{285A6D78-2B7A-4C91-9D45-0E0FADED4E12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3AAB1E-4CCB-4D08-8A46-F2BBF3127949}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2D1A9D6-DA47-4A1B-8684-881FE2E94ED5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEC5AB67-3DE4-49FB-A906-34354AF0E775}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5CC5B4-CB23-4839-8801-99C2BC0F78A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B17FCC8-7C58-47FA-8CBB-0AD77F21E3AC}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BCEABBE-1E95-4A1A-B150-D40E0943A999}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B947FC4-D1B6-4B7C-ADB6-EC0A22EC8412}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2649</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2659</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2649"/>
+  <dimension ref="A1:H2659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -73260,6 +73260,286 @@
         <v>0</v>
       </c>
       <c r="H2649" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2650">
+      <c r="A2650" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2650" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2650" s="0">
+        <v>21516</v>
+      </c>
+      <c r="D2650" s="0">
+        <v>5.01570028882937E-02</v>
+      </c>
+      <c r="E2650" s="0">
+        <v>370</v>
+      </c>
+      <c r="F2650" s="0">
+        <v>6.15538180003327E-02</v>
+      </c>
+      <c r="G2650" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2650" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2651">
+      <c r="A2651" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2651" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2651" s="0">
+        <v>56292</v>
+      </c>
+      <c r="D2651" s="0">
+        <v>0.131225042135519</v>
+      </c>
+      <c r="E2651" s="0">
+        <v>774</v>
+      </c>
+      <c r="F2651" s="0">
+        <v>0.128763932789885</v>
+      </c>
+      <c r="G2651" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2651" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2652">
+      <c r="A2652" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2652" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2652" s="0">
+        <v>80949</v>
+      </c>
+      <c r="D2652" s="0">
+        <v>0.188704184179424</v>
+      </c>
+      <c r="E2652" s="0">
+        <v>1014</v>
+      </c>
+      <c r="F2652" s="0">
+        <v>0.168690733654966</v>
+      </c>
+      <c r="G2652" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2652" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2653">
+      <c r="A2653" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2653" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2653" s="0">
+        <v>67256</v>
+      </c>
+      <c r="D2653" s="0">
+        <v>0.156783760283281</v>
+      </c>
+      <c r="E2653" s="0">
+        <v>914</v>
+      </c>
+      <c r="F2653" s="0">
+        <v>0.152054566627849</v>
+      </c>
+      <c r="G2653" s="0">
+        <v>63</v>
+      </c>
+      <c r="H2653" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2654">
+      <c r="A2654" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2654" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2654" s="0">
+        <v>64113</v>
+      </c>
+      <c r="D2654" s="0">
+        <v>0.149456958829577</v>
+      </c>
+      <c r="E2654" s="0">
+        <v>896</v>
+      </c>
+      <c r="F2654" s="0">
+        <v>0.149060056562968</v>
+      </c>
+      <c r="G2654" s="0">
+        <v>174</v>
+      </c>
+      <c r="H2654" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2655">
+      <c r="A2655" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2655" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2655" s="0">
+        <v>58533</v>
+      </c>
+      <c r="D2655" s="0">
+        <v>0.136449147149121</v>
+      </c>
+      <c r="E2655" s="0">
+        <v>837</v>
+      </c>
+      <c r="F2655" s="0">
+        <v>0.139244718016969</v>
+      </c>
+      <c r="G2655" s="0">
+        <v>471</v>
+      </c>
+      <c r="H2655" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2656">
+      <c r="A2656" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2656" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2656" s="0">
+        <v>41570</v>
+      </c>
+      <c r="D2656" s="0">
+        <v>9.69058658703462E-02</v>
+      </c>
+      <c r="E2656" s="0">
+        <v>630</v>
+      </c>
+      <c r="F2656" s="0">
+        <v>0.104807852270837</v>
+      </c>
+      <c r="G2656" s="0">
+        <v>988</v>
+      </c>
+      <c r="H2656" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2657">
+      <c r="A2657" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2657" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2657" s="0">
+        <v>24940</v>
+      </c>
+      <c r="D2657" s="0">
+        <v>5.81388572241143E-02</v>
+      </c>
+      <c r="E2657" s="0">
+        <v>380</v>
+      </c>
+      <c r="F2657" s="0">
+        <v>6.32174347030444E-02</v>
+      </c>
+      <c r="G2657" s="0">
+        <v>1587</v>
+      </c>
+      <c r="H2657" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2658">
+      <c r="A2658" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2658" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2658" s="0">
+        <v>13263</v>
+      </c>
+      <c r="D2658" s="0">
+        <v>3.09180298060717E-02</v>
+      </c>
+      <c r="E2658" s="0">
+        <v>203</v>
+      </c>
+      <c r="F2658" s="0">
+        <v>3.37714190650474E-02</v>
+      </c>
+      <c r="G2658" s="0">
+        <v>1919</v>
+      </c>
+      <c r="H2658" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2659">
+      <c r="A2659" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2659" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2659" s="0">
+        <v>541</v>
+      </c>
+      <c r="D2659" s="0">
+        <v>1.26115163425204E-03</v>
+      </c>
+      <c r="E2659" s="0">
+        <v>-7</v>
+      </c>
+      <c r="F2659" s="0">
+        <v>-1.16453169189819E-03</v>
+      </c>
+      <c r="G2659" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2659" s="0">
         <v>0</v>
       </c>
     </row>
@@ -73692,11 +73972,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2081</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2112</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2081</Url>
-      <Description>HJYU5V3E37X6-122305290-2081</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2112</Url>
+      <Description>HJYU5V3E37X6-122305290-2112</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -73719,17 +73999,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3AAB1E-4CCB-4D08-8A46-F2BBF3127949}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D68D4D-B797-4E40-9FA1-C5411E19B5F7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEC5AB67-3DE4-49FB-A906-34354AF0E775}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CF1A133-1FB4-430A-85F3-FEDC5C2BD0FB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B17FCC8-7C58-47FA-8CBB-0AD77F21E3AC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265E772C-51B9-45A9-8D4E-89C5E01FA8F4}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B947FC4-D1B6-4B7C-ADB6-EC0A22EC8412}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2C7A67-695B-42BA-BDB4-07513220C41A}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2659</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2669</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2659"/>
+  <dimension ref="A1:H2669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -73540,6 +73540,286 @@
         <v>0</v>
       </c>
       <c r="H2659" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2660">
+      <c r="A2660" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2660" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2660" s="0">
+        <v>21986</v>
+      </c>
+      <c r="D2660" s="0">
+        <v>5.03963214765439E-02</v>
+      </c>
+      <c r="E2660" s="0">
+        <v>470</v>
+      </c>
+      <c r="F2660" s="0">
+        <v>6.44807243792015E-02</v>
+      </c>
+      <c r="G2660" s="0">
+        <v>5</v>
+      </c>
+      <c r="H2660" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2661">
+      <c r="A2661" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2661" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2661" s="0">
+        <v>57228</v>
+      </c>
+      <c r="D2661" s="0">
+        <v>0.131178053554974</v>
+      </c>
+      <c r="E2661" s="0">
+        <v>936</v>
+      </c>
+      <c r="F2661" s="0">
+        <v>0.128412676636027</v>
+      </c>
+      <c r="G2661" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2661" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2662">
+      <c r="A2662" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2662" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2662" s="0">
+        <v>82089</v>
+      </c>
+      <c r="D2662" s="0">
+        <v>0.18816445163686</v>
+      </c>
+      <c r="E2662" s="0">
+        <v>1140</v>
+      </c>
+      <c r="F2662" s="0">
+        <v>0.156400054877212</v>
+      </c>
+      <c r="G2662" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2662" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2663">
+      <c r="A2663" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2663" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2663" s="0">
+        <v>68358</v>
+      </c>
+      <c r="D2663" s="0">
+        <v>0.156690245769744</v>
+      </c>
+      <c r="E2663" s="0">
+        <v>1102</v>
+      </c>
+      <c r="F2663" s="0">
+        <v>0.151186719714638</v>
+      </c>
+      <c r="G2663" s="0">
+        <v>63</v>
+      </c>
+      <c r="H2663" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2664">
+      <c r="A2664" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2664" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2664" s="0">
+        <v>65160</v>
+      </c>
+      <c r="D2664" s="0">
+        <v>0.149359788384044</v>
+      </c>
+      <c r="E2664" s="0">
+        <v>1047</v>
+      </c>
+      <c r="F2664" s="0">
+        <v>0.143641103031966</v>
+      </c>
+      <c r="G2664" s="0">
+        <v>174</v>
+      </c>
+      <c r="H2664" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2665">
+      <c r="A2665" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2665" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2665" s="0">
+        <v>59591</v>
+      </c>
+      <c r="D2665" s="0">
+        <v>0.136594523474426</v>
+      </c>
+      <c r="E2665" s="0">
+        <v>1058</v>
+      </c>
+      <c r="F2665" s="0">
+        <v>0.1451502263685</v>
+      </c>
+      <c r="G2665" s="0">
+        <v>477</v>
+      </c>
+      <c r="H2665" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2666">
+      <c r="A2666" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2666" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2666" s="0">
+        <v>42389</v>
+      </c>
+      <c r="D2666" s="0">
+        <v>9.71640894691722E-02</v>
+      </c>
+      <c r="E2666" s="0">
+        <v>819</v>
+      </c>
+      <c r="F2666" s="0">
+        <v>0.112361092056524</v>
+      </c>
+      <c r="G2666" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H2666" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2667">
+      <c r="A2667" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2667" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2667" s="0">
+        <v>25433</v>
+      </c>
+      <c r="D2667" s="0">
+        <v>0.05829753680128</v>
+      </c>
+      <c r="E2667" s="0">
+        <v>493</v>
+      </c>
+      <c r="F2667" s="0">
+        <v>6.76361640828646E-02</v>
+      </c>
+      <c r="G2667" s="0">
+        <v>1615</v>
+      </c>
+      <c r="H2667" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2668">
+      <c r="A2668" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2668" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2668" s="0">
+        <v>13487</v>
+      </c>
+      <c r="D2668" s="0">
+        <v>3.09149089308718E-02</v>
+      </c>
+      <c r="E2668" s="0">
+        <v>224</v>
+      </c>
+      <c r="F2668" s="0">
+        <v>3.07312388530663E-02</v>
+      </c>
+      <c r="G2668" s="0">
+        <v>1959</v>
+      </c>
+      <c r="H2668" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2669">
+      <c r="A2669" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2669" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2669" s="0">
+        <v>541</v>
+      </c>
+      <c r="D2669" s="0">
+        <v>1.24008050208361E-03</v>
+      </c>
+      <c r="E2669" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2669" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2669" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2669" s="0">
         <v>0</v>
       </c>
     </row>
@@ -73972,11 +74252,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2112</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2145</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2112</Url>
-      <Description>HJYU5V3E37X6-122305290-2112</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2145</Url>
+      <Description>HJYU5V3E37X6-122305290-2145</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -73999,17 +74279,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D68D4D-B797-4E40-9FA1-C5411E19B5F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFAA521-A6E3-477D-8E21-C0223EE78908}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CF1A133-1FB4-430A-85F3-FEDC5C2BD0FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C5260F-F626-4EF0-A0BF-2916E6C941E7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265E772C-51B9-45A9-8D4E-89C5E01FA8F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72FC8610-436F-411E-91D0-F1071FDACD39}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2C7A67-695B-42BA-BDB4-07513220C41A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E5949E-7540-43A8-9595-B0B948009768}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2669</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2679</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2669"/>
+  <dimension ref="A1:H2679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -73820,6 +73820,286 @@
         <v>0</v>
       </c>
       <c r="H2669" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2670">
+      <c r="A2670" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2670" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2670" s="0">
+        <v>22375</v>
+      </c>
+      <c r="D2670" s="0">
+        <v>5.05132598718148E-02</v>
+      </c>
+      <c r="E2670" s="0">
+        <v>389</v>
+      </c>
+      <c r="F2670" s="0">
+        <v>5.81377970408011E-02</v>
+      </c>
+      <c r="G2670" s="0">
+        <v>6</v>
+      </c>
+      <c r="H2670" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2671">
+      <c r="A2671" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2671" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2671" s="0">
+        <v>58021</v>
+      </c>
+      <c r="D2671" s="0">
+        <v>0.130986808984249</v>
+      </c>
+      <c r="E2671" s="0">
+        <v>793</v>
+      </c>
+      <c r="F2671" s="0">
+        <v>0.118517411448214</v>
+      </c>
+      <c r="G2671" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2671" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2672">
+      <c r="A2672" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2672" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2672" s="0">
+        <v>83218</v>
+      </c>
+      <c r="D2672" s="0">
+        <v>0.187870947933528</v>
+      </c>
+      <c r="E2672" s="0">
+        <v>1129</v>
+      </c>
+      <c r="F2672" s="0">
+        <v>0.16873412046032</v>
+      </c>
+      <c r="G2672" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2672" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2673">
+      <c r="A2673" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2673" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2673" s="0">
+        <v>69450</v>
+      </c>
+      <c r="D2673" s="0">
+        <v>0.156788643490393</v>
+      </c>
+      <c r="E2673" s="0">
+        <v>1092</v>
+      </c>
+      <c r="F2673" s="0">
+        <v>0.163204304289344</v>
+      </c>
+      <c r="G2673" s="0">
+        <v>63</v>
+      </c>
+      <c r="H2673" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2674">
+      <c r="A2674" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2674" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2674" s="0">
+        <v>66148</v>
+      </c>
+      <c r="D2674" s="0">
+        <v>0.149334128000036</v>
+      </c>
+      <c r="E2674" s="0">
+        <v>988</v>
+      </c>
+      <c r="F2674" s="0">
+        <v>0.147661037214168</v>
+      </c>
+      <c r="G2674" s="0">
+        <v>175</v>
+      </c>
+      <c r="H2674" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2675">
+      <c r="A2675" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2675" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2675" s="0">
+        <v>60555</v>
+      </c>
+      <c r="D2675" s="0">
+        <v>0.136707506213978</v>
+      </c>
+      <c r="E2675" s="0">
+        <v>964</v>
+      </c>
+      <c r="F2675" s="0">
+        <v>0.144074129427589</v>
+      </c>
+      <c r="G2675" s="0">
+        <v>479</v>
+      </c>
+      <c r="H2675" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2676">
+      <c r="A2676" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2676" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2676" s="0">
+        <v>43075</v>
+      </c>
+      <c r="D2676" s="0">
+        <v>9.72450801778067E-02</v>
+      </c>
+      <c r="E2676" s="0">
+        <v>686</v>
+      </c>
+      <c r="F2676" s="0">
+        <v>0.102525780899716</v>
+      </c>
+      <c r="G2676" s="0">
+        <v>1015</v>
+      </c>
+      <c r="H2676" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2677">
+      <c r="A2677" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2677" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2677" s="0">
+        <v>25823</v>
+      </c>
+      <c r="D2677" s="0">
+        <v>5.82973814377598E-02</v>
+      </c>
+      <c r="E2677" s="0">
+        <v>390</v>
+      </c>
+      <c r="F2677" s="0">
+        <v>5.82872515319085E-02</v>
+      </c>
+      <c r="G2677" s="0">
+        <v>1640</v>
+      </c>
+      <c r="H2677" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2678">
+      <c r="A2678" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2678" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2678" s="0">
+        <v>13734</v>
+      </c>
+      <c r="D2678" s="0">
+        <v>3.10055468638885E-02</v>
+      </c>
+      <c r="E2678" s="0">
+        <v>247</v>
+      </c>
+      <c r="F2678" s="0">
+        <v>3.69152593035421E-02</v>
+      </c>
+      <c r="G2678" s="0">
+        <v>1988</v>
+      </c>
+      <c r="H2678" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2679">
+      <c r="A2679" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2679" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2679" s="0">
+        <v>554</v>
+      </c>
+      <c r="D2679" s="0">
+        <v>1.25069702654683E-03</v>
+      </c>
+      <c r="E2679" s="0">
+        <v>13</v>
+      </c>
+      <c r="F2679" s="0">
+        <v>1.94290838439695E-03</v>
+      </c>
+      <c r="G2679" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2679" s="0">
         <v>0</v>
       </c>
     </row>
@@ -74252,11 +74532,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2145</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2157</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2145</Url>
-      <Description>HJYU5V3E37X6-122305290-2145</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2157</Url>
+      <Description>HJYU5V3E37X6-122305290-2157</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -74279,17 +74559,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFAA521-A6E3-477D-8E21-C0223EE78908}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7735B997-E664-4204-B46B-6F5CA5758A55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C5260F-F626-4EF0-A0BF-2916E6C941E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BCAD8E3-CFFD-4DE7-B190-4656A02EC16B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72FC8610-436F-411E-91D0-F1071FDACD39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{435DF026-FCED-48FC-A831-911C8AFE320D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E5949E-7540-43A8-9595-B0B948009768}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98D053D-8481-48AA-9DAF-B818B41FE4E3}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2679</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2689</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2679"/>
+  <dimension ref="A1:H2689"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -74100,6 +74100,286 @@
         <v>0</v>
       </c>
       <c r="H2679" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2680">
+      <c r="A2680" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2680" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2680" s="0">
+        <v>22982</v>
+      </c>
+      <c r="D2680" s="0">
+        <v>5.05871606079616E-02</v>
+      </c>
+      <c r="E2680" s="0">
+        <v>607</v>
+      </c>
+      <c r="F2680" s="0">
+        <v>5.34707540521494E-02</v>
+      </c>
+      <c r="G2680" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2680" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2681">
+      <c r="A2681" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2681" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2681" s="0">
+        <v>59451</v>
+      </c>
+      <c r="D2681" s="0">
+        <v>0.130861425694192</v>
+      </c>
+      <c r="E2681" s="0">
+        <v>1430</v>
+      </c>
+      <c r="F2681" s="0">
+        <v>0.125968992248062</v>
+      </c>
+      <c r="G2681" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2681" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2682">
+      <c r="A2682" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2682" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2682" s="0">
+        <v>85216</v>
+      </c>
+      <c r="D2682" s="0">
+        <v>0.187574426871815</v>
+      </c>
+      <c r="E2682" s="0">
+        <v>1998</v>
+      </c>
+      <c r="F2682" s="0">
+        <v>0.17600422832981</v>
+      </c>
+      <c r="G2682" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2682" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2683">
+      <c r="A2683" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2683" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2683" s="0">
+        <v>71183</v>
+      </c>
+      <c r="D2683" s="0">
+        <v>0.156685486622423</v>
+      </c>
+      <c r="E2683" s="0">
+        <v>1733</v>
+      </c>
+      <c r="F2683" s="0">
+        <v>0.152660324171952</v>
+      </c>
+      <c r="G2683" s="0">
+        <v>64</v>
+      </c>
+      <c r="H2683" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2684">
+      <c r="A2684" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2684" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2684" s="0">
+        <v>67838</v>
+      </c>
+      <c r="D2684" s="0">
+        <v>0.149322591650983</v>
+      </c>
+      <c r="E2684" s="0">
+        <v>1690</v>
+      </c>
+      <c r="F2684" s="0">
+        <v>0.148872445384073</v>
+      </c>
+      <c r="G2684" s="0">
+        <v>176</v>
+      </c>
+      <c r="H2684" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2685">
+      <c r="A2685" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2685" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2685" s="0">
+        <v>62228</v>
+      </c>
+      <c r="D2685" s="0">
+        <v>0.136974059277358</v>
+      </c>
+      <c r="E2685" s="0">
+        <v>1673</v>
+      </c>
+      <c r="F2685" s="0">
+        <v>0.147374911909796</v>
+      </c>
+      <c r="G2685" s="0">
+        <v>483</v>
+      </c>
+      <c r="H2685" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2686">
+      <c r="A2686" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2686" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2686" s="0">
+        <v>44264</v>
+      </c>
+      <c r="D2686" s="0">
+        <v>9.74323417087639E-02</v>
+      </c>
+      <c r="E2686" s="0">
+        <v>1189</v>
+      </c>
+      <c r="F2686" s="0">
+        <v>0.104739252995067</v>
+      </c>
+      <c r="G2686" s="0">
+        <v>1024</v>
+      </c>
+      <c r="H2686" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2687">
+      <c r="A2687" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2687" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2687" s="0">
+        <v>26480</v>
+      </c>
+      <c r="D2687" s="0">
+        <v>5.82868337350458E-02</v>
+      </c>
+      <c r="E2687" s="0">
+        <v>657</v>
+      </c>
+      <c r="F2687" s="0">
+        <v>5.78752642706131E-02</v>
+      </c>
+      <c r="G2687" s="0">
+        <v>1659</v>
+      </c>
+      <c r="H2687" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2688">
+      <c r="A2688" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2688" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2688" s="0">
+        <v>14103</v>
+      </c>
+      <c r="D2688" s="0">
+        <v>3.10430217585103E-02</v>
+      </c>
+      <c r="E2688" s="0">
+        <v>369</v>
+      </c>
+      <c r="F2688" s="0">
+        <v>3.25052854122622E-02</v>
+      </c>
+      <c r="G2688" s="0">
+        <v>2018</v>
+      </c>
+      <c r="H2688" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2689">
+      <c r="A2689" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2689" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2689" s="0">
+        <v>560</v>
+      </c>
+      <c r="D2689" s="0">
+        <v>1.23265207294659E-03</v>
+      </c>
+      <c r="E2689" s="0">
+        <v>6</v>
+      </c>
+      <c r="F2689" s="0">
+        <v>5.28541226215645E-04</v>
+      </c>
+      <c r="G2689" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2689" s="0">
         <v>0</v>
       </c>
     </row>
@@ -74532,11 +74812,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2157</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2169</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2157</Url>
-      <Description>HJYU5V3E37X6-122305290-2157</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2169</Url>
+      <Description>HJYU5V3E37X6-122305290-2169</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -74559,17 +74839,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7735B997-E664-4204-B46B-6F5CA5758A55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72E21C2-EE82-42D1-8293-5009C6521EF1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BCAD8E3-CFFD-4DE7-B190-4656A02EC16B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{035DD985-81B6-4B2E-B0EB-B86F46F3FE57}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{435DF026-FCED-48FC-A831-911C8AFE320D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDCE0885-F439-4DC6-B4DA-9193486CAB93}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98D053D-8481-48AA-9DAF-B818B41FE4E3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4648085E-A30A-4D3A-ACA3-553553A0B49B}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2689</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2699</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2689"/>
+  <dimension ref="A1:H2699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -74380,6 +74380,286 @@
         <v>0</v>
       </c>
       <c r="H2689" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2690">
+      <c r="A2690" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2690" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2690" s="0">
+        <v>23562</v>
+      </c>
+      <c r="D2690" s="0">
+        <v>5.07119735528083E-02</v>
+      </c>
+      <c r="E2690" s="0">
+        <v>580</v>
+      </c>
+      <c r="F2690" s="0">
+        <v>5.62069968020157E-02</v>
+      </c>
+      <c r="G2690" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2690" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2691">
+      <c r="A2691" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2691" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2691" s="0">
+        <v>60811</v>
+      </c>
+      <c r="D2691" s="0">
+        <v>0.130882175694755</v>
+      </c>
+      <c r="E2691" s="0">
+        <v>1360</v>
+      </c>
+      <c r="F2691" s="0">
+        <v>0.131795716639209</v>
+      </c>
+      <c r="G2691" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2691" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2692">
+      <c r="A2692" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2692" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2692" s="0">
+        <v>87015</v>
+      </c>
+      <c r="D2692" s="0">
+        <v>0.187280467646958</v>
+      </c>
+      <c r="E2692" s="0">
+        <v>1799</v>
+      </c>
+      <c r="F2692" s="0">
+        <v>0.174338598701425</v>
+      </c>
+      <c r="G2692" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2692" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2693">
+      <c r="A2693" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2693" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2693" s="0">
+        <v>72787</v>
+      </c>
+      <c r="D2693" s="0">
+        <v>0.156657856675505</v>
+      </c>
+      <c r="E2693" s="0">
+        <v>1604</v>
+      </c>
+      <c r="F2693" s="0">
+        <v>0.155441418742126</v>
+      </c>
+      <c r="G2693" s="0">
+        <v>64</v>
+      </c>
+      <c r="H2693" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2694">
+      <c r="A2694" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2694" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2694" s="0">
+        <v>69344</v>
+      </c>
+      <c r="D2694" s="0">
+        <v>0.149247563621337</v>
+      </c>
+      <c r="E2694" s="0">
+        <v>1506</v>
+      </c>
+      <c r="F2694" s="0">
+        <v>0.145944374454889</v>
+      </c>
+      <c r="G2694" s="0">
+        <v>176</v>
+      </c>
+      <c r="H2694" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2695">
+      <c r="A2695" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2695" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2695" s="0">
+        <v>63694</v>
+      </c>
+      <c r="D2695" s="0">
+        <v>0.137087193085161</v>
+      </c>
+      <c r="E2695" s="0">
+        <v>1466</v>
+      </c>
+      <c r="F2695" s="0">
+        <v>0.142068029847853</v>
+      </c>
+      <c r="G2695" s="0">
+        <v>487</v>
+      </c>
+      <c r="H2695" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2696">
+      <c r="A2696" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2696" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2696" s="0">
+        <v>45319</v>
+      </c>
+      <c r="D2696" s="0">
+        <v>9.75390853679534E-02</v>
+      </c>
+      <c r="E2696" s="0">
+        <v>1055</v>
+      </c>
+      <c r="F2696" s="0">
+        <v>0.102238589010563</v>
+      </c>
+      <c r="G2696" s="0">
+        <v>1036</v>
+      </c>
+      <c r="H2696" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2697">
+      <c r="A2697" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2697" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2697" s="0">
+        <v>27119</v>
+      </c>
+      <c r="D2697" s="0">
+        <v>5.83676262956713E-02</v>
+      </c>
+      <c r="E2697" s="0">
+        <v>639</v>
+      </c>
+      <c r="F2697" s="0">
+        <v>6.19246050973932E-02</v>
+      </c>
+      <c r="G2697" s="0">
+        <v>1681</v>
+      </c>
+      <c r="H2697" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2698">
+      <c r="A2698" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2698" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2698" s="0">
+        <v>14406</v>
+      </c>
+      <c r="D2698" s="0">
+        <v>0.031005716450291</v>
+      </c>
+      <c r="E2698" s="0">
+        <v>303</v>
+      </c>
+      <c r="F2698" s="0">
+        <v>2.93633103982944E-02</v>
+      </c>
+      <c r="G2698" s="0">
+        <v>2059</v>
+      </c>
+      <c r="H2698" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2699">
+      <c r="A2699" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2699" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2699" s="0">
+        <v>567</v>
+      </c>
+      <c r="D2699" s="0">
+        <v>1.22034160955956E-03</v>
+      </c>
+      <c r="E2699" s="0">
+        <v>7</v>
+      </c>
+      <c r="F2699" s="0">
+        <v>6.78360306231224E-04</v>
+      </c>
+      <c r="G2699" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2699" s="0">
         <v>0</v>
       </c>
     </row>
@@ -74812,11 +75092,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2169</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2180</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2169</Url>
-      <Description>HJYU5V3E37X6-122305290-2169</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2180</Url>
+      <Description>HJYU5V3E37X6-122305290-2180</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -74839,17 +75119,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72E21C2-EE82-42D1-8293-5009C6521EF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95F45B08-AEB6-4C92-AE7E-8FC51A0C5D95}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{035DD985-81B6-4B2E-B0EB-B86F46F3FE57}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3C9948-3CD2-4857-B69D-7FC741CD6AF6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDCE0885-F439-4DC6-B4DA-9193486CAB93}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0BD5A3B-9E66-4967-8669-1A6F1B0D1B9E}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4648085E-A30A-4D3A-ACA3-553553A0B49B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A80D8996-09FC-480D-B9F9-1B21953F5561}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2629</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2699</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2629"/>
+  <dimension ref="A1:H2699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -72700,6 +72700,1966 @@
         <v>0</v>
       </c>
       <c r="H2629" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2630">
+      <c r="A2630" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2630" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2630" s="0">
+        <v>20668</v>
+      </c>
+      <c r="D2630" s="0">
+        <v>4.98325493250134E-02</v>
+      </c>
+      <c r="E2630" s="0">
+        <v>301</v>
+      </c>
+      <c r="F2630" s="0">
+        <v>5.00083070277455E-02</v>
+      </c>
+      <c r="G2630" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2630" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2631">
+      <c r="A2631" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2631" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2631" s="0">
+        <v>54422</v>
+      </c>
+      <c r="D2631" s="0">
+        <v>0.131216711794362</v>
+      </c>
+      <c r="E2631" s="0">
+        <v>697</v>
+      </c>
+      <c r="F2631" s="0">
+        <v>0.115799966771889</v>
+      </c>
+      <c r="G2631" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2631" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2632">
+      <c r="A2632" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2632" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2632" s="0">
+        <v>78495</v>
+      </c>
+      <c r="D2632" s="0">
+        <v>0.18925904583254</v>
+      </c>
+      <c r="E2632" s="0">
+        <v>999</v>
+      </c>
+      <c r="F2632" s="0">
+        <v>0.165974414354544</v>
+      </c>
+      <c r="G2632" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2632" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2633">
+      <c r="A2633" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2633" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2633" s="0">
+        <v>65071</v>
+      </c>
+      <c r="D2633" s="0">
+        <v>0.156892481958968</v>
+      </c>
+      <c r="E2633" s="0">
+        <v>883</v>
+      </c>
+      <c r="F2633" s="0">
+        <v>0.146702109985047</v>
+      </c>
+      <c r="G2633" s="0">
+        <v>63</v>
+      </c>
+      <c r="H2633" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2634">
+      <c r="A2634" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2634" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2634" s="0">
+        <v>62006</v>
+      </c>
+      <c r="D2634" s="0">
+        <v>0.149502470168704</v>
+      </c>
+      <c r="E2634" s="0">
+        <v>923</v>
+      </c>
+      <c r="F2634" s="0">
+        <v>0.153347732181425</v>
+      </c>
+      <c r="G2634" s="0">
+        <v>167</v>
+      </c>
+      <c r="H2634" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2635">
+      <c r="A2635" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2635" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2635" s="0">
+        <v>56560</v>
+      </c>
+      <c r="D2635" s="0">
+        <v>0.136371636821306</v>
+      </c>
+      <c r="E2635" s="0">
+        <v>874</v>
+      </c>
+      <c r="F2635" s="0">
+        <v>0.145206844990862</v>
+      </c>
+      <c r="G2635" s="0">
+        <v>468</v>
+      </c>
+      <c r="H2635" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2636">
+      <c r="A2636" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2636" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2636" s="0">
+        <v>40115</v>
+      </c>
+      <c r="D2636" s="0">
+        <v>9.67211494180818E-02</v>
+      </c>
+      <c r="E2636" s="0">
+        <v>667</v>
+      </c>
+      <c r="F2636" s="0">
+        <v>0.110815750124605</v>
+      </c>
+      <c r="G2636" s="0">
+        <v>960</v>
+      </c>
+      <c r="H2636" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2637">
+      <c r="A2637" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2637" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2637" s="0">
+        <v>24033</v>
+      </c>
+      <c r="D2637" s="0">
+        <v>5.79458901648949E-02</v>
+      </c>
+      <c r="E2637" s="0">
+        <v>429</v>
+      </c>
+      <c r="F2637" s="0">
+        <v>7.12742980561555E-02</v>
+      </c>
+      <c r="G2637" s="0">
+        <v>1544</v>
+      </c>
+      <c r="H2637" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2638">
+      <c r="A2638" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2638" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2638" s="0">
+        <v>12819</v>
+      </c>
+      <c r="D2638" s="0">
+        <v>3.09078502901755E-02</v>
+      </c>
+      <c r="E2638" s="0">
+        <v>235</v>
+      </c>
+      <c r="F2638" s="0">
+        <v>3.90430304037215E-02</v>
+      </c>
+      <c r="G2638" s="0">
+        <v>1869</v>
+      </c>
+      <c r="H2638" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2639">
+      <c r="A2639" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B2639" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2639" s="0">
+        <v>560</v>
+      </c>
+      <c r="D2639" s="0">
+        <v>1.35021422595353E-03</v>
+      </c>
+      <c r="E2639" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2639" s="0">
+        <v>1.82754610400399E-03</v>
+      </c>
+      <c r="G2639" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2639" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2640">
+      <c r="A2640" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2640" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2640" s="0">
+        <v>21146</v>
+      </c>
+      <c r="D2640" s="0">
+        <v>4.99950350149659E-02</v>
+      </c>
+      <c r="E2640" s="0">
+        <v>478</v>
+      </c>
+      <c r="F2640" s="0">
+        <v>0.05820041397784</v>
+      </c>
+      <c r="G2640" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2640" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2641">
+      <c r="A2641" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2641" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2641" s="0">
+        <v>55518</v>
+      </c>
+      <c r="D2641" s="0">
+        <v>0.131260018630515</v>
+      </c>
+      <c r="E2641" s="0">
+        <v>1096</v>
+      </c>
+      <c r="F2641" s="0">
+        <v>0.133446974309022</v>
+      </c>
+      <c r="G2641" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2641" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2642">
+      <c r="A2642" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2642" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2642" s="0">
+        <v>79935</v>
+      </c>
+      <c r="D2642" s="0">
+        <v>0.188988608905765</v>
+      </c>
+      <c r="E2642" s="0">
+        <v>1440</v>
+      </c>
+      <c r="F2642" s="0">
+        <v>0.175331791062949</v>
+      </c>
+      <c r="G2642" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2642" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2643">
+      <c r="A2643" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2643" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2643" s="0">
+        <v>66342</v>
+      </c>
+      <c r="D2643" s="0">
+        <v>0.156850970063505</v>
+      </c>
+      <c r="E2643" s="0">
+        <v>1271</v>
+      </c>
+      <c r="F2643" s="0">
+        <v>0.1547546572507</v>
+      </c>
+      <c r="G2643" s="0">
+        <v>63</v>
+      </c>
+      <c r="H2643" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2644">
+      <c r="A2644" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2644" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2644" s="0">
+        <v>63217</v>
+      </c>
+      <c r="D2644" s="0">
+        <v>0.149462599477022</v>
+      </c>
+      <c r="E2644" s="0">
+        <v>1211</v>
+      </c>
+      <c r="F2644" s="0">
+        <v>0.147449165956411</v>
+      </c>
+      <c r="G2644" s="0">
+        <v>170</v>
+      </c>
+      <c r="H2644" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2645">
+      <c r="A2645" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2645" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2645" s="0">
+        <v>57696</v>
+      </c>
+      <c r="D2645" s="0">
+        <v>0.13640941739447</v>
+      </c>
+      <c r="E2645" s="0">
+        <v>1136</v>
+      </c>
+      <c r="F2645" s="0">
+        <v>0.138317301838549</v>
+      </c>
+      <c r="G2645" s="0">
+        <v>471</v>
+      </c>
+      <c r="H2645" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2646">
+      <c r="A2646" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2646" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2646" s="0">
+        <v>40940</v>
+      </c>
+      <c r="D2646" s="0">
+        <v>9.67935653793958E-02</v>
+      </c>
+      <c r="E2646" s="0">
+        <v>825</v>
+      </c>
+      <c r="F2646" s="0">
+        <v>0.100450505296481</v>
+      </c>
+      <c r="G2646" s="0">
+        <v>975</v>
+      </c>
+      <c r="H2646" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2647">
+      <c r="A2647" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2647" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2647" s="0">
+        <v>24560</v>
+      </c>
+      <c r="D2647" s="0">
+        <v>5.80666821132868E-02</v>
+      </c>
+      <c r="E2647" s="0">
+        <v>527</v>
+      </c>
+      <c r="F2647" s="0">
+        <v>6.41665652015098E-02</v>
+      </c>
+      <c r="G2647" s="0">
+        <v>1563</v>
+      </c>
+      <c r="H2647" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2648">
+      <c r="A2648" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2648" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2648" s="0">
+        <v>13060</v>
+      </c>
+      <c r="D2648" s="0">
+        <v>3.08774783550295E-02</v>
+      </c>
+      <c r="E2648" s="0">
+        <v>241</v>
+      </c>
+      <c r="F2648" s="0">
+        <v>2.93437233653963E-02</v>
+      </c>
+      <c r="G2648" s="0">
+        <v>1892</v>
+      </c>
+      <c r="H2648" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2649">
+      <c r="A2649" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B2649" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2649" s="0">
+        <v>548</v>
+      </c>
+      <c r="D2649" s="0">
+        <v>1.29562466604565E-03</v>
+      </c>
+      <c r="E2649" s="0">
+        <v>-12</v>
+      </c>
+      <c r="F2649" s="0">
+        <v>-1.46109825885791E-03</v>
+      </c>
+      <c r="G2649" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2649" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2650">
+      <c r="A2650" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2650" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2650" s="0">
+        <v>21516</v>
+      </c>
+      <c r="D2650" s="0">
+        <v>5.01570028882937E-02</v>
+      </c>
+      <c r="E2650" s="0">
+        <v>370</v>
+      </c>
+      <c r="F2650" s="0">
+        <v>6.15538180003327E-02</v>
+      </c>
+      <c r="G2650" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2650" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2651">
+      <c r="A2651" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2651" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2651" s="0">
+        <v>56292</v>
+      </c>
+      <c r="D2651" s="0">
+        <v>0.131225042135519</v>
+      </c>
+      <c r="E2651" s="0">
+        <v>774</v>
+      </c>
+      <c r="F2651" s="0">
+        <v>0.128763932789885</v>
+      </c>
+      <c r="G2651" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2651" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2652">
+      <c r="A2652" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2652" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2652" s="0">
+        <v>80949</v>
+      </c>
+      <c r="D2652" s="0">
+        <v>0.188704184179424</v>
+      </c>
+      <c r="E2652" s="0">
+        <v>1014</v>
+      </c>
+      <c r="F2652" s="0">
+        <v>0.168690733654966</v>
+      </c>
+      <c r="G2652" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2652" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2653">
+      <c r="A2653" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2653" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2653" s="0">
+        <v>67256</v>
+      </c>
+      <c r="D2653" s="0">
+        <v>0.156783760283281</v>
+      </c>
+      <c r="E2653" s="0">
+        <v>914</v>
+      </c>
+      <c r="F2653" s="0">
+        <v>0.152054566627849</v>
+      </c>
+      <c r="G2653" s="0">
+        <v>63</v>
+      </c>
+      <c r="H2653" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2654">
+      <c r="A2654" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2654" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2654" s="0">
+        <v>64113</v>
+      </c>
+      <c r="D2654" s="0">
+        <v>0.149456958829577</v>
+      </c>
+      <c r="E2654" s="0">
+        <v>896</v>
+      </c>
+      <c r="F2654" s="0">
+        <v>0.149060056562968</v>
+      </c>
+      <c r="G2654" s="0">
+        <v>174</v>
+      </c>
+      <c r="H2654" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2655">
+      <c r="A2655" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2655" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2655" s="0">
+        <v>58533</v>
+      </c>
+      <c r="D2655" s="0">
+        <v>0.136449147149121</v>
+      </c>
+      <c r="E2655" s="0">
+        <v>837</v>
+      </c>
+      <c r="F2655" s="0">
+        <v>0.139244718016969</v>
+      </c>
+      <c r="G2655" s="0">
+        <v>471</v>
+      </c>
+      <c r="H2655" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2656">
+      <c r="A2656" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2656" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2656" s="0">
+        <v>41570</v>
+      </c>
+      <c r="D2656" s="0">
+        <v>9.69058658703462E-02</v>
+      </c>
+      <c r="E2656" s="0">
+        <v>630</v>
+      </c>
+      <c r="F2656" s="0">
+        <v>0.104807852270837</v>
+      </c>
+      <c r="G2656" s="0">
+        <v>988</v>
+      </c>
+      <c r="H2656" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2657">
+      <c r="A2657" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2657" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2657" s="0">
+        <v>24940</v>
+      </c>
+      <c r="D2657" s="0">
+        <v>5.81388572241143E-02</v>
+      </c>
+      <c r="E2657" s="0">
+        <v>380</v>
+      </c>
+      <c r="F2657" s="0">
+        <v>6.32174347030444E-02</v>
+      </c>
+      <c r="G2657" s="0">
+        <v>1587</v>
+      </c>
+      <c r="H2657" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2658">
+      <c r="A2658" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2658" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2658" s="0">
+        <v>13263</v>
+      </c>
+      <c r="D2658" s="0">
+        <v>3.09180298060717E-02</v>
+      </c>
+      <c r="E2658" s="0">
+        <v>203</v>
+      </c>
+      <c r="F2658" s="0">
+        <v>3.37714190650474E-02</v>
+      </c>
+      <c r="G2658" s="0">
+        <v>1919</v>
+      </c>
+      <c r="H2658" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2659">
+      <c r="A2659" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B2659" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2659" s="0">
+        <v>541</v>
+      </c>
+      <c r="D2659" s="0">
+        <v>1.26115163425204E-03</v>
+      </c>
+      <c r="E2659" s="0">
+        <v>-7</v>
+      </c>
+      <c r="F2659" s="0">
+        <v>-1.16453169189819E-03</v>
+      </c>
+      <c r="G2659" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2659" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2660">
+      <c r="A2660" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2660" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2660" s="0">
+        <v>21986</v>
+      </c>
+      <c r="D2660" s="0">
+        <v>5.03963214765439E-02</v>
+      </c>
+      <c r="E2660" s="0">
+        <v>470</v>
+      </c>
+      <c r="F2660" s="0">
+        <v>6.44807243792015E-02</v>
+      </c>
+      <c r="G2660" s="0">
+        <v>5</v>
+      </c>
+      <c r="H2660" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2661">
+      <c r="A2661" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2661" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2661" s="0">
+        <v>57228</v>
+      </c>
+      <c r="D2661" s="0">
+        <v>0.131178053554974</v>
+      </c>
+      <c r="E2661" s="0">
+        <v>936</v>
+      </c>
+      <c r="F2661" s="0">
+        <v>0.128412676636027</v>
+      </c>
+      <c r="G2661" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2661" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2662">
+      <c r="A2662" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2662" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2662" s="0">
+        <v>82089</v>
+      </c>
+      <c r="D2662" s="0">
+        <v>0.18816445163686</v>
+      </c>
+      <c r="E2662" s="0">
+        <v>1140</v>
+      </c>
+      <c r="F2662" s="0">
+        <v>0.156400054877212</v>
+      </c>
+      <c r="G2662" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2662" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2663">
+      <c r="A2663" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2663" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2663" s="0">
+        <v>68358</v>
+      </c>
+      <c r="D2663" s="0">
+        <v>0.156690245769744</v>
+      </c>
+      <c r="E2663" s="0">
+        <v>1102</v>
+      </c>
+      <c r="F2663" s="0">
+        <v>0.151186719714638</v>
+      </c>
+      <c r="G2663" s="0">
+        <v>63</v>
+      </c>
+      <c r="H2663" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2664">
+      <c r="A2664" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2664" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2664" s="0">
+        <v>65160</v>
+      </c>
+      <c r="D2664" s="0">
+        <v>0.149359788384044</v>
+      </c>
+      <c r="E2664" s="0">
+        <v>1047</v>
+      </c>
+      <c r="F2664" s="0">
+        <v>0.143641103031966</v>
+      </c>
+      <c r="G2664" s="0">
+        <v>174</v>
+      </c>
+      <c r="H2664" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2665">
+      <c r="A2665" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2665" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2665" s="0">
+        <v>59591</v>
+      </c>
+      <c r="D2665" s="0">
+        <v>0.136594523474426</v>
+      </c>
+      <c r="E2665" s="0">
+        <v>1058</v>
+      </c>
+      <c r="F2665" s="0">
+        <v>0.1451502263685</v>
+      </c>
+      <c r="G2665" s="0">
+        <v>477</v>
+      </c>
+      <c r="H2665" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2666">
+      <c r="A2666" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2666" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2666" s="0">
+        <v>42389</v>
+      </c>
+      <c r="D2666" s="0">
+        <v>9.71640894691722E-02</v>
+      </c>
+      <c r="E2666" s="0">
+        <v>819</v>
+      </c>
+      <c r="F2666" s="0">
+        <v>0.112361092056524</v>
+      </c>
+      <c r="G2666" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H2666" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2667">
+      <c r="A2667" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2667" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2667" s="0">
+        <v>25433</v>
+      </c>
+      <c r="D2667" s="0">
+        <v>0.05829753680128</v>
+      </c>
+      <c r="E2667" s="0">
+        <v>493</v>
+      </c>
+      <c r="F2667" s="0">
+        <v>6.76361640828646E-02</v>
+      </c>
+      <c r="G2667" s="0">
+        <v>1615</v>
+      </c>
+      <c r="H2667" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2668">
+      <c r="A2668" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2668" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2668" s="0">
+        <v>13487</v>
+      </c>
+      <c r="D2668" s="0">
+        <v>3.09149089308718E-02</v>
+      </c>
+      <c r="E2668" s="0">
+        <v>224</v>
+      </c>
+      <c r="F2668" s="0">
+        <v>3.07312388530663E-02</v>
+      </c>
+      <c r="G2668" s="0">
+        <v>1959</v>
+      </c>
+      <c r="H2668" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2669">
+      <c r="A2669" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B2669" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2669" s="0">
+        <v>541</v>
+      </c>
+      <c r="D2669" s="0">
+        <v>1.24008050208361E-03</v>
+      </c>
+      <c r="E2669" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2669" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2669" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2669" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2670">
+      <c r="A2670" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2670" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2670" s="0">
+        <v>22375</v>
+      </c>
+      <c r="D2670" s="0">
+        <v>5.05132598718148E-02</v>
+      </c>
+      <c r="E2670" s="0">
+        <v>389</v>
+      </c>
+      <c r="F2670" s="0">
+        <v>5.81377970408011E-02</v>
+      </c>
+      <c r="G2670" s="0">
+        <v>6</v>
+      </c>
+      <c r="H2670" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2671">
+      <c r="A2671" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2671" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2671" s="0">
+        <v>58021</v>
+      </c>
+      <c r="D2671" s="0">
+        <v>0.130986808984249</v>
+      </c>
+      <c r="E2671" s="0">
+        <v>793</v>
+      </c>
+      <c r="F2671" s="0">
+        <v>0.118517411448214</v>
+      </c>
+      <c r="G2671" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2671" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2672">
+      <c r="A2672" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2672" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2672" s="0">
+        <v>83218</v>
+      </c>
+      <c r="D2672" s="0">
+        <v>0.187870947933528</v>
+      </c>
+      <c r="E2672" s="0">
+        <v>1129</v>
+      </c>
+      <c r="F2672" s="0">
+        <v>0.16873412046032</v>
+      </c>
+      <c r="G2672" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2672" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2673">
+      <c r="A2673" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2673" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2673" s="0">
+        <v>69450</v>
+      </c>
+      <c r="D2673" s="0">
+        <v>0.156788643490393</v>
+      </c>
+      <c r="E2673" s="0">
+        <v>1092</v>
+      </c>
+      <c r="F2673" s="0">
+        <v>0.163204304289344</v>
+      </c>
+      <c r="G2673" s="0">
+        <v>63</v>
+      </c>
+      <c r="H2673" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2674">
+      <c r="A2674" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2674" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2674" s="0">
+        <v>66148</v>
+      </c>
+      <c r="D2674" s="0">
+        <v>0.149334128000036</v>
+      </c>
+      <c r="E2674" s="0">
+        <v>988</v>
+      </c>
+      <c r="F2674" s="0">
+        <v>0.147661037214168</v>
+      </c>
+      <c r="G2674" s="0">
+        <v>175</v>
+      </c>
+      <c r="H2674" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2675">
+      <c r="A2675" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2675" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2675" s="0">
+        <v>60555</v>
+      </c>
+      <c r="D2675" s="0">
+        <v>0.136707506213978</v>
+      </c>
+      <c r="E2675" s="0">
+        <v>964</v>
+      </c>
+      <c r="F2675" s="0">
+        <v>0.144074129427589</v>
+      </c>
+      <c r="G2675" s="0">
+        <v>479</v>
+      </c>
+      <c r="H2675" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2676">
+      <c r="A2676" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2676" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2676" s="0">
+        <v>43075</v>
+      </c>
+      <c r="D2676" s="0">
+        <v>9.72450801778067E-02</v>
+      </c>
+      <c r="E2676" s="0">
+        <v>686</v>
+      </c>
+      <c r="F2676" s="0">
+        <v>0.102525780899716</v>
+      </c>
+      <c r="G2676" s="0">
+        <v>1015</v>
+      </c>
+      <c r="H2676" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2677">
+      <c r="A2677" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2677" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2677" s="0">
+        <v>25823</v>
+      </c>
+      <c r="D2677" s="0">
+        <v>5.82973814377598E-02</v>
+      </c>
+      <c r="E2677" s="0">
+        <v>390</v>
+      </c>
+      <c r="F2677" s="0">
+        <v>5.82872515319085E-02</v>
+      </c>
+      <c r="G2677" s="0">
+        <v>1640</v>
+      </c>
+      <c r="H2677" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2678">
+      <c r="A2678" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2678" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2678" s="0">
+        <v>13734</v>
+      </c>
+      <c r="D2678" s="0">
+        <v>3.10055468638885E-02</v>
+      </c>
+      <c r="E2678" s="0">
+        <v>247</v>
+      </c>
+      <c r="F2678" s="0">
+        <v>3.69152593035421E-02</v>
+      </c>
+      <c r="G2678" s="0">
+        <v>1988</v>
+      </c>
+      <c r="H2678" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2679">
+      <c r="A2679" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B2679" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2679" s="0">
+        <v>554</v>
+      </c>
+      <c r="D2679" s="0">
+        <v>1.25069702654683E-03</v>
+      </c>
+      <c r="E2679" s="0">
+        <v>13</v>
+      </c>
+      <c r="F2679" s="0">
+        <v>1.94290838439695E-03</v>
+      </c>
+      <c r="G2679" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2679" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2680">
+      <c r="A2680" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2680" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2680" s="0">
+        <v>22982</v>
+      </c>
+      <c r="D2680" s="0">
+        <v>5.05871606079616E-02</v>
+      </c>
+      <c r="E2680" s="0">
+        <v>607</v>
+      </c>
+      <c r="F2680" s="0">
+        <v>5.34707540521494E-02</v>
+      </c>
+      <c r="G2680" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2680" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2681">
+      <c r="A2681" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2681" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2681" s="0">
+        <v>59451</v>
+      </c>
+      <c r="D2681" s="0">
+        <v>0.130861425694192</v>
+      </c>
+      <c r="E2681" s="0">
+        <v>1430</v>
+      </c>
+      <c r="F2681" s="0">
+        <v>0.125968992248062</v>
+      </c>
+      <c r="G2681" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2681" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2682">
+      <c r="A2682" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2682" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2682" s="0">
+        <v>85216</v>
+      </c>
+      <c r="D2682" s="0">
+        <v>0.187574426871815</v>
+      </c>
+      <c r="E2682" s="0">
+        <v>1998</v>
+      </c>
+      <c r="F2682" s="0">
+        <v>0.17600422832981</v>
+      </c>
+      <c r="G2682" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2682" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2683">
+      <c r="A2683" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2683" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2683" s="0">
+        <v>71183</v>
+      </c>
+      <c r="D2683" s="0">
+        <v>0.156685486622423</v>
+      </c>
+      <c r="E2683" s="0">
+        <v>1733</v>
+      </c>
+      <c r="F2683" s="0">
+        <v>0.152660324171952</v>
+      </c>
+      <c r="G2683" s="0">
+        <v>64</v>
+      </c>
+      <c r="H2683" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2684">
+      <c r="A2684" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2684" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2684" s="0">
+        <v>67838</v>
+      </c>
+      <c r="D2684" s="0">
+        <v>0.149322591650983</v>
+      </c>
+      <c r="E2684" s="0">
+        <v>1690</v>
+      </c>
+      <c r="F2684" s="0">
+        <v>0.148872445384073</v>
+      </c>
+      <c r="G2684" s="0">
+        <v>176</v>
+      </c>
+      <c r="H2684" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2685">
+      <c r="A2685" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2685" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2685" s="0">
+        <v>62228</v>
+      </c>
+      <c r="D2685" s="0">
+        <v>0.136974059277358</v>
+      </c>
+      <c r="E2685" s="0">
+        <v>1673</v>
+      </c>
+      <c r="F2685" s="0">
+        <v>0.147374911909796</v>
+      </c>
+      <c r="G2685" s="0">
+        <v>483</v>
+      </c>
+      <c r="H2685" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2686">
+      <c r="A2686" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2686" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2686" s="0">
+        <v>44264</v>
+      </c>
+      <c r="D2686" s="0">
+        <v>9.74323417087639E-02</v>
+      </c>
+      <c r="E2686" s="0">
+        <v>1189</v>
+      </c>
+      <c r="F2686" s="0">
+        <v>0.104739252995067</v>
+      </c>
+      <c r="G2686" s="0">
+        <v>1024</v>
+      </c>
+      <c r="H2686" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2687">
+      <c r="A2687" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2687" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2687" s="0">
+        <v>26480</v>
+      </c>
+      <c r="D2687" s="0">
+        <v>5.82868337350458E-02</v>
+      </c>
+      <c r="E2687" s="0">
+        <v>657</v>
+      </c>
+      <c r="F2687" s="0">
+        <v>5.78752642706131E-02</v>
+      </c>
+      <c r="G2687" s="0">
+        <v>1659</v>
+      </c>
+      <c r="H2687" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2688">
+      <c r="A2688" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2688" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2688" s="0">
+        <v>14103</v>
+      </c>
+      <c r="D2688" s="0">
+        <v>3.10430217585103E-02</v>
+      </c>
+      <c r="E2688" s="0">
+        <v>369</v>
+      </c>
+      <c r="F2688" s="0">
+        <v>3.25052854122622E-02</v>
+      </c>
+      <c r="G2688" s="0">
+        <v>2018</v>
+      </c>
+      <c r="H2688" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2689">
+      <c r="A2689" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B2689" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2689" s="0">
+        <v>560</v>
+      </c>
+      <c r="D2689" s="0">
+        <v>1.23265207294659E-03</v>
+      </c>
+      <c r="E2689" s="0">
+        <v>6</v>
+      </c>
+      <c r="F2689" s="0">
+        <v>5.28541226215645E-04</v>
+      </c>
+      <c r="G2689" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2689" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2690">
+      <c r="A2690" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2690" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2690" s="0">
+        <v>23562</v>
+      </c>
+      <c r="D2690" s="0">
+        <v>5.07119735528083E-02</v>
+      </c>
+      <c r="E2690" s="0">
+        <v>580</v>
+      </c>
+      <c r="F2690" s="0">
+        <v>5.62069968020157E-02</v>
+      </c>
+      <c r="G2690" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2690" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2691">
+      <c r="A2691" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2691" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2691" s="0">
+        <v>60811</v>
+      </c>
+      <c r="D2691" s="0">
+        <v>0.130882175694755</v>
+      </c>
+      <c r="E2691" s="0">
+        <v>1360</v>
+      </c>
+      <c r="F2691" s="0">
+        <v>0.131795716639209</v>
+      </c>
+      <c r="G2691" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2691" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2692">
+      <c r="A2692" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2692" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2692" s="0">
+        <v>87015</v>
+      </c>
+      <c r="D2692" s="0">
+        <v>0.187280467646958</v>
+      </c>
+      <c r="E2692" s="0">
+        <v>1799</v>
+      </c>
+      <c r="F2692" s="0">
+        <v>0.174338598701425</v>
+      </c>
+      <c r="G2692" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2692" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2693">
+      <c r="A2693" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2693" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2693" s="0">
+        <v>72787</v>
+      </c>
+      <c r="D2693" s="0">
+        <v>0.156657856675505</v>
+      </c>
+      <c r="E2693" s="0">
+        <v>1604</v>
+      </c>
+      <c r="F2693" s="0">
+        <v>0.155441418742126</v>
+      </c>
+      <c r="G2693" s="0">
+        <v>64</v>
+      </c>
+      <c r="H2693" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2694">
+      <c r="A2694" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2694" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2694" s="0">
+        <v>69344</v>
+      </c>
+      <c r="D2694" s="0">
+        <v>0.149247563621337</v>
+      </c>
+      <c r="E2694" s="0">
+        <v>1506</v>
+      </c>
+      <c r="F2694" s="0">
+        <v>0.145944374454889</v>
+      </c>
+      <c r="G2694" s="0">
+        <v>176</v>
+      </c>
+      <c r="H2694" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2695">
+      <c r="A2695" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2695" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2695" s="0">
+        <v>63694</v>
+      </c>
+      <c r="D2695" s="0">
+        <v>0.137087193085161</v>
+      </c>
+      <c r="E2695" s="0">
+        <v>1466</v>
+      </c>
+      <c r="F2695" s="0">
+        <v>0.142068029847853</v>
+      </c>
+      <c r="G2695" s="0">
+        <v>487</v>
+      </c>
+      <c r="H2695" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2696">
+      <c r="A2696" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2696" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2696" s="0">
+        <v>45319</v>
+      </c>
+      <c r="D2696" s="0">
+        <v>9.75390853679534E-02</v>
+      </c>
+      <c r="E2696" s="0">
+        <v>1055</v>
+      </c>
+      <c r="F2696" s="0">
+        <v>0.102238589010563</v>
+      </c>
+      <c r="G2696" s="0">
+        <v>1036</v>
+      </c>
+      <c r="H2696" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2697">
+      <c r="A2697" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2697" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2697" s="0">
+        <v>27119</v>
+      </c>
+      <c r="D2697" s="0">
+        <v>5.83676262956713E-02</v>
+      </c>
+      <c r="E2697" s="0">
+        <v>639</v>
+      </c>
+      <c r="F2697" s="0">
+        <v>6.19246050973932E-02</v>
+      </c>
+      <c r="G2697" s="0">
+        <v>1681</v>
+      </c>
+      <c r="H2697" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2698">
+      <c r="A2698" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2698" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2698" s="0">
+        <v>14406</v>
+      </c>
+      <c r="D2698" s="0">
+        <v>0.031005716450291</v>
+      </c>
+      <c r="E2698" s="0">
+        <v>303</v>
+      </c>
+      <c r="F2698" s="0">
+        <v>2.93633103982944E-02</v>
+      </c>
+      <c r="G2698" s="0">
+        <v>2059</v>
+      </c>
+      <c r="H2698" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2699">
+      <c r="A2699" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B2699" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2699" s="0">
+        <v>567</v>
+      </c>
+      <c r="D2699" s="0">
+        <v>1.22034160955956E-03</v>
+      </c>
+      <c r="E2699" s="0">
+        <v>7</v>
+      </c>
+      <c r="F2699" s="0">
+        <v>6.78360306231224E-04</v>
+      </c>
+      <c r="G2699" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2699" s="0">
         <v>0</v>
       </c>
     </row>
@@ -73132,11 +75092,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2058</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2180</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2058</Url>
-      <Description>HJYU5V3E37X6-122305290-2058</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2180</Url>
+      <Description>HJYU5V3E37X6-122305290-2180</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -73159,17 +75119,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201E8360-F0D4-4D67-9B68-26552B62A386}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95F45B08-AEB6-4C92-AE7E-8FC51A0C5D95}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ADA1471-4F2B-4F4E-988A-30A5BE9C7717}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3C9948-3CD2-4857-B69D-7FC741CD6AF6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA9AFD13-DDC0-4F03-B488-D01AC39DAD65}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0BD5A3B-9E66-4967-8669-1A6F1B0D1B9E}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074219A2-2789-4416-87C8-CF2A07C6A47D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A80D8996-09FC-480D-B9F9-1B21953F5561}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2699</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2709</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2699"/>
+  <dimension ref="A1:H2709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -74660,6 +74660,286 @@
         <v>0</v>
       </c>
       <c r="H2699" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2700">
+      <c r="A2700" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2700" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2700" s="0">
+        <v>24077</v>
+      </c>
+      <c r="D2700" s="0">
+        <v>5.09162040708432E-02</v>
+      </c>
+      <c r="E2700" s="0">
+        <v>515</v>
+      </c>
+      <c r="F2700" s="0">
+        <v>6.24166767664526E-02</v>
+      </c>
+      <c r="G2700" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2700" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2701">
+      <c r="A2701" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2701" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2701" s="0">
+        <v>61932</v>
+      </c>
+      <c r="D2701" s="0">
+        <v>0.130969072164948</v>
+      </c>
+      <c r="E2701" s="0">
+        <v>1121</v>
+      </c>
+      <c r="F2701" s="0">
+        <v>0.135862319718822</v>
+      </c>
+      <c r="G2701" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2701" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2702">
+      <c r="A2702" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2702" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2702" s="0">
+        <v>88470</v>
+      </c>
+      <c r="D2702" s="0">
+        <v>0.187089611419508</v>
+      </c>
+      <c r="E2702" s="0">
+        <v>1455</v>
+      </c>
+      <c r="F2702" s="0">
+        <v>0.176342261544055</v>
+      </c>
+      <c r="G2702" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2702" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2703">
+      <c r="A2703" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2703" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2703" s="0">
+        <v>73976</v>
+      </c>
+      <c r="D2703" s="0">
+        <v>0.156438805181073</v>
+      </c>
+      <c r="E2703" s="0">
+        <v>1189</v>
+      </c>
+      <c r="F2703" s="0">
+        <v>0.144103745000606</v>
+      </c>
+      <c r="G2703" s="0">
+        <v>64</v>
+      </c>
+      <c r="H2703" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2704">
+      <c r="A2704" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2704" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2704" s="0">
+        <v>70487</v>
+      </c>
+      <c r="D2704" s="0">
+        <v>0.14906053396775</v>
+      </c>
+      <c r="E2704" s="0">
+        <v>1143</v>
+      </c>
+      <c r="F2704" s="0">
+        <v>0.13852866319234</v>
+      </c>
+      <c r="G2704" s="0">
+        <v>179</v>
+      </c>
+      <c r="H2704" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2705">
+      <c r="A2705" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2705" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2705" s="0">
+        <v>64902</v>
+      </c>
+      <c r="D2705" s="0">
+        <v>0.137249801744647</v>
+      </c>
+      <c r="E2705" s="0">
+        <v>1208</v>
+      </c>
+      <c r="F2705" s="0">
+        <v>0.146406496182281</v>
+      </c>
+      <c r="G2705" s="0">
+        <v>497</v>
+      </c>
+      <c r="H2705" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2706">
+      <c r="A2706" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2706" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2706" s="0">
+        <v>46118</v>
+      </c>
+      <c r="D2706" s="0">
+        <v>9.75268305577584E-02</v>
+      </c>
+      <c r="E2706" s="0">
+        <v>799</v>
+      </c>
+      <c r="F2706" s="0">
+        <v>9.68367470609623E-02</v>
+      </c>
+      <c r="G2706" s="0">
+        <v>1042</v>
+      </c>
+      <c r="H2706" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2707">
+      <c r="A2707" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2707" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2707" s="0">
+        <v>27645</v>
+      </c>
+      <c r="D2707" s="0">
+        <v>5.84615384615385E-02</v>
+      </c>
+      <c r="E2707" s="0">
+        <v>526</v>
+      </c>
+      <c r="F2707" s="0">
+        <v>6.37498485032117E-02</v>
+      </c>
+      <c r="G2707" s="0">
+        <v>1703</v>
+      </c>
+      <c r="H2707" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2708">
+      <c r="A2708" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2708" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2708" s="0">
+        <v>14701</v>
+      </c>
+      <c r="D2708" s="0">
+        <v>3.10885540576262E-02</v>
+      </c>
+      <c r="E2708" s="0">
+        <v>295</v>
+      </c>
+      <c r="F2708" s="0">
+        <v>3.57532420312689E-02</v>
+      </c>
+      <c r="G2708" s="0">
+        <v>2092</v>
+      </c>
+      <c r="H2708" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2709">
+      <c r="A2709" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2709" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2709" s="0">
+        <v>567</v>
+      </c>
+      <c r="D2709" s="0">
+        <v>1.19904837430611E-03</v>
+      </c>
+      <c r="E2709" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2709" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2709" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2709" s="0">
         <v>0</v>
       </c>
     </row>
@@ -75092,11 +75372,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2180</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2191</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2180</Url>
-      <Description>HJYU5V3E37X6-122305290-2180</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2191</Url>
+      <Description>HJYU5V3E37X6-122305290-2191</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -75119,17 +75399,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95F45B08-AEB6-4C92-AE7E-8FC51A0C5D95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{315A11A0-345F-479E-AD72-DB6072839B1C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3C9948-3CD2-4857-B69D-7FC741CD6AF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7F44F37-9E5D-43CF-9EF3-F2D899D44493}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0BD5A3B-9E66-4967-8669-1A6F1B0D1B9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000F6CDD-5205-4710-9AC9-30D7D9887E2E}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A80D8996-09FC-480D-B9F9-1B21953F5561}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87351C1C-4768-4CBB-BC55-307D22FB6ACF}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2709</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2719</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2709"/>
+  <dimension ref="A1:H2719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -74940,6 +74940,286 @@
         <v>0</v>
       </c>
       <c r="H2709" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2710">
+      <c r="A2710" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2710" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2710" s="0">
+        <v>24695</v>
+      </c>
+      <c r="D2710" s="0">
+        <v>5.09927005792044E-02</v>
+      </c>
+      <c r="E2710" s="0">
+        <v>618</v>
+      </c>
+      <c r="F2710" s="0">
+        <v>5.41630148992112E-02</v>
+      </c>
+      <c r="G2710" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2710" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2711">
+      <c r="A2711" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2711" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2711" s="0">
+        <v>63328</v>
+      </c>
+      <c r="D2711" s="0">
+        <v>0.130765974581083</v>
+      </c>
+      <c r="E2711" s="0">
+        <v>1396</v>
+      </c>
+      <c r="F2711" s="0">
+        <v>0.122348816827344</v>
+      </c>
+      <c r="G2711" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2711" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2712">
+      <c r="A2712" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2712" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2712" s="0">
+        <v>90258</v>
+      </c>
+      <c r="D2712" s="0">
+        <v>0.186373726214935</v>
+      </c>
+      <c r="E2712" s="0">
+        <v>1788</v>
+      </c>
+      <c r="F2712" s="0">
+        <v>0.156704645048203</v>
+      </c>
+      <c r="G2712" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2712" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2713">
+      <c r="A2713" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2713" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2713" s="0">
+        <v>75682</v>
+      </c>
+      <c r="D2713" s="0">
+        <v>0.15627574671939</v>
+      </c>
+      <c r="E2713" s="0">
+        <v>1706</v>
+      </c>
+      <c r="F2713" s="0">
+        <v>0.149517966695881</v>
+      </c>
+      <c r="G2713" s="0">
+        <v>64</v>
+      </c>
+      <c r="H2713" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2714">
+      <c r="A2714" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2714" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2714" s="0">
+        <v>72271</v>
+      </c>
+      <c r="D2714" s="0">
+        <v>0.149232373499076</v>
+      </c>
+      <c r="E2714" s="0">
+        <v>1784</v>
+      </c>
+      <c r="F2714" s="0">
+        <v>0.15635407537248</v>
+      </c>
+      <c r="G2714" s="0">
+        <v>179</v>
+      </c>
+      <c r="H2714" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2715">
+      <c r="A2715" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2715" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2715" s="0">
+        <v>66557</v>
+      </c>
+      <c r="D2715" s="0">
+        <v>0.137433536037664</v>
+      </c>
+      <c r="E2715" s="0">
+        <v>1655</v>
+      </c>
+      <c r="F2715" s="0">
+        <v>0.145048203330412</v>
+      </c>
+      <c r="G2715" s="0">
+        <v>501</v>
+      </c>
+      <c r="H2715" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2716">
+      <c r="A2716" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2716" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2716" s="0">
+        <v>47309</v>
+      </c>
+      <c r="D2716" s="0">
+        <v>9.76883446730747E-02</v>
+      </c>
+      <c r="E2716" s="0">
+        <v>1191</v>
+      </c>
+      <c r="F2716" s="0">
+        <v>0.104382120946538</v>
+      </c>
+      <c r="G2716" s="0">
+        <v>1049</v>
+      </c>
+      <c r="H2716" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2717">
+      <c r="A2717" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2717" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2717" s="0">
+        <v>28440</v>
+      </c>
+      <c r="D2717" s="0">
+        <v>5.87257503329651E-02</v>
+      </c>
+      <c r="E2717" s="0">
+        <v>795</v>
+      </c>
+      <c r="F2717" s="0">
+        <v>6.96757230499562E-02</v>
+      </c>
+      <c r="G2717" s="0">
+        <v>1720</v>
+      </c>
+      <c r="H2717" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2718">
+      <c r="A2718" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2718" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2718" s="0">
+        <v>15184</v>
+      </c>
+      <c r="D2718" s="0">
+        <v>3.13534385743932E-02</v>
+      </c>
+      <c r="E2718" s="0">
+        <v>483</v>
+      </c>
+      <c r="F2718" s="0">
+        <v>4.23312883435583E-02</v>
+      </c>
+      <c r="G2718" s="0">
+        <v>2117</v>
+      </c>
+      <c r="H2718" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2719">
+      <c r="A2719" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2719" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2719" s="0">
+        <v>561</v>
+      </c>
+      <c r="D2719" s="0">
+        <v>1.15840878821355E-03</v>
+      </c>
+      <c r="E2719" s="0">
+        <v>-6</v>
+      </c>
+      <c r="F2719" s="0">
+        <v>-5.25854513584575E-04</v>
+      </c>
+      <c r="G2719" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2719" s="0">
         <v>0</v>
       </c>
     </row>
@@ -75371,13 +75651,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2191</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2191</Url>
-      <Description>HJYU5V3E37X6-122305290-2191</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -75392,24 +75665,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2201</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2201</Url>
+      <Description>HJYU5V3E37X6-122305290-2201</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{315A11A0-345F-479E-AD72-DB6072839B1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87EE4F77-6812-4E15-9893-8B28AC8732F9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7F44F37-9E5D-43CF-9EF3-F2D899D44493}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE1C9062-FFAE-4845-B328-CB8A3E9E84EB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000F6CDD-5205-4710-9AC9-30D7D9887E2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{735E623E-7CD5-4BF6-860E-9B9CA7B13A5F}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87351C1C-4768-4CBB-BC55-307D22FB6ACF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B879C7-62BE-4682-93A3-324163BFCE66}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2719</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2729</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2719"/>
+  <dimension ref="A1:H2729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -75220,6 +75220,286 @@
         <v>0</v>
       </c>
       <c r="H2719" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2720">
+      <c r="A2720" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2720" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2720" s="0">
+        <v>25176</v>
+      </c>
+      <c r="D2720" s="0">
+        <v>5.10431238975731E-02</v>
+      </c>
+      <c r="E2720" s="0">
+        <v>481</v>
+      </c>
+      <c r="F2720" s="0">
+        <v>5.37730575740637E-02</v>
+      </c>
+      <c r="G2720" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2720" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2721">
+      <c r="A2721" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2721" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2721" s="0">
+        <v>64447</v>
+      </c>
+      <c r="D2721" s="0">
+        <v>0.13066317944975</v>
+      </c>
+      <c r="E2721" s="0">
+        <v>1119</v>
+      </c>
+      <c r="F2721" s="0">
+        <v>0.125097820011179</v>
+      </c>
+      <c r="G2721" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2721" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2722">
+      <c r="A2722" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2722" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2722" s="0">
+        <v>91850</v>
+      </c>
+      <c r="D2722" s="0">
+        <v>0.186221438274233</v>
+      </c>
+      <c r="E2722" s="0">
+        <v>1592</v>
+      </c>
+      <c r="F2722" s="0">
+        <v>0.177976523197317</v>
+      </c>
+      <c r="G2722" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2722" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2723">
+      <c r="A2723" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2723" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2723" s="0">
+        <v>77121</v>
+      </c>
+      <c r="D2723" s="0">
+        <v>0.156359102244389</v>
+      </c>
+      <c r="E2723" s="0">
+        <v>1439</v>
+      </c>
+      <c r="F2723" s="0">
+        <v>0.160871995528228</v>
+      </c>
+      <c r="G2723" s="0">
+        <v>66</v>
+      </c>
+      <c r="H2723" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2724">
+      <c r="A2724" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2724" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2724" s="0">
+        <v>73709</v>
+      </c>
+      <c r="D2724" s="0">
+        <v>0.149441437057762</v>
+      </c>
+      <c r="E2724" s="0">
+        <v>1438</v>
+      </c>
+      <c r="F2724" s="0">
+        <v>0.160760201229737</v>
+      </c>
+      <c r="G2724" s="0">
+        <v>183</v>
+      </c>
+      <c r="H2724" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2725">
+      <c r="A2725" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2725" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2725" s="0">
+        <v>67839</v>
+      </c>
+      <c r="D2725" s="0">
+        <v>0.137540295602457</v>
+      </c>
+      <c r="E2725" s="0">
+        <v>1282</v>
+      </c>
+      <c r="F2725" s="0">
+        <v>0.143320290665176</v>
+      </c>
+      <c r="G2725" s="0">
+        <v>507</v>
+      </c>
+      <c r="H2725" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2726">
+      <c r="A2726" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2726" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2726" s="0">
+        <v>48210</v>
+      </c>
+      <c r="D2726" s="0">
+        <v>9.77434462623928E-02</v>
+      </c>
+      <c r="E2726" s="0">
+        <v>901</v>
+      </c>
+      <c r="F2726" s="0">
+        <v>0.10072666294019</v>
+      </c>
+      <c r="G2726" s="0">
+        <v>1079</v>
+      </c>
+      <c r="H2726" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2727">
+      <c r="A2727" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2727" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2727" s="0">
+        <v>28941</v>
+      </c>
+      <c r="D2727" s="0">
+        <v>5.86764795328751E-02</v>
+      </c>
+      <c r="E2727" s="0">
+        <v>501</v>
+      </c>
+      <c r="F2727" s="0">
+        <v>5.60089435438793E-02</v>
+      </c>
+      <c r="G2727" s="0">
+        <v>1769</v>
+      </c>
+      <c r="H2727" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2728">
+      <c r="A2728" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2728" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2728" s="0">
+        <v>15388</v>
+      </c>
+      <c r="D2728" s="0">
+        <v>3.11984266974839E-02</v>
+      </c>
+      <c r="E2728" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2728" s="0">
+        <v>2.28060368921185E-02</v>
+      </c>
+      <c r="G2728" s="0">
+        <v>2202</v>
+      </c>
+      <c r="H2728" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2729">
+      <c r="A2729" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2729" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2729" s="0">
+        <v>549</v>
+      </c>
+      <c r="D2729" s="0">
+        <v>1.11307098108388E-03</v>
+      </c>
+      <c r="E2729" s="0">
+        <v>-12</v>
+      </c>
+      <c r="F2729" s="0">
+        <v>-1.34153158188932E-03</v>
+      </c>
+      <c r="G2729" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2729" s="0">
         <v>0</v>
       </c>
     </row>
@@ -75651,6 +75931,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2213</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2213</Url>
+      <Description>HJYU5V3E37X6-122305290-2213</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -75665,31 +75952,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2201</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2201</Url>
-      <Description>HJYU5V3E37X6-122305290-2201</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87EE4F77-6812-4E15-9893-8B28AC8732F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A654B7F-2010-49C4-9616-DA6E41C4B733}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE1C9062-FFAE-4845-B328-CB8A3E9E84EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03663B8-5018-4AB0-B8EF-2EA2E8B51364}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{735E623E-7CD5-4BF6-860E-9B9CA7B13A5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEEEFB7F-5DCA-4308-B04A-FB54495B8F3D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B879C7-62BE-4682-93A3-324163BFCE66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F50C79D-0CAF-4D46-9F17-F7828DC2FAFF}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2699</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2729</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2699"/>
+  <dimension ref="A1:H2729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -74660,6 +74660,846 @@
         <v>0</v>
       </c>
       <c r="H2699" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2700">
+      <c r="A2700" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2700" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2700" s="0">
+        <v>24077</v>
+      </c>
+      <c r="D2700" s="0">
+        <v>5.09162040708432E-02</v>
+      </c>
+      <c r="E2700" s="0">
+        <v>515</v>
+      </c>
+      <c r="F2700" s="0">
+        <v>6.24166767664526E-02</v>
+      </c>
+      <c r="G2700" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2700" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2701">
+      <c r="A2701" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2701" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2701" s="0">
+        <v>61932</v>
+      </c>
+      <c r="D2701" s="0">
+        <v>0.130969072164948</v>
+      </c>
+      <c r="E2701" s="0">
+        <v>1121</v>
+      </c>
+      <c r="F2701" s="0">
+        <v>0.135862319718822</v>
+      </c>
+      <c r="G2701" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2701" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2702">
+      <c r="A2702" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2702" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2702" s="0">
+        <v>88470</v>
+      </c>
+      <c r="D2702" s="0">
+        <v>0.187089611419508</v>
+      </c>
+      <c r="E2702" s="0">
+        <v>1455</v>
+      </c>
+      <c r="F2702" s="0">
+        <v>0.176342261544055</v>
+      </c>
+      <c r="G2702" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2702" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2703">
+      <c r="A2703" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2703" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2703" s="0">
+        <v>73976</v>
+      </c>
+      <c r="D2703" s="0">
+        <v>0.156438805181073</v>
+      </c>
+      <c r="E2703" s="0">
+        <v>1189</v>
+      </c>
+      <c r="F2703" s="0">
+        <v>0.144103745000606</v>
+      </c>
+      <c r="G2703" s="0">
+        <v>64</v>
+      </c>
+      <c r="H2703" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2704">
+      <c r="A2704" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2704" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2704" s="0">
+        <v>70487</v>
+      </c>
+      <c r="D2704" s="0">
+        <v>0.14906053396775</v>
+      </c>
+      <c r="E2704" s="0">
+        <v>1143</v>
+      </c>
+      <c r="F2704" s="0">
+        <v>0.13852866319234</v>
+      </c>
+      <c r="G2704" s="0">
+        <v>179</v>
+      </c>
+      <c r="H2704" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2705">
+      <c r="A2705" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2705" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2705" s="0">
+        <v>64902</v>
+      </c>
+      <c r="D2705" s="0">
+        <v>0.137249801744647</v>
+      </c>
+      <c r="E2705" s="0">
+        <v>1208</v>
+      </c>
+      <c r="F2705" s="0">
+        <v>0.146406496182281</v>
+      </c>
+      <c r="G2705" s="0">
+        <v>497</v>
+      </c>
+      <c r="H2705" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2706">
+      <c r="A2706" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2706" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2706" s="0">
+        <v>46118</v>
+      </c>
+      <c r="D2706" s="0">
+        <v>9.75268305577584E-02</v>
+      </c>
+      <c r="E2706" s="0">
+        <v>799</v>
+      </c>
+      <c r="F2706" s="0">
+        <v>9.68367470609623E-02</v>
+      </c>
+      <c r="G2706" s="0">
+        <v>1042</v>
+      </c>
+      <c r="H2706" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2707">
+      <c r="A2707" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2707" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2707" s="0">
+        <v>27645</v>
+      </c>
+      <c r="D2707" s="0">
+        <v>5.84615384615385E-02</v>
+      </c>
+      <c r="E2707" s="0">
+        <v>526</v>
+      </c>
+      <c r="F2707" s="0">
+        <v>6.37498485032117E-02</v>
+      </c>
+      <c r="G2707" s="0">
+        <v>1703</v>
+      </c>
+      <c r="H2707" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2708">
+      <c r="A2708" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2708" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2708" s="0">
+        <v>14701</v>
+      </c>
+      <c r="D2708" s="0">
+        <v>3.10885540576262E-02</v>
+      </c>
+      <c r="E2708" s="0">
+        <v>295</v>
+      </c>
+      <c r="F2708" s="0">
+        <v>3.57532420312689E-02</v>
+      </c>
+      <c r="G2708" s="0">
+        <v>2092</v>
+      </c>
+      <c r="H2708" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2709">
+      <c r="A2709" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B2709" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2709" s="0">
+        <v>567</v>
+      </c>
+      <c r="D2709" s="0">
+        <v>1.19904837430611E-03</v>
+      </c>
+      <c r="E2709" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2709" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2709" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2709" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2710">
+      <c r="A2710" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2710" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2710" s="0">
+        <v>24695</v>
+      </c>
+      <c r="D2710" s="0">
+        <v>5.09927005792044E-02</v>
+      </c>
+      <c r="E2710" s="0">
+        <v>618</v>
+      </c>
+      <c r="F2710" s="0">
+        <v>5.41630148992112E-02</v>
+      </c>
+      <c r="G2710" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2710" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2711">
+      <c r="A2711" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2711" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2711" s="0">
+        <v>63328</v>
+      </c>
+      <c r="D2711" s="0">
+        <v>0.130765974581083</v>
+      </c>
+      <c r="E2711" s="0">
+        <v>1396</v>
+      </c>
+      <c r="F2711" s="0">
+        <v>0.122348816827344</v>
+      </c>
+      <c r="G2711" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2711" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2712">
+      <c r="A2712" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2712" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2712" s="0">
+        <v>90258</v>
+      </c>
+      <c r="D2712" s="0">
+        <v>0.186373726214935</v>
+      </c>
+      <c r="E2712" s="0">
+        <v>1788</v>
+      </c>
+      <c r="F2712" s="0">
+        <v>0.156704645048203</v>
+      </c>
+      <c r="G2712" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2712" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2713">
+      <c r="A2713" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2713" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2713" s="0">
+        <v>75682</v>
+      </c>
+      <c r="D2713" s="0">
+        <v>0.15627574671939</v>
+      </c>
+      <c r="E2713" s="0">
+        <v>1706</v>
+      </c>
+      <c r="F2713" s="0">
+        <v>0.149517966695881</v>
+      </c>
+      <c r="G2713" s="0">
+        <v>64</v>
+      </c>
+      <c r="H2713" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2714">
+      <c r="A2714" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2714" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2714" s="0">
+        <v>72271</v>
+      </c>
+      <c r="D2714" s="0">
+        <v>0.149232373499076</v>
+      </c>
+      <c r="E2714" s="0">
+        <v>1784</v>
+      </c>
+      <c r="F2714" s="0">
+        <v>0.15635407537248</v>
+      </c>
+      <c r="G2714" s="0">
+        <v>179</v>
+      </c>
+      <c r="H2714" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2715">
+      <c r="A2715" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2715" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2715" s="0">
+        <v>66557</v>
+      </c>
+      <c r="D2715" s="0">
+        <v>0.137433536037664</v>
+      </c>
+      <c r="E2715" s="0">
+        <v>1655</v>
+      </c>
+      <c r="F2715" s="0">
+        <v>0.145048203330412</v>
+      </c>
+      <c r="G2715" s="0">
+        <v>501</v>
+      </c>
+      <c r="H2715" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2716">
+      <c r="A2716" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2716" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2716" s="0">
+        <v>47309</v>
+      </c>
+      <c r="D2716" s="0">
+        <v>9.76883446730747E-02</v>
+      </c>
+      <c r="E2716" s="0">
+        <v>1191</v>
+      </c>
+      <c r="F2716" s="0">
+        <v>0.104382120946538</v>
+      </c>
+      <c r="G2716" s="0">
+        <v>1049</v>
+      </c>
+      <c r="H2716" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2717">
+      <c r="A2717" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2717" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2717" s="0">
+        <v>28440</v>
+      </c>
+      <c r="D2717" s="0">
+        <v>5.87257503329651E-02</v>
+      </c>
+      <c r="E2717" s="0">
+        <v>795</v>
+      </c>
+      <c r="F2717" s="0">
+        <v>6.96757230499562E-02</v>
+      </c>
+      <c r="G2717" s="0">
+        <v>1720</v>
+      </c>
+      <c r="H2717" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2718">
+      <c r="A2718" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2718" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2718" s="0">
+        <v>15184</v>
+      </c>
+      <c r="D2718" s="0">
+        <v>3.13534385743932E-02</v>
+      </c>
+      <c r="E2718" s="0">
+        <v>483</v>
+      </c>
+      <c r="F2718" s="0">
+        <v>4.23312883435583E-02</v>
+      </c>
+      <c r="G2718" s="0">
+        <v>2117</v>
+      </c>
+      <c r="H2718" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2719">
+      <c r="A2719" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B2719" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2719" s="0">
+        <v>561</v>
+      </c>
+      <c r="D2719" s="0">
+        <v>1.15840878821355E-03</v>
+      </c>
+      <c r="E2719" s="0">
+        <v>-6</v>
+      </c>
+      <c r="F2719" s="0">
+        <v>-5.25854513584575E-04</v>
+      </c>
+      <c r="G2719" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2719" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2720">
+      <c r="A2720" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2720" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2720" s="0">
+        <v>25176</v>
+      </c>
+      <c r="D2720" s="0">
+        <v>5.10431238975731E-02</v>
+      </c>
+      <c r="E2720" s="0">
+        <v>481</v>
+      </c>
+      <c r="F2720" s="0">
+        <v>5.37730575740637E-02</v>
+      </c>
+      <c r="G2720" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2720" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2721">
+      <c r="A2721" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2721" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2721" s="0">
+        <v>64447</v>
+      </c>
+      <c r="D2721" s="0">
+        <v>0.13066317944975</v>
+      </c>
+      <c r="E2721" s="0">
+        <v>1119</v>
+      </c>
+      <c r="F2721" s="0">
+        <v>0.125097820011179</v>
+      </c>
+      <c r="G2721" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2721" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2722">
+      <c r="A2722" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2722" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2722" s="0">
+        <v>91850</v>
+      </c>
+      <c r="D2722" s="0">
+        <v>0.186221438274233</v>
+      </c>
+      <c r="E2722" s="0">
+        <v>1592</v>
+      </c>
+      <c r="F2722" s="0">
+        <v>0.177976523197317</v>
+      </c>
+      <c r="G2722" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2722" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2723">
+      <c r="A2723" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2723" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2723" s="0">
+        <v>77121</v>
+      </c>
+      <c r="D2723" s="0">
+        <v>0.156359102244389</v>
+      </c>
+      <c r="E2723" s="0">
+        <v>1439</v>
+      </c>
+      <c r="F2723" s="0">
+        <v>0.160871995528228</v>
+      </c>
+      <c r="G2723" s="0">
+        <v>66</v>
+      </c>
+      <c r="H2723" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2724">
+      <c r="A2724" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2724" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2724" s="0">
+        <v>73709</v>
+      </c>
+      <c r="D2724" s="0">
+        <v>0.149441437057762</v>
+      </c>
+      <c r="E2724" s="0">
+        <v>1438</v>
+      </c>
+      <c r="F2724" s="0">
+        <v>0.160760201229737</v>
+      </c>
+      <c r="G2724" s="0">
+        <v>183</v>
+      </c>
+      <c r="H2724" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2725">
+      <c r="A2725" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2725" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2725" s="0">
+        <v>67839</v>
+      </c>
+      <c r="D2725" s="0">
+        <v>0.137540295602457</v>
+      </c>
+      <c r="E2725" s="0">
+        <v>1282</v>
+      </c>
+      <c r="F2725" s="0">
+        <v>0.143320290665176</v>
+      </c>
+      <c r="G2725" s="0">
+        <v>507</v>
+      </c>
+      <c r="H2725" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2726">
+      <c r="A2726" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2726" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2726" s="0">
+        <v>48210</v>
+      </c>
+      <c r="D2726" s="0">
+        <v>9.77434462623928E-02</v>
+      </c>
+      <c r="E2726" s="0">
+        <v>901</v>
+      </c>
+      <c r="F2726" s="0">
+        <v>0.10072666294019</v>
+      </c>
+      <c r="G2726" s="0">
+        <v>1079</v>
+      </c>
+      <c r="H2726" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2727">
+      <c r="A2727" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2727" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2727" s="0">
+        <v>28941</v>
+      </c>
+      <c r="D2727" s="0">
+        <v>5.86764795328751E-02</v>
+      </c>
+      <c r="E2727" s="0">
+        <v>501</v>
+      </c>
+      <c r="F2727" s="0">
+        <v>5.60089435438793E-02</v>
+      </c>
+      <c r="G2727" s="0">
+        <v>1769</v>
+      </c>
+      <c r="H2727" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2728">
+      <c r="A2728" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2728" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2728" s="0">
+        <v>15388</v>
+      </c>
+      <c r="D2728" s="0">
+        <v>3.11984266974839E-02</v>
+      </c>
+      <c r="E2728" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2728" s="0">
+        <v>2.28060368921185E-02</v>
+      </c>
+      <c r="G2728" s="0">
+        <v>2202</v>
+      </c>
+      <c r="H2728" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2729">
+      <c r="A2729" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B2729" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2729" s="0">
+        <v>549</v>
+      </c>
+      <c r="D2729" s="0">
+        <v>1.11307098108388E-03</v>
+      </c>
+      <c r="E2729" s="0">
+        <v>-12</v>
+      </c>
+      <c r="F2729" s="0">
+        <v>-1.34153158188932E-03</v>
+      </c>
+      <c r="G2729" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2729" s="0">
         <v>0</v>
       </c>
     </row>
@@ -75092,11 +75932,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2180</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2213</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2180</Url>
-      <Description>HJYU5V3E37X6-122305290-2180</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2213</Url>
+      <Description>HJYU5V3E37X6-122305290-2213</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -75119,17 +75959,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95F45B08-AEB6-4C92-AE7E-8FC51A0C5D95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A654B7F-2010-49C4-9616-DA6E41C4B733}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3C9948-3CD2-4857-B69D-7FC741CD6AF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03663B8-5018-4AB0-B8EF-2EA2E8B51364}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0BD5A3B-9E66-4967-8669-1A6F1B0D1B9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEEEFB7F-5DCA-4308-B04A-FB54495B8F3D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A80D8996-09FC-480D-B9F9-1B21953F5561}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F50C79D-0CAF-4D46-9F17-F7828DC2FAFF}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2729</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2739</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2729"/>
+  <dimension ref="A1:H2739"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -75501,6 +75501,286 @@
       </c>
       <c r="H2729" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2730">
+      <c r="A2730" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B2730" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2730" s="0">
+        <v>25751</v>
+      </c>
+      <c r="D2730" s="0">
+        <v>5.11286585353747E-02</v>
+      </c>
+      <c r="E2730" s="0">
+        <v>575</v>
+      </c>
+      <c r="F2730" s="0">
+        <v>5.51770463487189E-02</v>
+      </c>
+      <c r="G2730" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2730" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2731">
+      <c r="A2731" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B2731" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2731" s="0">
+        <v>65822</v>
+      </c>
+      <c r="D2731" s="0">
+        <v>0.130689703782977</v>
+      </c>
+      <c r="E2731" s="0">
+        <v>1375</v>
+      </c>
+      <c r="F2731" s="0">
+        <v>0.131945110833893</v>
+      </c>
+      <c r="G2731" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2731" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2732">
+      <c r="A2732" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B2732" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2732" s="0">
+        <v>93708</v>
+      </c>
+      <c r="D2732" s="0">
+        <v>0.186057408800936</v>
+      </c>
+      <c r="E2732" s="0">
+        <v>1858</v>
+      </c>
+      <c r="F2732" s="0">
+        <v>0.178293829766817</v>
+      </c>
+      <c r="G2732" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2732" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2733">
+      <c r="A2733" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B2733" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2733" s="0">
+        <v>78755</v>
+      </c>
+      <c r="D2733" s="0">
+        <v>0.156368199407923</v>
+      </c>
+      <c r="E2733" s="0">
+        <v>1634</v>
+      </c>
+      <c r="F2733" s="0">
+        <v>0.156798771710968</v>
+      </c>
+      <c r="G2733" s="0">
+        <v>66</v>
+      </c>
+      <c r="H2733" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2734">
+      <c r="A2734" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B2734" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2734" s="0">
+        <v>75369</v>
+      </c>
+      <c r="D2734" s="0">
+        <v>0.14964529009175</v>
+      </c>
+      <c r="E2734" s="0">
+        <v>1660</v>
+      </c>
+      <c r="F2734" s="0">
+        <v>0.159293733806736</v>
+      </c>
+      <c r="G2734" s="0">
+        <v>188</v>
+      </c>
+      <c r="H2734" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2735">
+      <c r="A2735" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B2735" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2735" s="0">
+        <v>69357</v>
+      </c>
+      <c r="D2735" s="0">
+        <v>0.137708452877091</v>
+      </c>
+      <c r="E2735" s="0">
+        <v>1518</v>
+      </c>
+      <c r="F2735" s="0">
+        <v>0.145667402360618</v>
+      </c>
+      <c r="G2735" s="0">
+        <v>517</v>
+      </c>
+      <c r="H2735" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2736">
+      <c r="A2736" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B2736" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2736" s="0">
+        <v>49275</v>
+      </c>
+      <c r="D2736" s="0">
+        <v>9.78356044165503E-02</v>
+      </c>
+      <c r="E2736" s="0">
+        <v>1065</v>
+      </c>
+      <c r="F2736" s="0">
+        <v>0.102197485845888</v>
+      </c>
+      <c r="G2736" s="0">
+        <v>1088</v>
+      </c>
+      <c r="H2736" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2737">
+      <c r="A2737" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B2737" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2737" s="0">
+        <v>29448</v>
+      </c>
+      <c r="D2737" s="0">
+        <v>5.84690589316809E-02</v>
+      </c>
+      <c r="E2737" s="0">
+        <v>507</v>
+      </c>
+      <c r="F2737" s="0">
+        <v>4.86517608674791E-02</v>
+      </c>
+      <c r="G2737" s="0">
+        <v>1798</v>
+      </c>
+      <c r="H2737" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2738">
+      <c r="A2738" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B2738" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2738" s="0">
+        <v>15610</v>
+      </c>
+      <c r="D2738" s="0">
+        <v>3.09936841185662E-02</v>
+      </c>
+      <c r="E2738" s="0">
+        <v>222</v>
+      </c>
+      <c r="F2738" s="0">
+        <v>2.13031378946358E-02</v>
+      </c>
+      <c r="G2738" s="0">
+        <v>2263</v>
+      </c>
+      <c r="H2738" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2739">
+      <c r="A2739" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B2739" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2739" s="0">
+        <v>556</v>
+      </c>
+      <c r="D2739" s="0">
+        <v>1.10393903715073E-03</v>
+      </c>
+      <c r="E2739" s="0">
+        <v>7</v>
+      </c>
+      <c r="F2739" s="0">
+        <v>6.71720564245274E-04</v>
+      </c>
+      <c r="G2739" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2739" s="0">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -75932,11 +76212,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2213</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2235</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2213</Url>
-      <Description>HJYU5V3E37X6-122305290-2213</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2235</Url>
+      <Description>HJYU5V3E37X6-122305290-2235</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -75959,17 +76239,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A654B7F-2010-49C4-9616-DA6E41C4B733}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5D9D584-73A3-4008-A255-09EDACC9234B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03663B8-5018-4AB0-B8EF-2EA2E8B51364}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE1E3C8A-623D-4C65-948D-1D6AC2240DA5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEEEFB7F-5DCA-4308-B04A-FB54495B8F3D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C48F49A2-44EA-4664-A465-930C7CE6DC2D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F50C79D-0CAF-4D46-9F17-F7828DC2FAFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BB79E5C-9189-4FA4-8095-1BC5DBBBD0E8}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2739</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2759</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2739"/>
+  <dimension ref="A1:H2759"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -75781,6 +75781,566 @@
       </c>
       <c r="H2739" s="0">
         <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2740">
+      <c r="A2740" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B2740" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2740" s="0">
+        <v>26079</v>
+      </c>
+      <c r="D2740" s="0">
+        <v>5.11354946489986E-02</v>
+      </c>
+      <c r="E2740" s="0">
+        <v>328</v>
+      </c>
+      <c r="F2740" s="0">
+        <v>5.16779580904364E-02</v>
+      </c>
+      <c r="G2740" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2740" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2741">
+      <c r="A2741" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B2741" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2741" s="0">
+        <v>66603</v>
+      </c>
+      <c r="D2741" s="0">
+        <v>0.130594629782862</v>
+      </c>
+      <c r="E2741" s="0">
+        <v>781</v>
+      </c>
+      <c r="F2741" s="0">
+        <v>0.123050259965338</v>
+      </c>
+      <c r="G2741" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2741" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2742">
+      <c r="A2742" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B2742" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2742" s="0">
+        <v>94716</v>
+      </c>
+      <c r="D2742" s="0">
+        <v>0.185718375366178</v>
+      </c>
+      <c r="E2742" s="0">
+        <v>1008</v>
+      </c>
+      <c r="F2742" s="0">
+        <v>0.158815188277927</v>
+      </c>
+      <c r="G2742" s="0">
+        <v>34</v>
+      </c>
+      <c r="H2742" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2743">
+      <c r="A2743" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B2743" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2743" s="0">
+        <v>79672</v>
+      </c>
+      <c r="D2743" s="0">
+        <v>0.156220220471453</v>
+      </c>
+      <c r="E2743" s="0">
+        <v>917</v>
+      </c>
+      <c r="F2743" s="0">
+        <v>0.144477706002836</v>
+      </c>
+      <c r="G2743" s="0">
+        <v>65</v>
+      </c>
+      <c r="H2743" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2744">
+      <c r="A2744" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B2744" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2744" s="0">
+        <v>76372</v>
+      </c>
+      <c r="D2744" s="0">
+        <v>0.149749606861203</v>
+      </c>
+      <c r="E2744" s="0">
+        <v>1003</v>
+      </c>
+      <c r="F2744" s="0">
+        <v>0.158027414526548</v>
+      </c>
+      <c r="G2744" s="0">
+        <v>190</v>
+      </c>
+      <c r="H2744" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2745">
+      <c r="A2745" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B2745" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2745" s="0">
+        <v>70257</v>
+      </c>
+      <c r="D2745" s="0">
+        <v>0.137759363762211</v>
+      </c>
+      <c r="E2745" s="0">
+        <v>900</v>
+      </c>
+      <c r="F2745" s="0">
+        <v>0.141799275248149</v>
+      </c>
+      <c r="G2745" s="0">
+        <v>524</v>
+      </c>
+      <c r="H2745" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2746">
+      <c r="A2746" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B2746" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2746" s="0">
+        <v>49941</v>
+      </c>
+      <c r="D2746" s="0">
+        <v>9.79239134271115E-02</v>
+      </c>
+      <c r="E2746" s="0">
+        <v>666</v>
+      </c>
+      <c r="F2746" s="0">
+        <v>0.10493146368363</v>
+      </c>
+      <c r="G2746" s="0">
+        <v>1095</v>
+      </c>
+      <c r="H2746" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2747">
+      <c r="A2747" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B2747" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2747" s="0">
+        <v>29919</v>
+      </c>
+      <c r="D2747" s="0">
+        <v>5.86649359409253E-02</v>
+      </c>
+      <c r="E2747" s="0">
+        <v>471</v>
+      </c>
+      <c r="F2747" s="0">
+        <v>7.42082873798645E-02</v>
+      </c>
+      <c r="G2747" s="0">
+        <v>1818</v>
+      </c>
+      <c r="H2747" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2748">
+      <c r="A2748" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B2748" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2748" s="0">
+        <v>15854</v>
+      </c>
+      <c r="D2748" s="0">
+        <v>3.10863964172409E-02</v>
+      </c>
+      <c r="E2748" s="0">
+        <v>244</v>
+      </c>
+      <c r="F2748" s="0">
+        <v>3.84433590672759E-02</v>
+      </c>
+      <c r="G2748" s="0">
+        <v>2281</v>
+      </c>
+      <c r="H2748" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2749">
+      <c r="A2749" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B2749" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2749" s="0">
+        <v>585</v>
+      </c>
+      <c r="D2749" s="0">
+        <v>1.14706332181695E-03</v>
+      </c>
+      <c r="E2749" s="0">
+        <v>29</v>
+      </c>
+      <c r="F2749" s="0">
+        <v>4.5690877579959E-03</v>
+      </c>
+      <c r="G2749" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2749" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2750">
+      <c r="A2750" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B2750" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2750" s="0">
+        <v>26600</v>
+      </c>
+      <c r="D2750" s="0">
+        <v>5.11846553791032E-02</v>
+      </c>
+      <c r="E2750" s="0">
+        <v>521</v>
+      </c>
+      <c r="F2750" s="0">
+        <v>5.37723191247807E-02</v>
+      </c>
+      <c r="G2750" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2750" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2751">
+      <c r="A2751" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B2751" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2751" s="0">
+        <v>67741</v>
+      </c>
+      <c r="D2751" s="0">
+        <v>0.130349614287061</v>
+      </c>
+      <c r="E2751" s="0">
+        <v>1138</v>
+      </c>
+      <c r="F2751" s="0">
+        <v>0.117452781504799</v>
+      </c>
+      <c r="G2751" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2751" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2752">
+      <c r="A2752" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B2752" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2752" s="0">
+        <v>96316</v>
+      </c>
+      <c r="D2752" s="0">
+        <v>0.185334634116305</v>
+      </c>
+      <c r="E2752" s="0">
+        <v>1600</v>
+      </c>
+      <c r="F2752" s="0">
+        <v>0.165135720920632</v>
+      </c>
+      <c r="G2752" s="0">
+        <v>37</v>
+      </c>
+      <c r="H2752" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2753">
+      <c r="A2753" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B2753" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2753" s="0">
+        <v>81156</v>
+      </c>
+      <c r="D2753" s="0">
+        <v>0.156163229020545</v>
+      </c>
+      <c r="E2753" s="0">
+        <v>1484</v>
+      </c>
+      <c r="F2753" s="0">
+        <v>0.153163381153886</v>
+      </c>
+      <c r="G2753" s="0">
+        <v>66</v>
+      </c>
+      <c r="H2753" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2754">
+      <c r="A2754" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B2754" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2754" s="0">
+        <v>77846</v>
+      </c>
+      <c r="D2754" s="0">
+        <v>0.149794010625627</v>
+      </c>
+      <c r="E2754" s="0">
+        <v>1474</v>
+      </c>
+      <c r="F2754" s="0">
+        <v>0.152131282898132</v>
+      </c>
+      <c r="G2754" s="0">
+        <v>190</v>
+      </c>
+      <c r="H2754" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2755">
+      <c r="A2755" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B2755" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2755" s="0">
+        <v>71671</v>
+      </c>
+      <c r="D2755" s="0">
+        <v>0.137911858484049</v>
+      </c>
+      <c r="E2755" s="0">
+        <v>1414</v>
+      </c>
+      <c r="F2755" s="0">
+        <v>0.145938693363608</v>
+      </c>
+      <c r="G2755" s="0">
+        <v>525</v>
+      </c>
+      <c r="H2755" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2756">
+      <c r="A2756" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B2756" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2756" s="0">
+        <v>51039</v>
+      </c>
+      <c r="D2756" s="0">
+        <v>9.82110385674454E-02</v>
+      </c>
+      <c r="E2756" s="0">
+        <v>1098</v>
+      </c>
+      <c r="F2756" s="0">
+        <v>0.113324388481783</v>
+      </c>
+      <c r="G2756" s="0">
+        <v>1104</v>
+      </c>
+      <c r="H2756" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2757">
+      <c r="A2757" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B2757" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2757" s="0">
+        <v>30550</v>
+      </c>
+      <c r="D2757" s="0">
+        <v>5.87853842793836E-02</v>
+      </c>
+      <c r="E2757" s="0">
+        <v>631</v>
+      </c>
+      <c r="F2757" s="0">
+        <v>6.51253999380741E-02</v>
+      </c>
+      <c r="G2757" s="0">
+        <v>1835</v>
+      </c>
+      <c r="H2757" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2758">
+      <c r="A2758" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B2758" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2758" s="0">
+        <v>16172</v>
+      </c>
+      <c r="D2758" s="0">
+        <v>0.031118731082363</v>
+      </c>
+      <c r="E2758" s="0">
+        <v>318</v>
+      </c>
+      <c r="F2758" s="0">
+        <v>3.28207245329755E-02</v>
+      </c>
+      <c r="G2758" s="0">
+        <v>2304</v>
+      </c>
+      <c r="H2758" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2759">
+      <c r="A2759" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B2759" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2759" s="0">
+        <v>596</v>
+      </c>
+      <c r="D2759" s="0">
+        <v>1.14684415811825E-03</v>
+      </c>
+      <c r="E2759" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2759" s="0">
+        <v>1.13530808132934E-03</v>
+      </c>
+      <c r="G2759" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2759" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -76211,13 +76771,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2235</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2235</Url>
-      <Description>HJYU5V3E37X6-122305290-2235</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -76232,24 +76785,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2270</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2270</Url>
+      <Description>HJYU5V3E37X6-122305290-2270</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5D9D584-73A3-4008-A255-09EDACC9234B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6046EE7B-A09A-4B34-89AF-ABB87DC7B770}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE1E3C8A-623D-4C65-948D-1D6AC2240DA5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20CC0BF4-AED4-4BF9-9700-47E4B60A2871}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C48F49A2-44EA-4664-A465-930C7CE6DC2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2DB379F-BFEE-47BF-AC1F-E5067D57676F}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BB79E5C-9189-4FA4-8095-1BC5DBBBD0E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF58D975-81C9-4069-A876-B6E927640428}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2759</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2769</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2759"/>
+  <dimension ref="A1:H2769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -76340,6 +76340,286 @@
         <v>2</v>
       </c>
       <c r="H2759" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2760">
+      <c r="A2760" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B2760" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2760" s="0">
+        <v>27145</v>
+      </c>
+      <c r="D2760" s="0">
+        <v>5.12577939415912E-02</v>
+      </c>
+      <c r="E2760" s="0">
+        <v>545</v>
+      </c>
+      <c r="F2760" s="0">
+        <v>5.51005965018704E-02</v>
+      </c>
+      <c r="G2760" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2760" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2761">
+      <c r="A2761" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B2761" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2761" s="0">
+        <v>68934</v>
+      </c>
+      <c r="D2761" s="0">
+        <v>0.130167793979357</v>
+      </c>
+      <c r="E2761" s="0">
+        <v>1193</v>
+      </c>
+      <c r="F2761" s="0">
+        <v>0.120614700232535</v>
+      </c>
+      <c r="G2761" s="0">
+        <v>5</v>
+      </c>
+      <c r="H2761" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2762">
+      <c r="A2762" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B2762" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2762" s="0">
+        <v>98009</v>
+      </c>
+      <c r="D2762" s="0">
+        <v>0.185069999131384</v>
+      </c>
+      <c r="E2762" s="0">
+        <v>1693</v>
+      </c>
+      <c r="F2762" s="0">
+        <v>0.171165706197553</v>
+      </c>
+      <c r="G2762" s="0">
+        <v>37</v>
+      </c>
+      <c r="H2762" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2763">
+      <c r="A2763" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B2763" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2763" s="0">
+        <v>82654</v>
+      </c>
+      <c r="D2763" s="0">
+        <v>0.156075214604836</v>
+      </c>
+      <c r="E2763" s="0">
+        <v>1498</v>
+      </c>
+      <c r="F2763" s="0">
+        <v>0.151450813871196</v>
+      </c>
+      <c r="G2763" s="0">
+        <v>66</v>
+      </c>
+      <c r="H2763" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2764">
+      <c r="A2764" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B2764" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2764" s="0">
+        <v>79323</v>
+      </c>
+      <c r="D2764" s="0">
+        <v>0.149785300748898</v>
+      </c>
+      <c r="E2764" s="0">
+        <v>1477</v>
+      </c>
+      <c r="F2764" s="0">
+        <v>0.149327671620665</v>
+      </c>
+      <c r="G2764" s="0">
+        <v>192</v>
+      </c>
+      <c r="H2764" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2765">
+      <c r="A2765" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B2765" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2765" s="0">
+        <v>73172</v>
+      </c>
+      <c r="D2765" s="0">
+        <v>0.138170392274604</v>
+      </c>
+      <c r="E2765" s="0">
+        <v>1501</v>
+      </c>
+      <c r="F2765" s="0">
+        <v>0.151754119906986</v>
+      </c>
+      <c r="G2765" s="0">
+        <v>530</v>
+      </c>
+      <c r="H2765" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2766">
+      <c r="A2766" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B2766" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2766" s="0">
+        <v>52056</v>
+      </c>
+      <c r="D2766" s="0">
+        <v>9.82971346997043E-02</v>
+      </c>
+      <c r="E2766" s="0">
+        <v>1017</v>
+      </c>
+      <c r="F2766" s="0">
+        <v>0.102820746132848</v>
+      </c>
+      <c r="G2766" s="0">
+        <v>1115</v>
+      </c>
+      <c r="H2766" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2767">
+      <c r="A2767" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B2767" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2767" s="0">
+        <v>31194</v>
+      </c>
+      <c r="D2767" s="0">
+        <v>5.89035042996499E-02</v>
+      </c>
+      <c r="E2767" s="0">
+        <v>644</v>
+      </c>
+      <c r="F2767" s="0">
+        <v>6.51096956829441E-02</v>
+      </c>
+      <c r="G2767" s="0">
+        <v>1851</v>
+      </c>
+      <c r="H2767" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2768">
+      <c r="A2768" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B2768" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2768" s="0">
+        <v>16490</v>
+      </c>
+      <c r="D2768" s="0">
+        <v>3.11380004456378E-02</v>
+      </c>
+      <c r="E2768" s="0">
+        <v>318</v>
+      </c>
+      <c r="F2768" s="0">
+        <v>3.21504397937519E-02</v>
+      </c>
+      <c r="G2768" s="0">
+        <v>2334</v>
+      </c>
+      <c r="H2768" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2769">
+      <c r="A2769" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B2769" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2769" s="0">
+        <v>601</v>
+      </c>
+      <c r="D2769" s="0">
+        <v>1.13486587433768E-03</v>
+      </c>
+      <c r="E2769" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2769" s="0">
+        <v>5.05510059650187E-04</v>
+      </c>
+      <c r="G2769" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2769" s="0">
         <v>0</v>
       </c>
     </row>
@@ -76771,6 +77051,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2278</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2278</Url>
+      <Description>HJYU5V3E37X6-122305290-2278</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -76785,31 +77072,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2270</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2270</Url>
-      <Description>HJYU5V3E37X6-122305290-2270</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6046EE7B-A09A-4B34-89AF-ABB87DC7B770}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10AF7FE2-1084-4039-B556-6FEECC091B97}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20CC0BF4-AED4-4BF9-9700-47E4B60A2871}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F138BC5-8A7E-4C51-B7BB-EE505A0170C2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2DB379F-BFEE-47BF-AC1F-E5067D57676F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70423954-6A06-4571-A8DC-8F74A148A84D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF58D975-81C9-4069-A876-B6E927640428}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA4D21C5-05DE-49E4-B4A8-2FB4AD0F23C8}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2769</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2779</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2769"/>
+  <dimension ref="A1:H2779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -76621,6 +76621,286 @@
       </c>
       <c r="H2769" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2770">
+      <c r="A2770" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B2770" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2770" s="0">
+        <v>27407</v>
+      </c>
+      <c r="D2770" s="0">
+        <v>5.13221439686603E-02</v>
+      </c>
+      <c r="E2770" s="0">
+        <v>262</v>
+      </c>
+      <c r="F2770" s="0">
+        <v>5.89957216843053E-02</v>
+      </c>
+      <c r="G2770" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2770" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2771">
+      <c r="A2771" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B2771" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2771" s="0">
+        <v>69427</v>
+      </c>
+      <c r="D2771" s="0">
+        <v>0.130008482844243</v>
+      </c>
+      <c r="E2771" s="0">
+        <v>493</v>
+      </c>
+      <c r="F2771" s="0">
+        <v>0.111011033551002</v>
+      </c>
+      <c r="G2771" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2771" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2772">
+      <c r="A2772" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B2772" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2772" s="0">
+        <v>98792</v>
+      </c>
+      <c r="D2772" s="0">
+        <v>0.184997163022289</v>
+      </c>
+      <c r="E2772" s="0">
+        <v>783</v>
+      </c>
+      <c r="F2772" s="0">
+        <v>0.17631164152218</v>
+      </c>
+      <c r="G2772" s="0">
+        <v>39</v>
+      </c>
+      <c r="H2772" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2773">
+      <c r="A2773" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B2773" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2773" s="0">
+        <v>83313</v>
+      </c>
+      <c r="D2773" s="0">
+        <v>0.156011302968621</v>
+      </c>
+      <c r="E2773" s="0">
+        <v>659</v>
+      </c>
+      <c r="F2773" s="0">
+        <v>0.148390002251745</v>
+      </c>
+      <c r="G2773" s="0">
+        <v>67</v>
+      </c>
+      <c r="H2773" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2774">
+      <c r="A2774" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B2774" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2774" s="0">
+        <v>79973</v>
+      </c>
+      <c r="D2774" s="0">
+        <v>0.149756843857616</v>
+      </c>
+      <c r="E2774" s="0">
+        <v>650</v>
+      </c>
+      <c r="F2774" s="0">
+        <v>0.146363431659536</v>
+      </c>
+      <c r="G2774" s="0">
+        <v>194</v>
+      </c>
+      <c r="H2774" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2775">
+      <c r="A2775" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B2775" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2775" s="0">
+        <v>73817</v>
+      </c>
+      <c r="D2775" s="0">
+        <v>0.138229164130864</v>
+      </c>
+      <c r="E2775" s="0">
+        <v>645</v>
+      </c>
+      <c r="F2775" s="0">
+        <v>0.145237559108309</v>
+      </c>
+      <c r="G2775" s="0">
+        <v>537</v>
+      </c>
+      <c r="H2775" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2776">
+      <c r="A2776" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B2776" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2776" s="0">
+        <v>52526</v>
+      </c>
+      <c r="D2776" s="0">
+        <v>9.83597961870271E-02</v>
+      </c>
+      <c r="E2776" s="0">
+        <v>470</v>
+      </c>
+      <c r="F2776" s="0">
+        <v>0.105832019815357</v>
+      </c>
+      <c r="G2776" s="0">
+        <v>1133</v>
+      </c>
+      <c r="H2776" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2777">
+      <c r="A2777" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B2777" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2777" s="0">
+        <v>31497</v>
+      </c>
+      <c r="D2777" s="0">
+        <v>5.89810474908196E-02</v>
+      </c>
+      <c r="E2777" s="0">
+        <v>303</v>
+      </c>
+      <c r="F2777" s="0">
+        <v>6.82278766043684E-02</v>
+      </c>
+      <c r="G2777" s="0">
+        <v>1900</v>
+      </c>
+      <c r="H2777" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2778">
+      <c r="A2778" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B2778" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2778" s="0">
+        <v>16667</v>
+      </c>
+      <c r="D2778" s="0">
+        <v>3.12105000009363E-02</v>
+      </c>
+      <c r="E2778" s="0">
+        <v>177</v>
+      </c>
+      <c r="F2778" s="0">
+        <v>3.98558883134429E-02</v>
+      </c>
+      <c r="G2778" s="0">
+        <v>2390</v>
+      </c>
+      <c r="H2778" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2779">
+      <c r="A2779" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B2779" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2779" s="0">
+        <v>600</v>
+      </c>
+      <c r="D2779" s="0">
+        <v>1.12355552892313E-03</v>
+      </c>
+      <c r="E2779" s="0">
+        <v>-1</v>
+      </c>
+      <c r="F2779" s="0">
+        <v>-2.2517451024544E-04</v>
+      </c>
+      <c r="G2779" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2779" s="0">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -77051,13 +77331,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2278</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2278</Url>
-      <Description>HJYU5V3E37X6-122305290-2278</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -77072,24 +77345,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2288</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2288</Url>
+      <Description>HJYU5V3E37X6-122305290-2288</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10AF7FE2-1084-4039-B556-6FEECC091B97}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A538094E-EAD4-43C6-A834-5BCDA98B4C61}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F138BC5-8A7E-4C51-B7BB-EE505A0170C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C473F9-42DA-4237-A7D1-C304B2DC35D4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70423954-6A06-4571-A8DC-8F74A148A84D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AD0416-38A5-4580-B7BD-6147B04F8E55}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA4D21C5-05DE-49E4-B4A8-2FB4AD0F23C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B528E521-3FBD-416B-98F4-457271C9B18A}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2779</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2789</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2779"/>
+  <dimension ref="A1:H2789"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -76901,6 +76901,286 @@
       </c>
       <c r="H2779" s="0">
         <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2780">
+      <c r="A2780" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B2780" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2780" s="0">
+        <v>27744</v>
+      </c>
+      <c r="D2780" s="0">
+        <v>5.12600694701057E-02</v>
+      </c>
+      <c r="E2780" s="0">
+        <v>337</v>
+      </c>
+      <c r="F2780" s="0">
+        <v>4.66694363661543E-02</v>
+      </c>
+      <c r="G2780" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2780" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2781">
+      <c r="A2781" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B2781" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2781" s="0">
+        <v>70241</v>
+      </c>
+      <c r="D2781" s="0">
+        <v>0.129777917374917</v>
+      </c>
+      <c r="E2781" s="0">
+        <v>814</v>
+      </c>
+      <c r="F2781" s="0">
+        <v>0.112726769145548</v>
+      </c>
+      <c r="G2781" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2781" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2782">
+      <c r="A2782" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B2782" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2782" s="0">
+        <v>99978</v>
+      </c>
+      <c r="D2782" s="0">
+        <v>0.184720271968073</v>
+      </c>
+      <c r="E2782" s="0">
+        <v>1186</v>
+      </c>
+      <c r="F2782" s="0">
+        <v>0.164243179615012</v>
+      </c>
+      <c r="G2782" s="0">
+        <v>40</v>
+      </c>
+      <c r="H2782" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2783">
+      <c r="A2783" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B2783" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2783" s="0">
+        <v>84484</v>
+      </c>
+      <c r="D2783" s="0">
+        <v>0.156093415120834</v>
+      </c>
+      <c r="E2783" s="0">
+        <v>1171</v>
+      </c>
+      <c r="F2783" s="0">
+        <v>0.162165904999308</v>
+      </c>
+      <c r="G2783" s="0">
+        <v>67</v>
+      </c>
+      <c r="H2783" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2784">
+      <c r="A2784" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B2784" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2784" s="0">
+        <v>81024</v>
+      </c>
+      <c r="D2784" s="0">
+        <v>0.14970068731062</v>
+      </c>
+      <c r="E2784" s="0">
+        <v>1051</v>
+      </c>
+      <c r="F2784" s="0">
+        <v>0.145547708073674</v>
+      </c>
+      <c r="G2784" s="0">
+        <v>194</v>
+      </c>
+      <c r="H2784" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2785">
+      <c r="A2785" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B2785" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2785" s="0">
+        <v>74871</v>
+      </c>
+      <c r="D2785" s="0">
+        <v>0.138332347941763</v>
+      </c>
+      <c r="E2785" s="0">
+        <v>1054</v>
+      </c>
+      <c r="F2785" s="0">
+        <v>0.145963162996815</v>
+      </c>
+      <c r="G2785" s="0">
+        <v>545</v>
+      </c>
+      <c r="H2785" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2786">
+      <c r="A2786" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B2786" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2786" s="0">
+        <v>53285</v>
+      </c>
+      <c r="D2786" s="0">
+        <v>9.84498558864829E-02</v>
+      </c>
+      <c r="E2786" s="0">
+        <v>759</v>
+      </c>
+      <c r="F2786" s="0">
+        <v>0.105110095554632</v>
+      </c>
+      <c r="G2786" s="0">
+        <v>1158</v>
+      </c>
+      <c r="H2786" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2787">
+      <c r="A2787" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B2787" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2787" s="0">
+        <v>31929</v>
+      </c>
+      <c r="D2787" s="0">
+        <v>5.89923139457542E-02</v>
+      </c>
+      <c r="E2787" s="0">
+        <v>432</v>
+      </c>
+      <c r="F2787" s="0">
+        <v>5.98255089322808E-02</v>
+      </c>
+      <c r="G2787" s="0">
+        <v>1929</v>
+      </c>
+      <c r="H2787" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2788">
+      <c r="A2788" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B2788" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2788" s="0">
+        <v>16894</v>
+      </c>
+      <c r="D2788" s="0">
+        <v>3.12135097184244E-02</v>
+      </c>
+      <c r="E2788" s="0">
+        <v>227</v>
+      </c>
+      <c r="F2788" s="0">
+        <v>3.14360891843235E-02</v>
+      </c>
+      <c r="G2788" s="0">
+        <v>2439</v>
+      </c>
+      <c r="H2788" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2789">
+      <c r="A2789" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B2789" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2789" s="0">
+        <v>790</v>
+      </c>
+      <c r="D2789" s="0">
+        <v>1.45961126302564E-03</v>
+      </c>
+      <c r="E2789" s="0">
+        <v>190</v>
+      </c>
+      <c r="F2789" s="0">
+        <v>2.63121451322532E-02</v>
+      </c>
+      <c r="G2789" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2789" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -77331,6 +77611,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2341</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2341</Url>
+      <Description>HJYU5V3E37X6-122305290-2341</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -77345,31 +77632,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2288</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2288</Url>
-      <Description>HJYU5V3E37X6-122305290-2288</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A538094E-EAD4-43C6-A834-5BCDA98B4C61}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28864FA9-2806-492B-89C5-BAA517BDD461}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C473F9-42DA-4237-A7D1-C304B2DC35D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73098293-43A4-4860-A51A-C5F08125DD6C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AD0416-38A5-4580-B7BD-6147B04F8E55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19F911E7-E6FF-46EA-83AD-0822FC86911A}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B528E521-3FBD-416B-98F4-457271C9B18A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812D89B5-E4F9-48F8-94C1-AC5DB7B35D09}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2789</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2799</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2789"/>
+  <dimension ref="A1:H2799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -77180,6 +77180,286 @@
         <v>1</v>
       </c>
       <c r="H2789" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2790">
+      <c r="A2790" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B2790" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2790" s="0">
+        <v>28035</v>
+      </c>
+      <c r="D2790" s="0">
+        <v>5.12994581854978E-02</v>
+      </c>
+      <c r="E2790" s="0">
+        <v>291</v>
+      </c>
+      <c r="F2790" s="0">
+        <v>5.53547650751379E-02</v>
+      </c>
+      <c r="G2790" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2790" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2791">
+      <c r="A2791" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B2791" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2791" s="0">
+        <v>70815</v>
+      </c>
+      <c r="D2791" s="0">
+        <v>0.129579851307509</v>
+      </c>
+      <c r="E2791" s="0">
+        <v>574</v>
+      </c>
+      <c r="F2791" s="0">
+        <v>0.109187749667111</v>
+      </c>
+      <c r="G2791" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2791" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2792">
+      <c r="A2792" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B2792" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2792" s="0">
+        <v>100879</v>
+      </c>
+      <c r="D2792" s="0">
+        <v>0.184592047165858</v>
+      </c>
+      <c r="E2792" s="0">
+        <v>901</v>
+      </c>
+      <c r="F2792" s="0">
+        <v>0.171390526916492</v>
+      </c>
+      <c r="G2792" s="0">
+        <v>40</v>
+      </c>
+      <c r="H2792" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2793">
+      <c r="A2793" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B2793" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2793" s="0">
+        <v>85303</v>
+      </c>
+      <c r="D2793" s="0">
+        <v>0.156090518337704</v>
+      </c>
+      <c r="E2793" s="0">
+        <v>819</v>
+      </c>
+      <c r="F2793" s="0">
+        <v>0.155792276964048</v>
+      </c>
+      <c r="G2793" s="0">
+        <v>68</v>
+      </c>
+      <c r="H2793" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2794">
+      <c r="A2794" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B2794" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2794" s="0">
+        <v>81774</v>
+      </c>
+      <c r="D2794" s="0">
+        <v>0.149633026347812</v>
+      </c>
+      <c r="E2794" s="0">
+        <v>750</v>
+      </c>
+      <c r="F2794" s="0">
+        <v>0.142666920296747</v>
+      </c>
+      <c r="G2794" s="0">
+        <v>200</v>
+      </c>
+      <c r="H2794" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2795">
+      <c r="A2795" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B2795" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2795" s="0">
+        <v>75660</v>
+      </c>
+      <c r="D2795" s="0">
+        <v>0.138445407751552</v>
+      </c>
+      <c r="E2795" s="0">
+        <v>789</v>
+      </c>
+      <c r="F2795" s="0">
+        <v>0.150085600152178</v>
+      </c>
+      <c r="G2795" s="0">
+        <v>548</v>
+      </c>
+      <c r="H2795" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2796">
+      <c r="A2796" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B2796" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2796" s="0">
+        <v>53849</v>
+      </c>
+      <c r="D2796" s="0">
+        <v>9.85348501455635E-02</v>
+      </c>
+      <c r="E2796" s="0">
+        <v>564</v>
+      </c>
+      <c r="F2796" s="0">
+        <v>0.107285524063154</v>
+      </c>
+      <c r="G2796" s="0">
+        <v>1171</v>
+      </c>
+      <c r="H2796" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2797">
+      <c r="A2797" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B2797" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2797" s="0">
+        <v>32289</v>
+      </c>
+      <c r="D2797" s="0">
+        <v>5.90835814286263E-02</v>
+      </c>
+      <c r="E2797" s="0">
+        <v>360</v>
+      </c>
+      <c r="F2797" s="0">
+        <v>6.84801217424387E-02</v>
+      </c>
+      <c r="G2797" s="0">
+        <v>1946</v>
+      </c>
+      <c r="H2797" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2798">
+      <c r="A2798" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B2798" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2798" s="0">
+        <v>17106</v>
+      </c>
+      <c r="D2798" s="0">
+        <v>3.13011782315365E-02</v>
+      </c>
+      <c r="E2798" s="0">
+        <v>212</v>
+      </c>
+      <c r="F2798" s="0">
+        <v>4.03271828038805E-02</v>
+      </c>
+      <c r="G2798" s="0">
+        <v>2450</v>
+      </c>
+      <c r="H2798" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2799">
+      <c r="A2799" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B2799" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2799" s="0">
+        <v>787</v>
+      </c>
+      <c r="D2799" s="0">
+        <v>1.44008109834089E-03</v>
+      </c>
+      <c r="E2799" s="0">
+        <v>-3</v>
+      </c>
+      <c r="F2799" s="0">
+        <v>-5.70667681186989E-04</v>
+      </c>
+      <c r="G2799" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2799" s="0">
         <v>0</v>
       </c>
     </row>
@@ -77612,11 +77892,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2341</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2352</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2341</Url>
-      <Description>HJYU5V3E37X6-122305290-2341</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2352</Url>
+      <Description>HJYU5V3E37X6-122305290-2352</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -77639,17 +77919,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28864FA9-2806-492B-89C5-BAA517BDD461}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3DB8CE-577E-42DF-84FE-22545D605057}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73098293-43A4-4860-A51A-C5F08125DD6C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44FC4428-50FA-4483-B46A-2CFD19E59855}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19F911E7-E6FF-46EA-83AD-0822FC86911A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C509395-A73F-4008-B5D3-DF07FD038856}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812D89B5-E4F9-48F8-94C1-AC5DB7B35D09}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE77DC6-09AF-4173-A102-8CCC6B5F71AB}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2799</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2819</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2799"/>
+  <dimension ref="A1:H2819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -77460,6 +77460,566 @@
         <v>1</v>
       </c>
       <c r="H2799" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2800">
+      <c r="A2800" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B2800" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2800" s="0">
+        <v>28548</v>
+      </c>
+      <c r="D2800" s="0">
+        <v>5.13705470491806E-02</v>
+      </c>
+      <c r="E2800" s="0">
+        <v>513</v>
+      </c>
+      <c r="F2800" s="0">
+        <v>5.55796316359697E-02</v>
+      </c>
+      <c r="G2800" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2800" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2801">
+      <c r="A2801" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B2801" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2801" s="0">
+        <v>71866</v>
+      </c>
+      <c r="D2801" s="0">
+        <v>0.12931889218987</v>
+      </c>
+      <c r="E2801" s="0">
+        <v>1051</v>
+      </c>
+      <c r="F2801" s="0">
+        <v>0.113867822318527</v>
+      </c>
+      <c r="G2801" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2801" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2802">
+      <c r="A2802" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B2802" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2802" s="0">
+        <v>102382</v>
+      </c>
+      <c r="D2802" s="0">
+        <v>0.184230746391664</v>
+      </c>
+      <c r="E2802" s="0">
+        <v>1503</v>
+      </c>
+      <c r="F2802" s="0">
+        <v>0.162838569880823</v>
+      </c>
+      <c r="G2802" s="0">
+        <v>40</v>
+      </c>
+      <c r="H2802" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2803">
+      <c r="A2803" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B2803" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2803" s="0">
+        <v>86690</v>
+      </c>
+      <c r="D2803" s="0">
+        <v>0.155993860294713</v>
+      </c>
+      <c r="E2803" s="0">
+        <v>1387</v>
+      </c>
+      <c r="F2803" s="0">
+        <v>0.150270855904659</v>
+      </c>
+      <c r="G2803" s="0">
+        <v>69</v>
+      </c>
+      <c r="H2803" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2804">
+      <c r="A2804" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B2804" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2804" s="0">
+        <v>83189</v>
+      </c>
+      <c r="D2804" s="0">
+        <v>0.149694004430233</v>
+      </c>
+      <c r="E2804" s="0">
+        <v>1415</v>
+      </c>
+      <c r="F2804" s="0">
+        <v>0.153304442036836</v>
+      </c>
+      <c r="G2804" s="0">
+        <v>201</v>
+      </c>
+      <c r="H2804" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2805">
+      <c r="A2805" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B2805" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2805" s="0">
+        <v>77113</v>
+      </c>
+      <c r="D2805" s="0">
+        <v>0.138760578485479</v>
+      </c>
+      <c r="E2805" s="0">
+        <v>1453</v>
+      </c>
+      <c r="F2805" s="0">
+        <v>0.157421451787649</v>
+      </c>
+      <c r="G2805" s="0">
+        <v>549</v>
+      </c>
+      <c r="H2805" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2806">
+      <c r="A2806" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B2806" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2806" s="0">
+        <v>54838</v>
+      </c>
+      <c r="D2806" s="0">
+        <v>9.86779479852518E-02</v>
+      </c>
+      <c r="E2806" s="0">
+        <v>989</v>
+      </c>
+      <c r="F2806" s="0">
+        <v>0.10715059588299</v>
+      </c>
+      <c r="G2806" s="0">
+        <v>1170</v>
+      </c>
+      <c r="H2806" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2807">
+      <c r="A2807" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B2807" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2807" s="0">
+        <v>32854</v>
+      </c>
+      <c r="D2807" s="0">
+        <v>5.91189558902123E-02</v>
+      </c>
+      <c r="E2807" s="0">
+        <v>565</v>
+      </c>
+      <c r="F2807" s="0">
+        <v>6.12134344528711E-02</v>
+      </c>
+      <c r="G2807" s="0">
+        <v>1947</v>
+      </c>
+      <c r="H2807" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2808">
+      <c r="A2808" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B2808" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2808" s="0">
+        <v>17374</v>
+      </c>
+      <c r="D2808" s="0">
+        <v>3.12635520678319E-02</v>
+      </c>
+      <c r="E2808" s="0">
+        <v>268</v>
+      </c>
+      <c r="F2808" s="0">
+        <v>2.90357529794149E-02</v>
+      </c>
+      <c r="G2808" s="0">
+        <v>2452</v>
+      </c>
+      <c r="H2808" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2809">
+      <c r="A2809" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B2809" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2809" s="0">
+        <v>873</v>
+      </c>
+      <c r="D2809" s="0">
+        <v>1.57091521556448E-03</v>
+      </c>
+      <c r="E2809" s="0">
+        <v>86</v>
+      </c>
+      <c r="F2809" s="0">
+        <v>9.31744312026002E-03</v>
+      </c>
+      <c r="G2809" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2809" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2810">
+      <c r="A2810" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B2810" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2810" s="0">
+        <v>28776</v>
+      </c>
+      <c r="D2810" s="0">
+        <v>5.13039943518538E-02</v>
+      </c>
+      <c r="E2810" s="0">
+        <v>228</v>
+      </c>
+      <c r="F2810" s="0">
+        <v>4.41432720232333E-02</v>
+      </c>
+      <c r="G2810" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2810" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2811">
+      <c r="A2811" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B2811" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2811" s="0">
+        <v>72418</v>
+      </c>
+      <c r="D2811" s="0">
+        <v>0.129112199853091</v>
+      </c>
+      <c r="E2811" s="0">
+        <v>552</v>
+      </c>
+      <c r="F2811" s="0">
+        <v>0.106873184898354</v>
+      </c>
+      <c r="G2811" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2811" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2812">
+      <c r="A2812" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B2812" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2812" s="0">
+        <v>103196</v>
+      </c>
+      <c r="D2812" s="0">
+        <v>0.183985508796702</v>
+      </c>
+      <c r="E2812" s="0">
+        <v>814</v>
+      </c>
+      <c r="F2812" s="0">
+        <v>0.157599225556631</v>
+      </c>
+      <c r="G2812" s="0">
+        <v>40</v>
+      </c>
+      <c r="H2812" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2813">
+      <c r="A2813" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B2813" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2813" s="0">
+        <v>87505</v>
+      </c>
+      <c r="D2813" s="0">
+        <v>0.156010426249617</v>
+      </c>
+      <c r="E2813" s="0">
+        <v>815</v>
+      </c>
+      <c r="F2813" s="0">
+        <v>0.157792836398838</v>
+      </c>
+      <c r="G2813" s="0">
+        <v>69</v>
+      </c>
+      <c r="H2813" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2814">
+      <c r="A2814" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B2814" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2814" s="0">
+        <v>84015</v>
+      </c>
+      <c r="D2814" s="0">
+        <v>0.149788194518731</v>
+      </c>
+      <c r="E2814" s="0">
+        <v>826</v>
+      </c>
+      <c r="F2814" s="0">
+        <v>0.159922555663117</v>
+      </c>
+      <c r="G2814" s="0">
+        <v>201</v>
+      </c>
+      <c r="H2814" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2815">
+      <c r="A2815" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B2815" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2815" s="0">
+        <v>77890</v>
+      </c>
+      <c r="D2815" s="0">
+        <v>0.138868088687305</v>
+      </c>
+      <c r="E2815" s="0">
+        <v>777</v>
+      </c>
+      <c r="F2815" s="0">
+        <v>0.150435624394966</v>
+      </c>
+      <c r="G2815" s="0">
+        <v>549</v>
+      </c>
+      <c r="H2815" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2816">
+      <c r="A2816" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B2816" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2816" s="0">
+        <v>55452</v>
+      </c>
+      <c r="D2816" s="0">
+        <v>9.88639524186474E-02</v>
+      </c>
+      <c r="E2816" s="0">
+        <v>614</v>
+      </c>
+      <c r="F2816" s="0">
+        <v>0.118877057115198</v>
+      </c>
+      <c r="G2816" s="0">
+        <v>1172</v>
+      </c>
+      <c r="H2816" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2817">
+      <c r="A2817" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B2817" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2817" s="0">
+        <v>33208</v>
+      </c>
+      <c r="D2817" s="0">
+        <v>5.92056937877524E-02</v>
+      </c>
+      <c r="E2817" s="0">
+        <v>354</v>
+      </c>
+      <c r="F2817" s="0">
+        <v>6.85382381413359E-02</v>
+      </c>
+      <c r="G2817" s="0">
+        <v>1947</v>
+      </c>
+      <c r="H2817" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2818">
+      <c r="A2818" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B2818" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2818" s="0">
+        <v>17549</v>
+      </c>
+      <c r="D2818" s="0">
+        <v>3.12876632221533E-02</v>
+      </c>
+      <c r="E2818" s="0">
+        <v>175</v>
+      </c>
+      <c r="F2818" s="0">
+        <v>3.38818973862536E-02</v>
+      </c>
+      <c r="G2818" s="0">
+        <v>2457</v>
+      </c>
+      <c r="H2818" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2819">
+      <c r="A2819" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B2819" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2819" s="0">
+        <v>883</v>
+      </c>
+      <c r="D2819" s="0">
+        <v>1.57427811414675E-03</v>
+      </c>
+      <c r="E2819" s="0">
+        <v>10</v>
+      </c>
+      <c r="F2819" s="0">
+        <v>1.93610842207164E-03</v>
+      </c>
+      <c r="G2819" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2819" s="0">
         <v>0</v>
       </c>
     </row>
@@ -77892,11 +78452,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2352</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2394</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2352</Url>
-      <Description>HJYU5V3E37X6-122305290-2352</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2394</Url>
+      <Description>HJYU5V3E37X6-122305290-2394</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -77919,17 +78479,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3DB8CE-577E-42DF-84FE-22545D605057}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25B10811-4C37-4A78-8714-9EAB78A159F8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44FC4428-50FA-4483-B46A-2CFD19E59855}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B7FD7F-E752-4E1D-A980-5532873FCA4F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C509395-A73F-4008-B5D3-DF07FD038856}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98E4C8AE-0B34-4E32-AE4B-9794E66F7A69}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE77DC6-09AF-4173-A102-8CCC6B5F71AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C5DCF-7C8D-4450-AED7-23BA810CC264}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2819</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2829</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2819"/>
+  <dimension ref="A1:H2829"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -78020,6 +78020,286 @@
         <v>1</v>
       </c>
       <c r="H2819" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2820">
+      <c r="A2820" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B2820" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2820" s="0">
+        <v>28907</v>
+      </c>
+      <c r="D2820" s="0">
+        <v>5.12462771238122E-02</v>
+      </c>
+      <c r="E2820" s="0">
+        <v>131</v>
+      </c>
+      <c r="F2820" s="0">
+        <v>4.10915934755332E-02</v>
+      </c>
+      <c r="G2820" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2820" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2821">
+      <c r="A2821" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B2821" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2821" s="0">
+        <v>72753</v>
+      </c>
+      <c r="D2821" s="0">
+        <v>0.12897638632818</v>
+      </c>
+      <c r="E2821" s="0">
+        <v>335</v>
+      </c>
+      <c r="F2821" s="0">
+        <v>0.105081555834379</v>
+      </c>
+      <c r="G2821" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2821" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2822">
+      <c r="A2822" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B2822" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2822" s="0">
+        <v>103674</v>
+      </c>
+      <c r="D2822" s="0">
+        <v>0.183793078995887</v>
+      </c>
+      <c r="E2822" s="0">
+        <v>478</v>
+      </c>
+      <c r="F2822" s="0">
+        <v>0.149937264742785</v>
+      </c>
+      <c r="G2822" s="0">
+        <v>40</v>
+      </c>
+      <c r="H2822" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2823">
+      <c r="A2823" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B2823" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2823" s="0">
+        <v>87985</v>
+      </c>
+      <c r="D2823" s="0">
+        <v>0.15597964827684</v>
+      </c>
+      <c r="E2823" s="0">
+        <v>480</v>
+      </c>
+      <c r="F2823" s="0">
+        <v>0.150564617314931</v>
+      </c>
+      <c r="G2823" s="0">
+        <v>69</v>
+      </c>
+      <c r="H2823" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2824">
+      <c r="A2824" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B2824" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2824" s="0">
+        <v>84481</v>
+      </c>
+      <c r="D2824" s="0">
+        <v>0.14976776343781</v>
+      </c>
+      <c r="E2824" s="0">
+        <v>466</v>
+      </c>
+      <c r="F2824" s="0">
+        <v>0.146173149309912</v>
+      </c>
+      <c r="G2824" s="0">
+        <v>203</v>
+      </c>
+      <c r="H2824" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2825">
+      <c r="A2825" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B2825" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2825" s="0">
+        <v>78372</v>
+      </c>
+      <c r="D2825" s="0">
+        <v>0.138937739327755</v>
+      </c>
+      <c r="E2825" s="0">
+        <v>482</v>
+      </c>
+      <c r="F2825" s="0">
+        <v>0.151191969887077</v>
+      </c>
+      <c r="G2825" s="0">
+        <v>555</v>
+      </c>
+      <c r="H2825" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2826">
+      <c r="A2826" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B2826" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2826" s="0">
+        <v>55805</v>
+      </c>
+      <c r="D2826" s="0">
+        <v>9.89310026946532E-02</v>
+      </c>
+      <c r="E2826" s="0">
+        <v>353</v>
+      </c>
+      <c r="F2826" s="0">
+        <v>0.110727728983689</v>
+      </c>
+      <c r="G2826" s="0">
+        <v>1185</v>
+      </c>
+      <c r="H2826" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2827">
+      <c r="A2827" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B2827" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2827" s="0">
+        <v>33381</v>
+      </c>
+      <c r="D2827" s="0">
+        <v>5.91777762019572E-02</v>
+      </c>
+      <c r="E2827" s="0">
+        <v>173</v>
+      </c>
+      <c r="F2827" s="0">
+        <v>5.42659974905897E-02</v>
+      </c>
+      <c r="G2827" s="0">
+        <v>1970</v>
+      </c>
+      <c r="H2827" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2828">
+      <c r="A2828" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B2828" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2828" s="0">
+        <v>17671</v>
+      </c>
+      <c r="D2828" s="0">
+        <v>3.13271167210325E-02</v>
+      </c>
+      <c r="E2828" s="0">
+        <v>122</v>
+      </c>
+      <c r="F2828" s="0">
+        <v>3.82685069008783E-02</v>
+      </c>
+      <c r="G2828" s="0">
+        <v>2482</v>
+      </c>
+      <c r="H2828" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2829">
+      <c r="A2829" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B2829" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2829" s="0">
+        <v>1051</v>
+      </c>
+      <c r="D2829" s="0">
+        <v>1.86321089207205E-03</v>
+      </c>
+      <c r="E2829" s="0">
+        <v>168</v>
+      </c>
+      <c r="F2829" s="0">
+        <v>5.26976160602258E-02</v>
+      </c>
+      <c r="G2829" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2829" s="0">
         <v>0</v>
       </c>
     </row>
@@ -78451,13 +78731,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2394</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2394</Url>
-      <Description>HJYU5V3E37X6-122305290-2394</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -78472,24 +78745,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2405</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2405</Url>
+      <Description>HJYU5V3E37X6-122305290-2405</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25B10811-4C37-4A78-8714-9EAB78A159F8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5CC3557-0F26-4222-BD3F-7FF32FDB5CBD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B7FD7F-E752-4E1D-A980-5532873FCA4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A10813C-628E-41C7-8B2E-D8DE8463985E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98E4C8AE-0B34-4E32-AE4B-9794E66F7A69}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31CE67C1-A0CA-402A-ADF7-EFB8738FC25C}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C5DCF-7C8D-4450-AED7-23BA810CC264}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D65AD999-FE9E-4095-BAB0-A2EE3D78356B}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2829</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2839</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2829"/>
+  <dimension ref="A1:H2839"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -78300,6 +78300,286 @@
         <v>1</v>
       </c>
       <c r="H2829" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2830">
+      <c r="A2830" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B2830" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2830" s="0">
+        <v>29047</v>
+      </c>
+      <c r="D2830" s="0">
+        <v>5.11578183560177E-02</v>
+      </c>
+      <c r="E2830" s="0">
+        <v>140</v>
+      </c>
+      <c r="F2830" s="0">
+        <v>3.77155172413793E-02</v>
+      </c>
+      <c r="G2830" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2830" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2831">
+      <c r="A2831" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B2831" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2831" s="0">
+        <v>73105</v>
+      </c>
+      <c r="D2831" s="0">
+        <v>0.128753134950827</v>
+      </c>
+      <c r="E2831" s="0">
+        <v>352</v>
+      </c>
+      <c r="F2831" s="0">
+        <v>9.48275862068965E-02</v>
+      </c>
+      <c r="G2831" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2831" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2832">
+      <c r="A2832" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B2832" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2832" s="0">
+        <v>104280</v>
+      </c>
+      <c r="D2832" s="0">
+        <v>0.183658804632682</v>
+      </c>
+      <c r="E2832" s="0">
+        <v>606</v>
+      </c>
+      <c r="F2832" s="0">
+        <v>0.163254310344828</v>
+      </c>
+      <c r="G2832" s="0">
+        <v>40</v>
+      </c>
+      <c r="H2832" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2833">
+      <c r="A2833" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B2833" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2833" s="0">
+        <v>88615</v>
+      </c>
+      <c r="D2833" s="0">
+        <v>0.156069476146194</v>
+      </c>
+      <c r="E2833" s="0">
+        <v>630</v>
+      </c>
+      <c r="F2833" s="0">
+        <v>0.169719827586207</v>
+      </c>
+      <c r="G2833" s="0">
+        <v>69</v>
+      </c>
+      <c r="H2833" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2834">
+      <c r="A2834" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B2834" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2834" s="0">
+        <v>85086</v>
+      </c>
+      <c r="D2834" s="0">
+        <v>0.149854171950292</v>
+      </c>
+      <c r="E2834" s="0">
+        <v>605</v>
+      </c>
+      <c r="F2834" s="0">
+        <v>0.162984913793103</v>
+      </c>
+      <c r="G2834" s="0">
+        <v>208</v>
+      </c>
+      <c r="H2834" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2835">
+      <c r="A2835" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B2835" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2835" s="0">
+        <v>78925</v>
+      </c>
+      <c r="D2835" s="0">
+        <v>0.139003367430327</v>
+      </c>
+      <c r="E2835" s="0">
+        <v>553</v>
+      </c>
+      <c r="F2835" s="0">
+        <v>0.148976293103448</v>
+      </c>
+      <c r="G2835" s="0">
+        <v>560</v>
+      </c>
+      <c r="H2835" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2836">
+      <c r="A2836" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B2836" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2836" s="0">
+        <v>56194</v>
+      </c>
+      <c r="D2836" s="0">
+        <v>9.89693408853946E-02</v>
+      </c>
+      <c r="E2836" s="0">
+        <v>389</v>
+      </c>
+      <c r="F2836" s="0">
+        <v>0.10479525862069</v>
+      </c>
+      <c r="G2836" s="0">
+        <v>1198</v>
+      </c>
+      <c r="H2836" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2837">
+      <c r="A2837" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B2837" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2837" s="0">
+        <v>33621</v>
+      </c>
+      <c r="D2837" s="0">
+        <v>5.92135852565728E-02</v>
+      </c>
+      <c r="E2837" s="0">
+        <v>240</v>
+      </c>
+      <c r="F2837" s="0">
+        <v>6.46551724137931E-02</v>
+      </c>
+      <c r="G2837" s="0">
+        <v>1993</v>
+      </c>
+      <c r="H2837" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2838">
+      <c r="A2838" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B2838" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2838" s="0">
+        <v>17791</v>
+      </c>
+      <c r="D2838" s="0">
+        <v>0.031333657395666</v>
+      </c>
+      <c r="E2838" s="0">
+        <v>120</v>
+      </c>
+      <c r="F2838" s="0">
+        <v>3.23275862068966E-02</v>
+      </c>
+      <c r="G2838" s="0">
+        <v>2512</v>
+      </c>
+      <c r="H2838" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2839">
+      <c r="A2839" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B2839" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2839" s="0">
+        <v>1128</v>
+      </c>
+      <c r="D2839" s="0">
+        <v>1.98664299602671E-03</v>
+      </c>
+      <c r="E2839" s="0">
+        <v>77</v>
+      </c>
+      <c r="F2839" s="0">
+        <v>2.07435344827586E-02</v>
+      </c>
+      <c r="G2839" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2839" s="0">
         <v>0</v>
       </c>
     </row>
@@ -78749,27 +79029,27 @@
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2405</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2426</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2405</Url>
-      <Description>HJYU5V3E37X6-122305290-2405</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2426</Url>
+      <Description>HJYU5V3E37X6-122305290-2426</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5CC3557-0F26-4222-BD3F-7FF32FDB5CBD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931F9314-AFD6-450C-ABB2-8108055AD46F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A10813C-628E-41C7-8B2E-D8DE8463985E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F12066BE-30CD-4909-8281-9547C0729697}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31CE67C1-A0CA-402A-ADF7-EFB8738FC25C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE6BDDFF-612A-4FDA-958F-4DF6506E2F7B}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D65AD999-FE9E-4095-BAB0-A2EE3D78356B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777242CA-C59F-4724-8422-5F2E41F4234A}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2839</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2849</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2839"/>
+  <dimension ref="A1:H2849"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -78580,6 +78580,286 @@
         <v>1</v>
       </c>
       <c r="H2839" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2840">
+      <c r="A2840" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B2840" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2840" s="0">
+        <v>29246</v>
+      </c>
+      <c r="D2840" s="0">
+        <v>5.10767758374681E-02</v>
+      </c>
+      <c r="E2840" s="0">
+        <v>199</v>
+      </c>
+      <c r="F2840" s="0">
+        <v>4.14842609964561E-02</v>
+      </c>
+      <c r="G2840" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2840" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2841">
+      <c r="A2841" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B2841" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2841" s="0">
+        <v>73519</v>
+      </c>
+      <c r="D2841" s="0">
+        <v>0.128397506763141</v>
+      </c>
+      <c r="E2841" s="0">
+        <v>414</v>
+      </c>
+      <c r="F2841" s="0">
+        <v>8.63039399624766E-02</v>
+      </c>
+      <c r="G2841" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2841" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2842">
+      <c r="A2842" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B2842" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2842" s="0">
+        <v>105071</v>
+      </c>
+      <c r="D2842" s="0">
+        <v>0.183501604117439</v>
+      </c>
+      <c r="E2842" s="0">
+        <v>791</v>
+      </c>
+      <c r="F2842" s="0">
+        <v>0.164894725870336</v>
+      </c>
+      <c r="G2842" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2842" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2843">
+      <c r="A2843" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B2843" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2843" s="0">
+        <v>89322</v>
+      </c>
+      <c r="D2843" s="0">
+        <v>0.155996709681814</v>
+      </c>
+      <c r="E2843" s="0">
+        <v>707</v>
+      </c>
+      <c r="F2843" s="0">
+        <v>0.147383781530123</v>
+      </c>
+      <c r="G2843" s="0">
+        <v>69</v>
+      </c>
+      <c r="H2843" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2844">
+      <c r="A2844" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B2844" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2844" s="0">
+        <v>85853</v>
+      </c>
+      <c r="D2844" s="0">
+        <v>0.149938262872671</v>
+      </c>
+      <c r="E2844" s="0">
+        <v>767</v>
+      </c>
+      <c r="F2844" s="0">
+        <v>0.159891598915989</v>
+      </c>
+      <c r="G2844" s="0">
+        <v>214</v>
+      </c>
+      <c r="H2844" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2845">
+      <c r="A2845" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B2845" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2845" s="0">
+        <v>79689</v>
+      </c>
+      <c r="D2845" s="0">
+        <v>0.139173124178075</v>
+      </c>
+      <c r="E2845" s="0">
+        <v>764</v>
+      </c>
+      <c r="F2845" s="0">
+        <v>0.159266208046696</v>
+      </c>
+      <c r="G2845" s="0">
+        <v>572</v>
+      </c>
+      <c r="H2845" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2846">
+      <c r="A2846" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B2846" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2846" s="0">
+        <v>56747</v>
+      </c>
+      <c r="D2846" s="0">
+        <v>9.91059905097723E-02</v>
+      </c>
+      <c r="E2846" s="0">
+        <v>553</v>
+      </c>
+      <c r="F2846" s="0">
+        <v>0.115280383573066</v>
+      </c>
+      <c r="G2846" s="0">
+        <v>1222</v>
+      </c>
+      <c r="H2846" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2847">
+      <c r="A2847" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B2847" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2847" s="0">
+        <v>33950</v>
+      </c>
+      <c r="D2847" s="0">
+        <v>5.92920925829871E-02</v>
+      </c>
+      <c r="E2847" s="0">
+        <v>329</v>
+      </c>
+      <c r="F2847" s="0">
+        <v>6.85845319991661E-02</v>
+      </c>
+      <c r="G2847" s="0">
+        <v>2030</v>
+      </c>
+      <c r="H2847" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2848">
+      <c r="A2848" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B2848" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2848" s="0">
+        <v>17986</v>
+      </c>
+      <c r="D2848" s="0">
+        <v>3.14117106685598E-02</v>
+      </c>
+      <c r="E2848" s="0">
+        <v>195</v>
+      </c>
+      <c r="F2848" s="0">
+        <v>0.040650406504065</v>
+      </c>
+      <c r="G2848" s="0">
+        <v>2554</v>
+      </c>
+      <c r="H2848" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2849">
+      <c r="A2849" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B2849" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2849" s="0">
+        <v>1206</v>
+      </c>
+      <c r="D2849" s="0">
+        <v>2.10622278807312E-03</v>
+      </c>
+      <c r="E2849" s="0">
+        <v>78</v>
+      </c>
+      <c r="F2849" s="0">
+        <v>0.016260162601626</v>
+      </c>
+      <c r="G2849" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2849" s="0">
         <v>0</v>
       </c>
     </row>
@@ -79029,27 +79309,27 @@
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2426</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2436</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2426</Url>
-      <Description>HJYU5V3E37X6-122305290-2426</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2436</Url>
+      <Description>HJYU5V3E37X6-122305290-2436</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931F9314-AFD6-450C-ABB2-8108055AD46F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED43FAE5-584C-4B12-AA3A-70EAF4FFACAD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F12066BE-30CD-4909-8281-9547C0729697}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C643265-A176-4AD2-955E-284B82D1D9B4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE6BDDFF-612A-4FDA-958F-4DF6506E2F7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71EF9C26-21E5-4B91-B142-58446FFE9993}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777242CA-C59F-4724-8422-5F2E41F4234A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A0ABC2-AAB0-4877-8A51-319BFBFB5D60}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2849</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2869</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2849"/>
+  <dimension ref="A1:H2869"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -78860,6 +78860,566 @@
         <v>1</v>
       </c>
       <c r="H2849" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2850">
+      <c r="A2850" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B2850" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2850" s="0">
+        <v>29635</v>
+      </c>
+      <c r="D2850" s="0">
+        <v>5.10236583799493E-02</v>
+      </c>
+      <c r="E2850" s="0">
+        <v>389</v>
+      </c>
+      <c r="F2850" s="0">
+        <v>0.047323600973236</v>
+      </c>
+      <c r="G2850" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2850" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2851">
+      <c r="A2851" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B2851" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2851" s="0">
+        <v>74298</v>
+      </c>
+      <c r="D2851" s="0">
+        <v>0.127921571463252</v>
+      </c>
+      <c r="E2851" s="0">
+        <v>779</v>
+      </c>
+      <c r="F2851" s="0">
+        <v>9.47688564476886E-02</v>
+      </c>
+      <c r="G2851" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2851" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2852">
+      <c r="A2852" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B2852" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2852" s="0">
+        <v>106568</v>
+      </c>
+      <c r="D2852" s="0">
+        <v>0.183482005271957</v>
+      </c>
+      <c r="E2852" s="0">
+        <v>1497</v>
+      </c>
+      <c r="F2852" s="0">
+        <v>0.182116788321168</v>
+      </c>
+      <c r="G2852" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2852" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2853">
+      <c r="A2853" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B2853" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2853" s="0">
+        <v>90718</v>
+      </c>
+      <c r="D2853" s="0">
+        <v>0.1561924832432</v>
+      </c>
+      <c r="E2853" s="0">
+        <v>1396</v>
+      </c>
+      <c r="F2853" s="0">
+        <v>0.169829683698297</v>
+      </c>
+      <c r="G2853" s="0">
+        <v>69</v>
+      </c>
+      <c r="H2853" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2854">
+      <c r="A2854" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B2854" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2854" s="0">
+        <v>87169</v>
+      </c>
+      <c r="D2854" s="0">
+        <v>0.150082040739727</v>
+      </c>
+      <c r="E2854" s="0">
+        <v>1316</v>
+      </c>
+      <c r="F2854" s="0">
+        <v>0.160097323600973</v>
+      </c>
+      <c r="G2854" s="0">
+        <v>218</v>
+      </c>
+      <c r="H2854" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2855">
+      <c r="A2855" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B2855" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2855" s="0">
+        <v>80894</v>
+      </c>
+      <c r="D2855" s="0">
+        <v>0.139278144794588</v>
+      </c>
+      <c r="E2855" s="0">
+        <v>1205</v>
+      </c>
+      <c r="F2855" s="0">
+        <v>0.146593673965937</v>
+      </c>
+      <c r="G2855" s="0">
+        <v>580</v>
+      </c>
+      <c r="H2855" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2856">
+      <c r="A2856" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B2856" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2856" s="0">
+        <v>57667</v>
+      </c>
+      <c r="D2856" s="0">
+        <v>9.92873733017223E-02</v>
+      </c>
+      <c r="E2856" s="0">
+        <v>920</v>
+      </c>
+      <c r="F2856" s="0">
+        <v>0.111922141119221</v>
+      </c>
+      <c r="G2856" s="0">
+        <v>1235</v>
+      </c>
+      <c r="H2856" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2857">
+      <c r="A2857" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B2857" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2857" s="0">
+        <v>34461</v>
+      </c>
+      <c r="D2857" s="0">
+        <v>5.93327582733739E-02</v>
+      </c>
+      <c r="E2857" s="0">
+        <v>511</v>
+      </c>
+      <c r="F2857" s="0">
+        <v>6.21654501216545E-02</v>
+      </c>
+      <c r="G2857" s="0">
+        <v>2060</v>
+      </c>
+      <c r="H2857" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2858">
+      <c r="A2858" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B2858" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2858" s="0">
+        <v>18255</v>
+      </c>
+      <c r="D2858" s="0">
+        <v>3.14302980842239E-02</v>
+      </c>
+      <c r="E2858" s="0">
+        <v>269</v>
+      </c>
+      <c r="F2858" s="0">
+        <v>3.27250608272506E-02</v>
+      </c>
+      <c r="G2858" s="0">
+        <v>2599</v>
+      </c>
+      <c r="H2858" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2859">
+      <c r="A2859" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B2859" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2859" s="0">
+        <v>1144</v>
+      </c>
+      <c r="D2859" s="0">
+        <v>1.96966644800614E-03</v>
+      </c>
+      <c r="E2859" s="0">
+        <v>-62</v>
+      </c>
+      <c r="F2859" s="0">
+        <v>-7.54257907542579E-03</v>
+      </c>
+      <c r="G2859" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2859" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2860">
+      <c r="A2860" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B2860" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2860" s="0">
+        <v>29949</v>
+      </c>
+      <c r="D2860" s="0">
+        <v>0.051037658358356</v>
+      </c>
+      <c r="E2860" s="0">
+        <v>314</v>
+      </c>
+      <c r="F2860" s="0">
+        <v>5.23944602035708E-02</v>
+      </c>
+      <c r="G2860" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2860" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2861">
+      <c r="A2861" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B2861" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2861" s="0">
+        <v>74846</v>
+      </c>
+      <c r="D2861" s="0">
+        <v>0.127548985858944</v>
+      </c>
+      <c r="E2861" s="0">
+        <v>548</v>
+      </c>
+      <c r="F2861" s="0">
+        <v>9.14400133489071E-02</v>
+      </c>
+      <c r="G2861" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2861" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2862">
+      <c r="A2862" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B2862" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2862" s="0">
+        <v>107598</v>
+      </c>
+      <c r="D2862" s="0">
+        <v>0.183363383219553</v>
+      </c>
+      <c r="E2862" s="0">
+        <v>1030</v>
+      </c>
+      <c r="F2862" s="0">
+        <v>0.171867178374771</v>
+      </c>
+      <c r="G2862" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2862" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2863">
+      <c r="A2863" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B2863" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2863" s="0">
+        <v>91724</v>
+      </c>
+      <c r="D2863" s="0">
+        <v>0.156311669012716</v>
+      </c>
+      <c r="E2863" s="0">
+        <v>1006</v>
+      </c>
+      <c r="F2863" s="0">
+        <v>0.1678625062573</v>
+      </c>
+      <c r="G2863" s="0">
+        <v>69</v>
+      </c>
+      <c r="H2863" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2864">
+      <c r="A2864" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B2864" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2864" s="0">
+        <v>88098</v>
+      </c>
+      <c r="D2864" s="0">
+        <v>0.15013241263663</v>
+      </c>
+      <c r="E2864" s="0">
+        <v>929</v>
+      </c>
+      <c r="F2864" s="0">
+        <v>0.155014183213749</v>
+      </c>
+      <c r="G2864" s="0">
+        <v>224</v>
+      </c>
+      <c r="H2864" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2865">
+      <c r="A2865" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B2865" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2865" s="0">
+        <v>81827</v>
+      </c>
+      <c r="D2865" s="0">
+        <v>0.13944567332763</v>
+      </c>
+      <c r="E2865" s="0">
+        <v>933</v>
+      </c>
+      <c r="F2865" s="0">
+        <v>0.155681628566661</v>
+      </c>
+      <c r="G2865" s="0">
+        <v>595</v>
+      </c>
+      <c r="H2865" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2866">
+      <c r="A2866" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B2866" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2866" s="0">
+        <v>58313</v>
+      </c>
+      <c r="D2866" s="0">
+        <v>9.93742352616385E-02</v>
+      </c>
+      <c r="E2866" s="0">
+        <v>646</v>
+      </c>
+      <c r="F2866" s="0">
+        <v>0.107792424495244</v>
+      </c>
+      <c r="G2866" s="0">
+        <v>1250</v>
+      </c>
+      <c r="H2866" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2867">
+      <c r="A2867" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B2867" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2867" s="0">
+        <v>34870</v>
+      </c>
+      <c r="D2867" s="0">
+        <v>5.94237920116155E-02</v>
+      </c>
+      <c r="E2867" s="0">
+        <v>409</v>
+      </c>
+      <c r="F2867" s="0">
+        <v>6.82462873352244E-02</v>
+      </c>
+      <c r="G2867" s="0">
+        <v>2094</v>
+      </c>
+      <c r="H2867" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2868">
+      <c r="A2868" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B2868" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2868" s="0">
+        <v>18501</v>
+      </c>
+      <c r="D2868" s="0">
+        <v>3.15285223976742E-02</v>
+      </c>
+      <c r="E2868" s="0">
+        <v>246</v>
+      </c>
+      <c r="F2868" s="0">
+        <v>4.10478892040714E-02</v>
+      </c>
+      <c r="G2868" s="0">
+        <v>2626</v>
+      </c>
+      <c r="H2868" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2869">
+      <c r="A2869" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B2869" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2869" s="0">
+        <v>1076</v>
+      </c>
+      <c r="D2869" s="0">
+        <v>1.83366791524228E-03</v>
+      </c>
+      <c r="E2869" s="0">
+        <v>-68</v>
+      </c>
+      <c r="F2869" s="0">
+        <v>-1.13465709994994E-02</v>
+      </c>
+      <c r="G2869" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2869" s="0">
         <v>0</v>
       </c>
     </row>
@@ -79309,27 +79869,27 @@
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2436</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2453</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2436</Url>
-      <Description>HJYU5V3E37X6-122305290-2436</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2453</Url>
+      <Description>HJYU5V3E37X6-122305290-2453</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED43FAE5-584C-4B12-AA3A-70EAF4FFACAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65951DA-AAC4-45F7-9F46-E0653C585F39}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C643265-A176-4AD2-955E-284B82D1D9B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B8394AF-2466-4D32-BAF2-08526249A002}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71EF9C26-21E5-4B91-B142-58446FFE9993}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE7491F-0A3E-4943-B37E-0574963E05D1}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A0ABC2-AAB0-4877-8A51-319BFBFB5D60}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10F56E6E-119B-42B1-9AB9-BA2D97AA2101}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2869</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2889</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2869"/>
+  <dimension ref="A1:H2889"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -79420,6 +79420,566 @@
         <v>1</v>
       </c>
       <c r="H2869" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2870">
+      <c r="A2870" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B2870" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2870" s="0">
+        <v>30433</v>
+      </c>
+      <c r="D2870" s="0">
+        <v>5.10979176670887E-02</v>
+      </c>
+      <c r="E2870" s="0">
+        <v>484</v>
+      </c>
+      <c r="F2870" s="0">
+        <v>0.055125284738041</v>
+      </c>
+      <c r="G2870" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2870" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2871">
+      <c r="A2871" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B2871" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2871" s="0">
+        <v>75828</v>
+      </c>
+      <c r="D2871" s="0">
+        <v>0.127317481052147</v>
+      </c>
+      <c r="E2871" s="0">
+        <v>982</v>
+      </c>
+      <c r="F2871" s="0">
+        <v>0.111845102505695</v>
+      </c>
+      <c r="G2871" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2871" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2872">
+      <c r="A2872" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B2872" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2872" s="0">
+        <v>109075</v>
+      </c>
+      <c r="D2872" s="0">
+        <v>0.183140188924447</v>
+      </c>
+      <c r="E2872" s="0">
+        <v>1477</v>
+      </c>
+      <c r="F2872" s="0">
+        <v>0.168223234624146</v>
+      </c>
+      <c r="G2872" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2872" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2873">
+      <c r="A2873" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B2873" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2873" s="0">
+        <v>92954</v>
+      </c>
+      <c r="D2873" s="0">
+        <v>0.156072547524942</v>
+      </c>
+      <c r="E2873" s="0">
+        <v>1230</v>
+      </c>
+      <c r="F2873" s="0">
+        <v>0.140091116173121</v>
+      </c>
+      <c r="G2873" s="0">
+        <v>70</v>
+      </c>
+      <c r="H2873" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2874">
+      <c r="A2874" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B2874" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2874" s="0">
+        <v>89323</v>
+      </c>
+      <c r="D2874" s="0">
+        <v>0.149975989872092</v>
+      </c>
+      <c r="E2874" s="0">
+        <v>1225</v>
+      </c>
+      <c r="F2874" s="0">
+        <v>0.139521640091116</v>
+      </c>
+      <c r="G2874" s="0">
+        <v>227</v>
+      </c>
+      <c r="H2874" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2875">
+      <c r="A2875" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B2875" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2875" s="0">
+        <v>83213</v>
+      </c>
+      <c r="D2875" s="0">
+        <v>0.13971711703846</v>
+      </c>
+      <c r="E2875" s="0">
+        <v>1386</v>
+      </c>
+      <c r="F2875" s="0">
+        <v>0.157858769931663</v>
+      </c>
+      <c r="G2875" s="0">
+        <v>596</v>
+      </c>
+      <c r="H2875" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2876">
+      <c r="A2876" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B2876" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2876" s="0">
+        <v>59376</v>
+      </c>
+      <c r="D2876" s="0">
+        <v>9.96940807479071E-02</v>
+      </c>
+      <c r="E2876" s="0">
+        <v>1063</v>
+      </c>
+      <c r="F2876" s="0">
+        <v>0.121070615034169</v>
+      </c>
+      <c r="G2876" s="0">
+        <v>1256</v>
+      </c>
+      <c r="H2876" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2877">
+      <c r="A2877" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B2877" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2877" s="0">
+        <v>35492</v>
+      </c>
+      <c r="D2877" s="0">
+        <v>5.95921300509418E-02</v>
+      </c>
+      <c r="E2877" s="0">
+        <v>622</v>
+      </c>
+      <c r="F2877" s="0">
+        <v>7.08428246013667E-02</v>
+      </c>
+      <c r="G2877" s="0">
+        <v>2107</v>
+      </c>
+      <c r="H2877" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2878">
+      <c r="A2878" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B2878" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2878" s="0">
+        <v>18810</v>
+      </c>
+      <c r="D2878" s="0">
+        <v>3.15825528642571E-02</v>
+      </c>
+      <c r="E2878" s="0">
+        <v>309</v>
+      </c>
+      <c r="F2878" s="0">
+        <v>3.51936218678815E-02</v>
+      </c>
+      <c r="G2878" s="0">
+        <v>2650</v>
+      </c>
+      <c r="H2878" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2879">
+      <c r="A2879" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B2879" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2879" s="0">
+        <v>1078</v>
+      </c>
+      <c r="D2879" s="0">
+        <v>1.80999425771766E-03</v>
+      </c>
+      <c r="E2879" s="0">
+        <v>2</v>
+      </c>
+      <c r="F2879" s="0">
+        <v>2.27790432801822E-04</v>
+      </c>
+      <c r="G2879" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2879" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2880">
+      <c r="A2880" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B2880" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2880" s="0">
+        <v>30832</v>
+      </c>
+      <c r="D2880" s="0">
+        <v>5.10352042268908E-02</v>
+      </c>
+      <c r="E2880" s="0">
+        <v>399</v>
+      </c>
+      <c r="F2880" s="0">
+        <v>4.66666666666667E-02</v>
+      </c>
+      <c r="G2880" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2880" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2881">
+      <c r="A2881" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B2881" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2881" s="0">
+        <v>76713</v>
+      </c>
+      <c r="D2881" s="0">
+        <v>0.126980527434402</v>
+      </c>
+      <c r="E2881" s="0">
+        <v>885</v>
+      </c>
+      <c r="F2881" s="0">
+        <v>0.103508771929825</v>
+      </c>
+      <c r="G2881" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2881" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2882">
+      <c r="A2882" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B2882" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2882" s="0">
+        <v>110586</v>
+      </c>
+      <c r="D2882" s="0">
+        <v>0.183049399800044</v>
+      </c>
+      <c r="E2882" s="0">
+        <v>1511</v>
+      </c>
+      <c r="F2882" s="0">
+        <v>0.17672514619883</v>
+      </c>
+      <c r="G2882" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2882" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2883">
+      <c r="A2883" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B2883" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2883" s="0">
+        <v>94298</v>
+      </c>
+      <c r="D2883" s="0">
+        <v>0.156088404520866</v>
+      </c>
+      <c r="E2883" s="0">
+        <v>1344</v>
+      </c>
+      <c r="F2883" s="0">
+        <v>0.15719298245614</v>
+      </c>
+      <c r="G2883" s="0">
+        <v>70</v>
+      </c>
+      <c r="H2883" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2884">
+      <c r="A2884" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B2884" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2884" s="0">
+        <v>90550</v>
+      </c>
+      <c r="D2884" s="0">
+        <v>0.149884462336046</v>
+      </c>
+      <c r="E2884" s="0">
+        <v>1227</v>
+      </c>
+      <c r="F2884" s="0">
+        <v>0.143508771929825</v>
+      </c>
+      <c r="G2884" s="0">
+        <v>228</v>
+      </c>
+      <c r="H2884" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2885">
+      <c r="A2885" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B2885" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2885" s="0">
+        <v>84437</v>
+      </c>
+      <c r="D2885" s="0">
+        <v>0.139765812769395</v>
+      </c>
+      <c r="E2885" s="0">
+        <v>1224</v>
+      </c>
+      <c r="F2885" s="0">
+        <v>0.143157894736842</v>
+      </c>
+      <c r="G2885" s="0">
+        <v>598</v>
+      </c>
+      <c r="H2885" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2886">
+      <c r="A2886" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B2886" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2886" s="0">
+        <v>60358</v>
+      </c>
+      <c r="D2886" s="0">
+        <v>9.99086292399674E-02</v>
+      </c>
+      <c r="E2886" s="0">
+        <v>982</v>
+      </c>
+      <c r="F2886" s="0">
+        <v>0.114853801169591</v>
+      </c>
+      <c r="G2886" s="0">
+        <v>1258</v>
+      </c>
+      <c r="H2886" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2887">
+      <c r="A2887" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B2887" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2887" s="0">
+        <v>36169</v>
+      </c>
+      <c r="D2887" s="0">
+        <v>5.98693662974317E-02</v>
+      </c>
+      <c r="E2887" s="0">
+        <v>677</v>
+      </c>
+      <c r="F2887" s="0">
+        <v>7.91812865497076E-02</v>
+      </c>
+      <c r="G2887" s="0">
+        <v>2111</v>
+      </c>
+      <c r="H2887" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2888">
+      <c r="A2888" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B2888" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2888" s="0">
+        <v>19098</v>
+      </c>
+      <c r="D2888" s="0">
+        <v>3.16122966504009E-02</v>
+      </c>
+      <c r="E2888" s="0">
+        <v>288</v>
+      </c>
+      <c r="F2888" s="0">
+        <v>3.36842105263158E-02</v>
+      </c>
+      <c r="G2888" s="0">
+        <v>2656</v>
+      </c>
+      <c r="H2888" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2889">
+      <c r="A2889" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B2889" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2889" s="0">
+        <v>1091</v>
+      </c>
+      <c r="D2889" s="0">
+        <v>1.80589672455688E-03</v>
+      </c>
+      <c r="E2889" s="0">
+        <v>13</v>
+      </c>
+      <c r="F2889" s="0">
+        <v>1.52046783625731E-03</v>
+      </c>
+      <c r="G2889" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2889" s="0">
         <v>0</v>
       </c>
     </row>
@@ -79851,6 +80411,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2464</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2464</Url>
+      <Description>HJYU5V3E37X6-122305290-2464</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -79865,31 +80432,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2453</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2453</Url>
-      <Description>HJYU5V3E37X6-122305290-2453</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65951DA-AAC4-45F7-9F46-E0653C585F39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6BC7A9D-C028-453F-B964-80AF787FAB39}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B8394AF-2466-4D32-BAF2-08526249A002}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E4F22F8-E0D5-4E73-8F13-002C8C799525}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE7491F-0A3E-4943-B37E-0574963E05D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27DEACAC-A8D3-4607-8618-E093F62DAE69}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10F56E6E-119B-42B1-9AB9-BA2D97AA2101}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E49984F6-411A-4D8B-AA64-44EC0DCC62A4}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2889</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2909</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2889"/>
+  <dimension ref="A1:H2909"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -79980,6 +79980,566 @@
         <v>1</v>
       </c>
       <c r="H2889" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2890">
+      <c r="A2890" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B2890" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2890" s="0">
+        <v>31042</v>
+      </c>
+      <c r="D2890" s="0">
+        <v>5.10309930839705E-02</v>
+      </c>
+      <c r="E2890" s="0">
+        <v>210</v>
+      </c>
+      <c r="F2890" s="0">
+        <v>5.04201680672269E-02</v>
+      </c>
+      <c r="G2890" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2890" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2891">
+      <c r="A2891" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B2891" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2891" s="0">
+        <v>77059</v>
+      </c>
+      <c r="D2891" s="0">
+        <v>0.126679894853994</v>
+      </c>
+      <c r="E2891" s="0">
+        <v>346</v>
+      </c>
+      <c r="F2891" s="0">
+        <v>8.30732292917167E-02</v>
+      </c>
+      <c r="G2891" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2891" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2892">
+      <c r="A2892" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B2892" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2892" s="0">
+        <v>111246</v>
+      </c>
+      <c r="D2892" s="0">
+        <v>0.182881059745486</v>
+      </c>
+      <c r="E2892" s="0">
+        <v>660</v>
+      </c>
+      <c r="F2892" s="0">
+        <v>0.158463385354142</v>
+      </c>
+      <c r="G2892" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2892" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2893">
+      <c r="A2893" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B2893" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2893" s="0">
+        <v>94944</v>
+      </c>
+      <c r="D2893" s="0">
+        <v>0.156081650904081</v>
+      </c>
+      <c r="E2893" s="0">
+        <v>646</v>
+      </c>
+      <c r="F2893" s="0">
+        <v>0.155102040816327</v>
+      </c>
+      <c r="G2893" s="0">
+        <v>70</v>
+      </c>
+      <c r="H2893" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2894">
+      <c r="A2894" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B2894" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2894" s="0">
+        <v>91179</v>
+      </c>
+      <c r="D2894" s="0">
+        <v>0.149892240139274</v>
+      </c>
+      <c r="E2894" s="0">
+        <v>629</v>
+      </c>
+      <c r="F2894" s="0">
+        <v>0.151020408163265</v>
+      </c>
+      <c r="G2894" s="0">
+        <v>230</v>
+      </c>
+      <c r="H2894" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2895">
+      <c r="A2895" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B2895" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2895" s="0">
+        <v>85058</v>
+      </c>
+      <c r="D2895" s="0">
+        <v>0.139829721336781</v>
+      </c>
+      <c r="E2895" s="0">
+        <v>621</v>
+      </c>
+      <c r="F2895" s="0">
+        <v>0.149099639855942</v>
+      </c>
+      <c r="G2895" s="0">
+        <v>608</v>
+      </c>
+      <c r="H2895" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2896">
+      <c r="A2896" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B2896" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2896" s="0">
+        <v>60902</v>
+      </c>
+      <c r="D2896" s="0">
+        <v>0.10011885641389</v>
+      </c>
+      <c r="E2896" s="0">
+        <v>544</v>
+      </c>
+      <c r="F2896" s="0">
+        <v>0.130612244897959</v>
+      </c>
+      <c r="G2896" s="0">
+        <v>1264</v>
+      </c>
+      <c r="H2896" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2897">
+      <c r="A2897" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B2897" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2897" s="0">
+        <v>36501</v>
+      </c>
+      <c r="D2897" s="0">
+        <v>6.00052277094906E-02</v>
+      </c>
+      <c r="E2897" s="0">
+        <v>332</v>
+      </c>
+      <c r="F2897" s="0">
+        <v>7.97118847539016E-02</v>
+      </c>
+      <c r="G2897" s="0">
+        <v>2128</v>
+      </c>
+      <c r="H2897" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2898">
+      <c r="A2898" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B2898" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2898" s="0">
+        <v>19269</v>
+      </c>
+      <c r="D2898" s="0">
+        <v>3.16769604321573E-02</v>
+      </c>
+      <c r="E2898" s="0">
+        <v>171</v>
+      </c>
+      <c r="F2898" s="0">
+        <v>4.10564225690276E-02</v>
+      </c>
+      <c r="G2898" s="0">
+        <v>2676</v>
+      </c>
+      <c r="H2898" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2899">
+      <c r="A2899" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B2899" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2899" s="0">
+        <v>1097</v>
+      </c>
+      <c r="D2899" s="0">
+        <v>1.8033953808748E-03</v>
+      </c>
+      <c r="E2899" s="0">
+        <v>6</v>
+      </c>
+      <c r="F2899" s="0">
+        <v>1.4405762304922E-03</v>
+      </c>
+      <c r="G2899" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2899" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2900">
+      <c r="A2900" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B2900" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2900" s="0">
+        <v>31227</v>
+      </c>
+      <c r="D2900" s="0">
+        <v>5.10036749693753E-02</v>
+      </c>
+      <c r="E2900" s="0">
+        <v>185</v>
+      </c>
+      <c r="F2900" s="0">
+        <v>4.67998988110296E-02</v>
+      </c>
+      <c r="G2900" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2900" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2901">
+      <c r="A2901" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B2901" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2901" s="0">
+        <v>77481</v>
+      </c>
+      <c r="D2901" s="0">
+        <v>0.126551245406288</v>
+      </c>
+      <c r="E2901" s="0">
+        <v>422</v>
+      </c>
+      <c r="F2901" s="0">
+        <v>0.106754363774349</v>
+      </c>
+      <c r="G2901" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2901" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2902">
+      <c r="A2902" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B2902" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2902" s="0">
+        <v>111970</v>
+      </c>
+      <c r="D2902" s="0">
+        <v>0.182882809309922</v>
+      </c>
+      <c r="E2902" s="0">
+        <v>724</v>
+      </c>
+      <c r="F2902" s="0">
+        <v>0.183152036428029</v>
+      </c>
+      <c r="G2902" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2902" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2903">
+      <c r="A2903" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B2903" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2903" s="0">
+        <v>95617</v>
+      </c>
+      <c r="D2903" s="0">
+        <v>0.156173131890568</v>
+      </c>
+      <c r="E2903" s="0">
+        <v>673</v>
+      </c>
+      <c r="F2903" s="0">
+        <v>0.170250442701745</v>
+      </c>
+      <c r="G2903" s="0">
+        <v>71</v>
+      </c>
+      <c r="H2903" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2904">
+      <c r="A2904" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B2904" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2904" s="0">
+        <v>91830</v>
+      </c>
+      <c r="D2904" s="0">
+        <v>0.149987750102082</v>
+      </c>
+      <c r="E2904" s="0">
+        <v>651</v>
+      </c>
+      <c r="F2904" s="0">
+        <v>0.164685049329623</v>
+      </c>
+      <c r="G2904" s="0">
+        <v>233</v>
+      </c>
+      <c r="H2904" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2905">
+      <c r="A2905" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B2905" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2905" s="0">
+        <v>85568</v>
+      </c>
+      <c r="D2905" s="0">
+        <v>0.139759902000817</v>
+      </c>
+      <c r="E2905" s="0">
+        <v>510</v>
+      </c>
+      <c r="F2905" s="0">
+        <v>0.129015937262838</v>
+      </c>
+      <c r="G2905" s="0">
+        <v>620</v>
+      </c>
+      <c r="H2905" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2906">
+      <c r="A2906" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B2906" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2906" s="0">
+        <v>61327</v>
+      </c>
+      <c r="D2906" s="0">
+        <v>0.100166598611678</v>
+      </c>
+      <c r="E2906" s="0">
+        <v>425</v>
+      </c>
+      <c r="F2906" s="0">
+        <v>0.107513281052365</v>
+      </c>
+      <c r="G2906" s="0">
+        <v>1289</v>
+      </c>
+      <c r="H2906" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2907">
+      <c r="A2907" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B2907" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2907" s="0">
+        <v>36746</v>
+      </c>
+      <c r="D2907" s="0">
+        <v>6.00179665169457E-02</v>
+      </c>
+      <c r="E2907" s="0">
+        <v>245</v>
+      </c>
+      <c r="F2907" s="0">
+        <v>6.19782443713635E-02</v>
+      </c>
+      <c r="G2907" s="0">
+        <v>2175</v>
+      </c>
+      <c r="H2907" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2908">
+      <c r="A2908" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B2908" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2908" s="0">
+        <v>19387</v>
+      </c>
+      <c r="D2908" s="0">
+        <v>3.16651694569212E-02</v>
+      </c>
+      <c r="E2908" s="0">
+        <v>118</v>
+      </c>
+      <c r="F2908" s="0">
+        <v>2.98507462686567E-02</v>
+      </c>
+      <c r="G2908" s="0">
+        <v>2731</v>
+      </c>
+      <c r="H2908" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2909">
+      <c r="A2909" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B2909" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2909" s="0">
+        <v>1097</v>
+      </c>
+      <c r="D2909" s="0">
+        <v>1.7917517354022E-03</v>
+      </c>
+      <c r="E2909" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2909" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2909" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2909" s="0">
         <v>0</v>
       </c>
     </row>
@@ -80411,13 +80971,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2464</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2464</Url>
-      <Description>HJYU5V3E37X6-122305290-2464</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -80432,24 +80985,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2485</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2485</Url>
+      <Description>HJYU5V3E37X6-122305290-2485</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6BC7A9D-C028-453F-B964-80AF787FAB39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666A95B4-3531-45FD-8317-747E8B79BCB2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E4F22F8-E0D5-4E73-8F13-002C8C799525}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4310C6F-FB59-47BC-B848-5D4911EC8E1D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27DEACAC-A8D3-4607-8618-E093F62DAE69}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E69089-D327-4826-AA0B-43C232E994EF}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E49984F6-411A-4D8B-AA64-44EC0DCC62A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35F4CD6F-1B51-4AB8-95BC-555ED236CB57}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2909</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2929</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2909"/>
+  <dimension ref="A1:H2929"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -80540,6 +80540,566 @@
         <v>1</v>
       </c>
       <c r="H2909" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2910">
+      <c r="A2910" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B2910" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2910" s="0">
+        <v>31474</v>
+      </c>
+      <c r="D2910" s="0">
+        <v>5.09577446089931E-02</v>
+      </c>
+      <c r="E2910" s="0">
+        <v>247</v>
+      </c>
+      <c r="F2910" s="0">
+        <v>4.57492128171884E-02</v>
+      </c>
+      <c r="G2910" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2910" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2911">
+      <c r="A2911" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B2911" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2911" s="0">
+        <v>78029</v>
+      </c>
+      <c r="D2911" s="0">
+        <v>0.126332269622391</v>
+      </c>
+      <c r="E2911" s="0">
+        <v>548</v>
+      </c>
+      <c r="F2911" s="0">
+        <v>0.101500277829228</v>
+      </c>
+      <c r="G2911" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2911" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2912">
+      <c r="A2912" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B2912" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2912" s="0">
+        <v>112895</v>
+      </c>
+      <c r="D2912" s="0">
+        <v>0.182781806495275</v>
+      </c>
+      <c r="E2912" s="0">
+        <v>925</v>
+      </c>
+      <c r="F2912" s="0">
+        <v>0.171328023708094</v>
+      </c>
+      <c r="G2912" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2912" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2913">
+      <c r="A2913" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B2913" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2913" s="0">
+        <v>96462</v>
+      </c>
+      <c r="D2913" s="0">
+        <v>0.156176080589461</v>
+      </c>
+      <c r="E2913" s="0">
+        <v>845</v>
+      </c>
+      <c r="F2913" s="0">
+        <v>0.156510464900908</v>
+      </c>
+      <c r="G2913" s="0">
+        <v>73</v>
+      </c>
+      <c r="H2913" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2914">
+      <c r="A2914" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B2914" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2914" s="0">
+        <v>92681</v>
+      </c>
+      <c r="D2914" s="0">
+        <v>0.150054480781156</v>
+      </c>
+      <c r="E2914" s="0">
+        <v>851</v>
+      </c>
+      <c r="F2914" s="0">
+        <v>0.157621781811447</v>
+      </c>
+      <c r="G2914" s="0">
+        <v>237</v>
+      </c>
+      <c r="H2914" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2915">
+      <c r="A2915" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B2915" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2915" s="0">
+        <v>86401</v>
+      </c>
+      <c r="D2915" s="0">
+        <v>0.13988689368881</v>
+      </c>
+      <c r="E2915" s="0">
+        <v>833</v>
+      </c>
+      <c r="F2915" s="0">
+        <v>0.15428783107983</v>
+      </c>
+      <c r="G2915" s="0">
+        <v>626</v>
+      </c>
+      <c r="H2915" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2916">
+      <c r="A2916" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B2916" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2916" s="0">
+        <v>61940</v>
+      </c>
+      <c r="D2916" s="0">
+        <v>0.100283494347113</v>
+      </c>
+      <c r="E2916" s="0">
+        <v>613</v>
+      </c>
+      <c r="F2916" s="0">
+        <v>0.113539544360067</v>
+      </c>
+      <c r="G2916" s="0">
+        <v>1307</v>
+      </c>
+      <c r="H2916" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2917">
+      <c r="A2917" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B2917" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2917" s="0">
+        <v>37099</v>
+      </c>
+      <c r="D2917" s="0">
+        <v>0.060064858843777</v>
+      </c>
+      <c r="E2917" s="0">
+        <v>353</v>
+      </c>
+      <c r="F2917" s="0">
+        <v>6.53824782367105E-02</v>
+      </c>
+      <c r="G2917" s="0">
+        <v>2206</v>
+      </c>
+      <c r="H2917" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2918">
+      <c r="A2918" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B2918" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2918" s="0">
+        <v>19589</v>
+      </c>
+      <c r="D2918" s="0">
+        <v>3.17154241324765E-02</v>
+      </c>
+      <c r="E2918" s="0">
+        <v>202</v>
+      </c>
+      <c r="F2918" s="0">
+        <v>0.037414335988146</v>
+      </c>
+      <c r="G2918" s="0">
+        <v>2769</v>
+      </c>
+      <c r="H2918" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2919">
+      <c r="A2919" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B2919" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2919" s="0">
+        <v>1079</v>
+      </c>
+      <c r="D2919" s="0">
+        <v>1.74694689054787E-03</v>
+      </c>
+      <c r="E2919" s="0">
+        <v>-18</v>
+      </c>
+      <c r="F2919" s="0">
+        <v>-3.33395073161697E-03</v>
+      </c>
+      <c r="G2919" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2919" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2920">
+      <c r="A2920" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B2920" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2920" s="0">
+        <v>31848</v>
+      </c>
+      <c r="D2920" s="0">
+        <v>5.09374845058754E-02</v>
+      </c>
+      <c r="E2920" s="0">
+        <v>374</v>
+      </c>
+      <c r="F2920" s="0">
+        <v>4.92883500263574E-02</v>
+      </c>
+      <c r="G2920" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2920" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2921">
+      <c r="A2921" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B2921" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2921" s="0">
+        <v>78902</v>
+      </c>
+      <c r="D2921" s="0">
+        <v>0.126195346724522</v>
+      </c>
+      <c r="E2921" s="0">
+        <v>873</v>
+      </c>
+      <c r="F2921" s="0">
+        <v>0.115050079072219</v>
+      </c>
+      <c r="G2921" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2921" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2922">
+      <c r="A2922" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B2922" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2922" s="0">
+        <v>114333</v>
+      </c>
+      <c r="D2922" s="0">
+        <v>0.182863458176659</v>
+      </c>
+      <c r="E2922" s="0">
+        <v>1438</v>
+      </c>
+      <c r="F2922" s="0">
+        <v>0.18950975224038</v>
+      </c>
+      <c r="G2922" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2922" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2923">
+      <c r="A2923" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B2923" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2923" s="0">
+        <v>97658</v>
+      </c>
+      <c r="D2923" s="0">
+        <v>0.156193571397726</v>
+      </c>
+      <c r="E2923" s="0">
+        <v>1196</v>
+      </c>
+      <c r="F2923" s="0">
+        <v>0.157617290458619</v>
+      </c>
+      <c r="G2923" s="0">
+        <v>74</v>
+      </c>
+      <c r="H2923" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2924">
+      <c r="A2924" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B2924" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2924" s="0">
+        <v>93813</v>
+      </c>
+      <c r="D2924" s="0">
+        <v>0.150043903351849</v>
+      </c>
+      <c r="E2924" s="0">
+        <v>1132</v>
+      </c>
+      <c r="F2924" s="0">
+        <v>0.149182920400633</v>
+      </c>
+      <c r="G2924" s="0">
+        <v>241</v>
+      </c>
+      <c r="H2924" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2925">
+      <c r="A2925" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B2925" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2925" s="0">
+        <v>87525</v>
+      </c>
+      <c r="D2925" s="0">
+        <v>0.139986916961088</v>
+      </c>
+      <c r="E2925" s="0">
+        <v>1124</v>
+      </c>
+      <c r="F2925" s="0">
+        <v>0.148128624143384</v>
+      </c>
+      <c r="G2925" s="0">
+        <v>632</v>
+      </c>
+      <c r="H2925" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2926">
+      <c r="A2926" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B2926" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2926" s="0">
+        <v>62741</v>
+      </c>
+      <c r="D2926" s="0">
+        <v>0.100347548209719</v>
+      </c>
+      <c r="E2926" s="0">
+        <v>801</v>
+      </c>
+      <c r="F2926" s="0">
+        <v>0.105561412756985</v>
+      </c>
+      <c r="G2926" s="0">
+        <v>1329</v>
+      </c>
+      <c r="H2926" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2927">
+      <c r="A2927" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B2927" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2927" s="0">
+        <v>37554</v>
+      </c>
+      <c r="D2927" s="0">
+        <v>0.060063623873827</v>
+      </c>
+      <c r="E2927" s="0">
+        <v>455</v>
+      </c>
+      <c r="F2927" s="0">
+        <v>5.99630996309963E-02</v>
+      </c>
+      <c r="G2927" s="0">
+        <v>2242</v>
+      </c>
+      <c r="H2927" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2928">
+      <c r="A2928" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B2928" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2928" s="0">
+        <v>19823</v>
+      </c>
+      <c r="D2928" s="0">
+        <v>3.17047775483537E-02</v>
+      </c>
+      <c r="E2928" s="0">
+        <v>234</v>
+      </c>
+      <c r="F2928" s="0">
+        <v>3.08381655245124E-02</v>
+      </c>
+      <c r="G2928" s="0">
+        <v>2814</v>
+      </c>
+      <c r="H2928" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2929">
+      <c r="A2929" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B2929" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2929" s="0">
+        <v>1040</v>
+      </c>
+      <c r="D2929" s="0">
+        <v>1.66336925038026E-03</v>
+      </c>
+      <c r="E2929" s="0">
+        <v>-39</v>
+      </c>
+      <c r="F2929" s="0">
+        <v>-5.1396942540854E-03</v>
+      </c>
+      <c r="G2929" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2929" s="0">
         <v>0</v>
       </c>
     </row>
@@ -80971,6 +81531,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2514</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2514</Url>
+      <Description>HJYU5V3E37X6-122305290-2514</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -80985,31 +81552,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2485</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2485</Url>
-      <Description>HJYU5V3E37X6-122305290-2485</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666A95B4-3531-45FD-8317-747E8B79BCB2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEC9D6C-18F0-448D-97F9-FC6E44D6320B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4310C6F-FB59-47BC-B848-5D4911EC8E1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79E3EACA-B271-48CF-A5C3-ABAA57682640}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E69089-D327-4826-AA0B-43C232E994EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49C8BB73-279A-45D0-8013-AC1F8932C38D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35F4CD6F-1B51-4AB8-95BC-555ED236CB57}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B41D673A-46CA-464E-B774-9C8BFCF6CA1C}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2929</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2939</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2929"/>
+  <dimension ref="A1:H2939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -81100,6 +81100,286 @@
         <v>1</v>
       </c>
       <c r="H2929" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2930">
+      <c r="A2930" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B2930" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2930" s="0">
+        <v>32310</v>
+      </c>
+      <c r="D2930" s="0">
+        <v>0.05094310171119</v>
+      </c>
+      <c r="E2930" s="0">
+        <v>462</v>
+      </c>
+      <c r="F2930" s="0">
+        <v>5.13333333333333E-02</v>
+      </c>
+      <c r="G2930" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2930" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2931">
+      <c r="A2931" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B2931" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2931" s="0">
+        <v>79936</v>
+      </c>
+      <c r="D2931" s="0">
+        <v>0.126034904933014</v>
+      </c>
+      <c r="E2931" s="0">
+        <v>1034</v>
+      </c>
+      <c r="F2931" s="0">
+        <v>0.114888888888889</v>
+      </c>
+      <c r="G2931" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2931" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2932">
+      <c r="A2932" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B2932" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2932" s="0">
+        <v>116009</v>
+      </c>
+      <c r="D2932" s="0">
+        <v>0.182911119975656</v>
+      </c>
+      <c r="E2932" s="0">
+        <v>1676</v>
+      </c>
+      <c r="F2932" s="0">
+        <v>0.186222222222222</v>
+      </c>
+      <c r="G2932" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2932" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2933">
+      <c r="A2933" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B2933" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2933" s="0">
+        <v>99002</v>
+      </c>
+      <c r="D2933" s="0">
+        <v>0.156096222705392</v>
+      </c>
+      <c r="E2933" s="0">
+        <v>1344</v>
+      </c>
+      <c r="F2933" s="0">
+        <v>0.149333333333333</v>
+      </c>
+      <c r="G2933" s="0">
+        <v>76</v>
+      </c>
+      <c r="H2933" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2934">
+      <c r="A2934" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B2934" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2934" s="0">
+        <v>95057</v>
+      </c>
+      <c r="D2934" s="0">
+        <v>0.149876150398037</v>
+      </c>
+      <c r="E2934" s="0">
+        <v>1244</v>
+      </c>
+      <c r="F2934" s="0">
+        <v>0.138222222222222</v>
+      </c>
+      <c r="G2934" s="0">
+        <v>243</v>
+      </c>
+      <c r="H2934" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2935">
+      <c r="A2935" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B2935" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2935" s="0">
+        <v>88839</v>
+      </c>
+      <c r="D2935" s="0">
+        <v>0.14007224428723</v>
+      </c>
+      <c r="E2935" s="0">
+        <v>1314</v>
+      </c>
+      <c r="F2935" s="0">
+        <v>0.146</v>
+      </c>
+      <c r="G2935" s="0">
+        <v>637</v>
+      </c>
+      <c r="H2935" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2936">
+      <c r="A2936" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B2936" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2936" s="0">
+        <v>63775</v>
+      </c>
+      <c r="D2936" s="0">
+        <v>0.1005538938914</v>
+      </c>
+      <c r="E2936" s="0">
+        <v>1034</v>
+      </c>
+      <c r="F2936" s="0">
+        <v>0.114888888888889</v>
+      </c>
+      <c r="G2936" s="0">
+        <v>1352</v>
+      </c>
+      <c r="H2936" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2937">
+      <c r="A2937" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B2937" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2937" s="0">
+        <v>38162</v>
+      </c>
+      <c r="D2937" s="0">
+        <v>6.01699364748509E-02</v>
+      </c>
+      <c r="E2937" s="0">
+        <v>608</v>
+      </c>
+      <c r="F2937" s="0">
+        <v>6.75555555555555E-02</v>
+      </c>
+      <c r="G2937" s="0">
+        <v>2286</v>
+      </c>
+      <c r="H2937" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2938">
+      <c r="A2938" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B2938" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2938" s="0">
+        <v>20131</v>
+      </c>
+      <c r="D2938" s="0">
+        <v>3.17405007907139E-02</v>
+      </c>
+      <c r="E2938" s="0">
+        <v>308</v>
+      </c>
+      <c r="F2938" s="0">
+        <v>3.42222222222222E-02</v>
+      </c>
+      <c r="G2938" s="0">
+        <v>2849</v>
+      </c>
+      <c r="H2938" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2939">
+      <c r="A2939" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B2939" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2939" s="0">
+        <v>1016</v>
+      </c>
+      <c r="D2939" s="0">
+        <v>1.60192483251529E-03</v>
+      </c>
+      <c r="E2939" s="0">
+        <v>-24</v>
+      </c>
+      <c r="F2939" s="0">
+        <v>-2.66666666666667E-03</v>
+      </c>
+      <c r="G2939" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2939" s="0">
         <v>0</v>
       </c>
     </row>
@@ -81532,11 +81812,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2514</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2524</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2514</Url>
-      <Description>HJYU5V3E37X6-122305290-2514</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2524</Url>
+      <Description>HJYU5V3E37X6-122305290-2524</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -81559,17 +81839,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEC9D6C-18F0-448D-97F9-FC6E44D6320B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A417DF-2504-406F-83E9-05C973BB3B09}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79E3EACA-B271-48CF-A5C3-ABAA57682640}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12EA0D4E-8AA5-49AB-A261-3391949A81C8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49C8BB73-279A-45D0-8013-AC1F8932C38D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004EEC6F-3494-4C6E-9F63-B70A077AAEC9}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B41D673A-46CA-464E-B774-9C8BFCF6CA1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43467556-B048-435A-BD4A-655F7B4AD261}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2939</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2949</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2939"/>
+  <dimension ref="A1:H2949"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -81381,6 +81381,286 @@
       </c>
       <c r="H2939" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2940">
+      <c r="A2940" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B2940" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2940" s="0">
+        <v>32638</v>
+      </c>
+      <c r="D2940" s="0">
+        <v>5.09486330131157E-02</v>
+      </c>
+      <c r="E2940" s="0">
+        <v>328</v>
+      </c>
+      <c r="F2940" s="0">
+        <v>0.051499450463181</v>
+      </c>
+      <c r="G2940" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2940" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2941">
+      <c r="A2941" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B2941" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2941" s="0">
+        <v>80691</v>
+      </c>
+      <c r="D2941" s="0">
+        <v>0.125960418728516</v>
+      </c>
+      <c r="E2941" s="0">
+        <v>755</v>
+      </c>
+      <c r="F2941" s="0">
+        <v>0.118542942377139</v>
+      </c>
+      <c r="G2941" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2941" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2942">
+      <c r="A2942" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B2942" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2942" s="0">
+        <v>117143</v>
+      </c>
+      <c r="D2942" s="0">
+        <v>0.182862789296385</v>
+      </c>
+      <c r="E2942" s="0">
+        <v>1134</v>
+      </c>
+      <c r="F2942" s="0">
+        <v>0.178049929345266</v>
+      </c>
+      <c r="G2942" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2942" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2943">
+      <c r="A2943" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B2943" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2943" s="0">
+        <v>99907</v>
+      </c>
+      <c r="D2943" s="0">
+        <v>0.155957015700758</v>
+      </c>
+      <c r="E2943" s="0">
+        <v>905</v>
+      </c>
+      <c r="F2943" s="0">
+        <v>0.142094520332862</v>
+      </c>
+      <c r="G2943" s="0">
+        <v>77</v>
+      </c>
+      <c r="H2943" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2944">
+      <c r="A2944" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B2944" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2944" s="0">
+        <v>95962</v>
+      </c>
+      <c r="D2944" s="0">
+        <v>0.149798784276139</v>
+      </c>
+      <c r="E2944" s="0">
+        <v>905</v>
+      </c>
+      <c r="F2944" s="0">
+        <v>0.142094520332862</v>
+      </c>
+      <c r="G2944" s="0">
+        <v>247</v>
+      </c>
+      <c r="H2944" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2945">
+      <c r="A2945" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B2945" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2945" s="0">
+        <v>89790</v>
+      </c>
+      <c r="D2945" s="0">
+        <v>0.14016415706378</v>
+      </c>
+      <c r="E2945" s="0">
+        <v>951</v>
+      </c>
+      <c r="F2945" s="0">
+        <v>0.149317004239284</v>
+      </c>
+      <c r="G2945" s="0">
+        <v>645</v>
+      </c>
+      <c r="H2945" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2946">
+      <c r="A2946" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B2946" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2946" s="0">
+        <v>64454</v>
+      </c>
+      <c r="D2946" s="0">
+        <v>0.100614106018364</v>
+      </c>
+      <c r="E2946" s="0">
+        <v>679</v>
+      </c>
+      <c r="F2946" s="0">
+        <v>0.106610142879573</v>
+      </c>
+      <c r="G2946" s="0">
+        <v>1378</v>
+      </c>
+      <c r="H2946" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2947">
+      <c r="A2947" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B2947" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2947" s="0">
+        <v>38622</v>
+      </c>
+      <c r="D2947" s="0">
+        <v>6.02897881068863E-02</v>
+      </c>
+      <c r="E2947" s="0">
+        <v>460</v>
+      </c>
+      <c r="F2947" s="0">
+        <v>7.22248390642173E-02</v>
+      </c>
+      <c r="G2947" s="0">
+        <v>2319</v>
+      </c>
+      <c r="H2947" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2948">
+      <c r="A2948" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B2948" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2948" s="0">
+        <v>20385</v>
+      </c>
+      <c r="D2948" s="0">
+        <v>3.18214315819708E-02</v>
+      </c>
+      <c r="E2948" s="0">
+        <v>254</v>
+      </c>
+      <c r="F2948" s="0">
+        <v>3.98806720050243E-02</v>
+      </c>
+      <c r="G2948" s="0">
+        <v>2902</v>
+      </c>
+      <c r="H2948" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2949">
+      <c r="A2949" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B2949" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2949" s="0">
+        <v>1014</v>
+      </c>
+      <c r="D2949" s="0">
+        <v>1.58287621408479E-03</v>
+      </c>
+      <c r="E2949" s="0">
+        <v>-2</v>
+      </c>
+      <c r="F2949" s="0">
+        <v>-3.1402103940964E-04</v>
+      </c>
+      <c r="G2949" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2949" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -81812,11 +82092,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2524</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2536</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2524</Url>
-      <Description>HJYU5V3E37X6-122305290-2524</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2536</Url>
+      <Description>HJYU5V3E37X6-122305290-2536</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -81839,17 +82119,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A417DF-2504-406F-83E9-05C973BB3B09}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87D0DEBE-96FF-4A86-8C24-86B92DC95CC2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12EA0D4E-8AA5-49AB-A261-3391949A81C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72AAC809-62F8-4B0F-951C-E1BAFDE2429A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004EEC6F-3494-4C6E-9F63-B70A077AAEC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0EACC4-4DFF-4C26-B39C-BDCC5E2FBA03}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43467556-B048-435A-BD4A-655F7B4AD261}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531D7254-D949-449B-A7A7-5A63FEA46544}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2949</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2959</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2949"/>
+  <dimension ref="A1:H2959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -81661,6 +81661,286 @@
       </c>
       <c r="H2949" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2950">
+      <c r="A2950" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B2950" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2950" s="0">
+        <v>33025</v>
+      </c>
+      <c r="D2950" s="0">
+        <v>5.10867043081445E-02</v>
+      </c>
+      <c r="E2950" s="0">
+        <v>387</v>
+      </c>
+      <c r="F2950" s="0">
+        <v>6.62217659137577E-02</v>
+      </c>
+      <c r="G2950" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2950" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2951">
+      <c r="A2951" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B2951" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2951" s="0">
+        <v>81381</v>
+      </c>
+      <c r="D2951" s="0">
+        <v>0.125889086549617</v>
+      </c>
+      <c r="E2951" s="0">
+        <v>690</v>
+      </c>
+      <c r="F2951" s="0">
+        <v>0.118069815195072</v>
+      </c>
+      <c r="G2951" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2951" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2952">
+      <c r="A2952" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B2952" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2952" s="0">
+        <v>118223</v>
+      </c>
+      <c r="D2952" s="0">
+        <v>0.182880346507851</v>
+      </c>
+      <c r="E2952" s="0">
+        <v>1080</v>
+      </c>
+      <c r="F2952" s="0">
+        <v>0.184804928131417</v>
+      </c>
+      <c r="G2952" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2952" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2953">
+      <c r="A2953" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B2953" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2953" s="0">
+        <v>100811</v>
+      </c>
+      <c r="D2953" s="0">
+        <v>0.155945548766339</v>
+      </c>
+      <c r="E2953" s="0">
+        <v>904</v>
+      </c>
+      <c r="F2953" s="0">
+        <v>0.154688569472964</v>
+      </c>
+      <c r="G2953" s="0">
+        <v>77</v>
+      </c>
+      <c r="H2953" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2954">
+      <c r="A2954" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B2954" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2954" s="0">
+        <v>96793</v>
+      </c>
+      <c r="D2954" s="0">
+        <v>0.149730064196767</v>
+      </c>
+      <c r="E2954" s="0">
+        <v>831</v>
+      </c>
+      <c r="F2954" s="0">
+        <v>0.142197125256674</v>
+      </c>
+      <c r="G2954" s="0">
+        <v>249</v>
+      </c>
+      <c r="H2954" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2955">
+      <c r="A2955" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B2955" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2955" s="0">
+        <v>90612</v>
+      </c>
+      <c r="D2955" s="0">
+        <v>0.140168613195143</v>
+      </c>
+      <c r="E2955" s="0">
+        <v>822</v>
+      </c>
+      <c r="F2955" s="0">
+        <v>0.140657084188912</v>
+      </c>
+      <c r="G2955" s="0">
+        <v>653</v>
+      </c>
+      <c r="H2955" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2956">
+      <c r="A2956" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B2956" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2956" s="0">
+        <v>65065</v>
+      </c>
+      <c r="D2956" s="0">
+        <v>0.100649702219816</v>
+      </c>
+      <c r="E2956" s="0">
+        <v>611</v>
+      </c>
+      <c r="F2956" s="0">
+        <v>0.104551676933607</v>
+      </c>
+      <c r="G2956" s="0">
+        <v>1395</v>
+      </c>
+      <c r="H2956" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2957">
+      <c r="A2957" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B2957" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2957" s="0">
+        <v>38994</v>
+      </c>
+      <c r="D2957" s="0">
+        <v>6.03202103797664E-02</v>
+      </c>
+      <c r="E2957" s="0">
+        <v>372</v>
+      </c>
+      <c r="F2957" s="0">
+        <v>6.36550308008214E-02</v>
+      </c>
+      <c r="G2957" s="0">
+        <v>2350</v>
+      </c>
+      <c r="H2957" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2958">
+      <c r="A2958" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B2958" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2958" s="0">
+        <v>20544</v>
+      </c>
+      <c r="D2958" s="0">
+        <v>3.17797200092815E-02</v>
+      </c>
+      <c r="E2958" s="0">
+        <v>159</v>
+      </c>
+      <c r="F2958" s="0">
+        <v>2.72073921971253E-02</v>
+      </c>
+      <c r="G2958" s="0">
+        <v>2930</v>
+      </c>
+      <c r="H2958" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2959">
+      <c r="A2959" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B2959" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2959" s="0">
+        <v>1002</v>
+      </c>
+      <c r="D2959" s="0">
+        <v>1.55000386727512E-03</v>
+      </c>
+      <c r="E2959" s="0">
+        <v>-12</v>
+      </c>
+      <c r="F2959" s="0">
+        <v>-2.05338809034908E-03</v>
+      </c>
+      <c r="G2959" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2959" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -82091,13 +82371,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2536</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2536</Url>
-      <Description>HJYU5V3E37X6-122305290-2536</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -82112,24 +82385,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2547</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2547</Url>
+      <Description>HJYU5V3E37X6-122305290-2547</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87D0DEBE-96FF-4A86-8C24-86B92DC95CC2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA838C94-9712-4FD1-ADC1-615AF9239B01}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72AAC809-62F8-4B0F-951C-E1BAFDE2429A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5026E5-479F-45E4-8830-0C4F468F0AB6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0EACC4-4DFF-4C26-B39C-BDCC5E2FBA03}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC980A77-CC92-499D-9F2F-DBE52512402B}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531D7254-D949-449B-A7A7-5A63FEA46544}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ED791DB-54FC-462C-A934-C7B7C159A97C}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2959</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2969</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2959"/>
+  <dimension ref="A1:H2969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -81940,6 +81940,286 @@
         <v>2</v>
       </c>
       <c r="H2959" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2960">
+      <c r="A2960" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B2960" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2960" s="0">
+        <v>33456</v>
+      </c>
+      <c r="D2960" s="0">
+        <v>5.11662121923505E-02</v>
+      </c>
+      <c r="E2960" s="0">
+        <v>431</v>
+      </c>
+      <c r="F2960" s="0">
+        <v>5.80940827604799E-02</v>
+      </c>
+      <c r="G2960" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2960" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2961">
+      <c r="A2961" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B2961" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2961" s="0">
+        <v>82374</v>
+      </c>
+      <c r="D2961" s="0">
+        <v>0.125979362838734</v>
+      </c>
+      <c r="E2961" s="0">
+        <v>993</v>
+      </c>
+      <c r="F2961" s="0">
+        <v>0.133845531742822</v>
+      </c>
+      <c r="G2961" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2961" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2962">
+      <c r="A2962" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B2962" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2962" s="0">
+        <v>119542</v>
+      </c>
+      <c r="D2962" s="0">
+        <v>0.182822553141378</v>
+      </c>
+      <c r="E2962" s="0">
+        <v>1319</v>
+      </c>
+      <c r="F2962" s="0">
+        <v>0.177786763714786</v>
+      </c>
+      <c r="G2962" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2962" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2963">
+      <c r="A2963" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B2963" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2963" s="0">
+        <v>101937</v>
+      </c>
+      <c r="D2963" s="0">
+        <v>0.155898199792313</v>
+      </c>
+      <c r="E2963" s="0">
+        <v>1126</v>
+      </c>
+      <c r="F2963" s="0">
+        <v>0.151772476074943</v>
+      </c>
+      <c r="G2963" s="0">
+        <v>78</v>
+      </c>
+      <c r="H2963" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2964">
+      <c r="A2964" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B2964" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2964" s="0">
+        <v>97854</v>
+      </c>
+      <c r="D2964" s="0">
+        <v>0.149653829742655</v>
+      </c>
+      <c r="E2964" s="0">
+        <v>1061</v>
+      </c>
+      <c r="F2964" s="0">
+        <v>0.143011187491576</v>
+      </c>
+      <c r="G2964" s="0">
+        <v>252</v>
+      </c>
+      <c r="H2964" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2965">
+      <c r="A2965" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B2965" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2965" s="0">
+        <v>91603</v>
+      </c>
+      <c r="D2965" s="0">
+        <v>0.140093810839786</v>
+      </c>
+      <c r="E2965" s="0">
+        <v>991</v>
+      </c>
+      <c r="F2965" s="0">
+        <v>0.133575953632565</v>
+      </c>
+      <c r="G2965" s="0">
+        <v>660</v>
+      </c>
+      <c r="H2965" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2966">
+      <c r="A2966" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B2966" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2966" s="0">
+        <v>65833</v>
+      </c>
+      <c r="D2966" s="0">
+        <v>0.100682246749731</v>
+      </c>
+      <c r="E2966" s="0">
+        <v>768</v>
+      </c>
+      <c r="F2966" s="0">
+        <v>0.10351799433886</v>
+      </c>
+      <c r="G2966" s="0">
+        <v>1409</v>
+      </c>
+      <c r="H2966" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2967">
+      <c r="A2967" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B2967" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2967" s="0">
+        <v>39447</v>
+      </c>
+      <c r="D2967" s="0">
+        <v>6.03285979301664E-02</v>
+      </c>
+      <c r="E2967" s="0">
+        <v>453</v>
+      </c>
+      <c r="F2967" s="0">
+        <v>6.10594419733118E-02</v>
+      </c>
+      <c r="G2967" s="0">
+        <v>2371</v>
+      </c>
+      <c r="H2967" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2968">
+      <c r="A2968" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B2968" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2968" s="0">
+        <v>20815</v>
+      </c>
+      <c r="D2968" s="0">
+        <v>0.031833593579142</v>
+      </c>
+      <c r="E2968" s="0">
+        <v>271</v>
+      </c>
+      <c r="F2968" s="0">
+        <v>3.65278339398841E-02</v>
+      </c>
+      <c r="G2968" s="0">
+        <v>2965</v>
+      </c>
+      <c r="H2968" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2969">
+      <c r="A2969" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B2969" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2969" s="0">
+        <v>1008</v>
+      </c>
+      <c r="D2969" s="0">
+        <v>1.5415931937437E-03</v>
+      </c>
+      <c r="E2969" s="0">
+        <v>6</v>
+      </c>
+      <c r="F2969" s="0">
+        <v>8.08734330772341E-04</v>
+      </c>
+      <c r="G2969" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2969" s="0">
         <v>0</v>
       </c>
     </row>
@@ -82371,6 +82651,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2558</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2558</Url>
+      <Description>HJYU5V3E37X6-122305290-2558</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -82385,31 +82672,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2547</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2547</Url>
-      <Description>HJYU5V3E37X6-122305290-2547</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA838C94-9712-4FD1-ADC1-615AF9239B01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A9E01ED-1A76-4ADC-9A9F-CABFFBF90217}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5026E5-479F-45E4-8830-0C4F468F0AB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F99464B-2EBB-40C2-9234-C3C1A2EB45CF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC980A77-CC92-499D-9F2F-DBE52512402B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42ABBF12-4F7A-4989-9C91-068EA55BC668}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ED791DB-54FC-462C-A934-C7B7C159A97C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A6DBA0-12A2-46AA-B1C3-47295B22A916}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2969</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2979</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2969"/>
+  <dimension ref="A1:H2979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -82220,6 +82220,286 @@
         <v>2</v>
       </c>
       <c r="H2969" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2970">
+      <c r="A2970" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B2970" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2970" s="0">
+        <v>33624</v>
+      </c>
+      <c r="D2970" s="0">
+        <v>5.11472537100925E-02</v>
+      </c>
+      <c r="E2970" s="0">
+        <v>168</v>
+      </c>
+      <c r="F2970" s="0">
+        <v>4.76325489084208E-02</v>
+      </c>
+      <c r="G2970" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2970" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2971">
+      <c r="A2971" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B2971" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2971" s="0">
+        <v>82786</v>
+      </c>
+      <c r="D2971" s="0">
+        <v>0.125930185154762</v>
+      </c>
+      <c r="E2971" s="0">
+        <v>412</v>
+      </c>
+      <c r="F2971" s="0">
+        <v>0.116813155656365</v>
+      </c>
+      <c r="G2971" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2971" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2972">
+      <c r="A2972" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B2972" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2972" s="0">
+        <v>120222</v>
+      </c>
+      <c r="D2972" s="0">
+        <v>0.182876074694705</v>
+      </c>
+      <c r="E2972" s="0">
+        <v>680</v>
+      </c>
+      <c r="F2972" s="0">
+        <v>0.19279841224837</v>
+      </c>
+      <c r="G2972" s="0">
+        <v>42</v>
+      </c>
+      <c r="H2972" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2973">
+      <c r="A2973" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B2973" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2973" s="0">
+        <v>102463</v>
+      </c>
+      <c r="D2973" s="0">
+        <v>0.155861915801131</v>
+      </c>
+      <c r="E2973" s="0">
+        <v>526</v>
+      </c>
+      <c r="F2973" s="0">
+        <v>0.149135242415651</v>
+      </c>
+      <c r="G2973" s="0">
+        <v>79</v>
+      </c>
+      <c r="H2973" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2974">
+      <c r="A2974" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B2974" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2974" s="0">
+        <v>98371</v>
+      </c>
+      <c r="D2974" s="0">
+        <v>0.149637357087661</v>
+      </c>
+      <c r="E2974" s="0">
+        <v>517</v>
+      </c>
+      <c r="F2974" s="0">
+        <v>0.146583498724128</v>
+      </c>
+      <c r="G2974" s="0">
+        <v>255</v>
+      </c>
+      <c r="H2974" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2975">
+      <c r="A2975" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B2975" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2975" s="0">
+        <v>92074</v>
+      </c>
+      <c r="D2975" s="0">
+        <v>0.140058655665687</v>
+      </c>
+      <c r="E2975" s="0">
+        <v>471</v>
+      </c>
+      <c r="F2975" s="0">
+        <v>0.13354125318968</v>
+      </c>
+      <c r="G2975" s="0">
+        <v>663</v>
+      </c>
+      <c r="H2975" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2976">
+      <c r="A2976" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B2976" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2976" s="0">
+        <v>66236</v>
+      </c>
+      <c r="D2976" s="0">
+        <v>0.100755100426531</v>
+      </c>
+      <c r="E2976" s="0">
+        <v>403</v>
+      </c>
+      <c r="F2976" s="0">
+        <v>0.114261411964843</v>
+      </c>
+      <c r="G2976" s="0">
+        <v>1419</v>
+      </c>
+      <c r="H2976" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2977">
+      <c r="A2977" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B2977" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2977" s="0">
+        <v>39682</v>
+      </c>
+      <c r="D2977" s="0">
+        <v>6.03623995278341E-02</v>
+      </c>
+      <c r="E2977" s="0">
+        <v>235</v>
+      </c>
+      <c r="F2977" s="0">
+        <v>6.66288630564219E-02</v>
+      </c>
+      <c r="G2977" s="0">
+        <v>2394</v>
+      </c>
+      <c r="H2977" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2978">
+      <c r="A2978" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B2978" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2978" s="0">
+        <v>20934</v>
+      </c>
+      <c r="D2978" s="0">
+        <v>3.18438201631893E-02</v>
+      </c>
+      <c r="E2978" s="0">
+        <v>119</v>
+      </c>
+      <c r="F2978" s="0">
+        <v>3.37397221434647E-02</v>
+      </c>
+      <c r="G2978" s="0">
+        <v>3003</v>
+      </c>
+      <c r="H2978" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2979">
+      <c r="A2979" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B2979" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2979" s="0">
+        <v>1004</v>
+      </c>
+      <c r="D2979" s="0">
+        <v>1.52723776840747E-03</v>
+      </c>
+      <c r="E2979" s="0">
+        <v>-4</v>
+      </c>
+      <c r="F2979" s="0">
+        <v>-1.13410830734335E-03</v>
+      </c>
+      <c r="G2979" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2979" s="0">
         <v>0</v>
       </c>
     </row>
@@ -82652,11 +82932,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2558</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2579</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2558</Url>
-      <Description>HJYU5V3E37X6-122305290-2558</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2579</Url>
+      <Description>HJYU5V3E37X6-122305290-2579</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -82679,17 +82959,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A9E01ED-1A76-4ADC-9A9F-CABFFBF90217}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE31F66D-D739-4E93-A0E6-76DAADFBDC80}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F99464B-2EBB-40C2-9234-C3C1A2EB45CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{958AF13E-258C-425D-AB3F-0EF42D585FE8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42ABBF12-4F7A-4989-9C91-068EA55BC668}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D300AAC7-C9B7-4DB6-BEAE-D688417733C0}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A6DBA0-12A2-46AA-B1C3-47295B22A916}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864C96A2-8EA4-4F97-BAE5-8E6949C7AB5B}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2979</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2989</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2979"/>
+  <dimension ref="A1:H2989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -82500,6 +82500,286 @@
         <v>2</v>
       </c>
       <c r="H2979" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2980">
+      <c r="A2980" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B2980" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2980" s="0">
+        <v>33819</v>
+      </c>
+      <c r="D2980" s="0">
+        <v>5.11731434433795E-02</v>
+      </c>
+      <c r="E2980" s="0">
+        <v>195</v>
+      </c>
+      <c r="F2980" s="0">
+        <v>5.60667050028752E-02</v>
+      </c>
+      <c r="G2980" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2980" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2981">
+      <c r="A2981" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B2981" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2981" s="0">
+        <v>83249</v>
+      </c>
+      <c r="D2981" s="0">
+        <v>0.125968036267125</v>
+      </c>
+      <c r="E2981" s="0">
+        <v>463</v>
+      </c>
+      <c r="F2981" s="0">
+        <v>0.133122484186314</v>
+      </c>
+      <c r="G2981" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2981" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2982">
+      <c r="A2982" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B2982" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2982" s="0">
+        <v>120864</v>
+      </c>
+      <c r="D2982" s="0">
+        <v>0.182885088534274</v>
+      </c>
+      <c r="E2982" s="0">
+        <v>642</v>
+      </c>
+      <c r="F2982" s="0">
+        <v>0.184588844163312</v>
+      </c>
+      <c r="G2982" s="0">
+        <v>39</v>
+      </c>
+      <c r="H2982" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2983">
+      <c r="A2983" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B2983" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2983" s="0">
+        <v>102994</v>
+      </c>
+      <c r="D2983" s="0">
+        <v>0.155845138407624</v>
+      </c>
+      <c r="E2983" s="0">
+        <v>531</v>
+      </c>
+      <c r="F2983" s="0">
+        <v>0.152673950546291</v>
+      </c>
+      <c r="G2983" s="0">
+        <v>81</v>
+      </c>
+      <c r="H2983" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2984">
+      <c r="A2984" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B2984" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2984" s="0">
+        <v>98861</v>
+      </c>
+      <c r="D2984" s="0">
+        <v>0.149591298795232</v>
+      </c>
+      <c r="E2984" s="0">
+        <v>490</v>
+      </c>
+      <c r="F2984" s="0">
+        <v>0.140885566417481</v>
+      </c>
+      <c r="G2984" s="0">
+        <v>259</v>
+      </c>
+      <c r="H2984" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2985">
+      <c r="A2985" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B2985" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2985" s="0">
+        <v>92558</v>
+      </c>
+      <c r="D2985" s="0">
+        <v>0.140053928585479</v>
+      </c>
+      <c r="E2985" s="0">
+        <v>484</v>
+      </c>
+      <c r="F2985" s="0">
+        <v>0.139160437032777</v>
+      </c>
+      <c r="G2985" s="0">
+        <v>675</v>
+      </c>
+      <c r="H2985" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2986">
+      <c r="A2986" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B2986" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2986" s="0">
+        <v>66616</v>
+      </c>
+      <c r="D2986" s="0">
+        <v>0.100799849895744</v>
+      </c>
+      <c r="E2986" s="0">
+        <v>380</v>
+      </c>
+      <c r="F2986" s="0">
+        <v>0.109258194364577</v>
+      </c>
+      <c r="G2986" s="0">
+        <v>1457</v>
+      </c>
+      <c r="H2986" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2987">
+      <c r="A2987" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B2987" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2987" s="0">
+        <v>39876</v>
+      </c>
+      <c r="D2987" s="0">
+        <v>6.03382793089152E-02</v>
+      </c>
+      <c r="E2987" s="0">
+        <v>194</v>
+      </c>
+      <c r="F2987" s="0">
+        <v>5.57791834387579E-02</v>
+      </c>
+      <c r="G2987" s="0">
+        <v>2433</v>
+      </c>
+      <c r="H2987" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2988">
+      <c r="A2988" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B2988" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2988" s="0">
+        <v>21043</v>
+      </c>
+      <c r="D2988" s="0">
+        <v>3.18411679079522E-02</v>
+      </c>
+      <c r="E2988" s="0">
+        <v>109</v>
+      </c>
+      <c r="F2988" s="0">
+        <v>3.13398504887867E-02</v>
+      </c>
+      <c r="G2988" s="0">
+        <v>3058</v>
+      </c>
+      <c r="H2988" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2989">
+      <c r="A2989" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B2989" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2989" s="0">
+        <v>994</v>
+      </c>
+      <c r="D2989" s="0">
+        <v>1.50406885427479E-03</v>
+      </c>
+      <c r="E2989" s="0">
+        <v>-10</v>
+      </c>
+      <c r="F2989" s="0">
+        <v>-2.87521564117309E-03</v>
+      </c>
+      <c r="G2989" s="0">
+        <v>2</v>
+      </c>
+      <c r="H2989" s="0">
         <v>0</v>
       </c>
     </row>
@@ -82932,11 +83212,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2579</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2590</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2579</Url>
-      <Description>HJYU5V3E37X6-122305290-2579</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2590</Url>
+      <Description>HJYU5V3E37X6-122305290-2590</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -82959,17 +83239,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE31F66D-D739-4E93-A0E6-76DAADFBDC80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC0A4A31-9754-4E9C-ABED-F80B8506DA78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{958AF13E-258C-425D-AB3F-0EF42D585FE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92F9510B-38B7-4490-8B1B-D8F2834173D0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D300AAC7-C9B7-4DB6-BEAE-D688417733C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0935DF9-49D8-4CF2-AC95-6284E322DB0F}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864C96A2-8EA4-4F97-BAE5-8E6949C7AB5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E822635-3F13-482A-B25E-57D12E9DC2E0}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2989</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2999</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2989"/>
+  <dimension ref="A1:H2999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -82780,6 +82780,286 @@
         <v>2</v>
       </c>
       <c r="H2989" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2990">
+      <c r="A2990" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B2990" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C2990" s="0">
+        <v>34063</v>
+      </c>
+      <c r="D2990" s="0">
+        <v>5.11841490370384E-02</v>
+      </c>
+      <c r="E2990" s="0">
+        <v>244</v>
+      </c>
+      <c r="F2990" s="0">
+        <v>5.27567567567568E-02</v>
+      </c>
+      <c r="G2990" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2990" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2991">
+      <c r="A2991" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B2991" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C2991" s="0">
+        <v>83784</v>
+      </c>
+      <c r="D2991" s="0">
+        <v>0.125896507733295</v>
+      </c>
+      <c r="E2991" s="0">
+        <v>535</v>
+      </c>
+      <c r="F2991" s="0">
+        <v>0.115675675675676</v>
+      </c>
+      <c r="G2991" s="0">
+        <v>3</v>
+      </c>
+      <c r="H2991" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2992">
+      <c r="A2992" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B2992" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C2992" s="0">
+        <v>121677</v>
+      </c>
+      <c r="D2992" s="0">
+        <v>0.182835736792993</v>
+      </c>
+      <c r="E2992" s="0">
+        <v>813</v>
+      </c>
+      <c r="F2992" s="0">
+        <v>0.175783783783784</v>
+      </c>
+      <c r="G2992" s="0">
+        <v>39</v>
+      </c>
+      <c r="H2992" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2993">
+      <c r="A2993" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B2993" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C2993" s="0">
+        <v>103658</v>
+      </c>
+      <c r="D2993" s="0">
+        <v>0.155759813313018</v>
+      </c>
+      <c r="E2993" s="0">
+        <v>664</v>
+      </c>
+      <c r="F2993" s="0">
+        <v>0.143567567567568</v>
+      </c>
+      <c r="G2993" s="0">
+        <v>82</v>
+      </c>
+      <c r="H2993" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2994">
+      <c r="A2994" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B2994" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C2994" s="0">
+        <v>99551</v>
+      </c>
+      <c r="D2994" s="0">
+        <v>0.149588504265221</v>
+      </c>
+      <c r="E2994" s="0">
+        <v>690</v>
+      </c>
+      <c r="F2994" s="0">
+        <v>0.149189189189189</v>
+      </c>
+      <c r="G2994" s="0">
+        <v>267</v>
+      </c>
+      <c r="H2994" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2995">
+      <c r="A2995" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B2995" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C2995" s="0">
+        <v>93240</v>
+      </c>
+      <c r="D2995" s="0">
+        <v>0.14010539459864</v>
+      </c>
+      <c r="E2995" s="0">
+        <v>682</v>
+      </c>
+      <c r="F2995" s="0">
+        <v>0.147459459459459</v>
+      </c>
+      <c r="G2995" s="0">
+        <v>689</v>
+      </c>
+      <c r="H2995" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2996">
+      <c r="A2996" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B2996" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C2996" s="0">
+        <v>67149</v>
+      </c>
+      <c r="D2996" s="0">
+        <v>0.100900226747148</v>
+      </c>
+      <c r="E2996" s="0">
+        <v>533</v>
+      </c>
+      <c r="F2996" s="0">
+        <v>0.115243243243243</v>
+      </c>
+      <c r="G2996" s="0">
+        <v>1476</v>
+      </c>
+      <c r="H2996" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2997">
+      <c r="A2997" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B2997" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C2997" s="0">
+        <v>40191</v>
+      </c>
+      <c r="D2997" s="0">
+        <v>6.03922770732939E-02</v>
+      </c>
+      <c r="E2997" s="0">
+        <v>315</v>
+      </c>
+      <c r="F2997" s="0">
+        <v>6.81081081081081E-02</v>
+      </c>
+      <c r="G2997" s="0">
+        <v>2478</v>
+      </c>
+      <c r="H2997" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2998">
+      <c r="A2998" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B2998" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C2998" s="0">
+        <v>21204</v>
+      </c>
+      <c r="D2998" s="0">
+        <v>3.18618059531269E-02</v>
+      </c>
+      <c r="E2998" s="0">
+        <v>161</v>
+      </c>
+      <c r="F2998" s="0">
+        <v>3.48108108108108E-02</v>
+      </c>
+      <c r="G2998" s="0">
+        <v>3110</v>
+      </c>
+      <c r="H2998" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2999">
+      <c r="A2999" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B2999" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C2999" s="0">
+        <v>982</v>
+      </c>
+      <c r="D2999" s="0">
+        <v>1.47558448622763E-03</v>
+      </c>
+      <c r="E2999" s="0">
+        <v>-12</v>
+      </c>
+      <c r="F2999" s="0">
+        <v>-2.59459459459459E-03</v>
+      </c>
+      <c r="G2999" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2999" s="0">
         <v>0</v>
       </c>
     </row>
@@ -83211,13 +83491,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2590</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2590</Url>
-      <Description>HJYU5V3E37X6-122305290-2590</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -83232,24 +83505,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2601</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2601</Url>
+      <Description>HJYU5V3E37X6-122305290-2601</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC0A4A31-9754-4E9C-ABED-F80B8506DA78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7846C15A-7EFB-4916-8FEF-491E92A7D9DE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92F9510B-38B7-4490-8B1B-D8F2834173D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C16754E-B587-4B7D-BFDA-9ACDB477497E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0935DF9-49D8-4CF2-AC95-6284E322DB0F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0ACA75A-DBA7-4D11-A1DB-B11E42F8401C}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E822635-3F13-482A-B25E-57D12E9DC2E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5707A763-535C-4F21-9082-B513267759C7}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$2999</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3009</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2999"/>
+  <dimension ref="A1:H3009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -83060,6 +83060,286 @@
         <v>0</v>
       </c>
       <c r="H2999" s="0">
+        <v>-2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3000">
+      <c r="A3000" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B3000" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3000" s="0">
+        <v>34350</v>
+      </c>
+      <c r="D3000" s="0">
+        <v>5.12318004062749E-02</v>
+      </c>
+      <c r="E3000" s="0">
+        <v>287</v>
+      </c>
+      <c r="F3000" s="0">
+        <v>5.75958258077463E-02</v>
+      </c>
+      <c r="G3000" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3000" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3001">
+      <c r="A3001" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B3001" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3001" s="0">
+        <v>84379</v>
+      </c>
+      <c r="D3001" s="0">
+        <v>0.125848270348794</v>
+      </c>
+      <c r="E3001" s="0">
+        <v>595</v>
+      </c>
+      <c r="F3001" s="0">
+        <v>0.119405980333133</v>
+      </c>
+      <c r="G3001" s="0">
+        <v>3</v>
+      </c>
+      <c r="H3001" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3002">
+      <c r="A3002" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B3002" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3002" s="0">
+        <v>122498</v>
+      </c>
+      <c r="D3002" s="0">
+        <v>0.182701399888438</v>
+      </c>
+      <c r="E3002" s="0">
+        <v>821</v>
+      </c>
+      <c r="F3002" s="0">
+        <v>0.164760184627734</v>
+      </c>
+      <c r="G3002" s="0">
+        <v>39</v>
+      </c>
+      <c r="H3002" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3003">
+      <c r="A3003" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B3003" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3003" s="0">
+        <v>104431</v>
+      </c>
+      <c r="D3003" s="0">
+        <v>0.155755113485522</v>
+      </c>
+      <c r="E3003" s="0">
+        <v>773</v>
+      </c>
+      <c r="F3003" s="0">
+        <v>0.155127433273129</v>
+      </c>
+      <c r="G3003" s="0">
+        <v>82</v>
+      </c>
+      <c r="H3003" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3004">
+      <c r="A3004" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B3004" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3004" s="0">
+        <v>100321</v>
+      </c>
+      <c r="D3004" s="0">
+        <v>0.149625195008964</v>
+      </c>
+      <c r="E3004" s="0">
+        <v>770</v>
+      </c>
+      <c r="F3004" s="0">
+        <v>0.154525386313466</v>
+      </c>
+      <c r="G3004" s="0">
+        <v>269</v>
+      </c>
+      <c r="H3004" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3005">
+      <c r="A3005" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B3005" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3005" s="0">
+        <v>93992</v>
+      </c>
+      <c r="D3005" s="0">
+        <v>0.140185717140803</v>
+      </c>
+      <c r="E3005" s="0">
+        <v>752</v>
+      </c>
+      <c r="F3005" s="0">
+        <v>0.150913104555489</v>
+      </c>
+      <c r="G3005" s="0">
+        <v>692</v>
+      </c>
+      <c r="H3005" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3006">
+      <c r="A3006" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B3006" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3006" s="0">
+        <v>67651</v>
+      </c>
+      <c r="D3006" s="0">
+        <v>0.100899054709895</v>
+      </c>
+      <c r="E3006" s="0">
+        <v>502</v>
+      </c>
+      <c r="F3006" s="0">
+        <v>0.100742524583584</v>
+      </c>
+      <c r="G3006" s="0">
+        <v>1496</v>
+      </c>
+      <c r="H3006" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3007">
+      <c r="A3007" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B3007" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3007" s="0">
+        <v>40511</v>
+      </c>
+      <c r="D3007" s="0">
+        <v>6.04207122637148E-02</v>
+      </c>
+      <c r="E3007" s="0">
+        <v>320</v>
+      </c>
+      <c r="F3007" s="0">
+        <v>6.42183423640377E-02</v>
+      </c>
+      <c r="G3007" s="0">
+        <v>2499</v>
+      </c>
+      <c r="H3007" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3008">
+      <c r="A3008" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B3008" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3008" s="0">
+        <v>21371</v>
+      </c>
+      <c r="D3008" s="0">
+        <v>3.18740846137555E-02</v>
+      </c>
+      <c r="E3008" s="0">
+        <v>167</v>
+      </c>
+      <c r="F3008" s="0">
+        <v>3.35139474212322E-02</v>
+      </c>
+      <c r="G3008" s="0">
+        <v>3148</v>
+      </c>
+      <c r="H3008" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3009">
+      <c r="A3009" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B3009" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3009" s="0">
+        <v>978</v>
+      </c>
+      <c r="D3009" s="0">
+        <v>1.45865213383804E-03</v>
+      </c>
+      <c r="E3009" s="0">
+        <v>-4</v>
+      </c>
+      <c r="F3009" s="0">
+        <v>-8.02729279550472E-04</v>
+      </c>
+      <c r="G3009" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3009" s="0">
         <v>0</v>
       </c>
     </row>
@@ -83509,27 +83789,27 @@
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2601</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2612</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2601</Url>
-      <Description>HJYU5V3E37X6-122305290-2601</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2612</Url>
+      <Description>HJYU5V3E37X6-122305290-2612</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7846C15A-7EFB-4916-8FEF-491E92A7D9DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD40D508-F3D9-40B4-9402-203022C606F4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C16754E-B587-4B7D-BFDA-9ACDB477497E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{333FCD02-4EB1-4D1E-A6F5-9424787D3ACE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0ACA75A-DBA7-4D11-A1DB-B11E42F8401C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{819E62C1-694C-4661-BCA4-68494A9E510D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5707A763-535C-4F21-9082-B513267759C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8013BC1-D73D-4300-98A0-DF0659A552A7}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3009</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3019</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3009"/>
+  <dimension ref="A1:H3019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -83340,6 +83340,286 @@
         <v>0</v>
       </c>
       <c r="H3009" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3010">
+      <c r="A3010" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B3010" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3010" s="0">
+        <v>34723</v>
+      </c>
+      <c r="D3010" s="0">
+        <v>5.13624213987655E-02</v>
+      </c>
+      <c r="E3010" s="0">
+        <v>373</v>
+      </c>
+      <c r="F3010" s="0">
+        <v>6.71225481374843E-02</v>
+      </c>
+      <c r="G3010" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3010" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3011">
+      <c r="A3011" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B3011" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3011" s="0">
+        <v>85040</v>
+      </c>
+      <c r="D3011" s="0">
+        <v>0.125791559362699</v>
+      </c>
+      <c r="E3011" s="0">
+        <v>661</v>
+      </c>
+      <c r="F3011" s="0">
+        <v>0.118949073240957</v>
+      </c>
+      <c r="G3011" s="0">
+        <v>3</v>
+      </c>
+      <c r="H3011" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3012">
+      <c r="A3012" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B3012" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3012" s="0">
+        <v>123505</v>
+      </c>
+      <c r="D3012" s="0">
+        <v>0.182689164382528</v>
+      </c>
+      <c r="E3012" s="0">
+        <v>1007</v>
+      </c>
+      <c r="F3012" s="0">
+        <v>0.181212884649991</v>
+      </c>
+      <c r="G3012" s="0">
+        <v>39</v>
+      </c>
+      <c r="H3012" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3013">
+      <c r="A3013" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B3013" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3013" s="0">
+        <v>105205</v>
+      </c>
+      <c r="D3013" s="0">
+        <v>0.155619720164073</v>
+      </c>
+      <c r="E3013" s="0">
+        <v>774</v>
+      </c>
+      <c r="F3013" s="0">
+        <v>0.139283786215584</v>
+      </c>
+      <c r="G3013" s="0">
+        <v>82</v>
+      </c>
+      <c r="H3013" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3014">
+      <c r="A3014" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B3014" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3014" s="0">
+        <v>101118</v>
+      </c>
+      <c r="D3014" s="0">
+        <v>0.149574210955285</v>
+      </c>
+      <c r="E3014" s="0">
+        <v>797</v>
+      </c>
+      <c r="F3014" s="0">
+        <v>0.143422710095375</v>
+      </c>
+      <c r="G3014" s="0">
+        <v>272</v>
+      </c>
+      <c r="H3014" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3015">
+      <c r="A3015" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B3015" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3015" s="0">
+        <v>94772</v>
+      </c>
+      <c r="D3015" s="0">
+        <v>0.14018717855035</v>
+      </c>
+      <c r="E3015" s="0">
+        <v>780</v>
+      </c>
+      <c r="F3015" s="0">
+        <v>0.140363505488573</v>
+      </c>
+      <c r="G3015" s="0">
+        <v>703</v>
+      </c>
+      <c r="H3015" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3016">
+      <c r="A3016" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B3016" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3016" s="0">
+        <v>68226</v>
+      </c>
+      <c r="D3016" s="0">
+        <v>0.100920213182967</v>
+      </c>
+      <c r="E3016" s="0">
+        <v>575</v>
+      </c>
+      <c r="F3016" s="0">
+        <v>0.103473096994781</v>
+      </c>
+      <c r="G3016" s="0">
+        <v>1516</v>
+      </c>
+      <c r="H3016" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3017">
+      <c r="A3017" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B3017" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3017" s="0">
+        <v>40877</v>
+      </c>
+      <c r="D3017" s="0">
+        <v>6.04654465200972E-02</v>
+      </c>
+      <c r="E3017" s="0">
+        <v>366</v>
+      </c>
+      <c r="F3017" s="0">
+        <v>6.58628756523304E-02</v>
+      </c>
+      <c r="G3017" s="0">
+        <v>2522</v>
+      </c>
+      <c r="H3017" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3018">
+      <c r="A3018" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B3018" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3018" s="0">
+        <v>21599</v>
+      </c>
+      <c r="D3018" s="0">
+        <v>3.19493402007872E-02</v>
+      </c>
+      <c r="E3018" s="0">
+        <v>228</v>
+      </c>
+      <c r="F3018" s="0">
+        <v>4.10293323735829E-02</v>
+      </c>
+      <c r="G3018" s="0">
+        <v>3170</v>
+      </c>
+      <c r="H3018" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3019">
+      <c r="A3019" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B3019" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3019" s="0">
+        <v>974</v>
+      </c>
+      <c r="D3019" s="0">
+        <v>1.44074528244672E-03</v>
+      </c>
+      <c r="E3019" s="0">
+        <v>-4</v>
+      </c>
+      <c r="F3019" s="0">
+        <v>-7.19812848659349E-04</v>
+      </c>
+      <c r="G3019" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3019" s="0">
         <v>0</v>
       </c>
     </row>
@@ -83771,6 +84051,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2624</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2624</Url>
+      <Description>HJYU5V3E37X6-122305290-2624</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -83785,31 +84072,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2612</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2612</Url>
-      <Description>HJYU5V3E37X6-122305290-2612</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD40D508-F3D9-40B4-9402-203022C606F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB5F2987-760F-4DCB-89B4-1A623055AB12}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{333FCD02-4EB1-4D1E-A6F5-9424787D3ACE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA4638D-42B4-4D65-ABC5-DBB6A43419F1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{819E62C1-694C-4661-BCA4-68494A9E510D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E1498E4-2172-4B69-BAC6-B4D573645F70}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8013BC1-D73D-4300-98A0-DF0659A552A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC81177C-8E87-45D5-927C-7435395B4205}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3019</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3029</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3019"/>
+  <dimension ref="A1:H3029"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -83620,6 +83620,286 @@
         <v>0</v>
       </c>
       <c r="H3019" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3020">
+      <c r="A3020" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B3020" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3020" s="0">
+        <v>35029</v>
+      </c>
+      <c r="D3020" s="0">
+        <v>5.14491508371191E-02</v>
+      </c>
+      <c r="E3020" s="0">
+        <v>306</v>
+      </c>
+      <c r="F3020" s="0">
+        <v>6.36439267886855E-02</v>
+      </c>
+      <c r="G3020" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3020" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3021">
+      <c r="A3021" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B3021" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3021" s="0">
+        <v>85642</v>
+      </c>
+      <c r="D3021" s="0">
+        <v>0.125787438293772</v>
+      </c>
+      <c r="E3021" s="0">
+        <v>602</v>
+      </c>
+      <c r="F3021" s="0">
+        <v>0.125207986688852</v>
+      </c>
+      <c r="G3021" s="0">
+        <v>3</v>
+      </c>
+      <c r="H3021" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3022">
+      <c r="A3022" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B3022" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3022" s="0">
+        <v>124314</v>
+      </c>
+      <c r="D3022" s="0">
+        <v>0.182587277317811</v>
+      </c>
+      <c r="E3022" s="0">
+        <v>809</v>
+      </c>
+      <c r="F3022" s="0">
+        <v>0.168261231281198</v>
+      </c>
+      <c r="G3022" s="0">
+        <v>39</v>
+      </c>
+      <c r="H3022" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3023">
+      <c r="A3023" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B3023" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3023" s="0">
+        <v>105906</v>
+      </c>
+      <c r="D3023" s="0">
+        <v>0.155550365941247</v>
+      </c>
+      <c r="E3023" s="0">
+        <v>701</v>
+      </c>
+      <c r="F3023" s="0">
+        <v>0.145798668885191</v>
+      </c>
+      <c r="G3023" s="0">
+        <v>82</v>
+      </c>
+      <c r="H3023" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3024">
+      <c r="A3024" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B3024" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3024" s="0">
+        <v>101751</v>
+      </c>
+      <c r="D3024" s="0">
+        <v>0.1494476732658</v>
+      </c>
+      <c r="E3024" s="0">
+        <v>633</v>
+      </c>
+      <c r="F3024" s="0">
+        <v>0.131655574043261</v>
+      </c>
+      <c r="G3024" s="0">
+        <v>272</v>
+      </c>
+      <c r="H3024" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3025">
+      <c r="A3025" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B3025" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3025" s="0">
+        <v>95501</v>
+      </c>
+      <c r="D3025" s="0">
+        <v>0.140267930974213</v>
+      </c>
+      <c r="E3025" s="0">
+        <v>729</v>
+      </c>
+      <c r="F3025" s="0">
+        <v>0.151622296173045</v>
+      </c>
+      <c r="G3025" s="0">
+        <v>707</v>
+      </c>
+      <c r="H3025" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3026">
+      <c r="A3026" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B3026" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3026" s="0">
+        <v>68729</v>
+      </c>
+      <c r="D3026" s="0">
+        <v>0.100946321273355</v>
+      </c>
+      <c r="E3026" s="0">
+        <v>503</v>
+      </c>
+      <c r="F3026" s="0">
+        <v>0.104617304492512</v>
+      </c>
+      <c r="G3026" s="0">
+        <v>1525</v>
+      </c>
+      <c r="H3026" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3027">
+      <c r="A3027" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B3027" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3027" s="0">
+        <v>41225</v>
+      </c>
+      <c r="D3027" s="0">
+        <v>6.05495801553066E-02</v>
+      </c>
+      <c r="E3027" s="0">
+        <v>348</v>
+      </c>
+      <c r="F3027" s="0">
+        <v>7.23793677204659E-02</v>
+      </c>
+      <c r="G3027" s="0">
+        <v>2533</v>
+      </c>
+      <c r="H3027" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3028">
+      <c r="A3028" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B3028" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3028" s="0">
+        <v>21770</v>
+      </c>
+      <c r="D3028" s="0">
+        <v>3.19748783500551E-02</v>
+      </c>
+      <c r="E3028" s="0">
+        <v>171</v>
+      </c>
+      <c r="F3028" s="0">
+        <v>3.55657237936772E-02</v>
+      </c>
+      <c r="G3028" s="0">
+        <v>3190</v>
+      </c>
+      <c r="H3028" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3029">
+      <c r="A3029" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B3029" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3029" s="0">
+        <v>980</v>
+      </c>
+      <c r="D3029" s="0">
+        <v>1.43938359132081E-03</v>
+      </c>
+      <c r="E3029" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3029" s="0">
+        <v>1.24792013311148E-03</v>
+      </c>
+      <c r="G3029" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3029" s="0">
         <v>0</v>
       </c>
     </row>
@@ -84052,11 +84332,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2624</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2635</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2624</Url>
-      <Description>HJYU5V3E37X6-122305290-2624</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2635</Url>
+      <Description>HJYU5V3E37X6-122305290-2635</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -84079,17 +84359,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB5F2987-760F-4DCB-89B4-1A623055AB12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C13540BB-79E4-4E57-9A33-B93B92D3C323}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA4638D-42B4-4D65-ABC5-DBB6A43419F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4BBB72E-FDE6-4B8A-B8E8-D6494AC7D6B4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E1498E4-2172-4B69-BAC6-B4D573645F70}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3872B00-A6AC-46AE-948A-4B48405C3E7A}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC81177C-8E87-45D5-927C-7435395B4205}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7963A30-3032-4230-806B-1781FE1928C1}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3029</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3039</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3029"/>
+  <dimension ref="A1:H3039"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -83900,6 +83900,286 @@
         <v>0</v>
       </c>
       <c r="H3029" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3030">
+      <c r="A3030" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B3030" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3030" s="0">
+        <v>35280</v>
+      </c>
+      <c r="D3030" s="0">
+        <v>5.14795256529422E-02</v>
+      </c>
+      <c r="E3030" s="0">
+        <v>251</v>
+      </c>
+      <c r="F3030" s="0">
+        <v>5.61019222172553E-02</v>
+      </c>
+      <c r="G3030" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3030" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3031">
+      <c r="A3031" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B3031" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3031" s="0">
+        <v>86187</v>
+      </c>
+      <c r="D3031" s="0">
+        <v>0.125761504462872</v>
+      </c>
+      <c r="E3031" s="0">
+        <v>545</v>
+      </c>
+      <c r="F3031" s="0">
+        <v>0.121814930710773</v>
+      </c>
+      <c r="G3031" s="0">
+        <v>3</v>
+      </c>
+      <c r="H3031" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3032">
+      <c r="A3032" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B3032" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3032" s="0">
+        <v>125110</v>
+      </c>
+      <c r="D3032" s="0">
+        <v>0.182556787257358</v>
+      </c>
+      <c r="E3032" s="0">
+        <v>796</v>
+      </c>
+      <c r="F3032" s="0">
+        <v>0.177916852928029</v>
+      </c>
+      <c r="G3032" s="0">
+        <v>39</v>
+      </c>
+      <c r="H3032" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3033">
+      <c r="A3033" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B3033" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3033" s="0">
+        <v>106607</v>
+      </c>
+      <c r="D3033" s="0">
+        <v>0.1555577605239</v>
+      </c>
+      <c r="E3033" s="0">
+        <v>701</v>
+      </c>
+      <c r="F3033" s="0">
+        <v>0.156683057666518</v>
+      </c>
+      <c r="G3033" s="0">
+        <v>83</v>
+      </c>
+      <c r="H3033" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3034">
+      <c r="A3034" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B3034" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3034" s="0">
+        <v>102371</v>
+      </c>
+      <c r="D3034" s="0">
+        <v>0.149376715437</v>
+      </c>
+      <c r="E3034" s="0">
+        <v>620</v>
+      </c>
+      <c r="F3034" s="0">
+        <v>0.13857845328565</v>
+      </c>
+      <c r="G3034" s="0">
+        <v>273</v>
+      </c>
+      <c r="H3034" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3035">
+      <c r="A3035" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B3035" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3035" s="0">
+        <v>96160</v>
+      </c>
+      <c r="D3035" s="0">
+        <v>0.140313809149289</v>
+      </c>
+      <c r="E3035" s="0">
+        <v>659</v>
+      </c>
+      <c r="F3035" s="0">
+        <v>0.147295485024587</v>
+      </c>
+      <c r="G3035" s="0">
+        <v>711</v>
+      </c>
+      <c r="H3035" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3036">
+      <c r="A3036" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B3036" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3036" s="0">
+        <v>69182</v>
+      </c>
+      <c r="D3036" s="0">
+        <v>0.100948314731345</v>
+      </c>
+      <c r="E3036" s="0">
+        <v>453</v>
+      </c>
+      <c r="F3036" s="0">
+        <v>0.101251676352257</v>
+      </c>
+      <c r="G3036" s="0">
+        <v>1533</v>
+      </c>
+      <c r="H3036" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3037">
+      <c r="A3037" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B3037" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3037" s="0">
+        <v>41510</v>
+      </c>
+      <c r="D3037" s="0">
+        <v>6.05701561749895E-02</v>
+      </c>
+      <c r="E3037" s="0">
+        <v>285</v>
+      </c>
+      <c r="F3037" s="0">
+        <v>6.37013857845329E-02</v>
+      </c>
+      <c r="G3037" s="0">
+        <v>2542</v>
+      </c>
+      <c r="H3037" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3038">
+      <c r="A3038" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B3038" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3038" s="0">
+        <v>21902</v>
+      </c>
+      <c r="D3038" s="0">
+        <v>3.19587463393067E-02</v>
+      </c>
+      <c r="E3038" s="0">
+        <v>132</v>
+      </c>
+      <c r="F3038" s="0">
+        <v>2.95037997317836E-02</v>
+      </c>
+      <c r="G3038" s="0">
+        <v>3203</v>
+      </c>
+      <c r="H3038" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3039">
+      <c r="A3039" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B3039" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3039" s="0">
+        <v>1012</v>
+      </c>
+      <c r="D3039" s="0">
+        <v>1.47668027099709E-03</v>
+      </c>
+      <c r="E3039" s="0">
+        <v>32</v>
+      </c>
+      <c r="F3039" s="0">
+        <v>7.15243629861422E-03</v>
+      </c>
+      <c r="G3039" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3039" s="0">
         <v>0</v>
       </c>
     </row>
@@ -84332,11 +84612,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2635</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2646</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2635</Url>
-      <Description>HJYU5V3E37X6-122305290-2635</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2646</Url>
+      <Description>HJYU5V3E37X6-122305290-2646</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -84359,17 +84639,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C13540BB-79E4-4E57-9A33-B93B92D3C323}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69B1E05D-24FF-43F4-99BA-5ECA2396EE3A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4BBB72E-FDE6-4B8A-B8E8-D6494AC7D6B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61863319-AF3C-4799-A173-5A169A69E3AA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3872B00-A6AC-46AE-948A-4B48405C3E7A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837AB361-57A7-44EA-AC69-48BB6405F66F}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7963A30-3032-4230-806B-1781FE1928C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{306BFA19-8402-41F3-AD72-C88782F325E6}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3039</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3049</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3039"/>
+  <dimension ref="A1:H3049"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -84180,6 +84180,286 @@
         <v>0</v>
       </c>
       <c r="H3039" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3040">
+      <c r="A3040" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B3040" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3040" s="0">
+        <v>35401</v>
+      </c>
+      <c r="D3040" s="0">
+        <v>5.14735711034953E-02</v>
+      </c>
+      <c r="E3040" s="0">
+        <v>121</v>
+      </c>
+      <c r="F3040" s="0">
+        <v>4.97942386831276E-02</v>
+      </c>
+      <c r="G3040" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3040" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3041">
+      <c r="A3041" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B3041" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3041" s="0">
+        <v>86463</v>
+      </c>
+      <c r="D3041" s="0">
+        <v>0.125718464967699</v>
+      </c>
+      <c r="E3041" s="0">
+        <v>276</v>
+      </c>
+      <c r="F3041" s="0">
+        <v>0.11358024691358</v>
+      </c>
+      <c r="G3041" s="0">
+        <v>3</v>
+      </c>
+      <c r="H3041" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3042">
+      <c r="A3042" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B3042" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3042" s="0">
+        <v>125540</v>
+      </c>
+      <c r="D3042" s="0">
+        <v>0.182536993766639</v>
+      </c>
+      <c r="E3042" s="0">
+        <v>430</v>
+      </c>
+      <c r="F3042" s="0">
+        <v>0.176954732510288</v>
+      </c>
+      <c r="G3042" s="0">
+        <v>39</v>
+      </c>
+      <c r="H3042" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3043">
+      <c r="A3043" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B3043" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3043" s="0">
+        <v>107013</v>
+      </c>
+      <c r="D3043" s="0">
+        <v>0.155598465142181</v>
+      </c>
+      <c r="E3043" s="0">
+        <v>406</v>
+      </c>
+      <c r="F3043" s="0">
+        <v>0.167078189300412</v>
+      </c>
+      <c r="G3043" s="0">
+        <v>83</v>
+      </c>
+      <c r="H3043" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3044">
+      <c r="A3044" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B3044" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3044" s="0">
+        <v>102724</v>
+      </c>
+      <c r="D3044" s="0">
+        <v>0.149362196492626</v>
+      </c>
+      <c r="E3044" s="0">
+        <v>353</v>
+      </c>
+      <c r="F3044" s="0">
+        <v>0.145267489711934</v>
+      </c>
+      <c r="G3044" s="0">
+        <v>274</v>
+      </c>
+      <c r="H3044" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3045">
+      <c r="A3045" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B3045" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3045" s="0">
+        <v>96526</v>
+      </c>
+      <c r="D3045" s="0">
+        <v>0.140350213958249</v>
+      </c>
+      <c r="E3045" s="0">
+        <v>366</v>
+      </c>
+      <c r="F3045" s="0">
+        <v>0.150617283950617</v>
+      </c>
+      <c r="G3045" s="0">
+        <v>714</v>
+      </c>
+      <c r="H3045" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3046">
+      <c r="A3046" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B3046" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3046" s="0">
+        <v>69441</v>
+      </c>
+      <c r="D3046" s="0">
+        <v>0.100968228326822</v>
+      </c>
+      <c r="E3046" s="0">
+        <v>259</v>
+      </c>
+      <c r="F3046" s="0">
+        <v>0.106584362139918</v>
+      </c>
+      <c r="G3046" s="0">
+        <v>1539</v>
+      </c>
+      <c r="H3046" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3047">
+      <c r="A3047" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B3047" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3047" s="0">
+        <v>41676</v>
+      </c>
+      <c r="D3047" s="0">
+        <v>6.05975127626132E-02</v>
+      </c>
+      <c r="E3047" s="0">
+        <v>166</v>
+      </c>
+      <c r="F3047" s="0">
+        <v>6.83127572016461E-02</v>
+      </c>
+      <c r="G3047" s="0">
+        <v>2558</v>
+      </c>
+      <c r="H3047" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3048">
+      <c r="A3048" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B3048" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3048" s="0">
+        <v>21973</v>
+      </c>
+      <c r="D3048" s="0">
+        <v>3.19490629602865E-02</v>
+      </c>
+      <c r="E3048" s="0">
+        <v>71</v>
+      </c>
+      <c r="F3048" s="0">
+        <v>2.92181069958848E-02</v>
+      </c>
+      <c r="G3048" s="0">
+        <v>3216</v>
+      </c>
+      <c r="H3048" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3049">
+      <c r="A3049" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B3049" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3049" s="0">
+        <v>994</v>
+      </c>
+      <c r="D3049" s="0">
+        <v>1.44529051938856E-03</v>
+      </c>
+      <c r="E3049" s="0">
+        <v>-18</v>
+      </c>
+      <c r="F3049" s="0">
+        <v>-7.40740740740741E-03</v>
+      </c>
+      <c r="G3049" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3049" s="0">
         <v>0</v>
       </c>
     </row>
@@ -84612,11 +84892,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2646</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2657</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2646</Url>
-      <Description>HJYU5V3E37X6-122305290-2646</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2657</Url>
+      <Description>HJYU5V3E37X6-122305290-2657</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -84639,17 +84919,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69B1E05D-24FF-43F4-99BA-5ECA2396EE3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73CA06EE-3C8B-4D5B-8557-E77BAA8E9185}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61863319-AF3C-4799-A173-5A169A69E3AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CC8B3C0-27D6-47D2-9305-99E9F8FCA0AA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837AB361-57A7-44EA-AC69-48BB6405F66F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66BA3007-A8A3-4AE9-A7E5-AAEDC010A173}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{306BFA19-8402-41F3-AD72-C88782F325E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7AFF61E-0568-4E11-B167-CA02BCF1C8F2}"/>
 </file>
--- a/data/tn.xlsx
+++ b/data/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3049</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3009</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3049"/>
+  <dimension ref="A1:H3009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -83340,1126 +83340,6 @@
         <v>0</v>
       </c>
       <c r="H3009" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3010">
-      <c r="A3010" s="1">
-        <v>44211</v>
-      </c>
-      <c r="B3010" s="0" t="inlineStr">
-        <is>
-          <t>0-10 years</t>
-        </is>
-      </c>
-      <c r="C3010" s="0">
-        <v>34723</v>
-      </c>
-      <c r="D3010" s="0">
-        <v>5.13624213987655E-02</v>
-      </c>
-      <c r="E3010" s="0">
-        <v>373</v>
-      </c>
-      <c r="F3010" s="0">
-        <v>6.71225481374843E-02</v>
-      </c>
-      <c r="G3010" s="0">
-        <v>4</v>
-      </c>
-      <c r="H3010" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3011">
-      <c r="A3011" s="1">
-        <v>44211</v>
-      </c>
-      <c r="B3011" s="0" t="inlineStr">
-        <is>
-          <t>11-20 years</t>
-        </is>
-      </c>
-      <c r="C3011" s="0">
-        <v>85040</v>
-      </c>
-      <c r="D3011" s="0">
-        <v>0.125791559362699</v>
-      </c>
-      <c r="E3011" s="0">
-        <v>661</v>
-      </c>
-      <c r="F3011" s="0">
-        <v>0.118949073240957</v>
-      </c>
-      <c r="G3011" s="0">
-        <v>3</v>
-      </c>
-      <c r="H3011" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3012">
-      <c r="A3012" s="1">
-        <v>44211</v>
-      </c>
-      <c r="B3012" s="0" t="inlineStr">
-        <is>
-          <t>21-30 years</t>
-        </is>
-      </c>
-      <c r="C3012" s="0">
-        <v>123505</v>
-      </c>
-      <c r="D3012" s="0">
-        <v>0.182689164382528</v>
-      </c>
-      <c r="E3012" s="0">
-        <v>1007</v>
-      </c>
-      <c r="F3012" s="0">
-        <v>0.181212884649991</v>
-      </c>
-      <c r="G3012" s="0">
-        <v>39</v>
-      </c>
-      <c r="H3012" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3013">
-      <c r="A3013" s="1">
-        <v>44211</v>
-      </c>
-      <c r="B3013" s="0" t="inlineStr">
-        <is>
-          <t>31-40 years</t>
-        </is>
-      </c>
-      <c r="C3013" s="0">
-        <v>105205</v>
-      </c>
-      <c r="D3013" s="0">
-        <v>0.155619720164073</v>
-      </c>
-      <c r="E3013" s="0">
-        <v>774</v>
-      </c>
-      <c r="F3013" s="0">
-        <v>0.139283786215584</v>
-      </c>
-      <c r="G3013" s="0">
-        <v>82</v>
-      </c>
-      <c r="H3013" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3014">
-      <c r="A3014" s="1">
-        <v>44211</v>
-      </c>
-      <c r="B3014" s="0" t="inlineStr">
-        <is>
-          <t>41-50 years</t>
-        </is>
-      </c>
-      <c r="C3014" s="0">
-        <v>101118</v>
-      </c>
-      <c r="D3014" s="0">
-        <v>0.149574210955285</v>
-      </c>
-      <c r="E3014" s="0">
-        <v>797</v>
-      </c>
-      <c r="F3014" s="0">
-        <v>0.143422710095375</v>
-      </c>
-      <c r="G3014" s="0">
-        <v>272</v>
-      </c>
-      <c r="H3014" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3015">
-      <c r="A3015" s="1">
-        <v>44211</v>
-      </c>
-      <c r="B3015" s="0" t="inlineStr">
-        <is>
-          <t>51-60 years</t>
-        </is>
-      </c>
-      <c r="C3015" s="0">
-        <v>94772</v>
-      </c>
-      <c r="D3015" s="0">
-        <v>0.14018717855035</v>
-      </c>
-      <c r="E3015" s="0">
-        <v>780</v>
-      </c>
-      <c r="F3015" s="0">
-        <v>0.140363505488573</v>
-      </c>
-      <c r="G3015" s="0">
-        <v>703</v>
-      </c>
-      <c r="H3015" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3016">
-      <c r="A3016" s="1">
-        <v>44211</v>
-      </c>
-      <c r="B3016" s="0" t="inlineStr">
-        <is>
-          <t>61-70 years</t>
-        </is>
-      </c>
-      <c r="C3016" s="0">
-        <v>68226</v>
-      </c>
-      <c r="D3016" s="0">
-        <v>0.100920213182967</v>
-      </c>
-      <c r="E3016" s="0">
-        <v>575</v>
-      </c>
-      <c r="F3016" s="0">
-        <v>0.103473096994781</v>
-      </c>
-      <c r="G3016" s="0">
-        <v>1516</v>
-      </c>
-      <c r="H3016" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3017">
-      <c r="A3017" s="1">
-        <v>44211</v>
-      </c>
-      <c r="B3017" s="0" t="inlineStr">
-        <is>
-          <t>71-80 years</t>
-        </is>
-      </c>
-      <c r="C3017" s="0">
-        <v>40877</v>
-      </c>
-      <c r="D3017" s="0">
-        <v>6.04654465200972E-02</v>
-      </c>
-      <c r="E3017" s="0">
-        <v>366</v>
-      </c>
-      <c r="F3017" s="0">
-        <v>6.58628756523304E-02</v>
-      </c>
-      <c r="G3017" s="0">
-        <v>2522</v>
-      </c>
-      <c r="H3017" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3018">
-      <c r="A3018" s="1">
-        <v>44211</v>
-      </c>
-      <c r="B3018" s="0" t="inlineStr">
-        <is>
-          <t>81+ years</t>
-        </is>
-      </c>
-      <c r="C3018" s="0">
-        <v>21599</v>
-      </c>
-      <c r="D3018" s="0">
-        <v>3.19493402007872E-02</v>
-      </c>
-      <c r="E3018" s="0">
-        <v>228</v>
-      </c>
-      <c r="F3018" s="0">
-        <v>4.10293323735829E-02</v>
-      </c>
-      <c r="G3018" s="0">
-        <v>3170</v>
-      </c>
-      <c r="H3018" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3019">
-      <c r="A3019" s="1">
-        <v>44211</v>
-      </c>
-      <c r="B3019" s="0" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C3019" s="0">
-        <v>974</v>
-      </c>
-      <c r="D3019" s="0">
-        <v>1.44074528244672E-03</v>
-      </c>
-      <c r="E3019" s="0">
-        <v>-4</v>
-      </c>
-      <c r="F3019" s="0">
-        <v>-7.19812848659349E-04</v>
-      </c>
-      <c r="G3019" s="0">
-        <v>0</v>
-      </c>
-      <c r="H3019" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3020">
-      <c r="A3020" s="1">
-        <v>44212</v>
-      </c>
-      <c r="B3020" s="0" t="inlineStr">
-        <is>
-          <t>0-10 years</t>
-        </is>
-      </c>
-      <c r="C3020" s="0">
-        <v>35029</v>
-      </c>
-      <c r="D3020" s="0">
-        <v>5.14491508371191E-02</v>
-      </c>
-      <c r="E3020" s="0">
-        <v>306</v>
-      </c>
-      <c r="F3020" s="0">
-        <v>6.36439267886855E-02</v>
-      </c>
-      <c r="G3020" s="0">
-        <v>4</v>
-      </c>
-      <c r="H3020" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3021">
-      <c r="A3021" s="1">
-        <v>44212</v>
-      </c>
-      <c r="B3021" s="0" t="inlineStr">
-        <is>
-          <t>11-20 years</t>
-        </is>
-      </c>
-      <c r="C3021" s="0">
-        <v>85642</v>
-      </c>
-      <c r="D3021" s="0">
-        <v>0.125787438293772</v>
-      </c>
-      <c r="E3021" s="0">
-        <v>602</v>
-      </c>
-      <c r="F3021" s="0">
-        <v>0.125207986688852</v>
-      </c>
-      <c r="G3021" s="0">
-        <v>3</v>
-      </c>
-      <c r="H3021" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3022">
-      <c r="A3022" s="1">
-        <v>44212</v>
-      </c>
-      <c r="B3022" s="0" t="inlineStr">
-        <is>
-          <t>21-30 years</t>
-        </is>
-      </c>
-      <c r="C3022" s="0">
-        <v>124314</v>
-      </c>
-      <c r="D3022" s="0">
-        <v>0.182587277317811</v>
-      </c>
-      <c r="E3022" s="0">
-        <v>809</v>
-      </c>
-      <c r="F3022" s="0">
-        <v>0.168261231281198</v>
-      </c>
-      <c r="G3022" s="0">
-        <v>39</v>
-      </c>
-      <c r="H3022" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3023">
-      <c r="A3023" s="1">
-        <v>44212</v>
-      </c>
-      <c r="B3023" s="0" t="inlineStr">
-        <is>
-          <t>31-40 years</t>
-        </is>
-      </c>
-      <c r="C3023" s="0">
-        <v>105906</v>
-      </c>
-      <c r="D3023" s="0">
-        <v>0.155550365941247</v>
-      </c>
-      <c r="E3023" s="0">
-        <v>701</v>
-      </c>
-      <c r="F3023" s="0">
-        <v>0.145798668885191</v>
-      </c>
-      <c r="G3023" s="0">
-        <v>82</v>
-      </c>
-      <c r="H3023" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3024">
-      <c r="A3024" s="1">
-        <v>44212</v>
-      </c>
-      <c r="B3024" s="0" t="inlineStr">
-        <is>
-          <t>41-50 years</t>
-        </is>
-      </c>
-      <c r="C3024" s="0">
-        <v>101751</v>
-      </c>
-      <c r="D3024" s="0">
-        <v>0.1494476732658</v>
-      </c>
-      <c r="E3024" s="0">
-        <v>633</v>
-      </c>
-      <c r="F3024" s="0">
-        <v>0.131655574043261</v>
-      </c>
-      <c r="G3024" s="0">
-        <v>272</v>
-      </c>
-      <c r="H3024" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3025">
-      <c r="A3025" s="1">
-        <v>44212</v>
-      </c>
-      <c r="B3025" s="0" t="inlineStr">
-        <is>
-          <t>51-60 years</t>
-        </is>
-      </c>
-      <c r="C3025" s="0">
-        <v>95501</v>
-      </c>
-      <c r="D3025" s="0">
-        <v>0.140267930974213</v>
-      </c>
-      <c r="E3025" s="0">
-        <v>729</v>
-      </c>
-      <c r="F3025" s="0">
-        <v>0.151622296173045</v>
-      </c>
-      <c r="G3025" s="0">
-        <v>707</v>
-      </c>
-      <c r="H3025" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3026">
-      <c r="A3026" s="1">
-        <v>44212</v>
-      </c>
-      <c r="B3026" s="0" t="inlineStr">
-        <is>
-          <t>61-70 years</t>
-        </is>
-      </c>
-      <c r="C3026" s="0">
-        <v>68729</v>
-      </c>
-      <c r="D3026" s="0">
-        <v>0.100946321273355</v>
-      </c>
-      <c r="E3026" s="0">
-        <v>503</v>
-      </c>
-      <c r="F3026" s="0">
-        <v>0.104617304492512</v>
-      </c>
-      <c r="G3026" s="0">
-        <v>1525</v>
-      </c>
-      <c r="H3026" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3027">
-      <c r="A3027" s="1">
-        <v>44212</v>
-      </c>
-      <c r="B3027" s="0" t="inlineStr">
-        <is>
-          <t>71-80 years</t>
-        </is>
-      </c>
-      <c r="C3027" s="0">
-        <v>41225</v>
-      </c>
-      <c r="D3027" s="0">
-        <v>6.05495801553066E-02</v>
-      </c>
-      <c r="E3027" s="0">
-        <v>348</v>
-      </c>
-      <c r="F3027" s="0">
-        <v>7.23793677204659E-02</v>
-      </c>
-      <c r="G3027" s="0">
-        <v>2533</v>
-      </c>
-      <c r="H3027" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3028">
-      <c r="A3028" s="1">
-        <v>44212</v>
-      </c>
-      <c r="B3028" s="0" t="inlineStr">
-        <is>
-          <t>81+ years</t>
-        </is>
-      </c>
-      <c r="C3028" s="0">
-        <v>21770</v>
-      </c>
-      <c r="D3028" s="0">
-        <v>3.19748783500551E-02</v>
-      </c>
-      <c r="E3028" s="0">
-        <v>171</v>
-      </c>
-      <c r="F3028" s="0">
-        <v>3.55657237936772E-02</v>
-      </c>
-      <c r="G3028" s="0">
-        <v>3190</v>
-      </c>
-      <c r="H3028" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3029">
-      <c r="A3029" s="1">
-        <v>44212</v>
-      </c>
-      <c r="B3029" s="0" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C3029" s="0">
-        <v>980</v>
-      </c>
-      <c r="D3029" s="0">
-        <v>1.43938359132081E-03</v>
-      </c>
-      <c r="E3029" s="0">
-        <v>6</v>
-      </c>
-      <c r="F3029" s="0">
-        <v>1.24792013311148E-03</v>
-      </c>
-      <c r="G3029" s="0">
-        <v>0</v>
-      </c>
-      <c r="H3029" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3030">
-      <c r="A3030" s="1">
-        <v>44213</v>
-      </c>
-      <c r="B3030" s="0" t="inlineStr">
-        <is>
-          <t>0-10 years</t>
-        </is>
-      </c>
-      <c r="C3030" s="0">
-        <v>35280</v>
-      </c>
-      <c r="D3030" s="0">
-        <v>5.14795256529422E-02</v>
-      </c>
-      <c r="E3030" s="0">
-        <v>251</v>
-      </c>
-      <c r="F3030" s="0">
-        <v>5.61019222172553E-02</v>
-      </c>
-      <c r="G3030" s="0">
-        <v>4</v>
-      </c>
-      <c r="H3030" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3031">
-      <c r="A3031" s="1">
-        <v>44213</v>
-      </c>
-      <c r="B3031" s="0" t="inlineStr">
-        <is>
-          <t>11-20 years</t>
-        </is>
-      </c>
-      <c r="C3031" s="0">
-        <v>86187</v>
-      </c>
-      <c r="D3031" s="0">
-        <v>0.125761504462872</v>
-      </c>
-      <c r="E3031" s="0">
-        <v>545</v>
-      </c>
-      <c r="F3031" s="0">
-        <v>0.121814930710773</v>
-      </c>
-      <c r="G3031" s="0">
-        <v>3</v>
-      </c>
-      <c r="H3031" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3032">
-      <c r="A3032" s="1">
-        <v>44213</v>
-      </c>
-      <c r="B3032" s="0" t="inlineStr">
-        <is>
-          <t>21-30 years</t>
-        </is>
-      </c>
-      <c r="C3032" s="0">
-        <v>125110</v>
-      </c>
-      <c r="D3032" s="0">
-        <v>0.182556787257358</v>
-      </c>
-      <c r="E3032" s="0">
-        <v>796</v>
-      </c>
-      <c r="F3032" s="0">
-        <v>0.177916852928029</v>
-      </c>
-      <c r="G3032" s="0">
-        <v>39</v>
-      </c>
-      <c r="H3032" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3033">
-      <c r="A3033" s="1">
-        <v>44213</v>
-      </c>
-      <c r="B3033" s="0" t="inlineStr">
-        <is>
-          <t>31-40 years</t>
-        </is>
-      </c>
-      <c r="C3033" s="0">
-        <v>106607</v>
-      </c>
-      <c r="D3033" s="0">
-        <v>0.1555577605239</v>
-      </c>
-      <c r="E3033" s="0">
-        <v>701</v>
-      </c>
-      <c r="F3033" s="0">
-        <v>0.156683057666518</v>
-      </c>
-      <c r="G3033" s="0">
-        <v>83</v>
-      </c>
-      <c r="H3033" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3034">
-      <c r="A3034" s="1">
-        <v>44213</v>
-      </c>
-      <c r="B3034" s="0" t="inlineStr">
-        <is>
-          <t>41-50 years</t>
-        </is>
-      </c>
-      <c r="C3034" s="0">
-        <v>102371</v>
-      </c>
-      <c r="D3034" s="0">
-        <v>0.149376715437</v>
-      </c>
-      <c r="E3034" s="0">
-        <v>620</v>
-      </c>
-      <c r="F3034" s="0">
-        <v>0.13857845328565</v>
-      </c>
-      <c r="G3034" s="0">
-        <v>273</v>
-      </c>
-      <c r="H3034" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3035">
-      <c r="A3035" s="1">
-        <v>44213</v>
-      </c>
-      <c r="B3035" s="0" t="inlineStr">
-        <is>
-          <t>51-60 years</t>
-        </is>
-      </c>
-      <c r="C3035" s="0">
-        <v>96160</v>
-      </c>
-      <c r="D3035" s="0">
-        <v>0.140313809149289</v>
-      </c>
-      <c r="E3035" s="0">
-        <v>659</v>
-      </c>
-      <c r="F3035" s="0">
-        <v>0.147295485024587</v>
-      </c>
-      <c r="G3035" s="0">
-        <v>711</v>
-      </c>
-      <c r="H3035" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3036">
-      <c r="A3036" s="1">
-        <v>44213</v>
-      </c>
-      <c r="B3036" s="0" t="inlineStr">
-        <is>
-          <t>61-70 years</t>
-        </is>
-      </c>
-      <c r="C3036" s="0">
-        <v>69182</v>
-      </c>
-      <c r="D3036" s="0">
-        <v>0.100948314731345</v>
-      </c>
-      <c r="E3036" s="0">
-        <v>453</v>
-      </c>
-      <c r="F3036" s="0">
-        <v>0.101251676352257</v>
-      </c>
-      <c r="G3036" s="0">
-        <v>1533</v>
-      </c>
-      <c r="H3036" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3037">
-      <c r="A3037" s="1">
-        <v>44213</v>
-      </c>
-      <c r="B3037" s="0" t="inlineStr">
-        <is>
-          <t>71-80 years</t>
-        </is>
-      </c>
-      <c r="C3037" s="0">
-        <v>41510</v>
-      </c>
-      <c r="D3037" s="0">
-        <v>6.05701561749895E-02</v>
-      </c>
-      <c r="E3037" s="0">
-        <v>285</v>
-      </c>
-      <c r="F3037" s="0">
-        <v>6.37013857845329E-02</v>
-      </c>
-      <c r="G3037" s="0">
-        <v>2542</v>
-      </c>
-      <c r="H3037" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3038">
-      <c r="A3038" s="1">
-        <v>44213</v>
-      </c>
-      <c r="B3038" s="0" t="inlineStr">
-        <is>
-          <t>81+ years</t>
-        </is>
-      </c>
-      <c r="C3038" s="0">
-        <v>21902</v>
-      </c>
-      <c r="D3038" s="0">
-        <v>3.19587463393067E-02</v>
-      </c>
-      <c r="E3038" s="0">
-        <v>132</v>
-      </c>
-      <c r="F3038" s="0">
-        <v>2.95037997317836E-02</v>
-      </c>
-      <c r="G3038" s="0">
-        <v>3203</v>
-      </c>
-      <c r="H3038" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3039">
-      <c r="A3039" s="1">
-        <v>44213</v>
-      </c>
-      <c r="B3039" s="0" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C3039" s="0">
-        <v>1012</v>
-      </c>
-      <c r="D3039" s="0">
-        <v>1.47668027099709E-03</v>
-      </c>
-      <c r="E3039" s="0">
-        <v>32</v>
-      </c>
-      <c r="F3039" s="0">
-        <v>7.15243629861422E-03</v>
-      </c>
-      <c r="G3039" s="0">
-        <v>0</v>
-      </c>
-      <c r="H3039" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3040">
-      <c r="A3040" s="1">
-        <v>44214</v>
-      </c>
-      <c r="B3040" s="0" t="inlineStr">
-        <is>
-          <t>0-10 years</t>
-        </is>
-      </c>
-      <c r="C3040" s="0">
-        <v>35401</v>
-      </c>
-      <c r="D3040" s="0">
-        <v>5.14735711034953E-02</v>
-      </c>
-      <c r="E3040" s="0">
-        <v>121</v>
-      </c>
-      <c r="F3040" s="0">
-        <v>4.97942386831276E-02</v>
-      </c>
-      <c r="G3040" s="0">
-        <v>4</v>
-      </c>
-      <c r="H3040" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3041">
-      <c r="A3041" s="1">
-        <v>44214</v>
-      </c>
-      <c r="B3041" s="0" t="inlineStr">
-        <is>
-          <t>11-20 years</t>
-        </is>
-      </c>
-      <c r="C3041" s="0">
-        <v>86463</v>
-      </c>
-      <c r="D3041" s="0">
-        <v>0.125718464967699</v>
-      </c>
-      <c r="E3041" s="0">
-        <v>276</v>
-      </c>
-      <c r="F3041" s="0">
-        <v>0.11358024691358</v>
-      </c>
-      <c r="G3041" s="0">
-        <v>3</v>
-      </c>
-      <c r="H3041" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3042">
-      <c r="A3042" s="1">
-        <v>44214</v>
-      </c>
-      <c r="B3042" s="0" t="inlineStr">
-        <is>
-          <t>21-30 years</t>
-        </is>
-      </c>
-      <c r="C3042" s="0">
-        <v>125540</v>
-      </c>
-      <c r="D3042" s="0">
-        <v>0.182536993766639</v>
-      </c>
-      <c r="E3042" s="0">
-        <v>430</v>
-      </c>
-      <c r="F3042" s="0">
-        <v>0.176954732510288</v>
-      </c>
-      <c r="G3042" s="0">
-        <v>39</v>
-      </c>
-      <c r="H3042" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3043">
-      <c r="A3043" s="1">
-        <v>44214</v>
-      </c>
-      <c r="B3043" s="0" t="inlineStr">
-        <is>
-          <t>31-40 years</t>
-        </is>
-      </c>
-      <c r="C3043" s="0">
-        <v>107013</v>
-      </c>
-      <c r="D3043" s="0">
-        <v>0.155598465142181</v>
-      </c>
-      <c r="E3043" s="0">
-        <v>406</v>
-      </c>
-      <c r="F3043" s="0">
-        <v>0.167078189300412</v>
-      </c>
-      <c r="G3043" s="0">
-        <v>83</v>
-      </c>
-      <c r="H3043" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3044">
-      <c r="A3044" s="1">
-        <v>44214</v>
-      </c>
-      <c r="B3044" s="0" t="inlineStr">
-        <is>
-          <t>41-50 years</t>
-        </is>
-      </c>
-      <c r="C3044" s="0">
-        <v>102724</v>
-      </c>
-      <c r="D3044" s="0">
-        <v>0.149362196492626</v>
-      </c>
-      <c r="E3044" s="0">
-        <v>353</v>
-      </c>
-      <c r="F3044" s="0">
-        <v>0.145267489711934</v>
-      </c>
-      <c r="G3044" s="0">
-        <v>274</v>
-      </c>
-      <c r="H3044" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3045">
-      <c r="A3045" s="1">
-        <v>44214</v>
-      </c>
-      <c r="B3045" s="0" t="inlineStr">
-        <is>
-          <t>51-60 years</t>
-        </is>
-      </c>
-      <c r="C3045" s="0">
-        <v>96526</v>
-      </c>
-      <c r="D3045" s="0">
-        <v>0.140350213958249</v>
-      </c>
-      <c r="E3045" s="0">
-        <v>366</v>
-      </c>
-      <c r="F3045" s="0">
-        <v>0.150617283950617</v>
-      </c>
-      <c r="G3045" s="0">
-        <v>714</v>
-      </c>
-      <c r="H3045" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3046">
-      <c r="A3046" s="1">
-        <v>44214</v>
-      </c>
-      <c r="B3046" s="0" t="inlineStr">
-        <is>
-          <t>61-70 years</t>
-        </is>
-      </c>
-      <c r="C3046" s="0">
-        <v>69441</v>
-      </c>
-      <c r="D3046" s="0">
-        <v>0.100968228326822</v>
-      </c>
-      <c r="E3046" s="0">
-        <v>259</v>
-      </c>
-      <c r="F3046" s="0">
-        <v>0.106584362139918</v>
-      </c>
-      <c r="G3046" s="0">
-        <v>1539</v>
-      </c>
-      <c r="H3046" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3047">
-      <c r="A3047" s="1">
-        <v>44214</v>
-      </c>
-      <c r="B3047" s="0" t="inlineStr">
-        <is>
-          <t>71-80 years</t>
-        </is>
-      </c>
-      <c r="C3047" s="0">
-        <v>41676</v>
-      </c>
-      <c r="D3047" s="0">
-        <v>6.05975127626132E-02</v>
-      </c>
-      <c r="E3047" s="0">
-        <v>166</v>
-      </c>
-      <c r="F3047" s="0">
-        <v>6.83127572016461E-02</v>
-      </c>
-      <c r="G3047" s="0">
-        <v>2558</v>
-      </c>
-      <c r="H3047" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3048">
-      <c r="A3048" s="1">
-        <v>44214</v>
-      </c>
-      <c r="B3048" s="0" t="inlineStr">
-        <is>
-          <t>81+ years</t>
-        </is>
-      </c>
-      <c r="C3048" s="0">
-        <v>21973</v>
-      </c>
-      <c r="D3048" s="0">
-        <v>3.19490629602865E-02</v>
-      </c>
-      <c r="E3048" s="0">
-        <v>71</v>
-      </c>
-      <c r="F3048" s="0">
-        <v>2.92181069958848E-02</v>
-      </c>
-      <c r="G3048" s="0">
-        <v>3216</v>
-      </c>
-      <c r="H3048" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3049">
-      <c r="A3049" s="1">
-        <v>44214</v>
-      </c>
-      <c r="B3049" s="0" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C3049" s="0">
-        <v>994</v>
-      </c>
-      <c r="D3049" s="0">
-        <v>1.44529051938856E-03</v>
-      </c>
-      <c r="E3049" s="0">
-        <v>-18</v>
-      </c>
-      <c r="F3049" s="0">
-        <v>-7.40740740740741E-03</v>
-      </c>
-      <c r="G3049" s="0">
-        <v>0</v>
-      </c>
-      <c r="H3049" s="0">
         <v>0</v>
       </c>
     </row>
@@ -84891,13 +83771,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2657</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2657</Url>
-      <Description>HJYU5V3E37X6-122305290-2657</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -84912,24 +83785,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2612</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2612</Url>
+      <Description>HJYU5V3E37X6-122305290-2612</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73CA06EE-3C8B-4D5B-8557-E77BAA8E9185}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD40D508-F3D9-40B4-9402-203022C606F4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CC8B3C0-27D6-47D2-9305-99E9F8FCA0AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{333FCD02-4EB1-4D1E-A6F5-9424787D3ACE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66BA3007-A8A3-4AE9-A7E5-AAEDC010A173}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{819E62C1-694C-4661-BCA4-68494A9E510D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7AFF61E-0568-4E11-B167-CA02BCF1C8F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8013BC1-D73D-4300-98A0-DF0659A552A7}"/>
 </file>